--- a/examples/eCommerce_results.xlsx
+++ b/examples/eCommerce_results.xlsx
@@ -509,16 +509,16 @@
         <v>-11487.53434553597</v>
       </c>
       <c r="D2" t="n">
-        <v>-9817.821694544491</v>
+        <v>-10627.59116089965</v>
       </c>
       <c r="E2" t="n">
         <v>-7083.869999999968</v>
       </c>
       <c r="F2" t="n">
-        <v>-9131.595243768945</v>
+        <v>-7507.877831064385</v>
       </c>
       <c r="G2" t="n">
-        <v>-8274.872318280626</v>
+        <v>-4571.676064843757</v>
       </c>
       <c r="H2" t="n">
         <v>-10342.42218163943</v>
@@ -527,10 +527,10 @@
         <v>-6259.514287888329</v>
       </c>
       <c r="J2" t="n">
-        <v>-9407.777550675431</v>
+        <v>-9244.987961405554</v>
       </c>
       <c r="K2" t="n">
-        <v>-8857.738137408869</v>
+        <v>-8289.367401629037</v>
       </c>
     </row>
     <row r="3">
@@ -541,19 +541,19 @@
         <v>72700.56188607874</v>
       </c>
       <c r="C3" t="n">
-        <v>8891.797464296696</v>
+        <v>8891.797464296695</v>
       </c>
       <c r="D3" t="n">
-        <v>11123.65743321219</v>
+        <v>11085.63133606031</v>
       </c>
       <c r="E3" t="n">
-        <v>13676.87600000001</v>
+        <v>22787.20000000018</v>
       </c>
       <c r="F3" t="n">
-        <v>13925.82344756086</v>
+        <v>14394.62534368738</v>
       </c>
       <c r="G3" t="n">
-        <v>14646.53336374786</v>
+        <v>11894.66378932362</v>
       </c>
       <c r="H3" t="n">
         <v>3748.19599837652</v>
@@ -562,10 +562,10 @@
         <v>2990.428511025706</v>
       </c>
       <c r="J3" t="n">
-        <v>8135.980570894394</v>
+        <v>8222.135730689322</v>
       </c>
       <c r="K3" t="n">
-        <v>8111.227493846589</v>
+        <v>8281.853985854583</v>
       </c>
     </row>
     <row r="4">
@@ -576,19 +576,19 @@
         <v>65978.09287948275</v>
       </c>
       <c r="C4" t="n">
-        <v>-7029.246055879107</v>
+        <v>-7029.246055879106</v>
       </c>
       <c r="D4" t="n">
-        <v>-9480.728042791152</v>
+        <v>-10625.43036449593</v>
       </c>
       <c r="E4" t="n">
-        <v>-18048.73400000003</v>
+        <v>-25321.23600000008</v>
       </c>
       <c r="F4" t="n">
-        <v>-21684.65338635194</v>
+        <v>-25081.35476693225</v>
       </c>
       <c r="G4" t="n">
-        <v>-28230.77689732065</v>
+        <v>-26314.89521612351</v>
       </c>
       <c r="H4" t="n">
         <v>6132.943434109591</v>
@@ -597,10 +597,10 @@
         <v>4483.544525125417</v>
       </c>
       <c r="J4" t="n">
-        <v>-5515.627905157437</v>
+        <v>-6423.908645614456</v>
       </c>
       <c r="K4" t="n">
-        <v>-6590.216247333859</v>
+        <v>-7873.830164270132</v>
       </c>
     </row>
     <row r="5">
@@ -611,19 +611,19 @@
         <v>70866.33913328004</v>
       </c>
       <c r="C5" t="n">
-        <v>7946.950578979734</v>
+        <v>7946.950578979733</v>
       </c>
       <c r="D5" t="n">
-        <v>6221.879945020008</v>
+        <v>9724.5040637821</v>
       </c>
       <c r="E5" t="n">
-        <v>6771.357999999849</v>
+        <v>7313.675999999794</v>
       </c>
       <c r="F5" t="n">
-        <v>4103.4494399982</v>
+        <v>6116.56586196482</v>
       </c>
       <c r="G5" t="n">
-        <v>9256.545816549096</v>
+        <v>7906.574597274493</v>
       </c>
       <c r="H5" t="n">
         <v>-5775.200119833476</v>
@@ -632,10 +632,10 @@
         <v>-3711.755670806902</v>
       </c>
       <c r="J5" t="n">
-        <v>1757.064834671513</v>
+        <v>2860.212942817255</v>
       </c>
       <c r="K5" t="n">
-        <v>432.4342296856585</v>
+        <v>1287.331055032155</v>
       </c>
     </row>
     <row r="6">
@@ -646,19 +646,19 @@
         <v>70525.49348464671</v>
       </c>
       <c r="C6" t="n">
-        <v>1231.839191227304</v>
+        <v>1231.839191227305</v>
       </c>
       <c r="D6" t="n">
-        <v>1877.587930455259</v>
+        <v>1647.73035455561</v>
       </c>
       <c r="E6" t="n">
-        <v>-3260.984000000074</v>
+        <v>-3696.014000000015</v>
       </c>
       <c r="F6" t="n">
-        <v>6049.893941008648</v>
+        <v>5147.895932813582</v>
       </c>
       <c r="G6" t="n">
-        <v>-346.1377081046683</v>
+        <v>4595.88912928866</v>
       </c>
       <c r="H6" t="n">
         <v>6398.084741901293</v>
@@ -667,10 +667,10 @@
         <v>5183.23384238588</v>
       </c>
       <c r="J6" t="n">
-        <v>4148.127929395677</v>
+        <v>3921.756812576733</v>
       </c>
       <c r="K6" t="n">
-        <v>5172.795152084455</v>
+        <v>4834.400629882943</v>
       </c>
     </row>
     <row r="7">
@@ -684,16 +684,16 @@
         <v>-4451.744267328432</v>
       </c>
       <c r="D7" t="n">
-        <v>-2034.165483704653</v>
+        <v>-4594.303080085851</v>
       </c>
       <c r="E7" t="n">
         <v>-4170.407999999925</v>
       </c>
       <c r="F7" t="n">
-        <v>-2420.926606737781</v>
+        <v>-2255.705932201194</v>
       </c>
       <c r="G7" t="n">
-        <v>10180.29389050417</v>
+        <v>-6894.599965952433</v>
       </c>
       <c r="H7" t="n">
         <v>-10346.18381169391</v>
@@ -702,10 +702,10 @@
         <v>-7658.493341794066</v>
       </c>
       <c r="J7" t="n">
-        <v>-5382.302702251768</v>
+        <v>-5861.286086620691</v>
       </c>
       <c r="K7" t="n">
-        <v>-5713.991978962758</v>
+        <v>-5738.748984845383</v>
       </c>
     </row>
     <row r="8">
@@ -716,19 +716,19 @@
         <v>70534.10269972747</v>
       </c>
       <c r="C8" t="n">
-        <v>3717.521416807759</v>
+        <v>3717.521416807758</v>
       </c>
       <c r="D8" t="n">
-        <v>6077.933936691155</v>
+        <v>5384.409442786105</v>
       </c>
       <c r="E8" t="n">
         <v>20116.04400000005</v>
       </c>
       <c r="F8" t="n">
-        <v>5154.541880040789</v>
+        <v>6058.613373567395</v>
       </c>
       <c r="G8" t="n">
-        <v>435.9351861460988</v>
+        <v>5396.47011186994</v>
       </c>
       <c r="H8" t="n">
         <v>3744.434368239299</v>
@@ -737,10 +737,10 @@
         <v>1703.190439685591</v>
       </c>
       <c r="J8" t="n">
-        <v>4079.524408292919</v>
+        <v>4121.63380821723</v>
       </c>
       <c r="K8" t="n">
-        <v>3757.764817424343</v>
+        <v>4066.14021525393</v>
       </c>
     </row>
     <row r="9">
@@ -751,19 +751,19 @@
         <v>68022.6972562833</v>
       </c>
       <c r="C9" t="n">
-        <v>-2061.376696572128</v>
+        <v>-2061.376696572127</v>
       </c>
       <c r="D9" t="n">
-        <v>-5525.878543049791</v>
+        <v>-4247.252596117897</v>
       </c>
       <c r="E9" t="n">
-        <v>-16174.05200000005</v>
+        <v>-11741.89600000006</v>
       </c>
       <c r="F9" t="n">
-        <v>-10889.74877853456</v>
+        <v>-12369.96551964506</v>
       </c>
       <c r="G9" t="n">
-        <v>-1043.766343689437</v>
+        <v>-11316.24353281312</v>
       </c>
       <c r="H9" t="n">
         <v>6129.181804013957</v>
@@ -772,10 +772,10 @@
         <v>3444.719369290877</v>
       </c>
       <c r="J9" t="n">
-        <v>-1780.620568970328</v>
+        <v>-1820.93872780605</v>
       </c>
       <c r="K9" t="n">
-        <v>-2215.757602729205</v>
+        <v>-2715.882876238661</v>
       </c>
     </row>
     <row r="10">
@@ -786,19 +786,19 @@
         <v>69475.65481579477</v>
       </c>
       <c r="C10" t="n">
-        <v>6434.166385171146</v>
+        <v>6434.166385171145</v>
       </c>
       <c r="D10" t="n">
-        <v>5864.208038679799</v>
+        <v>7312.218363506367</v>
       </c>
       <c r="E10" t="n">
-        <v>9111.943999999814</v>
+        <v>7169.909999999823</v>
       </c>
       <c r="F10" t="n">
-        <v>7968.565115099487</v>
+        <v>6485.724302796223</v>
       </c>
       <c r="G10" t="n">
-        <v>7664.546358769766</v>
+        <v>11478.9093369146</v>
       </c>
       <c r="H10" t="n">
         <v>-5778.96174990156</v>
@@ -807,10 +807,10 @@
         <v>-4401.157666628116</v>
       </c>
       <c r="J10" t="n">
-        <v>2017.364024484151</v>
+        <v>2010.397926988812</v>
       </c>
       <c r="K10" t="n">
-        <v>1465.14653290416</v>
+        <v>969.7052458871827</v>
       </c>
     </row>
     <row r="11">
@@ -821,19 +821,19 @@
         <v>69210.39532813423</v>
       </c>
       <c r="C11" t="n">
-        <v>-35.19859305712134</v>
+        <v>-35.19859305712043</v>
       </c>
       <c r="D11" t="n">
-        <v>361.129950995437</v>
+        <v>526.4381607639843</v>
       </c>
       <c r="E11" t="n">
         <v>-5994.753999999954</v>
       </c>
       <c r="F11" t="n">
-        <v>1219.561789646132</v>
+        <v>2041.417594449117</v>
       </c>
       <c r="G11" t="n">
-        <v>-3105.660430195118</v>
+        <v>-8823.96777672901</v>
       </c>
       <c r="H11" t="n">
         <v>6394.32311183421</v>
@@ -842,10 +842,10 @@
         <v>4876.53523638085</v>
       </c>
       <c r="J11" t="n">
-        <v>2563.270299159902</v>
+        <v>2760.703102074208</v>
       </c>
       <c r="K11" t="n">
-        <v>3115.653424721515</v>
+        <v>3422.510826808228</v>
       </c>
     </row>
     <row r="12">
@@ -859,16 +859,16 @@
         <v>-3159.080399200237</v>
       </c>
       <c r="D12" t="n">
-        <v>-1016.392422203189</v>
+        <v>-2881.857055170551</v>
       </c>
       <c r="E12" t="n">
-        <v>-4170.407999999925</v>
+        <v>2161.99600000022</v>
       </c>
       <c r="F12" t="n">
-        <v>-3729.317595370837</v>
+        <v>-3441.3844744006</v>
       </c>
       <c r="G12" t="n">
-        <v>3623.665802971697</v>
+        <v>9232.149467200266</v>
       </c>
       <c r="H12" t="n">
         <v>-10349.94544177532</v>
@@ -877,10 +877,10 @@
         <v>-7974.217561275682</v>
       </c>
       <c r="J12" t="n">
-        <v>-5245.790683965053</v>
+        <v>-5561.296986364478</v>
       </c>
       <c r="K12" t="n">
-        <v>-6099.206309665948</v>
+        <v>-6055.812986409106</v>
       </c>
     </row>
     <row r="13">
@@ -894,16 +894,16 @@
         <v>1999.441840852341</v>
       </c>
       <c r="D13" t="n">
-        <v>3749.197340487443</v>
+        <v>2986.337729550241</v>
       </c>
       <c r="E13" t="n">
         <v>20116.04400000005</v>
       </c>
       <c r="F13" t="n">
-        <v>3206.156462461655</v>
+        <v>3331.350056436211</v>
       </c>
       <c r="G13" t="n">
-        <v>-4040.497941327794</v>
+        <v>-8843.980851200113</v>
       </c>
       <c r="H13" t="n">
         <v>3740.672738229237</v>
@@ -912,10 +912,10 @@
         <v>3013.840017310587</v>
       </c>
       <c r="J13" t="n">
-        <v>3141.861679868253</v>
+        <v>3014.328476475724</v>
       </c>
       <c r="K13" t="n">
-        <v>3135.888048235474</v>
+        <v>3156.363712328238</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>68154.15837359706</v>
       </c>
       <c r="C14" t="n">
-        <v>288.7611063343791</v>
+        <v>288.7611063343795</v>
       </c>
       <c r="D14" t="n">
-        <v>-2099.124002381096</v>
+        <v>-1277.693930680008</v>
       </c>
       <c r="E14" t="n">
         <v>-11741.89600000006</v>
       </c>
       <c r="F14" t="n">
-        <v>-7184.63838534905</v>
+        <v>-6601.32257055322</v>
       </c>
       <c r="G14" t="n">
-        <v>8780.116991864641</v>
+        <v>9095.587000331954</v>
       </c>
       <c r="H14" t="n">
         <v>6125.420173960127</v>
@@ -947,10 +947,10 @@
         <v>5007.499908355926</v>
       </c>
       <c r="J14" t="n">
-        <v>427.5837601840573</v>
+        <v>708.5329374834409</v>
       </c>
       <c r="K14" t="n">
-        <v>-26.77373680880646</v>
+        <v>214.4897310063674</v>
       </c>
     </row>
     <row r="15">
@@ -961,19 +961,19 @@
         <v>69749.30898006154</v>
       </c>
       <c r="C15" t="n">
-        <v>5198.372856250494</v>
+        <v>5198.372856250493</v>
       </c>
       <c r="D15" t="n">
-        <v>3924.563273361012</v>
+        <v>5770.374760369139</v>
       </c>
       <c r="E15" t="n">
         <v>7169.909999999823</v>
       </c>
       <c r="F15" t="n">
-        <v>1882.08649965149</v>
+        <v>2241.959107968878</v>
       </c>
       <c r="G15" t="n">
-        <v>-12398.27512559782</v>
+        <v>-11340.95544869019</v>
       </c>
       <c r="H15" t="n">
         <v>-5782.723379970053</v>
@@ -982,10 +982,10 @@
         <v>-2439.48501937268</v>
       </c>
       <c r="J15" t="n">
-        <v>556.5628459840528</v>
+        <v>997.6996650491558</v>
       </c>
       <c r="K15" t="n">
-        <v>-420.338105936132</v>
+        <v>-226.8577666528186</v>
       </c>
     </row>
     <row r="16">
@@ -996,19 +996,19 @@
         <v>69982.72020065581</v>
       </c>
       <c r="C16" t="n">
-        <v>-159.1229700340189</v>
+        <v>-159.122970034018</v>
       </c>
       <c r="D16" t="n">
-        <v>384.8225339412279</v>
+        <v>460.8130700331408</v>
       </c>
       <c r="E16" t="n">
         <v>-3260.984000000074</v>
       </c>
       <c r="F16" t="n">
-        <v>2480.179316549864</v>
+        <v>1859.746591170412</v>
       </c>
       <c r="G16" t="n">
-        <v>16259.41574163337</v>
+        <v>12001.04635903438</v>
       </c>
       <c r="H16" t="n">
         <v>6390.561481769223</v>
@@ -1017,10 +1017,10 @@
         <v>6535.59025154438</v>
       </c>
       <c r="J16" t="n">
-        <v>3126.406122754135</v>
+        <v>3017.517684896628</v>
       </c>
       <c r="K16" t="n">
-        <v>4033.525021653774</v>
+        <v>3808.566040217705</v>
       </c>
     </row>
     <row r="17">
@@ -1034,16 +1034,16 @@
         <v>-2484.39566894342</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.503061399428134</v>
+        <v>-2058.884244903342</v>
       </c>
       <c r="E17" t="n">
-        <v>-4170.407999999925</v>
+        <v>2161.99600000022</v>
       </c>
       <c r="F17" t="n">
-        <v>-1860.396305566257</v>
+        <v>-1988.6548840303</v>
       </c>
       <c r="G17" t="n">
-        <v>-12429.14409251402</v>
+        <v>-6493.829008115502</v>
       </c>
       <c r="H17" t="n">
         <v>-10353.70707180288</v>
@@ -1052,10 +1052,10 @@
         <v>-8008.903636532785</v>
       </c>
       <c r="J17" t="n">
-        <v>-4542.381148848954</v>
+        <v>-4978.909101242545</v>
       </c>
       <c r="K17" t="n">
-        <v>-5312.072353509204</v>
+        <v>-5427.579871729484</v>
       </c>
     </row>
     <row r="18">
@@ -1069,16 +1069,16 @@
         <v>1267.065901477605</v>
       </c>
       <c r="D18" t="n">
-        <v>2347.582829467297</v>
+        <v>1906.626946820217</v>
       </c>
       <c r="E18" t="n">
         <v>20116.04400000005</v>
       </c>
       <c r="F18" t="n">
-        <v>1710.977210289323</v>
+        <v>1662.395602940742</v>
       </c>
       <c r="G18" t="n">
-        <v>13685.97460838748</v>
+        <v>2629.904954222192</v>
       </c>
       <c r="H18" t="n">
         <v>3736.911108147802</v>
@@ -1087,10 +1087,10 @@
         <v>2931.609810181371</v>
       </c>
       <c r="J18" t="n">
-        <v>2398.82937191268</v>
+        <v>2300.921873913548</v>
       </c>
       <c r="K18" t="n">
-        <v>2431.440427774997</v>
+        <v>2398.928642325615</v>
       </c>
     </row>
     <row r="19">
@@ -1101,19 +1101,19 @@
         <v>68786.49027032133</v>
       </c>
       <c r="C19" t="n">
-        <v>1155.056325158656</v>
+        <v>1155.056325158657</v>
       </c>
       <c r="D19" t="n">
-        <v>-498.6129185767193</v>
+        <v>15.04710045444381</v>
       </c>
       <c r="E19" t="n">
         <v>-11741.89600000006</v>
       </c>
       <c r="F19" t="n">
-        <v>-3601.772098260794</v>
+        <v>-3096.869745308744</v>
       </c>
       <c r="G19" t="n">
-        <v>-1446.110388866994</v>
+        <v>5042.372808289933</v>
       </c>
       <c r="H19" t="n">
         <v>6121.6585439063</v>
@@ -1122,10 +1122,10 @@
         <v>4671.505643847646</v>
       </c>
       <c r="J19" t="n">
-        <v>1569.567099215018</v>
+        <v>1773.27957361166</v>
       </c>
       <c r="K19" t="n">
-        <v>1345.411345825087</v>
+        <v>1547.664209208545</v>
       </c>
     </row>
     <row r="20">
@@ -1139,16 +1139,16 @@
         <v>4727.015506502026</v>
       </c>
       <c r="D20" t="n">
-        <v>3048.00503278376</v>
+        <v>5022.273511159809</v>
       </c>
       <c r="E20" t="n">
         <v>7169.909999999823</v>
       </c>
       <c r="F20" t="n">
-        <v>3278.74431047683</v>
+        <v>2051.673904738592</v>
       </c>
       <c r="G20" t="n">
-        <v>7800.635878505421</v>
+        <v>-7252.28705341529</v>
       </c>
       <c r="H20" t="n">
         <v>-5786.485010015398</v>
@@ -1157,10 +1157,10 @@
         <v>-2559.827360826366</v>
       </c>
       <c r="J20" t="n">
-        <v>541.4904957841704</v>
+        <v>690.9301103117326</v>
       </c>
       <c r="K20" t="n">
-        <v>-27.28986354435055</v>
+        <v>-411.4067297025028</v>
       </c>
     </row>
     <row r="21">
@@ -1171,19 +1171,19 @@
         <v>69505.91936688671</v>
       </c>
       <c r="C21" t="n">
-        <v>-121.9506040628462</v>
+        <v>-121.9506040628453</v>
       </c>
       <c r="D21" t="n">
-        <v>460.2945103065081</v>
+        <v>590.3254286109222</v>
       </c>
       <c r="E21" t="n">
         <v>-3260.984000000074</v>
       </c>
       <c r="F21" t="n">
-        <v>700.7022788672197</v>
+        <v>810.5225376130376</v>
       </c>
       <c r="G21" t="n">
-        <v>2384.637044844141</v>
+        <v>352.4297456700701</v>
       </c>
       <c r="H21" t="n">
         <v>6386.799851709766</v>
@@ -1192,10 +1192,10 @@
         <v>5664.075704781786</v>
       </c>
       <c r="J21" t="n">
-        <v>2617.984348320487</v>
+        <v>2665.954583730533</v>
       </c>
       <c r="K21" t="n">
-        <v>3140.221168817658</v>
+        <v>3184.822960967938</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1250,115 +1250,120 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>DynamicallyTested</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TestSetLength</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TestSetRMSE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAPE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>TestSetR2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetPrediction</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetActual</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>InSampleRMSE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAE</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>InSampleR2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ValidationSetLength</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetric</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetricValue</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>univariate</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>models</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>weights</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetRMSE</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAPE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAE</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetR2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -1389,67 +1394,70 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>20</v>
       </c>
-      <c r="I2" t="n">
-        <v>20579.00417428337</v>
-      </c>
       <c r="J2" t="n">
-        <v>1.087856613865253</v>
+        <v>20578.56909014391</v>
       </c>
       <c r="K2" t="n">
-        <v>16029.45049551695</v>
+        <v>1.088053087227248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2294760348254716</v>
+        <v>16029.44066592617</v>
       </c>
       <c r="M2" t="n">
-        <v>-557.9406464103363</v>
+        <v>0.2295086155285622</v>
       </c>
       <c r="N2" t="n">
+        <v>-558.7183511818787</v>
+      </c>
+      <c r="O2" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="O2" t="n">
-        <v>12823.17563633568</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>9646.729935429004</v>
-      </c>
+      <c r="P2" t="n">
+        <v>12824.43433085855</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>0.5438737189571466</v>
+        <v>9594.344656759218</v>
       </c>
       <c r="S2" t="n">
+        <v>0.5437841698711293</v>
+      </c>
+      <c r="T2" t="n">
         <v>10</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>12328.72043760965</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>15203.75936939227</v>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>14791.36135980927</v>
-      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>0.190465875707158</v>
+        <v>14791.23439299341</v>
       </c>
       <c r="AA2" t="n">
-        <v>12307.07905323312</v>
+        <v>0.1904649015503728</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1286384067170805</v>
-      </c>
-      <c r="AC2" t="b">
+        <v>12306.97238636442</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.1286533659259649</v>
+      </c>
+      <c r="AD2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1474,67 +1482,68 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>20</v>
       </c>
-      <c r="I3" t="n">
-        <v>22486.95179892595</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.535809267709018</v>
+        <v>22483.34777372621</v>
       </c>
       <c r="K3" t="n">
-        <v>17109.78360478878</v>
+        <v>2.565115163468184</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07997714036282999</v>
+        <v>17102.62637082722</v>
       </c>
       <c r="M3" t="n">
-        <v>2961.190926285523</v>
+        <v>0.08027202424807856</v>
       </c>
       <c r="N3" t="n">
+        <v>2941.12961022459</v>
+      </c>
+      <c r="O3" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="O3" t="n">
-        <v>14241.73632314245</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>10522.7544941642</v>
-      </c>
+      <c r="P3" t="n">
+        <v>14213.40916523743</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>0.4373740020908147</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
+        <v>10518.78305542428</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.4396099296479038</v>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
         <is>
           <t>['mlp', 'silverkite', 'prophet', 'mlr', 'elasticnet']</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>(0.36666666666666664, 0.28333333333333327, 0.19999999999999996, 0.11666666666666664, 0.03333333333333333)</t>
         </is>
       </c>
-      <c r="Y3" t="n">
-        <v>15657.23084948228</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0.1978803890038938</v>
+        <v>15653.06844179354</v>
       </c>
       <c r="AA3" t="n">
-        <v>12691.86808493902</v>
+        <v>0.1975790536607134</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02363539059007058</v>
-      </c>
-      <c r="AC3" t="b">
+        <v>12677.37498788592</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.02415444627675511</v>
+      </c>
+      <c r="AD3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1559,63 +1568,64 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>20</v>
       </c>
-      <c r="I4" t="n">
-        <v>22572.30541105992</v>
-      </c>
       <c r="J4" t="n">
-        <v>2.385472558878627</v>
+        <v>22557.29494087765</v>
       </c>
       <c r="K4" t="n">
-        <v>17026.87889915365</v>
+        <v>2.561664215743822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07297963284705367</v>
+        <v>16984.35693379872</v>
       </c>
       <c r="M4" t="n">
-        <v>2667.875825247881</v>
+        <v>0.07421215071526799</v>
       </c>
       <c r="N4" t="n">
+        <v>2549.063338425362</v>
+      </c>
+      <c r="O4" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="O4" t="n">
-        <v>14245.40805005862</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>10494.50192515375</v>
-      </c>
+      <c r="P4" t="n">
+        <v>14217.32997957906</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>0.4370838583511477</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>10506.47422994709</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.439300716221412</v>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
         <is>
           <t>['mlp', 'silverkite', 'prophet', 'mlr', 'elasticnet']</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>16465.31972181134</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>0.2109838075440973</v>
+        <v>16435.00293238802</v>
       </c>
       <c r="AA4" t="n">
-        <v>13196.54537275592</v>
+        <v>0.2091673666017871</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.07974811806391813</v>
-      </c>
-      <c r="AC4" t="b">
+        <v>13109.12858751268</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.0757756036319992</v>
+      </c>
+      <c r="AD4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1640,61 +1650,64 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>20</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>24260.58030210456</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>3.591674663680119</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>18016.23879325197</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>-0.07087753978980871</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>5664.075704781786</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>18394.89892740932</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
         <v>12936.24857451506</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.124210337342228</v>
       </c>
-      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="b">
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="b">
         <v>1</v>
       </c>
-      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="n">
         <v>16517.14274718804</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>0.2085101198740557</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>13298.86228159274</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>-0.08655562291254792</v>
       </c>
-      <c r="AC5" t="b">
+      <c r="AD5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1719,61 +1732,64 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>20</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>25684.84010623584</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>4.62879838445857</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>18747.47769872883</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>-0.2003037787728086</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>7745.350656601466</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>18397.09353028906</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
         <v>13217.69270588214</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.1240013527562288</v>
       </c>
-      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="b">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="b">
         <v>1</v>
       </c>
-      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="n">
         <v>16701.2550079469</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>0.1791667314814207</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>12360.46898429872</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>-0.1109137286389559</v>
       </c>
-      <c r="AC6" t="b">
+      <c r="AD6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1802,59 +1818,62 @@
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>20</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>21980.76861693473</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>1.87629534683638</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>16450.84920083433</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.1209305455606735</v>
       </c>
-      <c r="M7" t="n">
-        <v>-52.62637697641549</v>
-      </c>
       <c r="N7" t="n">
+        <v>-52.62637697641617</v>
+      </c>
+      <c r="O7" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>14088.48793173532</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
         <v>10580.15767564241</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.4494171453209976</v>
       </c>
-      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="n">
         <v>19345.34808468366</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>0.2643620923321007</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>16059.79448978906</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>-0.4905111057426654</v>
       </c>
-      <c r="AC7" t="b">
+      <c r="AD7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1876,74 +1895,77 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'alpha': 2.0, 'l1_ratio': 0.0}</t>
+          <t>{'alpha': 0.1, 'l1_ratio': 1.0}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>20</v>
       </c>
-      <c r="I8" t="n">
-        <v>22019.35319591096</v>
-      </c>
       <c r="J8" t="n">
-        <v>1.02311037837769</v>
+        <v>21980.76517851838</v>
       </c>
       <c r="K8" t="n">
-        <v>16447.99034913148</v>
+        <v>1.876122160966541</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1178416367682116</v>
+        <v>16450.81863923095</v>
       </c>
       <c r="M8" t="n">
-        <v>540.5197882429038</v>
+        <v>0.1209308205834991</v>
       </c>
       <c r="N8" t="n">
+        <v>-52.76494109814735</v>
+      </c>
+      <c r="O8" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="O8" t="n">
-        <v>14629.33726340562</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>10711.51496019809</v>
-      </c>
+      <c r="P8" t="n">
+        <v>14601.78713539098</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>0.4063325756442553</v>
+        <v>10744.90014367467</v>
       </c>
       <c r="S8" t="n">
+        <v>0.4085664721919557</v>
+      </c>
+      <c r="T8" t="n">
         <v>10</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v>15373.60869370441</v>
-      </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>17553.74587559423</v>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
-        <v>19609.14639085262</v>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>0.2728270956552668</v>
+        <v>19345.36575356768</v>
       </c>
       <c r="AA8" t="n">
-        <v>16436.97212041355</v>
+        <v>0.264363274723645</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.5314382737927534</v>
-      </c>
-      <c r="AC8" t="b">
+        <v>16059.85194219647</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.4905138284313215</v>
+      </c>
+      <c r="AD8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1976,67 +1998,70 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>20</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>21345.85013352898</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>2.341048786017148</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>16325.51413694959</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.1709812515942998</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>6982.23201564487</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="O9" t="n">
-        <v>11839.04694652189</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>9015.555109733397</v>
-      </c>
+      <c r="P9" t="n">
+        <v>11850.31735863008</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>0.6111989760357093</v>
+        <v>8891.047879434755</v>
       </c>
       <c r="S9" t="n">
+        <v>0.6104583702203301</v>
+      </c>
+      <c r="T9" t="n">
         <v>10</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>20355.71746197699</v>
-      </c>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>23807.01322190943</v>
+      </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="n">
         <v>38717.81894880486</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>0.5344754958824958</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>35736.23934739353</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>-4.970406324488739</v>
       </c>
-      <c r="AC9" t="b">
+      <c r="AD9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2061,61 +2086,64 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>20</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>44408.22553323487</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.6041697011167072</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>40681.94843007217</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>-6.854326654808984</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>25444.44171900264</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>82494.99999999972</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>14759.02299662494</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
         <v>10678.2465292226</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.3720505281981898</v>
       </c>
-      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="b">
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="b">
         <v>1</v>
       </c>
-      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="n">
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="n">
         <v>44408.22553323487</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>0.6041697011167072</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>40681.94843007217</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>-6.854326654808984</v>
       </c>
-      <c r="AC10" t="b">
+      <c r="AD10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2148,67 +2176,70 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>20</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>23881.61463492258</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>5.723273465983262</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>20527.67720000009</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>-0.0376832643165903</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>13124.51400000002</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="O11" t="n">
-        <v>14151.29512729701</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>10318.64225086206</v>
-      </c>
+      <c r="P11" t="n">
+        <v>14022.69116657059</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>0.4444971501940155</v>
+        <v>10286.62527844827</v>
       </c>
       <c r="S11" t="n">
+        <v>0.4545478559254832</v>
+      </c>
+      <c r="T11" t="n">
         <v>10</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>14827.63187322461</v>
       </c>
-      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="n">
         <v>81391.03705932212</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>1.209730810343186</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>74049.02930000014</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>-25.38367470056216</v>
       </c>
-      <c r="AC11" t="b">
+      <c r="AD11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5399,7 +5430,7 @@
         <v>40886</v>
       </c>
       <c r="B244" t="n">
-        <v>-9131.595243768945</v>
+        <v>-7507.877831064385</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5412,7 +5443,7 @@
         <v>40889</v>
       </c>
       <c r="B245" t="n">
-        <v>13925.82344756086</v>
+        <v>14394.62534368738</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5425,7 +5456,7 @@
         <v>40890</v>
       </c>
       <c r="B246" t="n">
-        <v>-21684.65338635194</v>
+        <v>-25081.35476693225</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -5438,7 +5469,7 @@
         <v>40891</v>
       </c>
       <c r="B247" t="n">
-        <v>4103.4494399982</v>
+        <v>6116.56586196482</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5451,7 +5482,7 @@
         <v>40892</v>
       </c>
       <c r="B248" t="n">
-        <v>6049.893941008648</v>
+        <v>5147.895932813582</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -5464,7 +5495,7 @@
         <v>40893</v>
       </c>
       <c r="B249" t="n">
-        <v>-2420.926606737781</v>
+        <v>-2255.705932201194</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5477,7 +5508,7 @@
         <v>40896</v>
       </c>
       <c r="B250" t="n">
-        <v>5154.541880040789</v>
+        <v>6058.613373567395</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -5490,7 +5521,7 @@
         <v>40897</v>
       </c>
       <c r="B251" t="n">
-        <v>-10889.74877853456</v>
+        <v>-12369.96551964506</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5503,7 +5534,7 @@
         <v>40898</v>
       </c>
       <c r="B252" t="n">
-        <v>7968.565115099487</v>
+        <v>6485.724302796223</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5516,7 +5547,7 @@
         <v>40899</v>
       </c>
       <c r="B253" t="n">
-        <v>1219.561789646132</v>
+        <v>2041.417594449117</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5529,7 +5560,7 @@
         <v>40900</v>
       </c>
       <c r="B254" t="n">
-        <v>-3729.317595370837</v>
+        <v>-3441.3844744006</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5542,7 +5573,7 @@
         <v>40903</v>
       </c>
       <c r="B255" t="n">
-        <v>3206.156462461655</v>
+        <v>3331.350056436211</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5555,7 +5586,7 @@
         <v>40904</v>
       </c>
       <c r="B256" t="n">
-        <v>-7184.63838534905</v>
+        <v>-6601.32257055322</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5568,7 +5599,7 @@
         <v>40905</v>
       </c>
       <c r="B257" t="n">
-        <v>1882.08649965149</v>
+        <v>2241.959107968878</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5581,7 +5612,7 @@
         <v>40906</v>
       </c>
       <c r="B258" t="n">
-        <v>2480.179316549864</v>
+        <v>1859.746591170412</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5594,7 +5625,7 @@
         <v>40907</v>
       </c>
       <c r="B259" t="n">
-        <v>-1860.396305566257</v>
+        <v>-1988.6548840303</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5607,7 +5638,7 @@
         <v>40910</v>
       </c>
       <c r="B260" t="n">
-        <v>1710.977210289323</v>
+        <v>1662.395602940742</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5620,7 +5651,7 @@
         <v>40911</v>
       </c>
       <c r="B261" t="n">
-        <v>-3601.772098260794</v>
+        <v>-3096.869745308744</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5633,7 +5664,7 @@
         <v>40912</v>
       </c>
       <c r="B262" t="n">
-        <v>3278.74431047683</v>
+        <v>2051.673904738592</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5646,7 +5677,7 @@
         <v>40913</v>
       </c>
       <c r="B263" t="n">
-        <v>700.7022788672197</v>
+        <v>810.5225376130376</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5743,13 +5774,13 @@
         <v>-15751.08999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-3027.059193970296</v>
+        <v>-3028.009810452911</v>
       </c>
       <c r="D2" t="n">
-        <v>-5668.65236286963</v>
+        <v>-5724.337944687115</v>
       </c>
       <c r="E2" t="n">
-        <v>-5454.805897151719</v>
+        <v>-5787.018155091404</v>
       </c>
       <c r="F2" t="n">
         <v>-6259.514287888329</v>
@@ -5761,7 +5792,7 @@
         <v>-4356.026674740016</v>
       </c>
       <c r="I2" t="n">
-        <v>-2695.724206236984</v>
+        <v>-4355.83487945279</v>
       </c>
       <c r="J2" t="n">
         <v>-38464.30249050169</v>
@@ -5781,13 +5812,13 @@
         <v>59162.71999999991</v>
       </c>
       <c r="C3" t="n">
-        <v>9103.372202225108</v>
+        <v>9107.219817878953</v>
       </c>
       <c r="D3" t="n">
-        <v>5155.562081003191</v>
+        <v>5152.498321629008</v>
       </c>
       <c r="E3" t="n">
-        <v>4359.160656397898</v>
+        <v>4333.082868845111</v>
       </c>
       <c r="F3" t="n">
         <v>2990.428511025706</v>
@@ -5799,7 +5830,7 @@
         <v>3790.600038863911</v>
       </c>
       <c r="I3" t="n">
-        <v>3924.877890674256</v>
+        <v>3790.641337256472</v>
       </c>
       <c r="J3" t="n">
         <v>8811.077968392061</v>
@@ -5819,13 +5850,13 @@
         <v>-53612.60000000004</v>
       </c>
       <c r="C4" t="n">
-        <v>-17536.02385205805</v>
+        <v>-17538.55832196075</v>
       </c>
       <c r="D4" t="n">
-        <v>-4575.637994532752</v>
+        <v>-4553.852064168814</v>
       </c>
       <c r="E4" t="n">
-        <v>-3808.093015179095</v>
+        <v>-3672.308493190067</v>
       </c>
       <c r="F4" t="n">
         <v>4483.544525125417</v>
@@ -5837,7 +5868,7 @@
         <v>-6671.723739129077</v>
       </c>
       <c r="I4" t="n">
-        <v>-7353.119843808867</v>
+        <v>-6671.662763961025</v>
       </c>
       <c r="J4" t="n">
         <v>-32728.77139848445</v>
@@ -5857,13 +5888,13 @@
         <v>5150.880000000259</v>
       </c>
       <c r="C5" t="n">
-        <v>5507.882662773921</v>
+        <v>5509.352007069097</v>
       </c>
       <c r="D5" t="n">
-        <v>674.14991414172</v>
+        <v>750.1774785085612</v>
       </c>
       <c r="E5" t="n">
-        <v>1647.227997583425</v>
+        <v>2100.454695194118</v>
       </c>
       <c r="F5" t="n">
         <v>-3711.755670806902</v>
@@ -5872,10 +5903,10 @@
         <v>-6968.966604044537</v>
       </c>
       <c r="H5" t="n">
-        <v>7837.012543947886</v>
+        <v>7837.012543947885</v>
       </c>
       <c r="I5" t="n">
-        <v>5571.967056046758</v>
+        <v>7836.631199805048</v>
       </c>
       <c r="J5" t="n">
         <v>11956.29230644152</v>
@@ -5895,13 +5926,13 @@
         <v>-4855.040000000372</v>
       </c>
       <c r="C6" t="n">
-        <v>1954.871203073051</v>
+        <v>1953.001040716857</v>
       </c>
       <c r="D6" t="n">
-        <v>3933.20543239532</v>
+        <v>3920.711954975397</v>
       </c>
       <c r="E6" t="n">
-        <v>3530.854408083397</v>
+        <v>3459.633868276248</v>
       </c>
       <c r="F6" t="n">
         <v>5183.23384238588</v>
@@ -5910,10 +5941,10 @@
         <v>7791.023518699121</v>
       </c>
       <c r="H6" t="n">
-        <v>1185.522995728967</v>
+        <v>1185.522995728968</v>
       </c>
       <c r="I6" t="n">
-        <v>1539.620480529966</v>
+        <v>1185.387943850419</v>
       </c>
       <c r="J6" t="n">
         <v>-873.8054799431651</v>
@@ -5933,13 +5964,13 @@
         <v>-9827.739999999678</v>
       </c>
       <c r="C7" t="n">
-        <v>90.90288680166144</v>
+        <v>91.56546400265429</v>
       </c>
       <c r="D7" t="n">
-        <v>-4644.184689310838</v>
+        <v>-4732.327166747169</v>
       </c>
       <c r="E7" t="n">
-        <v>-4255.497576202988</v>
+        <v>-4785.677595222964</v>
       </c>
       <c r="F7" t="n">
         <v>-7658.493341794066</v>
@@ -5951,7 +5982,7 @@
         <v>-2705.493820502989</v>
       </c>
       <c r="I7" t="n">
-        <v>-53.4741951967726</v>
+        <v>-2705.03686749764</v>
       </c>
       <c r="J7" t="n">
         <v>5001.992530907524</v>
@@ -5971,13 +6002,13 @@
         <v>-1469.670000000289</v>
       </c>
       <c r="C8" t="n">
-        <v>3528.950287300147</v>
+        <v>3529.407388416754</v>
       </c>
       <c r="D8" t="n">
-        <v>2593.755568266834</v>
+        <v>2590.111424171651</v>
       </c>
       <c r="E8" t="n">
-        <v>2581.329335366288</v>
+        <v>2558.550268561973</v>
       </c>
       <c r="F8" t="n">
         <v>1703.190439685591</v>
@@ -5989,7 +6020,7 @@
         <v>2794.434976583361</v>
       </c>
       <c r="I8" t="n">
-        <v>2908.77062144798</v>
+        <v>2794.418186309799</v>
       </c>
       <c r="J8" t="n">
         <v>-4747.805689876914</v>
@@ -6009,13 +6040,13 @@
         <v>14284.10000000013</v>
       </c>
       <c r="C9" t="n">
-        <v>-8098.878832099954</v>
+        <v>-8098.796941147201</v>
       </c>
       <c r="D9" t="n">
-        <v>-833.6837522866249</v>
+        <v>-819.0760573458042</v>
       </c>
       <c r="E9" t="n">
-        <v>-560.2139714359312</v>
+        <v>-472.7315836965137</v>
       </c>
       <c r="F9" t="n">
         <v>3444.719369290877</v>
@@ -6027,7 +6058,7 @@
         <v>-2865.686957277646</v>
       </c>
       <c r="I9" t="n">
-        <v>-3302.856983711532</v>
+        <v>-2865.526935967197</v>
       </c>
       <c r="J9" t="n">
         <v>3601.344110918582</v>
@@ -6047,13 +6078,13 @@
         <v>16014.35999999978</v>
       </c>
       <c r="C10" t="n">
-        <v>5425.622904353998</v>
+        <v>5424.294800541337</v>
       </c>
       <c r="D10" t="n">
-        <v>374.0865600504038</v>
+        <v>468.6243413704699</v>
       </c>
       <c r="E10" t="n">
-        <v>1233.98356745962</v>
+        <v>1803.866463005336</v>
       </c>
       <c r="F10" t="n">
         <v>-4401.157666628116</v>
@@ -6062,10 +6093,10 @@
         <v>-6984.190891394587</v>
       </c>
       <c r="H10" t="n">
-        <v>7490.434750943136</v>
+        <v>7490.434750943137</v>
       </c>
       <c r="I10" t="n">
-        <v>4639.208740023667</v>
+        <v>7489.951321564909</v>
       </c>
       <c r="J10" t="n">
         <v>-1506.50899040906</v>
@@ -6085,13 +6116,13 @@
         <v>-29125.54999999973</v>
       </c>
       <c r="C11" t="n">
-        <v>-391.6125388113397</v>
+        <v>-391.0848238369227</v>
       </c>
       <c r="D11" t="n">
-        <v>2797.636536842589</v>
+        <v>2783.59429495831</v>
       </c>
       <c r="E11" t="n">
-        <v>2511.267395546969</v>
+        <v>2425.958514292464</v>
       </c>
       <c r="F11" t="n">
         <v>4876.53523638085</v>
@@ -6100,10 +6131,10 @@
         <v>7775.799231327346</v>
       </c>
       <c r="H11" t="n">
-        <v>-65.65036553474533</v>
+        <v>-65.65036553474602</v>
       </c>
       <c r="I11" t="n">
-        <v>361.2654143727345</v>
+        <v>-65.80670687420616</v>
       </c>
       <c r="J11" t="n">
         <v>6982.23201564487</v>
@@ -6123,13 +6154,13 @@
         <v>-155.8999999999578</v>
       </c>
       <c r="C12" t="n">
-        <v>30.90792017144156</v>
+        <v>31.44747204046446</v>
       </c>
       <c r="D12" t="n">
-        <v>-4778.722831834675</v>
+        <v>-4873.061146654483</v>
       </c>
       <c r="E12" t="n">
-        <v>-4366.616965024814</v>
+        <v>-4933.725957681705</v>
       </c>
       <c r="F12" t="n">
         <v>-7974.217561275682</v>
@@ -6141,7 +6172,7 @@
         <v>-2880.111653393189</v>
       </c>
       <c r="I12" t="n">
-        <v>-43.5098329106263</v>
+        <v>-2879.594348064108</v>
       </c>
       <c r="J12" t="n">
         <v>-4534.194211279842</v>
@@ -6161,13 +6192,13 @@
         <v>6342.459999999919</v>
       </c>
       <c r="C13" t="n">
-        <v>1622.804250865195</v>
+        <v>1618.885362497964</v>
       </c>
       <c r="D13" t="n">
-        <v>2082.788992537156</v>
+        <v>2079.501646615553</v>
       </c>
       <c r="E13" t="n">
-        <v>1971.704902949045</v>
+        <v>1959.818604153888</v>
       </c>
       <c r="F13" t="n">
         <v>3013.840017310587</v>
@@ -6179,7 +6210,7 @@
         <v>1605.168920244161</v>
       </c>
       <c r="I13" t="n">
-        <v>1660.635261869739</v>
+        <v>1605.122656261183</v>
       </c>
       <c r="J13" t="n">
         <v>5001.992530907524</v>
@@ -6199,13 +6230,13 @@
         <v>15430.74000000009</v>
       </c>
       <c r="C14" t="n">
-        <v>-4397.752849935033</v>
+        <v>-4393.571599112536</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.836918696219</v>
+        <v>1401.348727772561</v>
       </c>
       <c r="E14" t="n">
-        <v>1624.716746217552</v>
+        <v>1703.425099030609</v>
       </c>
       <c r="F14" t="n">
         <v>5007.499908355926</v>
@@ -6214,10 +6245,10 @@
         <v>8006.409259216365</v>
       </c>
       <c r="H14" t="n">
-        <v>-51.69731184084208</v>
+        <v>-51.69731184084162</v>
       </c>
       <c r="I14" t="n">
-        <v>-440.8752747086573</v>
+        <v>-51.51476146586947</v>
       </c>
       <c r="J14" t="n">
         <v>-608.4556933143706</v>
@@ -6237,13 +6268,13 @@
         <v>-12468.97000000019</v>
       </c>
       <c r="C15" t="n">
-        <v>1571.498401182887</v>
+        <v>1571.914944990312</v>
       </c>
       <c r="D15" t="n">
-        <v>-715.3646317860589</v>
+        <v>-615.2763536773946</v>
       </c>
       <c r="E15" t="n">
-        <v>225.3168437441813</v>
+        <v>825.0134247813164</v>
       </c>
       <c r="F15" t="n">
         <v>-2439.48501937268</v>
@@ -6255,7 +6286,7 @@
         <v>5996.282542039998</v>
       </c>
       <c r="I15" t="n">
-        <v>2997.703473657992</v>
+        <v>5995.769835036243</v>
       </c>
       <c r="J15" t="n">
         <v>6982.23201564487</v>
@@ -6275,13 +6306,13 @@
         <v>-7929.710000000101</v>
       </c>
       <c r="C16" t="n">
-        <v>546.1726460808635</v>
+        <v>543.8808159084671</v>
       </c>
       <c r="D16" t="n">
-        <v>3606.518430217514</v>
+        <v>3587.662950461442</v>
       </c>
       <c r="E16" t="n">
-        <v>3034.873973142691</v>
+        <v>2926.324754951052</v>
       </c>
       <c r="F16" t="n">
         <v>6535.59025154438</v>
@@ -6290,10 +6321,10 @@
         <v>7760.574943964065</v>
       </c>
       <c r="H16" t="n">
-        <v>-104.1380105599287</v>
+        <v>-104.1380105599278</v>
       </c>
       <c r="I16" t="n">
-        <v>436.1700346840767</v>
+        <v>-104.2842261017265</v>
       </c>
       <c r="J16" t="n">
         <v>-873.8054799431651</v>
@@ -6313,13 +6344,13 @@
         <v>5466.820000000131</v>
       </c>
       <c r="C17" t="n">
-        <v>22.13250724293475</v>
+        <v>23.10486808664504</v>
       </c>
       <c r="D17" t="n">
-        <v>-4749.041476518484</v>
+        <v>-4842.863287943972</v>
       </c>
       <c r="E17" t="n">
-        <v>-4257.487810830173</v>
+        <v>-4822.363401070525</v>
       </c>
       <c r="F17" t="n">
         <v>-8008.903636532785</v>
@@ -6331,7 +6362,7 @@
         <v>-2572.585245865685</v>
       </c>
       <c r="I17" t="n">
-        <v>253.2953060392542</v>
+        <v>-2572.055006006211</v>
       </c>
       <c r="J17" t="n">
         <v>5001.992530907524</v>
@@ -6351,13 +6382,13 @@
         <v>31077.8900000006</v>
       </c>
       <c r="C18" t="n">
-        <v>760.1885057539007</v>
+        <v>758.3028582263087</v>
       </c>
       <c r="D18" t="n">
-        <v>1676.319961526521</v>
+        <v>1674.440001986337</v>
       </c>
       <c r="E18" t="n">
-        <v>1607.260940659104</v>
+        <v>1599.752478473182</v>
       </c>
       <c r="F18" t="n">
         <v>2931.609810181371</v>
@@ -6369,7 +6400,7 @@
         <v>1184.030649301554</v>
       </c>
       <c r="I18" t="n">
-        <v>1219.623960989305</v>
+        <v>1183.967297587282</v>
       </c>
       <c r="J18" t="n">
         <v>-4534.194211279842</v>
@@ -6389,13 +6420,13 @@
         <v>-32028.75000000031</v>
       </c>
       <c r="C19" t="n">
-        <v>-1989.66295969006</v>
+        <v>-1986.961899949018</v>
       </c>
       <c r="D19" t="n">
-        <v>2312.709275745141</v>
+        <v>2325.327449664915</v>
       </c>
       <c r="E19" t="n">
-        <v>2416.993957035621</v>
+        <v>2487.300881072178</v>
       </c>
       <c r="F19" t="n">
         <v>4671.505643847646</v>
@@ -6404,10 +6435,10 @@
         <v>7991.184971813213</v>
       </c>
       <c r="H19" t="n">
-        <v>880.2883584613357</v>
+        <v>880.2883584613362</v>
       </c>
       <c r="I19" t="n">
-        <v>531.6537707459697</v>
+        <v>880.4873311877111</v>
       </c>
       <c r="J19" t="n">
         <v>3311.588618889571</v>
@@ -6427,13 +6458,13 @@
         <v>18725.94999999951</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.289510520074</v>
+        <v>1451.4401426326</v>
       </c>
       <c r="D20" t="n">
-        <v>-880.1938244071828</v>
+        <v>-778.6525077548959</v>
       </c>
       <c r="E20" t="n">
-        <v>-57.97044791014905</v>
+        <v>554.9761877785189</v>
       </c>
       <c r="F20" t="n">
         <v>-2559.827360826366</v>
@@ -6445,7 +6476,7 @@
         <v>5449.21797560971</v>
       </c>
       <c r="I20" t="n">
-        <v>2382.107101284239</v>
+        <v>5448.689647615053</v>
       </c>
       <c r="J20" t="n">
         <v>-873.8054799431651</v>
@@ -6465,13 +6496,13 @@
         <v>7055.840000000069</v>
       </c>
       <c r="C21" t="n">
-        <v>-557.9406464103363</v>
+        <v>-558.7183511818787</v>
       </c>
       <c r="D21" t="n">
-        <v>2961.190926285523</v>
+        <v>2941.12961022459</v>
       </c>
       <c r="E21" t="n">
-        <v>2667.875825247881</v>
+        <v>2549.063338425362</v>
       </c>
       <c r="F21" t="n">
         <v>5664.075704781786</v>
@@ -6480,10 +6511,10 @@
         <v>7745.350656601466</v>
       </c>
       <c r="H21" t="n">
-        <v>-52.62637697641549</v>
+        <v>-52.62637697641617</v>
       </c>
       <c r="I21" t="n">
-        <v>540.5197882429038</v>
+        <v>-52.76494109814735</v>
       </c>
       <c r="J21" t="n">
         <v>6982.23201564487</v>
@@ -6576,13 +6607,13 @@
         <v>40886</v>
       </c>
       <c r="B2" t="n">
-        <v>73363.40475623077</v>
+        <v>74987.12216893533</v>
       </c>
       <c r="C2" t="n">
-        <v>73637.26186259084</v>
+        <v>74205.63259837068</v>
       </c>
       <c r="D2" t="n">
-        <v>73087.22244932428</v>
+        <v>73250.01203859416</v>
       </c>
       <c r="E2" t="n">
         <v>76235.48571211137</v>
@@ -6594,10 +6625,10 @@
         <v>71007.46565446374</v>
       </c>
       <c r="H2" t="n">
-        <v>72677.17830545522</v>
+        <v>71867.40883910006</v>
       </c>
       <c r="I2" t="n">
-        <v>74220.12768171908</v>
+        <v>77923.32393515595</v>
       </c>
       <c r="J2" t="n">
         <v>65078.42521009479</v>
@@ -6611,13 +6642,13 @@
         <v>40889</v>
       </c>
       <c r="B3" t="n">
-        <v>87289.22820379163</v>
+        <v>89381.74751262271</v>
       </c>
       <c r="C3" t="n">
-        <v>81748.48935643742</v>
+        <v>82487.48658422526</v>
       </c>
       <c r="D3" t="n">
-        <v>81223.20302021867</v>
+        <v>81472.14776928347</v>
       </c>
       <c r="E3" t="n">
         <v>79225.91422313708</v>
@@ -6626,19 +6657,19 @@
         <v>75900.77381673681</v>
       </c>
       <c r="G3" t="n">
-        <v>79899.26311876044</v>
+        <v>79899.26311876043</v>
       </c>
       <c r="H3" t="n">
-        <v>83800.8357386674</v>
+        <v>82953.04017516036</v>
       </c>
       <c r="I3" t="n">
-        <v>88866.66104546694</v>
+        <v>89817.98772447956</v>
       </c>
       <c r="J3" t="n">
         <v>72700.56188607874</v>
       </c>
       <c r="K3" t="n">
-        <v>89088.00599999975</v>
+        <v>98198.32999999993</v>
       </c>
     </row>
     <row r="4">
@@ -6646,13 +6677,13 @@
         <v>40890</v>
       </c>
       <c r="B4" t="n">
-        <v>65604.57481743969</v>
+        <v>64300.39274569046</v>
       </c>
       <c r="C4" t="n">
-        <v>75158.27310910357</v>
+        <v>74613.65641995514</v>
       </c>
       <c r="D4" t="n">
-        <v>75707.57511506123</v>
+        <v>75048.23912366902</v>
       </c>
       <c r="E4" t="n">
         <v>83709.45874826249</v>
@@ -6661,19 +6692,19 @@
         <v>82033.7172508464</v>
       </c>
       <c r="G4" t="n">
-        <v>72870.01706288134</v>
+        <v>72870.01706288132</v>
       </c>
       <c r="H4" t="n">
-        <v>74320.10769587626</v>
+        <v>72327.60981066443</v>
       </c>
       <c r="I4" t="n">
-        <v>60635.88414814629</v>
+        <v>63503.09250835606</v>
       </c>
       <c r="J4" t="n">
         <v>65978.09287948275</v>
       </c>
       <c r="K4" t="n">
-        <v>71039.27199999971</v>
+        <v>72877.09399999984</v>
       </c>
     </row>
     <row r="5">
@@ -6681,13 +6712,13 @@
         <v>40891</v>
       </c>
       <c r="B5" t="n">
-        <v>69708.02425743788</v>
+        <v>70416.95860765528</v>
       </c>
       <c r="C5" t="n">
-        <v>75590.70733878923</v>
+        <v>75900.9874749873</v>
       </c>
       <c r="D5" t="n">
-        <v>77464.63994973275</v>
+        <v>77908.45206648626</v>
       </c>
       <c r="E5" t="n">
         <v>79997.70307745559</v>
@@ -6696,19 +6727,19 @@
         <v>76258.51713101292</v>
       </c>
       <c r="G5" t="n">
-        <v>80816.96764186108</v>
+        <v>80816.96764186106</v>
       </c>
       <c r="H5" t="n">
-        <v>80541.98764089626</v>
+        <v>82052.11387444654</v>
       </c>
       <c r="I5" t="n">
-        <v>69892.42996469539</v>
+        <v>71409.66710563055</v>
       </c>
       <c r="J5" t="n">
         <v>70866.33913328004</v>
       </c>
       <c r="K5" t="n">
-        <v>77810.62999999955</v>
+        <v>80190.76999999963</v>
       </c>
     </row>
     <row r="6">
@@ -6716,13 +6747,13 @@
         <v>40892</v>
       </c>
       <c r="B6" t="n">
-        <v>75757.91819844652</v>
+        <v>75564.85454046886</v>
       </c>
       <c r="C6" t="n">
-        <v>80763.50249087368</v>
+        <v>80735.38810487025</v>
       </c>
       <c r="D6" t="n">
-        <v>81612.76787912843</v>
+        <v>81830.20887906299</v>
       </c>
       <c r="E6" t="n">
         <v>85180.93691984146</v>
@@ -6731,19 +6762,19 @@
         <v>82656.60187291421</v>
       </c>
       <c r="G6" t="n">
-        <v>82048.80683308838</v>
+        <v>82048.80683308837</v>
       </c>
       <c r="H6" t="n">
-        <v>82419.57557135152</v>
+        <v>83699.84422900215</v>
       </c>
       <c r="I6" t="n">
-        <v>69546.29225659072</v>
+        <v>76005.5562349192</v>
       </c>
       <c r="J6" t="n">
         <v>70525.49348464671</v>
       </c>
       <c r="K6" t="n">
-        <v>74549.64599999948</v>
+        <v>76494.75599999962</v>
       </c>
     </row>
     <row r="7">
@@ -6751,13 +6782,13 @@
         <v>40893</v>
       </c>
       <c r="B7" t="n">
-        <v>73336.99159170875</v>
+        <v>73309.14860826767</v>
       </c>
       <c r="C7" t="n">
-        <v>75049.51051191092</v>
+        <v>74996.63912002486</v>
       </c>
       <c r="D7" t="n">
-        <v>76230.46517687666</v>
+        <v>75968.9227924423</v>
       </c>
       <c r="E7" t="n">
         <v>77522.4435780474</v>
@@ -6766,19 +6797,19 @@
         <v>72310.41806122029</v>
       </c>
       <c r="G7" t="n">
-        <v>77597.06256575994</v>
+        <v>77597.06256575993</v>
       </c>
       <c r="H7" t="n">
-        <v>80385.41008764687</v>
+        <v>79105.54114891629</v>
       </c>
       <c r="I7" t="n">
-        <v>79726.58614709489</v>
+        <v>69110.95626896677</v>
       </c>
       <c r="J7" t="n">
         <v>66948.11758251286</v>
       </c>
       <c r="K7" t="n">
-        <v>70379.23799999956</v>
+        <v>72324.34799999969</v>
       </c>
     </row>
     <row r="8">
@@ -6786,13 +6817,13 @@
         <v>40896</v>
       </c>
       <c r="B8" t="n">
-        <v>78491.53347174954</v>
+        <v>79367.76198183506</v>
       </c>
       <c r="C8" t="n">
-        <v>78807.27532933526</v>
+        <v>79062.77933527878</v>
       </c>
       <c r="D8" t="n">
-        <v>80309.98958516958</v>
+        <v>80090.55660065953</v>
       </c>
       <c r="E8" t="n">
         <v>79225.634017733</v>
@@ -6801,19 +6832,19 @@
         <v>76054.85242945958</v>
       </c>
       <c r="G8" t="n">
-        <v>81314.58398256771</v>
+        <v>81314.58398256768</v>
       </c>
       <c r="H8" t="n">
-        <v>86463.34402433803</v>
+        <v>84489.95059170239</v>
       </c>
       <c r="I8" t="n">
-        <v>80162.52133324099</v>
+        <v>74507.42638083671</v>
       </c>
       <c r="J8" t="n">
         <v>70534.10269972747</v>
       </c>
       <c r="K8" t="n">
-        <v>90495.28199999961</v>
+        <v>92440.39199999975</v>
       </c>
     </row>
     <row r="9">
@@ -6821,13 +6852,13 @@
         <v>40897</v>
       </c>
       <c r="B9" t="n">
-        <v>67601.78469321498</v>
+        <v>66997.79646219</v>
       </c>
       <c r="C9" t="n">
-        <v>76591.51772660605</v>
+        <v>76346.89645904013</v>
       </c>
       <c r="D9" t="n">
-        <v>78529.36901619924</v>
+        <v>78269.61787285349</v>
       </c>
       <c r="E9" t="n">
         <v>82670.35338702388</v>
@@ -6836,19 +6867,19 @@
         <v>82184.03423347355</v>
       </c>
       <c r="G9" t="n">
-        <v>79253.20728599558</v>
+        <v>79253.20728599555</v>
       </c>
       <c r="H9" t="n">
-        <v>80937.46548128824</v>
+        <v>80242.6979955845</v>
       </c>
       <c r="I9" t="n">
-        <v>79118.75498955155</v>
+        <v>63191.18284802359</v>
       </c>
       <c r="J9" t="n">
         <v>68022.6972562833</v>
       </c>
       <c r="K9" t="n">
-        <v>74321.22999999956</v>
+        <v>80698.49599999969</v>
       </c>
     </row>
     <row r="10">
@@ -6856,13 +6887,13 @@
         <v>40898</v>
       </c>
       <c r="B10" t="n">
-        <v>75570.34980831447</v>
+        <v>73483.52076498623</v>
       </c>
       <c r="C10" t="n">
-        <v>78056.66425951022</v>
+        <v>77316.60170492731</v>
       </c>
       <c r="D10" t="n">
-        <v>80546.73304068339</v>
+        <v>80280.01579984229</v>
       </c>
       <c r="E10" t="n">
         <v>78269.19572039576</v>
@@ -6871,19 +6902,19 @@
         <v>76405.07248357199</v>
       </c>
       <c r="G10" t="n">
-        <v>85687.37367116673</v>
+        <v>85687.3736711667</v>
       </c>
       <c r="H10" t="n">
-        <v>86801.67351996804</v>
+        <v>87554.91635909087</v>
       </c>
       <c r="I10" t="n">
-        <v>86783.30134832131</v>
+        <v>74670.09218493818</v>
       </c>
       <c r="J10" t="n">
         <v>69475.65481579477</v>
       </c>
       <c r="K10" t="n">
-        <v>83433.17399999937</v>
+        <v>87868.40599999952</v>
       </c>
     </row>
     <row r="11">
@@ -6891,13 +6922,13 @@
         <v>40899</v>
       </c>
       <c r="B11" t="n">
-        <v>76789.9115979606</v>
+        <v>75524.93835943534</v>
       </c>
       <c r="C11" t="n">
-        <v>81172.31768423173</v>
+        <v>80739.11253173553</v>
       </c>
       <c r="D11" t="n">
-        <v>83110.0033398433</v>
+        <v>83040.71890191651</v>
       </c>
       <c r="E11" t="n">
         <v>83145.73095677661</v>
@@ -6906,19 +6937,19 @@
         <v>82799.3955954062</v>
       </c>
       <c r="G11" t="n">
-        <v>85652.17507810961</v>
+        <v>85652.17507810958</v>
       </c>
       <c r="H11" t="n">
-        <v>87162.80347096348</v>
+        <v>88081.35451985485</v>
       </c>
       <c r="I11" t="n">
-        <v>83677.6409181262</v>
+        <v>65846.12440820917</v>
       </c>
       <c r="J11" t="n">
         <v>69210.39532813423</v>
       </c>
       <c r="K11" t="n">
-        <v>77438.41999999942</v>
+        <v>81873.65199999957</v>
       </c>
     </row>
     <row r="12">
@@ -6926,13 +6957,13 @@
         <v>40900</v>
       </c>
       <c r="B12" t="n">
-        <v>73060.59400258976</v>
+        <v>72083.55388503474</v>
       </c>
       <c r="C12" t="n">
-        <v>75073.11137456578</v>
+        <v>74683.29954532643</v>
       </c>
       <c r="D12" t="n">
-        <v>77864.21265587825</v>
+        <v>77479.42191555203</v>
       </c>
       <c r="E12" t="n">
         <v>75171.51339550092</v>
@@ -6941,19 +6972,19 @@
         <v>72449.45015363088</v>
       </c>
       <c r="G12" t="n">
-        <v>82493.09467890937</v>
+        <v>82493.09467890934</v>
       </c>
       <c r="H12" t="n">
-        <v>86146.41104876029</v>
+        <v>85199.4974646843</v>
       </c>
       <c r="I12" t="n">
-        <v>87301.30672109789</v>
+        <v>75078.27387540945</v>
       </c>
       <c r="J12" t="n">
         <v>68010.23751830631</v>
       </c>
       <c r="K12" t="n">
-        <v>73268.01199999949</v>
+        <v>84035.64799999978</v>
       </c>
     </row>
     <row r="13">
@@ -6961,13 +6992,13 @@
         <v>40903</v>
       </c>
       <c r="B13" t="n">
-        <v>76266.75046505142</v>
+        <v>75414.90394147096</v>
       </c>
       <c r="C13" t="n">
-        <v>78208.99942280125</v>
+        <v>77839.66325765467</v>
       </c>
       <c r="D13" t="n">
-        <v>81006.0743357465</v>
+        <v>80493.75039202775</v>
       </c>
       <c r="E13" t="n">
         <v>78185.35341281151</v>
@@ -6976,19 +7007,19 @@
         <v>76190.12289186011</v>
       </c>
       <c r="G13" t="n">
-        <v>84492.53651976171</v>
+        <v>84492.53651976168</v>
       </c>
       <c r="H13" t="n">
-        <v>89895.60838924773</v>
+        <v>88185.83519423455</v>
       </c>
       <c r="I13" t="n">
-        <v>83260.8087797701</v>
+        <v>66234.29302420933</v>
       </c>
       <c r="J13" t="n">
         <v>70852.68966506404</v>
       </c>
       <c r="K13" t="n">
-        <v>93384.05599999955</v>
+        <v>104151.6919999998</v>
       </c>
     </row>
     <row r="14">
@@ -6996,13 +7027,13 @@
         <v>40904</v>
       </c>
       <c r="B14" t="n">
-        <v>69082.11207970236</v>
+        <v>68813.58137091773</v>
       </c>
       <c r="C14" t="n">
-        <v>78182.22568599244</v>
+        <v>78054.15298866104</v>
       </c>
       <c r="D14" t="n">
-        <v>81433.65809593056</v>
+        <v>81202.28332951119</v>
       </c>
       <c r="E14" t="n">
         <v>83192.85332116744</v>
@@ -7011,19 +7042,19 @@
         <v>82315.54306582024</v>
       </c>
       <c r="G14" t="n">
-        <v>84781.29762609609</v>
+        <v>84781.29762609606</v>
       </c>
       <c r="H14" t="n">
-        <v>87796.48438686664</v>
+        <v>86908.14126355454</v>
       </c>
       <c r="I14" t="n">
-        <v>92040.92577163473</v>
+        <v>75329.88002454129</v>
       </c>
       <c r="J14" t="n">
         <v>68154.15837359706</v>
       </c>
       <c r="K14" t="n">
-        <v>81642.15999999949</v>
+        <v>92409.79599999978</v>
       </c>
     </row>
     <row r="15">
@@ -7031,13 +7062,13 @@
         <v>40905</v>
       </c>
       <c r="B15" t="n">
-        <v>70964.19857935385</v>
+        <v>71055.54047888661</v>
       </c>
       <c r="C15" t="n">
-        <v>77761.88758005631</v>
+        <v>77827.29522200822</v>
       </c>
       <c r="D15" t="n">
-        <v>81990.22094191461</v>
+        <v>82199.98299456034</v>
       </c>
       <c r="E15" t="n">
         <v>80753.36830179476</v>
@@ -7046,19 +7077,19 @@
         <v>76532.81968585019</v>
       </c>
       <c r="G15" t="n">
-        <v>89979.67048234658</v>
+        <v>89979.67048234656</v>
       </c>
       <c r="H15" t="n">
-        <v>91721.04766022765</v>
+        <v>92678.51602392369</v>
       </c>
       <c r="I15" t="n">
-        <v>79642.65064603691</v>
+        <v>63988.9245758511</v>
       </c>
       <c r="J15" t="n">
         <v>69749.30898006154</v>
       </c>
       <c r="K15" t="n">
-        <v>88812.06999999932</v>
+        <v>99579.70599999961</v>
       </c>
     </row>
     <row r="16">
@@ -7066,13 +7097,13 @@
         <v>40906</v>
       </c>
       <c r="B16" t="n">
-        <v>73444.37789590372</v>
+        <v>72915.28707005702</v>
       </c>
       <c r="C16" t="n">
-        <v>81795.41260171008</v>
+        <v>81635.86126222592</v>
       </c>
       <c r="D16" t="n">
-        <v>85116.62706466875</v>
+        <v>85217.50067945696</v>
       </c>
       <c r="E16" t="n">
         <v>87288.95855333914</v>
@@ -7081,19 +7112,19 @@
         <v>82923.38116761942</v>
       </c>
       <c r="G16" t="n">
-        <v>89820.54751231257</v>
+        <v>89820.54751231254</v>
       </c>
       <c r="H16" t="n">
-        <v>92105.87019416888</v>
+        <v>93139.32909395683</v>
       </c>
       <c r="I16" t="n">
-        <v>95902.06638767029</v>
+        <v>75989.97093488548</v>
       </c>
       <c r="J16" t="n">
         <v>69982.72020065581</v>
       </c>
       <c r="K16" t="n">
-        <v>85551.08599999925</v>
+        <v>96318.72199999954</v>
       </c>
     </row>
     <row r="17">
@@ -7101,13 +7132,13 @@
         <v>40907</v>
       </c>
       <c r="B17" t="n">
-        <v>71583.98159033745</v>
+        <v>70926.63218602672</v>
       </c>
       <c r="C17" t="n">
-        <v>76483.34024820087</v>
+        <v>76208.28139049644</v>
       </c>
       <c r="D17" t="n">
-        <v>80574.24591581979</v>
+        <v>80238.59157821441</v>
       </c>
       <c r="E17" t="n">
         <v>79280.05491680634</v>
@@ -7116,19 +7147,19 @@
         <v>72569.67409581653</v>
       </c>
       <c r="G17" t="n">
-        <v>87336.15184336914</v>
+        <v>87336.15184336911</v>
       </c>
       <c r="H17" t="n">
-        <v>92101.36713276945</v>
+        <v>91080.44484905349</v>
       </c>
       <c r="I17" t="n">
-        <v>83472.92229515627</v>
+        <v>69496.14192676998</v>
       </c>
       <c r="J17" t="n">
         <v>68702.03956508421</v>
       </c>
       <c r="K17" t="n">
-        <v>81380.67799999933</v>
+        <v>98480.71799999976</v>
       </c>
     </row>
     <row r="18">
@@ -7136,13 +7167,13 @@
         <v>40910</v>
       </c>
       <c r="B18" t="n">
-        <v>73294.95880062677</v>
+        <v>72589.02778896746</v>
       </c>
       <c r="C18" t="n">
-        <v>78914.78067597587</v>
+        <v>78607.21003282205</v>
       </c>
       <c r="D18" t="n">
-        <v>82973.07528773247</v>
+        <v>82539.51345212797</v>
       </c>
       <c r="E18" t="n">
         <v>82211.66472698771</v>
@@ -7151,19 +7182,19 @@
         <v>76306.58520396434</v>
       </c>
       <c r="G18" t="n">
-        <v>88603.21774484674</v>
+        <v>88603.21774484671</v>
       </c>
       <c r="H18" t="n">
-        <v>94448.94996223674</v>
+        <v>92987.07179587371</v>
       </c>
       <c r="I18" t="n">
-        <v>97158.89690354375</v>
+        <v>72126.04688099217</v>
       </c>
       <c r="J18" t="n">
         <v>69950.32568895811</v>
       </c>
       <c r="K18" t="n">
-        <v>101496.7219999994</v>
+        <v>118596.7619999998</v>
       </c>
     </row>
     <row r="19">
@@ -7171,13 +7202,13 @@
         <v>40911</v>
       </c>
       <c r="B19" t="n">
-        <v>69693.18670236597</v>
+        <v>69492.15804365871</v>
       </c>
       <c r="C19" t="n">
-        <v>80260.19202180096</v>
+        <v>80154.87424203059</v>
       </c>
       <c r="D19" t="n">
-        <v>84542.64238694748</v>
+        <v>84312.79302573964</v>
       </c>
       <c r="E19" t="n">
         <v>86883.17037083536</v>
@@ -7186,19 +7217,19 @@
         <v>82428.24374787064</v>
       </c>
       <c r="G19" t="n">
-        <v>89758.2740700054</v>
+        <v>89758.27407000537</v>
       </c>
       <c r="H19" t="n">
-        <v>93950.33704366002</v>
+        <v>93002.11889632815</v>
       </c>
       <c r="I19" t="n">
-        <v>95712.78651467676</v>
+        <v>77168.41968928211</v>
       </c>
       <c r="J19" t="n">
         <v>68786.49027032133</v>
       </c>
       <c r="K19" t="n">
-        <v>89754.82599999933</v>
+        <v>106854.8659999998</v>
       </c>
     </row>
     <row r="20">
@@ -7206,13 +7237,13 @@
         <v>40912</v>
       </c>
       <c r="B20" t="n">
-        <v>72971.9310128428</v>
+        <v>71543.8319483973</v>
       </c>
       <c r="C20" t="n">
-        <v>80232.90215825661</v>
+        <v>79743.46751232809</v>
       </c>
       <c r="D20" t="n">
-        <v>85084.13288273165</v>
+        <v>85003.72313605137</v>
       </c>
       <c r="E20" t="n">
         <v>84323.34301000899</v>
@@ -7221,19 +7252,19 @@
         <v>76641.75873785524</v>
       </c>
       <c r="G20" t="n">
-        <v>94485.28957650742</v>
+        <v>94485.28957650739</v>
       </c>
       <c r="H20" t="n">
-        <v>96998.34207644379</v>
+        <v>98024.39240748796</v>
       </c>
       <c r="I20" t="n">
-        <v>103513.4223931822</v>
+        <v>69916.13263586682</v>
       </c>
       <c r="J20" t="n">
         <v>69513.81192414163</v>
       </c>
       <c r="K20" t="n">
-        <v>96924.73599999916</v>
+        <v>114024.7759999996</v>
       </c>
     </row>
     <row r="21">
@@ -7241,13 +7272,13 @@
         <v>40913</v>
       </c>
       <c r="B21" t="n">
-        <v>73672.63329171002</v>
+        <v>72354.35448601034</v>
       </c>
       <c r="C21" t="n">
-        <v>83373.12332707427</v>
+        <v>82928.29047329603</v>
       </c>
       <c r="D21" t="n">
-        <v>87702.11723105214</v>
+        <v>87669.6777197819</v>
       </c>
       <c r="E21" t="n">
         <v>89987.41871479078</v>
@@ -7256,19 +7287,19 @@
         <v>83028.55858956501</v>
       </c>
       <c r="G21" t="n">
-        <v>94363.33897244457</v>
+        <v>94363.33897244454</v>
       </c>
       <c r="H21" t="n">
-        <v>97458.6365867503</v>
+        <v>98614.71783609889</v>
       </c>
       <c r="I21" t="n">
-        <v>105898.0594380263</v>
+        <v>70268.56238153689</v>
       </c>
       <c r="J21" t="n">
         <v>69505.91936688671</v>
       </c>
       <c r="K21" t="n">
-        <v>93663.75199999909</v>
+        <v>110763.7919999995</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_results.xlsx
+++ b/examples/eCommerce_results.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model_summaries" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="best_fcst" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_set_predictions" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_fcsts" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_test_set_predictions" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lvl_fcsts" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +475,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -509,16 +510,16 @@
         <v>-11487.53434553597</v>
       </c>
       <c r="D2" t="n">
-        <v>-10627.59116089965</v>
+        <v>-11487.36006509619</v>
       </c>
       <c r="E2" t="n">
-        <v>-7083.869999999968</v>
+        <v>1549.184000000155</v>
       </c>
       <c r="F2" t="n">
-        <v>-7507.877831064385</v>
+        <v>-3343.979637302446</v>
       </c>
       <c r="G2" t="n">
-        <v>-4571.676064843757</v>
+        <v>699.2141605554577</v>
       </c>
       <c r="H2" t="n">
         <v>-10342.42218163943</v>
@@ -527,10 +528,10 @@
         <v>-6259.514287888329</v>
       </c>
       <c r="J2" t="n">
-        <v>-9244.987961405554</v>
+        <v>-7775.523343920892</v>
       </c>
       <c r="K2" t="n">
-        <v>-8289.367401629037</v>
+        <v>-8839.899928373456</v>
       </c>
     </row>
     <row r="3">
@@ -544,16 +545,16 @@
         <v>8891.797464296695</v>
       </c>
       <c r="D3" t="n">
-        <v>11085.63133606031</v>
+        <v>8891.846419448924</v>
       </c>
       <c r="E3" t="n">
-        <v>22787.20000000018</v>
+        <v>12114.44999999997</v>
       </c>
       <c r="F3" t="n">
-        <v>14394.62534368738</v>
+        <v>9588.495274647399</v>
       </c>
       <c r="G3" t="n">
-        <v>11894.66378932362</v>
+        <v>708.7254467529933</v>
       </c>
       <c r="H3" t="n">
         <v>3748.19599837652</v>
@@ -562,10 +563,10 @@
         <v>2990.428511025706</v>
       </c>
       <c r="J3" t="n">
-        <v>8222.135730689322</v>
+        <v>5046.198767980168</v>
       </c>
       <c r="K3" t="n">
-        <v>8281.853985854583</v>
+        <v>4997.845076936253</v>
       </c>
     </row>
     <row r="4">
@@ -579,16 +580,16 @@
         <v>-7029.246055879106</v>
       </c>
       <c r="D4" t="n">
-        <v>-10625.43036449593</v>
+        <v>-7029.187757088066</v>
       </c>
       <c r="E4" t="n">
-        <v>-25321.23600000008</v>
+        <v>-9043.195999999962</v>
       </c>
       <c r="F4" t="n">
-        <v>-25081.35476693225</v>
+        <v>-3343.979637302446</v>
       </c>
       <c r="G4" t="n">
-        <v>-26314.89521612351</v>
+        <v>691.271747352157</v>
       </c>
       <c r="H4" t="n">
         <v>6132.943434109591</v>
@@ -597,10 +598,10 @@
         <v>4483.544525125417</v>
       </c>
       <c r="J4" t="n">
-        <v>-6423.908645614456</v>
+        <v>-550.1348212760015</v>
       </c>
       <c r="K4" t="n">
-        <v>-7873.830164270132</v>
+        <v>1178.754907619347</v>
       </c>
     </row>
     <row r="5">
@@ -614,16 +615,16 @@
         <v>7946.950578979733</v>
       </c>
       <c r="D5" t="n">
-        <v>9724.5040637821</v>
+        <v>7946.582829584338</v>
       </c>
       <c r="E5" t="n">
-        <v>7313.675999999794</v>
+        <v>5090.139999999783</v>
       </c>
       <c r="F5" t="n">
-        <v>6116.56586196482</v>
+        <v>9955.762048553383</v>
       </c>
       <c r="G5" t="n">
-        <v>7906.574597274493</v>
+        <v>703.4110933428908</v>
       </c>
       <c r="H5" t="n">
         <v>-5775.200119833476</v>
@@ -632,10 +633,10 @@
         <v>-3711.755670806902</v>
       </c>
       <c r="J5" t="n">
-        <v>2860.212942817255</v>
+        <v>1421.997742253317</v>
       </c>
       <c r="K5" t="n">
-        <v>1287.331055032155</v>
+        <v>-457.3452975564666</v>
       </c>
     </row>
     <row r="6">
@@ -649,16 +650,16 @@
         <v>1231.839191227305</v>
       </c>
       <c r="D6" t="n">
-        <v>1647.73035455561</v>
+        <v>1231.712243983319</v>
       </c>
       <c r="E6" t="n">
-        <v>-3696.014000000015</v>
+        <v>4118.56200000009</v>
       </c>
       <c r="F6" t="n">
-        <v>5147.895932813582</v>
+        <v>1356.301507172973</v>
       </c>
       <c r="G6" t="n">
-        <v>4595.88912928866</v>
+        <v>710.477320598086</v>
       </c>
       <c r="H6" t="n">
         <v>6398.084741901293</v>
@@ -667,10 +668,10 @@
         <v>5183.23384238588</v>
       </c>
       <c r="J6" t="n">
-        <v>3921.756812576733</v>
+        <v>2951.069468019176</v>
       </c>
       <c r="K6" t="n">
-        <v>4834.400629882943</v>
+        <v>4127.059929810306</v>
       </c>
     </row>
     <row r="7">
@@ -684,16 +685,16 @@
         <v>-4451.744267328432</v>
       </c>
       <c r="D7" t="n">
-        <v>-4594.303080085851</v>
+        <v>-4451.300888382362</v>
       </c>
       <c r="E7" t="n">
-        <v>-4170.407999999925</v>
+        <v>7722.384000000224</v>
       </c>
       <c r="F7" t="n">
-        <v>-2255.705932201194</v>
+        <v>977.8901604615198</v>
       </c>
       <c r="G7" t="n">
-        <v>-6894.599965952433</v>
+        <v>702.5732081571958</v>
       </c>
       <c r="H7" t="n">
         <v>-10346.18381169391</v>
@@ -702,10 +703,10 @@
         <v>-7658.493341794066</v>
       </c>
       <c r="J7" t="n">
-        <v>-5861.286086620691</v>
+        <v>-5241.029820208315</v>
       </c>
       <c r="K7" t="n">
-        <v>-5738.748984845383</v>
+        <v>-7125.781155476153</v>
       </c>
     </row>
     <row r="8">
@@ -719,16 +720,16 @@
         <v>3717.521416807758</v>
       </c>
       <c r="D8" t="n">
-        <v>5384.409442786105</v>
+        <v>3717.518133723129</v>
       </c>
       <c r="E8" t="n">
-        <v>20116.04400000005</v>
+        <v>22249.78200000013</v>
       </c>
       <c r="F8" t="n">
-        <v>6058.613373567395</v>
+        <v>4652.089643863581</v>
       </c>
       <c r="G8" t="n">
-        <v>5396.47011186994</v>
+        <v>706.1503738374807</v>
       </c>
       <c r="H8" t="n">
         <v>3744.434368239299</v>
@@ -737,10 +738,10 @@
         <v>1703.190439685591</v>
       </c>
       <c r="J8" t="n">
-        <v>4121.63380821723</v>
+        <v>2717.762946458652</v>
       </c>
       <c r="K8" t="n">
-        <v>4066.14021525393</v>
+        <v>2886.179310309683</v>
       </c>
     </row>
     <row r="9">
@@ -754,16 +755,16 @@
         <v>-2061.376696572127</v>
       </c>
       <c r="D9" t="n">
-        <v>-4247.252596117897</v>
+        <v>-2061.255214406512</v>
       </c>
       <c r="E9" t="n">
-        <v>-11741.89600000006</v>
+        <v>-20261.494</v>
       </c>
       <c r="F9" t="n">
-        <v>-12369.96551964506</v>
+        <v>-3343.979637302446</v>
       </c>
       <c r="G9" t="n">
-        <v>-11316.24353281312</v>
+        <v>690.022199137121</v>
       </c>
       <c r="H9" t="n">
         <v>6129.181804013957</v>
@@ -772,10 +773,10 @@
         <v>3444.719369290877</v>
       </c>
       <c r="J9" t="n">
-        <v>-1820.93872780605</v>
+        <v>1228.258292292663</v>
       </c>
       <c r="K9" t="n">
-        <v>-2715.882876238661</v>
+        <v>2369.910905519995</v>
       </c>
     </row>
     <row r="10">
@@ -789,16 +790,16 @@
         <v>6434.166385171145</v>
       </c>
       <c r="D10" t="n">
-        <v>7312.218363506367</v>
+        <v>6433.710710104007</v>
       </c>
       <c r="E10" t="n">
-        <v>7169.909999999823</v>
+        <v>11428.40599999969</v>
       </c>
       <c r="F10" t="n">
-        <v>6485.724302796223</v>
+        <v>9955.762048553383</v>
       </c>
       <c r="G10" t="n">
-        <v>11478.9093369146</v>
+        <v>706.056779010642</v>
       </c>
       <c r="H10" t="n">
         <v>-5778.96174990156</v>
@@ -807,10 +808,10 @@
         <v>-4401.157666628116</v>
       </c>
       <c r="J10" t="n">
-        <v>2010.397926988812</v>
+        <v>678.7628915512234</v>
       </c>
       <c r="K10" t="n">
-        <v>969.7052458871827</v>
+        <v>-1190.1622210557</v>
       </c>
     </row>
     <row r="11">
@@ -824,16 +825,16 @@
         <v>-35.19859305712043</v>
       </c>
       <c r="D11" t="n">
-        <v>526.4381607639843</v>
+        <v>-35.34076728471132</v>
       </c>
       <c r="E11" t="n">
-        <v>-5994.753999999954</v>
+        <v>7091.356000000096</v>
       </c>
       <c r="F11" t="n">
-        <v>2041.417594449117</v>
+        <v>6441.75747201179</v>
       </c>
       <c r="G11" t="n">
-        <v>-8823.96777672901</v>
+        <v>711.999494354187</v>
       </c>
       <c r="H11" t="n">
         <v>6394.32311183421</v>
@@ -842,10 +843,10 @@
         <v>4876.53523638085</v>
       </c>
       <c r="J11" t="n">
-        <v>2760.703102074208</v>
+        <v>2382.463696445483</v>
       </c>
       <c r="K11" t="n">
-        <v>3422.510826808228</v>
+        <v>3612.35831004317</v>
       </c>
     </row>
     <row r="12">
@@ -859,16 +860,16 @@
         <v>-3159.080399200237</v>
       </c>
       <c r="D12" t="n">
-        <v>-2881.857055170551</v>
+        <v>-3158.581682299578</v>
       </c>
       <c r="E12" t="n">
-        <v>2161.99600000022</v>
+        <v>6512.194000000172</v>
       </c>
       <c r="F12" t="n">
-        <v>-3441.3844744006</v>
+        <v>-552.0641580867107</v>
       </c>
       <c r="G12" t="n">
-        <v>9232.149467200266</v>
+        <v>702.1747950636432</v>
       </c>
       <c r="H12" t="n">
         <v>-10349.94544177532</v>
@@ -877,10 +878,10 @@
         <v>-7974.217561275682</v>
       </c>
       <c r="J12" t="n">
-        <v>-5561.296986364478</v>
+        <v>-4787.930057897434</v>
       </c>
       <c r="K12" t="n">
-        <v>-6055.812986409106</v>
+        <v>-6833.2757639103</v>
       </c>
     </row>
     <row r="13">
@@ -894,16 +895,16 @@
         <v>1999.441840852341</v>
       </c>
       <c r="D13" t="n">
-        <v>2986.337729550241</v>
+        <v>1999.409190393677</v>
       </c>
       <c r="E13" t="n">
-        <v>20116.04400000005</v>
+        <v>11266.84800000004</v>
       </c>
       <c r="F13" t="n">
-        <v>3331.350056436211</v>
+        <v>4652.089643863581</v>
       </c>
       <c r="G13" t="n">
-        <v>-8843.980851200113</v>
+        <v>702.2322723938746</v>
       </c>
       <c r="H13" t="n">
         <v>3740.672738229237</v>
@@ -912,10 +913,10 @@
         <v>3013.840017310587</v>
       </c>
       <c r="J13" t="n">
-        <v>3014.328476475724</v>
+        <v>2291.119211835943</v>
       </c>
       <c r="K13" t="n">
-        <v>3156.363712328238</v>
+        <v>2821.492464975025</v>
       </c>
     </row>
     <row r="14">
@@ -929,16 +930,16 @@
         <v>288.7611063343795</v>
       </c>
       <c r="D14" t="n">
-        <v>-1277.693930680008</v>
+        <v>288.9126938282743</v>
       </c>
       <c r="E14" t="n">
-        <v>-11741.89600000006</v>
+        <v>-9043.195999999962</v>
       </c>
       <c r="F14" t="n">
-        <v>-6601.32257055322</v>
+        <v>4631.640817487096</v>
       </c>
       <c r="G14" t="n">
-        <v>9095.587000331954</v>
+        <v>694.7777823175171</v>
       </c>
       <c r="H14" t="n">
         <v>6125.420173960127</v>
@@ -947,10 +948,10 @@
         <v>5007.499908355926</v>
       </c>
       <c r="J14" t="n">
-        <v>708.5329374834409</v>
+        <v>2481.074332959245</v>
       </c>
       <c r="K14" t="n">
-        <v>214.4897310063674</v>
+        <v>3686.236977309967</v>
       </c>
     </row>
     <row r="15">
@@ -964,16 +965,16 @@
         <v>5198.372856250493</v>
       </c>
       <c r="D15" t="n">
-        <v>5770.374760369139</v>
+        <v>5197.881365585334</v>
       </c>
       <c r="E15" t="n">
-        <v>7169.909999999823</v>
+        <v>9486.371999999699</v>
       </c>
       <c r="F15" t="n">
-        <v>2241.959107968878</v>
+        <v>4870.303107809588</v>
       </c>
       <c r="G15" t="n">
-        <v>-11340.95544869019</v>
+        <v>703.8345634132509</v>
       </c>
       <c r="H15" t="n">
         <v>-5782.723379970053</v>
@@ -982,10 +983,10 @@
         <v>-2439.48501937268</v>
       </c>
       <c r="J15" t="n">
-        <v>997.6996650491558</v>
+        <v>575.5760771812689</v>
       </c>
       <c r="K15" t="n">
-        <v>-226.8577666528186</v>
+        <v>-863.3609154126682</v>
       </c>
     </row>
     <row r="16">
@@ -999,16 +1000,16 @@
         <v>-159.122970034018</v>
       </c>
       <c r="D16" t="n">
-        <v>460.8130700331408</v>
+        <v>-159.2565142837786</v>
       </c>
       <c r="E16" t="n">
-        <v>-3260.984000000074</v>
+        <v>6242.024000000107</v>
       </c>
       <c r="F16" t="n">
-        <v>1859.746591170412</v>
+        <v>4652.089643863581</v>
       </c>
       <c r="G16" t="n">
-        <v>12001.04635903438</v>
+        <v>711.3850406122865</v>
       </c>
       <c r="H16" t="n">
         <v>6390.561481769223</v>
@@ -1017,10 +1018,10 @@
         <v>6535.59025154438</v>
       </c>
       <c r="J16" t="n">
-        <v>3017.517684896628</v>
+        <v>2663.831457921619</v>
       </c>
       <c r="K16" t="n">
-        <v>3808.566040217705</v>
+        <v>4180.35049274805</v>
       </c>
     </row>
     <row r="17">
@@ -1034,16 +1035,16 @@
         <v>-2484.39566894342</v>
       </c>
       <c r="D17" t="n">
-        <v>-2058.884244903342</v>
+        <v>-2483.882293393651</v>
       </c>
       <c r="E17" t="n">
-        <v>2161.99600000022</v>
+        <v>3734.274000000148</v>
       </c>
       <c r="F17" t="n">
-        <v>-1988.6548840303</v>
+        <v>-2461.699467202603</v>
       </c>
       <c r="G17" t="n">
-        <v>-6493.829008115502</v>
+        <v>702.4322695107925</v>
       </c>
       <c r="H17" t="n">
         <v>-10353.70707180288</v>
@@ -1052,10 +1053,10 @@
         <v>-8008.903636532785</v>
       </c>
       <c r="J17" t="n">
-        <v>-4978.909101242545</v>
+        <v>-4525.691280232388</v>
       </c>
       <c r="K17" t="n">
-        <v>-5427.579871729484</v>
+        <v>-6633.399329440419</v>
       </c>
     </row>
     <row r="18">
@@ -1069,16 +1070,16 @@
         <v>1267.065901477605</v>
       </c>
       <c r="D18" t="n">
-        <v>1906.626946820217</v>
+        <v>1267.017338513444</v>
       </c>
       <c r="E18" t="n">
-        <v>20116.04400000005</v>
+        <v>12901.5360000001</v>
       </c>
       <c r="F18" t="n">
-        <v>1662.395602940742</v>
+        <v>9716.0281154397</v>
       </c>
       <c r="G18" t="n">
-        <v>2629.904954222192</v>
+        <v>702.4877544201644</v>
       </c>
       <c r="H18" t="n">
         <v>3736.911108147802</v>
@@ -1087,10 +1088,10 @@
         <v>2931.609810181371</v>
       </c>
       <c r="J18" t="n">
-        <v>2300.921873913548</v>
+        <v>1981.018382548077</v>
       </c>
       <c r="K18" t="n">
-        <v>2398.928642325615</v>
+        <v>2558.363205977808</v>
       </c>
     </row>
     <row r="19">
@@ -1104,16 +1105,16 @@
         <v>1155.056325158657</v>
       </c>
       <c r="D19" t="n">
-        <v>15.04710045444381</v>
+        <v>1155.223699970245</v>
       </c>
       <c r="E19" t="n">
-        <v>-11741.89600000006</v>
+        <v>-11255.95599999993</v>
       </c>
       <c r="F19" t="n">
-        <v>-3096.869745308744</v>
+        <v>4631.640817487096</v>
       </c>
       <c r="G19" t="n">
-        <v>5042.372808289933</v>
+        <v>695.034993671786</v>
       </c>
       <c r="H19" t="n">
         <v>6121.6585439063</v>
@@ -1122,10 +1123,10 @@
         <v>4671.505643847646</v>
       </c>
       <c r="J19" t="n">
-        <v>1773.27957361166</v>
+        <v>2759.695841310927</v>
       </c>
       <c r="K19" t="n">
-        <v>1547.664209208545</v>
+        <v>3836.310520001574</v>
       </c>
     </row>
     <row r="20">
@@ -1139,16 +1140,16 @@
         <v>4727.015506502026</v>
       </c>
       <c r="D20" t="n">
-        <v>5022.273511159809</v>
+        <v>4726.508608568834</v>
       </c>
       <c r="E20" t="n">
-        <v>7169.909999999823</v>
+        <v>9486.371999999699</v>
       </c>
       <c r="F20" t="n">
-        <v>2051.673904738592</v>
+        <v>4870.303107809588</v>
       </c>
       <c r="G20" t="n">
-        <v>-7252.28705341529</v>
+        <v>704.0913583605064</v>
       </c>
       <c r="H20" t="n">
         <v>-5786.485010015398</v>
@@ -1157,10 +1158,10 @@
         <v>-2559.827360826366</v>
       </c>
       <c r="J20" t="n">
-        <v>690.9301103117326</v>
+        <v>362.2606205179206</v>
       </c>
       <c r="K20" t="n">
-        <v>-411.4067297025028</v>
+        <v>-1057.808634228578</v>
       </c>
     </row>
     <row r="21">
@@ -1174,16 +1175,16 @@
         <v>-121.9506040628453</v>
       </c>
       <c r="D21" t="n">
-        <v>590.3254286109222</v>
+        <v>-122.0778492211994</v>
       </c>
       <c r="E21" t="n">
-        <v>-3260.984000000074</v>
+        <v>6242.024000000107</v>
       </c>
       <c r="F21" t="n">
-        <v>810.5225376130376</v>
+        <v>4652.089643863581</v>
       </c>
       <c r="G21" t="n">
-        <v>352.4297456700701</v>
+        <v>711.641833703714</v>
       </c>
       <c r="H21" t="n">
         <v>6386.799851709766</v>
@@ -1192,10 +1193,10 @@
         <v>5664.075704781786</v>
       </c>
       <c r="J21" t="n">
-        <v>2665.954583730533</v>
+        <v>2503.697787382244</v>
       </c>
       <c r="K21" t="n">
-        <v>3184.822960967938</v>
+        <v>3871.509907639503</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,125 +1246,130 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Observations</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Tuned</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>DynamicallyTested</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TestSetLength</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>TestSetRMSE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAPE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>TestSetMAE</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>TestSetR2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetPrediction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>LastTestSetActual</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>InSampleRMSE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAPE</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>InSampleMAE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>InSampleR2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ValidationSetLength</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetric</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>ValidationMetricValue</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>univariate</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>models</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>weights</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetRMSE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAPE</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetMAE</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>LevelTestSetR2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>best_model</t>
         </is>
@@ -1372,185 +1378,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR10', 'dayofweeksin', 'dayofweekcos', 't']</t>
-        </is>
-      </c>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'hidden_layer_sizes': (25, 25), 'solver': 'adam', 'random_state': 20}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="b">
+      <c r="F2" t="n">
+        <v>242</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24260.58030210456</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.591674663680119</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18016.23879325197</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.07087753978980871</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5664.075704781786</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7055.840000000069</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>18394.89892740932</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>12936.24857451506</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.124210337342228</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20578.56909014391</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.088053087227248</v>
-      </c>
-      <c r="L2" t="n">
-        <v>16029.44066592617</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.2295086155285622</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-558.7183511818787</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7055.840000000069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>12824.43433085855</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
-        <v>9594.344656759218</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.5437841698711293</v>
-      </c>
-      <c r="T2" t="n">
-        <v>10</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>15203.75936939227</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
-        <v>14791.23439299341</v>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>0.1904649015503728</v>
+        <v>16517.14274718804</v>
       </c>
       <c r="AB2" t="n">
-        <v>12306.97238636442</v>
+        <v>0.2085101198740556</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1286533659259649</v>
-      </c>
-      <c r="AD2" t="b">
+        <v>13298.86228159275</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.0865556229125477</v>
+      </c>
+      <c r="AE2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>weighted</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>prophet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ['mlp', 'silverkite', 'prophet', 'mlr', 'elasticnet'], 'weights': (5, 4, 3, 2, 1), 'determine_best_by': None}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="b">
+      <c r="F3" t="n">
+        <v>242</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>20</v>
       </c>
-      <c r="J3" t="n">
-        <v>22483.34777372621</v>
-      </c>
       <c r="K3" t="n">
-        <v>2.565115163468184</v>
+        <v>25684.84010623584</v>
       </c>
       <c r="L3" t="n">
-        <v>17102.62637082722</v>
+        <v>4.62879838445857</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08027202424807856</v>
+        <v>18747.47769872883</v>
       </c>
       <c r="N3" t="n">
-        <v>2941.12961022459</v>
+        <v>-0.2003037787728086</v>
       </c>
       <c r="O3" t="n">
+        <v>7745.350656601466</v>
+      </c>
+      <c r="P3" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="P3" t="n">
-        <v>14213.40916523743</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
-        <v>10518.78305542428</v>
-      </c>
+      <c r="Q3" t="n">
+        <v>18397.09353028906</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>0.4396099296479038</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>13217.69270588214</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1240013527562288</v>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>['mlp', 'silverkite', 'prophet', 'mlr', 'elasticnet']</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>(0.36666666666666664, 0.28333333333333327, 0.19999999999999996, 0.11666666666666664, 0.03333333333333333)</t>
-        </is>
-      </c>
-      <c r="Z3" t="n">
-        <v>15653.06844179354</v>
-      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>0.1975790536607134</v>
+        <v>16701.2550079469</v>
       </c>
       <c r="AB3" t="n">
-        <v>12677.37498788592</v>
+        <v>0.1791667314814208</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02415444627675511</v>
-      </c>
-      <c r="AD3" t="b">
+        <v>12360.46898429873</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.1109137286389559</v>
+      </c>
+      <c r="AE3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>weighted</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1561,247 +1559,262 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'how': 'simple', 'models': ['mlp', 'silverkite', 'prophet', 'mlr', 'elasticnet'], 'determine_best_by': None}</t>
+          <t>{'how': 'weighted', 'models': ['silverkite', 'prophet', 'mlr', 'elasticnet', 'svr'], 'weights': (5, 4, 3, 2, 1), 'determine_best_by': None}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="b">
+      <c r="F4" t="n">
+        <v>242</v>
+      </c>
+      <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>20</v>
       </c>
-      <c r="J4" t="n">
-        <v>22557.29494087765</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.561664215743822</v>
+        <v>23658.59004912716</v>
       </c>
       <c r="L4" t="n">
-        <v>16984.35693379872</v>
+        <v>3.222993822983896</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07421215071526799</v>
+        <v>17564.47691798542</v>
       </c>
       <c r="N4" t="n">
-        <v>2549.063338425362</v>
+        <v>-0.01839242031432975</v>
       </c>
       <c r="O4" t="n">
+        <v>4278.18806632399</v>
+      </c>
+      <c r="P4" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="P4" t="n">
-        <v>14217.32997957906</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>10506.47422994709</v>
-      </c>
+      <c r="Q4" t="n">
+        <v>15667.66664571239</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>0.439300716221412</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
+        <v>11324.11841471825</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.3190698565791873</v>
+      </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>['mlp', 'silverkite', 'prophet', 'mlr', 'elasticnet']</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
-        <v>16435.00293238802</v>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>['silverkite', 'prophet', 'mlr', 'elasticnet', 'svr']</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>(0.36666666666666664, 0.28333333333333327, 0.19999999999999996, 0.11666666666666664, 0.03333333333333333)</t>
+        </is>
       </c>
       <c r="AA4" t="n">
-        <v>0.2091673666017871</v>
+        <v>16808.69231414476</v>
       </c>
       <c r="AB4" t="n">
-        <v>13109.12858751268</v>
+        <v>0.21117269373323</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.0757756036319992</v>
-      </c>
-      <c r="AD4" t="b">
+        <v>13329.95589980815</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.1252524681503409</v>
+      </c>
+      <c r="AE4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'how': 'simple', 'models': ['silverkite', 'prophet', 'mlr', 'elasticnet', 'svr'], 'determine_best_by': None}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="b">
+      <c r="F5" t="n">
+        <v>242</v>
+      </c>
+      <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="b">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>20</v>
       </c>
-      <c r="J5" t="n">
-        <v>24260.58030210456</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.591674663680119</v>
+        <v>23192.0097189718</v>
       </c>
       <c r="L5" t="n">
-        <v>18016.23879325197</v>
+        <v>2.507080854730155</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.07087753978980871</v>
+        <v>17231.71467728922</v>
       </c>
       <c r="N5" t="n">
-        <v>5664.075704781786</v>
+        <v>0.02137972535767052</v>
       </c>
       <c r="O5" t="n">
+        <v>2801.959851003666</v>
+      </c>
+      <c r="P5" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="P5" t="n">
-        <v>18394.89892740932</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>12936.24857451506</v>
-      </c>
+      <c r="Q5" t="n">
+        <v>15406.68953902678</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>0.124210337342228</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
+        <v>11118.74693523609</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3415655024197165</v>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="b">
-        <v>1</v>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
-        <v>16517.14274718804</v>
-      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>['silverkite', 'prophet', 'mlr', 'elasticnet', 'svr']</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>0.2085101198740557</v>
+        <v>17703.37770872236</v>
       </c>
       <c r="AB5" t="n">
-        <v>13298.86228159274</v>
+        <v>0.2347042587608579</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.08655562291254792</v>
-      </c>
-      <c r="AD5" t="b">
+        <v>14493.90908326839</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.2482293496881245</v>
+      </c>
+      <c r="AE5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>mlr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>mlr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR10', 'dayofweeksin', 'dayofweekcos', 't']</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="b">
+      <c r="F6" t="n">
+        <v>242</v>
+      </c>
+      <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
+      <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>20</v>
       </c>
-      <c r="J6" t="n">
-        <v>25684.84010623584</v>
-      </c>
       <c r="K6" t="n">
-        <v>4.62879838445857</v>
+        <v>21980.76861693473</v>
       </c>
       <c r="L6" t="n">
-        <v>18747.47769872883</v>
+        <v>1.87629534683638</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.2003037787728086</v>
+        <v>16450.84920083433</v>
       </c>
       <c r="N6" t="n">
-        <v>7745.350656601466</v>
+        <v>0.1209305455606735</v>
       </c>
       <c r="O6" t="n">
+        <v>-52.62637697641617</v>
+      </c>
+      <c r="P6" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="P6" t="n">
-        <v>18397.09353028906</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>13217.69270588214</v>
-      </c>
+      <c r="Q6" t="n">
+        <v>14088.48793173532</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>0.1240013527562288</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
+        <v>10580.15767564241</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.4494171453209976</v>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="b">
-        <v>1</v>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
-        <v>16701.2550079469</v>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>0.1791667314814207</v>
+        <v>19345.34808468366</v>
       </c>
       <c r="AB6" t="n">
-        <v>12360.46898429872</v>
+        <v>0.2643620923321007</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.1109137286389559</v>
-      </c>
-      <c r="AD6" t="b">
+        <v>16059.79448978907</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.4905111057426657</v>
+      </c>
+      <c r="AE6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mlr</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mlr</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1811,81 +1824,92 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'alpha': 0.1, 'l1_ratio': 1.0}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="b">
-        <v>0</v>
+      <c r="F7" t="n">
+        <v>242</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>20</v>
       </c>
-      <c r="J7" t="n">
-        <v>21980.76861693473</v>
-      </c>
       <c r="K7" t="n">
-        <v>1.87629534683638</v>
+        <v>21980.76517851838</v>
       </c>
       <c r="L7" t="n">
-        <v>16450.84920083433</v>
+        <v>1.876122160966541</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1209305455606735</v>
+        <v>16450.81863923095</v>
       </c>
       <c r="N7" t="n">
-        <v>-52.62637697641617</v>
+        <v>0.1209308205834991</v>
       </c>
       <c r="O7" t="n">
+        <v>-52.76494109814735</v>
+      </c>
+      <c r="P7" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="P7" t="n">
-        <v>14088.48793173532</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>10580.15767564241</v>
-      </c>
+      <c r="Q7" t="n">
+        <v>14088.48793338687</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>0.4494171453209976</v>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+        <v>10580.14351336468</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.4494171451919119</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>17296.7850293634</v>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
-        <v>19345.34808468366</v>
-      </c>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>0.2643620923321007</v>
+        <v>19345.36575356768</v>
       </c>
       <c r="AB7" t="n">
-        <v>16059.79448978906</v>
+        <v>0.2643632747236448</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.4905111057426654</v>
-      </c>
-      <c r="AD7" t="b">
+        <v>16059.85194219647</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4905138284313215</v>
+      </c>
+      <c r="AE7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1895,255 +1919,268 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'alpha': 0.1, 'l1_ratio': 1.0}</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="b">
-        <v>1</v>
+          <t>{'kernel': 'linear', 'C': 3.0, 'epsilon': 0.01}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>242</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>20</v>
       </c>
-      <c r="J8" t="n">
-        <v>21980.76517851838</v>
-      </c>
       <c r="K8" t="n">
-        <v>1.876122160966541</v>
+        <v>23444.06349239196</v>
       </c>
       <c r="L8" t="n">
-        <v>16450.81863923095</v>
+        <v>1.237820618762915</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1209308205834991</v>
+        <v>17297.36364624574</v>
       </c>
       <c r="N8" t="n">
-        <v>-52.76494109814735</v>
+        <v>-7.410059777557265e-06</v>
       </c>
       <c r="O8" t="n">
+        <v>705.764211709641</v>
+      </c>
+      <c r="P8" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="P8" t="n">
-        <v>14601.78713539098</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>10744.90014367467</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>18997.01605455454</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>0.4085664721919557</v>
+        <v>13430.69107672023</v>
       </c>
       <c r="T8" t="n">
+        <v>-0.001070570381752844</v>
+      </c>
+      <c r="U8" t="n">
         <v>10</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V8" t="n">
-        <v>17553.74587559423</v>
-      </c>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>18306.71334093636</v>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
-        <v>19345.36575356768</v>
-      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>0.264363274723645</v>
+        <v>20788.40922853734</v>
       </c>
       <c r="AB8" t="n">
-        <v>16059.85194219647</v>
+        <v>0.3009727994274103</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.4905138284313215</v>
-      </c>
-      <c r="AD8" t="b">
+        <v>18040.45423588554</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.7211734345776561</v>
+      </c>
+      <c r="AE8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR10', 'dayofweeksin', 'dayofweekcos', 't']</t>
-        </is>
-      </c>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'max_depth': 2}</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
-      <c r="F9" t="b">
+          <t>{'order': (4, 1, 0), 'seasonal_order': (2, 0, 0, 5)}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>243</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="b">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20</v>
+      </c>
+      <c r="K9" t="n">
+        <v>44408.22553323487</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6041697011167072</v>
+      </c>
+      <c r="M9" t="n">
+        <v>40681.94843007217</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-6.854326654808984</v>
+      </c>
+      <c r="O9" t="n">
+        <v>25444.44171900264</v>
+      </c>
+      <c r="P9" t="n">
+        <v>82494.99999999972</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>14759.02299662494</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>10678.2465292226</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.3720505281981898</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>20</v>
-      </c>
-      <c r="J9" t="n">
-        <v>21345.85013352898</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.341048786017148</v>
-      </c>
-      <c r="L9" t="n">
-        <v>16325.51413694959</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.1709812515942998</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6982.23201564487</v>
-      </c>
-      <c r="O9" t="n">
-        <v>7055.840000000069</v>
-      </c>
-      <c r="P9" t="n">
-        <v>11850.31735863008</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>8891.047879434755</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.6104583702203301</v>
-      </c>
-      <c r="T9" t="n">
-        <v>10</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>23807.01322190943</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
-        <v>38717.81894880486</v>
-      </c>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>0.5344754958824958</v>
+        <v>44408.22553323487</v>
       </c>
       <c r="AB9" t="n">
-        <v>35736.23934739353</v>
+        <v>0.6041697011167072</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.970406324488739</v>
-      </c>
-      <c r="AD9" t="b">
+        <v>40681.94843007217</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-6.854326654808984</v>
+      </c>
+      <c r="AE9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR10', 'dayofweeksin', 'dayofweekcos', 't']</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'order': (4, 1, 0), 'seasonal_order': (2, 0, 0, 5)}</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="b">
-        <v>0</v>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>242</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>20</v>
       </c>
-      <c r="J10" t="n">
-        <v>44408.22553323487</v>
-      </c>
       <c r="K10" t="n">
-        <v>0.6041697011167072</v>
+        <v>23180.45834485688</v>
       </c>
       <c r="L10" t="n">
-        <v>40681.94843007217</v>
+        <v>4.095988615083447</v>
       </c>
       <c r="M10" t="n">
-        <v>-6.854326654808984</v>
+        <v>18239.7406415562</v>
       </c>
       <c r="N10" t="n">
-        <v>25444.44171900264</v>
+        <v>0.02235433633969974</v>
       </c>
       <c r="O10" t="n">
-        <v>82494.99999999972</v>
+        <v>11042.41895610754</v>
       </c>
       <c r="P10" t="n">
-        <v>14759.02299662494</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
-        <v>10678.2465292226</v>
-      </c>
+        <v>7055.840000000069</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>16142.99065597367</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>0.3720505281981898</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="b">
-        <v>1</v>
+        <v>12251.63153644267</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.2771271637189858</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>14929.18364760034</v>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
-        <v>44408.22553323487</v>
-      </c>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>0.6041697011167072</v>
+        <v>77553.29098008816</v>
       </c>
       <c r="AB10" t="n">
-        <v>40681.94843007217</v>
+        <v>1.115595853212733</v>
       </c>
       <c r="AC10" t="n">
-        <v>-6.854326654808984</v>
-      </c>
-      <c r="AD10" t="b">
+        <v>69114.51853576829</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-22.95425029141463</v>
+      </c>
+      <c r="AE10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2173,73 +2210,76 @@
           <t>minmax</t>
         </is>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="n">
+        <v>242</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>20</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>23881.61463492258</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>5.723273465983262</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>20527.67720000009</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>-0.0376832643165903</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>13124.51400000002</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>7055.840000000069</v>
       </c>
-      <c r="P11" t="n">
-        <v>14022.69116657059</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>10286.62527844827</v>
-      </c>
+      <c r="Q11" t="n">
+        <v>14097.29100041831</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>0.4545478559254832</v>
+        <v>10296.76421034482</v>
       </c>
       <c r="T11" t="n">
+        <v>0.4487288765791602</v>
+      </c>
+      <c r="U11" t="n">
         <v>10</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>14827.63187322461</v>
       </c>
-      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
-        <v>81391.03705932212</v>
-      </c>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
+        <v>81391.03705932213</v>
+      </c>
+      <c r="AB11" t="n">
         <v>1.209730810343186</v>
       </c>
-      <c r="AB11" t="n">
-        <v>74049.02930000014</v>
-      </c>
       <c r="AC11" t="n">
+        <v>74049.02930000015</v>
+      </c>
+      <c r="AD11" t="n">
         <v>-25.38367470056216</v>
       </c>
-      <c r="AD11" t="b">
+      <c r="AE11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5430,11 +5470,11 @@
         <v>40886</v>
       </c>
       <c r="B244" t="n">
-        <v>-7507.877831064385</v>
+        <v>-6259.514287888329</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5443,11 +5483,11 @@
         <v>40889</v>
       </c>
       <c r="B245" t="n">
-        <v>14394.62534368738</v>
+        <v>2990.428511025706</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5456,11 +5496,11 @@
         <v>40890</v>
       </c>
       <c r="B246" t="n">
-        <v>-25081.35476693225</v>
+        <v>4483.544525125417</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5469,11 +5509,11 @@
         <v>40891</v>
       </c>
       <c r="B247" t="n">
-        <v>6116.56586196482</v>
+        <v>-3711.755670806902</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5482,11 +5522,11 @@
         <v>40892</v>
       </c>
       <c r="B248" t="n">
-        <v>5147.895932813582</v>
+        <v>5183.23384238588</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5495,11 +5535,11 @@
         <v>40893</v>
       </c>
       <c r="B249" t="n">
-        <v>-2255.705932201194</v>
+        <v>-7658.493341794066</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5508,11 +5548,11 @@
         <v>40896</v>
       </c>
       <c r="B250" t="n">
-        <v>6058.613373567395</v>
+        <v>1703.190439685591</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5521,11 +5561,11 @@
         <v>40897</v>
       </c>
       <c r="B251" t="n">
-        <v>-12369.96551964506</v>
+        <v>3444.719369290877</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5534,11 +5574,11 @@
         <v>40898</v>
       </c>
       <c r="B252" t="n">
-        <v>6485.724302796223</v>
+        <v>-4401.157666628116</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5547,11 +5587,11 @@
         <v>40899</v>
       </c>
       <c r="B253" t="n">
-        <v>2041.417594449117</v>
+        <v>4876.53523638085</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5560,11 +5600,11 @@
         <v>40900</v>
       </c>
       <c r="B254" t="n">
-        <v>-3441.3844744006</v>
+        <v>-7974.217561275682</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5573,11 +5613,11 @@
         <v>40903</v>
       </c>
       <c r="B255" t="n">
-        <v>3331.350056436211</v>
+        <v>3013.840017310587</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5586,11 +5626,11 @@
         <v>40904</v>
       </c>
       <c r="B256" t="n">
-        <v>-6601.32257055322</v>
+        <v>5007.499908355926</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5599,11 +5639,11 @@
         <v>40905</v>
       </c>
       <c r="B257" t="n">
-        <v>2241.959107968878</v>
+        <v>-2439.48501937268</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5612,11 +5652,11 @@
         <v>40906</v>
       </c>
       <c r="B258" t="n">
-        <v>1859.746591170412</v>
+        <v>6535.59025154438</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5625,11 +5665,11 @@
         <v>40907</v>
       </c>
       <c r="B259" t="n">
-        <v>-1988.6548840303</v>
+        <v>-8008.903636532785</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5638,11 +5678,11 @@
         <v>40910</v>
       </c>
       <c r="B260" t="n">
-        <v>1662.395602940742</v>
+        <v>2931.609810181371</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5651,11 +5691,11 @@
         <v>40911</v>
       </c>
       <c r="B261" t="n">
-        <v>-3096.869745308744</v>
+        <v>4671.505643847646</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5664,11 +5704,11 @@
         <v>40912</v>
       </c>
       <c r="B262" t="n">
-        <v>2051.673904738592</v>
+        <v>-2559.827360826366</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5677,11 +5717,11 @@
         <v>40913</v>
       </c>
       <c r="B263" t="n">
-        <v>810.5225376130376</v>
+        <v>5664.075704781786</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>silverkite</t>
         </is>
       </c>
     </row>
@@ -5717,47 +5757,47 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mlr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>mlp</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>weighted</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>mlr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -5774,31 +5814,31 @@
         <v>-15751.08999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-3028.009810452911</v>
+        <v>-6259.514287888329</v>
       </c>
       <c r="D2" t="n">
-        <v>-5724.337944687115</v>
+        <v>-10935.70512292297</v>
       </c>
       <c r="E2" t="n">
-        <v>-5787.018155091404</v>
+        <v>-6749.615770167045</v>
       </c>
       <c r="F2" t="n">
-        <v>-6259.514287888329</v>
+        <v>-5041.164246374744</v>
       </c>
       <c r="G2" t="n">
-        <v>-10935.70512292297</v>
+        <v>-4356.026674740016</v>
       </c>
       <c r="H2" t="n">
-        <v>-4356.026674740016</v>
+        <v>-4355.83487945279</v>
       </c>
       <c r="I2" t="n">
-        <v>-4355.83487945279</v>
+        <v>701.2597331303854</v>
       </c>
       <c r="J2" t="n">
-        <v>-38464.30249050169</v>
+        <v>-4918.527284019259</v>
       </c>
       <c r="K2" t="n">
-        <v>-4918.527284019259</v>
+        <v>-2286.307143721339</v>
       </c>
       <c r="L2" t="n">
         <v>12335.52200000015</v>
@@ -5812,31 +5852,31 @@
         <v>59162.71999999991</v>
       </c>
       <c r="C3" t="n">
-        <v>9107.219817878953</v>
+        <v>2990.428511025706</v>
       </c>
       <c r="D3" t="n">
-        <v>5152.498321629008</v>
+        <v>1986.524639200514</v>
       </c>
       <c r="E3" t="n">
-        <v>4333.082868845111</v>
+        <v>2883.075934208327</v>
       </c>
       <c r="F3" t="n">
-        <v>2990.428511025706</v>
+        <v>2651.890916905636</v>
       </c>
       <c r="G3" t="n">
-        <v>1986.524639200514</v>
+        <v>3790.600038863911</v>
       </c>
       <c r="H3" t="n">
-        <v>3790.600038863911</v>
+        <v>3790.641337256472</v>
       </c>
       <c r="I3" t="n">
-        <v>3790.641337256472</v>
+        <v>701.2600581815756</v>
       </c>
       <c r="J3" t="n">
-        <v>8811.077968392061</v>
+        <v>21840.92930588979</v>
       </c>
       <c r="K3" t="n">
-        <v>21840.92930588979</v>
+        <v>8405.029060557121</v>
       </c>
       <c r="L3" t="n">
         <v>12335.52200000015</v>
@@ -5850,31 +5890,31 @@
         <v>-53612.60000000004</v>
       </c>
       <c r="C4" t="n">
-        <v>-17538.55832196075</v>
+        <v>4483.544525125417</v>
       </c>
       <c r="D4" t="n">
-        <v>-4553.852064168814</v>
+        <v>8036.8578339751</v>
       </c>
       <c r="E4" t="n">
-        <v>-3672.308493190067</v>
+        <v>1831.570982335749</v>
       </c>
       <c r="F4" t="n">
-        <v>4483.544525125417</v>
+        <v>-25.39478608939892</v>
       </c>
       <c r="G4" t="n">
-        <v>8036.8578339751</v>
+        <v>-6671.723739129077</v>
       </c>
       <c r="H4" t="n">
-        <v>-6671.723739129077</v>
+        <v>-6671.662763961025</v>
       </c>
       <c r="I4" t="n">
-        <v>-6671.662763961025</v>
+        <v>696.0102135425908</v>
       </c>
       <c r="J4" t="n">
-        <v>-32728.77139848445</v>
+        <v>26389.69081237573</v>
       </c>
       <c r="K4" t="n">
-        <v>26389.69081237573</v>
+        <v>-2286.30714621586</v>
       </c>
       <c r="L4" t="n">
         <v>-6898.052000000172</v>
@@ -5888,31 +5928,31 @@
         <v>5150.880000000259</v>
       </c>
       <c r="C5" t="n">
-        <v>5509.352007069097</v>
+        <v>-3711.755670806902</v>
       </c>
       <c r="D5" t="n">
-        <v>750.1774785085612</v>
+        <v>-6968.966604044537</v>
       </c>
       <c r="E5" t="n">
-        <v>2100.454695194118</v>
+        <v>-830.4911192708821</v>
       </c>
       <c r="F5" t="n">
-        <v>-3711.755670806902</v>
+        <v>1138.686388204908</v>
       </c>
       <c r="G5" t="n">
-        <v>-6968.966604044537</v>
+        <v>7837.012543947885</v>
       </c>
       <c r="H5" t="n">
-        <v>7837.012543947885</v>
+        <v>7836.631199805048</v>
       </c>
       <c r="I5" t="n">
-        <v>7836.631199805048</v>
+        <v>700.5104721230463</v>
       </c>
       <c r="J5" t="n">
-        <v>11956.29230644152</v>
+        <v>22120.28165527879</v>
       </c>
       <c r="K5" t="n">
-        <v>22120.28165527879</v>
+        <v>8411.655664495058</v>
       </c>
       <c r="L5" t="n">
         <v>-253.4300000001444</v>
@@ -5926,31 +5966,31 @@
         <v>-4855.040000000372</v>
       </c>
       <c r="C6" t="n">
-        <v>1953.001040716857</v>
+        <v>5183.23384238588</v>
       </c>
       <c r="D6" t="n">
-        <v>3920.711954975397</v>
+        <v>7791.023518699121</v>
       </c>
       <c r="E6" t="n">
-        <v>3459.633868276248</v>
+        <v>4506.900955183515</v>
       </c>
       <c r="F6" t="n">
-        <v>5183.23384238588</v>
+        <v>3210.185800626477</v>
       </c>
       <c r="G6" t="n">
-        <v>7791.023518699121</v>
+        <v>1185.522995728968</v>
       </c>
       <c r="H6" t="n">
-        <v>1185.522995728968</v>
+        <v>1185.387943850419</v>
       </c>
       <c r="I6" t="n">
-        <v>1185.387943850419</v>
+        <v>705.760702467992</v>
       </c>
       <c r="J6" t="n">
-        <v>-873.8054799431651</v>
+        <v>24713.07814746056</v>
       </c>
       <c r="K6" t="n">
-        <v>24713.07814746056</v>
+        <v>11042.41895610754</v>
       </c>
       <c r="L6" t="n">
         <v>13124.51400000002</v>
@@ -5964,31 +6004,31 @@
         <v>-9827.739999999678</v>
       </c>
       <c r="C7" t="n">
-        <v>91.56546400265429</v>
+        <v>-7658.493341794066</v>
       </c>
       <c r="D7" t="n">
-        <v>-4732.327166747169</v>
+        <v>-10950.92941032277</v>
       </c>
       <c r="E7" t="n">
-        <v>-4785.677595222964</v>
+        <v>-6744.188592099441</v>
       </c>
       <c r="F7" t="n">
-        <v>-7658.493341794066</v>
+        <v>-4663.738499272546</v>
       </c>
       <c r="G7" t="n">
-        <v>-10950.92941032277</v>
+        <v>-2705.493820502989</v>
       </c>
       <c r="H7" t="n">
-        <v>-2705.493820502989</v>
+        <v>-2705.03686749764</v>
       </c>
       <c r="I7" t="n">
-        <v>-2705.03686749764</v>
+        <v>701.260943754743</v>
       </c>
       <c r="J7" t="n">
-        <v>5001.992530907524</v>
+        <v>17178.71798199158</v>
       </c>
       <c r="K7" t="n">
-        <v>17178.71798199158</v>
+        <v>8405.029060557121</v>
       </c>
       <c r="L7" t="n">
         <v>12335.52200000015</v>
@@ -6002,31 +6042,31 @@
         <v>-1469.670000000289</v>
       </c>
       <c r="C8" t="n">
-        <v>3529.407388416754</v>
+        <v>1703.190439685591</v>
       </c>
       <c r="D8" t="n">
-        <v>2590.111424171651</v>
+        <v>1971.300351814361</v>
       </c>
       <c r="E8" t="n">
-        <v>2558.550268561973</v>
+        <v>2091.316084731925</v>
       </c>
       <c r="F8" t="n">
-        <v>1703.190439685591</v>
+        <v>1992.921031560565</v>
       </c>
       <c r="G8" t="n">
-        <v>1971.300351814361</v>
+        <v>2794.434976583361</v>
       </c>
       <c r="H8" t="n">
-        <v>2794.434976583361</v>
+        <v>2794.418186309799</v>
       </c>
       <c r="I8" t="n">
-        <v>2794.418186309799</v>
+        <v>701.2612034097114</v>
       </c>
       <c r="J8" t="n">
-        <v>-4747.805689876914</v>
+        <v>26612.97008315576</v>
       </c>
       <c r="K8" t="n">
-        <v>26612.97008315576</v>
+        <v>8405.029060557121</v>
       </c>
       <c r="L8" t="n">
         <v>12335.52200000015</v>
@@ -6040,31 +6080,31 @@
         <v>14284.10000000013</v>
       </c>
       <c r="C9" t="n">
-        <v>-8098.796941147201</v>
+        <v>3444.719369290877</v>
       </c>
       <c r="D9" t="n">
-        <v>-819.0760573458042</v>
+        <v>8021.633546618599</v>
       </c>
       <c r="E9" t="n">
-        <v>-472.7315836965137</v>
+        <v>2651.611452077469</v>
       </c>
       <c r="F9" t="n">
-        <v>3444.719369290877</v>
+        <v>1286.23007921641</v>
       </c>
       <c r="G9" t="n">
-        <v>8021.633546618599</v>
+        <v>-2865.686957277646</v>
       </c>
       <c r="H9" t="n">
-        <v>-2865.686957277646</v>
+        <v>-2865.526935967197</v>
       </c>
       <c r="I9" t="n">
-        <v>-2865.526935967197</v>
+        <v>696.0113734174162</v>
       </c>
       <c r="J9" t="n">
-        <v>3601.344110918582</v>
+        <v>26502.07908428803</v>
       </c>
       <c r="K9" t="n">
-        <v>26502.07908428803</v>
+        <v>-2286.30714621586</v>
       </c>
       <c r="L9" t="n">
         <v>-6898.052000000172</v>
@@ -6078,31 +6118,31 @@
         <v>16014.35999999978</v>
       </c>
       <c r="C10" t="n">
-        <v>5424.294800541337</v>
+        <v>-4401.157666628116</v>
       </c>
       <c r="D10" t="n">
-        <v>468.6243413704699</v>
+        <v>-6984.190891394587</v>
       </c>
       <c r="E10" t="n">
-        <v>1803.866463005336</v>
+        <v>-1197.346904005217</v>
       </c>
       <c r="F10" t="n">
-        <v>-4401.157666628116</v>
+        <v>859.1098345912151</v>
       </c>
       <c r="G10" t="n">
-        <v>-6984.190891394587</v>
+        <v>7490.434750943137</v>
       </c>
       <c r="H10" t="n">
-        <v>7490.434750943137</v>
+        <v>7489.951321564909</v>
       </c>
       <c r="I10" t="n">
-        <v>7489.951321564909</v>
+        <v>700.5116584707313</v>
       </c>
       <c r="J10" t="n">
-        <v>-1506.50899040906</v>
+        <v>27866.68963860323</v>
       </c>
       <c r="K10" t="n">
-        <v>27866.68963860323</v>
+        <v>8617.894977851734</v>
       </c>
       <c r="L10" t="n">
         <v>-253.4300000001444</v>
@@ -6116,31 +6156,31 @@
         <v>-29125.54999999973</v>
       </c>
       <c r="C11" t="n">
-        <v>-391.0848238369227</v>
+        <v>4876.53523638085</v>
       </c>
       <c r="D11" t="n">
-        <v>2783.59429495831</v>
+        <v>7775.799231327346</v>
       </c>
       <c r="E11" t="n">
-        <v>2425.958514292464</v>
+        <v>3993.923909321624</v>
       </c>
       <c r="F11" t="n">
-        <v>4876.53523638085</v>
+        <v>2645.327855148872</v>
       </c>
       <c r="G11" t="n">
-        <v>7775.799231327346</v>
+        <v>-65.65036553474602</v>
       </c>
       <c r="H11" t="n">
-        <v>-65.65036553474602</v>
+        <v>-65.80670687420616</v>
       </c>
       <c r="I11" t="n">
-        <v>-65.80670687420616</v>
+        <v>705.7618804451182</v>
       </c>
       <c r="J11" t="n">
-        <v>6982.23201564487</v>
+        <v>26119.61173702646</v>
       </c>
       <c r="K11" t="n">
-        <v>26119.61173702646</v>
+        <v>11042.41895610754</v>
       </c>
       <c r="L11" t="n">
         <v>13124.51400000002</v>
@@ -6154,31 +6194,31 @@
         <v>-155.8999999999578</v>
       </c>
       <c r="C12" t="n">
-        <v>31.44747204046446</v>
+        <v>-7974.217561275682</v>
       </c>
       <c r="D12" t="n">
-        <v>-4873.061146654483</v>
+        <v>-10966.15369771601</v>
       </c>
       <c r="E12" t="n">
-        <v>-4933.725957681705</v>
+        <v>-6919.556254514062</v>
       </c>
       <c r="F12" t="n">
-        <v>-7974.217561275682</v>
+        <v>-4799.763030533753</v>
       </c>
       <c r="G12" t="n">
-        <v>-10966.15369771601</v>
+        <v>-2880.111653393189</v>
       </c>
       <c r="H12" t="n">
-        <v>-2880.111653393189</v>
+        <v>-2879.594348064108</v>
       </c>
       <c r="I12" t="n">
-        <v>-2879.594348064108</v>
+        <v>701.2621077802264</v>
       </c>
       <c r="J12" t="n">
-        <v>-4534.194211279842</v>
+        <v>38466.61138982607</v>
       </c>
       <c r="K12" t="n">
-        <v>38466.61138982607</v>
+        <v>8405.029060557121</v>
       </c>
       <c r="L12" t="n">
         <v>12335.52200000015</v>
@@ -6192,31 +6232,31 @@
         <v>6342.459999999919</v>
       </c>
       <c r="C13" t="n">
-        <v>1618.885362497964</v>
+        <v>3013.840017310587</v>
       </c>
       <c r="D13" t="n">
-        <v>2079.501646615553</v>
+        <v>1956.076064455545</v>
       </c>
       <c r="E13" t="n">
-        <v>1959.818604153888</v>
+        <v>2190.969729941001</v>
       </c>
       <c r="F13" t="n">
-        <v>3013.840017310587</v>
+        <v>1776.293999966766</v>
       </c>
       <c r="G13" t="n">
-        <v>1956.076064455545</v>
+        <v>1605.168920244161</v>
       </c>
       <c r="H13" t="n">
-        <v>1605.168920244161</v>
+        <v>1605.122656261183</v>
       </c>
       <c r="I13" t="n">
-        <v>1605.122656261183</v>
+        <v>701.262341562351</v>
       </c>
       <c r="J13" t="n">
-        <v>5001.992530907524</v>
+        <v>27391.36442539522</v>
       </c>
       <c r="K13" t="n">
-        <v>27391.36442539522</v>
+        <v>8405.029060557121</v>
       </c>
       <c r="L13" t="n">
         <v>12335.52200000015</v>
@@ -6230,31 +6270,31 @@
         <v>15430.74000000009</v>
       </c>
       <c r="C14" t="n">
-        <v>-4393.571599112536</v>
+        <v>5007.499908355926</v>
       </c>
       <c r="D14" t="n">
-        <v>1401.348727772561</v>
+        <v>8006.409259216365</v>
       </c>
       <c r="E14" t="n">
-        <v>1703.425099030609</v>
+        <v>4111.416824479837</v>
       </c>
       <c r="F14" t="n">
-        <v>5007.499908355926</v>
+        <v>2721.341933916399</v>
       </c>
       <c r="G14" t="n">
-        <v>8006.409259216365</v>
+        <v>-51.69731184084162</v>
       </c>
       <c r="H14" t="n">
-        <v>-51.69731184084162</v>
+        <v>-51.51476146586947</v>
       </c>
       <c r="I14" t="n">
-        <v>-51.51476146586947</v>
+        <v>696.0125753164132</v>
       </c>
       <c r="J14" t="n">
-        <v>-608.4556933143706</v>
+        <v>25424.93468286569</v>
       </c>
       <c r="K14" t="n">
-        <v>25424.93468286569</v>
+        <v>-2286.30714621586</v>
       </c>
       <c r="L14" t="n">
         <v>-6898.052000000172</v>
@@ -6268,31 +6308,31 @@
         <v>-12468.97000000019</v>
       </c>
       <c r="C15" t="n">
-        <v>1571.914944990312</v>
+        <v>-2439.48501937268</v>
       </c>
       <c r="D15" t="n">
-        <v>-615.2763536773946</v>
+        <v>-6999.415178787291</v>
       </c>
       <c r="E15" t="n">
-        <v>825.0134247813164</v>
+        <v>-955.5320582941268</v>
       </c>
       <c r="F15" t="n">
-        <v>-2439.48501937268</v>
+        <v>650.7329976034149</v>
       </c>
       <c r="G15" t="n">
-        <v>-6999.415178787291</v>
+        <v>5996.282542039998</v>
       </c>
       <c r="H15" t="n">
-        <v>5996.282542039998</v>
+        <v>5995.769835036243</v>
       </c>
       <c r="I15" t="n">
-        <v>5995.769835036243</v>
+        <v>700.5128091008044</v>
       </c>
       <c r="J15" t="n">
-        <v>6982.23201564487</v>
+        <v>28039.21821273247</v>
       </c>
       <c r="K15" t="n">
-        <v>28039.21821273247</v>
+        <v>8489.948998677239</v>
       </c>
       <c r="L15" t="n">
         <v>-253.4300000001444</v>
@@ -6306,31 +6346,31 @@
         <v>-7929.710000000101</v>
       </c>
       <c r="C16" t="n">
-        <v>543.8808159084671</v>
+        <v>6535.59025154438</v>
       </c>
       <c r="D16" t="n">
-        <v>3587.662950461442</v>
+        <v>7760.574943964065</v>
       </c>
       <c r="E16" t="n">
-        <v>2926.324754951052</v>
+        <v>4585.743999294566</v>
       </c>
       <c r="F16" t="n">
-        <v>6535.59025154438</v>
+        <v>2958.701200343336</v>
       </c>
       <c r="G16" t="n">
-        <v>7760.574943964065</v>
+        <v>-104.1380105599278</v>
       </c>
       <c r="H16" t="n">
-        <v>-104.1380105599278</v>
+        <v>-104.2842261017265</v>
       </c>
       <c r="I16" t="n">
-        <v>-104.2842261017265</v>
+        <v>705.7630428698869</v>
       </c>
       <c r="J16" t="n">
-        <v>-873.8054799431651</v>
+        <v>26068.99203920475</v>
       </c>
       <c r="K16" t="n">
-        <v>26068.99203920475</v>
+        <v>11042.41895610754</v>
       </c>
       <c r="L16" t="n">
         <v>13124.51400000002</v>
@@ -6344,31 +6384,31 @@
         <v>5466.820000000131</v>
       </c>
       <c r="C17" t="n">
-        <v>23.10486808664504</v>
+        <v>-8008.903636532785</v>
       </c>
       <c r="D17" t="n">
-        <v>-4842.863287943972</v>
+        <v>-10981.37798503459</v>
       </c>
       <c r="E17" t="n">
-        <v>-4822.363401070525</v>
+        <v>-6839.203119808348</v>
       </c>
       <c r="F17" t="n">
-        <v>-8008.903636532785</v>
+        <v>-4686.731719363857</v>
       </c>
       <c r="G17" t="n">
-        <v>-10981.37798503459</v>
+        <v>-2572.585245865685</v>
       </c>
       <c r="H17" t="n">
-        <v>-2572.585245865685</v>
+        <v>-2572.055006006211</v>
       </c>
       <c r="I17" t="n">
-        <v>-2572.055006006211</v>
+        <v>701.2632766199805</v>
       </c>
       <c r="J17" t="n">
-        <v>5001.992530907524</v>
+        <v>33013.74839913348</v>
       </c>
       <c r="K17" t="n">
-        <v>33013.74839913348</v>
+        <v>8405.029060557121</v>
       </c>
       <c r="L17" t="n">
         <v>12335.52200000015</v>
@@ -6382,31 +6422,31 @@
         <v>31077.8900000006</v>
       </c>
       <c r="C18" t="n">
-        <v>758.3028582263087</v>
+        <v>2931.609810181371</v>
       </c>
       <c r="D18" t="n">
-        <v>1674.440001986337</v>
+        <v>1940.851777069391</v>
       </c>
       <c r="E18" t="n">
-        <v>1599.752478473182</v>
+        <v>2023.142698828394</v>
       </c>
       <c r="F18" t="n">
-        <v>2931.609810181371</v>
+        <v>1588.344608908341</v>
       </c>
       <c r="G18" t="n">
-        <v>1940.851777069391</v>
+        <v>1184.030649301554</v>
       </c>
       <c r="H18" t="n">
-        <v>1184.030649301554</v>
+        <v>1183.967297587282</v>
       </c>
       <c r="I18" t="n">
-        <v>1183.967297587282</v>
+        <v>701.2635104021051</v>
       </c>
       <c r="J18" t="n">
-        <v>-4534.194211279842</v>
+        <v>25483.29421961185</v>
       </c>
       <c r="K18" t="n">
-        <v>25483.29421961185</v>
+        <v>8405.029060557121</v>
       </c>
       <c r="L18" t="n">
         <v>12335.52200000015</v>
@@ -6420,31 +6460,31 @@
         <v>-32028.75000000031</v>
       </c>
       <c r="C19" t="n">
-        <v>-1986.961899949018</v>
+        <v>4671.505643847646</v>
       </c>
       <c r="D19" t="n">
-        <v>2325.327449664915</v>
+        <v>7991.184971813213</v>
       </c>
       <c r="E19" t="n">
-        <v>2487.300881072178</v>
+        <v>4279.036129893919</v>
       </c>
       <c r="F19" t="n">
-        <v>4671.505643847646</v>
+        <v>3023.896009893214</v>
       </c>
       <c r="G19" t="n">
-        <v>7991.184971813213</v>
+        <v>880.2883584613362</v>
       </c>
       <c r="H19" t="n">
-        <v>880.2883584613362</v>
+        <v>880.4873311877111</v>
       </c>
       <c r="I19" t="n">
-        <v>880.4873311877111</v>
+        <v>696.0137441561673</v>
       </c>
       <c r="J19" t="n">
-        <v>3311.588618889571</v>
+        <v>25143.45297884964</v>
       </c>
       <c r="K19" t="n">
-        <v>25143.45297884964</v>
+        <v>-2286.30714621586</v>
       </c>
       <c r="L19" t="n">
         <v>-6898.052000000172</v>
@@ -6458,31 +6498,31 @@
         <v>18725.94999999951</v>
       </c>
       <c r="C20" t="n">
-        <v>1451.4401426326</v>
+        <v>-2559.827360826366</v>
       </c>
       <c r="D20" t="n">
-        <v>-778.6525077548959</v>
+        <v>-7014.639466138403</v>
       </c>
       <c r="E20" t="n">
-        <v>554.9761877785189</v>
+        <v>-1177.210027767165</v>
       </c>
       <c r="F20" t="n">
-        <v>-2559.827360826366</v>
+        <v>404.7909548401104</v>
       </c>
       <c r="G20" t="n">
-        <v>-7014.639466138403</v>
+        <v>5449.21797560971</v>
       </c>
       <c r="H20" t="n">
-        <v>5449.21797560971</v>
+        <v>5448.689647615053</v>
       </c>
       <c r="I20" t="n">
-        <v>5448.689647615053</v>
+        <v>700.5139779405584</v>
       </c>
       <c r="J20" t="n">
-        <v>-873.8054799431651</v>
+        <v>25220.30216988272</v>
       </c>
       <c r="K20" t="n">
-        <v>25220.30216988272</v>
+        <v>8492.132716576984</v>
       </c>
       <c r="L20" t="n">
         <v>-253.4300000001444</v>
@@ -6496,31 +6536,31 @@
         <v>7055.840000000069</v>
       </c>
       <c r="C21" t="n">
-        <v>-558.7183511818787</v>
+        <v>5664.075704781786</v>
       </c>
       <c r="D21" t="n">
-        <v>2941.12961022459</v>
+        <v>7745.350656601466</v>
       </c>
       <c r="E21" t="n">
-        <v>2549.063338425362</v>
+        <v>4278.18806632399</v>
       </c>
       <c r="F21" t="n">
-        <v>5664.075704781786</v>
+        <v>2801.959851003666</v>
       </c>
       <c r="G21" t="n">
-        <v>7745.350656601466</v>
+        <v>-52.62637697641617</v>
       </c>
       <c r="H21" t="n">
-        <v>-52.62637697641617</v>
+        <v>-52.76494109814735</v>
       </c>
       <c r="I21" t="n">
-        <v>-52.76494109814735</v>
+        <v>705.764211709641</v>
       </c>
       <c r="J21" t="n">
-        <v>6982.23201564487</v>
+        <v>25444.44171900264</v>
       </c>
       <c r="K21" t="n">
-        <v>25444.44171900264</v>
+        <v>11042.41895610754</v>
       </c>
       <c r="L21" t="n">
         <v>13124.51400000002</v>
@@ -6532,6 +6572,847 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mlr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>40858</v>
+      </c>
+      <c r="B2" t="n">
+        <v>55257.17000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>64748.74571211167</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60072.55487707703</v>
+      </c>
+      <c r="E2" t="n">
+        <v>64258.64422983295</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65967.09575362525</v>
+      </c>
+      <c r="G2" t="n">
+        <v>66652.23332525998</v>
+      </c>
+      <c r="H2" t="n">
+        <v>66652.42512054721</v>
+      </c>
+      <c r="I2" t="n">
+        <v>71709.51973313038</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-4918.527284019259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68721.95285627866</v>
+      </c>
+      <c r="L2" t="n">
+        <v>83343.78200000015</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="B3" t="n">
+        <v>114419.8899999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67739.17422313738</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62059.07951627754</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67141.72016404128</v>
+      </c>
+      <c r="F3" t="n">
+        <v>68618.9866705309</v>
+      </c>
+      <c r="G3" t="n">
+        <v>70442.83336412389</v>
+      </c>
+      <c r="H3" t="n">
+        <v>70443.06645780368</v>
+      </c>
+      <c r="I3" t="n">
+        <v>72410.77979131196</v>
+      </c>
+      <c r="J3" t="n">
+        <v>21840.92930588979</v>
+      </c>
+      <c r="K3" t="n">
+        <v>77126.98191683578</v>
+      </c>
+      <c r="L3" t="n">
+        <v>95679.30400000029</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>40862</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60807.28999999987</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72222.71874826279</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70095.93735025264</v>
+      </c>
+      <c r="E4" t="n">
+        <v>68973.29114637703</v>
+      </c>
+      <c r="F4" t="n">
+        <v>68593.5918844415</v>
+      </c>
+      <c r="G4" t="n">
+        <v>63771.10962499481</v>
+      </c>
+      <c r="H4" t="n">
+        <v>63771.40369384266</v>
+      </c>
+      <c r="I4" t="n">
+        <v>73106.79000485454</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26389.69081237573</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74840.67477061992</v>
+      </c>
+      <c r="L4" t="n">
+        <v>88781.25200000012</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>40863</v>
+      </c>
+      <c r="B5" t="n">
+        <v>65958.17000000013</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68510.96307745589</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63126.97074620811</v>
+      </c>
+      <c r="E5" t="n">
+        <v>68142.80002710615</v>
+      </c>
+      <c r="F5" t="n">
+        <v>69732.27827264641</v>
+      </c>
+      <c r="G5" t="n">
+        <v>71608.12216894269</v>
+      </c>
+      <c r="H5" t="n">
+        <v>71608.03489364771</v>
+      </c>
+      <c r="I5" t="n">
+        <v>73807.30047697759</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22120.28165527879</v>
+      </c>
+      <c r="K5" t="n">
+        <v>83252.33043511499</v>
+      </c>
+      <c r="L5" t="n">
+        <v>88527.82199999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>40864</v>
+      </c>
+      <c r="B6" t="n">
+        <v>61103.12999999976</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73694.19691984176</v>
+      </c>
+      <c r="D6" t="n">
+        <v>70917.99426490723</v>
+      </c>
+      <c r="E6" t="n">
+        <v>72649.70098228967</v>
+      </c>
+      <c r="F6" t="n">
+        <v>72942.46407327289</v>
+      </c>
+      <c r="G6" t="n">
+        <v>72793.64516467166</v>
+      </c>
+      <c r="H6" t="n">
+        <v>72793.42283749813</v>
+      </c>
+      <c r="I6" t="n">
+        <v>74513.06117944558</v>
+      </c>
+      <c r="J6" t="n">
+        <v>24713.07814746056</v>
+      </c>
+      <c r="K6" t="n">
+        <v>94294.74939122252</v>
+      </c>
+      <c r="L6" t="n">
+        <v>101652.336</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>40865</v>
+      </c>
+      <c r="B7" t="n">
+        <v>51275.39000000008</v>
+      </c>
+      <c r="C7" t="n">
+        <v>66035.7035780477</v>
+      </c>
+      <c r="D7" t="n">
+        <v>59967.06485458446</v>
+      </c>
+      <c r="E7" t="n">
+        <v>65905.51239019023</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68278.72557400035</v>
+      </c>
+      <c r="G7" t="n">
+        <v>70088.15134416867</v>
+      </c>
+      <c r="H7" t="n">
+        <v>70088.3859700005</v>
+      </c>
+      <c r="I7" t="n">
+        <v>75214.32212320031</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17178.71798199158</v>
+      </c>
+      <c r="K7" t="n">
+        <v>102699.7784517796</v>
+      </c>
+      <c r="L7" t="n">
+        <v>113987.8580000002</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>40868</v>
+      </c>
+      <c r="B8" t="n">
+        <v>49805.71999999979</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67738.8940177333</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61938.36520639882</v>
+      </c>
+      <c r="E8" t="n">
+        <v>67996.82847492215</v>
+      </c>
+      <c r="F8" t="n">
+        <v>70271.64660556091</v>
+      </c>
+      <c r="G8" t="n">
+        <v>72882.58632075203</v>
+      </c>
+      <c r="H8" t="n">
+        <v>72882.8041563103</v>
+      </c>
+      <c r="I8" t="n">
+        <v>75915.58332661002</v>
+      </c>
+      <c r="J8" t="n">
+        <v>26612.97008315576</v>
+      </c>
+      <c r="K8" t="n">
+        <v>111104.8075123368</v>
+      </c>
+      <c r="L8" t="n">
+        <v>126323.3800000003</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>40869</v>
+      </c>
+      <c r="B9" t="n">
+        <v>64089.81999999992</v>
+      </c>
+      <c r="C9" t="n">
+        <v>71183.61338702418</v>
+      </c>
+      <c r="D9" t="n">
+        <v>69959.99875301743</v>
+      </c>
+      <c r="E9" t="n">
+        <v>70648.43992699962</v>
+      </c>
+      <c r="F9" t="n">
+        <v>71557.87668477732</v>
+      </c>
+      <c r="G9" t="n">
+        <v>70016.89936347438</v>
+      </c>
+      <c r="H9" t="n">
+        <v>70017.27722034311</v>
+      </c>
+      <c r="I9" t="n">
+        <v>76611.59470002745</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26502.07908428803</v>
+      </c>
+      <c r="K9" t="n">
+        <v>108818.5003661209</v>
+      </c>
+      <c r="L9" t="n">
+        <v>119425.3280000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>40870</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80104.1799999997</v>
+      </c>
+      <c r="C10" t="n">
+        <v>66782.45572039606</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62975.80786162284</v>
+      </c>
+      <c r="E10" t="n">
+        <v>69451.09302299441</v>
+      </c>
+      <c r="F10" t="n">
+        <v>72416.98651936854</v>
+      </c>
+      <c r="G10" t="n">
+        <v>77507.33411441752</v>
+      </c>
+      <c r="H10" t="n">
+        <v>77507.22854190801</v>
+      </c>
+      <c r="I10" t="n">
+        <v>77312.10635849817</v>
+      </c>
+      <c r="J10" t="n">
+        <v>27866.68963860323</v>
+      </c>
+      <c r="K10" t="n">
+        <v>117436.3953439726</v>
+      </c>
+      <c r="L10" t="n">
+        <v>119171.898</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>40871</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50978.62999999997</v>
+      </c>
+      <c r="C11" t="n">
+        <v>71658.99095677691</v>
+      </c>
+      <c r="D11" t="n">
+        <v>70751.60709295019</v>
+      </c>
+      <c r="E11" t="n">
+        <v>73445.01693231604</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75062.31437451742</v>
+      </c>
+      <c r="G11" t="n">
+        <v>77441.68374888277</v>
+      </c>
+      <c r="H11" t="n">
+        <v>77441.42183503381</v>
+      </c>
+      <c r="I11" t="n">
+        <v>78017.86823894329</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26119.61173702646</v>
+      </c>
+      <c r="K11" t="n">
+        <v>128478.8143000802</v>
+      </c>
+      <c r="L11" t="n">
+        <v>132296.412</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>40872</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50822.73000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>63684.77339550122</v>
+      </c>
+      <c r="D12" t="n">
+        <v>59785.45339523417</v>
+      </c>
+      <c r="E12" t="n">
+        <v>66525.46067780198</v>
+      </c>
+      <c r="F12" t="n">
+        <v>70262.55134398366</v>
+      </c>
+      <c r="G12" t="n">
+        <v>74561.57209548958</v>
+      </c>
+      <c r="H12" t="n">
+        <v>74561.82748696969</v>
+      </c>
+      <c r="I12" t="n">
+        <v>78719.13034672353</v>
+      </c>
+      <c r="J12" t="n">
+        <v>38466.61138982607</v>
+      </c>
+      <c r="K12" t="n">
+        <v>136883.8433606373</v>
+      </c>
+      <c r="L12" t="n">
+        <v>144631.9340000002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>40875</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57165.18999999993</v>
+      </c>
+      <c r="C13" t="n">
+        <v>66698.61341281181</v>
+      </c>
+      <c r="D13" t="n">
+        <v>61741.52945968971</v>
+      </c>
+      <c r="E13" t="n">
+        <v>68716.43040774298</v>
+      </c>
+      <c r="F13" t="n">
+        <v>72038.84534395044</v>
+      </c>
+      <c r="G13" t="n">
+        <v>76166.74101573374</v>
+      </c>
+      <c r="H13" t="n">
+        <v>76166.95014323088</v>
+      </c>
+      <c r="I13" t="n">
+        <v>79420.39268828588</v>
+      </c>
+      <c r="J13" t="n">
+        <v>27391.36442539522</v>
+      </c>
+      <c r="K13" t="n">
+        <v>145288.8724211944</v>
+      </c>
+      <c r="L13" t="n">
+        <v>156967.4560000003</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>40876</v>
+      </c>
+      <c r="B14" t="n">
+        <v>72595.93000000002</v>
+      </c>
+      <c r="C14" t="n">
+        <v>71706.11332116774</v>
+      </c>
+      <c r="D14" t="n">
+        <v>69747.93871890608</v>
+      </c>
+      <c r="E14" t="n">
+        <v>72827.84723222282</v>
+      </c>
+      <c r="F14" t="n">
+        <v>74760.18727786683</v>
+      </c>
+      <c r="G14" t="n">
+        <v>76115.04370389291</v>
+      </c>
+      <c r="H14" t="n">
+        <v>76115.43538176501</v>
+      </c>
+      <c r="I14" t="n">
+        <v>80116.4052636023</v>
+      </c>
+      <c r="J14" t="n">
+        <v>25424.93468286569</v>
+      </c>
+      <c r="K14" t="n">
+        <v>143002.5652749786</v>
+      </c>
+      <c r="L14" t="n">
+        <v>150069.4040000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>40877</v>
+      </c>
+      <c r="B15" t="n">
+        <v>60126.95999999983</v>
+      </c>
+      <c r="C15" t="n">
+        <v>69266.62830179506</v>
+      </c>
+      <c r="D15" t="n">
+        <v>62748.52354011879</v>
+      </c>
+      <c r="E15" t="n">
+        <v>71872.3151739287</v>
+      </c>
+      <c r="F15" t="n">
+        <v>75410.92027547024</v>
+      </c>
+      <c r="G15" t="n">
+        <v>82111.32624593291</v>
+      </c>
+      <c r="H15" t="n">
+        <v>82111.20521680126</v>
+      </c>
+      <c r="I15" t="n">
+        <v>80816.91807270311</v>
+      </c>
+      <c r="J15" t="n">
+        <v>28039.21821273247</v>
+      </c>
+      <c r="K15" t="n">
+        <v>151492.5142736558</v>
+      </c>
+      <c r="L15" t="n">
+        <v>149815.974</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="B16" t="n">
+        <v>52197.24999999973</v>
+      </c>
+      <c r="C16" t="n">
+        <v>75802.21855333944</v>
+      </c>
+      <c r="D16" t="n">
+        <v>70509.09848408286</v>
+      </c>
+      <c r="E16" t="n">
+        <v>76458.05917322327</v>
+      </c>
+      <c r="F16" t="n">
+        <v>78369.62147581358</v>
+      </c>
+      <c r="G16" t="n">
+        <v>82007.18823537299</v>
+      </c>
+      <c r="H16" t="n">
+        <v>82006.92099069954</v>
+      </c>
+      <c r="I16" t="n">
+        <v>81522.681115573</v>
+      </c>
+      <c r="J16" t="n">
+        <v>26068.99203920475</v>
+      </c>
+      <c r="K16" t="n">
+        <v>162534.9332297634</v>
+      </c>
+      <c r="L16" t="n">
+        <v>162940.488</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>40879</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57664.06999999986</v>
+      </c>
+      <c r="C17" t="n">
+        <v>67793.31491680664</v>
+      </c>
+      <c r="D17" t="n">
+        <v>59527.72049904827</v>
+      </c>
+      <c r="E17" t="n">
+        <v>69618.85605341493</v>
+      </c>
+      <c r="F17" t="n">
+        <v>73682.88975644972</v>
+      </c>
+      <c r="G17" t="n">
+        <v>79434.6029895073</v>
+      </c>
+      <c r="H17" t="n">
+        <v>79434.86598469333</v>
+      </c>
+      <c r="I17" t="n">
+        <v>82223.94439219298</v>
+      </c>
+      <c r="J17" t="n">
+        <v>33013.74839913348</v>
+      </c>
+      <c r="K17" t="n">
+        <v>170939.9622903205</v>
+      </c>
+      <c r="L17" t="n">
+        <v>175276.0100000002</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>40882</v>
+      </c>
+      <c r="B18" t="n">
+        <v>88741.96000000046</v>
+      </c>
+      <c r="C18" t="n">
+        <v>70724.92472698801</v>
+      </c>
+      <c r="D18" t="n">
+        <v>61468.57227611766</v>
+      </c>
+      <c r="E18" t="n">
+        <v>71641.99875224332</v>
+      </c>
+      <c r="F18" t="n">
+        <v>75271.23436535806</v>
+      </c>
+      <c r="G18" t="n">
+        <v>80618.63363880885</v>
+      </c>
+      <c r="H18" t="n">
+        <v>80618.83328228061</v>
+      </c>
+      <c r="I18" t="n">
+        <v>82925.20790259508</v>
+      </c>
+      <c r="J18" t="n">
+        <v>25483.29421961185</v>
+      </c>
+      <c r="K18" t="n">
+        <v>179344.9913508776</v>
+      </c>
+      <c r="L18" t="n">
+        <v>187611.5320000003</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>40883</v>
+      </c>
+      <c r="B19" t="n">
+        <v>56713.21000000014</v>
+      </c>
+      <c r="C19" t="n">
+        <v>75396.43037083566</v>
+      </c>
+      <c r="D19" t="n">
+        <v>69459.75724793087</v>
+      </c>
+      <c r="E19" t="n">
+        <v>75921.03488213725</v>
+      </c>
+      <c r="F19" t="n">
+        <v>78295.13037525128</v>
+      </c>
+      <c r="G19" t="n">
+        <v>81498.92199727018</v>
+      </c>
+      <c r="H19" t="n">
+        <v>81499.32061346833</v>
+      </c>
+      <c r="I19" t="n">
+        <v>83621.22164675125</v>
+      </c>
+      <c r="J19" t="n">
+        <v>25143.45297884964</v>
+      </c>
+      <c r="K19" t="n">
+        <v>177058.6842046618</v>
+      </c>
+      <c r="L19" t="n">
+        <v>180713.4800000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>40884</v>
+      </c>
+      <c r="B20" t="n">
+        <v>75439.15999999965</v>
+      </c>
+      <c r="C20" t="n">
+        <v>72836.60301000929</v>
+      </c>
+      <c r="D20" t="n">
+        <v>62445.11778179247</v>
+      </c>
+      <c r="E20" t="n">
+        <v>74743.82485437008</v>
+      </c>
+      <c r="F20" t="n">
+        <v>78699.92133009138</v>
+      </c>
+      <c r="G20" t="n">
+        <v>86948.1399728799</v>
+      </c>
+      <c r="H20" t="n">
+        <v>86948.01026108339</v>
+      </c>
+      <c r="I20" t="n">
+        <v>84321.73562469181</v>
+      </c>
+      <c r="J20" t="n">
+        <v>25220.30216988272</v>
+      </c>
+      <c r="K20" t="n">
+        <v>185550.8169212387</v>
+      </c>
+      <c r="L20" t="n">
+        <v>180460.05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>40885</v>
+      </c>
+      <c r="B21" t="n">
+        <v>82494.99999999972</v>
+      </c>
+      <c r="C21" t="n">
+        <v>78500.67871479108</v>
+      </c>
+      <c r="D21" t="n">
+        <v>70190.46843839393</v>
+      </c>
+      <c r="E21" t="n">
+        <v>79022.01292069406</v>
+      </c>
+      <c r="F21" t="n">
+        <v>81501.88118109504</v>
+      </c>
+      <c r="G21" t="n">
+        <v>86895.51359590348</v>
+      </c>
+      <c r="H21" t="n">
+        <v>86895.24531998523</v>
+      </c>
+      <c r="I21" t="n">
+        <v>85027.49983640145</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25444.44171900264</v>
+      </c>
+      <c r="K21" t="n">
+        <v>196593.2358773463</v>
+      </c>
+      <c r="L21" t="n">
+        <v>193584.564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6553,47 +7434,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>mlr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>mlp</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>weighted</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>prophet</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mlr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -6607,34 +7488,34 @@
         <v>40886</v>
       </c>
       <c r="B2" t="n">
-        <v>74987.12216893533</v>
+        <v>76235.48571211139</v>
       </c>
       <c r="C2" t="n">
-        <v>74205.63259837068</v>
+        <v>72152.5778183603</v>
       </c>
       <c r="D2" t="n">
-        <v>73250.01203859416</v>
+        <v>73655.10007162626</v>
       </c>
       <c r="E2" t="n">
-        <v>76235.48571211137</v>
+        <v>74719.47665607883</v>
       </c>
       <c r="F2" t="n">
-        <v>72152.57781836028</v>
+        <v>71007.46565446375</v>
       </c>
       <c r="G2" t="n">
-        <v>71007.46565446374</v>
+        <v>71007.63993490353</v>
       </c>
       <c r="H2" t="n">
-        <v>71867.40883910006</v>
+        <v>83194.21416055519</v>
       </c>
       <c r="I2" t="n">
-        <v>77923.32393515595</v>
+        <v>65078.42521009479</v>
       </c>
       <c r="J2" t="n">
-        <v>65078.42521009479</v>
+        <v>79151.02036269728</v>
       </c>
       <c r="K2" t="n">
-        <v>75411.12999999974</v>
+        <v>84044.18399999988</v>
       </c>
     </row>
     <row r="3">
@@ -6642,34 +7523,34 @@
         <v>40889</v>
       </c>
       <c r="B3" t="n">
-        <v>89381.74751262271</v>
+        <v>79225.91422313709</v>
       </c>
       <c r="C3" t="n">
-        <v>82487.48658422526</v>
+        <v>75900.77381673682</v>
       </c>
       <c r="D3" t="n">
-        <v>81472.14776928347</v>
+        <v>78652.94514856252</v>
       </c>
       <c r="E3" t="n">
-        <v>79225.91422313708</v>
+        <v>79765.67542405899</v>
       </c>
       <c r="F3" t="n">
-        <v>75900.77381673681</v>
+        <v>79899.26311876046</v>
       </c>
       <c r="G3" t="n">
-        <v>79899.26311876043</v>
+        <v>79899.48635435246</v>
       </c>
       <c r="H3" t="n">
-        <v>82953.04017516036</v>
+        <v>83902.93960730819</v>
       </c>
       <c r="I3" t="n">
-        <v>89817.98772447956</v>
+        <v>72700.56188607874</v>
       </c>
       <c r="J3" t="n">
-        <v>72700.56188607874</v>
+        <v>88739.51563734468</v>
       </c>
       <c r="K3" t="n">
-        <v>98198.32999999993</v>
+        <v>96158.63399999985</v>
       </c>
     </row>
     <row r="4">
@@ -6677,34 +7558,34 @@
         <v>40890</v>
       </c>
       <c r="B4" t="n">
-        <v>64300.39274569046</v>
+        <v>83709.45874826251</v>
       </c>
       <c r="C4" t="n">
-        <v>74613.65641995514</v>
+        <v>82033.71725084641</v>
       </c>
       <c r="D4" t="n">
-        <v>75048.23912366902</v>
+        <v>79831.70005618187</v>
       </c>
       <c r="E4" t="n">
-        <v>83709.45874826249</v>
+        <v>79215.54060278299</v>
       </c>
       <c r="F4" t="n">
-        <v>82033.7172508464</v>
+        <v>72870.01706288135</v>
       </c>
       <c r="G4" t="n">
-        <v>72870.01706288132</v>
+        <v>72870.29859726439</v>
       </c>
       <c r="H4" t="n">
-        <v>72327.60981066443</v>
+        <v>84594.21135466035</v>
       </c>
       <c r="I4" t="n">
-        <v>63503.09250835606</v>
+        <v>65978.09287948275</v>
       </c>
       <c r="J4" t="n">
-        <v>65978.09287948275</v>
+        <v>85395.53600004224</v>
       </c>
       <c r="K4" t="n">
-        <v>72877.09399999984</v>
+        <v>87115.43799999988</v>
       </c>
     </row>
     <row r="5">
@@ -6712,34 +7593,34 @@
         <v>40891</v>
       </c>
       <c r="B5" t="n">
-        <v>70416.95860765528</v>
+        <v>79997.7030774556</v>
       </c>
       <c r="C5" t="n">
-        <v>75900.9874749873</v>
+        <v>76258.51713101294</v>
       </c>
       <c r="D5" t="n">
-        <v>77908.45206648626</v>
+        <v>79374.3547586254</v>
       </c>
       <c r="E5" t="n">
-        <v>79997.70307745559</v>
+        <v>80637.5383450363</v>
       </c>
       <c r="F5" t="n">
-        <v>76258.51713101292</v>
+        <v>80816.96764186109</v>
       </c>
       <c r="G5" t="n">
-        <v>80816.96764186106</v>
+        <v>80816.88142684873</v>
       </c>
       <c r="H5" t="n">
-        <v>82052.11387444654</v>
+        <v>85297.62244800324</v>
       </c>
       <c r="I5" t="n">
-        <v>71409.66710563055</v>
+        <v>70866.33913328004</v>
       </c>
       <c r="J5" t="n">
-        <v>70866.33913328004</v>
+        <v>95351.29804859562</v>
       </c>
       <c r="K5" t="n">
-        <v>80190.76999999963</v>
+        <v>92205.57799999966</v>
       </c>
     </row>
     <row r="6">
@@ -6747,34 +7628,34 @@
         <v>40892</v>
       </c>
       <c r="B6" t="n">
-        <v>75564.85454046886</v>
+        <v>85180.93691984148</v>
       </c>
       <c r="C6" t="n">
-        <v>80735.38810487025</v>
+        <v>82656.60187291424</v>
       </c>
       <c r="D6" t="n">
-        <v>81830.20887906299</v>
+        <v>83501.4146884357</v>
       </c>
       <c r="E6" t="n">
-        <v>85180.93691984146</v>
+        <v>83588.60781305548</v>
       </c>
       <c r="F6" t="n">
-        <v>82656.60187291421</v>
+        <v>82048.8068330884</v>
       </c>
       <c r="G6" t="n">
-        <v>82048.80683308837</v>
+        <v>82048.59367083205</v>
       </c>
       <c r="H6" t="n">
-        <v>83699.84422900215</v>
+        <v>86008.09976860133</v>
       </c>
       <c r="I6" t="n">
-        <v>76005.5562349192</v>
+        <v>70525.49348464671</v>
       </c>
       <c r="J6" t="n">
-        <v>70525.49348464671</v>
+        <v>96707.5995557686</v>
       </c>
       <c r="K6" t="n">
-        <v>76494.75599999962</v>
+        <v>96324.13999999975</v>
       </c>
     </row>
     <row r="7">
@@ -6782,34 +7663,34 @@
         <v>40893</v>
       </c>
       <c r="B7" t="n">
-        <v>73309.14860826767</v>
+        <v>77522.44357804742</v>
       </c>
       <c r="C7" t="n">
-        <v>74996.63912002486</v>
+        <v>72310.41806122032</v>
       </c>
       <c r="D7" t="n">
-        <v>75968.9227924423</v>
+        <v>76375.63353295955</v>
       </c>
       <c r="E7" t="n">
-        <v>77522.4435780474</v>
+        <v>78347.57799284716</v>
       </c>
       <c r="F7" t="n">
-        <v>72310.41806122029</v>
+        <v>77597.06256575996</v>
       </c>
       <c r="G7" t="n">
-        <v>77597.06256575993</v>
+        <v>77597.29278244969</v>
       </c>
       <c r="H7" t="n">
-        <v>79105.54114891629</v>
+        <v>86710.67297675852</v>
       </c>
       <c r="I7" t="n">
-        <v>69110.95626896677</v>
+        <v>66948.11758251286</v>
       </c>
       <c r="J7" t="n">
-        <v>66948.11758251286</v>
+        <v>97685.48971623012</v>
       </c>
       <c r="K7" t="n">
-        <v>72324.34799999969</v>
+        <v>104046.524</v>
       </c>
     </row>
     <row r="8">
@@ -6817,34 +7698,34 @@
         <v>40896</v>
       </c>
       <c r="B8" t="n">
-        <v>79367.76198183506</v>
+        <v>79225.63401773301</v>
       </c>
       <c r="C8" t="n">
-        <v>79062.77933527878</v>
+        <v>76054.85242945961</v>
       </c>
       <c r="D8" t="n">
-        <v>80090.55660065953</v>
+        <v>79261.81284326923</v>
       </c>
       <c r="E8" t="n">
-        <v>79225.634017733</v>
+        <v>81065.34093930581</v>
       </c>
       <c r="F8" t="n">
-        <v>76054.85242945958</v>
+        <v>81314.58398256771</v>
       </c>
       <c r="G8" t="n">
-        <v>81314.58398256768</v>
+        <v>81314.81091617282</v>
       </c>
       <c r="H8" t="n">
-        <v>84489.95059170239</v>
+        <v>87416.82335059599</v>
       </c>
       <c r="I8" t="n">
-        <v>74507.42638083671</v>
+        <v>70534.10269972747</v>
       </c>
       <c r="J8" t="n">
-        <v>70534.10269972747</v>
+        <v>102337.5793600937</v>
       </c>
       <c r="K8" t="n">
-        <v>92440.39199999975</v>
+        <v>126296.3060000001</v>
       </c>
     </row>
     <row r="9">
@@ -6852,34 +7733,34 @@
         <v>40897</v>
       </c>
       <c r="B9" t="n">
-        <v>66997.79646219</v>
+        <v>82670.35338702389</v>
       </c>
       <c r="C9" t="n">
-        <v>76346.89645904013</v>
+        <v>82184.03423347358</v>
       </c>
       <c r="D9" t="n">
-        <v>78269.61787285349</v>
+        <v>81631.72374878923</v>
       </c>
       <c r="E9" t="n">
-        <v>82670.35338702388</v>
+        <v>82293.59923159848</v>
       </c>
       <c r="F9" t="n">
-        <v>82184.03423347355</v>
+        <v>79253.20728599558</v>
       </c>
       <c r="G9" t="n">
-        <v>79253.20728599555</v>
+        <v>79253.55570176631</v>
       </c>
       <c r="H9" t="n">
-        <v>80242.6979955845</v>
+        <v>88106.84554973312</v>
       </c>
       <c r="I9" t="n">
-        <v>63191.18284802359</v>
+        <v>68022.6972562833</v>
       </c>
       <c r="J9" t="n">
-        <v>68022.6972562833</v>
+        <v>98993.59972279126</v>
       </c>
       <c r="K9" t="n">
-        <v>80698.49599999969</v>
+        <v>106034.8120000001</v>
       </c>
     </row>
     <row r="10">
@@ -6887,34 +7768,34 @@
         <v>40898</v>
       </c>
       <c r="B10" t="n">
-        <v>73483.52076498623</v>
+        <v>78269.19572039577</v>
       </c>
       <c r="C10" t="n">
-        <v>77316.60170492731</v>
+        <v>76405.07248357202</v>
       </c>
       <c r="D10" t="n">
-        <v>80280.01579984229</v>
+        <v>80441.56152773353</v>
       </c>
       <c r="E10" t="n">
-        <v>78269.19572039576</v>
+        <v>82972.36212314969</v>
       </c>
       <c r="F10" t="n">
-        <v>76405.07248357199</v>
+        <v>85687.37367116673</v>
       </c>
       <c r="G10" t="n">
-        <v>85687.3736711667</v>
+        <v>85687.26641187031</v>
       </c>
       <c r="H10" t="n">
-        <v>87554.91635909087</v>
+        <v>88812.90232874376</v>
       </c>
       <c r="I10" t="n">
-        <v>74670.09218493818</v>
+        <v>69475.65481579477</v>
       </c>
       <c r="J10" t="n">
-        <v>69475.65481579477</v>
+        <v>108949.3617713446</v>
       </c>
       <c r="K10" t="n">
-        <v>87868.40599999952</v>
+        <v>117463.2179999998</v>
       </c>
     </row>
     <row r="11">
@@ -6922,34 +7803,34 @@
         <v>40899</v>
       </c>
       <c r="B11" t="n">
-        <v>75524.93835943534</v>
+        <v>83145.73095677662</v>
       </c>
       <c r="C11" t="n">
-        <v>80739.11253173553</v>
+        <v>82799.39559540623</v>
       </c>
       <c r="D11" t="n">
-        <v>83040.71890191651</v>
+        <v>84053.9198377767</v>
       </c>
       <c r="E11" t="n">
-        <v>83145.73095677661</v>
+        <v>85354.82581959518</v>
       </c>
       <c r="F11" t="n">
-        <v>82799.3955954062</v>
+        <v>85652.17507810961</v>
       </c>
       <c r="G11" t="n">
-        <v>85652.17507810958</v>
+        <v>85651.9256445856</v>
       </c>
       <c r="H11" t="n">
-        <v>88081.35451985485</v>
+        <v>89524.90182309794</v>
       </c>
       <c r="I11" t="n">
-        <v>65846.12440820917</v>
+        <v>69210.39532813423</v>
       </c>
       <c r="J11" t="n">
-        <v>69210.39532813423</v>
+        <v>115391.1192433564</v>
       </c>
       <c r="K11" t="n">
-        <v>81873.65199999957</v>
+        <v>124554.5739999999</v>
       </c>
     </row>
     <row r="12">
@@ -6957,34 +7838,34 @@
         <v>40900</v>
       </c>
       <c r="B12" t="n">
-        <v>72083.55388503474</v>
+        <v>75171.51339550094</v>
       </c>
       <c r="C12" t="n">
-        <v>74683.29954532643</v>
+        <v>72449.45015363091</v>
       </c>
       <c r="D12" t="n">
-        <v>77479.42191555203</v>
+        <v>77220.6440738664</v>
       </c>
       <c r="E12" t="n">
-        <v>75171.51339550092</v>
+        <v>80566.89576169774</v>
       </c>
       <c r="F12" t="n">
-        <v>72449.45015363088</v>
+        <v>82493.09467890937</v>
       </c>
       <c r="G12" t="n">
-        <v>82493.09467890934</v>
+        <v>82493.34396228602</v>
       </c>
       <c r="H12" t="n">
-        <v>85199.4974646843</v>
+        <v>90227.07661816159</v>
       </c>
       <c r="I12" t="n">
-        <v>75078.27387540945</v>
+        <v>68010.23751830631</v>
       </c>
       <c r="J12" t="n">
-        <v>68010.23751830631</v>
+        <v>114839.0550852697</v>
       </c>
       <c r="K12" t="n">
-        <v>84035.64799999978</v>
+        <v>131066.7680000001</v>
       </c>
     </row>
     <row r="13">
@@ -6992,34 +7873,34 @@
         <v>40903</v>
       </c>
       <c r="B13" t="n">
-        <v>75414.90394147096</v>
+        <v>78185.35341281153</v>
       </c>
       <c r="C13" t="n">
-        <v>77839.66325765467</v>
+        <v>76190.12289186014</v>
       </c>
       <c r="D13" t="n">
-        <v>80493.75039202775</v>
+        <v>80042.13653884143</v>
       </c>
       <c r="E13" t="n">
-        <v>78185.35341281151</v>
+        <v>82858.01497353369</v>
       </c>
       <c r="F13" t="n">
-        <v>76190.12289186011</v>
+        <v>84492.53651976171</v>
       </c>
       <c r="G13" t="n">
-        <v>84492.53651976168</v>
+        <v>84492.7531526797</v>
       </c>
       <c r="H13" t="n">
-        <v>88185.83519423455</v>
+        <v>90929.30889055546</v>
       </c>
       <c r="I13" t="n">
-        <v>66234.29302420933</v>
+        <v>70852.68966506404</v>
       </c>
       <c r="J13" t="n">
-        <v>70852.68966506404</v>
+        <v>119491.1447291333</v>
       </c>
       <c r="K13" t="n">
-        <v>104151.6919999998</v>
+        <v>142333.6160000001</v>
       </c>
     </row>
     <row r="14">
@@ -7027,34 +7908,34 @@
         <v>40904</v>
       </c>
       <c r="B14" t="n">
-        <v>68813.58137091773</v>
+        <v>83192.85332116745</v>
       </c>
       <c r="C14" t="n">
-        <v>78054.15298866104</v>
+        <v>82315.54306582027</v>
       </c>
       <c r="D14" t="n">
-        <v>81202.28332951119</v>
+        <v>83728.37351615139</v>
       </c>
       <c r="E14" t="n">
-        <v>83192.85332116744</v>
+        <v>85339.08930649294</v>
       </c>
       <c r="F14" t="n">
-        <v>82315.54306582024</v>
+        <v>84781.29762609609</v>
       </c>
       <c r="G14" t="n">
-        <v>84781.29762609606</v>
+        <v>84781.66584650797</v>
       </c>
       <c r="H14" t="n">
-        <v>86908.14126355454</v>
+        <v>91624.08667287297</v>
       </c>
       <c r="I14" t="n">
-        <v>75329.88002454129</v>
+        <v>68154.15837359706</v>
       </c>
       <c r="J14" t="n">
-        <v>68154.15837359706</v>
+        <v>124122.7855466204</v>
       </c>
       <c r="K14" t="n">
-        <v>92409.79599999978</v>
+        <v>133290.4200000001</v>
       </c>
     </row>
     <row r="15">
@@ -7062,34 +7943,34 @@
         <v>40905</v>
       </c>
       <c r="B15" t="n">
-        <v>71055.54047888661</v>
+        <v>80753.36830179478</v>
       </c>
       <c r="C15" t="n">
-        <v>77827.29522200822</v>
+        <v>76532.81968585022</v>
       </c>
       <c r="D15" t="n">
-        <v>82199.98299456034</v>
+        <v>82865.01260073872</v>
       </c>
       <c r="E15" t="n">
-        <v>80753.36830179476</v>
+        <v>85914.6653836742</v>
       </c>
       <c r="F15" t="n">
-        <v>76532.81968585019</v>
+        <v>89979.67048234658</v>
       </c>
       <c r="G15" t="n">
-        <v>89979.67048234656</v>
+        <v>89979.5472120933</v>
       </c>
       <c r="H15" t="n">
-        <v>92678.51602392369</v>
+        <v>92327.92123628623</v>
       </c>
       <c r="I15" t="n">
-        <v>63988.9245758511</v>
+        <v>69749.30898006154</v>
       </c>
       <c r="J15" t="n">
-        <v>69749.30898006154</v>
+        <v>128993.08865443</v>
       </c>
       <c r="K15" t="n">
-        <v>99579.70599999961</v>
+        <v>142776.7919999998</v>
       </c>
     </row>
     <row r="16">
@@ -7097,34 +7978,34 @@
         <v>40906</v>
       </c>
       <c r="B16" t="n">
-        <v>72915.28707005702</v>
+        <v>87288.95855333915</v>
       </c>
       <c r="C16" t="n">
-        <v>81635.86126222592</v>
+        <v>82923.38116761945</v>
       </c>
       <c r="D16" t="n">
-        <v>85217.50067945696</v>
+        <v>87045.36309348677</v>
       </c>
       <c r="E16" t="n">
-        <v>87288.95855333914</v>
+        <v>88578.49684159583</v>
       </c>
       <c r="F16" t="n">
-        <v>82923.38116761942</v>
+        <v>89820.54751231257</v>
       </c>
       <c r="G16" t="n">
-        <v>89820.54751231254</v>
+        <v>89820.29069780951</v>
       </c>
       <c r="H16" t="n">
-        <v>93139.32909395683</v>
+        <v>93039.30627689851</v>
       </c>
       <c r="I16" t="n">
-        <v>75989.97093488548</v>
+        <v>69982.72020065581</v>
       </c>
       <c r="J16" t="n">
-        <v>69982.72020065581</v>
+        <v>133645.1782982936</v>
       </c>
       <c r="K16" t="n">
-        <v>96318.72199999954</v>
+        <v>149018.8159999999</v>
       </c>
     </row>
     <row r="17">
@@ -7132,34 +8013,34 @@
         <v>40907</v>
       </c>
       <c r="B17" t="n">
-        <v>70926.63218602672</v>
+        <v>79280.05491680637</v>
       </c>
       <c r="C17" t="n">
-        <v>76208.28139049644</v>
+        <v>72569.67409581656</v>
       </c>
       <c r="D17" t="n">
-        <v>80238.59157821441</v>
+        <v>80411.96376404635</v>
       </c>
       <c r="E17" t="n">
-        <v>79280.05491680634</v>
+        <v>84052.80556136344</v>
       </c>
       <c r="F17" t="n">
-        <v>72569.67409581653</v>
+        <v>87336.15184336914</v>
       </c>
       <c r="G17" t="n">
-        <v>87336.15184336911</v>
+        <v>87336.40840441587</v>
       </c>
       <c r="H17" t="n">
-        <v>91080.44484905349</v>
+        <v>93741.73854640931</v>
       </c>
       <c r="I17" t="n">
-        <v>69496.14192676998</v>
+        <v>68702.03956508421</v>
       </c>
       <c r="J17" t="n">
-        <v>68702.03956508421</v>
+        <v>131183.478831091</v>
       </c>
       <c r="K17" t="n">
-        <v>98480.71799999976</v>
+        <v>152753.0900000001</v>
       </c>
     </row>
     <row r="18">
@@ -7167,34 +8048,34 @@
         <v>40910</v>
       </c>
       <c r="B18" t="n">
-        <v>72589.02778896746</v>
+        <v>82211.66472698774</v>
       </c>
       <c r="C18" t="n">
-        <v>78607.21003282205</v>
+        <v>76306.58520396437</v>
       </c>
       <c r="D18" t="n">
-        <v>82539.51345212797</v>
+        <v>82970.32697002415</v>
       </c>
       <c r="E18" t="n">
-        <v>82211.66472698771</v>
+        <v>86033.82394391151</v>
       </c>
       <c r="F18" t="n">
-        <v>76306.58520396434</v>
+        <v>88603.21774484674</v>
       </c>
       <c r="G18" t="n">
-        <v>88603.21774484671</v>
+        <v>88603.42574292931</v>
       </c>
       <c r="H18" t="n">
-        <v>92987.07179587371</v>
+        <v>94444.22630082947</v>
       </c>
       <c r="I18" t="n">
-        <v>72126.04688099217</v>
+        <v>69950.32568895811</v>
       </c>
       <c r="J18" t="n">
-        <v>69950.32568895811</v>
+        <v>140899.5069465307</v>
       </c>
       <c r="K18" t="n">
-        <v>118596.7619999998</v>
+        <v>165654.6260000002</v>
       </c>
     </row>
     <row r="19">
@@ -7202,34 +8083,34 @@
         <v>40911</v>
       </c>
       <c r="B19" t="n">
-        <v>69492.15804365871</v>
+        <v>86883.17037083539</v>
       </c>
       <c r="C19" t="n">
-        <v>80154.87424203059</v>
+        <v>82428.24374787067</v>
       </c>
       <c r="D19" t="n">
-        <v>84312.79302573964</v>
+        <v>86806.63749002572</v>
       </c>
       <c r="E19" t="n">
-        <v>86883.17037083536</v>
+        <v>88793.51978522244</v>
       </c>
       <c r="F19" t="n">
-        <v>82428.24374787064</v>
+        <v>89758.2740700054</v>
       </c>
       <c r="G19" t="n">
-        <v>89758.27407000537</v>
+        <v>89758.64944289955</v>
       </c>
       <c r="H19" t="n">
-        <v>93002.11889632815</v>
+        <v>95139.26129450125</v>
       </c>
       <c r="I19" t="n">
-        <v>77168.41968928211</v>
+        <v>68786.49027032133</v>
       </c>
       <c r="J19" t="n">
-        <v>68786.49027032133</v>
+        <v>145531.1477640178</v>
       </c>
       <c r="K19" t="n">
-        <v>106854.8659999998</v>
+        <v>154398.6700000002</v>
       </c>
     </row>
     <row r="20">
@@ -7237,34 +8118,34 @@
         <v>40912</v>
       </c>
       <c r="B20" t="n">
-        <v>71543.8319483973</v>
+        <v>84323.34301000902</v>
       </c>
       <c r="C20" t="n">
-        <v>79743.46751232809</v>
+        <v>76641.75873785527</v>
       </c>
       <c r="D20" t="n">
-        <v>85003.72313605137</v>
+        <v>85748.82885579714</v>
       </c>
       <c r="E20" t="n">
-        <v>84323.34301000899</v>
+        <v>89155.78040574036</v>
       </c>
       <c r="F20" t="n">
-        <v>76641.75873785524</v>
+        <v>94485.28957650742</v>
       </c>
       <c r="G20" t="n">
-        <v>94485.28957650739</v>
+        <v>94485.15805146839</v>
       </c>
       <c r="H20" t="n">
-        <v>98024.39240748796</v>
+        <v>95843.35265286175</v>
       </c>
       <c r="I20" t="n">
-        <v>69916.13263586682</v>
+        <v>69513.81192414163</v>
       </c>
       <c r="J20" t="n">
-        <v>69513.81192414163</v>
+        <v>150401.4508718274</v>
       </c>
       <c r="K20" t="n">
-        <v>114024.7759999996</v>
+        <v>163885.042</v>
       </c>
     </row>
     <row r="21">
@@ -7272,34 +8153,34 @@
         <v>40913</v>
       </c>
       <c r="B21" t="n">
-        <v>72354.35448601034</v>
+        <v>89987.41871479081</v>
       </c>
       <c r="C21" t="n">
-        <v>82928.29047329603</v>
+        <v>83028.55858956504</v>
       </c>
       <c r="D21" t="n">
-        <v>87669.6777197819</v>
+        <v>89620.33876343664</v>
       </c>
       <c r="E21" t="n">
-        <v>89987.41871479078</v>
+        <v>91659.4781931226</v>
       </c>
       <c r="F21" t="n">
-        <v>83028.55858956501</v>
+        <v>94363.33897244457</v>
       </c>
       <c r="G21" t="n">
-        <v>94363.33897244454</v>
+        <v>94363.08020224719</v>
       </c>
       <c r="H21" t="n">
-        <v>98614.71783609889</v>
+        <v>96554.99448656547</v>
       </c>
       <c r="I21" t="n">
-        <v>70268.56238153689</v>
+        <v>69505.91936688671</v>
       </c>
       <c r="J21" t="n">
-        <v>69505.91936688671</v>
+        <v>155053.540515691</v>
       </c>
       <c r="K21" t="n">
-        <v>110763.7919999995</v>
+        <v>170127.066</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_results.xlsx
+++ b/examples/eCommerce_results.xlsx
@@ -1577,19 +1577,19 @@
         <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>23658.59004912716</v>
+        <v>23482.28312199708</v>
       </c>
       <c r="L4" t="n">
-        <v>3.222993822983896</v>
+        <v>3.248416810472762</v>
       </c>
       <c r="M4" t="n">
-        <v>17564.47691798542</v>
+        <v>17486.60438639265</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.01839242031432975</v>
+        <v>-0.003270587263588309</v>
       </c>
       <c r="O4" t="n">
-        <v>4278.18806632399</v>
+        <v>4292.358216691524</v>
       </c>
       <c r="P4" t="n">
         <v>7055.840000000069</v>
@@ -1619,16 +1619,16 @@
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>16808.69231414476</v>
+        <v>17012.55165319583</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.21117269373323</v>
+        <v>0.2188627230296254</v>
       </c>
       <c r="AC4" t="n">
-        <v>13329.95589980815</v>
+        <v>13698.44445425739</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1252524681503409</v>
+        <v>-0.1527125804104172</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
@@ -1666,19 +1666,19 @@
         <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>23192.0097189718</v>
+        <v>22963.01143369341</v>
       </c>
       <c r="L5" t="n">
-        <v>2.507080854730155</v>
+        <v>2.539194104262251</v>
       </c>
       <c r="M5" t="n">
-        <v>17231.71467728922</v>
+        <v>17133.349402613</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02137972535767052</v>
+        <v>0.0406101389627378</v>
       </c>
       <c r="O5" t="n">
-        <v>2801.959851003666</v>
+        <v>2819.858869760484</v>
       </c>
       <c r="P5" t="n">
         <v>7055.840000000069</v>
@@ -1704,16 +1704,16 @@
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>17703.37770872236</v>
+        <v>18079.00917794771</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2347042587608579</v>
+        <v>0.2456123536925359</v>
       </c>
       <c r="AC5" t="n">
-        <v>14493.90908326839</v>
+        <v>15049.68292156909</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.2482293496881245</v>
+        <v>-0.3017613405773709</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
@@ -1757,19 +1757,19 @@
         <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>21980.76861693473</v>
+        <v>21402.76515137618</v>
       </c>
       <c r="L6" t="n">
-        <v>1.87629534683638</v>
+        <v>1.963009315093496</v>
       </c>
       <c r="M6" t="n">
-        <v>16450.84920083433</v>
+        <v>16238.06035833682</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1209305455606735</v>
+        <v>0.1665544876057159</v>
       </c>
       <c r="O6" t="n">
-        <v>-52.62637697641617</v>
+        <v>-7.877703863732449</v>
       </c>
       <c r="P6" t="n">
         <v>7055.840000000069</v>
@@ -1791,16 +1791,16 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>19345.34808468366</v>
+        <v>20648.24315168127</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2643620923321007</v>
+        <v>0.294641846094142</v>
       </c>
       <c r="AC6" t="n">
-        <v>16059.79448978907</v>
+        <v>17697.50219811995</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.4905111057426657</v>
+        <v>-0.6980416201655173</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
@@ -1844,19 +1844,19 @@
         <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>21980.76517851838</v>
+        <v>21402.76172364134</v>
       </c>
       <c r="L7" t="n">
-        <v>1.876122160966541</v>
+        <v>1.962835738373545</v>
       </c>
       <c r="M7" t="n">
-        <v>16450.81863923095</v>
+        <v>16238.0281116317</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1209308205834991</v>
+        <v>0.1665547545646783</v>
       </c>
       <c r="O7" t="n">
-        <v>-52.76494109814735</v>
+        <v>-8.018520426741588</v>
       </c>
       <c r="P7" t="n">
         <v>7055.840000000069</v>
@@ -1886,16 +1886,16 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>19345.36575356768</v>
+        <v>20648.28164761143</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2643632747236448</v>
+        <v>0.2946432625067825</v>
       </c>
       <c r="AC7" t="n">
-        <v>16059.85194219647</v>
+        <v>17697.57284344384</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.4905138284313215</v>
+        <v>-0.6980479517213853</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
@@ -1943,19 +1943,19 @@
         <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>23444.06349239196</v>
+        <v>23444.06348835181</v>
       </c>
       <c r="L8" t="n">
-        <v>1.237820618762915</v>
+        <v>1.237820618476613</v>
       </c>
       <c r="M8" t="n">
-        <v>17297.36364624574</v>
+        <v>17297.36364414765</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.410059777557265e-06</v>
+        <v>-7.409715111261761e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>705.764211709641</v>
+        <v>705.7642117096409</v>
       </c>
       <c r="P8" t="n">
         <v>7055.840000000069</v>
@@ -1985,16 +1985,16 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>20788.40922853734</v>
+        <v>20788.40922030702</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3009727994274103</v>
+        <v>0.3009727992774227</v>
       </c>
       <c r="AC8" t="n">
-        <v>18040.45423588554</v>
+        <v>18040.45422726321</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.7211734345776561</v>
+        <v>-0.7211734332147994</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
@@ -2127,16 +2127,16 @@
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>23180.45834485688</v>
+        <v>23182.72250542385</v>
       </c>
       <c r="L10" t="n">
-        <v>4.095988615083447</v>
+        <v>4.096636694094806</v>
       </c>
       <c r="M10" t="n">
-        <v>18239.7406415562</v>
+        <v>18247.53104901279</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02235433633969974</v>
+        <v>0.02216334314778579</v>
       </c>
       <c r="O10" t="n">
         <v>11042.41895610754</v>
@@ -2169,16 +2169,16 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>77553.29098008816</v>
+        <v>77480.08470338953</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.115595853212733</v>
+        <v>1.114685986578769</v>
       </c>
       <c r="AC10" t="n">
-        <v>69114.51853576829</v>
+        <v>69056.58489513895</v>
       </c>
       <c r="AD10" t="n">
-        <v>-22.95425029141463</v>
+        <v>-22.90904850053105</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
@@ -5858,19 +5858,19 @@
         <v>1986.524639200514</v>
       </c>
       <c r="E3" t="n">
-        <v>2883.075934208327</v>
+        <v>4089.681555686912</v>
       </c>
       <c r="F3" t="n">
-        <v>2651.890916905636</v>
+        <v>4176.024900506338</v>
       </c>
       <c r="G3" t="n">
-        <v>3790.600038863911</v>
+        <v>7600.929610588459</v>
       </c>
       <c r="H3" t="n">
-        <v>3790.641337256472</v>
+        <v>7600.98168434899</v>
       </c>
       <c r="I3" t="n">
-        <v>701.2600581815756</v>
+        <v>701.2600573680198</v>
       </c>
       <c r="J3" t="n">
         <v>21840.92930588979</v>
@@ -5896,19 +5896,19 @@
         <v>8036.8578339751</v>
       </c>
       <c r="E4" t="n">
-        <v>1831.570982335749</v>
+        <v>1481.706962135628</v>
       </c>
       <c r="F4" t="n">
-        <v>-25.39478608939892</v>
+        <v>-467.3261990070308</v>
       </c>
       <c r="G4" t="n">
-        <v>-6671.723739129077</v>
+        <v>-7776.572126836202</v>
       </c>
       <c r="H4" t="n">
-        <v>-6671.662763961025</v>
+        <v>-7776.471405112967</v>
       </c>
       <c r="I4" t="n">
-        <v>696.0102135425908</v>
+        <v>696.010177813498</v>
       </c>
       <c r="J4" t="n">
         <v>26389.69081237573</v>
@@ -5934,25 +5934,25 @@
         <v>-6968.966604044537</v>
       </c>
       <c r="E5" t="n">
-        <v>-830.4911192708821</v>
+        <v>-725.5991038764541</v>
       </c>
       <c r="F5" t="n">
-        <v>1138.686388204908</v>
+        <v>1271.180394738555</v>
       </c>
       <c r="G5" t="n">
-        <v>7837.012543947885</v>
+        <v>8168.258703750877</v>
       </c>
       <c r="H5" t="n">
-        <v>7836.631199805048</v>
+        <v>8167.855051864906</v>
       </c>
       <c r="I5" t="n">
-        <v>700.5104721230463</v>
+        <v>700.5104929284304</v>
       </c>
       <c r="J5" t="n">
         <v>22120.28165527879</v>
       </c>
       <c r="K5" t="n">
-        <v>8411.655664495058</v>
+        <v>8436.395772035081</v>
       </c>
       <c r="L5" t="n">
         <v>-253.4300000001444</v>
@@ -5972,19 +5972,19 @@
         <v>7791.023518699121</v>
       </c>
       <c r="E6" t="n">
-        <v>4506.900955183515</v>
+        <v>4506.744661953626</v>
       </c>
       <c r="F6" t="n">
-        <v>3210.185800626477</v>
+        <v>3209.987064519237</v>
       </c>
       <c r="G6" t="n">
-        <v>1185.522995728968</v>
+        <v>1185.038653529823</v>
       </c>
       <c r="H6" t="n">
-        <v>1185.387943850419</v>
+        <v>1184.878581704514</v>
       </c>
       <c r="I6" t="n">
-        <v>705.760702467992</v>
+        <v>705.7607262768471</v>
       </c>
       <c r="J6" t="n">
         <v>24713.07814746056</v>
@@ -6010,19 +6010,19 @@
         <v>-10950.92941032277</v>
       </c>
       <c r="E7" t="n">
-        <v>-6744.188592099441</v>
+        <v>-7077.386076736367</v>
       </c>
       <c r="F7" t="n">
-        <v>-4663.738499272546</v>
+        <v>-5084.619066812513</v>
       </c>
       <c r="G7" t="n">
-        <v>-2705.493820502989</v>
+        <v>-3757.699669479141</v>
       </c>
       <c r="H7" t="n">
-        <v>-2705.03686749764</v>
+        <v>-3757.233850108527</v>
       </c>
       <c r="I7" t="n">
-        <v>701.260943754743</v>
+        <v>701.2609376419455</v>
       </c>
       <c r="J7" t="n">
         <v>17178.71798199158</v>
@@ -6048,19 +6048,19 @@
         <v>1971.300351814361</v>
       </c>
       <c r="E8" t="n">
-        <v>2091.316084731925</v>
+        <v>2333.254158844465</v>
       </c>
       <c r="F8" t="n">
-        <v>1992.921031560565</v>
+        <v>2298.527249023458</v>
       </c>
       <c r="G8" t="n">
-        <v>2794.434976583361</v>
+        <v>3558.448335436619</v>
       </c>
       <c r="H8" t="n">
-        <v>2794.418186309799</v>
+        <v>3558.43592302799</v>
       </c>
       <c r="I8" t="n">
-        <v>701.2612034097114</v>
+        <v>701.2611951527297</v>
       </c>
       <c r="J8" t="n">
         <v>26612.97008315576</v>
@@ -6086,19 +6086,19 @@
         <v>8021.633546618599</v>
       </c>
       <c r="E9" t="n">
-        <v>2651.611452077469</v>
+        <v>2650.537877166821</v>
       </c>
       <c r="F9" t="n">
-        <v>1286.23007921641</v>
+        <v>1284.874241751148</v>
       </c>
       <c r="G9" t="n">
-        <v>-2865.686957277646</v>
+        <v>-2869.078990062082</v>
       </c>
       <c r="H9" t="n">
-        <v>-2865.526935967197</v>
+        <v>-2868.914094395574</v>
       </c>
       <c r="I9" t="n">
-        <v>696.0113734174162</v>
+        <v>696.0113773039186</v>
       </c>
       <c r="J9" t="n">
         <v>26502.07908428803</v>
@@ -6124,25 +6124,25 @@
         <v>-6984.190891394587</v>
       </c>
       <c r="E10" t="n">
-        <v>-1197.346904005217</v>
+        <v>-1338.763842543611</v>
       </c>
       <c r="F10" t="n">
-        <v>859.1098345912151</v>
+        <v>680.478138313656</v>
       </c>
       <c r="G10" t="n">
-        <v>7490.434750943137</v>
+        <v>7043.853352021441</v>
       </c>
       <c r="H10" t="n">
-        <v>7489.951321564909</v>
+        <v>7043.374249502695</v>
       </c>
       <c r="I10" t="n">
-        <v>700.5116584707313</v>
+        <v>700.5116480668478</v>
       </c>
       <c r="J10" t="n">
         <v>27866.68963860323</v>
       </c>
       <c r="K10" t="n">
-        <v>8617.894977851734</v>
+        <v>8487.00060128517</v>
       </c>
       <c r="L10" t="n">
         <v>-253.4300000001444</v>
@@ -6162,19 +6162,19 @@
         <v>7775.799231327346</v>
       </c>
       <c r="E11" t="n">
-        <v>3993.923909321624</v>
+        <v>4077.551475397353</v>
       </c>
       <c r="F11" t="n">
-        <v>2645.327855148872</v>
+        <v>2750.962191866976</v>
       </c>
       <c r="G11" t="n">
-        <v>-65.65036553474602</v>
+        <v>198.4400681498962</v>
       </c>
       <c r="H11" t="n">
-        <v>-65.80670687420616</v>
+        <v>198.2745452290553</v>
       </c>
       <c r="I11" t="n">
-        <v>705.7618804451182</v>
+        <v>705.7618782477357</v>
       </c>
       <c r="J11" t="n">
         <v>26119.61173702646</v>
@@ -6200,19 +6200,19 @@
         <v>-10966.15369771601</v>
       </c>
       <c r="E12" t="n">
-        <v>-6919.556254514062</v>
+        <v>-6985.593827160553</v>
       </c>
       <c r="F12" t="n">
-        <v>-4799.763030533753</v>
+        <v>-4883.178906424508</v>
       </c>
       <c r="G12" t="n">
-        <v>-2880.111653393189</v>
+        <v>-3088.651393915804</v>
       </c>
       <c r="H12" t="n">
-        <v>-2879.594348064108</v>
+        <v>-3088.133986995267</v>
       </c>
       <c r="I12" t="n">
-        <v>701.2621077802264</v>
+        <v>701.2621077802263</v>
       </c>
       <c r="J12" t="n">
         <v>38466.61138982607</v>
@@ -6238,16 +6238,16 @@
         <v>1956.076064455545</v>
       </c>
       <c r="E13" t="n">
-        <v>2190.969729941001</v>
+        <v>2306.146164734986</v>
       </c>
       <c r="F13" t="n">
-        <v>1776.293999966766</v>
+        <v>1921.780133672545</v>
       </c>
       <c r="G13" t="n">
-        <v>1605.168920244161</v>
+        <v>1968.883201831524</v>
       </c>
       <c r="H13" t="n">
-        <v>1605.122656261183</v>
+        <v>1968.83904320272</v>
       </c>
       <c r="I13" t="n">
         <v>701.262341562351</v>
@@ -6276,19 +6276,19 @@
         <v>8006.409259216365</v>
       </c>
       <c r="E14" t="n">
-        <v>4111.416824479837</v>
+        <v>4051.915108365727</v>
       </c>
       <c r="F14" t="n">
-        <v>2721.341933916399</v>
+        <v>2646.182030084153</v>
       </c>
       <c r="G14" t="n">
-        <v>-51.69731184084162</v>
+        <v>-239.5985783844424</v>
       </c>
       <c r="H14" t="n">
-        <v>-51.51476146586947</v>
+        <v>-239.4130140834964</v>
       </c>
       <c r="I14" t="n">
-        <v>696.0125753164132</v>
+        <v>696.0125753164131</v>
       </c>
       <c r="J14" t="n">
         <v>25424.93468286569</v>
@@ -6314,16 +6314,16 @@
         <v>-6999.415178787291</v>
       </c>
       <c r="E15" t="n">
-        <v>-955.5320582941268</v>
+        <v>-969.3442907710875</v>
       </c>
       <c r="F15" t="n">
-        <v>650.7329976034149</v>
+        <v>633.2859147279529</v>
       </c>
       <c r="G15" t="n">
-        <v>5996.282542039998</v>
+        <v>5952.665332444703</v>
       </c>
       <c r="H15" t="n">
-        <v>5995.769835036243</v>
+        <v>5952.151630254227</v>
       </c>
       <c r="I15" t="n">
         <v>700.5128091008044</v>
@@ -6332,7 +6332,7 @@
         <v>28039.21821273247</v>
       </c>
       <c r="K15" t="n">
-        <v>8489.948998677239</v>
+        <v>8489.040688464083</v>
       </c>
       <c r="L15" t="n">
         <v>-253.4300000001444</v>
@@ -6352,16 +6352,16 @@
         <v>7760.574943964065</v>
       </c>
       <c r="E16" t="n">
-        <v>4585.743999294566</v>
+        <v>4607.336210970221</v>
       </c>
       <c r="F16" t="n">
-        <v>2958.701200343336</v>
+        <v>2985.975366468861</v>
       </c>
       <c r="G16" t="n">
-        <v>-104.1380105599278</v>
+        <v>-35.95063333074768</v>
       </c>
       <c r="H16" t="n">
-        <v>-104.2842261017265</v>
+        <v>-36.10077270327997</v>
       </c>
       <c r="I16" t="n">
         <v>705.7630428698869</v>
@@ -6390,16 +6390,16 @@
         <v>-10981.37798503459</v>
       </c>
       <c r="E17" t="n">
-        <v>-6839.203119808348</v>
+        <v>-6874.716974727078</v>
       </c>
       <c r="F17" t="n">
-        <v>-4686.731719363857</v>
+        <v>-4731.591211153793</v>
       </c>
       <c r="G17" t="n">
-        <v>-2572.585245865685</v>
+        <v>-2684.735062360898</v>
       </c>
       <c r="H17" t="n">
-        <v>-2572.055006006211</v>
+        <v>-2684.202648460675</v>
       </c>
       <c r="I17" t="n">
         <v>701.2632766199805</v>
@@ -6428,19 +6428,19 @@
         <v>1940.851777069391</v>
       </c>
       <c r="E18" t="n">
-        <v>2023.142698828394</v>
+        <v>2073.625494827544</v>
       </c>
       <c r="F18" t="n">
-        <v>1588.344608908341</v>
+        <v>1652.112366774644</v>
       </c>
       <c r="G18" t="n">
-        <v>1184.030649301554</v>
+        <v>1343.449896227231</v>
       </c>
       <c r="H18" t="n">
-        <v>1183.967297587282</v>
+        <v>1343.386839993124</v>
       </c>
       <c r="I18" t="n">
-        <v>701.2635104021051</v>
+        <v>701.263510402105</v>
       </c>
       <c r="J18" t="n">
         <v>25483.29421961185</v>
@@ -6466,16 +6466,16 @@
         <v>7991.184971813213</v>
       </c>
       <c r="E19" t="n">
-        <v>4279.036129893919</v>
+        <v>4253.117546873246</v>
       </c>
       <c r="F19" t="n">
-        <v>3023.896009893214</v>
+        <v>2991.15677750011</v>
       </c>
       <c r="G19" t="n">
-        <v>880.2883584613362</v>
+        <v>798.4399889650051</v>
       </c>
       <c r="H19" t="n">
-        <v>880.4873311877111</v>
+        <v>798.6395387185178</v>
       </c>
       <c r="I19" t="n">
         <v>696.0137441561673</v>
@@ -6504,25 +6504,25 @@
         <v>-7014.639466138403</v>
       </c>
       <c r="E20" t="n">
-        <v>-1177.210027767165</v>
+        <v>-1183.333518517574</v>
       </c>
       <c r="F20" t="n">
-        <v>404.7909548401104</v>
+        <v>397.056041630325</v>
       </c>
       <c r="G20" t="n">
-        <v>5449.21797560971</v>
+        <v>5429.880479073296</v>
       </c>
       <c r="H20" t="n">
-        <v>5448.689647615053</v>
+        <v>5429.352578102541</v>
       </c>
       <c r="I20" t="n">
-        <v>700.5139779405584</v>
+        <v>700.5139779405583</v>
       </c>
       <c r="J20" t="n">
         <v>25220.30216988272</v>
       </c>
       <c r="K20" t="n">
-        <v>8492.132716576984</v>
+        <v>8491.050741338717</v>
       </c>
       <c r="L20" t="n">
         <v>-253.4300000001444</v>
@@ -6542,19 +6542,19 @@
         <v>7745.350656601466</v>
       </c>
       <c r="E21" t="n">
-        <v>4278.18806632399</v>
+        <v>4292.358216691524</v>
       </c>
       <c r="F21" t="n">
-        <v>2801.959851003666</v>
+        <v>2819.858869760484</v>
       </c>
       <c r="G21" t="n">
-        <v>-52.62637697641617</v>
+        <v>-7.877703863732449</v>
       </c>
       <c r="H21" t="n">
-        <v>-52.76494109814735</v>
+        <v>-8.018520426741588</v>
       </c>
       <c r="I21" t="n">
-        <v>705.764211709641</v>
+        <v>705.7642117096409</v>
       </c>
       <c r="J21" t="n">
         <v>25444.44171900264</v>
@@ -6699,19 +6699,19 @@
         <v>62059.07951627754</v>
       </c>
       <c r="E3" t="n">
-        <v>67141.72016404128</v>
+        <v>68348.32578551986</v>
       </c>
       <c r="F3" t="n">
-        <v>68618.9866705309</v>
+        <v>70143.12065413159</v>
       </c>
       <c r="G3" t="n">
-        <v>70442.83336412389</v>
+        <v>74253.16293584844</v>
       </c>
       <c r="H3" t="n">
-        <v>70443.06645780368</v>
+        <v>74253.40680489619</v>
       </c>
       <c r="I3" t="n">
-        <v>72410.77979131196</v>
+        <v>72410.7797904984</v>
       </c>
       <c r="J3" t="n">
         <v>21840.92930588979</v>
@@ -6737,19 +6737,19 @@
         <v>70095.93735025264</v>
       </c>
       <c r="E4" t="n">
-        <v>68973.29114637703</v>
+        <v>69830.0327476555</v>
       </c>
       <c r="F4" t="n">
-        <v>68593.5918844415</v>
+        <v>69675.79445512456</v>
       </c>
       <c r="G4" t="n">
-        <v>63771.10962499481</v>
+        <v>66476.59080901224</v>
       </c>
       <c r="H4" t="n">
-        <v>63771.40369384266</v>
+        <v>66476.93539978322</v>
       </c>
       <c r="I4" t="n">
-        <v>73106.79000485454</v>
+        <v>73106.7899683119</v>
       </c>
       <c r="J4" t="n">
         <v>26389.69081237573</v>
@@ -6775,25 +6775,25 @@
         <v>63126.97074620811</v>
       </c>
       <c r="E5" t="n">
-        <v>68142.80002710615</v>
+        <v>69104.43364377905</v>
       </c>
       <c r="F5" t="n">
-        <v>69732.27827264641</v>
+        <v>70946.97484986311</v>
       </c>
       <c r="G5" t="n">
-        <v>71608.12216894269</v>
+        <v>74644.84951276312</v>
       </c>
       <c r="H5" t="n">
-        <v>71608.03489364771</v>
+        <v>74644.79045164812</v>
       </c>
       <c r="I5" t="n">
-        <v>73807.30047697759</v>
+        <v>73807.30046124033</v>
       </c>
       <c r="J5" t="n">
         <v>22120.28165527879</v>
       </c>
       <c r="K5" t="n">
-        <v>83252.33043511499</v>
+        <v>83277.07054265501</v>
       </c>
       <c r="L5" t="n">
         <v>88527.82199999999</v>
@@ -6813,25 +6813,25 @@
         <v>70917.99426490723</v>
       </c>
       <c r="E6" t="n">
-        <v>72649.70098228967</v>
+        <v>73611.17830573267</v>
       </c>
       <c r="F6" t="n">
-        <v>72942.46407327289</v>
+        <v>74156.96191438235</v>
       </c>
       <c r="G6" t="n">
-        <v>72793.64516467166</v>
+        <v>75829.88816629293</v>
       </c>
       <c r="H6" t="n">
-        <v>72793.42283749813</v>
+        <v>75829.66903335263</v>
       </c>
       <c r="I6" t="n">
-        <v>74513.06117944558</v>
+        <v>74513.06118751717</v>
       </c>
       <c r="J6" t="n">
         <v>24713.07814746056</v>
       </c>
       <c r="K6" t="n">
-        <v>94294.74939122252</v>
+        <v>94319.48949876256</v>
       </c>
       <c r="L6" t="n">
         <v>101652.336</v>
@@ -6851,25 +6851,25 @@
         <v>59967.06485458446</v>
       </c>
       <c r="E7" t="n">
-        <v>65905.51239019023</v>
+        <v>66533.7922289963</v>
       </c>
       <c r="F7" t="n">
-        <v>68278.72557400035</v>
+        <v>69072.34284756985</v>
       </c>
       <c r="G7" t="n">
-        <v>70088.15134416867</v>
+        <v>72072.18849681379</v>
       </c>
       <c r="H7" t="n">
-        <v>70088.3859700005</v>
+        <v>72072.4351832441</v>
       </c>
       <c r="I7" t="n">
-        <v>75214.32212320031</v>
+        <v>75214.32212515912</v>
       </c>
       <c r="J7" t="n">
         <v>17178.71798199158</v>
       </c>
       <c r="K7" t="n">
-        <v>102699.7784517796</v>
+        <v>102724.5185593197</v>
       </c>
       <c r="L7" t="n">
         <v>113987.8580000002</v>
@@ -6889,25 +6889,25 @@
         <v>61938.36520639882</v>
       </c>
       <c r="E8" t="n">
-        <v>67996.82847492215</v>
+        <v>68867.04638784076</v>
       </c>
       <c r="F8" t="n">
-        <v>70271.64660556091</v>
+        <v>71370.87009659331</v>
       </c>
       <c r="G8" t="n">
-        <v>72882.58632075203</v>
+        <v>75630.63683225041</v>
       </c>
       <c r="H8" t="n">
-        <v>72882.8041563103</v>
+        <v>75630.8711062721</v>
       </c>
       <c r="I8" t="n">
-        <v>75915.58332661002</v>
+        <v>75915.58332031185</v>
       </c>
       <c r="J8" t="n">
         <v>26612.97008315576</v>
       </c>
       <c r="K8" t="n">
-        <v>111104.8075123368</v>
+        <v>111129.5476198768</v>
       </c>
       <c r="L8" t="n">
         <v>126323.3800000003</v>
@@ -6927,25 +6927,25 @@
         <v>69959.99875301743</v>
       </c>
       <c r="E9" t="n">
-        <v>70648.43992699962</v>
+        <v>71517.58426500758</v>
       </c>
       <c r="F9" t="n">
-        <v>71557.87668477732</v>
+        <v>72655.74433834446</v>
       </c>
       <c r="G9" t="n">
-        <v>70016.89936347438</v>
+        <v>72761.55784218833</v>
       </c>
       <c r="H9" t="n">
-        <v>70017.27722034311</v>
+        <v>72761.95701187653</v>
       </c>
       <c r="I9" t="n">
-        <v>76611.59470002745</v>
+        <v>76611.59469761577</v>
       </c>
       <c r="J9" t="n">
         <v>26502.07908428803</v>
       </c>
       <c r="K9" t="n">
-        <v>108818.5003661209</v>
+        <v>108843.2404736609</v>
       </c>
       <c r="L9" t="n">
         <v>119425.3280000001</v>
@@ -6965,25 +6965,25 @@
         <v>62975.80786162284</v>
       </c>
       <c r="E10" t="n">
-        <v>69451.09302299441</v>
+        <v>70178.82042246396</v>
       </c>
       <c r="F10" t="n">
-        <v>72416.98651936854</v>
+        <v>73336.22247665812</v>
       </c>
       <c r="G10" t="n">
-        <v>77507.33411441752</v>
+        <v>79805.41119420977</v>
       </c>
       <c r="H10" t="n">
-        <v>77507.22854190801</v>
+        <v>79805.33126137922</v>
       </c>
       <c r="I10" t="n">
-        <v>77312.10635849817</v>
+        <v>77312.10634568262</v>
       </c>
       <c r="J10" t="n">
         <v>27866.68963860323</v>
       </c>
       <c r="K10" t="n">
-        <v>117436.3953439726</v>
+        <v>117330.2410749461</v>
       </c>
       <c r="L10" t="n">
         <v>119171.898</v>
@@ -7003,25 +7003,25 @@
         <v>70751.60709295019</v>
       </c>
       <c r="E11" t="n">
-        <v>73445.01693231604</v>
+        <v>74256.37189786132</v>
       </c>
       <c r="F11" t="n">
-        <v>75062.31437451742</v>
+        <v>76087.18466852509</v>
       </c>
       <c r="G11" t="n">
-        <v>77441.68374888277</v>
+        <v>80003.85126235966</v>
       </c>
       <c r="H11" t="n">
-        <v>77441.42183503381</v>
+        <v>80003.60580660828</v>
       </c>
       <c r="I11" t="n">
-        <v>78017.86823894329</v>
+        <v>78017.86822393036</v>
       </c>
       <c r="J11" t="n">
         <v>26119.61173702646</v>
       </c>
       <c r="K11" t="n">
-        <v>128478.8143000802</v>
+        <v>128372.6600310536</v>
       </c>
       <c r="L11" t="n">
         <v>132296.412</v>
@@ -7041,25 +7041,25 @@
         <v>59785.45339523417</v>
       </c>
       <c r="E12" t="n">
-        <v>66525.46067780198</v>
+        <v>67270.77807070076</v>
       </c>
       <c r="F12" t="n">
-        <v>70262.55134398366</v>
+        <v>71204.00576210058</v>
       </c>
       <c r="G12" t="n">
-        <v>74561.57209548958</v>
+        <v>76915.19986844386</v>
       </c>
       <c r="H12" t="n">
-        <v>74561.82748696969</v>
+        <v>76915.47181961301</v>
       </c>
       <c r="I12" t="n">
-        <v>78719.13034672353</v>
+        <v>78719.13033171059</v>
       </c>
       <c r="J12" t="n">
         <v>38466.61138982607</v>
       </c>
       <c r="K12" t="n">
-        <v>136883.8433606373</v>
+        <v>136777.6890916108</v>
       </c>
       <c r="L12" t="n">
         <v>144631.9340000002</v>
@@ -7079,25 +7079,25 @@
         <v>61741.52945968971</v>
       </c>
       <c r="E13" t="n">
-        <v>68716.43040774298</v>
+        <v>69576.92423543576</v>
       </c>
       <c r="F13" t="n">
-        <v>72038.84534395044</v>
+        <v>73125.78589577312</v>
       </c>
       <c r="G13" t="n">
-        <v>76166.74101573374</v>
+        <v>78884.08307027539</v>
       </c>
       <c r="H13" t="n">
-        <v>76166.95014323088</v>
+        <v>78884.31086281574</v>
       </c>
       <c r="I13" t="n">
-        <v>79420.39268828588</v>
+        <v>79420.39267327295</v>
       </c>
       <c r="J13" t="n">
         <v>27391.36442539522</v>
       </c>
       <c r="K13" t="n">
-        <v>145288.8724211944</v>
+        <v>145182.7181521679</v>
       </c>
       <c r="L13" t="n">
         <v>156967.4560000003</v>
@@ -7117,25 +7117,25 @@
         <v>69747.93871890608</v>
       </c>
       <c r="E14" t="n">
-        <v>72827.84723222282</v>
+        <v>73628.83934380149</v>
       </c>
       <c r="F14" t="n">
-        <v>74760.18727786683</v>
+        <v>75771.96792585727</v>
       </c>
       <c r="G14" t="n">
-        <v>76115.04370389291</v>
+        <v>78644.48449189095</v>
       </c>
       <c r="H14" t="n">
-        <v>76115.43538176501</v>
+        <v>78644.89784873225</v>
       </c>
       <c r="I14" t="n">
-        <v>80116.4052636023</v>
+        <v>80116.40524858936</v>
       </c>
       <c r="J14" t="n">
         <v>25424.93468286569</v>
       </c>
       <c r="K14" t="n">
-        <v>143002.5652749786</v>
+        <v>142896.411005952</v>
       </c>
       <c r="L14" t="n">
         <v>150069.4040000001</v>
@@ -7155,25 +7155,25 @@
         <v>62748.52354011879</v>
       </c>
       <c r="E15" t="n">
-        <v>71872.3151739287</v>
+        <v>72659.4950530304</v>
       </c>
       <c r="F15" t="n">
-        <v>75410.92027547024</v>
+        <v>76405.25384058522</v>
       </c>
       <c r="G15" t="n">
-        <v>82111.32624593291</v>
+        <v>84597.14982433565</v>
       </c>
       <c r="H15" t="n">
-        <v>82111.20521680126</v>
+        <v>84597.04947898648</v>
       </c>
       <c r="I15" t="n">
-        <v>80816.91807270311</v>
+        <v>80816.91805769017</v>
       </c>
       <c r="J15" t="n">
         <v>28039.21821273247</v>
       </c>
       <c r="K15" t="n">
-        <v>151492.5142736558</v>
+        <v>151385.4516944161</v>
       </c>
       <c r="L15" t="n">
         <v>149815.974</v>
@@ -7193,25 +7193,25 @@
         <v>70509.09848408286</v>
       </c>
       <c r="E16" t="n">
-        <v>76458.05917322327</v>
+        <v>77266.83126400062</v>
       </c>
       <c r="F16" t="n">
-        <v>78369.62147581358</v>
+        <v>79391.22920705409</v>
       </c>
       <c r="G16" t="n">
-        <v>82007.18823537299</v>
+        <v>84561.1991910049</v>
       </c>
       <c r="H16" t="n">
-        <v>82006.92099069954</v>
+        <v>84560.94870628319</v>
       </c>
       <c r="I16" t="n">
-        <v>81522.681115573</v>
+        <v>81522.68110056006</v>
       </c>
       <c r="J16" t="n">
         <v>26068.99203920475</v>
       </c>
       <c r="K16" t="n">
-        <v>162534.9332297634</v>
+        <v>162427.8706505237</v>
       </c>
       <c r="L16" t="n">
         <v>162940.488</v>
@@ -7231,25 +7231,25 @@
         <v>59527.72049904827</v>
       </c>
       <c r="E17" t="n">
-        <v>69618.85605341493</v>
+        <v>70392.11428927354</v>
       </c>
       <c r="F17" t="n">
-        <v>73682.88975644972</v>
+        <v>74659.6379959003</v>
       </c>
       <c r="G17" t="n">
-        <v>79434.6029895073</v>
+        <v>81876.464128644</v>
       </c>
       <c r="H17" t="n">
-        <v>79434.86598469333</v>
+        <v>81876.74605782251</v>
       </c>
       <c r="I17" t="n">
-        <v>82223.94439219298</v>
+        <v>82223.94437718004</v>
       </c>
       <c r="J17" t="n">
         <v>33013.74839913348</v>
       </c>
       <c r="K17" t="n">
-        <v>170939.9622903205</v>
+        <v>170832.8997110808</v>
       </c>
       <c r="L17" t="n">
         <v>175276.0100000002</v>
@@ -7269,25 +7269,25 @@
         <v>61468.57227611766</v>
       </c>
       <c r="E18" t="n">
-        <v>71641.99875224332</v>
+        <v>72465.73978410108</v>
       </c>
       <c r="F18" t="n">
-        <v>75271.23436535806</v>
+        <v>76311.75036267494</v>
       </c>
       <c r="G18" t="n">
-        <v>80618.63363880885</v>
+        <v>83219.91402487124</v>
       </c>
       <c r="H18" t="n">
-        <v>80618.83328228061</v>
+        <v>83220.13289781564</v>
       </c>
       <c r="I18" t="n">
-        <v>82925.20790259508</v>
+        <v>82925.20788758215</v>
       </c>
       <c r="J18" t="n">
         <v>25483.29421961185</v>
       </c>
       <c r="K18" t="n">
-        <v>179344.9913508776</v>
+        <v>179237.9287716379</v>
       </c>
       <c r="L18" t="n">
         <v>187611.5320000003</v>
@@ -7307,25 +7307,25 @@
         <v>69459.75724793087</v>
       </c>
       <c r="E19" t="n">
-        <v>75921.03488213725</v>
+        <v>76718.85733097432</v>
       </c>
       <c r="F19" t="n">
-        <v>78295.13037525128</v>
+        <v>79302.90714017506</v>
       </c>
       <c r="G19" t="n">
-        <v>81498.92199727018</v>
+        <v>84018.35401383624</v>
       </c>
       <c r="H19" t="n">
-        <v>81499.32061346833</v>
+        <v>84018.77243653416</v>
       </c>
       <c r="I19" t="n">
-        <v>83621.22164675125</v>
+        <v>83621.22163173831</v>
       </c>
       <c r="J19" t="n">
         <v>25143.45297884964</v>
       </c>
       <c r="K19" t="n">
-        <v>177058.6842046618</v>
+        <v>176951.621625422</v>
       </c>
       <c r="L19" t="n">
         <v>180713.4800000001</v>
@@ -7345,25 +7345,25 @@
         <v>62445.11778179247</v>
       </c>
       <c r="E20" t="n">
-        <v>74743.82485437008</v>
+        <v>75535.52381245675</v>
       </c>
       <c r="F20" t="n">
-        <v>78699.92133009138</v>
+        <v>79699.96318180537</v>
       </c>
       <c r="G20" t="n">
-        <v>86948.1399728799</v>
+        <v>89448.23449290954</v>
       </c>
       <c r="H20" t="n">
-        <v>86948.01026108339</v>
+        <v>89448.12501463669</v>
       </c>
       <c r="I20" t="n">
-        <v>84321.73562469181</v>
+        <v>84321.73560967887</v>
       </c>
       <c r="J20" t="n">
         <v>25220.30216988272</v>
       </c>
       <c r="K20" t="n">
-        <v>185550.8169212387</v>
+        <v>185442.6723667608</v>
       </c>
       <c r="L20" t="n">
         <v>180460.05</v>
@@ -7383,25 +7383,25 @@
         <v>70190.46843839393</v>
       </c>
       <c r="E21" t="n">
-        <v>79022.01292069406</v>
+        <v>79827.88202914828</v>
       </c>
       <c r="F21" t="n">
-        <v>81501.88118109504</v>
+        <v>82519.82205156586</v>
       </c>
       <c r="G21" t="n">
-        <v>86895.51359590348</v>
+        <v>89440.35678904581</v>
       </c>
       <c r="H21" t="n">
-        <v>86895.24531998523</v>
+        <v>89440.10649420995</v>
       </c>
       <c r="I21" t="n">
-        <v>85027.49983640145</v>
+        <v>85027.49982138851</v>
       </c>
       <c r="J21" t="n">
         <v>25444.44171900264</v>
       </c>
       <c r="K21" t="n">
-        <v>196593.2358773463</v>
+        <v>196485.0913228683</v>
       </c>
       <c r="L21" t="n">
         <v>193584.564</v>

--- a/examples/eCommerce_results.xlsx
+++ b/examples/eCommerce_results.xlsx
@@ -513,10 +513,10 @@
         <v>-11487.36006509619</v>
       </c>
       <c r="E2" t="n">
-        <v>1549.184000000155</v>
+        <v>-105.1237499998942</v>
       </c>
       <c r="F2" t="n">
-        <v>-3343.979637302446</v>
+        <v>-6010.468972089609</v>
       </c>
       <c r="G2" t="n">
         <v>699.2141605554577</v>
@@ -548,10 +548,10 @@
         <v>8891.846419448924</v>
       </c>
       <c r="E3" t="n">
-        <v>12114.44999999997</v>
+        <v>8264.562500000022</v>
       </c>
       <c r="F3" t="n">
-        <v>9588.495274647399</v>
+        <v>10652.46386070937</v>
       </c>
       <c r="G3" t="n">
         <v>708.7254467529933</v>
@@ -583,10 +583,10 @@
         <v>-7029.187757088066</v>
       </c>
       <c r="E4" t="n">
-        <v>-9043.195999999962</v>
+        <v>-7324.506250000006</v>
       </c>
       <c r="F4" t="n">
-        <v>-3343.979637302446</v>
+        <v>-11580.95508008921</v>
       </c>
       <c r="G4" t="n">
         <v>691.271747352157</v>
@@ -618,10 +618,10 @@
         <v>7946.582829584338</v>
       </c>
       <c r="E5" t="n">
-        <v>5090.139999999783</v>
+        <v>-970.1350000001612</v>
       </c>
       <c r="F5" t="n">
-        <v>9955.762048553383</v>
+        <v>10652.46386070937</v>
       </c>
       <c r="G5" t="n">
         <v>703.4110933428908</v>
@@ -653,10 +653,10 @@
         <v>1231.712243983319</v>
       </c>
       <c r="E6" t="n">
-        <v>4118.56200000009</v>
+        <v>4452.893750000042</v>
       </c>
       <c r="F6" t="n">
-        <v>1356.301507172973</v>
+        <v>10402.53622388268</v>
       </c>
       <c r="G6" t="n">
         <v>710.477320598086</v>
@@ -688,10 +688,10 @@
         <v>-4451.300888382362</v>
       </c>
       <c r="E7" t="n">
-        <v>7722.384000000224</v>
+        <v>853.5050000001065</v>
       </c>
       <c r="F7" t="n">
-        <v>977.8901604615198</v>
+        <v>-4071.105842784845</v>
       </c>
       <c r="G7" t="n">
         <v>702.5732081571958</v>
@@ -723,10 +723,10 @@
         <v>3717.518133723129</v>
       </c>
       <c r="E8" t="n">
-        <v>22249.78200000013</v>
+        <v>14880.68125000008</v>
       </c>
       <c r="F8" t="n">
-        <v>4652.089643863581</v>
+        <v>11229.29249766621</v>
       </c>
       <c r="G8" t="n">
         <v>706.1503738374807</v>
@@ -758,10 +758,10 @@
         <v>-2061.255214406512</v>
       </c>
       <c r="E9" t="n">
-        <v>-20261.494</v>
+        <v>-15811.29874999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-3343.979637302446</v>
+        <v>-6587.297609046444</v>
       </c>
       <c r="G9" t="n">
         <v>690.022199137121</v>
@@ -793,10 +793,10 @@
         <v>6433.710710104007</v>
       </c>
       <c r="E10" t="n">
-        <v>11428.40599999969</v>
+        <v>3790.377499999813</v>
       </c>
       <c r="F10" t="n">
-        <v>9955.762048553383</v>
+        <v>11229.29249766621</v>
       </c>
       <c r="G10" t="n">
         <v>706.056779010642</v>
@@ -828,10 +828,10 @@
         <v>-35.34076728471132</v>
       </c>
       <c r="E11" t="n">
-        <v>7091.356000000096</v>
+        <v>2204.226250000078</v>
       </c>
       <c r="F11" t="n">
-        <v>6441.75747201179</v>
+        <v>10652.46386070937</v>
       </c>
       <c r="G11" t="n">
         <v>711.999494354187</v>
@@ -863,10 +863,10 @@
         <v>-3158.581682299578</v>
       </c>
       <c r="E12" t="n">
-        <v>6512.194000000172</v>
+        <v>853.5050000001065</v>
       </c>
       <c r="F12" t="n">
-        <v>-552.0641580867107</v>
+        <v>-4071.109983436386</v>
       </c>
       <c r="G12" t="n">
         <v>702.1747950636432</v>
@@ -898,10 +898,10 @@
         <v>1999.409190393677</v>
       </c>
       <c r="E13" t="n">
-        <v>11266.84800000004</v>
+        <v>12889.6300000001</v>
       </c>
       <c r="F13" t="n">
-        <v>4652.089643863581</v>
+        <v>10652.46386070937</v>
       </c>
       <c r="G13" t="n">
         <v>702.2322723938746</v>
@@ -933,10 +933,10 @@
         <v>288.9126938282743</v>
       </c>
       <c r="E14" t="n">
-        <v>-9043.195999999962</v>
+        <v>-17198.42125000001</v>
       </c>
       <c r="F14" t="n">
-        <v>4631.640817487096</v>
+        <v>2194.542010364599</v>
       </c>
       <c r="G14" t="n">
         <v>694.7777823175171</v>
@@ -968,10 +968,10 @@
         <v>5197.881365585334</v>
       </c>
       <c r="E15" t="n">
-        <v>9486.371999999699</v>
+        <v>2625.523749999797</v>
       </c>
       <c r="F15" t="n">
-        <v>4870.303107809588</v>
+        <v>10652.46386070937</v>
       </c>
       <c r="G15" t="n">
         <v>703.8345634132509</v>
@@ -1003,10 +1003,10 @@
         <v>-159.2565142837786</v>
       </c>
       <c r="E16" t="n">
-        <v>6242.024000000107</v>
+        <v>2204.226250000078</v>
       </c>
       <c r="F16" t="n">
-        <v>4652.089643863581</v>
+        <v>11229.29249766621</v>
       </c>
       <c r="G16" t="n">
         <v>711.3850406122865</v>
@@ -1038,10 +1038,10 @@
         <v>-2483.882293393651</v>
       </c>
       <c r="E17" t="n">
-        <v>3734.274000000148</v>
+        <v>853.5050000001065</v>
       </c>
       <c r="F17" t="n">
-        <v>-2461.699467202603</v>
+        <v>-6587.297609046444</v>
       </c>
       <c r="G17" t="n">
         <v>702.4322695107925</v>
@@ -1073,10 +1073,10 @@
         <v>1267.017338513444</v>
       </c>
       <c r="E18" t="n">
-        <v>12901.5360000001</v>
+        <v>14991.26750000011</v>
       </c>
       <c r="F18" t="n">
-        <v>9716.0281154397</v>
+        <v>10652.46386070937</v>
       </c>
       <c r="G18" t="n">
         <v>702.4877544201644</v>
@@ -1108,10 +1108,10 @@
         <v>1155.223699970245</v>
       </c>
       <c r="E19" t="n">
-        <v>-11255.95599999993</v>
+        <v>-17198.42125000001</v>
       </c>
       <c r="F19" t="n">
-        <v>4631.640817487096</v>
+        <v>2194.542015280239</v>
       </c>
       <c r="G19" t="n">
         <v>695.034993671786</v>
@@ -1143,10 +1143,10 @@
         <v>4726.508608568834</v>
       </c>
       <c r="E20" t="n">
-        <v>9486.371999999699</v>
+        <v>2625.523749999797</v>
       </c>
       <c r="F20" t="n">
-        <v>4870.303107809588</v>
+        <v>10652.46386070937</v>
       </c>
       <c r="G20" t="n">
         <v>704.0913583605064</v>
@@ -1178,10 +1178,10 @@
         <v>-122.0778492211994</v>
       </c>
       <c r="E21" t="n">
-        <v>6242.024000000107</v>
+        <v>2204.226250000078</v>
       </c>
       <c r="F21" t="n">
-        <v>4652.089643863581</v>
+        <v>11229.29249766621</v>
       </c>
       <c r="G21" t="n">
         <v>711.641833703714</v>
@@ -1577,19 +1577,19 @@
         <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>23482.28312199708</v>
+        <v>23482.21675682838</v>
       </c>
       <c r="L4" t="n">
-        <v>3.248416810472762</v>
+        <v>3.248433720403214</v>
       </c>
       <c r="M4" t="n">
-        <v>17486.60438639265</v>
+        <v>17486.59961009655</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.003270587263588309</v>
+        <v>-0.003264916424228881</v>
       </c>
       <c r="O4" t="n">
-        <v>4292.358216691524</v>
+        <v>4292.484228850529</v>
       </c>
       <c r="P4" t="n">
         <v>7055.840000000069</v>
@@ -1619,16 +1619,16 @@
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>17012.55165319583</v>
+        <v>17012.26224252853</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2188627230296254</v>
+        <v>0.2188556045934984</v>
       </c>
       <c r="AC4" t="n">
-        <v>13698.44445425739</v>
+        <v>13698.05995768849</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1527125804104172</v>
+        <v>-0.1526733617809832</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
@@ -1666,19 +1666,19 @@
         <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>22963.01143369341</v>
+        <v>22962.60968691449</v>
       </c>
       <c r="L5" t="n">
-        <v>2.539194104262251</v>
+        <v>2.539295563844968</v>
       </c>
       <c r="M5" t="n">
-        <v>17133.349402613</v>
+        <v>17133.32074483637</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0406101389627378</v>
+        <v>0.0406437084634873</v>
       </c>
       <c r="O5" t="n">
-        <v>2819.858869760484</v>
+        <v>2820.614942714511</v>
       </c>
       <c r="P5" t="n">
         <v>7055.840000000069</v>
@@ -1704,16 +1704,16 @@
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>18079.00917794771</v>
+        <v>18076.78815381139</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2456123536925359</v>
+        <v>0.2455625361403543</v>
       </c>
       <c r="AC5" t="n">
-        <v>15049.68292156909</v>
+        <v>15046.78965551829</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.3017613405773709</v>
+        <v>-0.3014415148908376</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
@@ -1943,19 +1943,19 @@
         <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>23444.06348835181</v>
+        <v>23441.87376981065</v>
       </c>
       <c r="L8" t="n">
-        <v>1.237820618476613</v>
+        <v>1.237579050602994</v>
       </c>
       <c r="M8" t="n">
-        <v>17297.36364414765</v>
+        <v>17297.10360708831</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.409715111261761e-06</v>
+        <v>0.0001793866143573464</v>
       </c>
       <c r="O8" t="n">
-        <v>705.7642117096409</v>
+        <v>709.5445764797744</v>
       </c>
       <c r="P8" t="n">
         <v>7055.840000000069</v>
@@ -1979,22 +1979,22 @@
         </is>
       </c>
       <c r="W8" t="n">
-        <v>18306.71334093636</v>
+        <v>18303.32213345603</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>20788.40922030702</v>
+        <v>20774.6640646065</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3009727992774227</v>
+        <v>0.3007237115165151</v>
       </c>
       <c r="AC8" t="n">
-        <v>18040.45422726321</v>
+        <v>18025.98789700922</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.7211734332147994</v>
+        <v>-0.7188981291846741</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
@@ -2003,83 +2003,97 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR10', 'dayofweeksin', 'dayofweekcos', 't']</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'order': (4, 1, 0), 'seasonal_order': (2, 0, 0, 5)}</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>{'n_neighbors': 8, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F9" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>44408.22553323487</v>
+        <v>24141.54684455711</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6041697011167072</v>
+        <v>1.73233404397598</v>
       </c>
       <c r="M9" t="n">
-        <v>40681.94843007217</v>
+        <v>18941.85368750005</v>
       </c>
       <c r="N9" t="n">
-        <v>-6.854326654808984</v>
+        <v>-0.06039489337177462</v>
       </c>
       <c r="O9" t="n">
-        <v>25444.44171900264</v>
+        <v>12541.04625000002</v>
       </c>
       <c r="P9" t="n">
-        <v>82494.99999999972</v>
+        <v>7055.840000000069</v>
       </c>
       <c r="Q9" t="n">
-        <v>14759.02299662494</v>
+        <v>15154.67078374162</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>10678.2465292226</v>
+        <v>11136.63835721982</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3720505281981898</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="b">
-        <v>1</v>
-      </c>
+        <v>0.3629303332406261</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>17356.53104332941</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>44408.22553323487</v>
+        <v>27190.04562934285</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6041697011167072</v>
+        <v>0.3996373010538282</v>
       </c>
       <c r="AC9" t="n">
-        <v>40681.94843007217</v>
+        <v>23962.73108125008</v>
       </c>
       <c r="AD9" t="n">
-        <v>-6.854326654808984</v>
+        <v>-1.944435140202787</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
@@ -2103,12 +2117,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'lbfgs', 'random_state': 20}</t>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25, 25), 'solver': 'lbfgs', 'random_state': 20}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2127,32 +2141,32 @@
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>23182.72250542385</v>
+        <v>21928.35671874411</v>
       </c>
       <c r="L10" t="n">
-        <v>4.096636694094806</v>
+        <v>4.051390211501172</v>
       </c>
       <c r="M10" t="n">
-        <v>18247.53104901279</v>
+        <v>17228.6000126299</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02216334314778579</v>
+        <v>0.125117730229925</v>
       </c>
       <c r="O10" t="n">
-        <v>11042.41895610754</v>
+        <v>8387.094156569878</v>
       </c>
       <c r="P10" t="n">
         <v>7055.840000000069</v>
       </c>
       <c r="Q10" t="n">
-        <v>16142.99065597367</v>
+        <v>16148.01692085766</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>12251.63153644267</v>
+        <v>12099.00967867565</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2771271637189858</v>
+        <v>0.2766769477623353</v>
       </c>
       <c r="U10" t="n">
         <v>10</v>
@@ -2163,22 +2177,22 @@
         </is>
       </c>
       <c r="W10" t="n">
-        <v>14929.18364760034</v>
+        <v>15248.17574846119</v>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>77480.08470338953</v>
+        <v>29844.44721765491</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.114685986578769</v>
+        <v>0.4296709618824099</v>
       </c>
       <c r="AC10" t="n">
-        <v>69056.58489513895</v>
+        <v>26159.78303585534</v>
       </c>
       <c r="AD10" t="n">
-        <v>-22.90904850053105</v>
+        <v>-2.54739212712919</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
@@ -2187,97 +2201,83 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR10', 'dayofweeksin', 'dayofweekcos', 't']</t>
-        </is>
-      </c>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 5, 'weights': 'uniform'}</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'order': (4, 1, 0), 'seasonal_order': (2, 0, 0, 5)}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>23881.61463492258</v>
+        <v>44408.22553323487</v>
       </c>
       <c r="L11" t="n">
-        <v>5.723273465983262</v>
+        <v>0.6041697011167072</v>
       </c>
       <c r="M11" t="n">
-        <v>20527.67720000009</v>
+        <v>40681.94843007217</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0376832643165903</v>
+        <v>-6.854326654808984</v>
       </c>
       <c r="O11" t="n">
-        <v>13124.51400000002</v>
+        <v>25444.44171900264</v>
       </c>
       <c r="P11" t="n">
-        <v>7055.840000000069</v>
+        <v>82494.99999999972</v>
       </c>
       <c r="Q11" t="n">
-        <v>14097.29100041831</v>
+        <v>14759.02299662494</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>10296.76421034482</v>
+        <v>10678.2465292226</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4487288765791602</v>
-      </c>
-      <c r="U11" t="n">
-        <v>10</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="W11" t="n">
-        <v>14827.63187322461</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
+        <v>0.3720505281981898</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="b">
+        <v>1</v>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>81391.03705932213</v>
+        <v>44408.22553323487</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.209730810343186</v>
+        <v>0.6041697011167072</v>
       </c>
       <c r="AC11" t="n">
-        <v>74049.02930000015</v>
+        <v>40681.94843007217</v>
       </c>
       <c r="AD11" t="n">
-        <v>-25.38367470056216</v>
+        <v>-6.854326654808984</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
@@ -5792,17 +5792,17 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
         </is>
       </c>
     </row>
@@ -5820,10 +5820,10 @@
         <v>-10935.70512292297</v>
       </c>
       <c r="E2" t="n">
-        <v>-6749.615770167045</v>
+        <v>-6749.83941329786</v>
       </c>
       <c r="F2" t="n">
-        <v>-5041.164246374744</v>
+        <v>-5042.50610515964</v>
       </c>
       <c r="G2" t="n">
         <v>-4356.026674740016</v>
@@ -5832,16 +5832,16 @@
         <v>-4355.83487945279</v>
       </c>
       <c r="I2" t="n">
-        <v>701.2597331303854</v>
+        <v>694.550439205905</v>
       </c>
       <c r="J2" t="n">
+        <v>-3168.891250000005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-8407.949364909906</v>
+      </c>
+      <c r="L2" t="n">
         <v>-4918.527284019259</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-2286.307143721339</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12335.52200000015</v>
       </c>
     </row>
     <row r="3">
@@ -5858,10 +5858,10 @@
         <v>1986.524639200514</v>
       </c>
       <c r="E3" t="n">
-        <v>4089.681555686912</v>
+        <v>4089.871812798297</v>
       </c>
       <c r="F3" t="n">
-        <v>4176.024900506338</v>
+        <v>4177.166443174646</v>
       </c>
       <c r="G3" t="n">
         <v>7600.929610588459</v>
@@ -5870,16 +5870,16 @@
         <v>7600.98168434899</v>
       </c>
       <c r="I3" t="n">
-        <v>701.2600573680198</v>
+        <v>706.9677707095619</v>
       </c>
       <c r="J3" t="n">
+        <v>3344.708750000044</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10627.68170633409</v>
+      </c>
+      <c r="L3" t="n">
         <v>21840.92930588979</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8405.029060557121</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12335.52200000015</v>
       </c>
     </row>
     <row r="4">
@@ -5896,10 +5896,10 @@
         <v>8036.8578339751</v>
       </c>
       <c r="E4" t="n">
-        <v>1481.706962135628</v>
+        <v>1481.207403438701</v>
       </c>
       <c r="F4" t="n">
-        <v>-467.3261990070308</v>
+        <v>-470.3235511885912</v>
       </c>
       <c r="G4" t="n">
         <v>-7776.572126836202</v>
@@ -5908,16 +5908,16 @@
         <v>-7776.471405112967</v>
       </c>
       <c r="I4" t="n">
-        <v>696.010177813498</v>
+        <v>681.0234169056959</v>
       </c>
       <c r="J4" t="n">
+        <v>-1580.358749999965</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-8407.949364909906</v>
+      </c>
+      <c r="L4" t="n">
         <v>26389.69081237573</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-2286.30714621586</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-6898.052000000172</v>
       </c>
     </row>
     <row r="5">
@@ -5934,10 +5934,10 @@
         <v>-6968.966604044537</v>
       </c>
       <c r="E5" t="n">
-        <v>-725.5991038764541</v>
+        <v>-725.5761781663024</v>
       </c>
       <c r="F5" t="n">
-        <v>1271.180394738555</v>
+        <v>1271.317948999465</v>
       </c>
       <c r="G5" t="n">
         <v>8168.258703750877</v>
@@ -5946,16 +5946,16 @@
         <v>8167.855051864906</v>
       </c>
       <c r="I5" t="n">
-        <v>700.5104929284304</v>
+        <v>701.198264232981</v>
       </c>
       <c r="J5" t="n">
+        <v>-460.7400000000739</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10627.68170633409</v>
+      </c>
+      <c r="L5" t="n">
         <v>22120.28165527879</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8436.395772035081</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-253.4300000001444</v>
       </c>
     </row>
     <row r="6">
@@ -5972,10 +5972,10 @@
         <v>7791.023518699121</v>
       </c>
       <c r="E6" t="n">
-        <v>4506.744661953626</v>
+        <v>4506.942148272551</v>
       </c>
       <c r="F6" t="n">
-        <v>3209.987064519237</v>
+        <v>3211.171982432789</v>
       </c>
       <c r="G6" t="n">
         <v>1185.038653529823</v>
@@ -5984,16 +5984,16 @@
         <v>1184.878581704514</v>
       </c>
       <c r="I6" t="n">
-        <v>705.7607262768471</v>
+        <v>711.6853158446081</v>
       </c>
       <c r="J6" t="n">
+        <v>13774.81125000005</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6982.767451659312</v>
+      </c>
+      <c r="L6" t="n">
         <v>24713.07814746056</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11042.41895610754</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13124.51400000002</v>
       </c>
     </row>
     <row r="7">
@@ -6010,10 +6010,10 @@
         <v>-10950.92941032277</v>
       </c>
       <c r="E7" t="n">
-        <v>-7077.386076736367</v>
+        <v>-7077.439108324952</v>
       </c>
       <c r="F7" t="n">
-        <v>-5084.619066812513</v>
+        <v>-5084.937256344025</v>
       </c>
       <c r="G7" t="n">
         <v>-3757.699669479141</v>
@@ -6022,16 +6022,16 @@
         <v>-3757.233850108527</v>
       </c>
       <c r="I7" t="n">
-        <v>701.2609376419455</v>
+        <v>699.6699899843862</v>
       </c>
       <c r="J7" t="n">
+        <v>1229.432500000007</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-9124.477149132581</v>
+      </c>
+      <c r="L7" t="n">
         <v>17178.71798199158</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8405.029060557121</v>
-      </c>
-      <c r="L7" t="n">
-        <v>12335.52200000015</v>
       </c>
     </row>
     <row r="8">
@@ -6048,10 +6048,10 @@
         <v>1971.300351814361</v>
       </c>
       <c r="E8" t="n">
-        <v>2333.254158844465</v>
+        <v>2333.311125484013</v>
       </c>
       <c r="F8" t="n">
-        <v>2298.527249023458</v>
+        <v>2298.869048860747</v>
       </c>
       <c r="G8" t="n">
         <v>3558.448335436619</v>
@@ -6060,16 +6060,16 @@
         <v>3558.43592302799</v>
       </c>
       <c r="I8" t="n">
-        <v>701.2611951527297</v>
+        <v>702.9701943391743</v>
       </c>
       <c r="J8" t="n">
+        <v>3467.181250000028</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10627.68170633409</v>
+      </c>
+      <c r="L8" t="n">
         <v>26612.97008315576</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8405.029060557121</v>
-      </c>
-      <c r="L8" t="n">
-        <v>12335.52200000015</v>
       </c>
     </row>
     <row r="9">
@@ -6086,10 +6086,10 @@
         <v>8021.633546618599</v>
       </c>
       <c r="E9" t="n">
-        <v>2650.537877166821</v>
+        <v>2650.186135315651</v>
       </c>
       <c r="F9" t="n">
-        <v>1284.874241751148</v>
+        <v>1282.763790644123</v>
       </c>
       <c r="G9" t="n">
         <v>-2869.078990062082</v>
@@ -6098,16 +6098,16 @@
         <v>-2868.914094395574</v>
       </c>
       <c r="I9" t="n">
-        <v>696.0113773039186</v>
+        <v>685.459121768796</v>
       </c>
       <c r="J9" t="n">
+        <v>-8616.127374999982</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-10795.26259936257</v>
+      </c>
+      <c r="L9" t="n">
         <v>26502.07908428803</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-2286.30714621586</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-6898.052000000172</v>
       </c>
     </row>
     <row r="10">
@@ -6124,10 +6124,10 @@
         <v>-6984.190891394587</v>
       </c>
       <c r="E10" t="n">
-        <v>-1338.763842543611</v>
+        <v>-1338.795217934452</v>
       </c>
       <c r="F10" t="n">
-        <v>680.478138313656</v>
+        <v>680.289885968615</v>
       </c>
       <c r="G10" t="n">
         <v>7043.853352021441</v>
@@ -6136,16 +6136,16 @@
         <v>7043.374249502695</v>
       </c>
       <c r="I10" t="n">
-        <v>700.5116480668478</v>
+        <v>699.5703863416422</v>
       </c>
       <c r="J10" t="n">
+        <v>-2846.116375000066</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10627.68170633409</v>
+      </c>
+      <c r="L10" t="n">
         <v>27866.68963860323</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8487.00060128517</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-253.4300000001444</v>
       </c>
     </row>
     <row r="11">
@@ -6162,10 +6162,10 @@
         <v>7775.799231327346</v>
       </c>
       <c r="E11" t="n">
-        <v>4077.551475397353</v>
+        <v>4077.680321189607</v>
       </c>
       <c r="F11" t="n">
-        <v>2750.962191866976</v>
+        <v>2751.7352666205</v>
       </c>
       <c r="G11" t="n">
         <v>198.4400681498962</v>
@@ -6174,16 +6174,16 @@
         <v>198.2745452290553</v>
       </c>
       <c r="I11" t="n">
-        <v>705.7618782477357</v>
+        <v>709.6272520153548</v>
       </c>
       <c r="J11" t="n">
+        <v>9546.151250000017</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8387.094443808295</v>
+      </c>
+      <c r="L11" t="n">
         <v>26119.61173702646</v>
-      </c>
-      <c r="K11" t="n">
-        <v>11042.41895610754</v>
-      </c>
-      <c r="L11" t="n">
-        <v>13124.51400000002</v>
       </c>
     </row>
     <row r="12">
@@ -6200,10 +6200,10 @@
         <v>-10966.15369771601</v>
       </c>
       <c r="E12" t="n">
-        <v>-6985.593827160553</v>
+        <v>-6985.632743219295</v>
       </c>
       <c r="F12" t="n">
-        <v>-4883.178906424508</v>
+        <v>-4883.412402776959</v>
       </c>
       <c r="G12" t="n">
         <v>-3088.651393915804</v>
@@ -6212,16 +6212,16 @@
         <v>-3088.133986995267</v>
       </c>
       <c r="I12" t="n">
-        <v>701.2621077802263</v>
+        <v>700.094626017974</v>
       </c>
       <c r="J12" t="n">
+        <v>1229.432500000007</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-8366.247630700629</v>
+      </c>
+      <c r="L12" t="n">
         <v>38466.61138982607</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8405.029060557121</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12335.52200000015</v>
       </c>
     </row>
     <row r="13">
@@ -6238,10 +6238,10 @@
         <v>1956.076064455545</v>
       </c>
       <c r="E13" t="n">
-        <v>2306.146164734986</v>
+        <v>2306.109106831451</v>
       </c>
       <c r="F13" t="n">
-        <v>1921.780133672545</v>
+        <v>1921.557786251334</v>
       </c>
       <c r="G13" t="n">
         <v>1968.883201831524</v>
@@ -6250,16 +6250,16 @@
         <v>1968.83904320272</v>
       </c>
       <c r="I13" t="n">
-        <v>701.262341562351</v>
+        <v>700.1506044562952</v>
       </c>
       <c r="J13" t="n">
+        <v>3513.46625000006</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10627.68170633409</v>
+      </c>
+      <c r="L13" t="n">
         <v>27391.36442539522</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8405.029060557121</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12335.52200000015</v>
       </c>
     </row>
     <row r="14">
@@ -6276,10 +6276,10 @@
         <v>8006.409259216365</v>
       </c>
       <c r="E14" t="n">
-        <v>4051.915108365727</v>
+        <v>4051.704446161871</v>
       </c>
       <c r="F14" t="n">
-        <v>2646.182030084153</v>
+        <v>2644.918056861016</v>
       </c>
       <c r="G14" t="n">
         <v>-239.5985783844424</v>
@@ -6288,16 +6288,16 @@
         <v>-239.4130140834964</v>
       </c>
       <c r="I14" t="n">
-        <v>696.0125753164131</v>
+        <v>689.6927092007263</v>
       </c>
       <c r="J14" t="n">
+        <v>-6862.689874999992</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-10790.18723404269</v>
+      </c>
+      <c r="L14" t="n">
         <v>25424.93468286569</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-2286.30714621586</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-6898.052000000172</v>
       </c>
     </row>
     <row r="15">
@@ -6314,10 +6314,10 @@
         <v>-6999.415178787291</v>
       </c>
       <c r="E15" t="n">
-        <v>-969.3442907710875</v>
+        <v>-969.4030928626991</v>
       </c>
       <c r="F15" t="n">
-        <v>633.2859147279529</v>
+        <v>632.9331021782828</v>
       </c>
       <c r="G15" t="n">
         <v>5952.665332444703</v>
@@ -6326,16 +6326,16 @@
         <v>5952.151630254227</v>
       </c>
       <c r="I15" t="n">
-        <v>700.5128091008044</v>
+        <v>698.7487463524537</v>
       </c>
       <c r="J15" t="n">
+        <v>-2846.116375000066</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10627.68170633409</v>
+      </c>
+      <c r="L15" t="n">
         <v>28039.21821273247</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8489.040688464083</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-253.4300000001444</v>
       </c>
     </row>
     <row r="16">
@@ -6352,10 +6352,10 @@
         <v>7760.574943964065</v>
       </c>
       <c r="E16" t="n">
-        <v>4607.336210970221</v>
+        <v>4607.454054349592</v>
       </c>
       <c r="F16" t="n">
-        <v>2985.975366468861</v>
+        <v>2986.682426745087</v>
       </c>
       <c r="G16" t="n">
         <v>-35.95063333074768</v>
@@ -6364,16 +6364,16 @@
         <v>-36.10077270327997</v>
       </c>
       <c r="I16" t="n">
-        <v>705.7630428698869</v>
+        <v>709.2983442510176</v>
       </c>
       <c r="J16" t="n">
+        <v>12541.04625000002</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10701.04469229752</v>
+      </c>
+      <c r="L16" t="n">
         <v>26068.99203920475</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11042.41895610754</v>
-      </c>
-      <c r="L16" t="n">
-        <v>13124.51400000002</v>
       </c>
     </row>
     <row r="17">
@@ -6390,10 +6390,10 @@
         <v>-10981.37798503459</v>
       </c>
       <c r="E17" t="n">
-        <v>-6874.716974727078</v>
+        <v>-6874.747674318383</v>
       </c>
       <c r="F17" t="n">
-        <v>-4731.591211153793</v>
+        <v>-4731.775408701627</v>
       </c>
       <c r="G17" t="n">
         <v>-2684.735062360898</v>
@@ -6402,16 +6402,16 @@
         <v>-2684.202648460675</v>
       </c>
       <c r="I17" t="n">
-        <v>701.2632766199805</v>
+        <v>700.3422888808088</v>
       </c>
       <c r="J17" t="n">
+        <v>1229.432500000007</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-8366.247630700629</v>
+      </c>
+      <c r="L17" t="n">
         <v>33013.74839913348</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8405.029060557121</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12335.52200000015</v>
       </c>
     </row>
     <row r="18">
@@ -6428,10 +6428,10 @@
         <v>1940.851777069391</v>
       </c>
       <c r="E18" t="n">
-        <v>2073.625494827544</v>
+        <v>2073.596575827659</v>
       </c>
       <c r="F18" t="n">
-        <v>1652.112366774644</v>
+        <v>1651.938852775337</v>
       </c>
       <c r="G18" t="n">
         <v>1343.449896227231</v>
@@ -6440,16 +6440,16 @@
         <v>1343.386839993124</v>
       </c>
       <c r="I18" t="n">
-        <v>701.263510402105</v>
+        <v>700.3959404055704</v>
       </c>
       <c r="J18" t="n">
+        <v>6403.253750000078</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10627.68170633409</v>
+      </c>
+      <c r="L18" t="n">
         <v>25483.29421961185</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8405.029060557121</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12335.52200000015</v>
       </c>
     </row>
     <row r="19">
@@ -6466,10 +6466,10 @@
         <v>7991.184971813213</v>
       </c>
       <c r="E19" t="n">
-        <v>4253.117546873246</v>
+        <v>4252.915105092233</v>
       </c>
       <c r="F19" t="n">
-        <v>2991.15677750011</v>
+        <v>2989.942126814031</v>
       </c>
       <c r="G19" t="n">
         <v>798.4399889650051</v>
@@ -6478,16 +6478,16 @@
         <v>798.6395387185178</v>
       </c>
       <c r="I19" t="n">
-        <v>696.0137441561673</v>
+        <v>689.9404907257725</v>
       </c>
       <c r="J19" t="n">
+        <v>-6862.689874999992</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-10790.18970759174</v>
+      </c>
+      <c r="L19" t="n">
         <v>25143.45297884964</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-2286.30714621586</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-6898.052000000172</v>
       </c>
     </row>
     <row r="20">
@@ -6504,10 +6504,10 @@
         <v>-7014.639466138403</v>
       </c>
       <c r="E20" t="n">
-        <v>-1183.333518517574</v>
+        <v>-1183.384150735556</v>
       </c>
       <c r="F20" t="n">
-        <v>397.056041630325</v>
+        <v>396.7522483224329</v>
       </c>
       <c r="G20" t="n">
         <v>5429.880479073296</v>
@@ -6516,16 +6516,16 @@
         <v>5429.352578102541</v>
       </c>
       <c r="I20" t="n">
-        <v>700.5139779405583</v>
+        <v>698.9950114010979</v>
       </c>
       <c r="J20" t="n">
+        <v>-2846.116375000066</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10627.68170633409</v>
+      </c>
+      <c r="L20" t="n">
         <v>25220.30216988272</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8491.050741338717</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-253.4300000001444</v>
       </c>
     </row>
     <row r="21">
@@ -6542,10 +6542,10 @@
         <v>7745.350656601466</v>
       </c>
       <c r="E21" t="n">
-        <v>4292.358216691524</v>
+        <v>4292.484228850529</v>
       </c>
       <c r="F21" t="n">
-        <v>2819.858869760484</v>
+        <v>2820.614942714511</v>
       </c>
       <c r="G21" t="n">
         <v>-7.877703863732449</v>
@@ -6554,16 +6554,16 @@
         <v>-8.018520426741588</v>
       </c>
       <c r="I21" t="n">
-        <v>705.7642117096409</v>
+        <v>709.5445764797744</v>
       </c>
       <c r="J21" t="n">
+        <v>12541.04625000002</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8387.094156569878</v>
+      </c>
+      <c r="L21" t="n">
         <v>25444.44171900264</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11042.41895610754</v>
-      </c>
-      <c r="L21" t="n">
-        <v>13124.51400000002</v>
       </c>
     </row>
   </sheetData>
@@ -6633,17 +6633,17 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
         </is>
       </c>
     </row>
@@ -6661,10 +6661,10 @@
         <v>60072.55487707703</v>
       </c>
       <c r="E2" t="n">
-        <v>64258.64422983295</v>
+        <v>64258.42058670214</v>
       </c>
       <c r="F2" t="n">
-        <v>65967.09575362525</v>
+        <v>65965.75389484035</v>
       </c>
       <c r="G2" t="n">
         <v>66652.23332525998</v>
@@ -6673,16 +6673,16 @@
         <v>66652.42512054721</v>
       </c>
       <c r="I2" t="n">
-        <v>71709.51973313038</v>
+        <v>71702.8104392059</v>
       </c>
       <c r="J2" t="n">
+        <v>67839.36874999999</v>
+      </c>
+      <c r="K2" t="n">
+        <v>62600.31063509009</v>
+      </c>
+      <c r="L2" t="n">
         <v>-4918.527284019259</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68721.95285627866</v>
-      </c>
-      <c r="L2" t="n">
-        <v>83343.78200000015</v>
       </c>
     </row>
     <row r="3">
@@ -6699,10 +6699,10 @@
         <v>62059.07951627754</v>
       </c>
       <c r="E3" t="n">
-        <v>68348.32578551986</v>
+        <v>68348.29239950044</v>
       </c>
       <c r="F3" t="n">
-        <v>70143.12065413159</v>
+        <v>70142.920338015</v>
       </c>
       <c r="G3" t="n">
         <v>74253.16293584844</v>
@@ -6711,16 +6711,16 @@
         <v>74253.40680489619</v>
       </c>
       <c r="I3" t="n">
-        <v>72410.7797904984</v>
+        <v>72409.77820991547</v>
       </c>
       <c r="J3" t="n">
+        <v>71184.07750000004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>73227.99234142418</v>
+      </c>
+      <c r="L3" t="n">
         <v>21840.92930588979</v>
-      </c>
-      <c r="K3" t="n">
-        <v>77126.98191683578</v>
-      </c>
-      <c r="L3" t="n">
-        <v>95679.30400000029</v>
       </c>
     </row>
     <row r="4">
@@ -6737,10 +6737,10 @@
         <v>70095.93735025264</v>
       </c>
       <c r="E4" t="n">
-        <v>69830.0327476555</v>
+        <v>69829.49980293914</v>
       </c>
       <c r="F4" t="n">
-        <v>69675.79445512456</v>
+        <v>69672.59678682641</v>
       </c>
       <c r="G4" t="n">
         <v>66476.59080901224</v>
@@ -6749,16 +6749,16 @@
         <v>66476.93539978322</v>
       </c>
       <c r="I4" t="n">
-        <v>73106.7899683119</v>
+        <v>73090.80162682116</v>
       </c>
       <c r="J4" t="n">
+        <v>69603.71875000007</v>
+      </c>
+      <c r="K4" t="n">
+        <v>64820.04297651428</v>
+      </c>
+      <c r="L4" t="n">
         <v>26389.69081237573</v>
-      </c>
-      <c r="K4" t="n">
-        <v>74840.67477061992</v>
-      </c>
-      <c r="L4" t="n">
-        <v>88781.25200000012</v>
       </c>
     </row>
     <row r="5">
@@ -6775,10 +6775,10 @@
         <v>63126.97074620811</v>
       </c>
       <c r="E5" t="n">
-        <v>69104.43364377905</v>
+        <v>69103.92362477284</v>
       </c>
       <c r="F5" t="n">
-        <v>70946.97484986311</v>
+        <v>70943.91473582588</v>
       </c>
       <c r="G5" t="n">
         <v>74644.84951276312</v>
@@ -6787,16 +6787,16 @@
         <v>74644.79045164812</v>
       </c>
       <c r="I5" t="n">
-        <v>73807.30046124033</v>
+        <v>73791.99989105415</v>
       </c>
       <c r="J5" t="n">
+        <v>69142.97874999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>75447.72468284836</v>
+      </c>
+      <c r="L5" t="n">
         <v>22120.28165527879</v>
-      </c>
-      <c r="K5" t="n">
-        <v>83277.07054265501</v>
-      </c>
-      <c r="L5" t="n">
-        <v>88527.82199999999</v>
       </c>
     </row>
     <row r="6">
@@ -6813,10 +6813,10 @@
         <v>70917.99426490723</v>
       </c>
       <c r="E6" t="n">
-        <v>73611.17830573267</v>
+        <v>73610.86577304539</v>
       </c>
       <c r="F6" t="n">
-        <v>74156.96191438235</v>
+        <v>74155.08671825867</v>
       </c>
       <c r="G6" t="n">
         <v>75829.88816629293</v>
@@ -6825,16 +6825,16 @@
         <v>75829.66903335263</v>
       </c>
       <c r="I6" t="n">
-        <v>74513.06118751717</v>
+        <v>74503.68520689875</v>
       </c>
       <c r="J6" t="n">
+        <v>82917.79000000004</v>
+      </c>
+      <c r="K6" t="n">
+        <v>82430.49213450767</v>
+      </c>
+      <c r="L6" t="n">
         <v>24713.07814746056</v>
-      </c>
-      <c r="K6" t="n">
-        <v>94319.48949876256</v>
-      </c>
-      <c r="L6" t="n">
-        <v>101652.336</v>
       </c>
     </row>
     <row r="7">
@@ -6851,10 +6851,10 @@
         <v>59967.06485458446</v>
       </c>
       <c r="E7" t="n">
-        <v>66533.7922289963</v>
+        <v>66533.42666472043</v>
       </c>
       <c r="F7" t="n">
-        <v>69072.34284756985</v>
+        <v>69070.14946191464</v>
       </c>
       <c r="G7" t="n">
         <v>72072.18849681379</v>
@@ -6863,16 +6863,16 @@
         <v>72072.4351832441</v>
       </c>
       <c r="I7" t="n">
-        <v>75214.32212515912</v>
+        <v>75203.35519688313</v>
       </c>
       <c r="J7" t="n">
+        <v>84147.22250000005</v>
+      </c>
+      <c r="K7" t="n">
+        <v>73306.01498537509</v>
+      </c>
+      <c r="L7" t="n">
         <v>17178.71798199158</v>
-      </c>
-      <c r="K7" t="n">
-        <v>102724.5185593197</v>
-      </c>
-      <c r="L7" t="n">
-        <v>113987.8580000002</v>
       </c>
     </row>
     <row r="8">
@@ -6889,10 +6889,10 @@
         <v>61938.36520639882</v>
       </c>
       <c r="E8" t="n">
-        <v>68867.04638784076</v>
+        <v>68866.73779020445</v>
       </c>
       <c r="F8" t="n">
-        <v>71370.87009659331</v>
+        <v>71369.01851077539</v>
       </c>
       <c r="G8" t="n">
         <v>75630.63683225041</v>
@@ -6901,16 +6901,16 @@
         <v>75630.8711062721</v>
       </c>
       <c r="I8" t="n">
-        <v>75915.58332031185</v>
+        <v>75906.3253912223</v>
       </c>
       <c r="J8" t="n">
+        <v>87614.40375000007</v>
+      </c>
+      <c r="K8" t="n">
+        <v>83933.69669170918</v>
+      </c>
+      <c r="L8" t="n">
         <v>26612.97008315576</v>
-      </c>
-      <c r="K8" t="n">
-        <v>111129.5476198768</v>
-      </c>
-      <c r="L8" t="n">
-        <v>126323.3800000003</v>
       </c>
     </row>
     <row r="9">
@@ -6927,10 +6927,10 @@
         <v>69959.99875301743</v>
       </c>
       <c r="E9" t="n">
-        <v>71517.58426500758</v>
+        <v>71516.92392552011</v>
       </c>
       <c r="F9" t="n">
-        <v>72655.74433834446</v>
+        <v>72651.78230141952</v>
       </c>
       <c r="G9" t="n">
         <v>72761.55784218833</v>
@@ -6939,16 +6939,16 @@
         <v>72761.95701187653</v>
       </c>
       <c r="I9" t="n">
-        <v>76611.59469761577</v>
+        <v>76591.7845129911</v>
       </c>
       <c r="J9" t="n">
+        <v>78998.27637500009</v>
+      </c>
+      <c r="K9" t="n">
+        <v>73138.43409234661</v>
+      </c>
+      <c r="L9" t="n">
         <v>26502.07908428803</v>
-      </c>
-      <c r="K9" t="n">
-        <v>108843.2404736609</v>
-      </c>
-      <c r="L9" t="n">
-        <v>119425.3280000001</v>
       </c>
     </row>
     <row r="10">
@@ -6965,10 +6965,10 @@
         <v>62975.80786162284</v>
       </c>
       <c r="E10" t="n">
-        <v>70178.82042246396</v>
+        <v>70178.12870758565</v>
       </c>
       <c r="F10" t="n">
-        <v>73336.22247665812</v>
+        <v>73332.07218738813</v>
       </c>
       <c r="G10" t="n">
         <v>79805.41119420977</v>
@@ -6977,16 +6977,16 @@
         <v>79805.33126137922</v>
       </c>
       <c r="I10" t="n">
-        <v>77312.10634568262</v>
+        <v>77291.35489933274</v>
       </c>
       <c r="J10" t="n">
+        <v>76152.16000000002</v>
+      </c>
+      <c r="K10" t="n">
+        <v>83766.11579868069</v>
+      </c>
+      <c r="L10" t="n">
         <v>27866.68963860323</v>
-      </c>
-      <c r="K10" t="n">
-        <v>117330.2410749461</v>
-      </c>
-      <c r="L10" t="n">
-        <v>119171.898</v>
       </c>
     </row>
     <row r="11">
@@ -7003,10 +7003,10 @@
         <v>70751.60709295019</v>
       </c>
       <c r="E11" t="n">
-        <v>74256.37189786132</v>
+        <v>74255.80902877526</v>
       </c>
       <c r="F11" t="n">
-        <v>76087.18466852509</v>
+        <v>76083.80745400862</v>
       </c>
       <c r="G11" t="n">
         <v>80003.85126235966</v>
@@ -7015,16 +7015,16 @@
         <v>80003.60580660828</v>
       </c>
       <c r="I11" t="n">
-        <v>78017.86822393036</v>
+        <v>78000.9821513481</v>
       </c>
       <c r="J11" t="n">
+        <v>85698.31125000003</v>
+      </c>
+      <c r="K11" t="n">
+        <v>92153.21024248899</v>
+      </c>
+      <c r="L11" t="n">
         <v>26119.61173702646</v>
-      </c>
-      <c r="K11" t="n">
-        <v>128372.6600310536</v>
-      </c>
-      <c r="L11" t="n">
-        <v>132296.412</v>
       </c>
     </row>
     <row r="12">
@@ -7041,10 +7041,10 @@
         <v>59785.45339523417</v>
       </c>
       <c r="E12" t="n">
-        <v>67270.77807070076</v>
+        <v>67270.17628555596</v>
       </c>
       <c r="F12" t="n">
-        <v>71204.00576210058</v>
+        <v>71200.39505123167</v>
       </c>
       <c r="G12" t="n">
         <v>76915.19986844386</v>
@@ -7053,16 +7053,16 @@
         <v>76915.47181961301</v>
       </c>
       <c r="I12" t="n">
-        <v>78719.13033171059</v>
+        <v>78701.07677736608</v>
       </c>
       <c r="J12" t="n">
+        <v>86927.74375000004</v>
+      </c>
+      <c r="K12" t="n">
+        <v>83786.96261178836</v>
+      </c>
+      <c r="L12" t="n">
         <v>38466.61138982607</v>
-      </c>
-      <c r="K12" t="n">
-        <v>136777.6890916108</v>
-      </c>
-      <c r="L12" t="n">
-        <v>144631.9340000002</v>
       </c>
     </row>
     <row r="13">
@@ -7079,10 +7079,10 @@
         <v>61741.52945968971</v>
       </c>
       <c r="E13" t="n">
-        <v>69576.92423543576</v>
+        <v>69576.28539238742</v>
       </c>
       <c r="F13" t="n">
-        <v>73125.78589577312</v>
+        <v>73121.952837483</v>
       </c>
       <c r="G13" t="n">
         <v>78884.08307027539</v>
@@ -7091,16 +7091,16 @@
         <v>78884.31086281574</v>
       </c>
       <c r="I13" t="n">
-        <v>79420.39267327295</v>
+        <v>79401.22738182238</v>
       </c>
       <c r="J13" t="n">
+        <v>90441.21000000009</v>
+      </c>
+      <c r="K13" t="n">
+        <v>94414.64431812245</v>
+      </c>
+      <c r="L13" t="n">
         <v>27391.36442539522</v>
-      </c>
-      <c r="K13" t="n">
-        <v>145182.7181521679</v>
-      </c>
-      <c r="L13" t="n">
-        <v>156967.4560000003</v>
       </c>
     </row>
     <row r="14">
@@ -7117,10 +7117,10 @@
         <v>69747.93871890608</v>
       </c>
       <c r="E14" t="n">
-        <v>73628.83934380149</v>
+        <v>73627.98983854929</v>
       </c>
       <c r="F14" t="n">
-        <v>75771.96792585727</v>
+        <v>75766.87089434401</v>
       </c>
       <c r="G14" t="n">
         <v>78644.48449189095</v>
@@ -7129,16 +7129,16 @@
         <v>78644.89784873225</v>
       </c>
       <c r="I14" t="n">
-        <v>80116.40524858936</v>
+        <v>80090.9200910231</v>
       </c>
       <c r="J14" t="n">
+        <v>83578.5201250001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>83624.45708407975</v>
+      </c>
+      <c r="L14" t="n">
         <v>25424.93468286569</v>
-      </c>
-      <c r="K14" t="n">
-        <v>142896.411005952</v>
-      </c>
-      <c r="L14" t="n">
-        <v>150069.4040000001</v>
       </c>
     </row>
     <row r="15">
@@ -7155,10 +7155,10 @@
         <v>62748.52354011879</v>
       </c>
       <c r="E15" t="n">
-        <v>72659.4950530304</v>
+        <v>72658.58674568658</v>
       </c>
       <c r="F15" t="n">
-        <v>76405.25384058522</v>
+        <v>76399.8039965223</v>
       </c>
       <c r="G15" t="n">
         <v>84597.14982433565</v>
@@ -7167,16 +7167,16 @@
         <v>84597.04947898648</v>
       </c>
       <c r="I15" t="n">
-        <v>80816.91805769017</v>
+        <v>80789.66883737556</v>
       </c>
       <c r="J15" t="n">
+        <v>80732.40375000003</v>
+      </c>
+      <c r="K15" t="n">
+        <v>94252.13879041384</v>
+      </c>
+      <c r="L15" t="n">
         <v>28039.21821273247</v>
-      </c>
-      <c r="K15" t="n">
-        <v>151385.4516944161</v>
-      </c>
-      <c r="L15" t="n">
-        <v>149815.974</v>
       </c>
     </row>
     <row r="16">
@@ -7193,10 +7193,10 @@
         <v>70509.09848408286</v>
       </c>
       <c r="E16" t="n">
-        <v>77266.83126400062</v>
+        <v>77266.04080003618</v>
       </c>
       <c r="F16" t="n">
-        <v>79391.22920705409</v>
+        <v>79386.48642326739</v>
       </c>
       <c r="G16" t="n">
         <v>84561.1991910049</v>
@@ -7205,16 +7205,16 @@
         <v>84560.94870628319</v>
       </c>
       <c r="I16" t="n">
-        <v>81522.68110056006</v>
+        <v>81498.96718162658</v>
       </c>
       <c r="J16" t="n">
+        <v>93273.45000000004</v>
+      </c>
+      <c r="K16" t="n">
+        <v>104953.1834827114</v>
+      </c>
+      <c r="L16" t="n">
         <v>26068.99203920475</v>
-      </c>
-      <c r="K16" t="n">
-        <v>162427.8706505237</v>
-      </c>
-      <c r="L16" t="n">
-        <v>162940.488</v>
       </c>
     </row>
     <row r="17">
@@ -7231,10 +7231,10 @@
         <v>59527.72049904827</v>
       </c>
       <c r="E17" t="n">
-        <v>70392.11428927354</v>
+        <v>70391.2931257178</v>
       </c>
       <c r="F17" t="n">
-        <v>74659.6379959003</v>
+        <v>74654.71101456576</v>
       </c>
       <c r="G17" t="n">
         <v>81876.464128644</v>
@@ -7243,16 +7243,16 @@
         <v>81876.74605782251</v>
       </c>
       <c r="I17" t="n">
-        <v>82223.94437718004</v>
+        <v>82199.30947050739</v>
       </c>
       <c r="J17" t="n">
+        <v>94502.88250000005</v>
+      </c>
+      <c r="K17" t="n">
+        <v>96586.93585201073</v>
+      </c>
+      <c r="L17" t="n">
         <v>33013.74839913348</v>
-      </c>
-      <c r="K17" t="n">
-        <v>170832.8997110808</v>
-      </c>
-      <c r="L17" t="n">
-        <v>175276.0100000002</v>
       </c>
     </row>
     <row r="18">
@@ -7269,10 +7269,10 @@
         <v>61468.57227611766</v>
       </c>
       <c r="E18" t="n">
-        <v>72465.73978410108</v>
+        <v>72464.88970154546</v>
       </c>
       <c r="F18" t="n">
-        <v>76311.75036267494</v>
+        <v>76306.6498673411</v>
       </c>
       <c r="G18" t="n">
         <v>83219.91402487124</v>
@@ -7281,16 +7281,16 @@
         <v>83220.13289781564</v>
       </c>
       <c r="I18" t="n">
-        <v>82925.20788758215</v>
+        <v>82899.70541091295</v>
       </c>
       <c r="J18" t="n">
+        <v>100906.1362500001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>107214.6175583448</v>
+      </c>
+      <c r="L18" t="n">
         <v>25483.29421961185</v>
-      </c>
-      <c r="K18" t="n">
-        <v>179237.9287716379</v>
-      </c>
-      <c r="L18" t="n">
-        <v>187611.5320000003</v>
       </c>
     </row>
     <row r="19">
@@ -7307,10 +7307,10 @@
         <v>69459.75724793087</v>
       </c>
       <c r="E19" t="n">
-        <v>76718.85733097432</v>
+        <v>76717.80480663769</v>
       </c>
       <c r="F19" t="n">
-        <v>79302.90714017506</v>
+        <v>79296.59199415513</v>
       </c>
       <c r="G19" t="n">
         <v>84018.35401383624</v>
@@ -7319,16 +7319,16 @@
         <v>84018.77243653416</v>
       </c>
       <c r="I19" t="n">
-        <v>83621.22163173831</v>
+        <v>83589.64590163872</v>
       </c>
       <c r="J19" t="n">
+        <v>94043.44637500013</v>
+      </c>
+      <c r="K19" t="n">
+        <v>96424.42785075308</v>
+      </c>
+      <c r="L19" t="n">
         <v>25143.45297884964</v>
-      </c>
-      <c r="K19" t="n">
-        <v>176951.621625422</v>
-      </c>
-      <c r="L19" t="n">
-        <v>180713.4800000001</v>
       </c>
     </row>
     <row r="20">
@@ -7345,10 +7345,10 @@
         <v>62445.11778179247</v>
       </c>
       <c r="E20" t="n">
-        <v>75535.52381245675</v>
+        <v>75534.42065590214</v>
       </c>
       <c r="F20" t="n">
-        <v>79699.96318180537</v>
+        <v>79693.34424247756</v>
       </c>
       <c r="G20" t="n">
         <v>89448.23449290954</v>
@@ -7357,16 +7357,16 @@
         <v>89448.12501463669</v>
       </c>
       <c r="I20" t="n">
-        <v>84321.73560967887</v>
+        <v>84288.64091303982</v>
       </c>
       <c r="J20" t="n">
+        <v>91197.33000000006</v>
+      </c>
+      <c r="K20" t="n">
+        <v>107052.1095570872</v>
+      </c>
+      <c r="L20" t="n">
         <v>25220.30216988272</v>
-      </c>
-      <c r="K20" t="n">
-        <v>185442.6723667608</v>
-      </c>
-      <c r="L20" t="n">
-        <v>180460.05</v>
       </c>
     </row>
     <row r="21">
@@ -7383,10 +7383,10 @@
         <v>70190.46843839393</v>
       </c>
       <c r="E21" t="n">
-        <v>79827.88202914828</v>
+        <v>79826.90488475267</v>
       </c>
       <c r="F21" t="n">
-        <v>82519.82205156586</v>
+        <v>82513.95918519207</v>
       </c>
       <c r="G21" t="n">
         <v>89440.35678904581</v>
@@ -7395,16 +7395,16 @@
         <v>89440.10649420995</v>
       </c>
       <c r="I21" t="n">
-        <v>85027.49982138851</v>
+        <v>84998.1854895196</v>
       </c>
       <c r="J21" t="n">
+        <v>103738.3762500001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>115439.203713657</v>
+      </c>
+      <c r="L21" t="n">
         <v>25444.44171900264</v>
-      </c>
-      <c r="K21" t="n">
-        <v>196485.0913228683</v>
-      </c>
-      <c r="L21" t="n">
-        <v>193584.564</v>
       </c>
     </row>
   </sheetData>
@@ -7469,17 +7469,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
         </is>
       </c>
     </row>
@@ -7509,13 +7509,13 @@
         <v>83194.21416055519</v>
       </c>
       <c r="I2" t="n">
+        <v>82389.87624999983</v>
+      </c>
+      <c r="J2" t="n">
+        <v>76484.53102791011</v>
+      </c>
+      <c r="K2" t="n">
         <v>65078.42521009479</v>
-      </c>
-      <c r="J2" t="n">
-        <v>79151.02036269728</v>
-      </c>
-      <c r="K2" t="n">
-        <v>84044.18399999988</v>
       </c>
     </row>
     <row r="3">
@@ -7544,13 +7544,13 @@
         <v>83902.93960730819</v>
       </c>
       <c r="I3" t="n">
+        <v>90654.43874999986</v>
+      </c>
+      <c r="J3" t="n">
+        <v>87136.99488861949</v>
+      </c>
+      <c r="K3" t="n">
         <v>72700.56188607874</v>
-      </c>
-      <c r="J3" t="n">
-        <v>88739.51563734468</v>
-      </c>
-      <c r="K3" t="n">
-        <v>96158.63399999985</v>
       </c>
     </row>
     <row r="4">
@@ -7579,13 +7579,13 @@
         <v>84594.21135466035</v>
       </c>
       <c r="I4" t="n">
+        <v>83329.93249999985</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75556.03980853027</v>
+      </c>
+      <c r="K4" t="n">
         <v>65978.09287948275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>85395.53600004224</v>
-      </c>
-      <c r="K4" t="n">
-        <v>87115.43799999988</v>
       </c>
     </row>
     <row r="5">
@@ -7614,13 +7614,13 @@
         <v>85297.62244800324</v>
       </c>
       <c r="I5" t="n">
+        <v>82359.79749999969</v>
+      </c>
+      <c r="J5" t="n">
+        <v>86208.50366923964</v>
+      </c>
+      <c r="K5" t="n">
         <v>70866.33913328004</v>
-      </c>
-      <c r="J5" t="n">
-        <v>95351.29804859562</v>
-      </c>
-      <c r="K5" t="n">
-        <v>92205.57799999966</v>
       </c>
     </row>
     <row r="6">
@@ -7649,13 +7649,13 @@
         <v>86008.09976860133</v>
       </c>
       <c r="I6" t="n">
+        <v>86812.69124999974</v>
+      </c>
+      <c r="J6" t="n">
+        <v>96611.03989312232</v>
+      </c>
+      <c r="K6" t="n">
         <v>70525.49348464671</v>
-      </c>
-      <c r="J6" t="n">
-        <v>96707.5995557686</v>
-      </c>
-      <c r="K6" t="n">
-        <v>96324.13999999975</v>
       </c>
     </row>
     <row r="7">
@@ -7684,13 +7684,13 @@
         <v>86710.67297675852</v>
       </c>
       <c r="I7" t="n">
+        <v>87666.19624999985</v>
+      </c>
+      <c r="J7" t="n">
+        <v>92539.93405033747</v>
+      </c>
+      <c r="K7" t="n">
         <v>66948.11758251286</v>
-      </c>
-      <c r="J7" t="n">
-        <v>97685.48971623012</v>
-      </c>
-      <c r="K7" t="n">
-        <v>104046.524</v>
       </c>
     </row>
     <row r="8">
@@ -7719,13 +7719,13 @@
         <v>87416.82335059599</v>
       </c>
       <c r="I8" t="n">
+        <v>102546.8774999999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>103769.2265480037</v>
+      </c>
+      <c r="K8" t="n">
         <v>70534.10269972747</v>
-      </c>
-      <c r="J8" t="n">
-        <v>102337.5793600937</v>
-      </c>
-      <c r="K8" t="n">
-        <v>126296.3060000001</v>
       </c>
     </row>
     <row r="9">
@@ -7754,13 +7754,13 @@
         <v>88106.84554973312</v>
       </c>
       <c r="I9" t="n">
+        <v>86735.57874999994</v>
+      </c>
+      <c r="J9" t="n">
+        <v>97181.92893895722</v>
+      </c>
+      <c r="K9" t="n">
         <v>68022.6972562833</v>
-      </c>
-      <c r="J9" t="n">
-        <v>98993.59972279126</v>
-      </c>
-      <c r="K9" t="n">
-        <v>106034.8120000001</v>
       </c>
     </row>
     <row r="10">
@@ -7789,13 +7789,13 @@
         <v>88812.90232874376</v>
       </c>
       <c r="I10" t="n">
+        <v>90525.95624999976</v>
+      </c>
+      <c r="J10" t="n">
+        <v>108411.2214366234</v>
+      </c>
+      <c r="K10" t="n">
         <v>69475.65481579477</v>
-      </c>
-      <c r="J10" t="n">
-        <v>108949.3617713446</v>
-      </c>
-      <c r="K10" t="n">
-        <v>117463.2179999998</v>
       </c>
     </row>
     <row r="11">
@@ -7824,13 +7824,13 @@
         <v>89524.90182309794</v>
       </c>
       <c r="I11" t="n">
+        <v>92730.18249999984</v>
+      </c>
+      <c r="J11" t="n">
+        <v>119063.6852973328</v>
+      </c>
+      <c r="K11" t="n">
         <v>69210.39532813423</v>
-      </c>
-      <c r="J11" t="n">
-        <v>115391.1192433564</v>
-      </c>
-      <c r="K11" t="n">
-        <v>124554.5739999999</v>
       </c>
     </row>
     <row r="12">
@@ -7859,13 +7859,13 @@
         <v>90227.07661816159</v>
       </c>
       <c r="I12" t="n">
+        <v>93583.68749999994</v>
+      </c>
+      <c r="J12" t="n">
+        <v>114992.5753138964</v>
+      </c>
+      <c r="K12" t="n">
         <v>68010.23751830631</v>
-      </c>
-      <c r="J12" t="n">
-        <v>114839.0550852697</v>
-      </c>
-      <c r="K12" t="n">
-        <v>131066.7680000001</v>
       </c>
     </row>
     <row r="13">
@@ -7894,13 +7894,13 @@
         <v>90929.30889055546</v>
       </c>
       <c r="I13" t="n">
+        <v>106473.3175</v>
+      </c>
+      <c r="J13" t="n">
+        <v>125645.0391746058</v>
+      </c>
+      <c r="K13" t="n">
         <v>70852.68966506404</v>
-      </c>
-      <c r="J13" t="n">
-        <v>119491.1447291333</v>
-      </c>
-      <c r="K13" t="n">
-        <v>142333.6160000001</v>
       </c>
     </row>
     <row r="14">
@@ -7929,13 +7929,13 @@
         <v>91624.08667287297</v>
       </c>
       <c r="I14" t="n">
+        <v>89274.89625000002</v>
+      </c>
+      <c r="J14" t="n">
+        <v>127839.5811849704</v>
+      </c>
+      <c r="K14" t="n">
         <v>68154.15837359706</v>
-      </c>
-      <c r="J14" t="n">
-        <v>124122.7855466204</v>
-      </c>
-      <c r="K14" t="n">
-        <v>133290.4200000001</v>
       </c>
     </row>
     <row r="15">
@@ -7964,13 +7964,13 @@
         <v>92327.92123628623</v>
       </c>
       <c r="I15" t="n">
+        <v>91900.41999999982</v>
+      </c>
+      <c r="J15" t="n">
+        <v>138492.0450456798</v>
+      </c>
+      <c r="K15" t="n">
         <v>69749.30898006154</v>
-      </c>
-      <c r="J15" t="n">
-        <v>128993.08865443</v>
-      </c>
-      <c r="K15" t="n">
-        <v>142776.7919999998</v>
       </c>
     </row>
     <row r="16">
@@ -7999,13 +7999,13 @@
         <v>93039.30627689851</v>
       </c>
       <c r="I16" t="n">
+        <v>94104.6462499999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>149721.337543346</v>
+      </c>
+      <c r="K16" t="n">
         <v>69982.72020065581</v>
-      </c>
-      <c r="J16" t="n">
-        <v>133645.1782982936</v>
-      </c>
-      <c r="K16" t="n">
-        <v>149018.8159999999</v>
       </c>
     </row>
     <row r="17">
@@ -8034,13 +8034,13 @@
         <v>93741.73854640931</v>
       </c>
       <c r="I17" t="n">
+        <v>94958.15125000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>143134.0399342995</v>
+      </c>
+      <c r="K17" t="n">
         <v>68702.03956508421</v>
-      </c>
-      <c r="J17" t="n">
-        <v>131183.478831091</v>
-      </c>
-      <c r="K17" t="n">
-        <v>152753.0900000001</v>
       </c>
     </row>
     <row r="18">
@@ -8069,13 +8069,13 @@
         <v>94444.22630082947</v>
       </c>
       <c r="I18" t="n">
+        <v>109949.4187500001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>153786.5037950089</v>
+      </c>
+      <c r="K18" t="n">
         <v>69950.32568895811</v>
-      </c>
-      <c r="J18" t="n">
-        <v>140899.5069465307</v>
-      </c>
-      <c r="K18" t="n">
-        <v>165654.6260000002</v>
       </c>
     </row>
     <row r="19">
@@ -8104,13 +8104,13 @@
         <v>95139.26129450125</v>
       </c>
       <c r="I19" t="n">
+        <v>92750.99750000011</v>
+      </c>
+      <c r="J19" t="n">
+        <v>155981.0458102891</v>
+      </c>
+      <c r="K19" t="n">
         <v>68786.49027032133</v>
-      </c>
-      <c r="J19" t="n">
-        <v>145531.1477640178</v>
-      </c>
-      <c r="K19" t="n">
-        <v>154398.6700000002</v>
       </c>
     </row>
     <row r="20">
@@ -8139,13 +8139,13 @@
         <v>95843.35265286175</v>
       </c>
       <c r="I20" t="n">
+        <v>95376.52124999992</v>
+      </c>
+      <c r="J20" t="n">
+        <v>166633.5096709985</v>
+      </c>
+      <c r="K20" t="n">
         <v>69513.81192414163</v>
-      </c>
-      <c r="J20" t="n">
-        <v>150401.4508718274</v>
-      </c>
-      <c r="K20" t="n">
-        <v>163885.042</v>
       </c>
     </row>
     <row r="21">
@@ -8174,13 +8174,13 @@
         <v>96554.99448656547</v>
       </c>
       <c r="I21" t="n">
+        <v>97580.7475</v>
+      </c>
+      <c r="J21" t="n">
+        <v>177862.8021686647</v>
+      </c>
+      <c r="K21" t="n">
         <v>69505.91936688671</v>
-      </c>
-      <c r="J21" t="n">
-        <v>155053.540515691</v>
-      </c>
-      <c r="K21" t="n">
-        <v>170127.066</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_results.xlsx
+++ b/examples/eCommerce_results.xlsx
@@ -564,7 +564,7 @@
         <v>-2010.228553741414</v>
       </c>
       <c r="G2" t="n">
-        <v>-20147.50934457867</v>
+        <v>-31653.27347925276</v>
       </c>
       <c r="H2" t="n">
         <v>-24908.45000000003</v>
@@ -576,7 +576,7 @@
         <v>-14.78261593917538</v>
       </c>
       <c r="K2" t="n">
-        <v>-32733.15502097036</v>
+        <v>-34800.41626882418</v>
       </c>
       <c r="L2" t="n">
         <v>1230.434097153524</v>
@@ -591,19 +591,19 @@
         <v>13449.92246151956</v>
       </c>
       <c r="P2" t="n">
-        <v>43079.38797229534</v>
+        <v>24921.49941678647</v>
       </c>
       <c r="Q2" t="n">
-        <v>45391.7783045516</v>
+        <v>60845.45761722931</v>
       </c>
       <c r="R2" t="n">
-        <v>42192.29211904561</v>
+        <v>42107.72301774776</v>
       </c>
       <c r="S2" t="n">
-        <v>37541.602890277</v>
+        <v>37193.00559726088</v>
       </c>
       <c r="T2" t="n">
-        <v>-19322.22729041507</v>
+        <v>-20636.6265289151</v>
       </c>
     </row>
     <row r="3">
@@ -626,7 +626,7 @@
         <v>2045.051521716429</v>
       </c>
       <c r="G3" t="n">
-        <v>83031.9389834741</v>
+        <v>94154.43037257173</v>
       </c>
       <c r="H3" t="n">
         <v>18136.86750000004</v>
@@ -638,7 +638,7 @@
         <v>13.18063668333293</v>
       </c>
       <c r="K3" t="n">
-        <v>29375.49550702461</v>
+        <v>27559.01945512151</v>
       </c>
       <c r="L3" t="n">
         <v>1296.225876933158</v>
@@ -653,19 +653,19 @@
         <v>28958.90909820526</v>
       </c>
       <c r="P3" t="n">
-        <v>34747.7065144897</v>
+        <v>11305.51535550991</v>
       </c>
       <c r="Q3" t="n">
-        <v>52134.55961146958</v>
+        <v>61926.95777345904</v>
       </c>
       <c r="R3" t="n">
-        <v>44941.6851573587</v>
+        <v>44340.98033276803</v>
       </c>
       <c r="S3" t="n">
-        <v>46868.89805008584</v>
+        <v>45087.58582238821</v>
       </c>
       <c r="T3" t="n">
-        <v>21769.99851210308</v>
+        <v>22835.02709821458</v>
       </c>
     </row>
     <row r="4">
@@ -688,7 +688,7 @@
         <v>1894.076948068246</v>
       </c>
       <c r="G4" t="n">
-        <v>36860.33312094358</v>
+        <v>40989.58380377358</v>
       </c>
       <c r="H4" t="n">
         <v>21289.58800000001</v>
@@ -700,7 +700,7 @@
         <v>14.39450827275616</v>
       </c>
       <c r="K4" t="n">
-        <v>28241.05367221528</v>
+        <v>28512.26653477179</v>
       </c>
       <c r="L4" t="n">
         <v>1278.462967089622</v>
@@ -715,19 +715,19 @@
         <v>45456.04217436</v>
       </c>
       <c r="P4" t="n">
-        <v>67599.2133841754</v>
+        <v>80836.05469380032</v>
       </c>
       <c r="Q4" t="n">
-        <v>53564.55367282636</v>
+        <v>47828.91507552422</v>
       </c>
       <c r="R4" t="n">
-        <v>45488.41785056746</v>
+        <v>41094.40479973262</v>
       </c>
       <c r="S4" t="n">
-        <v>65028.50951987701</v>
+        <v>65416.90822756301</v>
       </c>
       <c r="T4" t="n">
-        <v>16026.29014863203</v>
+        <v>16587.29584412201</v>
       </c>
     </row>
     <row r="5">
@@ -750,7 +750,7 @@
         <v>799.6082411981349</v>
       </c>
       <c r="G5" t="n">
-        <v>50051.07729155682</v>
+        <v>15778.26130785816</v>
       </c>
       <c r="H5" t="n">
         <v>5556.284499999912</v>
@@ -762,7 +762,7 @@
         <v>6.403219004031943</v>
       </c>
       <c r="K5" t="n">
-        <v>-6052.887271658058</v>
+        <v>-7726.055912839094</v>
       </c>
       <c r="L5" t="n">
         <v>1262.550462910109</v>
@@ -777,19 +777,19 @@
         <v>49621.3185675876</v>
       </c>
       <c r="P5" t="n">
-        <v>76067.44576646398</v>
+        <v>73064.22559659788</v>
       </c>
       <c r="Q5" t="n">
-        <v>33246.92937792097</v>
+        <v>60106.45998315521</v>
       </c>
       <c r="R5" t="n">
-        <v>39760.67326565837</v>
+        <v>37110.64658326959</v>
       </c>
       <c r="S5" t="n">
-        <v>61126.89421251767</v>
+        <v>63777.67968164008</v>
       </c>
       <c r="T5" t="n">
-        <v>1429.555047436956</v>
+        <v>-1437.505667095175</v>
       </c>
     </row>
     <row r="6">
@@ -812,7 +812,7 @@
         <v>271.5462951355078</v>
       </c>
       <c r="G6" t="n">
-        <v>36667.89883851967</v>
+        <v>56994.8091885588</v>
       </c>
       <c r="H6" t="n">
         <v>-6671.63899999999</v>
@@ -824,7 +824,7 @@
         <v>-7.289882956607377</v>
       </c>
       <c r="K6" t="n">
-        <v>26369.92369455028</v>
+        <v>24840.79289890398</v>
       </c>
       <c r="L6" t="n">
         <v>1255.78759578069</v>
@@ -839,19 +839,19 @@
         <v>43295.17907365092</v>
       </c>
       <c r="P6" t="n">
-        <v>61681.41044090995</v>
+        <v>54960.34716660686</v>
       </c>
       <c r="Q6" t="n">
-        <v>60492.95971470186</v>
+        <v>50413.64737402803</v>
       </c>
       <c r="R6" t="n">
-        <v>40894.66085934346</v>
+        <v>36612.4353242517</v>
       </c>
       <c r="S6" t="n">
-        <v>61098.3560982575</v>
+        <v>58463.03095449891</v>
       </c>
       <c r="T6" t="n">
-        <v>9587.374819747547</v>
+        <v>11324.34248650388</v>
       </c>
     </row>
     <row r="7">
@@ -874,7 +874,7 @@
         <v>1443.832366095757</v>
       </c>
       <c r="G7" t="n">
-        <v>47011.88345244338</v>
+        <v>22829.35358210406</v>
       </c>
       <c r="H7" t="n">
         <v>10234.19949999999</v>
@@ -886,7 +886,7 @@
         <v>13.18726767805453</v>
       </c>
       <c r="K7" t="n">
-        <v>24507.11301401989</v>
+        <v>22851.75948239905</v>
       </c>
       <c r="L7" t="n">
         <v>1274.112234966248</v>
@@ -901,19 +901,19 @@
         <v>47192.5418525531</v>
       </c>
       <c r="P7" t="n">
-        <v>50684.66831339605</v>
+        <v>45686.43159645951</v>
       </c>
       <c r="Q7" t="n">
-        <v>48205.52756385512</v>
+        <v>59401.47586860367</v>
       </c>
       <c r="R7" t="n">
-        <v>42722.5704287768</v>
+        <v>43800.42314795858</v>
       </c>
       <c r="S7" t="n">
-        <v>60158.11410956344</v>
+        <v>61067.55964793768</v>
       </c>
       <c r="T7" t="n">
-        <v>16146.64668708273</v>
+        <v>14115.31087678621</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +936,7 @@
         <v>1095.566524521999</v>
       </c>
       <c r="G8" t="n">
-        <v>41278.57519380534</v>
+        <v>69975.89004029057</v>
       </c>
       <c r="H8" t="n">
         <v>18233.07049999997</v>
@@ -948,7 +948,7 @@
         <v>4.504745211995747</v>
       </c>
       <c r="K8" t="n">
-        <v>26619.83658216608</v>
+        <v>25515.03459010477</v>
       </c>
       <c r="L8" t="n">
         <v>1264.428191248251</v>
@@ -963,19 +963,19 @@
         <v>42248.17247885242</v>
       </c>
       <c r="P8" t="n">
-        <v>64106.52352917799</v>
+        <v>52508.77262398608</v>
       </c>
       <c r="Q8" t="n">
-        <v>65393.79992553005</v>
+        <v>67787.55323853801</v>
       </c>
       <c r="R8" t="n">
-        <v>44087.88970292664</v>
+        <v>40181.80611340558</v>
       </c>
       <c r="S8" t="n">
-        <v>65219.66088033863</v>
+        <v>63580.9007326255</v>
       </c>
       <c r="T8" t="n">
-        <v>14017.85645310843</v>
+        <v>16490.49282856446</v>
       </c>
     </row>
     <row r="9">
@@ -998,7 +998,7 @@
         <v>-1511.545769359426</v>
       </c>
       <c r="G9" t="n">
-        <v>-13653.81571437097</v>
+        <v>-15221.73271601373</v>
       </c>
       <c r="H9" t="n">
         <v>-23313.48600000002</v>
@@ -1010,7 +1010,7 @@
         <v>-11.43211008918932</v>
       </c>
       <c r="K9" t="n">
-        <v>-32737.73728673479</v>
+        <v>-34854.03840567345</v>
       </c>
       <c r="L9" t="n">
         <v>1236.135512957806</v>
@@ -1025,19 +1025,19 @@
         <v>7218.503664499589</v>
       </c>
       <c r="P9" t="n">
-        <v>50327.27793521292</v>
+        <v>-7911.43708831371</v>
       </c>
       <c r="Q9" t="n">
-        <v>52164.44053805478</v>
+        <v>57703.55300601729</v>
       </c>
       <c r="R9" t="n">
-        <v>41797.00112897313</v>
+        <v>44265.24048413194</v>
       </c>
       <c r="S9" t="n">
-        <v>39945.43955840706</v>
+        <v>33666.51915835639</v>
       </c>
       <c r="T9" t="n">
-        <v>-16574.12397439082</v>
+        <v>-17057.31562527225</v>
       </c>
     </row>
     <row r="10">
@@ -1060,7 +1060,7 @@
         <v>1950.036689366141</v>
       </c>
       <c r="G10" t="n">
-        <v>82513.79536468418</v>
+        <v>86903.87400840095</v>
       </c>
       <c r="H10" t="n">
         <v>17292.40500000005</v>
@@ -1072,7 +1072,7 @@
         <v>12.34532522329358</v>
       </c>
       <c r="K10" t="n">
-        <v>26428.5374108194</v>
+        <v>25134.82736127346</v>
       </c>
       <c r="L10" t="n">
         <v>1292.697797827189</v>
@@ -1087,19 +1087,19 @@
         <v>21720.08753616921</v>
       </c>
       <c r="P10" t="n">
-        <v>31285.97311238651</v>
+        <v>62185.00809935042</v>
       </c>
       <c r="Q10" t="n">
-        <v>44319.94034934795</v>
+        <v>61525.54095962652</v>
       </c>
       <c r="R10" t="n">
-        <v>44625.60317279404</v>
+        <v>42555.61250505751</v>
       </c>
       <c r="S10" t="n">
-        <v>46456.9297479919</v>
+        <v>52211.26036418015</v>
       </c>
       <c r="T10" t="n">
-        <v>19824.64174823518</v>
+        <v>20397.71577368389</v>
       </c>
     </row>
     <row r="11">
@@ -1122,7 +1122,7 @@
         <v>1512.204622835688</v>
       </c>
       <c r="G11" t="n">
-        <v>46716.22578708349</v>
+        <v>49953.78062804925</v>
       </c>
       <c r="H11" t="n">
         <v>20011.57799999999</v>
@@ -1134,7 +1134,7 @@
         <v>12.75476627527777</v>
       </c>
       <c r="K11" t="n">
-        <v>28191.8915585076</v>
+        <v>28913.0607181235</v>
       </c>
       <c r="L11" t="n">
         <v>1273.747108453626</v>
@@ -1149,19 +1149,19 @@
         <v>37769.31184239756</v>
       </c>
       <c r="P11" t="n">
-        <v>68623.92107508788</v>
+        <v>43079.27691251344</v>
       </c>
       <c r="Q11" t="n">
-        <v>54530.94913298495</v>
+        <v>68680.12316998551</v>
       </c>
       <c r="R11" t="n">
-        <v>44690.89755667901</v>
+        <v>36882.976952982</v>
       </c>
       <c r="S11" t="n">
-        <v>66178.27524552544</v>
+        <v>63777.85140436658</v>
       </c>
       <c r="T11" t="n">
-        <v>20316.06521696168</v>
+        <v>20869.10649254953</v>
       </c>
     </row>
     <row r="12">
@@ -1184,7 +1184,7 @@
         <v>1052.558545403775</v>
       </c>
       <c r="G12" t="n">
-        <v>55660.85084981313</v>
+        <v>49454.90958231627</v>
       </c>
       <c r="H12" t="n">
         <v>6709.74149999994</v>
@@ -1196,7 +1196,7 @@
         <v>9.162383695061818</v>
       </c>
       <c r="K12" t="n">
-        <v>8576.913351119332</v>
+        <v>7810.531921656134</v>
       </c>
       <c r="L12" t="n">
         <v>1265.858682855186</v>
@@ -1211,19 +1211,19 @@
         <v>42037.03125140756</v>
       </c>
       <c r="P12" t="n">
-        <v>77233.67284578692</v>
+        <v>44824.97301707572</v>
       </c>
       <c r="Q12" t="n">
-        <v>35196.0928481922</v>
+        <v>68345.12010573456</v>
       </c>
       <c r="R12" t="n">
-        <v>41270.78526915913</v>
+        <v>41967.53342409438</v>
       </c>
       <c r="S12" t="n">
-        <v>62719.27524540752</v>
+        <v>62898.90969337833</v>
       </c>
       <c r="T12" t="n">
-        <v>5159.533761818223</v>
+        <v>4831.797463251744</v>
       </c>
     </row>
     <row r="13">
@@ -1246,7 +1246,7 @@
         <v>224.4320731680227</v>
       </c>
       <c r="G13" t="n">
-        <v>23407.80025438881</v>
+        <v>35908.18790273961</v>
       </c>
       <c r="H13" t="n">
         <v>-7726.996999999971</v>
@@ -1258,7 +1258,7 @@
         <v>-7.963918118943501</v>
       </c>
       <c r="K13" t="n">
-        <v>25271.51815685939</v>
+        <v>23137.00696362899</v>
       </c>
       <c r="L13" t="n">
         <v>1256.513666008644</v>
@@ -1273,19 +1273,19 @@
         <v>36407.92322078226</v>
       </c>
       <c r="P13" t="n">
-        <v>35259.76225211029</v>
+        <v>51067.13482128389</v>
       </c>
       <c r="Q13" t="n">
-        <v>52808.64572564371</v>
+        <v>49399.18640930957</v>
       </c>
       <c r="R13" t="n">
-        <v>44033.21614134317</v>
+        <v>40712.51989438688</v>
       </c>
       <c r="S13" t="n">
-        <v>58328.78691467641</v>
+        <v>59463.43904041179</v>
       </c>
       <c r="T13" t="n">
-        <v>7045.513025292415</v>
+        <v>7996.168752438232</v>
       </c>
     </row>
     <row r="14">
@@ -1308,7 +1308,7 @@
         <v>1460.926762270726</v>
       </c>
       <c r="G14" t="n">
-        <v>70166.82608241953</v>
+        <v>49893.66396787528</v>
       </c>
       <c r="H14" t="n">
         <v>13141.9225</v>
@@ -1320,7 +1320,7 @@
         <v>12.9386428049169</v>
       </c>
       <c r="K14" t="n">
-        <v>24595.41946827618</v>
+        <v>24318.33082049429</v>
       </c>
       <c r="L14" t="n">
         <v>1274.107862539975</v>
@@ -1335,19 +1335,19 @@
         <v>41469.92775586007</v>
       </c>
       <c r="P14" t="n">
-        <v>37340.14577733284</v>
+        <v>40656.01092377608</v>
       </c>
       <c r="Q14" t="n">
-        <v>60689.57644544252</v>
+        <v>66266.29141745875</v>
       </c>
       <c r="R14" t="n">
-        <v>41076.37804355329</v>
+        <v>39744.58421041077</v>
       </c>
       <c r="S14" t="n">
-        <v>61091.7192067759</v>
+        <v>62036.81749244052</v>
       </c>
       <c r="T14" t="n">
-        <v>14662.64078085991</v>
+        <v>13284.28383803047</v>
       </c>
     </row>
     <row r="15">
@@ -1370,7 +1370,7 @@
         <v>1030.686908926047</v>
       </c>
       <c r="G15" t="n">
-        <v>42181.43383606025</v>
+        <v>58200.31030531401</v>
       </c>
       <c r="H15" t="n">
         <v>18233.07049999997</v>
@@ -1382,7 +1382,7 @@
         <v>5.97270246822318</v>
       </c>
       <c r="K15" t="n">
-        <v>25755.79190043421</v>
+        <v>25060.57950445396</v>
       </c>
       <c r="L15" t="n">
         <v>1264.010569082273</v>
@@ -1397,19 +1397,19 @@
         <v>36880.06771560646</v>
       </c>
       <c r="P15" t="n">
-        <v>87995.22542672766</v>
+        <v>25371.65978437367</v>
       </c>
       <c r="Q15" t="n">
-        <v>57699.29181754299</v>
+        <v>65303.490787083</v>
       </c>
       <c r="R15" t="n">
-        <v>44733.07397017187</v>
+        <v>43548.92242657399</v>
       </c>
       <c r="S15" t="n">
-        <v>68615.83521753576</v>
+        <v>61590.39544048427</v>
       </c>
       <c r="T15" t="n">
-        <v>19173.95783430745</v>
+        <v>20583.78784998482</v>
       </c>
     </row>
     <row r="16">
@@ -1432,7 +1432,7 @@
         <v>-1326.00363767874</v>
       </c>
       <c r="G16" t="n">
-        <v>-3719.392262511129</v>
+        <v>-13938.45668903402</v>
       </c>
       <c r="H16" t="n">
         <v>-29301.05650000001</v>
@@ -1444,7 +1444,7 @@
         <v>-9.415794106007247</v>
       </c>
       <c r="K16" t="n">
-        <v>-31996.83653467726</v>
+        <v>-34072.01964655422</v>
       </c>
       <c r="L16" t="n">
         <v>1237.937606030325</v>
@@ -1459,19 +1459,19 @@
         <v>2700.758024467725</v>
       </c>
       <c r="P16" t="n">
-        <v>26558.31894094203</v>
+        <v>15924.04525400775</v>
       </c>
       <c r="Q16" t="n">
-        <v>56083.34860976048</v>
+        <v>73030.7907569916</v>
       </c>
       <c r="R16" t="n">
-        <v>43398.91573272502</v>
+        <v>42572.3182343573</v>
       </c>
       <c r="S16" t="n">
-        <v>39061.9694916356</v>
+        <v>39747.79086187674</v>
       </c>
       <c r="T16" t="n">
-        <v>-16197.31871509567</v>
+        <v>-17345.38592405313</v>
       </c>
     </row>
     <row r="17">
@@ -1494,7 +1494,7 @@
         <v>1907.381328226168</v>
       </c>
       <c r="G17" t="n">
-        <v>79406.45077920127</v>
+        <v>88566.82762734755</v>
       </c>
       <c r="H17" t="n">
         <v>17584.36955000007</v>
@@ -1506,7 +1506,7 @@
         <v>12.4944903121996</v>
       </c>
       <c r="K17" t="n">
-        <v>26068.66070868293</v>
+        <v>25134.82736127346</v>
       </c>
       <c r="L17" t="n">
         <v>1290.93713040789</v>
@@ -1521,19 +1521,19 @@
         <v>14821.02945510886</v>
       </c>
       <c r="P17" t="n">
-        <v>33944.20068288152</v>
+        <v>64299.76170444796</v>
       </c>
       <c r="Q17" t="n">
-        <v>47994.36200168437</v>
+        <v>60306.20976879605</v>
       </c>
       <c r="R17" t="n">
-        <v>45439.46386775232</v>
+        <v>43785.76617937243</v>
       </c>
       <c r="S17" t="n">
-        <v>48450.12640576712</v>
+        <v>53576.84029330439</v>
       </c>
       <c r="T17" t="n">
-        <v>19390.27473486331</v>
+        <v>20396.36720163223</v>
       </c>
     </row>
     <row r="18">
@@ -1556,7 +1556,7 @@
         <v>1380.892964403299</v>
       </c>
       <c r="G18" t="n">
-        <v>45604.34845890981</v>
+        <v>58101.28173621363</v>
       </c>
       <c r="H18" t="n">
         <v>20226.5885</v>
@@ -1568,7 +1568,7 @@
         <v>11.5775524890066</v>
       </c>
       <c r="K18" t="n">
-        <v>28582.8018379574</v>
+        <v>29076.3656374305</v>
       </c>
       <c r="L18" t="n">
         <v>1271.422082689969</v>
@@ -1583,19 +1583,19 @@
         <v>33260.3827504313</v>
       </c>
       <c r="P18" t="n">
-        <v>72877.3295194001</v>
+        <v>68850.58239946076</v>
       </c>
       <c r="Q18" t="n">
-        <v>52985.75100627847</v>
+        <v>61552.41742684849</v>
       </c>
       <c r="R18" t="n">
-        <v>46272.24856502271</v>
+        <v>41720.14483726626</v>
       </c>
       <c r="S18" t="n">
-        <v>68113.11945296728</v>
+        <v>68111.59639957656</v>
       </c>
       <c r="T18" t="n">
-        <v>16575.21036050893</v>
+        <v>17909.91148802642</v>
       </c>
     </row>
     <row r="19">
@@ -1618,7 +1618,7 @@
         <v>1049.980448045935</v>
       </c>
       <c r="G19" t="n">
-        <v>35468.54736599894</v>
+        <v>63063.17492409401</v>
       </c>
       <c r="H19" t="n">
         <v>7298.272499999936</v>
@@ -1630,7 +1630,7 @@
         <v>10.25154642608125</v>
       </c>
       <c r="K19" t="n">
-        <v>25201.71695803284</v>
+        <v>21677.81819828479</v>
       </c>
       <c r="L19" t="n">
         <v>1266.483271731082</v>
@@ -1645,19 +1645,19 @@
         <v>41192.50587930033</v>
       </c>
       <c r="P19" t="n">
-        <v>41767.31601831919</v>
+        <v>54294.1930589617</v>
       </c>
       <c r="Q19" t="n">
-        <v>56255.55556948789</v>
+        <v>66719.6491377146</v>
       </c>
       <c r="R19" t="n">
-        <v>41391.41372806734</v>
+        <v>43265.16468379652</v>
       </c>
       <c r="S19" t="n">
-        <v>62790.1915461828</v>
+        <v>65898.28174175759</v>
       </c>
       <c r="T19" t="n">
-        <v>9706.588327866728</v>
+        <v>11773.26262401666</v>
       </c>
     </row>
     <row r="20">
@@ -1680,7 +1680,7 @@
         <v>300.0807795484625</v>
       </c>
       <c r="G20" t="n">
-        <v>66255.99921427939</v>
+        <v>26124.24415615048</v>
       </c>
       <c r="H20" t="n">
         <v>-8306.995499999972</v>
@@ -1692,7 +1692,7 @@
         <v>-5.966769717234002</v>
       </c>
       <c r="K20" t="n">
-        <v>24476.40075866917</v>
+        <v>24318.33082049429</v>
       </c>
       <c r="L20" t="n">
         <v>1258.284925457181</v>
@@ -1707,19 +1707,19 @@
         <v>39742.3531426581</v>
       </c>
       <c r="P20" t="n">
-        <v>61512.6521796734</v>
+        <v>48367.59593454457</v>
       </c>
       <c r="Q20" t="n">
-        <v>50519.61009647257</v>
+        <v>75762.23010477136</v>
       </c>
       <c r="R20" t="n">
-        <v>44412.00598592466</v>
+        <v>42429.18263385749</v>
       </c>
       <c r="S20" t="n">
-        <v>63750.68635098177</v>
+        <v>65015.02890236961</v>
       </c>
       <c r="T20" t="n">
-        <v>11413.9603899096</v>
+        <v>8401.831674161283</v>
       </c>
     </row>
     <row r="21">
@@ -1742,7 +1742,7 @@
         <v>1483.947106357128</v>
       </c>
       <c r="G21" t="n">
-        <v>36350.6656510674</v>
+        <v>79218.39923008374</v>
       </c>
       <c r="H21" t="n">
         <v>14283.22399999998</v>
@@ -1754,7 +1754,7 @@
         <v>13.42899999082117</v>
       </c>
       <c r="K21" t="n">
-        <v>25870.04223675356</v>
+        <v>24810.81809335975</v>
       </c>
       <c r="L21" t="n">
         <v>1274.286144884742</v>
@@ -1769,19 +1769,19 @@
         <v>46585.53030550793</v>
       </c>
       <c r="P21" t="n">
-        <v>79739.80696758341</v>
+        <v>52087.45857343681</v>
       </c>
       <c r="Q21" t="n">
-        <v>59699.77659755953</v>
+        <v>80042.46240904044</v>
       </c>
       <c r="R21" t="n">
-        <v>48925.06343246258</v>
+        <v>44517.61214801675</v>
       </c>
       <c r="S21" t="n">
-        <v>69850.75304509238</v>
+        <v>68386.11381170343</v>
       </c>
       <c r="T21" t="n">
-        <v>13440.16489799173</v>
+        <v>17080.73281137021</v>
       </c>
     </row>
     <row r="22">
@@ -1804,7 +1804,7 @@
         <v>1001.551190709267</v>
       </c>
       <c r="G22" t="n">
-        <v>75761.68527285472</v>
+        <v>55396.90845267304</v>
       </c>
       <c r="H22" t="n">
         <v>18233.07049999996</v>
@@ -1816,7 +1816,7 @@
         <v>5.340545811274772</v>
       </c>
       <c r="K22" t="n">
-        <v>27880.02720603253</v>
+        <v>25892.89995664779</v>
       </c>
       <c r="L22" t="n">
         <v>1263.104125255549</v>
@@ -1831,19 +1831,19 @@
         <v>36977.19503308724</v>
       </c>
       <c r="P22" t="n">
-        <v>62143.17947833249</v>
+        <v>32583.7475807548</v>
       </c>
       <c r="Q22" t="n">
-        <v>62661.60069503196</v>
+        <v>62878.32509154984</v>
       </c>
       <c r="R22" t="n">
-        <v>43995.52303588844</v>
+        <v>49514.99253558225</v>
       </c>
       <c r="S22" t="n">
-        <v>67886.83030977087</v>
+        <v>64908.92555960013</v>
       </c>
       <c r="T22" t="n">
-        <v>19843.4701163252</v>
+        <v>18222.56071727571</v>
       </c>
     </row>
     <row r="23">
@@ -1866,7 +1866,7 @@
         <v>-1108.87752231716</v>
       </c>
       <c r="G23" t="n">
-        <v>-65.15060111750512</v>
+        <v>-18952.50869644501</v>
       </c>
       <c r="H23" t="n">
         <v>-27851.87650000006</v>
@@ -1878,7 +1878,7 @@
         <v>-6.585889752727697</v>
       </c>
       <c r="K23" t="n">
-        <v>-31953.1241623563</v>
+        <v>-34990.99989082287</v>
       </c>
       <c r="L23" t="n">
         <v>1240.167415903525</v>
@@ -1893,19 +1893,19 @@
         <v>5948.978066760883</v>
       </c>
       <c r="P23" t="n">
-        <v>58040.01153793641</v>
+        <v>10381.56080648267</v>
       </c>
       <c r="Q23" t="n">
-        <v>52250.96195341356</v>
+        <v>70712.11385655413</v>
       </c>
       <c r="R23" t="n">
-        <v>50741.13928987093</v>
+        <v>51576.82323197431</v>
       </c>
       <c r="S23" t="n">
-        <v>45804.20336234707</v>
+        <v>42259.00150157085</v>
       </c>
       <c r="T23" t="n">
-        <v>-16975.95626960549</v>
+        <v>-18949.00999840293</v>
       </c>
     </row>
     <row r="24">
@@ -1928,7 +1928,7 @@
         <v>1727.195844392329</v>
       </c>
       <c r="G24" t="n">
-        <v>69922.18833033468</v>
+        <v>94910.60766453811</v>
       </c>
       <c r="H24" t="n">
         <v>15548.55350000004</v>
@@ -1940,7 +1940,7 @@
         <v>11.87922787278215</v>
       </c>
       <c r="K24" t="n">
-        <v>26090.66651312075</v>
+        <v>25134.82736127346</v>
       </c>
       <c r="L24" t="n">
         <v>1286.77565476322</v>
@@ -1955,19 +1955,19 @@
         <v>19643.51002382307</v>
       </c>
       <c r="P24" t="n">
-        <v>43831.96120339489</v>
+        <v>22275.7134644911</v>
       </c>
       <c r="Q24" t="n">
-        <v>49513.47861539728</v>
+        <v>55629.34206656821</v>
       </c>
       <c r="R24" t="n">
-        <v>47069.771781537</v>
+        <v>48645.90882538266</v>
       </c>
       <c r="S24" t="n">
-        <v>52644.84978605773</v>
+        <v>50911.81888057183</v>
       </c>
       <c r="T24" t="n">
-        <v>19237.06923918186</v>
+        <v>21515.64534579094</v>
       </c>
     </row>
     <row r="25">
@@ -1990,7 +1990,7 @@
         <v>1158.057902460165</v>
       </c>
       <c r="G25" t="n">
-        <v>52343.89558376235</v>
+        <v>52342.04502414824</v>
       </c>
       <c r="H25" t="n">
         <v>23863.8535</v>
@@ -2002,7 +2002,7 @@
         <v>9.199101587270569</v>
       </c>
       <c r="K25" t="n">
-        <v>26378.9179734836</v>
+        <v>28078.19414885074</v>
       </c>
       <c r="L25" t="n">
         <v>1268.295186276576</v>
@@ -2017,19 +2017,19 @@
         <v>35647.3538172283</v>
       </c>
       <c r="P25" t="n">
-        <v>87661.62522287977</v>
+        <v>71448.14210277508</v>
       </c>
       <c r="Q25" t="n">
-        <v>47135.60685120231</v>
+        <v>54665.91599426277</v>
       </c>
       <c r="R25" t="n">
-        <v>51558.10673609681</v>
+        <v>48103.76757736809</v>
       </c>
       <c r="S25" t="n">
-        <v>72151.25722945154</v>
+        <v>70634.06808747993</v>
       </c>
       <c r="T25" t="n">
-        <v>17050.07259436511</v>
+        <v>17517.96001338197</v>
       </c>
     </row>
     <row r="26">
@@ -2052,7 +2052,7 @@
         <v>1026.222551530951</v>
       </c>
       <c r="G26" t="n">
-        <v>74010.39931323932</v>
+        <v>57689.08257076218</v>
       </c>
       <c r="H26" t="n">
         <v>417.6729999999865</v>
@@ -2064,7 +2064,7 @@
         <v>10.03938275984755</v>
       </c>
       <c r="K26" t="n">
-        <v>37285.67015093672</v>
+        <v>36467.03718907152</v>
       </c>
       <c r="L26" t="n">
         <v>1264.900644616614</v>
@@ -2079,19 +2079,19 @@
         <v>42522.52777390894</v>
       </c>
       <c r="P26" t="n">
-        <v>75374.1463100196</v>
+        <v>55197.94495687194</v>
       </c>
       <c r="Q26" t="n">
-        <v>43148.04629852182</v>
+        <v>66427.79572136114</v>
       </c>
       <c r="R26" t="n">
-        <v>49943.51378145225</v>
+        <v>47562.04718747443</v>
       </c>
       <c r="S26" t="n">
-        <v>68550.13709547042</v>
+        <v>68640.39727993465</v>
       </c>
       <c r="T26" t="n">
-        <v>13196.52633198324</v>
+        <v>12182.30668452122</v>
       </c>
     </row>
     <row r="27">
@@ -2114,7 +2114,7 @@
         <v>455.0426877692791</v>
       </c>
       <c r="G27" t="n">
-        <v>54392.05263822126</v>
+        <v>48978.6754788855</v>
       </c>
       <c r="H27" t="n">
         <v>-3118.889499999995</v>
@@ -2126,7 +2126,7 @@
         <v>-2.789545348979084</v>
       </c>
       <c r="K27" t="n">
-        <v>25045.47212030385</v>
+        <v>24134.06716775517</v>
       </c>
       <c r="L27" t="n">
         <v>1256.944388334691</v>
@@ -2141,19 +2141,19 @@
         <v>41224.8154983516</v>
       </c>
       <c r="P27" t="n">
-        <v>51374.51907134957</v>
+        <v>66992.77436768719</v>
       </c>
       <c r="Q27" t="n">
-        <v>52919.2495779217</v>
+        <v>50412.32634714849</v>
       </c>
       <c r="R27" t="n">
-        <v>52495.72017698593</v>
+        <v>50377.38927786059</v>
       </c>
       <c r="S27" t="n">
-        <v>65941.41189416248</v>
+        <v>67315.53703996737</v>
       </c>
       <c r="T27" t="n">
-        <v>12481.29115785467</v>
+        <v>12203.07356048294</v>
       </c>
     </row>
     <row r="28">
@@ -2176,7 +2176,7 @@
         <v>1283.673297384548</v>
       </c>
       <c r="G28" t="n">
-        <v>65793.94788655358</v>
+        <v>55811.97156328708</v>
       </c>
       <c r="H28" t="n">
         <v>2787.222000000029</v>
@@ -2188,7 +2188,7 @@
         <v>12.19040654261755</v>
       </c>
       <c r="K28" t="n">
-        <v>25750.98311627853</v>
+        <v>24927.58756963794</v>
       </c>
       <c r="L28" t="n">
         <v>1270.713241581162</v>
@@ -2203,19 +2203,19 @@
         <v>46546.37855601759</v>
       </c>
       <c r="P28" t="n">
-        <v>81790.39139974426</v>
+        <v>17697.38355376201</v>
       </c>
       <c r="Q28" t="n">
-        <v>54829.24401668914</v>
+        <v>70246.61554856012</v>
       </c>
       <c r="R28" t="n">
-        <v>52095.62439003296</v>
+        <v>48406.96954985715</v>
       </c>
       <c r="S28" t="n">
-        <v>71851.95085570743</v>
+        <v>65306.41446142153</v>
       </c>
       <c r="T28" t="n">
-        <v>16481.66260498932</v>
+        <v>15855.19376747038</v>
       </c>
     </row>
     <row r="29">
@@ -2238,7 +2238,7 @@
         <v>908.7402385791105</v>
       </c>
       <c r="G29" t="n">
-        <v>45310.94426210709</v>
+        <v>55663.24147475293</v>
       </c>
       <c r="H29" t="n">
         <v>11856.04149999998</v>
@@ -2250,7 +2250,7 @@
         <v>5.528977697766722</v>
       </c>
       <c r="K29" t="n">
-        <v>25751.02549496027</v>
+        <v>24927.58756963794</v>
       </c>
       <c r="L29" t="n">
         <v>1262.410814447519</v>
@@ -2265,19 +2265,19 @@
         <v>41058.17917366951</v>
       </c>
       <c r="P29" t="n">
-        <v>93306.40815070285</v>
+        <v>68135.95361963818</v>
       </c>
       <c r="Q29" t="n">
-        <v>65748.66515498767</v>
+        <v>69152.84620905528</v>
       </c>
       <c r="R29" t="n">
-        <v>57027.15801742979</v>
+        <v>54846.68624770053</v>
       </c>
       <c r="S29" t="n">
-        <v>76269.45951977714</v>
+        <v>73276.11636393635</v>
       </c>
       <c r="T29" t="n">
-        <v>14049.32531323541</v>
+        <v>15040.19661031657</v>
       </c>
     </row>
     <row r="30">
@@ -2300,7 +2300,7 @@
         <v>-826.1153535065314</v>
       </c>
       <c r="G30" t="n">
-        <v>10471.11707058869</v>
+        <v>-11208.57814027847</v>
       </c>
       <c r="H30" t="n">
         <v>-32497.98350000001</v>
@@ -2312,7 +2312,7 @@
         <v>-1.234385372468789</v>
       </c>
       <c r="K30" t="n">
-        <v>-31826.71066880854</v>
+        <v>-34789.66979147413</v>
       </c>
       <c r="L30" t="n">
         <v>1244.01536526352</v>
@@ -2327,19 +2327,19 @@
         <v>6260.511298637908</v>
       </c>
       <c r="P30" t="n">
-        <v>25210.88321430538</v>
+        <v>43079.59547872996</v>
       </c>
       <c r="Q30" t="n">
-        <v>61665.93221446284</v>
+        <v>74840.74371326577</v>
       </c>
       <c r="R30" t="n">
-        <v>53332.41534762986</v>
+        <v>54022.15504580148</v>
       </c>
       <c r="S30" t="n">
-        <v>45202.549943925</v>
+        <v>49169.20787659989</v>
       </c>
       <c r="T30" t="n">
-        <v>-15389.87507776495</v>
+        <v>-17545.8732385012</v>
       </c>
     </row>
     <row r="31">
@@ -2362,7 +2362,7 @@
         <v>1842.529128816086</v>
       </c>
       <c r="G31" t="n">
-        <v>77193.42051835686</v>
+        <v>90857.21306841995</v>
       </c>
       <c r="H31" t="n">
         <v>15592.34650000004</v>
@@ -2374,7 +2374,7 @@
         <v>12.8902102188675</v>
       </c>
       <c r="K31" t="n">
-        <v>26109.14097045433</v>
+        <v>25134.82736127346</v>
       </c>
       <c r="L31" t="n">
         <v>1287.040206229642</v>
@@ -2389,19 +2389,19 @@
         <v>22053.27240501949</v>
       </c>
       <c r="P31" t="n">
-        <v>22282.62547460201</v>
+        <v>57965.05203039952</v>
       </c>
       <c r="Q31" t="n">
-        <v>54558.20554156609</v>
+        <v>64284.12565620551</v>
       </c>
       <c r="R31" t="n">
-        <v>52725.71914006777</v>
+        <v>50897.30687899001</v>
       </c>
       <c r="S31" t="n">
-        <v>53552.2525813956</v>
+        <v>58999.7443825655</v>
       </c>
       <c r="T31" t="n">
-        <v>19777.53470325909</v>
+        <v>21139.29810942825</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2643,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>37104.20201605104</v>
+        <v>24896.34402866636</v>
       </c>
       <c r="S2" t="n">
         <v>14239.57779119223</v>
@@ -2740,7 +2740,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>28313.75760289436</v>
+        <v>29109.76835736102</v>
       </c>
       <c r="S3" t="n">
         <v>12806.287941039</v>
@@ -2833,7 +2833,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>23455.02019188314</v>
+        <v>25876.65695975442</v>
       </c>
       <c r="S4" t="n">
         <v>14083.76932788602</v>
@@ -2870,85 +2870,101 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'trend': 'add'}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>{'max_depth': 2, 'n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F5" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>36031.56799119545</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>32134.41921645716</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.043936887969358</v>
+      </c>
       <c r="M5" t="n">
-        <v>21766.76329647402</v>
+        <v>22477.41571248888</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03218045507021394</v>
+        <v>0.2804236431428839</v>
       </c>
       <c r="O5" t="n">
-        <v>51447.91153270127</v>
+        <v>3734.891157476864</v>
       </c>
       <c r="P5" t="n">
-        <v>196134.1000000003</v>
+        <v>117011.1400000004</v>
       </c>
       <c r="Q5" t="n">
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>40255.71205112107</v>
+        <v>29786.91785011545</v>
       </c>
       <c r="S5" t="n">
-        <v>18893.82702196301</v>
+        <v>15488.03987594889</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>12871.94522961816</v>
+        <v>10731.02650113561</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1709485114864812</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="b">
-        <v>1</v>
-      </c>
+        <v>0.4892170394157054</v>
+      </c>
+      <c r="W5" t="n">
+        <v>15</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>30617.8858491307</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>36031.56799119545</v>
+        <v>35831.41728470146</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>21766.76329647402</v>
+        <v>28057.6913209041</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03218045507021394</v>
+        <v>0.04290281660379025</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -2957,101 +2973,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
-        </is>
-      </c>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'max_depth': 3}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'trend': 'add'}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>32577.68641817396</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.423968201738429</v>
-      </c>
+        <v>36031.56799119545</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>21520.29888365673</v>
+        <v>21766.76329647402</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2604348255622841</v>
+        <v>0.03218045507021394</v>
       </c>
       <c r="O6" t="n">
-        <v>-8370.699624495779</v>
+        <v>51447.91153270127</v>
       </c>
       <c r="P6" t="n">
-        <v>117011.1400000004</v>
+        <v>196134.1000000003</v>
       </c>
       <c r="Q6" t="n">
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>17532.85914644195</v>
+        <v>34796.69355925454</v>
       </c>
       <c r="S6" t="n">
-        <v>8320.614854728416</v>
+        <v>18893.82702196301</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>5793.290667746985</v>
+        <v>12871.94522961816</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8525807068714482</v>
-      </c>
-      <c r="W6" t="n">
-        <v>15</v>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y6" t="n">
-        <v>35165.32845541724</v>
-      </c>
-      <c r="Z6" t="inlineStr"/>
+        <v>0.1709485114864812</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>36585.12154212184</v>
+        <v>36031.56799119545</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>28781.52492855417</v>
+        <v>21766.76329647402</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.00221477405802073</v>
+        <v>0.03218045507021394</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -3060,12 +3060,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 1000}</t>
+          <t>{'max_depth': 3}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3099,19 +3099,19 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>32712.83959990365</v>
+        <v>32577.68641817396</v>
       </c>
       <c r="L7" t="n">
-        <v>1.077453144041531</v>
+        <v>1.423968201738429</v>
       </c>
       <c r="M7" t="n">
-        <v>23383.04473800243</v>
+        <v>21520.29888365673</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2542857133712044</v>
+        <v>0.2604348255622841</v>
       </c>
       <c r="O7" t="n">
-        <v>4418.584508574714</v>
+        <v>-8370.699624495779</v>
       </c>
       <c r="P7" t="n">
         <v>117011.1400000004</v>
@@ -3120,17 +3120,17 @@
         <v>0.95</v>
       </c>
       <c r="R7" t="n">
-        <v>26488.9266933752</v>
+        <v>14701.0468166289</v>
       </c>
       <c r="S7" t="n">
-        <v>15502.59661444395</v>
+        <v>8320.614854728416</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>10766.26267440386</v>
+        <v>5793.290667746985</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4882564494163399</v>
+        <v>0.8525807068714482</v>
       </c>
       <c r="W7" t="n">
         <v>15</v>
@@ -3141,20 +3141,20 @@
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>31444.18856391787</v>
+        <v>35165.32845541724</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>37055.14484153278</v>
+        <v>36585.12154212184</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>28802.35325245672</v>
+        <v>28781.52492855417</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02358778628481395</v>
+        <v>0.00221477405802073</v>
       </c>
       <c r="AG7" t="b">
         <v>0</v>
@@ -3192,17 +3192,17 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>38112.66853770681</v>
+        <v>37706.15468474031</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>24536.11568789003</v>
+        <v>24267.05895792773</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.08284620920069119</v>
+        <v>-0.05986989010444765</v>
       </c>
       <c r="O8" t="n">
-        <v>33454.88237777688</v>
+        <v>35882.62398533886</v>
       </c>
       <c r="P8" t="n">
         <v>196134.1000000003</v>
@@ -3211,17 +3211,17 @@
         <v>0.95</v>
       </c>
       <c r="R8" t="n">
-        <v>45724.77198479859</v>
+        <v>59913.60401142602</v>
       </c>
       <c r="S8" t="n">
-        <v>32463.33337400278</v>
+        <v>33113.02816564414</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>17818.2356132539</v>
+        <v>18226.61266052369</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2143768215278243</v>
+        <v>0.1826165090645403</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
@@ -3234,14 +3234,14 @@
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>38112.66853770681</v>
+        <v>37706.15468474031</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>24536.11568789003</v>
+        <v>24267.05895792773</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.08284620920069119</v>
+        <v>-0.05986989010444765</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0.95</v>
       </c>
       <c r="R9" t="n">
-        <v>35954.99822188161</v>
+        <v>38447.75369964709</v>
       </c>
       <c r="S9" t="n">
         <v>21672.60733244562</v>
@@ -3413,7 +3413,7 @@
         <v>0.95</v>
       </c>
       <c r="R10" t="n">
-        <v>46757.2775976566</v>
+        <v>43508.42132442213</v>
       </c>
       <c r="S10" t="n">
         <v>21061.27766572115</v>
@@ -3456,7 +3456,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>simple_rnn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3467,7 +3467,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'lags': 30, 'hidden_layers_struct': {'lstm': {'units': 64}}, 'validation_split': 0.2, 'epochs': 15}</t>
+          <t>{'lags': 30, 'hidden_layers_struct': {'simple': {'units': 64}}, 'validation_split': 0.2, 'epochs': 15}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3491,17 +3491,17 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>41013.79774060435</v>
+        <v>40249.15563421383</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>28951.8137952451</v>
+        <v>26441.71468110971</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.2539725667433113</v>
+        <v>-0.2076514654427457</v>
       </c>
       <c r="O11" t="n">
-        <v>34325.49602811335</v>
+        <v>33802.82038298992</v>
       </c>
       <c r="P11" t="n">
         <v>196134.1000000003</v>
@@ -3510,17 +3510,17 @@
         <v>0.95</v>
       </c>
       <c r="R11" t="n">
-        <v>59029.93320455164</v>
+        <v>34859.21976684192</v>
       </c>
       <c r="S11" t="n">
-        <v>37982.27879501431</v>
+        <v>36765.68494659376</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>24712.58124644441</v>
+        <v>21828.17858930334</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0754496912793301</v>
+        <v>-0.00765853411323536</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
@@ -3531,14 +3531,14 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>41013.79774060435</v>
+        <v>40249.15563421383</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>28951.8137952451</v>
+        <v>26441.71468110971</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.2539725667433113</v>
+        <v>-0.2076514654427457</v>
       </c>
       <c r="AG11" t="b">
         <v>0</v>
@@ -3547,18 +3547,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lstm_regularized</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'lags': 30, 'lstm_layer_sizes': (64, 64, 64), 'dropout': (0.2, 0, 0), 'validation_split': 0.2, 'epochs': 15}</t>
+          <t>{'lags': 30, 'hidden_layers_struct': {'lstm': {'units': 64}}, 'validation_split': 0.2, 'epochs': 15}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3582,17 +3582,17 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>43294.29637067002</v>
+        <v>40332.36818693822</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>31327.10405703702</v>
+        <v>28191.23106337304</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.3972992833953066</v>
+        <v>-0.212650111491212</v>
       </c>
       <c r="O12" t="n">
-        <v>27946.29322520195</v>
+        <v>34728.99528194068</v>
       </c>
       <c r="P12" t="n">
         <v>196134.1000000003</v>
@@ -3601,17 +3601,17 @@
         <v>0.95</v>
       </c>
       <c r="R12" t="n">
-        <v>52818.47281104988</v>
+        <v>58647.93775778843</v>
       </c>
       <c r="S12" t="n">
-        <v>38862.35179881936</v>
+        <v>37420.01506200476</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>26329.78007691809</v>
+        <v>24021.74271360237</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.1258647516067795</v>
+        <v>-0.04384491689264314</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
@@ -3622,14 +3622,14 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>43294.29637067002</v>
+        <v>40332.36818693822</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>31327.10405703702</v>
+        <v>28191.23106337304</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.3972992833953066</v>
+        <v>-0.212650111491212</v>
       </c>
       <c r="AG12" t="b">
         <v>0</v>
@@ -3638,18 +3638,18 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>simple_rnn</t>
+          <t>lstm_regularized</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'lags': 30, 'hidden_layers_struct': {'simple': {'units': 64}}, 'validation_split': 0.2, 'epochs': 15}</t>
+          <t>{'lags': 30, 'lstm_layer_sizes': (64, 64, 64), 'dropout': (0.2, 0, 0), 'validation_split': 0.2, 'epochs': 15}</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3673,17 +3673,17 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>43533.95850575749</v>
+        <v>43743.32553226616</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>29628.8007615585</v>
+        <v>31902.39054044955</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4128120250956175</v>
+        <v>-0.4264339214952131</v>
       </c>
       <c r="O13" t="n">
-        <v>14600.06147203966</v>
+        <v>27761.96792092024</v>
       </c>
       <c r="P13" t="n">
         <v>196134.1000000003</v>
@@ -3692,17 +3692,17 @@
         <v>0.95</v>
       </c>
       <c r="R13" t="n">
-        <v>37514.02487904178</v>
+        <v>41684.27442179837</v>
       </c>
       <c r="S13" t="n">
-        <v>31261.0155150434</v>
+        <v>40000.71316718739</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>17778.53472353425</v>
+        <v>27462.51318217192</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2714921619371572</v>
+        <v>-0.1927887477426513</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
@@ -3713,14 +3713,14 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>43533.95850575749</v>
+        <v>43743.32553226616</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>29628.8007615585</v>
+        <v>31902.39054044955</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.4128120250956175</v>
+        <v>-0.4264339214952131</v>
       </c>
       <c r="AG13" t="b">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0.95</v>
       </c>
       <c r="R14" t="n">
-        <v>47082.4877082533</v>
+        <v>43098.34943529539</v>
       </c>
       <c r="S14" t="n">
         <v>21673.57706693026</v>
@@ -3882,7 +3882,7 @@
         <v>0.95</v>
       </c>
       <c r="R15" t="n">
-        <v>24056.80380594691</v>
+        <v>23748.8889807319</v>
       </c>
       <c r="S15" t="n">
         <v>14850.01558985612</v>
@@ -3969,7 +3969,7 @@
         <v>0.95</v>
       </c>
       <c r="R16" t="n">
-        <v>24602.90373147627</v>
+        <v>23079.53732581655</v>
       </c>
       <c r="S16" t="n">
         <v>14660.87259256106</v>
@@ -4006,89 +4006,101 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>weighted_differenced_models</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ['elasticnet', 'gbt', 'knn', 'lightgbm', 'mlp', 'mlr', 'rf', 'svr', 'xgboost'], 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>{'max_depth': 2, 'max_features': 'sqrt'}</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F17" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>60387.96420740432</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+        <v>36103.90759061156</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.644627446255676</v>
+      </c>
       <c r="M17" t="n">
-        <v>48805.02184448369</v>
+        <v>25521.11665348853</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.718496903789301</v>
+        <v>0.09166846308427401</v>
       </c>
       <c r="O17" t="n">
-        <v>-3153.71585790884</v>
+        <v>-17989.28957697915</v>
       </c>
       <c r="P17" t="n">
-        <v>196134.1000000003</v>
+        <v>117011.1400000004</v>
       </c>
       <c r="Q17" t="n">
         <v>0.95</v>
       </c>
       <c r="R17" t="n">
-        <v>22021.25222641581</v>
+        <v>16451.27485650121</v>
       </c>
       <c r="S17" t="n">
-        <v>29808.73537139345</v>
+        <v>8456.771532660279</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>24121.41213135646</v>
+        <v>6316.971579044766</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.027895353678974</v>
-      </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+        <v>0.8477165593494711</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>38138.7855310816</v>
+      </c>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>['svr', 'mlp', 'elasticnet', 'rf', 'knn', 'lightgbm', 'xgboost', 'gbt', 'mlr']</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>(0.15394635584480929, 0.15371942641891637, 0.15108341863351732, 0.12872055230258425, 0.1131563004277991, 0.10422355440215132, 0.10201590093876715, 0.07913936777283626, 0.013995123258619024)</t>
-        </is>
-      </c>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
-        <v>60387.96420740432</v>
+        <v>57599.60737182239</v>
       </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>48805.02184448369</v>
+        <v>53343.53478879203</v>
       </c>
       <c r="AF17" t="n">
-        <v>-1.718496903789301</v>
+        <v>-1.473244835576729</v>
       </c>
       <c r="AG17" t="b">
         <v>0</v>
@@ -4097,101 +4109,89 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>weighted_differenced_models</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'max_depth': 3}</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ['elasticnet', 'gbt', 'knn', 'lightgbm', 'mlp', 'mlr', 'rf', 'svr', 'xgboost'], 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>34246.02020087876</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.622421698347657</v>
-      </c>
+        <v>60439.09727697859</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>22008.78366731772</v>
+        <v>48815.49252827952</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1827476234143377</v>
+        <v>-1.723102587849669</v>
       </c>
       <c r="O18" t="n">
-        <v>-19374.58984375</v>
+        <v>-3764.031626910976</v>
       </c>
       <c r="P18" t="n">
-        <v>117011.1400000004</v>
+        <v>196134.1000000003</v>
       </c>
       <c r="Q18" t="n">
         <v>0.95</v>
       </c>
       <c r="R18" t="n">
-        <v>2286.030660380753</v>
+        <v>4725.941105704092</v>
       </c>
       <c r="S18" t="n">
-        <v>1163.475770987645</v>
+        <v>29778.98140123429</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>886.2711905829659</v>
+        <v>24112.0810734509</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9971175739628261</v>
-      </c>
-      <c r="W18" t="n">
-        <v>15</v>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y18" t="n">
-        <v>35500.67515392271</v>
-      </c>
+        <v>-1.023849034803249</v>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>['svr', 'mlp', 'elasticnet', 'rf', 'knn', 'lightgbm', 'xgboost', 'gbt', 'mlr']</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>(0.15227904557822872, 0.15205457390302116, 0.14944711530164964, 0.13270724830322558, 0.111930765335421, 0.10309476508251715, 0.10091102152764853, 0.08373191537026738, 0.013843549598020793)</t>
+        </is>
+      </c>
       <c r="AC18" t="n">
-        <v>62488.67436538539</v>
+        <v>60439.09727697859</v>
       </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>57860.53660807257</v>
+        <v>48815.49252827952</v>
       </c>
       <c r="AF18" t="n">
-        <v>-1.910922802016791</v>
+        <v>-1.723102587849669</v>
       </c>
       <c r="AG18" t="b">
         <v>0</v>
@@ -4200,12 +4200,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'max_features': 'sqrt'}</t>
+          <t>{'max_depth': 3}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4239,19 +4239,19 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>35337.31251199781</v>
+        <v>34246.02020087876</v>
       </c>
       <c r="L19" t="n">
-        <v>1.671306358901561</v>
+        <v>1.622421698347657</v>
       </c>
       <c r="M19" t="n">
-        <v>24564.0350817695</v>
+        <v>22008.78366731772</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1298321975082659</v>
+        <v>0.1827476234143377</v>
       </c>
       <c r="O19" t="n">
-        <v>-11864.26332443548</v>
+        <v>-19374.58984375</v>
       </c>
       <c r="P19" t="n">
         <v>117011.1400000004</v>
@@ -4260,17 +4260,17 @@
         <v>0.95</v>
       </c>
       <c r="R19" t="n">
-        <v>16014.5238958856</v>
+        <v>2140.784712228708</v>
       </c>
       <c r="S19" t="n">
-        <v>8902.921376288305</v>
+        <v>1163.475770987645</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>6628.079796458398</v>
+        <v>886.2711905829659</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8312248273669646</v>
+        <v>0.9971175739628261</v>
       </c>
       <c r="W19" t="n">
         <v>15</v>
@@ -4281,20 +4281,20 @@
         </is>
       </c>
       <c r="Y19" t="n">
-        <v>38975.66341529859</v>
+        <v>35500.67515392271</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
-        <v>71853.24052173684</v>
+        <v>62488.67436538539</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>67610.43971227724</v>
+        <v>57860.53660807257</v>
       </c>
       <c r="AF19" t="n">
-        <v>-2.848759582808021</v>
+        <v>-1.910922802016791</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -4363,7 +4363,7 @@
         <v>0.95</v>
       </c>
       <c r="R20" t="n">
-        <v>40620.63568644306</v>
+        <v>25300.46838582901</v>
       </c>
       <c r="S20" t="n">
         <v>16259.0912345341</v>
@@ -9296,19 +9296,19 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>hwes</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>lightgbm</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>rf</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>avg_lvl_models</t>
@@ -9326,19 +9326,19 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lstm_regularized</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>simple_rnn</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
@@ -9356,17 +9356,17 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>weighted_differenced_models</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -9392,16 +9392,16 @@
         <v>44536.22881471434</v>
       </c>
       <c r="F2" t="n">
+        <v>8958.628883750391</v>
+      </c>
+      <c r="G2" t="n">
         <v>41533.82646672569</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>20917.53847235705</v>
       </c>
-      <c r="H2" t="n">
-        <v>8751.713514647665</v>
-      </c>
       <c r="I2" t="n">
-        <v>31067.00997082925</v>
+        <v>32590.77922206818</v>
       </c>
       <c r="J2" t="n">
         <v>13.29674259365965</v>
@@ -9410,13 +9410,13 @@
         <v>1080.987974248233</v>
       </c>
       <c r="L2" t="n">
-        <v>27294.69284921436</v>
+        <v>30659.47830141483</v>
       </c>
       <c r="M2" t="n">
-        <v>28402.56446528582</v>
+        <v>34801.57861496208</v>
       </c>
       <c r="N2" t="n">
-        <v>20982.88454191162</v>
+        <v>23409.2389499463</v>
       </c>
       <c r="O2" t="n">
         <v>833.969976162423</v>
@@ -9428,13 +9428,13 @@
         <v>15806.3609825745</v>
       </c>
       <c r="R2" t="n">
-        <v>7600.143748006443</v>
+        <v>14799.90776009776</v>
       </c>
       <c r="S2" t="n">
+        <v>7382.870136068413</v>
+      </c>
+      <c r="T2" t="n">
         <v>7817.546875</v>
-      </c>
-      <c r="T2" t="n">
-        <v>18506.56452817763</v>
       </c>
       <c r="U2" t="n">
         <v>15687.32449999998</v>
@@ -9457,16 +9457,16 @@
         <v>36779.63894938694</v>
       </c>
       <c r="F3" t="n">
+        <v>2584.601565872771</v>
+      </c>
+      <c r="G3" t="n">
         <v>41875.6914690007</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>-8468.788796732815</v>
       </c>
-      <c r="H3" t="n">
-        <v>3716.976569800308</v>
-      </c>
       <c r="I3" t="n">
-        <v>30056.10919651264</v>
+        <v>32143.04679074809</v>
       </c>
       <c r="J3" t="n">
         <v>-8.85091504752371</v>
@@ -9475,13 +9475,13 @@
         <v>-453.4371041153819</v>
       </c>
       <c r="L3" t="n">
-        <v>28656.9462261766</v>
+        <v>28183.08856195508</v>
       </c>
       <c r="M3" t="n">
-        <v>25468.51131986974</v>
+        <v>29468.08944683967</v>
       </c>
       <c r="N3" t="n">
-        <v>12177.97176391221</v>
+        <v>25347.75205504744</v>
       </c>
       <c r="O3" t="n">
         <v>807.4333949374382</v>
@@ -9493,13 +9493,13 @@
         <v>15043.59461030478</v>
       </c>
       <c r="R3" t="n">
-        <v>-1852.451875759688</v>
+        <v>-23745.82782142416</v>
       </c>
       <c r="S3" t="n">
+        <v>-3073.594941943495</v>
+      </c>
+      <c r="T3" t="n">
         <v>2321.00048828125</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-11207.54340458222</v>
       </c>
       <c r="U3" t="n">
         <v>-5760.005000000061</v>
@@ -9522,16 +9522,16 @@
         <v>13517.72961537878</v>
       </c>
       <c r="F4" t="n">
+        <v>-29353.33400169026</v>
+      </c>
+      <c r="G4" t="n">
         <v>42217.55647127573</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>-37420.15732432127</v>
       </c>
-      <c r="H4" t="n">
-        <v>-26845.03045848698</v>
-      </c>
       <c r="I4" t="n">
-        <v>22687.8955767287</v>
+        <v>21771.28650416175</v>
       </c>
       <c r="J4" t="n">
         <v>-13.18040404758317</v>
@@ -9540,13 +9540,13 @@
         <v>-1859.856935021227</v>
       </c>
       <c r="L4" t="n">
-        <v>29605.16375144123</v>
+        <v>4148.61178800035</v>
       </c>
       <c r="M4" t="n">
-        <v>27108.94995137303</v>
+        <v>27928.90704410075</v>
       </c>
       <c r="N4" t="n">
-        <v>10754.71974927931</v>
+        <v>28058.44203945695</v>
       </c>
       <c r="O4" t="n">
         <v>793.3030553936661</v>
@@ -9558,13 +9558,13 @@
         <v>-1738.11523135746</v>
       </c>
       <c r="R4" t="n">
-        <v>-14821.85385511159</v>
+        <v>-15542.87133496913</v>
       </c>
       <c r="S4" t="n">
+        <v>-15393.55504050872</v>
+      </c>
+      <c r="T4" t="n">
         <v>-33837.66015625</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-13368.59147839966</v>
       </c>
       <c r="U4" t="n">
         <v>-22083.39200000003</v>
@@ -9587,16 +9587,16 @@
         <v>26474.36774046811</v>
       </c>
       <c r="F5" t="n">
+        <v>10245.38451987467</v>
+      </c>
+      <c r="G5" t="n">
         <v>42559.42147355075</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>19806.64896727502</v>
       </c>
-      <c r="H5" t="n">
-        <v>9169.223276439501</v>
-      </c>
       <c r="I5" t="n">
-        <v>28213.20336615425</v>
+        <v>30386.35025594542</v>
       </c>
       <c r="J5" t="n">
         <v>14.15496687715518</v>
@@ -9605,13 +9605,13 @@
         <v>1595.222956535908</v>
       </c>
       <c r="L5" t="n">
-        <v>24862.70144078059</v>
+        <v>26356.15214814766</v>
       </c>
       <c r="M5" t="n">
-        <v>26214.66613982244</v>
+        <v>31303.66968505381</v>
       </c>
       <c r="N5" t="n">
-        <v>13888.22767284214</v>
+        <v>24690.94853857307</v>
       </c>
       <c r="O5" t="n">
         <v>849.5443982344311</v>
@@ -9623,13 +9623,13 @@
         <v>6009.39829985704</v>
       </c>
       <c r="R5" t="n">
-        <v>10735.48370213749</v>
+        <v>24295.98915684146</v>
       </c>
       <c r="S5" t="n">
+        <v>10827.47701713914</v>
+      </c>
+      <c r="T5" t="n">
         <v>25420.814453125</v>
-      </c>
-      <c r="T5" t="n">
-        <v>25781.55631247662</v>
       </c>
       <c r="U5" t="n">
         <v>19633.25305000002</v>
@@ -9652,16 +9652,16 @@
         <v>39195.31969326003</v>
       </c>
       <c r="F6" t="n">
+        <v>10135.33775053712</v>
+      </c>
+      <c r="G6" t="n">
         <v>42901.28647582576</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>22437.39307981117</v>
       </c>
-      <c r="H6" t="n">
-        <v>9200.618534798123</v>
-      </c>
       <c r="I6" t="n">
-        <v>37773.83044247103</v>
+        <v>36279.69179697378</v>
       </c>
       <c r="J6" t="n">
         <v>9.883815495280523</v>
@@ -9670,13 +9670,13 @@
         <v>785.7103009433935</v>
       </c>
       <c r="L6" t="n">
-        <v>32836.72719364611</v>
+        <v>33276.50540014057</v>
       </c>
       <c r="M6" t="n">
-        <v>27246.09100365339</v>
+        <v>30371.7926272556</v>
       </c>
       <c r="N6" t="n">
-        <v>40297.04850726722</v>
+        <v>24778.45951319261</v>
       </c>
       <c r="O6" t="n">
         <v>827.3229499736474</v>
@@ -9688,13 +9688,13 @@
         <v>16217.93688721876</v>
       </c>
       <c r="R6" t="n">
-        <v>8994.708378098085</v>
+        <v>14236.10145788805</v>
       </c>
       <c r="S6" t="n">
+        <v>9159.204775627608</v>
+      </c>
+      <c r="T6" t="n">
         <v>25859.6875</v>
-      </c>
-      <c r="T6" t="n">
-        <v>14098.38707037867</v>
       </c>
       <c r="U6" t="n">
         <v>11285.22499999999</v>
@@ -9717,16 +9717,16 @@
         <v>46804.3356748559</v>
       </c>
       <c r="F7" t="n">
+        <v>-11004.78721319524</v>
+      </c>
+      <c r="G7" t="n">
         <v>43243.15147810079</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>-24994.3671020098</v>
       </c>
-      <c r="H7" t="n">
-        <v>-11955.95187492371</v>
-      </c>
       <c r="I7" t="n">
-        <v>39780.05697196366</v>
+        <v>39025.66119752282</v>
       </c>
       <c r="J7" t="n">
         <v>2.026569628803705</v>
@@ -9735,13 +9735,13 @@
         <v>293.9229934130866</v>
       </c>
       <c r="L7" t="n">
-        <v>35784.27926248757</v>
+        <v>27602.93045152722</v>
       </c>
       <c r="M7" t="n">
-        <v>24753.19551676063</v>
+        <v>32149.79504633842</v>
       </c>
       <c r="N7" t="n">
-        <v>28588.73963380901</v>
+        <v>23338.32271966486</v>
       </c>
       <c r="O7" t="n">
         <v>816.3571020546534</v>
@@ -9753,13 +9753,13 @@
         <v>37407.69285189482</v>
       </c>
       <c r="R7" t="n">
-        <v>-5150.787876306385</v>
+        <v>-5231.953215702757</v>
       </c>
       <c r="S7" t="n">
+        <v>-4960.549772455483</v>
+      </c>
+      <c r="T7" t="n">
         <v>-17715.94921875</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-6523.065836843079</v>
       </c>
       <c r="U7" t="n">
         <v>11199.62094999996</v>
@@ -9782,16 +9782,16 @@
         <v>40241.86092930887</v>
       </c>
       <c r="F8" t="n">
+        <v>4968.715480621207</v>
+      </c>
+      <c r="G8" t="n">
         <v>43585.01648037581</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>4454.892820253534</v>
       </c>
-      <c r="H8" t="n">
-        <v>6714.980746079523</v>
-      </c>
       <c r="I8" t="n">
-        <v>34569.31785914589</v>
+        <v>35293.01486633017</v>
       </c>
       <c r="J8" t="n">
         <v>-4.773939786415771</v>
@@ -9800,13 +9800,13 @@
         <v>-12.93619340860573</v>
       </c>
       <c r="L8" t="n">
-        <v>30790.94262253491</v>
+        <v>34954.46576252131</v>
       </c>
       <c r="M8" t="n">
-        <v>25591.6591980554</v>
+        <v>27955.89853402971</v>
       </c>
       <c r="N8" t="n">
-        <v>27072.01305730043</v>
+        <v>26333.82663881405</v>
       </c>
       <c r="O8" t="n">
         <v>814.3050017249006</v>
@@ -9818,13 +9818,13 @@
         <v>17772.5095522211</v>
       </c>
       <c r="R8" t="n">
-        <v>2744.104498224672</v>
+        <v>6118.857893420291</v>
       </c>
       <c r="S8" t="n">
+        <v>3078.249316343006</v>
+      </c>
+      <c r="T8" t="n">
         <v>8273.4609375</v>
-      </c>
-      <c r="T8" t="n">
-        <v>-602.0667869141902</v>
       </c>
       <c r="U8" t="n">
         <v>3863.376000000008</v>
@@ -9847,16 +9847,16 @@
         <v>45504.71673172074</v>
       </c>
       <c r="F9" t="n">
+        <v>9467.691125301613</v>
+      </c>
+      <c r="G9" t="n">
         <v>43926.88148265082</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>18482.08253417617</v>
       </c>
-      <c r="H9" t="n">
-        <v>9434.665219208033</v>
-      </c>
       <c r="I9" t="n">
-        <v>32293.5109553683</v>
+        <v>31789.17741346056</v>
       </c>
       <c r="J9" t="n">
         <v>13.50715467205594</v>
@@ -9865,13 +9865,13 @@
         <v>1065.767475763543</v>
       </c>
       <c r="L9" t="n">
-        <v>31568.84867760835</v>
+        <v>32195.52038478849</v>
       </c>
       <c r="M9" t="n">
-        <v>25392.56517522036</v>
+        <v>27339.56318168341</v>
       </c>
       <c r="N9" t="n">
-        <v>29855.66779003887</v>
+        <v>23247.32974113374</v>
       </c>
       <c r="O9" t="n">
         <v>832.8442300629451</v>
@@ -9883,13 +9883,13 @@
         <v>17039.13194501787</v>
       </c>
       <c r="R9" t="n">
-        <v>8368.749343447733</v>
+        <v>17017.56619532414</v>
       </c>
       <c r="S9" t="n">
+        <v>8000.654143425276</v>
+      </c>
+      <c r="T9" t="n">
         <v>11320.703125</v>
-      </c>
-      <c r="T9" t="n">
-        <v>22451.06598231779</v>
       </c>
       <c r="U9" t="n">
         <v>15687.32449999998</v>
@@ -9912,16 +9912,16 @@
         <v>37748.12686638235</v>
       </c>
       <c r="F10" t="n">
+        <v>3953.917045361316</v>
+      </c>
+      <c r="G10" t="n">
         <v>44268.74648492585</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>-3114.994124225125</v>
       </c>
-      <c r="H10" t="n">
-        <v>4310.942775705876</v>
-      </c>
       <c r="I10" t="n">
-        <v>29297.14874458905</v>
+        <v>29052.75584336196</v>
       </c>
       <c r="J10" t="n">
         <v>-9.656649895278203</v>
@@ -9930,13 +9930,13 @@
         <v>-489.6898789184938</v>
       </c>
       <c r="L10" t="n">
-        <v>29231.61195617614</v>
+        <v>6369.473136801083</v>
       </c>
       <c r="M10" t="n">
-        <v>24817.7532360196</v>
+        <v>29053.27487222253</v>
       </c>
       <c r="N10" t="n">
-        <v>7539.484060697253</v>
+        <v>24210.95803405268</v>
       </c>
       <c r="O10" t="n">
         <v>807.9095977331447</v>
@@ -9948,13 +9948,13 @@
         <v>16251.59668959543</v>
       </c>
       <c r="R10" t="n">
-        <v>-758.0487648589663</v>
+        <v>-11985.40145527512</v>
       </c>
       <c r="S10" t="n">
+        <v>-810.052077296561</v>
+      </c>
+      <c r="T10" t="n">
         <v>7297.77685546875</v>
-      </c>
-      <c r="T10" t="n">
-        <v>-12359.51766598007</v>
       </c>
       <c r="U10" t="n">
         <v>-4327.766000000058</v>
@@ -9977,16 +9977,16 @@
         <v>14486.21753235485</v>
       </c>
       <c r="F11" t="n">
+        <v>-23601.07340481069</v>
+      </c>
+      <c r="G11" t="n">
         <v>44610.61148720087</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>-30170.75667827356</v>
       </c>
-      <c r="H11" t="n">
-        <v>-22090.73704734846</v>
-      </c>
       <c r="I11" t="n">
-        <v>22941.29441838273</v>
+        <v>22472.01026140987</v>
       </c>
       <c r="J11" t="n">
         <v>-12.31194020524591</v>
@@ -9995,13 +9995,13 @@
         <v>-1719.555341504627</v>
       </c>
       <c r="L11" t="n">
-        <v>29865.72761877476</v>
+        <v>11318.77021450139</v>
       </c>
       <c r="M11" t="n">
-        <v>25038.88193901627</v>
+        <v>30567.50635692773</v>
       </c>
       <c r="N11" t="n">
-        <v>16396.24945513903</v>
+        <v>25660.30918571799</v>
       </c>
       <c r="O11" t="n">
         <v>795.5554143306387</v>
@@ -10013,13 +10013,13 @@
         <v>-529.9356514021365</v>
       </c>
       <c r="R11" t="n">
-        <v>-14722.45620840374</v>
+        <v>-15256.53736488867</v>
       </c>
       <c r="S11" t="n">
+        <v>-14562.87189479171</v>
+      </c>
+      <c r="T11" t="n">
         <v>-38153</v>
-      </c>
-      <c r="T11" t="n">
-        <v>-20399.14233859032</v>
       </c>
       <c r="U11" t="n">
         <v>-24321.00250000002</v>
@@ -10042,16 +10042,16 @@
         <v>27442.85565746643</v>
       </c>
       <c r="F12" t="n">
+        <v>10516.64652804394</v>
+      </c>
+      <c r="G12" t="n">
         <v>44952.47648947588</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>19218.78880109813</v>
       </c>
-      <c r="H12" t="n">
-        <v>8970.742272440586</v>
-      </c>
       <c r="I12" t="n">
-        <v>30721.64034833945</v>
+        <v>29176.30762376673</v>
       </c>
       <c r="J12" t="n">
         <v>14.29691284508754</v>
@@ -10060,13 +10060,13 @@
         <v>1581.805238733685</v>
       </c>
       <c r="L12" t="n">
-        <v>31055.62895365058</v>
+        <v>19344.67242226599</v>
       </c>
       <c r="M12" t="n">
-        <v>27657.99728655069</v>
+        <v>29393.37336655704</v>
       </c>
       <c r="N12" t="n">
-        <v>28021.85795454381</v>
+        <v>25634.7766093403</v>
       </c>
       <c r="O12" t="n">
         <v>847.6561011219188</v>
@@ -10078,13 +10078,13 @@
         <v>7217.576607793527</v>
       </c>
       <c r="R12" t="n">
-        <v>11544.25822119439</v>
+        <v>16463.15042592471</v>
       </c>
       <c r="S12" t="n">
+        <v>11294.15662189284</v>
+      </c>
+      <c r="T12" t="n">
         <v>32048.02734375</v>
-      </c>
-      <c r="T12" t="n">
-        <v>22444.23839501342</v>
       </c>
       <c r="U12" t="n">
         <v>22682.41955000002</v>
@@ -10107,16 +10107,16 @@
         <v>40163.8076102573</v>
       </c>
       <c r="F13" t="n">
+        <v>9398.704877076974</v>
+      </c>
+      <c r="G13" t="n">
         <v>45294.34149175091</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>17896.68914009616</v>
       </c>
-      <c r="H13" t="n">
-        <v>7942.216605498498</v>
-      </c>
       <c r="I13" t="n">
-        <v>36996.17249013769</v>
+        <v>37684.21749606659</v>
       </c>
       <c r="J13" t="n">
         <v>7.486652814507639</v>
@@ -10125,13 +10125,13 @@
         <v>577.7244172306649</v>
       </c>
       <c r="L13" t="n">
-        <v>28434.75273877977</v>
+        <v>46203.63006724563</v>
       </c>
       <c r="M13" t="n">
-        <v>27180.16336774825</v>
+        <v>29872.56766662298</v>
       </c>
       <c r="N13" t="n">
-        <v>39549.04859076438</v>
+        <v>24592.12701085506</v>
       </c>
       <c r="O13" t="n">
         <v>824.6237304205508</v>
@@ -10143,13 +10143,13 @@
         <v>17426.11520427089</v>
       </c>
       <c r="R13" t="n">
-        <v>8426.649183635835</v>
+        <v>22280.69331470029</v>
       </c>
       <c r="S13" t="n">
+        <v>8722.613863150245</v>
+      </c>
+      <c r="T13" t="n">
         <v>23224.044921875</v>
-      </c>
-      <c r="T13" t="n">
-        <v>21900.21264459938</v>
       </c>
       <c r="U13" t="n">
         <v>9955.745499999986</v>
@@ -10172,16 +10172,16 @@
         <v>47772.82359183375</v>
       </c>
       <c r="F14" t="n">
+        <v>-12104.67685067595</v>
+      </c>
+      <c r="G14" t="n">
         <v>45636.20649402593</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>-24942.85497470634</v>
       </c>
-      <c r="H14" t="n">
-        <v>-12875.79590051578</v>
-      </c>
       <c r="I14" t="n">
-        <v>39419.62639961961</v>
+        <v>39797.48798920588</v>
       </c>
       <c r="J14" t="n">
         <v>4.615755664650022</v>
@@ -10190,13 +10190,13 @@
         <v>418.9945215971347</v>
       </c>
       <c r="L14" t="n">
-        <v>27978.52281868754</v>
+        <v>33206.09295591114</v>
       </c>
       <c r="M14" t="n">
-        <v>27862.1847929716</v>
+        <v>31193.79029187856</v>
       </c>
       <c r="N14" t="n">
-        <v>30242.78207794724</v>
+        <v>24706.49915850683</v>
       </c>
       <c r="O14" t="n">
         <v>818.4967726486395</v>
@@ -10208,13 +10208,13 @@
         <v>38615.87116888162</v>
       </c>
       <c r="R14" t="n">
-        <v>-6559.813953676696</v>
+        <v>-16987.12745705376</v>
       </c>
       <c r="S14" t="n">
+        <v>-6876.285706126414</v>
+      </c>
+      <c r="T14" t="n">
         <v>-21381.31640625</v>
-      </c>
-      <c r="T14" t="n">
-        <v>-12797.23190149372</v>
       </c>
       <c r="U14" t="n">
         <v>5590.333949999973</v>
@@ -10237,16 +10237,16 @@
         <v>41210.34884627309</v>
       </c>
       <c r="F15" t="n">
+        <v>5216.410381684809</v>
+      </c>
+      <c r="G15" t="n">
         <v>45978.07149630095</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>4813.6298052523</v>
       </c>
-      <c r="H15" t="n">
-        <v>6987.69843785972</v>
-      </c>
       <c r="I15" t="n">
-        <v>33547.21055598707</v>
+        <v>34132.52830171819</v>
       </c>
       <c r="J15" t="n">
         <v>-4.385184283642688</v>
@@ -10255,13 +10255,13 @@
         <v>24.82834326860706</v>
       </c>
       <c r="L15" t="n">
-        <v>29953.88223172574</v>
+        <v>20797.41181324645</v>
       </c>
       <c r="M15" t="n">
-        <v>25118.67084288894</v>
+        <v>31284.27471666632</v>
       </c>
       <c r="N15" t="n">
-        <v>19691.41389987319</v>
+        <v>27364.82241042404</v>
       </c>
       <c r="O15" t="n">
         <v>815.1653547012171</v>
@@ -10273,13 +10273,13 @@
         <v>18980.68786920837</v>
       </c>
       <c r="R15" t="n">
-        <v>2838.580007709805</v>
+        <v>5353.100894448204</v>
       </c>
       <c r="S15" t="n">
+        <v>2815.236675803472</v>
+      </c>
+      <c r="T15" t="n">
         <v>4736.26904296875</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3108.779069552131</v>
       </c>
       <c r="U15" t="n">
         <v>5450.377000000023</v>
@@ -10302,16 +10302,16 @@
         <v>46473.20464867465</v>
       </c>
       <c r="F16" t="n">
+        <v>9488.518776897776</v>
+      </c>
+      <c r="G16" t="n">
         <v>46319.93649857597</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>18789.63889552532</v>
       </c>
-      <c r="H16" t="n">
-        <v>8676.675810012035</v>
-      </c>
       <c r="I16" t="n">
-        <v>33183.33787783745</v>
+        <v>31615.62183567357</v>
       </c>
       <c r="J16" t="n">
         <v>12.14726727499647</v>
@@ -10320,13 +10320,13 @@
         <v>936.0897287369631</v>
       </c>
       <c r="L16" t="n">
-        <v>34702.10868122129</v>
+        <v>22326.86971487402</v>
       </c>
       <c r="M16" t="n">
-        <v>27562.82145348041</v>
+        <v>31435.83326757102</v>
       </c>
       <c r="N16" t="n">
-        <v>30306.61828658281</v>
+        <v>26267.11710152848</v>
       </c>
       <c r="O16" t="n">
         <v>830.3488251224235</v>
@@ -10338,13 +10338,13 @@
         <v>18247.31026200513</v>
       </c>
       <c r="R16" t="n">
-        <v>8833.863618032618</v>
+        <v>14961.78904069377</v>
       </c>
       <c r="S16" t="n">
+        <v>8496.104640414351</v>
+      </c>
+      <c r="T16" t="n">
         <v>18325.798828125</v>
-      </c>
-      <c r="T16" t="n">
-        <v>21068.48307052199</v>
       </c>
       <c r="U16" t="n">
         <v>15687.32449999998</v>
@@ -10367,16 +10367,16 @@
         <v>38716.61478333698</v>
       </c>
       <c r="F17" t="n">
+        <v>2908.316549039184</v>
+      </c>
+      <c r="G17" t="n">
         <v>46661.80150085099</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>-3793.466742155067</v>
       </c>
-      <c r="H17" t="n">
-        <v>3615.247035282739</v>
-      </c>
       <c r="I17" t="n">
-        <v>30491.75649419901</v>
+        <v>32612.73371607344</v>
       </c>
       <c r="J17" t="n">
         <v>-8.245867701541176</v>
@@ -10385,13 +10385,13 @@
         <v>-445.2988233831608</v>
       </c>
       <c r="L17" t="n">
-        <v>26346.01285788937</v>
+        <v>27435.95636527686</v>
       </c>
       <c r="M17" t="n">
-        <v>26751.76405126153</v>
+        <v>34091.65348153262</v>
       </c>
       <c r="N17" t="n">
-        <v>19065.0981803134</v>
+        <v>27603.08301765023</v>
       </c>
       <c r="O17" t="n">
         <v>808.2857352449726</v>
@@ -10403,13 +10403,13 @@
         <v>17459.77500658269</v>
       </c>
       <c r="R17" t="n">
-        <v>-1545.102817980766</v>
+        <v>-12891.93331819089</v>
       </c>
       <c r="S17" t="n">
+        <v>-2068.120154733003</v>
+      </c>
+      <c r="T17" t="n">
         <v>-3407.679443359375</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-7844.391565702776</v>
       </c>
       <c r="U17" t="n">
         <v>-4327.76600000006</v>
@@ -10432,16 +10432,16 @@
         <v>15454.7054493309</v>
       </c>
       <c r="F18" t="n">
+        <v>-22759.66090100999</v>
+      </c>
+      <c r="G18" t="n">
         <v>47003.66650312601</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>-29234.6983086789</v>
       </c>
-      <c r="H18" t="n">
-        <v>-21368.08707112542</v>
-      </c>
       <c r="I18" t="n">
-        <v>23578.62593369815</v>
+        <v>24418.88266424589</v>
       </c>
       <c r="J18" t="n">
         <v>-10.17039844376482</v>
@@ -10450,13 +10450,13 @@
         <v>-1545.514383929797</v>
       </c>
       <c r="L18" t="n">
-        <v>28990.14110344498</v>
+        <v>24968.0245102614</v>
       </c>
       <c r="M18" t="n">
-        <v>29304.78012600241</v>
+        <v>30024.05311292706</v>
       </c>
       <c r="N18" t="n">
-        <v>16731.62475658207</v>
+        <v>26756.52220722286</v>
       </c>
       <c r="O18" t="n">
         <v>798.1326687205433</v>
@@ -10468,13 +10468,13 @@
         <v>678.2426655851268</v>
       </c>
       <c r="R18" t="n">
-        <v>-14808.42612530788</v>
+        <v>-17747.06735688978</v>
       </c>
       <c r="S18" t="n">
+        <v>-14276.46317676423</v>
+      </c>
+      <c r="T18" t="n">
         <v>-40280.16015625</v>
-      </c>
-      <c r="T18" t="n">
-        <v>-27557.02668617107</v>
       </c>
       <c r="U18" t="n">
         <v>-19984.17650000004</v>
@@ -10497,16 +10497,16 @@
         <v>28411.34357446764</v>
       </c>
       <c r="F19" t="n">
+        <v>10622.04265459048</v>
+      </c>
+      <c r="G19" t="n">
         <v>47345.53150540103</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>22970.98989501474</v>
       </c>
-      <c r="H19" t="n">
-        <v>8421.41994238663</v>
-      </c>
       <c r="I19" t="n">
-        <v>29631.31733984906</v>
+        <v>30284.88518313128</v>
       </c>
       <c r="J19" t="n">
         <v>13.47062639192213</v>
@@ -10515,13 +10515,13 @@
         <v>1463.170347735893</v>
       </c>
       <c r="L19" t="n">
-        <v>30197.80049934683</v>
+        <v>23620.76075488477</v>
       </c>
       <c r="M19" t="n">
-        <v>28955.32742125092</v>
+        <v>30612.71042779086</v>
       </c>
       <c r="N19" t="n">
-        <v>13822.40333691611</v>
+        <v>23970.60282109602</v>
       </c>
       <c r="O19" t="n">
         <v>845.9161908612255</v>
@@ -10533,13 +10533,13 @@
         <v>8425.754924780791</v>
       </c>
       <c r="R19" t="n">
-        <v>10843.50822605003</v>
+        <v>22740.67402745878</v>
       </c>
       <c r="S19" t="n">
+        <v>11390.74558516894</v>
+      </c>
+      <c r="T19" t="n">
         <v>26833.23046875</v>
-      </c>
-      <c r="T19" t="n">
-        <v>20142.43510017704</v>
       </c>
       <c r="U19" t="n">
         <v>20413.39255000002</v>
@@ -10562,16 +10562,16 @@
         <v>41132.29552720401</v>
       </c>
       <c r="F20" t="n">
+        <v>9847.592035234047</v>
+      </c>
+      <c r="G20" t="n">
         <v>47687.39650767605</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>9566.629226668178</v>
       </c>
-      <c r="H20" t="n">
-        <v>6533.678922123213</v>
-      </c>
       <c r="I20" t="n">
-        <v>37661.06818785256</v>
+        <v>40809.95549176837</v>
       </c>
       <c r="J20" t="n">
         <v>5.900659499826172</v>
@@ -10580,13 +10580,13 @@
         <v>498.1813245916318</v>
       </c>
       <c r="L20" t="n">
-        <v>28840.77569055854</v>
+        <v>57446.93646853861</v>
       </c>
       <c r="M20" t="n">
-        <v>26441.06949867605</v>
+        <v>31919.50601903943</v>
       </c>
       <c r="N20" t="n">
-        <v>35984.96092654017</v>
+        <v>27091.46205952315</v>
       </c>
       <c r="O20" t="n">
         <v>822.9717482486531</v>
@@ -10598,13 +10598,13 @@
         <v>18634.29352125815</v>
       </c>
       <c r="R20" t="n">
-        <v>5666.273165178936</v>
+        <v>10460.03609430806</v>
       </c>
       <c r="S20" t="n">
+        <v>6062.402350142178</v>
+      </c>
+      <c r="T20" t="n">
         <v>15552.7724609375</v>
-      </c>
-      <c r="T20" t="n">
-        <v>11410.99030203707</v>
       </c>
       <c r="U20" t="n">
         <v>9105.891499999983</v>
@@ -10627,16 +10627,16 @@
         <v>48741.31150884127</v>
       </c>
       <c r="F21" t="n">
+        <v>-12102.12895721911</v>
+      </c>
+      <c r="G21" t="n">
         <v>48029.26150995107</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>-24524.92360709046</v>
       </c>
-      <c r="H21" t="n">
-        <v>-12120.86999748104</v>
-      </c>
       <c r="I21" t="n">
-        <v>41916.64631703641</v>
+        <v>41817.56216898687</v>
       </c>
       <c r="J21" t="n">
         <v>5.604278673204378</v>
@@ -10645,13 +10645,13 @@
         <v>474.0130184743061</v>
       </c>
       <c r="L21" t="n">
-        <v>29068.75397678612</v>
+        <v>39140.1650241792</v>
       </c>
       <c r="M21" t="n">
-        <v>27110.76803100555</v>
+        <v>29337.98232852219</v>
       </c>
       <c r="N21" t="n">
-        <v>38882.63023007957</v>
+        <v>25791.33170077352</v>
       </c>
       <c r="O21" t="n">
         <v>819.554635025198</v>
@@ -10663,13 +10663,13 @@
         <v>39824.04948586888</v>
       </c>
       <c r="R21" t="n">
-        <v>-4688.049906923281</v>
+        <v>-7096.994142263814</v>
       </c>
       <c r="S21" t="n">
+        <v>-4593.63254176074</v>
+      </c>
+      <c r="T21" t="n">
         <v>-11073.078125</v>
-      </c>
-      <c r="T21" t="n">
-        <v>-8949.939574354263</v>
       </c>
       <c r="U21" t="n">
         <v>9193.818949999968</v>
@@ -10692,16 +10692,16 @@
         <v>42178.83676329079</v>
       </c>
       <c r="F22" t="n">
+        <v>5204.665885120575</v>
+      </c>
+      <c r="G22" t="n">
         <v>48371.12651222609</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>5117.630475184883</v>
       </c>
-      <c r="H22" t="n">
-        <v>6990.434081132695</v>
-      </c>
       <c r="I22" t="n">
-        <v>35669.53143428692</v>
+        <v>37626.90691692166</v>
       </c>
       <c r="J22" t="n">
         <v>-3.605763338598845</v>
@@ -10710,13 +10710,13 @@
         <v>37.80367982688841</v>
       </c>
       <c r="L22" t="n">
-        <v>31498.10249498485</v>
+        <v>40576.05698318032</v>
       </c>
       <c r="M22" t="n">
-        <v>28583.74945020227</v>
+        <v>32903.83086008279</v>
       </c>
       <c r="N22" t="n">
-        <v>25681.66049678697</v>
+        <v>27942.62845978884</v>
       </c>
       <c r="O22" t="n">
         <v>815.2670216485263</v>
@@ -10728,13 +10728,13 @@
         <v>20188.86618619563</v>
       </c>
       <c r="R22" t="n">
-        <v>2448.10220702269</v>
+        <v>5038.721252261324</v>
       </c>
       <c r="S22" t="n">
+        <v>2317.986582831885</v>
+      </c>
+      <c r="T22" t="n">
         <v>1702.97802734375</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4166.117565578415</v>
       </c>
       <c r="U22" t="n">
         <v>3737.835950000011</v>
@@ -10757,16 +10757,16 @@
         <v>47441.69256568105</v>
       </c>
       <c r="F23" t="n">
+        <v>9830.908639262549</v>
+      </c>
+      <c r="G23" t="n">
         <v>48712.99151450111</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>20588.24007449641</v>
       </c>
-      <c r="H23" t="n">
-        <v>7914.293675577418</v>
-      </c>
       <c r="I23" t="n">
-        <v>32797.02054687175</v>
+        <v>34550.56172955265</v>
       </c>
       <c r="J23" t="n">
         <v>11.3119605370931</v>
@@ -10775,13 +10775,13 @@
         <v>875.1502950785473</v>
       </c>
       <c r="L23" t="n">
-        <v>32820.58061229435</v>
+        <v>36218.88611310421</v>
       </c>
       <c r="M23" t="n">
-        <v>28653.18928539751</v>
+        <v>32067.98146287499</v>
       </c>
       <c r="N23" t="n">
-        <v>18877.12559215351</v>
+        <v>26092.35737531333</v>
       </c>
       <c r="O23" t="n">
         <v>828.8549900836035</v>
@@ -10793,13 +10793,13 @@
         <v>19455.48857899239</v>
       </c>
       <c r="R23" t="n">
-        <v>9731.897914169003</v>
+        <v>14170.26902466053</v>
       </c>
       <c r="S23" t="n">
+        <v>9669.878084504329</v>
+      </c>
+      <c r="T23" t="n">
         <v>30820.853515625</v>
-      </c>
-      <c r="T23" t="n">
-        <v>18395.69670411571</v>
       </c>
       <c r="U23" t="n">
         <v>13889.33399999997</v>
@@ -10822,16 +10822,16 @@
         <v>39685.10270033492</v>
       </c>
       <c r="F24" t="n">
+        <v>4130.185725950482</v>
+      </c>
+      <c r="G24" t="n">
         <v>49054.85651677613</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>-5448.955372074694</v>
       </c>
-      <c r="H24" t="n">
-        <v>4322.973968228501</v>
-      </c>
       <c r="I24" t="n">
-        <v>32230.25902433039</v>
+        <v>33019.97782932387</v>
       </c>
       <c r="J24" t="n">
         <v>-7.28552406985662</v>
@@ -10840,13 +10840,13 @@
         <v>-369.9595893339925</v>
       </c>
       <c r="L24" t="n">
-        <v>30771.29019881485</v>
+        <v>23671.11711086033</v>
       </c>
       <c r="M24" t="n">
-        <v>28162.21878771184</v>
+        <v>29711.664440684</v>
       </c>
       <c r="N24" t="n">
-        <v>16433.01153386234</v>
+        <v>28301.48940879254</v>
       </c>
       <c r="O24" t="n">
         <v>809.2751415578878</v>
@@ -10858,13 +10858,13 @@
         <v>18667.95332356995</v>
       </c>
       <c r="R24" t="n">
-        <v>-3461.041243395704</v>
+        <v>-13430.79922939737</v>
       </c>
       <c r="S24" t="n">
+        <v>-3324.95022892082</v>
+      </c>
+      <c r="T24" t="n">
         <v>-17629.044921875</v>
-      </c>
-      <c r="T24" t="n">
-        <v>-15655.09671853756</v>
       </c>
       <c r="U24" t="n">
         <v>-2374.699000000058</v>
@@ -10887,16 +10887,16 @@
         <v>16423.19336630698</v>
       </c>
       <c r="F25" t="n">
+        <v>-21309.03602377552</v>
+      </c>
+      <c r="G25" t="n">
         <v>49396.72151905115</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>-31402.02732918993</v>
       </c>
-      <c r="H25" t="n">
-        <v>-19148.60924413103</v>
-      </c>
       <c r="I25" t="n">
-        <v>24434.58068034128</v>
+        <v>25083.22677625293</v>
       </c>
       <c r="J25" t="n">
         <v>-8.403860194842444</v>
@@ -10905,13 +10905,13 @@
         <v>-1441.3508667432</v>
       </c>
       <c r="L25" t="n">
-        <v>33238.12230636029</v>
+        <v>22554.99421030282</v>
       </c>
       <c r="M25" t="n">
-        <v>28322.84230909197</v>
+        <v>29240.46396977155</v>
       </c>
       <c r="N25" t="n">
-        <v>12044.35403553508</v>
+        <v>26999.02923820613</v>
       </c>
       <c r="O25" t="n">
         <v>798.3155201069316</v>
@@ -10923,13 +10923,13 @@
         <v>1886.420982572385</v>
       </c>
       <c r="R25" t="n">
-        <v>-12962.82886831811</v>
+        <v>-19064.7832824891</v>
       </c>
       <c r="S25" t="n">
+        <v>-12954.78667230872</v>
+      </c>
+      <c r="T25" t="n">
         <v>-18534.232421875</v>
-      </c>
-      <c r="T25" t="n">
-        <v>-23679.93577488429</v>
       </c>
       <c r="U25" t="n">
         <v>-27064.32700000001</v>
@@ -10952,16 +10952,16 @@
         <v>29379.83149142638</v>
       </c>
       <c r="F26" t="n">
+        <v>9952.063443156943</v>
+      </c>
+      <c r="G26" t="n">
         <v>49738.58652132617</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>19101.11648573785</v>
       </c>
-      <c r="H26" t="n">
-        <v>7198.399763257257</v>
-      </c>
       <c r="I26" t="n">
-        <v>30508.39597918464</v>
+        <v>31737.35990318416</v>
       </c>
       <c r="J26" t="n">
         <v>12.16811613007929</v>
@@ -10970,13 +10970,13 @@
         <v>1317.010628736256</v>
       </c>
       <c r="L26" t="n">
-        <v>32040.94865295438</v>
+        <v>23964.9181437835</v>
       </c>
       <c r="M26" t="n">
-        <v>27823.28043160437</v>
+        <v>30480.42288529871</v>
       </c>
       <c r="N26" t="n">
-        <v>12916.01515165827</v>
+        <v>28166.61459913103</v>
       </c>
       <c r="O26" t="n">
         <v>842.0676621988562</v>
@@ -10988,13 +10988,13 @@
         <v>9633.933241768049</v>
       </c>
       <c r="R26" t="n">
-        <v>9740.606991251745</v>
+        <v>19908.0984770355</v>
       </c>
       <c r="S26" t="n">
+        <v>10037.98561557624</v>
+      </c>
+      <c r="T26" t="n">
         <v>23139.029296875</v>
-      </c>
-      <c r="T26" t="n">
-        <v>21310.4956274544</v>
       </c>
       <c r="U26" t="n">
         <v>19296.26755000002</v>
@@ -11017,16 +11017,16 @@
         <v>42100.78344420128</v>
       </c>
       <c r="F27" t="n">
+        <v>9982.942920755302</v>
+      </c>
+      <c r="G27" t="n">
         <v>50080.45152360119</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>15952.68110171532</v>
       </c>
-      <c r="H27" t="n">
-        <v>7016.77750357177</v>
-      </c>
       <c r="I27" t="n">
-        <v>39279.05270286679</v>
+        <v>38777.56030769247</v>
       </c>
       <c r="J27" t="n">
         <v>4.324484282609002</v>
@@ -11035,13 +11035,13 @@
         <v>421.2430657276935</v>
       </c>
       <c r="L27" t="n">
-        <v>27534.64757609813</v>
+        <v>33639.83526516406</v>
       </c>
       <c r="M27" t="n">
-        <v>26394.58609730227</v>
+        <v>33384.81463363318</v>
       </c>
       <c r="N27" t="n">
-        <v>42917.09196538327</v>
+        <v>25809.7365785919</v>
       </c>
       <c r="O27" t="n">
         <v>822.123123589618</v>
@@ -11053,13 +11053,13 @@
         <v>19842.47183824541</v>
       </c>
       <c r="R27" t="n">
-        <v>5598.488099258368</v>
+        <v>13440.46725735032</v>
       </c>
       <c r="S27" t="n">
+        <v>6367.316233457698</v>
+      </c>
+      <c r="T27" t="n">
         <v>7660.5478515625</v>
-      </c>
-      <c r="T27" t="n">
-        <v>9291.01067350654</v>
       </c>
       <c r="U27" t="n">
         <v>10388.88049999997</v>
@@ -11082,16 +11082,16 @@
         <v>49709.7994258372</v>
       </c>
       <c r="F28" t="n">
+        <v>-11914.54661492839</v>
+      </c>
+      <c r="G28" t="n">
         <v>50422.31652587621</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>-21349.7722409592</v>
       </c>
-      <c r="H28" t="n">
-        <v>-12056.64454186995</v>
-      </c>
       <c r="I28" t="n">
-        <v>42963.70527527936</v>
+        <v>43109.10218108332</v>
       </c>
       <c r="J28" t="n">
         <v>7.98851136737535</v>
@@ -11100,13 +11100,13 @@
         <v>602.8368673636555</v>
       </c>
       <c r="L28" t="n">
-        <v>34218.77920352964</v>
+        <v>40403.43159345684</v>
       </c>
       <c r="M28" t="n">
-        <v>28312.93504647909</v>
+        <v>31985.24930421261</v>
       </c>
       <c r="N28" t="n">
-        <v>35064.16716188638</v>
+        <v>26370.37576065732</v>
       </c>
       <c r="O28" t="n">
         <v>821.2619558434543</v>
@@ -11118,13 +11118,13 @@
         <v>41032.22780285614</v>
       </c>
       <c r="R28" t="n">
-        <v>-3526.451549096771</v>
+        <v>-4680.434642182354</v>
       </c>
       <c r="S28" t="n">
+        <v>-3558.407695290735</v>
+      </c>
+      <c r="T28" t="n">
         <v>-7234.28564453125</v>
-      </c>
-      <c r="T28" t="n">
-        <v>-4697.992947721263</v>
       </c>
       <c r="U28" t="n">
         <v>9396.977449999955</v>
@@ -11147,16 +11147,16 @@
         <v>43147.32468026019</v>
       </c>
       <c r="F29" t="n">
+        <v>5204.665885120575</v>
+      </c>
+      <c r="G29" t="n">
         <v>50764.18152815122</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>7133.905434295478</v>
       </c>
-      <c r="H29" t="n">
-        <v>6990.770905048176</v>
-      </c>
       <c r="I29" t="n">
-        <v>39080.52066449713</v>
+        <v>37777.23012100164</v>
       </c>
       <c r="J29" t="n">
         <v>-4.106898700616095</v>
@@ -11165,13 +11165,13 @@
         <v>18.192367830477</v>
       </c>
       <c r="L29" t="n">
-        <v>33851.24423474071</v>
+        <v>29637.95593250541</v>
       </c>
       <c r="M29" t="n">
-        <v>27443.43210530428</v>
+        <v>35400.68670925198</v>
       </c>
       <c r="N29" t="n">
-        <v>41793.87156164495</v>
+        <v>27623.58091196863</v>
       </c>
       <c r="O29" t="n">
         <v>813.535389300249</v>
@@ -11183,13 +11183,13 @@
         <v>21397.0445031829</v>
       </c>
       <c r="R29" t="n">
-        <v>2212.904583337761</v>
+        <v>6109.757427288235</v>
       </c>
       <c r="S29" t="n">
+        <v>2170.467798093558</v>
+      </c>
+      <c r="T29" t="n">
         <v>1356.231201171875</v>
-      </c>
-      <c r="T29" t="n">
-        <v>4223.671913027978</v>
       </c>
       <c r="U29" t="n">
         <v>-232.4560000000141</v>
@@ -11212,16 +11212,16 @@
         <v>48410.18048266041</v>
       </c>
       <c r="F30" t="n">
+        <v>9802.041017706828</v>
+      </c>
+      <c r="G30" t="n">
         <v>51106.04653042625</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>20407.09042872198</v>
       </c>
-      <c r="H30" t="n">
-        <v>7077.222922508689</v>
-      </c>
       <c r="I30" t="n">
-        <v>33756.91108753198</v>
+        <v>34287.51798585999</v>
       </c>
       <c r="J30" t="n">
         <v>9.274774405222038</v>
@@ -11230,13 +11230,13 @@
         <v>725.1710182481579</v>
       </c>
       <c r="L30" t="n">
-        <v>31477.05154847054</v>
+        <v>24052.54989991708</v>
       </c>
       <c r="M30" t="n">
-        <v>26192.98109035938</v>
+        <v>35278.3954262778</v>
       </c>
       <c r="N30" t="n">
-        <v>24166.5597030267</v>
+        <v>26750.50220228581</v>
       </c>
       <c r="O30" t="n">
         <v>826.7591227512129</v>
@@ -11248,13 +11248,13 @@
         <v>20663.66689597965</v>
       </c>
       <c r="R30" t="n">
-        <v>8887.541681782815</v>
+        <v>14732.76837091554</v>
       </c>
       <c r="S30" t="n">
+        <v>9314.666241787638</v>
+      </c>
+      <c r="T30" t="n">
         <v>29076.970703125</v>
-      </c>
-      <c r="T30" t="n">
-        <v>14178.26348440327</v>
       </c>
       <c r="U30" t="n">
         <v>12434.69749999998</v>
@@ -11277,16 +11277,16 @@
         <v>40653.59061733034</v>
       </c>
       <c r="F31" t="n">
+        <v>3734.891157476864</v>
+      </c>
+      <c r="G31" t="n">
         <v>51447.91153270127</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>-8370.699624495779</v>
       </c>
-      <c r="H31" t="n">
-        <v>4418.584508574714</v>
-      </c>
       <c r="I31" t="n">
-        <v>33454.88237777688</v>
+        <v>35882.62398533886</v>
       </c>
       <c r="J31" t="n">
         <v>-4.78871999658485</v>
@@ -11295,13 +11295,13 @@
         <v>-264.5597914918802</v>
       </c>
       <c r="L31" t="n">
-        <v>34325.49602811335</v>
+        <v>33802.82038298992</v>
       </c>
       <c r="M31" t="n">
-        <v>27946.29322520195</v>
+        <v>34728.99528194068</v>
       </c>
       <c r="N31" t="n">
-        <v>14600.06147203966</v>
+        <v>27761.96792092024</v>
       </c>
       <c r="O31" t="n">
         <v>810.7585375980128</v>
@@ -11313,13 +11313,13 @@
         <v>19876.13164055721</v>
       </c>
       <c r="R31" t="n">
-        <v>-3153.71585790884</v>
+        <v>-17989.28957697915</v>
       </c>
       <c r="S31" t="n">
+        <v>-3764.031626910976</v>
+      </c>
+      <c r="T31" t="n">
         <v>-19374.58984375</v>
-      </c>
-      <c r="T31" t="n">
-        <v>-11864.26332443548</v>
       </c>
       <c r="U31" t="n">
         <v>1826.176999999946</v>
@@ -11372,19 +11372,19 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>hwes</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>lightgbm</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>rf</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>avg_lvl_models</t>
@@ -11402,19 +11402,19 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lstm_regularized</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>simple_rnn</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
@@ -11432,17 +11432,17 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>weighted_differenced_models</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -11468,16 +11468,16 @@
         <v>44536.22881471434</v>
       </c>
       <c r="F2" t="n">
+        <v>72741.93888375002</v>
+      </c>
+      <c r="G2" t="n">
         <v>41533.82646672569</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>84700.84847235667</v>
       </c>
-      <c r="H2" t="n">
-        <v>72535.02351464728</v>
-      </c>
       <c r="I2" t="n">
-        <v>31067.00997082925</v>
+        <v>32590.77922206818</v>
       </c>
       <c r="J2" t="n">
         <v>63796.60674259328</v>
@@ -11486,13 +11486,13 @@
         <v>64864.29797424785</v>
       </c>
       <c r="L2" t="n">
-        <v>27294.69284921436</v>
+        <v>30659.47830141483</v>
       </c>
       <c r="M2" t="n">
-        <v>28402.56446528582</v>
+        <v>34801.57861496208</v>
       </c>
       <c r="N2" t="n">
-        <v>20982.88454191162</v>
+        <v>23409.2389499463</v>
       </c>
       <c r="O2" t="n">
         <v>64617.27997616204</v>
@@ -11504,13 +11504,13 @@
         <v>15806.3609825745</v>
       </c>
       <c r="R2" t="n">
-        <v>7600.143748006443</v>
+        <v>78583.21776009738</v>
       </c>
       <c r="S2" t="n">
+        <v>7382.870136068413</v>
+      </c>
+      <c r="T2" t="n">
         <v>71600.85687499962</v>
-      </c>
-      <c r="T2" t="n">
-        <v>82289.87452817726</v>
       </c>
       <c r="U2" t="n">
         <v>79470.63449999959</v>
@@ -11533,16 +11533,16 @@
         <v>36779.63894938694</v>
       </c>
       <c r="F3" t="n">
+        <v>75326.54044962279</v>
+      </c>
+      <c r="G3" t="n">
         <v>41875.6914690007</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>76232.05967562385</v>
       </c>
-      <c r="H3" t="n">
-        <v>76252.00008444759</v>
-      </c>
       <c r="I3" t="n">
-        <v>30056.10919651264</v>
+        <v>32143.04679074809</v>
       </c>
       <c r="J3" t="n">
         <v>63787.75582754576</v>
@@ -11551,13 +11551,13 @@
         <v>64410.86087013247</v>
       </c>
       <c r="L3" t="n">
-        <v>28656.9462261766</v>
+        <v>28183.08856195508</v>
       </c>
       <c r="M3" t="n">
-        <v>25468.51131986974</v>
+        <v>29468.08944683967</v>
       </c>
       <c r="N3" t="n">
-        <v>12177.97176391221</v>
+        <v>25347.75205504744</v>
       </c>
       <c r="O3" t="n">
         <v>65424.71337109948</v>
@@ -11569,13 +11569,13 @@
         <v>15043.59461030478</v>
       </c>
       <c r="R3" t="n">
-        <v>-1852.451875759688</v>
+        <v>54837.38993867322</v>
       </c>
       <c r="S3" t="n">
+        <v>-3073.594941943495</v>
+      </c>
+      <c r="T3" t="n">
         <v>73921.85736328087</v>
-      </c>
-      <c r="T3" t="n">
-        <v>71082.33112359504</v>
       </c>
       <c r="U3" t="n">
         <v>73710.62949999953</v>
@@ -11598,16 +11598,16 @@
         <v>13517.72961537878</v>
       </c>
       <c r="F4" t="n">
+        <v>45973.20644793252</v>
+      </c>
+      <c r="G4" t="n">
         <v>42217.55647127573</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>38811.90235130258</v>
       </c>
-      <c r="H4" t="n">
-        <v>49406.96962596061</v>
-      </c>
       <c r="I4" t="n">
-        <v>22687.8955767287</v>
+        <v>21771.28650416175</v>
       </c>
       <c r="J4" t="n">
         <v>63774.57542349817</v>
@@ -11616,13 +11616,13 @@
         <v>62551.00393511124</v>
       </c>
       <c r="L4" t="n">
-        <v>29605.16375144123</v>
+        <v>4148.61178800035</v>
       </c>
       <c r="M4" t="n">
-        <v>27108.94995137303</v>
+        <v>27928.90704410075</v>
       </c>
       <c r="N4" t="n">
-        <v>10754.71974927931</v>
+        <v>28058.44203945695</v>
       </c>
       <c r="O4" t="n">
         <v>66218.01642649315</v>
@@ -11634,13 +11634,13 @@
         <v>-1738.11523135746</v>
       </c>
       <c r="R4" t="n">
-        <v>-14821.85385511159</v>
+        <v>39294.5186037041</v>
       </c>
       <c r="S4" t="n">
+        <v>-15393.55504050872</v>
+      </c>
+      <c r="T4" t="n">
         <v>40084.19720703087</v>
-      </c>
-      <c r="T4" t="n">
-        <v>57713.73964519538</v>
       </c>
       <c r="U4" t="n">
         <v>51627.23749999949</v>
@@ -11663,16 +11663,16 @@
         <v>26474.36774046811</v>
       </c>
       <c r="F5" t="n">
+        <v>56218.59096780719</v>
+      </c>
+      <c r="G5" t="n">
         <v>42559.42147355075</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>58618.55131857761</v>
       </c>
-      <c r="H5" t="n">
-        <v>58576.19290240011</v>
-      </c>
       <c r="I5" t="n">
-        <v>28213.20336615425</v>
+        <v>30386.35025594542</v>
       </c>
       <c r="J5" t="n">
         <v>63788.73039037533</v>
@@ -11681,13 +11681,13 @@
         <v>64146.22689164715</v>
       </c>
       <c r="L5" t="n">
-        <v>24862.70144078059</v>
+        <v>26356.15214814766</v>
       </c>
       <c r="M5" t="n">
-        <v>26214.66613982244</v>
+        <v>31303.66968505381</v>
       </c>
       <c r="N5" t="n">
-        <v>13888.22767284214</v>
+        <v>24690.94853857307</v>
       </c>
       <c r="O5" t="n">
         <v>67067.56082472758</v>
@@ -11699,13 +11699,13 @@
         <v>6009.39829985704</v>
       </c>
       <c r="R5" t="n">
-        <v>10735.48370213749</v>
+        <v>63590.50776054556</v>
       </c>
       <c r="S5" t="n">
+        <v>10827.47701713914</v>
+      </c>
+      <c r="T5" t="n">
         <v>65505.01166015587</v>
-      </c>
-      <c r="T5" t="n">
-        <v>83495.295957672</v>
       </c>
       <c r="U5" t="n">
         <v>71260.49054999952</v>
@@ -11728,16 +11728,16 @@
         <v>39195.31969326003</v>
       </c>
       <c r="F6" t="n">
+        <v>66353.92871834431</v>
+      </c>
+      <c r="G6" t="n">
         <v>42901.28647582576</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>81055.94439838878</v>
       </c>
-      <c r="H6" t="n">
-        <v>67776.81143719822</v>
-      </c>
       <c r="I6" t="n">
-        <v>37773.83044247103</v>
+        <v>36279.69179697378</v>
       </c>
       <c r="J6" t="n">
         <v>63798.61420587061</v>
@@ -11746,13 +11746,13 @@
         <v>64931.93719259054</v>
       </c>
       <c r="L6" t="n">
-        <v>32836.72719364611</v>
+        <v>33276.50540014057</v>
       </c>
       <c r="M6" t="n">
-        <v>27246.09100365339</v>
+        <v>30371.7926272556</v>
       </c>
       <c r="N6" t="n">
-        <v>40297.04850726722</v>
+        <v>24778.45951319261</v>
       </c>
       <c r="O6" t="n">
         <v>67894.88377470123</v>
@@ -11764,13 +11764,13 @@
         <v>16217.93688721876</v>
       </c>
       <c r="R6" t="n">
-        <v>8994.708378098085</v>
+        <v>77826.6092184336</v>
       </c>
       <c r="S6" t="n">
+        <v>9159.204775627608</v>
+      </c>
+      <c r="T6" t="n">
         <v>91364.69916015587</v>
-      </c>
-      <c r="T6" t="n">
-        <v>97593.68302805067</v>
       </c>
       <c r="U6" t="n">
         <v>82545.71554999951</v>
@@ -11793,16 +11793,16 @@
         <v>46804.3356748559</v>
       </c>
       <c r="F7" t="n">
+        <v>55349.14150514906</v>
+      </c>
+      <c r="G7" t="n">
         <v>43243.15147810079</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>56061.57729637897</v>
       </c>
-      <c r="H7" t="n">
-        <v>55820.85956227452</v>
-      </c>
       <c r="I7" t="n">
-        <v>39780.05697196366</v>
+        <v>39025.66119752282</v>
       </c>
       <c r="J7" t="n">
         <v>63800.64077549941</v>
@@ -11811,13 +11811,13 @@
         <v>65225.86018600363</v>
       </c>
       <c r="L7" t="n">
-        <v>35784.27926248757</v>
+        <v>27602.93045152722</v>
       </c>
       <c r="M7" t="n">
-        <v>24753.19551676063</v>
+        <v>32149.79504633842</v>
       </c>
       <c r="N7" t="n">
-        <v>28588.73963380901</v>
+        <v>23338.32271966486</v>
       </c>
       <c r="O7" t="n">
         <v>68711.24087675588</v>
@@ -11829,13 +11829,13 @@
         <v>37407.69285189482</v>
       </c>
       <c r="R7" t="n">
-        <v>-5150.787876306385</v>
+        <v>72594.65600273084</v>
       </c>
       <c r="S7" t="n">
+        <v>-4960.549772455483</v>
+      </c>
+      <c r="T7" t="n">
         <v>73648.74994140587</v>
-      </c>
-      <c r="T7" t="n">
-        <v>91070.6171912076</v>
       </c>
       <c r="U7" t="n">
         <v>93745.33649999948</v>
@@ -11858,16 +11858,16 @@
         <v>40241.86092930887</v>
       </c>
       <c r="F8" t="n">
+        <v>60317.85698577027</v>
+      </c>
+      <c r="G8" t="n">
         <v>43585.01648037581</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>60516.4701166325</v>
       </c>
-      <c r="H8" t="n">
-        <v>62535.84030835404</v>
-      </c>
       <c r="I8" t="n">
-        <v>34569.31785914589</v>
+        <v>35293.01486633017</v>
       </c>
       <c r="J8" t="n">
         <v>63795.866835713</v>
@@ -11876,13 +11876,13 @@
         <v>65212.92399259502</v>
       </c>
       <c r="L8" t="n">
-        <v>30790.94262253491</v>
+        <v>34954.46576252131</v>
       </c>
       <c r="M8" t="n">
-        <v>25591.6591980554</v>
+        <v>27955.89853402971</v>
       </c>
       <c r="N8" t="n">
-        <v>27072.01305730043</v>
+        <v>26333.82663881405</v>
       </c>
       <c r="O8" t="n">
         <v>69525.54587848079</v>
@@ -11894,13 +11894,13 @@
         <v>17772.5095522211</v>
       </c>
       <c r="R8" t="n">
-        <v>2744.104498224672</v>
+        <v>78713.51389615114</v>
       </c>
       <c r="S8" t="n">
+        <v>3078.249316343006</v>
+      </c>
+      <c r="T8" t="n">
         <v>81922.21087890587</v>
-      </c>
-      <c r="T8" t="n">
-        <v>90468.5504042934</v>
       </c>
       <c r="U8" t="n">
         <v>97608.71249999948</v>
@@ -11923,16 +11923,16 @@
         <v>45504.71673172074</v>
       </c>
       <c r="F9" t="n">
+        <v>69785.54811107188</v>
+      </c>
+      <c r="G9" t="n">
         <v>43926.88148265082</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>78998.55265080868</v>
       </c>
-      <c r="H9" t="n">
-        <v>71970.50552756207</v>
-      </c>
       <c r="I9" t="n">
-        <v>32293.5109553683</v>
+        <v>31789.17741346056</v>
       </c>
       <c r="J9" t="n">
         <v>63809.37399038506</v>
@@ -11941,13 +11941,13 @@
         <v>66278.69146835856</v>
       </c>
       <c r="L9" t="n">
-        <v>31568.84867760835</v>
+        <v>32195.52038478849</v>
       </c>
       <c r="M9" t="n">
-        <v>25392.56517522036</v>
+        <v>27339.56318168341</v>
       </c>
       <c r="N9" t="n">
-        <v>29855.66779003887</v>
+        <v>23247.32974113374</v>
       </c>
       <c r="O9" t="n">
         <v>70358.39010854372</v>
@@ -11959,13 +11959,13 @@
         <v>17039.13194501787</v>
       </c>
       <c r="R9" t="n">
-        <v>8368.749343447733</v>
+        <v>95731.08009147528</v>
       </c>
       <c r="S9" t="n">
+        <v>8000.654143425276</v>
+      </c>
+      <c r="T9" t="n">
         <v>93242.91400390587</v>
-      </c>
-      <c r="T9" t="n">
-        <v>112919.6163866112</v>
       </c>
       <c r="U9" t="n">
         <v>113296.0369999995</v>
@@ -11988,16 +11988,16 @@
         <v>37748.12686638235</v>
       </c>
       <c r="F10" t="n">
+        <v>73739.4651564332</v>
+      </c>
+      <c r="G10" t="n">
         <v>44268.74648492585</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>75883.55852658355</v>
       </c>
-      <c r="H10" t="n">
-        <v>76281.44830326794</v>
-      </c>
       <c r="I10" t="n">
-        <v>29297.14874458905</v>
+        <v>29052.75584336196</v>
       </c>
       <c r="J10" t="n">
         <v>63799.71734048978</v>
@@ -12006,13 +12006,13 @@
         <v>65789.00158944007</v>
       </c>
       <c r="L10" t="n">
-        <v>29231.61195617614</v>
+        <v>6369.473136801083</v>
       </c>
       <c r="M10" t="n">
-        <v>24817.7532360196</v>
+        <v>29053.27487222253</v>
       </c>
       <c r="N10" t="n">
-        <v>7539.484060697253</v>
+        <v>24210.95803405268</v>
       </c>
       <c r="O10" t="n">
         <v>71166.29970627687</v>
@@ -12024,13 +12024,13 @@
         <v>16251.59668959543</v>
       </c>
       <c r="R10" t="n">
-        <v>-758.0487648589663</v>
+        <v>83745.67863620016</v>
       </c>
       <c r="S10" t="n">
+        <v>-810.052077296561</v>
+      </c>
+      <c r="T10" t="n">
         <v>100540.6908593746</v>
-      </c>
-      <c r="T10" t="n">
-        <v>100560.0987206311</v>
       </c>
       <c r="U10" t="n">
         <v>108968.2709999994</v>
@@ -12053,16 +12053,16 @@
         <v>14486.21753235485</v>
       </c>
       <c r="F11" t="n">
+        <v>50138.39175162252</v>
+      </c>
+      <c r="G11" t="n">
         <v>44610.61148720087</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>45712.80184831</v>
       </c>
-      <c r="H11" t="n">
-        <v>54190.71125591948</v>
-      </c>
       <c r="I11" t="n">
-        <v>22941.29441838273</v>
+        <v>22472.01026140987</v>
       </c>
       <c r="J11" t="n">
         <v>63787.40540028453</v>
@@ -12071,13 +12071,13 @@
         <v>64069.44624793545</v>
       </c>
       <c r="L11" t="n">
-        <v>29865.72761877476</v>
+        <v>11318.77021450139</v>
       </c>
       <c r="M11" t="n">
-        <v>25038.88193901627</v>
+        <v>30567.50635692773</v>
       </c>
       <c r="N11" t="n">
-        <v>16396.24945513903</v>
+        <v>25660.30918571799</v>
       </c>
       <c r="O11" t="n">
         <v>71961.85512060751</v>
@@ -12089,13 +12089,13 @@
         <v>-529.9356514021365</v>
       </c>
       <c r="R11" t="n">
-        <v>-14722.45620840374</v>
+        <v>68489.14127131148</v>
       </c>
       <c r="S11" t="n">
+        <v>-14562.87189479171</v>
+      </c>
+      <c r="T11" t="n">
         <v>62387.69085937462</v>
-      </c>
-      <c r="T11" t="n">
-        <v>80160.95638204081</v>
       </c>
       <c r="U11" t="n">
         <v>84647.26849999938</v>
@@ -12118,16 +12118,16 @@
         <v>27442.85565746643</v>
       </c>
       <c r="F12" t="n">
+        <v>60655.03827966646</v>
+      </c>
+      <c r="G12" t="n">
         <v>44952.47648947588</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>64931.59064940813</v>
       </c>
-      <c r="H12" t="n">
-        <v>63161.45352836006</v>
-      </c>
       <c r="I12" t="n">
-        <v>30721.64034833945</v>
+        <v>29176.30762376673</v>
       </c>
       <c r="J12" t="n">
         <v>63801.70231312962</v>
@@ -12136,13 +12136,13 @@
         <v>65651.25148666913</v>
       </c>
       <c r="L12" t="n">
-        <v>31055.62895365058</v>
+        <v>19344.67242226599</v>
       </c>
       <c r="M12" t="n">
-        <v>27657.99728655069</v>
+        <v>29393.37336655704</v>
       </c>
       <c r="N12" t="n">
-        <v>28021.85795454381</v>
+        <v>25634.7766093403</v>
       </c>
       <c r="O12" t="n">
         <v>72809.51122172942</v>
@@ -12154,13 +12154,13 @@
         <v>7217.576607793527</v>
       </c>
       <c r="R12" t="n">
-        <v>11544.25822119439</v>
+        <v>84952.29169723619</v>
       </c>
       <c r="S12" t="n">
+        <v>11294.15662189284</v>
+      </c>
+      <c r="T12" t="n">
         <v>94435.71820312462</v>
-      </c>
-      <c r="T12" t="n">
-        <v>102605.1947770542</v>
       </c>
       <c r="U12" t="n">
         <v>107329.6880499994</v>
@@ -12183,16 +12183,16 @@
         <v>40163.8076102573</v>
       </c>
       <c r="F13" t="n">
+        <v>70053.74315674343</v>
+      </c>
+      <c r="G13" t="n">
         <v>45294.34149175091</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>82828.27978950429</v>
       </c>
-      <c r="H13" t="n">
-        <v>71103.67013385856</v>
-      </c>
       <c r="I13" t="n">
-        <v>36996.17249013769</v>
+        <v>37684.21749606659</v>
       </c>
       <c r="J13" t="n">
         <v>63809.18896594412</v>
@@ -12201,13 +12201,13 @@
         <v>66228.9759038998</v>
       </c>
       <c r="L13" t="n">
-        <v>28434.75273877977</v>
+        <v>46203.63006724563</v>
       </c>
       <c r="M13" t="n">
-        <v>27180.16336774825</v>
+        <v>29872.56766662298</v>
       </c>
       <c r="N13" t="n">
-        <v>39549.04859076438</v>
+        <v>24592.12701085506</v>
       </c>
       <c r="O13" t="n">
         <v>73634.13495214998</v>
@@ -12219,13 +12219,13 @@
         <v>17426.11520427089</v>
       </c>
       <c r="R13" t="n">
-        <v>8426.649183635835</v>
+        <v>107232.9850119365</v>
       </c>
       <c r="S13" t="n">
+        <v>8722.613863150245</v>
+      </c>
+      <c r="T13" t="n">
         <v>117659.7631249996</v>
-      </c>
-      <c r="T13" t="n">
-        <v>124505.4074216536</v>
       </c>
       <c r="U13" t="n">
         <v>117285.4335499994</v>
@@ -12248,16 +12248,16 @@
         <v>47772.82359183375</v>
       </c>
       <c r="F14" t="n">
+        <v>57949.06630606748</v>
+      </c>
+      <c r="G14" t="n">
         <v>45636.20649402593</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>57885.42481479795</v>
       </c>
-      <c r="H14" t="n">
-        <v>58227.87423334278</v>
-      </c>
       <c r="I14" t="n">
-        <v>39419.62639961961</v>
+        <v>39797.48798920588</v>
       </c>
       <c r="J14" t="n">
         <v>63813.80472160877</v>
@@ -12266,13 +12266,13 @@
         <v>66647.97042549694</v>
       </c>
       <c r="L14" t="n">
-        <v>27978.52281868754</v>
+        <v>33206.09295591114</v>
       </c>
       <c r="M14" t="n">
-        <v>27862.1847929716</v>
+        <v>31193.79029187856</v>
       </c>
       <c r="N14" t="n">
-        <v>30242.78207794724</v>
+        <v>24706.49915850683</v>
       </c>
       <c r="O14" t="n">
         <v>74452.63172479862</v>
@@ -12284,13 +12284,13 @@
         <v>38615.87116888162</v>
       </c>
       <c r="R14" t="n">
-        <v>-6559.813953676696</v>
+        <v>90245.85755488272</v>
       </c>
       <c r="S14" t="n">
+        <v>-6876.285706126414</v>
+      </c>
+      <c r="T14" t="n">
         <v>96278.44671874962</v>
-      </c>
-      <c r="T14" t="n">
-        <v>111708.1755201599</v>
       </c>
       <c r="U14" t="n">
         <v>122875.7674999994</v>
@@ -12313,16 +12313,16 @@
         <v>41210.34884627309</v>
       </c>
       <c r="F15" t="n">
+        <v>63165.47668775229</v>
+      </c>
+      <c r="G15" t="n">
         <v>45978.07149630095</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>62699.05462005024</v>
       </c>
-      <c r="H15" t="n">
-        <v>65215.5726712025</v>
-      </c>
       <c r="I15" t="n">
-        <v>33547.21055598707</v>
+        <v>34132.52830171819</v>
       </c>
       <c r="J15" t="n">
         <v>63809.41953732513</v>
@@ -12331,13 +12331,13 @@
         <v>66672.79876876554</v>
       </c>
       <c r="L15" t="n">
-        <v>29953.88223172574</v>
+        <v>20797.41181324645</v>
       </c>
       <c r="M15" t="n">
-        <v>25118.67084288894</v>
+        <v>31284.27471666632</v>
       </c>
       <c r="N15" t="n">
-        <v>19691.41389987319</v>
+        <v>27364.82241042404</v>
       </c>
       <c r="O15" t="n">
         <v>75267.79707949983</v>
@@ -12349,13 +12349,13 @@
         <v>18980.68786920837</v>
       </c>
       <c r="R15" t="n">
-        <v>2838.580007709805</v>
+        <v>95598.95844933092</v>
       </c>
       <c r="S15" t="n">
+        <v>2815.236675803472</v>
+      </c>
+      <c r="T15" t="n">
         <v>101014.7157617184</v>
-      </c>
-      <c r="T15" t="n">
-        <v>114816.954589712</v>
       </c>
       <c r="U15" t="n">
         <v>128326.1444999994</v>
@@ -12378,16 +12378,16 @@
         <v>46473.20464867465</v>
       </c>
       <c r="F16" t="n">
+        <v>72653.99546465006</v>
+      </c>
+      <c r="G16" t="n">
         <v>46319.93649857597</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>81488.69351557556</v>
       </c>
-      <c r="H16" t="n">
-        <v>73892.24848121454</v>
-      </c>
       <c r="I16" t="n">
-        <v>33183.33787783745</v>
+        <v>31615.62183567357</v>
       </c>
       <c r="J16" t="n">
         <v>63821.56680460012</v>
@@ -12396,13 +12396,13 @@
         <v>67608.8884975025</v>
       </c>
       <c r="L16" t="n">
-        <v>34702.10868122129</v>
+        <v>22326.86971487402</v>
       </c>
       <c r="M16" t="n">
-        <v>27562.82145348041</v>
+        <v>31435.83326757102</v>
       </c>
       <c r="N16" t="n">
-        <v>30306.61828658281</v>
+        <v>26267.11710152848</v>
       </c>
       <c r="O16" t="n">
         <v>76098.14590462224</v>
@@ -12414,13 +12414,13 @@
         <v>18247.31026200513</v>
       </c>
       <c r="R16" t="n">
-        <v>8833.863618032618</v>
+        <v>110560.7474900247</v>
       </c>
       <c r="S16" t="n">
+        <v>8496.104640414351</v>
+      </c>
+      <c r="T16" t="n">
         <v>119340.5145898434</v>
-      </c>
-      <c r="T16" t="n">
-        <v>135885.437660234</v>
       </c>
       <c r="U16" t="n">
         <v>144013.4689999994</v>
@@ -12443,16 +12443,16 @@
         <v>38716.61478333698</v>
       </c>
       <c r="F17" t="n">
+        <v>75562.31201368924</v>
+      </c>
+      <c r="G17" t="n">
         <v>46661.80150085099</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>77695.22677342049</v>
       </c>
-      <c r="H17" t="n">
-        <v>77507.49551649728</v>
-      </c>
       <c r="I17" t="n">
-        <v>30491.75649419901</v>
+        <v>32612.73371607344</v>
       </c>
       <c r="J17" t="n">
         <v>63813.32093689858</v>
@@ -12461,13 +12461,13 @@
         <v>67163.58967411934</v>
       </c>
       <c r="L17" t="n">
-        <v>26346.01285788937</v>
+        <v>27435.95636527686</v>
       </c>
       <c r="M17" t="n">
-        <v>26751.76405126153</v>
+        <v>34091.65348153262</v>
       </c>
       <c r="N17" t="n">
-        <v>19065.0981803134</v>
+        <v>27603.08301765023</v>
       </c>
       <c r="O17" t="n">
         <v>76906.43163986722</v>
@@ -12479,13 +12479,13 @@
         <v>17459.77500658269</v>
       </c>
       <c r="R17" t="n">
-        <v>-1545.102817980766</v>
+        <v>97668.8141718338</v>
       </c>
       <c r="S17" t="n">
+        <v>-2068.120154733003</v>
+      </c>
+      <c r="T17" t="n">
         <v>115932.835146484</v>
-      </c>
-      <c r="T17" t="n">
-        <v>128041.0460945312</v>
       </c>
       <c r="U17" t="n">
         <v>139685.7029999993</v>
@@ -12508,16 +12508,16 @@
         <v>15454.7054493309</v>
       </c>
       <c r="F18" t="n">
+        <v>52802.65111267925</v>
+      </c>
+      <c r="G18" t="n">
         <v>47003.66650312601</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>48460.5284647416</v>
       </c>
-      <c r="H18" t="n">
-        <v>56139.40844537185</v>
-      </c>
       <c r="I18" t="n">
-        <v>23578.62593369815</v>
+        <v>24418.88266424589</v>
       </c>
       <c r="J18" t="n">
         <v>63803.15053845482</v>
@@ -12526,13 +12526,13 @@
         <v>65618.07529018955</v>
       </c>
       <c r="L18" t="n">
-        <v>28990.14110344498</v>
+        <v>24968.0245102614</v>
       </c>
       <c r="M18" t="n">
-        <v>29304.78012600241</v>
+        <v>30024.05311292706</v>
       </c>
       <c r="N18" t="n">
-        <v>16731.62475658207</v>
+        <v>26756.52220722286</v>
       </c>
       <c r="O18" t="n">
         <v>77704.56430858777</v>
@@ -12544,13 +12544,13 @@
         <v>678.2426655851268</v>
       </c>
       <c r="R18" t="n">
-        <v>-14808.42612530788</v>
+        <v>79921.74681494402</v>
       </c>
       <c r="S18" t="n">
+        <v>-14276.46317676423</v>
+      </c>
+      <c r="T18" t="n">
         <v>75652.67499023399</v>
-      </c>
-      <c r="T18" t="n">
-        <v>100484.0194083602</v>
       </c>
       <c r="U18" t="n">
         <v>119701.5264999993</v>
@@ -12573,16 +12573,16 @@
         <v>28411.34357446764</v>
       </c>
       <c r="F19" t="n">
+        <v>63424.69376726973</v>
+      </c>
+      <c r="G19" t="n">
         <v>47345.53150540103</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>71431.51835975634</v>
       </c>
-      <c r="H19" t="n">
-        <v>64560.82838775848</v>
-      </c>
       <c r="I19" t="n">
-        <v>29631.31733984906</v>
+        <v>30284.88518313128</v>
       </c>
       <c r="J19" t="n">
         <v>63816.62116484674</v>
@@ -12591,13 +12591,13 @@
         <v>67081.24563792544</v>
       </c>
       <c r="L19" t="n">
-        <v>30197.80049934683</v>
+        <v>23620.76075488477</v>
       </c>
       <c r="M19" t="n">
-        <v>28955.32742125092</v>
+        <v>30612.71042779086</v>
       </c>
       <c r="N19" t="n">
-        <v>13822.40333691611</v>
+        <v>23970.60282109602</v>
       </c>
       <c r="O19" t="n">
         <v>78550.480499449</v>
@@ -12609,13 +12609,13 @@
         <v>8425.754924780791</v>
       </c>
       <c r="R19" t="n">
-        <v>10843.50822605003</v>
+        <v>102662.4208424028</v>
       </c>
       <c r="S19" t="n">
+        <v>11390.74558516894</v>
+      </c>
+      <c r="T19" t="n">
         <v>102485.905458984</v>
-      </c>
-      <c r="T19" t="n">
-        <v>120626.4545085372</v>
       </c>
       <c r="U19" t="n">
         <v>140114.9190499993</v>
@@ -12638,16 +12638,16 @@
         <v>41132.29552720401</v>
       </c>
       <c r="F20" t="n">
+        <v>73272.28580250379</v>
+      </c>
+      <c r="G20" t="n">
         <v>47687.39650767605</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>80998.14758642451</v>
       </c>
-      <c r="H20" t="n">
-        <v>71094.50730988169</v>
-      </c>
       <c r="I20" t="n">
-        <v>37661.06818785256</v>
+        <v>40809.95549176837</v>
       </c>
       <c r="J20" t="n">
         <v>63822.52182434657</v>
@@ -12656,13 +12656,13 @@
         <v>67579.42696251707</v>
       </c>
       <c r="L20" t="n">
-        <v>28840.77569055854</v>
+        <v>57446.93646853861</v>
       </c>
       <c r="M20" t="n">
-        <v>26441.06949867605</v>
+        <v>31919.50601903943</v>
       </c>
       <c r="N20" t="n">
-        <v>35984.96092654017</v>
+        <v>27091.46205952315</v>
       </c>
       <c r="O20" t="n">
         <v>79373.45224769766</v>
@@ -12674,13 +12674,13 @@
         <v>18634.29352125815</v>
       </c>
       <c r="R20" t="n">
-        <v>5666.273165178936</v>
+        <v>113122.4569367109</v>
       </c>
       <c r="S20" t="n">
+        <v>6062.402350142178</v>
+      </c>
+      <c r="T20" t="n">
         <v>118038.6779199215</v>
-      </c>
-      <c r="T20" t="n">
-        <v>132037.4448105743</v>
       </c>
       <c r="U20" t="n">
         <v>149220.8105499992</v>
@@ -12703,16 +12703,16 @@
         <v>48741.31150884127</v>
       </c>
       <c r="F21" t="n">
+        <v>61170.15684528468</v>
+      </c>
+      <c r="G21" t="n">
         <v>48029.26150995107</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>56473.22397933406</v>
       </c>
-      <c r="H21" t="n">
-        <v>58973.63731240066</v>
-      </c>
       <c r="I21" t="n">
-        <v>41916.64631703641</v>
+        <v>41817.56216898687</v>
       </c>
       <c r="J21" t="n">
         <v>63828.12610301978</v>
@@ -12721,13 +12721,13 @@
         <v>68053.43998099137</v>
       </c>
       <c r="L21" t="n">
-        <v>29068.75397678612</v>
+        <v>39140.1650241792</v>
       </c>
       <c r="M21" t="n">
-        <v>27110.76803100555</v>
+        <v>29337.98232852219</v>
       </c>
       <c r="N21" t="n">
-        <v>38882.63023007957</v>
+        <v>25791.33170077352</v>
       </c>
       <c r="O21" t="n">
         <v>80193.00688272285</v>
@@ -12739,13 +12739,13 @@
         <v>39824.04948586888</v>
       </c>
       <c r="R21" t="n">
-        <v>-4688.049906923281</v>
+        <v>106025.4627944471</v>
       </c>
       <c r="S21" t="n">
+        <v>-4593.63254176074</v>
+      </c>
+      <c r="T21" t="n">
         <v>106965.5997949215</v>
-      </c>
-      <c r="T21" t="n">
-        <v>123087.50523622</v>
       </c>
       <c r="U21" t="n">
         <v>158414.6294999992</v>
@@ -12768,16 +12768,16 @@
         <v>42178.83676329079</v>
       </c>
       <c r="F22" t="n">
+        <v>66374.82273040526</v>
+      </c>
+      <c r="G22" t="n">
         <v>48371.12651222609</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>61590.85445451894</v>
       </c>
-      <c r="H22" t="n">
-        <v>65964.07139353335</v>
-      </c>
       <c r="I22" t="n">
-        <v>35669.53143428692</v>
+        <v>37626.90691692166</v>
       </c>
       <c r="J22" t="n">
         <v>63824.52033968118</v>
@@ -12786,13 +12786,13 @@
         <v>68091.24366081826</v>
       </c>
       <c r="L22" t="n">
-        <v>31498.10249498485</v>
+        <v>40576.05698318032</v>
       </c>
       <c r="M22" t="n">
-        <v>28583.74945020227</v>
+        <v>32903.83086008279</v>
       </c>
       <c r="N22" t="n">
-        <v>25681.66049678697</v>
+        <v>27942.62845978884</v>
       </c>
       <c r="O22" t="n">
         <v>81008.27390437138</v>
@@ -12804,13 +12804,13 @@
         <v>20188.86618619563</v>
       </c>
       <c r="R22" t="n">
-        <v>2448.10220702269</v>
+        <v>111064.1840467084</v>
       </c>
       <c r="S22" t="n">
+        <v>2317.986582831885</v>
+      </c>
+      <c r="T22" t="n">
         <v>108668.5778222652</v>
-      </c>
-      <c r="T22" t="n">
-        <v>127253.6228017984</v>
       </c>
       <c r="U22" t="n">
         <v>162152.4654499992</v>
@@ -12833,16 +12833,16 @@
         <v>47441.69256568105</v>
       </c>
       <c r="F23" t="n">
+        <v>76205.7313696678</v>
+      </c>
+      <c r="G23" t="n">
         <v>48712.99151450111</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>82179.09452901535</v>
       </c>
-      <c r="H23" t="n">
-        <v>73878.36506911076</v>
-      </c>
       <c r="I23" t="n">
-        <v>32797.02054687175</v>
+        <v>34550.56172955265</v>
       </c>
       <c r="J23" t="n">
         <v>63835.83230021827</v>
@@ -12851,13 +12851,13 @@
         <v>68966.39395589681</v>
       </c>
       <c r="L23" t="n">
-        <v>32820.58061229435</v>
+        <v>36218.88611310421</v>
       </c>
       <c r="M23" t="n">
-        <v>28653.18928539751</v>
+        <v>32067.98146287499</v>
       </c>
       <c r="N23" t="n">
-        <v>18877.12559215351</v>
+        <v>26092.35737531333</v>
       </c>
       <c r="O23" t="n">
         <v>81837.12889445499</v>
@@ -12869,13 +12869,13 @@
         <v>19455.48857899239</v>
       </c>
       <c r="R23" t="n">
-        <v>9731.897914169003</v>
+        <v>125234.4530713689</v>
       </c>
       <c r="S23" t="n">
+        <v>9669.878084504329</v>
+      </c>
+      <c r="T23" t="n">
         <v>139489.4313378902</v>
-      </c>
-      <c r="T23" t="n">
-        <v>145649.3195059141</v>
       </c>
       <c r="U23" t="n">
         <v>176041.7994499992</v>
@@ -12898,16 +12898,16 @@
         <v>39685.10270033492</v>
       </c>
       <c r="F24" t="n">
+        <v>80335.91709561828</v>
+      </c>
+      <c r="G24" t="n">
         <v>49054.85651677613</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>76730.13915694066</v>
       </c>
-      <c r="H24" t="n">
-        <v>78201.33903733926</v>
-      </c>
       <c r="I24" t="n">
-        <v>32230.25902433039</v>
+        <v>33019.97782932387</v>
       </c>
       <c r="J24" t="n">
         <v>63828.54677614842</v>
@@ -12916,13 +12916,13 @@
         <v>68596.43436656283</v>
       </c>
       <c r="L24" t="n">
-        <v>30771.29019881485</v>
+        <v>23671.11711086033</v>
       </c>
       <c r="M24" t="n">
-        <v>28162.21878771184</v>
+        <v>29711.664440684</v>
       </c>
       <c r="N24" t="n">
-        <v>16433.01153386234</v>
+        <v>28301.48940879254</v>
       </c>
       <c r="O24" t="n">
         <v>82646.40403601287</v>
@@ -12934,13 +12934,13 @@
         <v>18667.95332356995</v>
       </c>
       <c r="R24" t="n">
-        <v>-3461.041243395704</v>
+        <v>111803.6538419716</v>
       </c>
       <c r="S24" t="n">
+        <v>-3324.95022892082</v>
+      </c>
+      <c r="T24" t="n">
         <v>121860.3864160152</v>
-      </c>
-      <c r="T24" t="n">
-        <v>129994.2227873766</v>
       </c>
       <c r="U24" t="n">
         <v>173667.1004499991</v>
@@ -12963,16 +12963,16 @@
         <v>16423.19336630698</v>
       </c>
       <c r="F25" t="n">
+        <v>59026.88107184276</v>
+      </c>
+      <c r="G25" t="n">
         <v>49396.72151905115</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>45328.11182775072</v>
       </c>
-      <c r="H25" t="n">
-        <v>59052.72979320823</v>
-      </c>
       <c r="I25" t="n">
-        <v>24434.58068034128</v>
+        <v>25083.22677625293</v>
       </c>
       <c r="J25" t="n">
         <v>63820.14291595358</v>
@@ -12981,13 +12981,13 @@
         <v>67155.08349981962</v>
       </c>
       <c r="L25" t="n">
-        <v>33238.12230636029</v>
+        <v>22554.99421030282</v>
       </c>
       <c r="M25" t="n">
-        <v>28322.84230909197</v>
+        <v>29240.46396977155</v>
       </c>
       <c r="N25" t="n">
-        <v>12044.35403553508</v>
+        <v>26999.02923820613</v>
       </c>
       <c r="O25" t="n">
         <v>83444.7195561198</v>
@@ -12999,13 +12999,13 @@
         <v>1886.420982572385</v>
       </c>
       <c r="R25" t="n">
-        <v>-12962.82886831811</v>
+        <v>92738.87055948246</v>
       </c>
       <c r="S25" t="n">
+        <v>-12954.78667230872</v>
+      </c>
+      <c r="T25" t="n">
         <v>103326.1539941402</v>
-      </c>
-      <c r="T25" t="n">
-        <v>106314.2870124923</v>
       </c>
       <c r="U25" t="n">
         <v>146602.7734499991</v>
@@ -13028,16 +13028,16 @@
         <v>29379.83149142638</v>
       </c>
       <c r="F26" t="n">
+        <v>68978.9445149997</v>
+      </c>
+      <c r="G26" t="n">
         <v>49738.58652132617</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>64429.22831348857</v>
       </c>
-      <c r="H26" t="n">
-        <v>66251.12955646549</v>
-      </c>
       <c r="I26" t="n">
-        <v>30508.39597918464</v>
+        <v>31737.35990318416</v>
       </c>
       <c r="J26" t="n">
         <v>63832.31103208366</v>
@@ -13046,13 +13046,13 @@
         <v>68472.09412855588</v>
       </c>
       <c r="L26" t="n">
-        <v>32040.94865295438</v>
+        <v>23964.9181437835</v>
       </c>
       <c r="M26" t="n">
-        <v>27823.28043160437</v>
+        <v>30480.42288529871</v>
       </c>
       <c r="N26" t="n">
-        <v>12916.01515165827</v>
+        <v>28166.61459913103</v>
       </c>
       <c r="O26" t="n">
         <v>84286.78721831866</v>
@@ -13064,13 +13064,13 @@
         <v>9633.933241768049</v>
       </c>
       <c r="R26" t="n">
-        <v>9740.606991251745</v>
+        <v>112646.969036518</v>
       </c>
       <c r="S26" t="n">
+        <v>10037.98561557624</v>
+      </c>
+      <c r="T26" t="n">
         <v>126465.1832910152</v>
-      </c>
-      <c r="T26" t="n">
-        <v>127624.7826399467</v>
       </c>
       <c r="U26" t="n">
         <v>165899.0409999991</v>
@@ -13093,16 +13093,16 @@
         <v>42100.78344420128</v>
       </c>
       <c r="F27" t="n">
+        <v>78961.88743575501</v>
+      </c>
+      <c r="G27" t="n">
         <v>50080.45152360119</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>80381.90941520389</v>
       </c>
-      <c r="H27" t="n">
-        <v>73267.90706003725</v>
-      </c>
       <c r="I27" t="n">
-        <v>39279.05270286679</v>
+        <v>38777.56030769247</v>
       </c>
       <c r="J27" t="n">
         <v>63836.63551636627</v>
@@ -13111,13 +13111,13 @@
         <v>68893.33719428358</v>
       </c>
       <c r="L27" t="n">
-        <v>27534.64757609813</v>
+        <v>33639.83526516406</v>
       </c>
       <c r="M27" t="n">
-        <v>26394.58609730227</v>
+        <v>33384.81463363318</v>
       </c>
       <c r="N27" t="n">
-        <v>42917.09196538327</v>
+        <v>25809.7365785919</v>
       </c>
       <c r="O27" t="n">
         <v>85108.91034190827</v>
@@ -13129,13 +13129,13 @@
         <v>19842.47183824541</v>
       </c>
       <c r="R27" t="n">
-        <v>5598.488099258368</v>
+        <v>126087.4362938683</v>
       </c>
       <c r="S27" t="n">
+        <v>6367.316233457698</v>
+      </c>
+      <c r="T27" t="n">
         <v>134125.7311425777</v>
-      </c>
-      <c r="T27" t="n">
-        <v>136915.7933134532</v>
       </c>
       <c r="U27" t="n">
         <v>176287.9214999991</v>
@@ -13158,16 +13158,16 @@
         <v>49709.7994258372</v>
       </c>
       <c r="F28" t="n">
+        <v>67047.34082082662</v>
+      </c>
+      <c r="G28" t="n">
         <v>50422.31652587621</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>59032.13717424469</v>
       </c>
-      <c r="H28" t="n">
-        <v>61211.2625181673</v>
-      </c>
       <c r="I28" t="n">
-        <v>42963.70527527936</v>
+        <v>43109.10218108332</v>
       </c>
       <c r="J28" t="n">
         <v>63844.62402773364</v>
@@ -13176,13 +13176,13 @@
         <v>69496.17406164724</v>
       </c>
       <c r="L28" t="n">
-        <v>34218.77920352964</v>
+        <v>40403.43159345684</v>
       </c>
       <c r="M28" t="n">
-        <v>28312.93504647909</v>
+        <v>31985.24930421261</v>
       </c>
       <c r="N28" t="n">
-        <v>35064.16716188638</v>
+        <v>26370.37576065732</v>
       </c>
       <c r="O28" t="n">
         <v>85930.17229775172</v>
@@ -13194,13 +13194,13 @@
         <v>41032.22780285614</v>
       </c>
       <c r="R28" t="n">
-        <v>-3526.451549096771</v>
+        <v>121407.0016516859</v>
       </c>
       <c r="S28" t="n">
+        <v>-3558.407695290735</v>
+      </c>
+      <c r="T28" t="n">
         <v>126891.4454980465</v>
-      </c>
-      <c r="T28" t="n">
-        <v>132217.8003657319</v>
       </c>
       <c r="U28" t="n">
         <v>185684.898949999</v>
@@ -13223,16 +13223,16 @@
         <v>43147.32468026019</v>
       </c>
       <c r="F29" t="n">
+        <v>72252.00670594719</v>
+      </c>
+      <c r="G29" t="n">
         <v>50764.18152815122</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>66166.04260854017</v>
       </c>
-      <c r="H29" t="n">
-        <v>68202.03342321547</v>
-      </c>
       <c r="I29" t="n">
-        <v>39080.52066449713</v>
+        <v>37777.23012100164</v>
       </c>
       <c r="J29" t="n">
         <v>63840.51712903303</v>
@@ -13241,13 +13241,13 @@
         <v>69514.36642947771</v>
       </c>
       <c r="L29" t="n">
-        <v>33851.24423474071</v>
+        <v>29637.95593250541</v>
       </c>
       <c r="M29" t="n">
-        <v>27443.43210530428</v>
+        <v>35400.68670925198</v>
       </c>
       <c r="N29" t="n">
-        <v>41793.87156164495</v>
+        <v>27623.58091196863</v>
       </c>
       <c r="O29" t="n">
         <v>86743.70768705197</v>
@@ -13259,13 +13259,13 @@
         <v>21397.0445031829</v>
       </c>
       <c r="R29" t="n">
-        <v>2212.904583337761</v>
+        <v>127516.7590789742</v>
       </c>
       <c r="S29" t="n">
+        <v>2170.467798093558</v>
+      </c>
+      <c r="T29" t="n">
         <v>128247.6766992184</v>
-      </c>
-      <c r="T29" t="n">
-        <v>136441.4722787599</v>
       </c>
       <c r="U29" t="n">
         <v>185452.442949999</v>
@@ -13288,16 +13288,16 @@
         <v>48410.18048266041</v>
       </c>
       <c r="F30" t="n">
+        <v>82054.04772365402</v>
+      </c>
+      <c r="G30" t="n">
         <v>51106.04653042625</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>86573.13303726215</v>
       </c>
-      <c r="H30" t="n">
-        <v>75279.25634572416</v>
-      </c>
       <c r="I30" t="n">
-        <v>33756.91108753198</v>
+        <v>34287.51798585999</v>
       </c>
       <c r="J30" t="n">
         <v>63849.79190343825</v>
@@ -13306,13 +13306,13 @@
         <v>70239.53744772587</v>
       </c>
       <c r="L30" t="n">
-        <v>31477.05154847054</v>
+        <v>24052.54989991708</v>
       </c>
       <c r="M30" t="n">
-        <v>26192.98109035938</v>
+        <v>35278.3954262778</v>
       </c>
       <c r="N30" t="n">
-        <v>24166.5597030267</v>
+        <v>26750.50220228581</v>
       </c>
       <c r="O30" t="n">
         <v>87570.46680980318</v>
@@ -13324,13 +13324,13 @@
         <v>20663.66689597965</v>
       </c>
       <c r="R30" t="n">
-        <v>8887.541681782815</v>
+        <v>142249.5274498897</v>
       </c>
       <c r="S30" t="n">
+        <v>9314.666241787638</v>
+      </c>
+      <c r="T30" t="n">
         <v>157324.6474023434</v>
-      </c>
-      <c r="T30" t="n">
-        <v>150619.7357631632</v>
       </c>
       <c r="U30" t="n">
         <v>197887.140449999</v>
@@ -13353,16 +13353,16 @@
         <v>40653.59061733034</v>
       </c>
       <c r="F31" t="n">
+        <v>85788.93888113087</v>
+      </c>
+      <c r="G31" t="n">
         <v>51447.91153270127</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>78202.43341276636</v>
       </c>
-      <c r="H31" t="n">
-        <v>79697.84085429888</v>
-      </c>
       <c r="I31" t="n">
-        <v>33454.88237777688</v>
+        <v>35882.62398533886</v>
       </c>
       <c r="J31" t="n">
         <v>63845.00318344167</v>
@@ -13371,13 +13371,13 @@
         <v>69974.977656234</v>
       </c>
       <c r="L31" t="n">
-        <v>34325.49602811335</v>
+        <v>33802.82038298992</v>
       </c>
       <c r="M31" t="n">
-        <v>27946.29322520195</v>
+        <v>34728.99528194068</v>
       </c>
       <c r="N31" t="n">
-        <v>14600.06147203966</v>
+        <v>27761.96792092024</v>
       </c>
       <c r="O31" t="n">
         <v>88381.2253474012</v>
@@ -13389,13 +13389,13 @@
         <v>19876.13164055721</v>
       </c>
       <c r="R31" t="n">
-        <v>-3153.71585790884</v>
+        <v>124260.2378729105</v>
       </c>
       <c r="S31" t="n">
+        <v>-3764.031626910976</v>
+      </c>
+      <c r="T31" t="n">
         <v>137950.0575585934</v>
-      </c>
-      <c r="T31" t="n">
-        <v>138755.4724387277</v>
       </c>
       <c r="U31" t="n">
         <v>199713.317449999</v>
@@ -13443,19 +13443,19 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>hwes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>lightgbm</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>rf</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>avg_lvl_models</t>
@@ -13473,19 +13473,19 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>lstm_regularized</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>simple_rnn</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
@@ -13503,17 +13503,17 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>weighted_differenced_models</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -13536,16 +13536,16 @@
         <v>26355.05142591604</v>
       </c>
       <c r="E2" t="n">
+        <v>161333.6837311761</v>
+      </c>
+      <c r="F2" t="n">
         <v>62004.62081089896</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>146320.0304552208</v>
       </c>
-      <c r="G2" t="n">
-        <v>163400.9449790299</v>
-      </c>
       <c r="H2" t="n">
-        <v>37541.602890277</v>
+        <v>37193.00559726088</v>
       </c>
       <c r="I2" t="n">
         <v>196119.3173840611</v>
@@ -13554,13 +13554,13 @@
         <v>194123.8714462589</v>
       </c>
       <c r="K2" t="n">
-        <v>45391.7783045516</v>
+        <v>24921.49941678647</v>
       </c>
       <c r="L2" t="n">
-        <v>42192.29211904561</v>
+        <v>60845.45761722931</v>
       </c>
       <c r="M2" t="n">
-        <v>43079.38797229534</v>
+        <v>42107.72301774776</v>
       </c>
       <c r="N2" t="n">
         <v>197364.5340971538</v>
@@ -13572,13 +13572,13 @@
         <v>42249.21834462186</v>
       </c>
       <c r="Q2" t="n">
-        <v>-19322.22729041507</v>
+        <v>164480.8265207475</v>
       </c>
       <c r="R2" t="n">
+        <v>-20636.6265289151</v>
+      </c>
+      <c r="S2" t="n">
         <v>164560.7386718753</v>
-      </c>
-      <c r="S2" t="n">
-        <v>175986.5906554216</v>
       </c>
       <c r="T2" t="n">
         <v>171225.6500000002</v>
@@ -13598,16 +13598,16 @@
         <v>40457.44088633588</v>
       </c>
       <c r="E3" t="n">
+        <v>188892.7031862976</v>
+      </c>
+      <c r="F3" t="n">
         <v>62725.94858970377</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>172882.8628230442</v>
       </c>
-      <c r="G3" t="n">
-        <v>192776.4404860545</v>
-      </c>
       <c r="H3" t="n">
-        <v>46868.89805008584</v>
+        <v>45087.58582238821</v>
       </c>
       <c r="I3" t="n">
         <v>196132.4980207444</v>
@@ -13616,13 +13616,13 @@
         <v>196168.9229679753</v>
       </c>
       <c r="K3" t="n">
-        <v>52134.55961146958</v>
+        <v>11305.51535550991</v>
       </c>
       <c r="L3" t="n">
-        <v>44941.6851573587</v>
+        <v>61926.95777345904</v>
       </c>
       <c r="M3" t="n">
-        <v>34747.7065144897</v>
+        <v>44340.98033276803</v>
       </c>
       <c r="N3" t="n">
         <v>198660.7599740869</v>
@@ -13634,13 +13634,13 @@
         <v>61112.64305292943</v>
       </c>
       <c r="Q3" t="n">
-        <v>21769.99851210308</v>
+        <v>258635.2568933193</v>
       </c>
       <c r="R3" t="n">
+        <v>22835.02709821458</v>
+      </c>
+      <c r="S3" t="n">
         <v>222252.2699218753</v>
-      </c>
-      <c r="S3" t="n">
-        <v>259018.5296388957</v>
       </c>
       <c r="T3" t="n">
         <v>189362.5175000003</v>
@@ -13660,16 +13660,16 @@
         <v>56178.95657014073</v>
       </c>
       <c r="E4" t="n">
+        <v>217404.9697210694</v>
+      </c>
+      <c r="F4" t="n">
         <v>63447.27636850859</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>204358.9304745469</v>
       </c>
-      <c r="G4" t="n">
-        <v>221017.4941582698</v>
-      </c>
       <c r="H4" t="n">
-        <v>65028.50951987701</v>
+        <v>65416.90822756301</v>
       </c>
       <c r="I4" t="n">
         <v>196146.8925290172</v>
@@ -13678,13 +13678,13 @@
         <v>198062.9999160435</v>
       </c>
       <c r="K4" t="n">
-        <v>53564.55367282636</v>
+        <v>80836.05469380032</v>
       </c>
       <c r="L4" t="n">
-        <v>45488.41785056746</v>
+        <v>47828.91507552422</v>
       </c>
       <c r="M4" t="n">
-        <v>67599.2133841754</v>
+        <v>41094.40479973262</v>
       </c>
       <c r="N4" t="n">
         <v>199939.2229411766</v>
@@ -13696,13 +13696,13 @@
         <v>99585.65518723585</v>
       </c>
       <c r="Q4" t="n">
-        <v>16026.29014863203</v>
+        <v>299624.8406970928</v>
       </c>
       <c r="R4" t="n">
+        <v>16587.29584412201</v>
+      </c>
+      <c r="S4" t="n">
         <v>249059.2289062503</v>
-      </c>
-      <c r="S4" t="n">
-        <v>295878.8627598393</v>
       </c>
       <c r="T4" t="n">
         <v>210652.1055000003</v>
@@ -13722,16 +13722,16 @@
         <v>61903.65753238738</v>
       </c>
       <c r="E5" t="n">
+        <v>209678.9138082303</v>
+      </c>
+      <c r="F5" t="n">
         <v>64168.6041473134</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>180269.2700732384</v>
       </c>
-      <c r="G5" t="n">
-        <v>214964.6068866117</v>
-      </c>
       <c r="H5" t="n">
-        <v>61126.89421251767</v>
+        <v>63777.67968164008</v>
       </c>
       <c r="I5" t="n">
         <v>196153.2957480212</v>
@@ -13740,13 +13740,13 @@
         <v>198862.6081572417</v>
       </c>
       <c r="K5" t="n">
-        <v>33246.92937792097</v>
+        <v>73064.22559659788</v>
       </c>
       <c r="L5" t="n">
-        <v>39760.67326565837</v>
+        <v>60106.45998315521</v>
       </c>
       <c r="M5" t="n">
-        <v>76067.44576646398</v>
+        <v>37110.64658326959</v>
       </c>
       <c r="N5" t="n">
         <v>201201.7734040867</v>
@@ -13758,13 +13758,13 @@
         <v>87971.16824624821</v>
       </c>
       <c r="Q5" t="n">
-        <v>1429.555047436956</v>
+        <v>315403.102004951</v>
       </c>
       <c r="R5" t="n">
+        <v>-1437.505667095175</v>
+      </c>
+      <c r="S5" t="n">
         <v>246813.7367187503</v>
-      </c>
-      <c r="S5" t="n">
-        <v>345929.9400513961</v>
       </c>
       <c r="T5" t="n">
         <v>216208.3900000002</v>
@@ -13784,16 +13784,16 @@
         <v>55945.95130131052</v>
       </c>
       <c r="E6" t="n">
+        <v>234519.7067071343</v>
+      </c>
+      <c r="F6" t="n">
         <v>64889.93192611821</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>183515.1151231813</v>
       </c>
-      <c r="G6" t="n">
-        <v>241334.530581162</v>
-      </c>
       <c r="H6" t="n">
-        <v>61098.3560982575</v>
+        <v>58463.03095449891</v>
       </c>
       <c r="I6" t="n">
         <v>196146.0058650646</v>
@@ -13802,13 +13802,13 @@
         <v>199134.1544523772</v>
       </c>
       <c r="K6" t="n">
-        <v>60492.95971470186</v>
+        <v>54960.34716660686</v>
       </c>
       <c r="L6" t="n">
-        <v>40894.66085934346</v>
+        <v>50413.64737402803</v>
       </c>
       <c r="M6" t="n">
-        <v>61681.41044090995</v>
+        <v>36612.4353242517</v>
       </c>
       <c r="N6" t="n">
         <v>202457.5609998674</v>
@@ -13820,13 +13820,13 @@
         <v>86703.0468291181</v>
       </c>
       <c r="Q6" t="n">
-        <v>9587.374819747547</v>
+        <v>372397.9111935098</v>
       </c>
       <c r="R6" t="n">
+        <v>11324.34248650388</v>
+      </c>
+      <c r="S6" t="n">
         <v>282892.4710937503</v>
-      </c>
-      <c r="S6" t="n">
-        <v>382597.8388899157</v>
       </c>
       <c r="T6" t="n">
         <v>209536.7510000002</v>
@@ -13846,16 +13846,16 @@
         <v>60827.29417286511</v>
       </c>
       <c r="E7" t="n">
+        <v>257371.4661895333</v>
+      </c>
+      <c r="F7" t="n">
         <v>65611.25970492302</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>194591.1463355215</v>
       </c>
-      <c r="G7" t="n">
-        <v>265841.6435951819</v>
-      </c>
       <c r="H7" t="n">
-        <v>60158.11410956344</v>
+        <v>61067.55964793768</v>
       </c>
       <c r="I7" t="n">
         <v>196159.1931327427</v>
@@ -13864,13 +13864,13 @@
         <v>200577.986818473</v>
       </c>
       <c r="K7" t="n">
-        <v>48205.52756385512</v>
+        <v>45686.43159645951</v>
       </c>
       <c r="L7" t="n">
-        <v>42722.5704287768</v>
+        <v>59401.47586860367</v>
       </c>
       <c r="M7" t="n">
-        <v>50684.66831339605</v>
+        <v>43800.42314795858</v>
       </c>
       <c r="N7" t="n">
         <v>203731.6732348336</v>
@@ -13882,13 +13882,13 @@
         <v>89072.14179987165</v>
       </c>
       <c r="Q7" t="n">
-        <v>16146.64668708273</v>
+        <v>395227.2647756138</v>
       </c>
       <c r="R7" t="n">
+        <v>14115.31087678621</v>
+      </c>
+      <c r="S7" t="n">
         <v>346086.7132812503</v>
-      </c>
-      <c r="S7" t="n">
-        <v>429609.7223423591</v>
       </c>
       <c r="T7" t="n">
         <v>219770.9505000002</v>
@@ -13908,16 +13908,16 @@
         <v>56391.05653594075</v>
       </c>
       <c r="E8" t="n">
+        <v>282886.5007796381</v>
+      </c>
+      <c r="F8" t="n">
         <v>66332.58748372784</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>214856.4271637662</v>
       </c>
-      <c r="G8" t="n">
-        <v>292461.480177348</v>
-      </c>
       <c r="H8" t="n">
-        <v>65219.66088033863</v>
+        <v>63580.9007326255</v>
       </c>
       <c r="I8" t="n">
         <v>196163.6978779547</v>
@@ -13926,13 +13926,13 @@
         <v>201673.553342995</v>
       </c>
       <c r="K8" t="n">
-        <v>65393.79992553005</v>
+        <v>52508.77262398608</v>
       </c>
       <c r="L8" t="n">
-        <v>44087.88970292664</v>
+        <v>67787.55323853801</v>
       </c>
       <c r="M8" t="n">
-        <v>64106.52352917799</v>
+        <v>40181.80611340558</v>
       </c>
       <c r="N8" t="n">
         <v>204996.1014260818</v>
@@ -13944,13 +13944,13 @@
         <v>111895.30564935</v>
       </c>
       <c r="Q8" t="n">
-        <v>14017.85645310843</v>
+        <v>465203.1548159043</v>
       </c>
       <c r="R8" t="n">
+        <v>16490.49282856446</v>
+      </c>
+      <c r="S8" t="n">
         <v>370378.1097656253</v>
-      </c>
-      <c r="S8" t="n">
-        <v>470888.2975361645</v>
       </c>
       <c r="T8" t="n">
         <v>238004.0210000002</v>
@@ -13970,16 +13970,16 @@
         <v>28232.48678812306</v>
       </c>
       <c r="E9" t="n">
+        <v>248032.4623739646</v>
+      </c>
+      <c r="F9" t="n">
         <v>67053.91526253265</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>170227.376908435</v>
       </c>
-      <c r="G9" t="n">
-        <v>259723.7428906132</v>
-      </c>
       <c r="H9" t="n">
-        <v>39945.43955840706</v>
+        <v>33666.51915835639</v>
       </c>
       <c r="I9" t="n">
         <v>196152.2657678655</v>
@@ -13988,13 +13988,13 @@
         <v>200162.0075736356</v>
       </c>
       <c r="K9" t="n">
-        <v>52164.44053805478</v>
+        <v>-7911.43708831371</v>
       </c>
       <c r="L9" t="n">
-        <v>41797.00112897313</v>
+        <v>57703.55300601729</v>
       </c>
       <c r="M9" t="n">
-        <v>50327.27793521292</v>
+        <v>44265.24048413194</v>
       </c>
       <c r="N9" t="n">
         <v>206232.2369390397</v>
@@ -14006,13 +14006,13 @@
         <v>45836.38187346442</v>
       </c>
       <c r="Q9" t="n">
-        <v>-16574.12397439082</v>
+        <v>449981.4220998906</v>
       </c>
       <c r="R9" t="n">
+        <v>-17057.31562527225</v>
+      </c>
+      <c r="S9" t="n">
         <v>342040.6625000003</v>
-      </c>
-      <c r="S9" t="n">
-        <v>457234.4818217935</v>
       </c>
       <c r="T9" t="n">
         <v>214690.5350000002</v>
@@ -14032,16 +14032,16 @@
         <v>42334.87624858027</v>
       </c>
       <c r="E10" t="n">
+        <v>273167.2897352381</v>
+      </c>
+      <c r="F10" t="n">
         <v>67775.24304133747</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>197583.1643924063</v>
       </c>
-      <c r="G10" t="n">
-        <v>286152.2803014326</v>
-      </c>
       <c r="H10" t="n">
-        <v>46456.9297479919</v>
+        <v>52211.26036418015</v>
       </c>
       <c r="I10" t="n">
         <v>196164.6110930888</v>
@@ -14050,13 +14050,13 @@
         <v>202112.0442630017</v>
       </c>
       <c r="K10" t="n">
-        <v>44319.94034934795</v>
+        <v>62185.00809935042</v>
       </c>
       <c r="L10" t="n">
-        <v>44625.60317279404</v>
+        <v>61525.54095962652</v>
       </c>
       <c r="M10" t="n">
-        <v>31285.97311238651</v>
+        <v>42555.61250505751</v>
       </c>
       <c r="N10" t="n">
         <v>207524.9347368669</v>
@@ -14068,13 +14068,13 @@
         <v>68398.46544009642</v>
       </c>
       <c r="Q10" t="n">
-        <v>19824.64174823518</v>
+        <v>536885.2961082915</v>
       </c>
       <c r="R10" t="n">
+        <v>20397.71577368389</v>
+      </c>
+      <c r="S10" t="n">
         <v>382472.9203125003</v>
-      </c>
-      <c r="S10" t="n">
-        <v>539748.2771864777</v>
       </c>
       <c r="T10" t="n">
         <v>231982.9400000002</v>
@@ -14094,16 +14094,16 @@
         <v>58056.39193239605</v>
       </c>
       <c r="E11" t="n">
+        <v>302080.3504533616</v>
+      </c>
+      <c r="F11" t="n">
         <v>68496.57082014228</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>231897.7709718279</v>
       </c>
-      <c r="G11" t="n">
-        <v>314344.1718599402</v>
-      </c>
       <c r="H11" t="n">
-        <v>66178.27524552544</v>
+        <v>63777.85140436658</v>
       </c>
       <c r="I11" t="n">
         <v>196177.3658593641</v>
@@ -14112,13 +14112,13 @@
         <v>203624.2488858374</v>
       </c>
       <c r="K11" t="n">
-        <v>54530.94913298495</v>
+        <v>43079.27691251344</v>
       </c>
       <c r="L11" t="n">
-        <v>44690.89755667901</v>
+        <v>68680.12316998551</v>
       </c>
       <c r="M11" t="n">
-        <v>68623.92107508788</v>
+        <v>36882.976952982</v>
       </c>
       <c r="N11" t="n">
         <v>208798.6818453205</v>
@@ -14130,13 +14130,13 @@
         <v>107027.2410602851</v>
       </c>
       <c r="Q11" t="n">
-        <v>20316.06521696168</v>
+        <v>586839.0767363408</v>
       </c>
       <c r="R11" t="n">
+        <v>20869.10649254953</v>
+      </c>
+      <c r="S11" t="n">
         <v>444957.7054687503</v>
-      </c>
-      <c r="S11" t="n">
-        <v>586464.5029735612</v>
       </c>
       <c r="T11" t="n">
         <v>251994.5180000002</v>
@@ -14156,16 +14156,16 @@
         <v>63781.09289464068</v>
       </c>
       <c r="E12" t="n">
+        <v>309890.8823750177</v>
+      </c>
+      <c r="F12" t="n">
         <v>69217.8985989471</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>204826.2199826934</v>
       </c>
-      <c r="G12" t="n">
-        <v>322921.0852110595</v>
-      </c>
       <c r="H12" t="n">
-        <v>62719.27524540752</v>
+        <v>62898.90969337833</v>
       </c>
       <c r="I12" t="n">
         <v>196186.5282430591</v>
@@ -14174,13 +14174,13 @@
         <v>204676.8074312411</v>
       </c>
       <c r="K12" t="n">
-        <v>35196.0928481922</v>
+        <v>44824.97301707572</v>
       </c>
       <c r="L12" t="n">
-        <v>41270.78526915913</v>
+        <v>68345.12010573456</v>
       </c>
       <c r="M12" t="n">
-        <v>77233.67284578692</v>
+        <v>41967.53342409438</v>
       </c>
       <c r="N12" t="n">
         <v>210064.5405281757</v>
@@ -14192,13 +14192,13 @@
         <v>95419.31386553621</v>
       </c>
       <c r="Q12" t="n">
-        <v>5159.533761818223</v>
+        <v>636293.9863186571</v>
       </c>
       <c r="R12" t="n">
+        <v>4831.797463251744</v>
+      </c>
+      <c r="S12" t="n">
         <v>461515.4789062503</v>
-      </c>
-      <c r="S12" t="n">
-        <v>642125.3538233743</v>
       </c>
       <c r="T12" t="n">
         <v>258704.2595000002</v>
@@ -14218,16 +14218,16 @@
         <v>57823.38666353616</v>
       </c>
       <c r="E13" t="n">
+        <v>333027.8893386467</v>
+      </c>
+      <c r="F13" t="n">
         <v>69939.22637775191</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>211324.6441484814</v>
       </c>
-      <c r="G13" t="n">
-        <v>348192.6033679189</v>
-      </c>
       <c r="H13" t="n">
-        <v>58328.78691467641</v>
+        <v>59463.43904041179</v>
       </c>
       <c r="I13" t="n">
         <v>196178.5643249402</v>
@@ -14236,13 +14236,13 @@
         <v>204901.2395044091</v>
       </c>
       <c r="K13" t="n">
-        <v>52808.64572564371</v>
+        <v>51067.13482128389</v>
       </c>
       <c r="L13" t="n">
-        <v>44033.21614134317</v>
+        <v>49399.18640930957</v>
       </c>
       <c r="M13" t="n">
-        <v>35259.76225211029</v>
+        <v>40712.51989438688</v>
       </c>
       <c r="N13" t="n">
         <v>211321.0541941843</v>
@@ -14254,13 +14254,13 @@
         <v>94151.46870230781</v>
       </c>
       <c r="Q13" t="n">
-        <v>7045.513025292415</v>
+        <v>672202.1742213967</v>
       </c>
       <c r="R13" t="n">
+        <v>7996.168752438232</v>
+      </c>
+      <c r="S13" t="n">
         <v>482368.1722656253</v>
-      </c>
-      <c r="S13" t="n">
-        <v>665533.1540777631</v>
       </c>
       <c r="T13" t="n">
         <v>250977.2625000002</v>
@@ -14280,16 +14280,16 @@
         <v>62704.72953508487</v>
       </c>
       <c r="E14" t="n">
+        <v>357346.220159141</v>
+      </c>
+      <c r="F14" t="n">
         <v>70660.55415655673</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>220726.5158074459</v>
       </c>
-      <c r="G14" t="n">
-        <v>372788.0228361951</v>
-      </c>
       <c r="H14" t="n">
-        <v>61091.7192067759</v>
+        <v>62036.81749244052</v>
       </c>
       <c r="I14" t="n">
         <v>196191.5029677451</v>
@@ -14298,13 +14298,13 @@
         <v>206362.1662666799</v>
       </c>
       <c r="K14" t="n">
-        <v>60689.57644544252</v>
+        <v>40656.01092377608</v>
       </c>
       <c r="L14" t="n">
-        <v>41076.37804355329</v>
+        <v>66266.29141745875</v>
       </c>
       <c r="M14" t="n">
-        <v>37340.14577733284</v>
+        <v>39744.58421041077</v>
       </c>
       <c r="N14" t="n">
         <v>212595.1620567243</v>
@@ -14316,13 +14316,13 @@
         <v>96520.57530708125</v>
       </c>
       <c r="Q14" t="n">
-        <v>14662.64078085991</v>
+        <v>722095.838189272</v>
       </c>
       <c r="R14" t="n">
+        <v>13284.28383803047</v>
+      </c>
+      <c r="S14" t="n">
         <v>507475.6800781253</v>
-      </c>
-      <c r="S14" t="n">
-        <v>735699.9801601826</v>
       </c>
       <c r="T14" t="n">
         <v>264119.1850000002</v>
@@ -14342,16 +14342,16 @@
         <v>58268.49189813426</v>
       </c>
       <c r="E15" t="n">
+        <v>382406.799663595</v>
+      </c>
+      <c r="F15" t="n">
         <v>71381.88193536154</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>241849.0609913895</v>
       </c>
-      <c r="G15" t="n">
-        <v>398543.8147366293</v>
-      </c>
       <c r="H15" t="n">
-        <v>68615.83521753576</v>
+        <v>61590.39544048427</v>
       </c>
       <c r="I15" t="n">
         <v>196197.4756702133</v>
@@ -14360,13 +14360,13 @@
         <v>207392.8531756059</v>
       </c>
       <c r="K15" t="n">
-        <v>57699.29181754299</v>
+        <v>25371.65978437367</v>
       </c>
       <c r="L15" t="n">
-        <v>44733.07397017187</v>
+        <v>65303.490787083</v>
       </c>
       <c r="M15" t="n">
-        <v>87995.22542672766</v>
+        <v>43548.92242657399</v>
       </c>
       <c r="N15" t="n">
         <v>213859.1726258066</v>
@@ -14378,13 +14378,13 @@
         <v>119343.7396465089</v>
       </c>
       <c r="Q15" t="n">
-        <v>19173.95783430745</v>
+        <v>780296.148494586</v>
       </c>
       <c r="R15" t="n">
+        <v>20583.78784998482</v>
+      </c>
+      <c r="S15" t="n">
         <v>583259.2816406253</v>
-      </c>
-      <c r="S15" t="n">
-        <v>777881.4139962428</v>
       </c>
       <c r="T15" t="n">
         <v>282352.2555000001</v>
@@ -14404,16 +14404,16 @@
         <v>30109.92215034146</v>
       </c>
       <c r="E16" t="n">
+        <v>348334.7800170408</v>
+      </c>
+      <c r="F16" t="n">
         <v>72103.20971416635</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>195816.2542543841</v>
       </c>
-      <c r="G16" t="n">
-        <v>366546.9782019521</v>
-      </c>
       <c r="H16" t="n">
-        <v>39061.9694916356</v>
+        <v>39747.79086187674</v>
       </c>
       <c r="I16" t="n">
         <v>196188.0598761073</v>
@@ -14422,13 +14422,13 @@
         <v>206066.8495379272</v>
       </c>
       <c r="K16" t="n">
-        <v>56083.34860976048</v>
+        <v>15924.04525400775</v>
       </c>
       <c r="L16" t="n">
-        <v>43398.91573272502</v>
+        <v>73030.7907569916</v>
       </c>
       <c r="M16" t="n">
-        <v>26558.31894094203</v>
+        <v>42572.3182343573</v>
       </c>
       <c r="N16" t="n">
         <v>215097.1102318369</v>
@@ -14440,13 +14440,13 @@
         <v>53284.81589125688</v>
       </c>
       <c r="Q16" t="n">
-        <v>-16197.31871509567</v>
+        <v>766357.691805552</v>
       </c>
       <c r="R16" t="n">
+        <v>-17345.38592405313</v>
+      </c>
+      <c r="S16" t="n">
         <v>555856.8265625003</v>
-      </c>
-      <c r="S16" t="n">
-        <v>774162.0217337317</v>
       </c>
       <c r="T16" t="n">
         <v>253051.1990000001</v>
@@ -14466,16 +14466,16 @@
         <v>44212.31161072858</v>
       </c>
       <c r="E17" t="n">
+        <v>373469.6073783142</v>
+      </c>
+      <c r="F17" t="n">
         <v>72824.53749297117</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>218225.5867461128</v>
       </c>
-      <c r="G17" t="n">
-        <v>392615.638910635</v>
-      </c>
       <c r="H17" t="n">
-        <v>48450.12640576712</v>
+        <v>53576.84029330439</v>
       </c>
       <c r="I17" t="n">
         <v>196200.5543664196</v>
@@ -14484,13 +14484,13 @@
         <v>207974.2308661533</v>
       </c>
       <c r="K17" t="n">
-        <v>47994.36200168437</v>
+        <v>64299.76170444796</v>
       </c>
       <c r="L17" t="n">
-        <v>45439.46386775232</v>
+        <v>60306.20976879605</v>
       </c>
       <c r="M17" t="n">
-        <v>33944.20068288152</v>
+        <v>43785.76617937243</v>
       </c>
       <c r="N17" t="n">
         <v>216388.0473622448</v>
@@ -14502,13 +14502,13 @@
         <v>75846.89945875783</v>
       </c>
       <c r="Q17" t="n">
-        <v>19390.27473486331</v>
+        <v>854924.5194328995</v>
       </c>
       <c r="R17" t="n">
+        <v>20396.36720163223</v>
+      </c>
+      <c r="S17" t="n">
         <v>599279.7679687503</v>
-      </c>
-      <c r="S17" t="n">
-        <v>853568.472512933</v>
       </c>
       <c r="T17" t="n">
         <v>270635.5685500002</v>
@@ -14528,16 +14528,16 @@
         <v>59933.82729458695</v>
       </c>
       <c r="E18" t="n">
+        <v>402545.9730157448</v>
+      </c>
+      <c r="F18" t="n">
         <v>73545.86527177598</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>246643.1391212172</v>
       </c>
-      <c r="G18" t="n">
-        <v>421198.4407485924</v>
-      </c>
       <c r="H18" t="n">
-        <v>68113.11945296728</v>
+        <v>68111.59639957656</v>
       </c>
       <c r="I18" t="n">
         <v>196212.1319189086</v>
@@ -14546,13 +14546,13 @@
         <v>209355.1238305566</v>
       </c>
       <c r="K18" t="n">
-        <v>52985.75100627847</v>
+        <v>68850.58239946076</v>
       </c>
       <c r="L18" t="n">
-        <v>46272.24856502271</v>
+        <v>61552.41742684849</v>
       </c>
       <c r="M18" t="n">
-        <v>72877.3295194001</v>
+        <v>41720.14483726626</v>
       </c>
       <c r="N18" t="n">
         <v>217659.4694449347</v>
@@ -14564,13 +14564,13 @@
         <v>114475.6750789831</v>
       </c>
       <c r="Q18" t="n">
-        <v>16575.21036050893</v>
+        <v>913025.8011691131</v>
       </c>
       <c r="R18" t="n">
+        <v>17909.91148802642</v>
+      </c>
+      <c r="S18" t="n">
         <v>632572.5335937503</v>
-      </c>
-      <c r="S18" t="n">
-        <v>899172.8209718427</v>
       </c>
       <c r="T18" t="n">
         <v>290862.1570500002</v>
@@ -14590,16 +14590,16 @@
         <v>65658.52825685171</v>
       </c>
       <c r="E19" t="n">
+        <v>424223.7912140295</v>
+      </c>
+      <c r="F19" t="n">
         <v>74267.19305058078</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>223896.5149515294</v>
       </c>
-      <c r="G19" t="n">
-        <v>446400.1577066252</v>
-      </c>
       <c r="H19" t="n">
-        <v>62790.1915461828</v>
+        <v>65898.28174175759</v>
       </c>
       <c r="I19" t="n">
         <v>196222.3834653347</v>
@@ -14608,13 +14608,13 @@
         <v>210405.1042786026</v>
       </c>
       <c r="K19" t="n">
-        <v>56255.55556948789</v>
+        <v>54294.1930589617</v>
       </c>
       <c r="L19" t="n">
-        <v>41391.41372806734</v>
+        <v>66719.6491377146</v>
       </c>
       <c r="M19" t="n">
-        <v>41767.31601831919</v>
+        <v>43265.16468379652</v>
       </c>
       <c r="N19" t="n">
         <v>218925.9527166658</v>
@@ -14626,13 +14626,13 @@
         <v>102867.7478842358</v>
       </c>
       <c r="Q19" t="n">
-        <v>9706.588327866728</v>
+        <v>976088.9760932071</v>
       </c>
       <c r="R19" t="n">
+        <v>11773.26262401666</v>
+      </c>
+      <c r="S19" t="n">
         <v>680940.6703125003</v>
-      </c>
-      <c r="S19" t="n">
-        <v>934641.3683378417</v>
       </c>
       <c r="T19" t="n">
         <v>298160.4295500002</v>
@@ -14652,16 +14652,16 @@
         <v>59700.82202576758</v>
       </c>
       <c r="E20" t="n">
+        <v>448542.1220345238</v>
+      </c>
+      <c r="F20" t="n">
         <v>74988.5208293856</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>237499.0481591607</v>
       </c>
-      <c r="G20" t="n">
-        <v>470876.5584652944</v>
-      </c>
       <c r="H20" t="n">
-        <v>63750.68635098177</v>
+        <v>65015.02890236961</v>
       </c>
       <c r="I20" t="n">
         <v>196216.4166956174</v>
@@ -14670,13 +14670,13 @@
         <v>210705.185058151</v>
       </c>
       <c r="K20" t="n">
-        <v>50519.61009647257</v>
+        <v>48367.59593454457</v>
       </c>
       <c r="L20" t="n">
-        <v>44412.00598592466</v>
+        <v>75762.23010477136</v>
       </c>
       <c r="M20" t="n">
-        <v>61512.6521796734</v>
+        <v>42429.18263385749</v>
       </c>
       <c r="N20" t="n">
         <v>220184.237642123</v>
@@ -14688,13 +14688,13 @@
         <v>101599.9027210074</v>
       </c>
       <c r="Q20" t="n">
-        <v>11413.9603899096</v>
+        <v>1002213.220249358</v>
       </c>
       <c r="R20" t="n">
+        <v>8401.831674161283</v>
+      </c>
+      <c r="S20" t="n">
         <v>705793.4984375003</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1000897.367552121</v>
       </c>
       <c r="T20" t="n">
         <v>289853.4340500002</v>
@@ -14714,16 +14714,16 @@
         <v>64582.16489732971</v>
       </c>
       <c r="E21" t="n">
+        <v>473352.9401278836</v>
+      </c>
+      <c r="F21" t="n">
         <v>75709.84860819041</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>258680.0668613946</v>
       </c>
-      <c r="G21" t="n">
-        <v>496746.600702048</v>
-      </c>
       <c r="H21" t="n">
-        <v>69850.75304509238</v>
+        <v>68386.11381170343</v>
       </c>
       <c r="I21" t="n">
         <v>196229.8456956082</v>
@@ -14732,13 +14732,13 @@
         <v>212189.1321645082</v>
       </c>
       <c r="K21" t="n">
-        <v>59699.77659755953</v>
+        <v>52087.45857343681</v>
       </c>
       <c r="L21" t="n">
-        <v>48925.06343246258</v>
+        <v>80042.46240904044</v>
       </c>
       <c r="M21" t="n">
-        <v>79739.80696758341</v>
+        <v>44517.61214801675</v>
       </c>
       <c r="N21" t="n">
         <v>221458.5237870078</v>
@@ -14750,13 +14750,13 @@
         <v>103969.0093257808</v>
       </c>
       <c r="Q21" t="n">
-        <v>13440.16489799173</v>
+        <v>1081431.619479441</v>
       </c>
       <c r="R21" t="n">
+        <v>17080.73281137021</v>
+      </c>
+      <c r="S21" t="n">
         <v>731536.9710937503</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1037248.033203188</v>
       </c>
       <c r="T21" t="n">
         <v>304136.6580500002</v>
@@ -14776,16 +14776,16 @@
         <v>60145.92726036196</v>
       </c>
       <c r="E22" t="n">
+        <v>499245.8400845313</v>
+      </c>
+      <c r="F22" t="n">
         <v>76431.17638699523</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>284837.5682715309</v>
       </c>
-      <c r="G22" t="n">
-        <v>524626.6279080805</v>
-      </c>
       <c r="H22" t="n">
-        <v>67886.83030977087</v>
+        <v>64908.92555960013</v>
       </c>
       <c r="I22" t="n">
         <v>196235.1862414195</v>
@@ -14794,13 +14794,13 @@
         <v>213190.6833552174</v>
       </c>
       <c r="K22" t="n">
-        <v>62661.60069503196</v>
+        <v>32583.7475807548</v>
       </c>
       <c r="L22" t="n">
-        <v>43995.52303588844</v>
+        <v>62878.32509154984</v>
       </c>
       <c r="M22" t="n">
-        <v>62143.17947833249</v>
+        <v>49514.99253558225</v>
       </c>
       <c r="N22" t="n">
         <v>222721.6279122633</v>
@@ -14812,13 +14812,13 @@
         <v>126792.1736652085</v>
       </c>
       <c r="Q22" t="n">
-        <v>19843.4701163252</v>
+        <v>1136828.527932114</v>
       </c>
       <c r="R22" t="n">
+        <v>18222.56071727571</v>
+      </c>
+      <c r="S22" t="n">
         <v>780488.2640625003</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1113009.718476043</v>
       </c>
       <c r="T22" t="n">
         <v>322369.7285500002</v>
@@ -14838,16 +14838,16 @@
         <v>31987.35751258445</v>
       </c>
       <c r="E23" t="n">
+        <v>464254.8401937085</v>
+      </c>
+      <c r="F23" t="n">
         <v>77152.50416580004</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>228969.3018577569</v>
       </c>
-      <c r="G23" t="n">
-        <v>492673.5037457242</v>
-      </c>
       <c r="H23" t="n">
-        <v>45804.20336234707</v>
+        <v>42259.00150157085</v>
       </c>
       <c r="I23" t="n">
         <v>196228.6003516668</v>
@@ -14856,13 +14856,13 @@
         <v>212081.8058329003</v>
       </c>
       <c r="K23" t="n">
-        <v>52250.96195341356</v>
+        <v>10381.56080648267</v>
       </c>
       <c r="L23" t="n">
-        <v>50741.13928987093</v>
+        <v>70712.11385655413</v>
       </c>
       <c r="M23" t="n">
-        <v>58040.01153793641</v>
+        <v>51576.82323197431</v>
       </c>
       <c r="N23" t="n">
         <v>223961.7953281668</v>
@@ -14874,13 +14874,13 @@
         <v>60733.24990995647</v>
       </c>
       <c r="Q23" t="n">
-        <v>-16975.95626960549</v>
+        <v>1117876.019235669</v>
       </c>
       <c r="R23" t="n">
+        <v>-18949.00999840293</v>
+      </c>
+      <c r="S23" t="n">
         <v>751638.7894531253</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1112944.567874926</v>
       </c>
       <c r="T23" t="n">
         <v>294517.8520500001</v>
@@ -14900,16 +14900,16 @@
         <v>46089.74697296617</v>
       </c>
       <c r="E24" t="n">
+        <v>489389.6675549819</v>
+      </c>
+      <c r="F24" t="n">
         <v>77873.83194460486</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>250111.1082305576</v>
       </c>
-      <c r="G24" t="n">
-        <v>518764.1702588449</v>
-      </c>
       <c r="H24" t="n">
-        <v>52644.84978605773</v>
+        <v>50911.81888057183</v>
       </c>
       <c r="I24" t="n">
         <v>196240.4795795396</v>
@@ -14918,13 +14918,13 @@
         <v>213809.0016772926</v>
       </c>
       <c r="K24" t="n">
-        <v>49513.47861539728</v>
+        <v>22275.7134644911</v>
       </c>
       <c r="L24" t="n">
-        <v>47069.771781537</v>
+        <v>55629.34206656821</v>
       </c>
       <c r="M24" t="n">
-        <v>43831.96120339489</v>
+        <v>48645.90882538266</v>
       </c>
       <c r="N24" t="n">
         <v>225248.57098293</v>
@@ -14936,13 +14936,13 @@
         <v>83295.33347745743</v>
       </c>
       <c r="Q24" t="n">
-        <v>19237.06923918186</v>
+        <v>1212786.626900207</v>
       </c>
       <c r="R24" t="n">
+        <v>21515.64534579094</v>
+      </c>
+      <c r="S24" t="n">
         <v>805394.2347656253</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1182866.75620526</v>
       </c>
       <c r="T24" t="n">
         <v>310066.4055500001</v>
@@ -14962,16 +14962,16 @@
         <v>61811.26265682434</v>
       </c>
       <c r="E25" t="n">
+        <v>517467.8617038327</v>
+      </c>
+      <c r="F25" t="n">
         <v>78595.15972340967</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>290706.4485045215</v>
       </c>
-      <c r="G25" t="n">
-        <v>545143.0882323285</v>
-      </c>
       <c r="H25" t="n">
-        <v>72151.25722945154</v>
+        <v>70634.06808747993</v>
       </c>
       <c r="I25" t="n">
         <v>196249.6786811269</v>
@@ -14980,13 +14980,13 @@
         <v>214967.0595797527</v>
       </c>
       <c r="K25" t="n">
-        <v>47135.60685120231</v>
+        <v>71448.14210277508</v>
       </c>
       <c r="L25" t="n">
-        <v>51558.10673609681</v>
+        <v>54665.91599426277</v>
       </c>
       <c r="M25" t="n">
-        <v>87661.62522287977</v>
+        <v>48103.76757736809</v>
       </c>
       <c r="N25" t="n">
         <v>226516.8661692066</v>
@@ -14998,13 +14998,13 @@
         <v>121924.1090976827</v>
       </c>
       <c r="Q25" t="n">
-        <v>17050.07259436511</v>
+        <v>1265128.671924356</v>
       </c>
       <c r="R25" t="n">
+        <v>17517.96001338197</v>
+      </c>
+      <c r="S25" t="n">
         <v>821928.8890625003</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1235210.651789023</v>
       </c>
       <c r="T25" t="n">
         <v>333930.2590500002</v>
@@ -15024,16 +15024,16 @@
         <v>67535.96361906275</v>
       </c>
       <c r="E26" t="n">
+        <v>553934.8988929042</v>
+      </c>
+      <c r="F26" t="n">
         <v>79316.48750221448</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>253426.6528032277</v>
       </c>
-      <c r="G26" t="n">
-        <v>582428.7583832652</v>
-      </c>
       <c r="H26" t="n">
-        <v>68550.13709547042</v>
+        <v>68640.39727993465</v>
       </c>
       <c r="I26" t="n">
         <v>196259.7180638867</v>
@@ -15042,13 +15042,13 @@
         <v>215993.2821312837</v>
       </c>
       <c r="K26" t="n">
-        <v>43148.04629852182</v>
+        <v>55197.94495687194</v>
       </c>
       <c r="L26" t="n">
-        <v>49943.51378145225</v>
+        <v>66427.79572136114</v>
       </c>
       <c r="M26" t="n">
-        <v>75374.1463100196</v>
+        <v>47562.04718747443</v>
       </c>
       <c r="N26" t="n">
         <v>227781.7668138232</v>
@@ -15060,13 +15060,13 @@
         <v>110316.1819029354</v>
       </c>
       <c r="Q26" t="n">
-        <v>13196.52633198324</v>
+        <v>1322817.754495118</v>
       </c>
       <c r="R26" t="n">
+        <v>12182.30668452122</v>
+      </c>
+      <c r="S26" t="n">
         <v>879296.1898437503</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1309221.051102262</v>
       </c>
       <c r="T26" t="n">
         <v>334347.9320500002</v>
@@ -15086,16 +15086,16 @@
         <v>61578.2573879709</v>
       </c>
       <c r="E27" t="n">
+        <v>578068.9660606594</v>
+      </c>
+      <c r="F27" t="n">
         <v>80037.8152810193</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>272022.5721573092</v>
       </c>
-      <c r="G27" t="n">
-        <v>607474.2305035691</v>
-      </c>
       <c r="H27" t="n">
-        <v>65941.41189416248</v>
+        <v>67315.53703996737</v>
       </c>
       <c r="I27" t="n">
         <v>196256.9285185377</v>
@@ -15104,13 +15104,13 @@
         <v>216448.324819053</v>
       </c>
       <c r="K27" t="n">
-        <v>52919.2495779217</v>
+        <v>66992.77436768719</v>
       </c>
       <c r="L27" t="n">
-        <v>52495.72017698593</v>
+        <v>50412.32634714849</v>
       </c>
       <c r="M27" t="n">
-        <v>51374.51907134957</v>
+        <v>50377.38927786059</v>
       </c>
       <c r="N27" t="n">
         <v>229038.7112021579</v>
@@ -15122,13 +15122,13 @@
         <v>109048.336739707</v>
       </c>
       <c r="Q27" t="n">
-        <v>12481.29115785467</v>
+        <v>1371796.429974003</v>
       </c>
       <c r="R27" t="n">
+        <v>12203.07356048294</v>
+      </c>
+      <c r="S27" t="n">
         <v>915379.7171875003</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1363613.103740483</v>
       </c>
       <c r="T27" t="n">
         <v>331229.0425500002</v>
@@ -15148,16 +15148,16 @@
         <v>66459.60025951738</v>
       </c>
       <c r="E28" t="n">
+        <v>602996.5536302973</v>
+      </c>
+      <c r="F28" t="n">
         <v>80759.14305982411</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>295633.5134377676</v>
       </c>
-      <c r="G28" t="n">
-        <v>633225.2136198477</v>
-      </c>
       <c r="H28" t="n">
-        <v>71851.95085570743</v>
+        <v>65306.41446142153</v>
       </c>
       <c r="I28" t="n">
         <v>196269.1189250803</v>
@@ -15166,13 +15166,13 @@
         <v>217731.9981164375</v>
       </c>
       <c r="K28" t="n">
-        <v>54829.24401668914</v>
+        <v>17697.38355376201</v>
       </c>
       <c r="L28" t="n">
-        <v>52095.62439003296</v>
+        <v>70246.61554856012</v>
       </c>
       <c r="M28" t="n">
-        <v>81790.39139974426</v>
+        <v>48406.96954985715</v>
       </c>
       <c r="N28" t="n">
         <v>230309.4244437391</v>
@@ -15184,13 +15184,13 @@
         <v>111417.4433444804</v>
       </c>
       <c r="Q28" t="n">
-        <v>16481.66260498932</v>
+        <v>1427608.40153729</v>
       </c>
       <c r="R28" t="n">
+        <v>15855.19376747038</v>
+      </c>
+      <c r="S28" t="n">
         <v>960383.2835937503</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1429407.051627037</v>
       </c>
       <c r="T28" t="n">
         <v>334016.2645500002</v>
@@ -15210,16 +15210,16 @@
         <v>62023.36262260013</v>
       </c>
       <c r="E29" t="n">
+        <v>627924.1411999352</v>
+      </c>
+      <c r="F29" t="n">
         <v>81480.47083862893</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>328390.6956723991</v>
       </c>
-      <c r="G29" t="n">
-        <v>658976.2391148079</v>
-      </c>
       <c r="H29" t="n">
-        <v>76269.45951977714</v>
+        <v>73276.11636393635</v>
       </c>
       <c r="I29" t="n">
         <v>196274.6479027781</v>
@@ -15228,13 +15228,13 @@
         <v>218640.7383550166</v>
       </c>
       <c r="K29" t="n">
-        <v>65748.66515498767</v>
+        <v>68135.95361963818</v>
       </c>
       <c r="L29" t="n">
-        <v>57027.15801742979</v>
+        <v>69152.84620905528</v>
       </c>
       <c r="M29" t="n">
-        <v>93306.40815070285</v>
+        <v>54846.68624770053</v>
       </c>
       <c r="N29" t="n">
         <v>231571.8352581866</v>
@@ -15246,13 +15246,13 @@
         <v>134240.6076839081</v>
       </c>
       <c r="Q29" t="n">
-        <v>14049.32531323541</v>
+        <v>1483271.643012043</v>
       </c>
       <c r="R29" t="n">
+        <v>15040.19661031657</v>
+      </c>
+      <c r="S29" t="n">
         <v>977584.5667968753</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1474717.995889144</v>
       </c>
       <c r="T29" t="n">
         <v>345872.3060500002</v>
@@ -15272,16 +15272,16 @@
         <v>33864.79287479144</v>
       </c>
       <c r="E30" t="n">
+        <v>593134.4714084611</v>
+      </c>
+      <c r="F30" t="n">
         <v>82201.79861743374</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>273643.1546619937</v>
       </c>
-      <c r="G30" t="n">
-        <v>627149.5284459994</v>
-      </c>
       <c r="H30" t="n">
-        <v>45202.549943925</v>
+        <v>49169.20787659989</v>
       </c>
       <c r="I30" t="n">
         <v>196273.4135174057</v>
@@ -15290,13 +15290,13 @@
         <v>217814.6230015101</v>
       </c>
       <c r="K30" t="n">
-        <v>61665.93221446284</v>
+        <v>43079.59547872996</v>
       </c>
       <c r="L30" t="n">
-        <v>53332.41534762986</v>
+        <v>74840.74371326577</v>
       </c>
       <c r="M30" t="n">
-        <v>25210.88321430538</v>
+        <v>54022.15504580148</v>
       </c>
       <c r="N30" t="n">
         <v>232815.8506234501</v>
@@ -15308,13 +15308,13 @@
         <v>68181.68392865607</v>
       </c>
       <c r="Q30" t="n">
-        <v>-15389.87507776495</v>
+        <v>1472063.064871765</v>
       </c>
       <c r="R30" t="n">
+        <v>-17545.8732385012</v>
+      </c>
+      <c r="S30" t="n">
         <v>955629.7679687503</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1485189.112959733</v>
       </c>
       <c r="T30" t="n">
         <v>313374.3225500002</v>
@@ -15334,16 +15334,16 @@
         <v>47967.18233520376</v>
       </c>
       <c r="E31" t="n">
+        <v>618269.2987697346</v>
+      </c>
+      <c r="F31" t="n">
         <v>82923.12639623854</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>294888.3629498562</v>
       </c>
-      <c r="G31" t="n">
-        <v>653258.6694164537</v>
-      </c>
       <c r="H31" t="n">
-        <v>53552.2525813956</v>
+        <v>58999.7443825655</v>
       </c>
       <c r="I31" t="n">
         <v>196286.3037276245</v>
@@ -15352,13 +15352,13 @@
         <v>219657.1521303262</v>
       </c>
       <c r="K31" t="n">
-        <v>54558.20554156609</v>
+        <v>57965.05203039952</v>
       </c>
       <c r="L31" t="n">
-        <v>52725.71914006777</v>
+        <v>64284.12565620551</v>
       </c>
       <c r="M31" t="n">
-        <v>22282.62547460201</v>
+        <v>50897.30687899001</v>
       </c>
       <c r="N31" t="n">
         <v>234102.8908296798</v>
@@ -15370,13 +15370,13 @@
         <v>90743.76749615703</v>
       </c>
       <c r="Q31" t="n">
-        <v>19777.53470325909</v>
+        <v>1562920.277940185</v>
       </c>
       <c r="R31" t="n">
+        <v>21139.29810942825</v>
+      </c>
+      <c r="S31" t="n">
         <v>1010988.615625</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1562382.53347809</v>
       </c>
       <c r="T31" t="n">
         <v>328966.6690500002</v>

--- a/examples/eCommerce_results.xlsx
+++ b/examples/eCommerce_results.xlsx
@@ -564,7 +564,7 @@
         <v>-2010.228553741414</v>
       </c>
       <c r="G2" t="n">
-        <v>-31653.27347925276</v>
+        <v>-23737.45423611093</v>
       </c>
       <c r="H2" t="n">
         <v>-24908.45000000003</v>
@@ -576,7 +576,7 @@
         <v>-14.78261593917538</v>
       </c>
       <c r="K2" t="n">
-        <v>-34800.41626882418</v>
+        <v>-33381.61405348864</v>
       </c>
       <c r="L2" t="n">
         <v>1230.434097153524</v>
@@ -591,19 +591,19 @@
         <v>13449.92246151956</v>
       </c>
       <c r="P2" t="n">
-        <v>24921.49941678647</v>
+        <v>63593.35134848663</v>
       </c>
       <c r="Q2" t="n">
-        <v>60845.45761722931</v>
+        <v>64551.19520543823</v>
       </c>
       <c r="R2" t="n">
-        <v>42107.72301774776</v>
+        <v>41525.10632447904</v>
       </c>
       <c r="S2" t="n">
-        <v>37193.00559726088</v>
+        <v>42417.37720059092</v>
       </c>
       <c r="T2" t="n">
-        <v>-20636.6265289151</v>
+        <v>-19746.73223734764</v>
       </c>
     </row>
     <row r="3">
@@ -626,7 +626,7 @@
         <v>2045.051521716429</v>
       </c>
       <c r="G3" t="n">
-        <v>94154.43037257173</v>
+        <v>86379.54282419907</v>
       </c>
       <c r="H3" t="n">
         <v>18136.86750000004</v>
@@ -638,7 +638,7 @@
         <v>13.18063668333293</v>
       </c>
       <c r="K3" t="n">
-        <v>27559.01945512151</v>
+        <v>28603.30157296189</v>
       </c>
       <c r="L3" t="n">
         <v>1296.225876933158</v>
@@ -653,19 +653,19 @@
         <v>28958.90909820526</v>
       </c>
       <c r="P3" t="n">
-        <v>11305.51535550991</v>
+        <v>23286.9975349218</v>
       </c>
       <c r="Q3" t="n">
-        <v>61926.95777345904</v>
+        <v>54561.97572889931</v>
       </c>
       <c r="R3" t="n">
-        <v>44340.98033276803</v>
+        <v>44936.97096187925</v>
       </c>
       <c r="S3" t="n">
-        <v>45087.58582238821</v>
+        <v>45739.14716788363</v>
       </c>
       <c r="T3" t="n">
-        <v>22835.02709821458</v>
+        <v>22497.18504397481</v>
       </c>
     </row>
     <row r="4">
@@ -688,7 +688,7 @@
         <v>1894.076948068246</v>
       </c>
       <c r="G4" t="n">
-        <v>40989.58380377358</v>
+        <v>49065.84051933511</v>
       </c>
       <c r="H4" t="n">
         <v>21289.58800000001</v>
@@ -700,7 +700,7 @@
         <v>14.39450827275616</v>
       </c>
       <c r="K4" t="n">
-        <v>28512.26653477179</v>
+        <v>27000.55730578322</v>
       </c>
       <c r="L4" t="n">
         <v>1278.462967089622</v>
@@ -715,19 +715,19 @@
         <v>45456.04217436</v>
       </c>
       <c r="P4" t="n">
-        <v>80836.05469380032</v>
+        <v>70094.31167080114</v>
       </c>
       <c r="Q4" t="n">
-        <v>47828.91507552422</v>
+        <v>61682.4158241988</v>
       </c>
       <c r="R4" t="n">
-        <v>41094.40479973262</v>
+        <v>41390.3878863976</v>
       </c>
       <c r="S4" t="n">
-        <v>65416.90822756301</v>
+        <v>65842.87582910556</v>
       </c>
       <c r="T4" t="n">
-        <v>16587.29584412201</v>
+        <v>17124.62197468262</v>
       </c>
     </row>
     <row r="5">
@@ -750,7 +750,7 @@
         <v>799.6082411981349</v>
       </c>
       <c r="G5" t="n">
-        <v>15778.26130785816</v>
+        <v>7807.739021726243</v>
       </c>
       <c r="H5" t="n">
         <v>5556.284499999912</v>
@@ -762,7 +762,7 @@
         <v>6.403219004031943</v>
       </c>
       <c r="K5" t="n">
-        <v>-7726.055912839094</v>
+        <v>-6384.590267921537</v>
       </c>
       <c r="L5" t="n">
         <v>1262.550462910109</v>
@@ -777,19 +777,19 @@
         <v>49621.3185675876</v>
       </c>
       <c r="P5" t="n">
-        <v>73064.22559659788</v>
+        <v>49540.82854800529</v>
       </c>
       <c r="Q5" t="n">
-        <v>60106.45998315521</v>
+        <v>56566.53464933641</v>
       </c>
       <c r="R5" t="n">
-        <v>37110.64658326959</v>
+        <v>36932.82818192994</v>
       </c>
       <c r="S5" t="n">
-        <v>63777.67968164008</v>
+        <v>60372.53708367121</v>
       </c>
       <c r="T5" t="n">
-        <v>-1437.505667095175</v>
+        <v>-1880.027604121383</v>
       </c>
     </row>
     <row r="6">
@@ -812,7 +812,7 @@
         <v>271.5462951355078</v>
       </c>
       <c r="G6" t="n">
-        <v>56994.8091885588</v>
+        <v>71259.75436274377</v>
       </c>
       <c r="H6" t="n">
         <v>-6671.63899999999</v>
@@ -824,7 +824,7 @@
         <v>-7.289882956607377</v>
       </c>
       <c r="K6" t="n">
-        <v>24840.79289890398</v>
+        <v>25973.92557042808</v>
       </c>
       <c r="L6" t="n">
         <v>1255.78759578069</v>
@@ -839,19 +839,19 @@
         <v>43295.17907365092</v>
       </c>
       <c r="P6" t="n">
-        <v>54960.34716660686</v>
+        <v>48679.37289124734</v>
       </c>
       <c r="Q6" t="n">
-        <v>50413.64737402803</v>
+        <v>55959.4468099118</v>
       </c>
       <c r="R6" t="n">
-        <v>36612.4353242517</v>
+        <v>36134.65321985339</v>
       </c>
       <c r="S6" t="n">
-        <v>58463.03095449891</v>
+        <v>58311.41133651465</v>
       </c>
       <c r="T6" t="n">
-        <v>11324.34248650388</v>
+        <v>12800.45766975882</v>
       </c>
     </row>
     <row r="7">
@@ -874,7 +874,7 @@
         <v>1443.832366095757</v>
       </c>
       <c r="G7" t="n">
-        <v>22829.35358210406</v>
+        <v>23328.92619944866</v>
       </c>
       <c r="H7" t="n">
         <v>10234.19949999999</v>
@@ -886,7 +886,7 @@
         <v>13.18726767805453</v>
       </c>
       <c r="K7" t="n">
-        <v>22851.75948239905</v>
+        <v>22863.18314160917</v>
       </c>
       <c r="L7" t="n">
         <v>1274.112234966248</v>
@@ -901,19 +901,19 @@
         <v>47192.5418525531</v>
       </c>
       <c r="P7" t="n">
-        <v>45686.43159645951</v>
+        <v>41165.92437665617</v>
       </c>
       <c r="Q7" t="n">
-        <v>59401.47586860367</v>
+        <v>67401.47436511228</v>
       </c>
       <c r="R7" t="n">
-        <v>43800.42314795858</v>
+        <v>42230.33886222696</v>
       </c>
       <c r="S7" t="n">
-        <v>61067.55964793768</v>
+        <v>61306.23552180938</v>
       </c>
       <c r="T7" t="n">
-        <v>14115.31087678621</v>
+        <v>14154.35546363145</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +936,7 @@
         <v>1095.566524521999</v>
       </c>
       <c r="G8" t="n">
-        <v>69975.89004029057</v>
+        <v>74004.57819017068</v>
       </c>
       <c r="H8" t="n">
         <v>18233.07049999997</v>
@@ -948,7 +948,7 @@
         <v>4.504745211995747</v>
       </c>
       <c r="K8" t="n">
-        <v>25515.03459010477</v>
+        <v>25671.11333322746</v>
       </c>
       <c r="L8" t="n">
         <v>1264.428191248251</v>
@@ -963,19 +963,19 @@
         <v>42248.17247885242</v>
       </c>
       <c r="P8" t="n">
-        <v>52508.77262398608</v>
+        <v>63257.36043670186</v>
       </c>
       <c r="Q8" t="n">
-        <v>67787.55323853801</v>
+        <v>71222.28157788227</v>
       </c>
       <c r="R8" t="n">
-        <v>40181.80611340558</v>
+        <v>42610.759532027</v>
       </c>
       <c r="S8" t="n">
-        <v>63580.9007326255</v>
+        <v>65657.4344289607</v>
       </c>
       <c r="T8" t="n">
-        <v>16490.49282856446</v>
+        <v>16992.22882471477</v>
       </c>
     </row>
     <row r="9">
@@ -998,7 +998,7 @@
         <v>-1511.545769359426</v>
       </c>
       <c r="G9" t="n">
-        <v>-15221.73271601373</v>
+        <v>-24485.98251792248</v>
       </c>
       <c r="H9" t="n">
         <v>-23313.48600000002</v>
@@ -1010,7 +1010,7 @@
         <v>-11.43211008918932</v>
       </c>
       <c r="K9" t="n">
-        <v>-34854.03840567345</v>
+        <v>-32755.83056493741</v>
       </c>
       <c r="L9" t="n">
         <v>1236.135512957806</v>
@@ -1025,19 +1025,19 @@
         <v>7218.503664499589</v>
       </c>
       <c r="P9" t="n">
-        <v>-7911.43708831371</v>
+        <v>10377.4523252085</v>
       </c>
       <c r="Q9" t="n">
-        <v>57703.55300601729</v>
+        <v>57166.94721134313</v>
       </c>
       <c r="R9" t="n">
-        <v>44265.24048413194</v>
+        <v>42258.89583930677</v>
       </c>
       <c r="S9" t="n">
-        <v>33666.51915835639</v>
+        <v>35634.76153010925</v>
       </c>
       <c r="T9" t="n">
-        <v>-17057.31562527225</v>
+        <v>-17518.97171688177</v>
       </c>
     </row>
     <row r="10">
@@ -1060,7 +1060,7 @@
         <v>1950.036689366141</v>
       </c>
       <c r="G10" t="n">
-        <v>86903.87400840095</v>
+        <v>95079.4499583658</v>
       </c>
       <c r="H10" t="n">
         <v>17292.40500000005</v>
@@ -1072,7 +1072,7 @@
         <v>12.34532522329358</v>
       </c>
       <c r="K10" t="n">
-        <v>25134.82736127346</v>
+        <v>25195.02035457626</v>
       </c>
       <c r="L10" t="n">
         <v>1292.697797827189</v>
@@ -1087,19 +1087,19 @@
         <v>21720.08753616921</v>
       </c>
       <c r="P10" t="n">
-        <v>62185.00809935042</v>
+        <v>45306.9549348057</v>
       </c>
       <c r="Q10" t="n">
-        <v>61525.54095962652</v>
+        <v>53161.66970082231</v>
       </c>
       <c r="R10" t="n">
-        <v>42555.61250505751</v>
+        <v>44912.79207830734</v>
       </c>
       <c r="S10" t="n">
-        <v>52211.26036418015</v>
+        <v>49350.66725791775</v>
       </c>
       <c r="T10" t="n">
-        <v>20397.71577368389</v>
+        <v>21303.73145811132</v>
       </c>
     </row>
     <row r="11">
@@ -1122,7 +1122,7 @@
         <v>1512.204622835688</v>
       </c>
       <c r="G11" t="n">
-        <v>49953.78062804925</v>
+        <v>65042.57501416824</v>
       </c>
       <c r="H11" t="n">
         <v>20011.57799999999</v>
@@ -1134,7 +1134,7 @@
         <v>12.75476627527777</v>
       </c>
       <c r="K11" t="n">
-        <v>28913.0607181235</v>
+        <v>26698.98553084154</v>
       </c>
       <c r="L11" t="n">
         <v>1273.747108453626</v>
@@ -1149,19 +1149,19 @@
         <v>37769.31184239756</v>
       </c>
       <c r="P11" t="n">
-        <v>43079.27691251344</v>
+        <v>49757.2022294224</v>
       </c>
       <c r="Q11" t="n">
-        <v>68680.12316998551</v>
+        <v>55551.25534938283</v>
       </c>
       <c r="R11" t="n">
-        <v>36882.976952982</v>
+        <v>39915.57535778885</v>
       </c>
       <c r="S11" t="n">
-        <v>63777.85140436658</v>
+        <v>63350.55839200571</v>
       </c>
       <c r="T11" t="n">
-        <v>20869.10649254953</v>
+        <v>21954.10120226076</v>
       </c>
     </row>
     <row r="12">
@@ -1184,7 +1184,7 @@
         <v>1052.558545403775</v>
       </c>
       <c r="G12" t="n">
-        <v>49454.90958231627</v>
+        <v>46189.80833773117</v>
       </c>
       <c r="H12" t="n">
         <v>6709.74149999994</v>
@@ -1196,7 +1196,7 @@
         <v>9.162383695061818</v>
       </c>
       <c r="K12" t="n">
-        <v>7810.531921656134</v>
+        <v>8302.434577896833</v>
       </c>
       <c r="L12" t="n">
         <v>1265.858682855186</v>
@@ -1211,19 +1211,19 @@
         <v>42037.03125140756</v>
       </c>
       <c r="P12" t="n">
-        <v>44824.97301707572</v>
+        <v>47894.51048987067</v>
       </c>
       <c r="Q12" t="n">
-        <v>68345.12010573456</v>
+        <v>66714.28319667288</v>
       </c>
       <c r="R12" t="n">
-        <v>41967.53342409438</v>
+        <v>40142.34774194365</v>
       </c>
       <c r="S12" t="n">
-        <v>62898.90969337833</v>
+        <v>62850.59905357615</v>
       </c>
       <c r="T12" t="n">
-        <v>4831.797463251744</v>
+        <v>4738.45641486608</v>
       </c>
     </row>
     <row r="13">
@@ -1246,7 +1246,7 @@
         <v>224.4320731680227</v>
       </c>
       <c r="G13" t="n">
-        <v>35908.18790273961</v>
+        <v>40882.77091750121</v>
       </c>
       <c r="H13" t="n">
         <v>-7726.996999999971</v>
@@ -1258,7 +1258,7 @@
         <v>-7.963918118943501</v>
       </c>
       <c r="K13" t="n">
-        <v>23137.00696362899</v>
+        <v>24106.88104757851</v>
       </c>
       <c r="L13" t="n">
         <v>1256.513666008644</v>
@@ -1273,19 +1273,19 @@
         <v>36407.92322078226</v>
       </c>
       <c r="P13" t="n">
-        <v>51067.13482128389</v>
+        <v>49072.61219798035</v>
       </c>
       <c r="Q13" t="n">
-        <v>49399.18640930957</v>
+        <v>60865.2847109259</v>
       </c>
       <c r="R13" t="n">
-        <v>40712.51989438688</v>
+        <v>47581.1874640987</v>
       </c>
       <c r="S13" t="n">
-        <v>59463.43904041179</v>
+        <v>61505.96944641487</v>
       </c>
       <c r="T13" t="n">
-        <v>7996.168752438232</v>
+        <v>8583.035170339572</v>
       </c>
     </row>
     <row r="14">
@@ -1308,7 +1308,7 @@
         <v>1460.926762270726</v>
       </c>
       <c r="G14" t="n">
-        <v>49893.66396787528</v>
+        <v>41557.28485707197</v>
       </c>
       <c r="H14" t="n">
         <v>13141.9225</v>
@@ -1320,7 +1320,7 @@
         <v>12.9386428049169</v>
       </c>
       <c r="K14" t="n">
-        <v>24318.33082049429</v>
+        <v>23646.38378017283</v>
       </c>
       <c r="L14" t="n">
         <v>1274.107862539975</v>
@@ -1335,19 +1335,19 @@
         <v>41469.92775586007</v>
       </c>
       <c r="P14" t="n">
-        <v>40656.01092377608</v>
+        <v>54248.03310644932</v>
       </c>
       <c r="Q14" t="n">
-        <v>66266.29141745875</v>
+        <v>61069.65224539348</v>
       </c>
       <c r="R14" t="n">
-        <v>39744.58421041077</v>
+        <v>43372.07141438728</v>
       </c>
       <c r="S14" t="n">
-        <v>62036.81749244052</v>
+        <v>63539.67626926359</v>
       </c>
       <c r="T14" t="n">
-        <v>13284.28383803047</v>
+        <v>12545.14067331541</v>
       </c>
     </row>
     <row r="15">
@@ -1370,7 +1370,7 @@
         <v>1030.686908926047</v>
       </c>
       <c r="G15" t="n">
-        <v>58200.31030531401</v>
+        <v>62545.11514847528</v>
       </c>
       <c r="H15" t="n">
         <v>18233.07049999997</v>
@@ -1382,7 +1382,7 @@
         <v>5.97270246822318</v>
       </c>
       <c r="K15" t="n">
-        <v>25060.57950445396</v>
+        <v>24892.19362528732</v>
       </c>
       <c r="L15" t="n">
         <v>1264.010569082273</v>
@@ -1397,19 +1397,19 @@
         <v>36880.06771560646</v>
       </c>
       <c r="P15" t="n">
-        <v>25371.65978437367</v>
+        <v>18250.25229992124</v>
       </c>
       <c r="Q15" t="n">
-        <v>65303.490787083</v>
+        <v>61554.28790738591</v>
       </c>
       <c r="R15" t="n">
-        <v>43548.92242657399</v>
+        <v>41117.53446062809</v>
       </c>
       <c r="S15" t="n">
-        <v>61590.39544048427</v>
+        <v>59927.64564922234</v>
       </c>
       <c r="T15" t="n">
-        <v>20583.78784998482</v>
+        <v>21039.09836597649</v>
       </c>
     </row>
     <row r="16">
@@ -1432,7 +1432,7 @@
         <v>-1326.00363767874</v>
       </c>
       <c r="G16" t="n">
-        <v>-13938.45668903402</v>
+        <v>-25399.36049266842</v>
       </c>
       <c r="H16" t="n">
         <v>-29301.05650000001</v>
@@ -1444,7 +1444,7 @@
         <v>-9.415794106007247</v>
       </c>
       <c r="K16" t="n">
-        <v>-34072.01964655422</v>
+        <v>-32611.77944755976</v>
       </c>
       <c r="L16" t="n">
         <v>1237.937606030325</v>
@@ -1459,19 +1459,19 @@
         <v>2700.758024467725</v>
       </c>
       <c r="P16" t="n">
-        <v>15924.04525400775</v>
+        <v>60754.06126196989</v>
       </c>
       <c r="Q16" t="n">
-        <v>73030.7907569916</v>
+        <v>57195.01610990771</v>
       </c>
       <c r="R16" t="n">
-        <v>42572.3182343573</v>
+        <v>42838.47884695387</v>
       </c>
       <c r="S16" t="n">
-        <v>39747.79086187674</v>
+        <v>43405.34110856109</v>
       </c>
       <c r="T16" t="n">
-        <v>-17345.38592405313</v>
+        <v>-18079.3682753253</v>
       </c>
     </row>
     <row r="17">
@@ -1494,7 +1494,7 @@
         <v>1907.381328226168</v>
       </c>
       <c r="G17" t="n">
-        <v>88566.82762734755</v>
+        <v>96744.82894674518</v>
       </c>
       <c r="H17" t="n">
         <v>17584.36955000007</v>
@@ -1506,7 +1506,7 @@
         <v>12.4944903121996</v>
       </c>
       <c r="K17" t="n">
-        <v>25134.82736127346</v>
+        <v>25100.27519936963</v>
       </c>
       <c r="L17" t="n">
         <v>1290.93713040789</v>
@@ -1521,19 +1521,19 @@
         <v>14821.02945510886</v>
       </c>
       <c r="P17" t="n">
-        <v>64299.76170444796</v>
+        <v>50624.00044621534</v>
       </c>
       <c r="Q17" t="n">
-        <v>60306.20976879605</v>
+        <v>65681.20510535548</v>
       </c>
       <c r="R17" t="n">
-        <v>43785.76617937243</v>
+        <v>43164.51821775442</v>
       </c>
       <c r="S17" t="n">
-        <v>53576.84029330439</v>
+        <v>52461.588557893</v>
       </c>
       <c r="T17" t="n">
-        <v>20396.36720163223</v>
+        <v>21295.51077785731</v>
       </c>
     </row>
     <row r="18">
@@ -1556,7 +1556,7 @@
         <v>1380.892964403299</v>
       </c>
       <c r="G18" t="n">
-        <v>58101.28173621363</v>
+        <v>44285.32996844038</v>
       </c>
       <c r="H18" t="n">
         <v>20226.5885</v>
@@ -1568,7 +1568,7 @@
         <v>11.5775524890066</v>
       </c>
       <c r="K18" t="n">
-        <v>29076.3656374305</v>
+        <v>27148.60153336015</v>
       </c>
       <c r="L18" t="n">
         <v>1271.422082689969</v>
@@ -1583,19 +1583,19 @@
         <v>33260.3827504313</v>
       </c>
       <c r="P18" t="n">
-        <v>68850.58239946076</v>
+        <v>76671.47069400857</v>
       </c>
       <c r="Q18" t="n">
-        <v>61552.41742684849</v>
+        <v>64098.06544999787</v>
       </c>
       <c r="R18" t="n">
-        <v>41720.14483726626</v>
+        <v>41925.05598014003</v>
       </c>
       <c r="S18" t="n">
-        <v>68111.59639957656</v>
+        <v>69433.02733214792</v>
       </c>
       <c r="T18" t="n">
-        <v>17909.91148802642</v>
+        <v>16543.23086087453</v>
       </c>
     </row>
     <row r="19">
@@ -1618,7 +1618,7 @@
         <v>1049.980448045935</v>
       </c>
       <c r="G19" t="n">
-        <v>63063.17492409401</v>
+        <v>62313.11383813343</v>
       </c>
       <c r="H19" t="n">
         <v>7298.272499999936</v>
@@ -1630,7 +1630,7 @@
         <v>10.25154642608125</v>
       </c>
       <c r="K19" t="n">
-        <v>21677.81819828479</v>
+        <v>23855.63130254964</v>
       </c>
       <c r="L19" t="n">
         <v>1266.483271731082</v>
@@ -1645,19 +1645,19 @@
         <v>41192.50587930033</v>
       </c>
       <c r="P19" t="n">
-        <v>54294.1930589617</v>
+        <v>63664.18410833785</v>
       </c>
       <c r="Q19" t="n">
-        <v>66719.6491377146</v>
+        <v>59695.4394208134</v>
       </c>
       <c r="R19" t="n">
-        <v>43265.16468379652</v>
+        <v>42689.14727967387</v>
       </c>
       <c r="S19" t="n">
-        <v>65898.28174175759</v>
+        <v>66119.50223280163</v>
       </c>
       <c r="T19" t="n">
-        <v>11773.26262401666</v>
+        <v>12110.61223099167</v>
       </c>
     </row>
     <row r="20">
@@ -1680,7 +1680,7 @@
         <v>300.0807795484625</v>
       </c>
       <c r="G20" t="n">
-        <v>26124.24415615048</v>
+        <v>45683.39825433848</v>
       </c>
       <c r="H20" t="n">
         <v>-8306.995499999972</v>
@@ -1692,7 +1692,7 @@
         <v>-5.966769717234002</v>
       </c>
       <c r="K20" t="n">
-        <v>24318.33082049429</v>
+        <v>23198.64585580551</v>
       </c>
       <c r="L20" t="n">
         <v>1258.284925457181</v>
@@ -1707,19 +1707,19 @@
         <v>39742.3531426581</v>
       </c>
       <c r="P20" t="n">
-        <v>48367.59593454457</v>
+        <v>13151.70083497541</v>
       </c>
       <c r="Q20" t="n">
-        <v>75762.23010477136</v>
+        <v>67182.7918092818</v>
       </c>
       <c r="R20" t="n">
-        <v>42429.18263385749</v>
+        <v>45397.13255508996</v>
       </c>
       <c r="S20" t="n">
-        <v>65015.02890236961</v>
+        <v>59911.60596814133</v>
       </c>
       <c r="T20" t="n">
-        <v>8401.831674161283</v>
+        <v>9951.74164356883</v>
       </c>
     </row>
     <row r="21">
@@ -1742,7 +1742,7 @@
         <v>1483.947106357128</v>
       </c>
       <c r="G21" t="n">
-        <v>79218.39923008374</v>
+        <v>47884.86740643639</v>
       </c>
       <c r="H21" t="n">
         <v>14283.22399999998</v>
@@ -1754,7 +1754,7 @@
         <v>13.42899999082117</v>
       </c>
       <c r="K21" t="n">
-        <v>24810.81809335975</v>
+        <v>24934.18282385098</v>
       </c>
       <c r="L21" t="n">
         <v>1274.286144884742</v>
@@ -1769,19 +1769,19 @@
         <v>46585.53030550793</v>
       </c>
       <c r="P21" t="n">
-        <v>52087.45857343681</v>
+        <v>39567.62506106799</v>
       </c>
       <c r="Q21" t="n">
-        <v>80042.46240904044</v>
+        <v>64139.05235477396</v>
       </c>
       <c r="R21" t="n">
-        <v>44517.61214801675</v>
+        <v>44578.42614648944</v>
       </c>
       <c r="S21" t="n">
-        <v>68386.11381170343</v>
+        <v>64840.81011568311</v>
       </c>
       <c r="T21" t="n">
-        <v>17080.73281137021</v>
+        <v>14537.58185114355</v>
       </c>
     </row>
     <row r="22">
@@ -1804,7 +1804,7 @@
         <v>1001.551190709267</v>
       </c>
       <c r="G22" t="n">
-        <v>55396.90845267304</v>
+        <v>56192.99616004345</v>
       </c>
       <c r="H22" t="n">
         <v>18233.07049999996</v>
@@ -1816,7 +1816,7 @@
         <v>5.340545811274772</v>
       </c>
       <c r="K22" t="n">
-        <v>25892.89995664779</v>
+        <v>26741.78551441984</v>
       </c>
       <c r="L22" t="n">
         <v>1263.104125255549</v>
@@ -1831,19 +1831,19 @@
         <v>36977.19503308724</v>
       </c>
       <c r="P22" t="n">
-        <v>32583.7475807548</v>
+        <v>71706.53145326386</v>
       </c>
       <c r="Q22" t="n">
-        <v>62878.32509154984</v>
+        <v>63941.4127049894</v>
       </c>
       <c r="R22" t="n">
-        <v>49514.99253558225</v>
+        <v>46813.36397136754</v>
       </c>
       <c r="S22" t="n">
-        <v>64908.92555960013</v>
+        <v>69594.45592481688</v>
       </c>
       <c r="T22" t="n">
-        <v>18222.56071727571</v>
+        <v>18487.47385314389</v>
       </c>
     </row>
     <row r="23">
@@ -1866,7 +1866,7 @@
         <v>-1108.87752231716</v>
       </c>
       <c r="G23" t="n">
-        <v>-18952.50869644501</v>
+        <v>-20181.18200554496</v>
       </c>
       <c r="H23" t="n">
         <v>-27851.87650000006</v>
@@ -1878,7 +1878,7 @@
         <v>-6.585889752727697</v>
       </c>
       <c r="K23" t="n">
-        <v>-34990.99989082287</v>
+        <v>-32222.56014701996</v>
       </c>
       <c r="L23" t="n">
         <v>1240.167415903525</v>
@@ -1893,19 +1893,19 @@
         <v>5948.978066760883</v>
       </c>
       <c r="P23" t="n">
-        <v>10381.56080648267</v>
+        <v>71755.52635284077</v>
       </c>
       <c r="Q23" t="n">
-        <v>70712.11385655413</v>
+        <v>68962.05134898731</v>
       </c>
       <c r="R23" t="n">
-        <v>51576.82323197431</v>
+        <v>48625.53520065403</v>
       </c>
       <c r="S23" t="n">
-        <v>42259.00150157085</v>
+        <v>49343.07837750472</v>
       </c>
       <c r="T23" t="n">
-        <v>-18949.00999840293</v>
+        <v>-18638.31767394146</v>
       </c>
     </row>
     <row r="24">
@@ -1928,7 +1928,7 @@
         <v>1727.195844392329</v>
       </c>
       <c r="G24" t="n">
-        <v>94910.60766453811</v>
+        <v>93703.55893078732</v>
       </c>
       <c r="H24" t="n">
         <v>15548.55350000004</v>
@@ -1940,7 +1940,7 @@
         <v>11.87922787278215</v>
       </c>
       <c r="K24" t="n">
-        <v>25134.82736127346</v>
+        <v>24895.15148596893</v>
       </c>
       <c r="L24" t="n">
         <v>1286.77565476322</v>
@@ -1955,19 +1955,19 @@
         <v>19643.51002382307</v>
       </c>
       <c r="P24" t="n">
-        <v>22275.7134644911</v>
+        <v>43087.97756963825</v>
       </c>
       <c r="Q24" t="n">
-        <v>55629.34206656821</v>
+        <v>52704.47165021308</v>
       </c>
       <c r="R24" t="n">
-        <v>48645.90882538266</v>
+        <v>50594.47023473091</v>
       </c>
       <c r="S24" t="n">
-        <v>50911.81888057183</v>
+        <v>53391.31326783936</v>
       </c>
       <c r="T24" t="n">
-        <v>21515.64534579094</v>
+        <v>21593.30336712735</v>
       </c>
     </row>
     <row r="25">
@@ -1990,7 +1990,7 @@
         <v>1158.057902460165</v>
       </c>
       <c r="G25" t="n">
-        <v>52342.04502414824</v>
+        <v>46972.28313580511</v>
       </c>
       <c r="H25" t="n">
         <v>23863.8535</v>
@@ -2002,7 +2002,7 @@
         <v>9.199101587270569</v>
       </c>
       <c r="K25" t="n">
-        <v>28078.19414885074</v>
+        <v>24952.70855490487</v>
       </c>
       <c r="L25" t="n">
         <v>1268.295186276576</v>
@@ -2017,19 +2017,19 @@
         <v>35647.3538172283</v>
       </c>
       <c r="P25" t="n">
-        <v>71448.14210277508</v>
+        <v>88958.11373587859</v>
       </c>
       <c r="Q25" t="n">
-        <v>54665.91599426277</v>
+        <v>68261.81942405114</v>
       </c>
       <c r="R25" t="n">
-        <v>48103.76757736809</v>
+        <v>45183.17296261645</v>
       </c>
       <c r="S25" t="n">
-        <v>70634.06808747993</v>
+        <v>74157.22814349746</v>
       </c>
       <c r="T25" t="n">
-        <v>17517.96001338197</v>
+        <v>16716.2049375826</v>
       </c>
     </row>
     <row r="26">
@@ -2052,7 +2052,7 @@
         <v>1026.222551530951</v>
       </c>
       <c r="G26" t="n">
-        <v>57689.08257076218</v>
+        <v>61169.62858831874</v>
       </c>
       <c r="H26" t="n">
         <v>417.6729999999865</v>
@@ -2064,7 +2064,7 @@
         <v>10.03938275984755</v>
       </c>
       <c r="K26" t="n">
-        <v>36467.03718907152</v>
+        <v>36250.39324547326</v>
       </c>
       <c r="L26" t="n">
         <v>1264.900644616614</v>
@@ -2079,19 +2079,19 @@
         <v>42522.52777390894</v>
       </c>
       <c r="P26" t="n">
-        <v>55197.94495687194</v>
+        <v>59402.45202563413</v>
       </c>
       <c r="Q26" t="n">
-        <v>66427.79572136114</v>
+        <v>61698.4376590521</v>
       </c>
       <c r="R26" t="n">
-        <v>47562.04718747443</v>
+        <v>46647.75922341204</v>
       </c>
       <c r="S26" t="n">
-        <v>68640.39727993465</v>
+        <v>68460.5049102335</v>
       </c>
       <c r="T26" t="n">
-        <v>12182.30668452122</v>
+        <v>12506.36959975493</v>
       </c>
     </row>
     <row r="27">
@@ -2114,7 +2114,7 @@
         <v>455.0426877692791</v>
       </c>
       <c r="G27" t="n">
-        <v>48978.6754788855</v>
+        <v>49776.54634468206</v>
       </c>
       <c r="H27" t="n">
         <v>-3118.889499999995</v>
@@ -2126,7 +2126,7 @@
         <v>-2.789545348979084</v>
       </c>
       <c r="K27" t="n">
-        <v>24134.06716775517</v>
+        <v>24177.53304951475</v>
       </c>
       <c r="L27" t="n">
         <v>1256.944388334691</v>
@@ -2141,19 +2141,19 @@
         <v>41224.8154983516</v>
       </c>
       <c r="P27" t="n">
-        <v>66992.77436768719</v>
+        <v>55656.68615392454</v>
       </c>
       <c r="Q27" t="n">
-        <v>50412.32634714849</v>
+        <v>65922.54385669538</v>
       </c>
       <c r="R27" t="n">
-        <v>50377.38927786059</v>
+        <v>52196.3322312177</v>
       </c>
       <c r="S27" t="n">
-        <v>67315.53703996737</v>
+        <v>68064.67107111003</v>
       </c>
       <c r="T27" t="n">
-        <v>12203.07356048294</v>
+        <v>12346.98487281558</v>
       </c>
     </row>
     <row r="28">
@@ -2176,7 +2176,7 @@
         <v>1283.673297384548</v>
       </c>
       <c r="G28" t="n">
-        <v>55811.97156328708</v>
+        <v>45161.93961070799</v>
       </c>
       <c r="H28" t="n">
         <v>2787.222000000029</v>
@@ -2188,7 +2188,7 @@
         <v>12.19040654261755</v>
       </c>
       <c r="K28" t="n">
-        <v>24927.58756963794</v>
+        <v>24524.34280865871</v>
       </c>
       <c r="L28" t="n">
         <v>1270.713241581162</v>
@@ -2203,19 +2203,19 @@
         <v>46546.37855601759</v>
       </c>
       <c r="P28" t="n">
-        <v>17697.38355376201</v>
+        <v>44033.85035115039</v>
       </c>
       <c r="Q28" t="n">
-        <v>70246.61554856012</v>
+        <v>79759.19566740404</v>
       </c>
       <c r="R28" t="n">
-        <v>48406.96954985715</v>
+        <v>51809.77989240594</v>
       </c>
       <c r="S28" t="n">
-        <v>65306.41446142153</v>
+        <v>70212.89661876917</v>
       </c>
       <c r="T28" t="n">
-        <v>15855.19376747038</v>
+        <v>14967.43000666423</v>
       </c>
     </row>
     <row r="29">
@@ -2238,7 +2238,7 @@
         <v>908.7402385791105</v>
       </c>
       <c r="G29" t="n">
-        <v>55663.24147475293</v>
+        <v>50264.50863686387</v>
       </c>
       <c r="H29" t="n">
         <v>11856.04149999998</v>
@@ -2250,7 +2250,7 @@
         <v>5.528977697766722</v>
       </c>
       <c r="K29" t="n">
-        <v>24927.58756963794</v>
+        <v>24396.81994329164</v>
       </c>
       <c r="L29" t="n">
         <v>1262.410814447519</v>
@@ -2265,19 +2265,19 @@
         <v>41058.17917366951</v>
       </c>
       <c r="P29" t="n">
-        <v>68135.95361963818</v>
+        <v>61121.18982945093</v>
       </c>
       <c r="Q29" t="n">
-        <v>69152.84620905528</v>
+        <v>66012.45551802823</v>
       </c>
       <c r="R29" t="n">
-        <v>54846.68624770053</v>
+        <v>51186.90402819521</v>
       </c>
       <c r="S29" t="n">
-        <v>73276.11636393635</v>
+        <v>71549.2492763464</v>
       </c>
       <c r="T29" t="n">
-        <v>15040.19661031657</v>
+        <v>14591.21500161381</v>
       </c>
     </row>
     <row r="30">
@@ -2300,7 +2300,7 @@
         <v>-826.1153535065314</v>
       </c>
       <c r="G30" t="n">
-        <v>-11208.57814027847</v>
+        <v>-16315.15132811861</v>
       </c>
       <c r="H30" t="n">
         <v>-32497.98350000001</v>
@@ -2312,7 +2312,7 @@
         <v>-1.234385372468789</v>
       </c>
       <c r="K30" t="n">
-        <v>-34789.66979147413</v>
+        <v>-32403.17978903089</v>
       </c>
       <c r="L30" t="n">
         <v>1244.01536526352</v>
@@ -2327,19 +2327,19 @@
         <v>6260.511298637908</v>
       </c>
       <c r="P30" t="n">
-        <v>43079.59547872996</v>
+        <v>26033.54685829286</v>
       </c>
       <c r="Q30" t="n">
-        <v>74840.74371326577</v>
+        <v>77377.95703824173</v>
       </c>
       <c r="R30" t="n">
-        <v>54022.15504580148</v>
+        <v>51042.79519329078</v>
       </c>
       <c r="S30" t="n">
-        <v>49169.20787659989</v>
+        <v>46983.18348310341</v>
       </c>
       <c r="T30" t="n">
-        <v>-17545.8732385012</v>
+        <v>-17597.25743425151</v>
       </c>
     </row>
     <row r="31">
@@ -2362,7 +2362,7 @@
         <v>1842.529128816086</v>
       </c>
       <c r="G31" t="n">
-        <v>90857.21306841995</v>
+        <v>93993.30279987467</v>
       </c>
       <c r="H31" t="n">
         <v>15592.34650000004</v>
@@ -2374,7 +2374,7 @@
         <v>12.8902102188675</v>
       </c>
       <c r="K31" t="n">
-        <v>25134.82736127346</v>
+        <v>24835.16330178719</v>
       </c>
       <c r="L31" t="n">
         <v>1287.040206229642</v>
@@ -2389,19 +2389,19 @@
         <v>22053.27240501949</v>
       </c>
       <c r="P31" t="n">
-        <v>57965.05203039952</v>
+        <v>65170.28919181236</v>
       </c>
       <c r="Q31" t="n">
-        <v>64284.12565620551</v>
+        <v>58770.23544923969</v>
       </c>
       <c r="R31" t="n">
-        <v>50897.30687899001</v>
+        <v>54300.44747825868</v>
       </c>
       <c r="S31" t="n">
-        <v>58999.7443825655</v>
+        <v>59636.55532677996</v>
       </c>
       <c r="T31" t="n">
-        <v>21139.29810942825</v>
+        <v>21573.76237126133</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2643,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>24896.34402866636</v>
+        <v>23122.98940016923</v>
       </c>
       <c r="S2" t="n">
         <v>14239.57779119223</v>
@@ -2740,7 +2740,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>29109.76835736102</v>
+        <v>28614.23450602245</v>
       </c>
       <c r="S3" t="n">
         <v>12806.287941039</v>
@@ -2833,7 +2833,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>25876.65695975442</v>
+        <v>31716.14037866157</v>
       </c>
       <c r="S4" t="n">
         <v>14083.76932788602</v>
@@ -2870,101 +2870,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>hwes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
-        </is>
-      </c>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 100}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'trend': 'add'}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>32134.41921645716</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.043936887969358</v>
-      </c>
+        <v>36031.56799119545</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>22477.41571248888</v>
+        <v>21766.76329647402</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2804236431428839</v>
+        <v>0.03218045507021394</v>
       </c>
       <c r="O5" t="n">
-        <v>3734.891157476864</v>
+        <v>51447.91153270127</v>
       </c>
       <c r="P5" t="n">
-        <v>117011.1400000004</v>
+        <v>196134.1000000003</v>
       </c>
       <c r="Q5" t="n">
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>29786.91785011545</v>
+        <v>42068.73095071771</v>
       </c>
       <c r="S5" t="n">
-        <v>15488.03987594889</v>
+        <v>18893.82702196301</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>10731.02650113561</v>
+        <v>12871.94522961816</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4892170394157054</v>
-      </c>
-      <c r="W5" t="n">
-        <v>15</v>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y5" t="n">
-        <v>30617.8858491307</v>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+        <v>0.1709485114864812</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>35831.41728470146</v>
+        <v>36031.56799119545</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>28057.6913209041</v>
+        <v>21766.76329647402</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.04290281660379025</v>
+        <v>0.03218045507021394</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -2973,85 +2957,101 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hwes</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'trend': 'add'}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>{'max_depth': 3}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F6" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>36031.56799119545</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>32577.68641817396</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.423968201738429</v>
+      </c>
       <c r="M6" t="n">
-        <v>21766.76329647402</v>
+        <v>21520.29888365673</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03218045507021394</v>
+        <v>0.2604348255622841</v>
       </c>
       <c r="O6" t="n">
-        <v>51447.91153270127</v>
+        <v>-8370.699624495779</v>
       </c>
       <c r="P6" t="n">
-        <v>196134.1000000003</v>
+        <v>117011.1400000004</v>
       </c>
       <c r="Q6" t="n">
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>34796.69355925454</v>
+        <v>18627.22531513853</v>
       </c>
       <c r="S6" t="n">
-        <v>18893.82702196301</v>
+        <v>8320.614854728416</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>12871.94522961816</v>
+        <v>5793.290667746985</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1709485114864812</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="b">
-        <v>1</v>
-      </c>
+        <v>0.8525807068714482</v>
+      </c>
+      <c r="W6" t="n">
+        <v>15</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>35165.32845541724</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>36031.56799119545</v>
+        <v>36585.12154212184</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>21766.76329647402</v>
+        <v>28781.52492855417</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03218045507021394</v>
+        <v>0.00221477405802073</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -3060,12 +3060,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'max_depth': 3}</t>
+          <t>{'max_depth': 2, 'n_estimators': 1000}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3099,19 +3099,19 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>32577.68641817396</v>
+        <v>32606.80885036353</v>
       </c>
       <c r="L7" t="n">
-        <v>1.423968201738429</v>
+        <v>1.080050397551253</v>
       </c>
       <c r="M7" t="n">
-        <v>21520.29888365673</v>
+        <v>23181.79223560409</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2604348255622841</v>
+        <v>0.2591119837155145</v>
       </c>
       <c r="O7" t="n">
-        <v>-8370.699624495779</v>
+        <v>4192.390441419125</v>
       </c>
       <c r="P7" t="n">
         <v>117011.1400000004</v>
@@ -3120,17 +3120,17 @@
         <v>0.95</v>
       </c>
       <c r="R7" t="n">
-        <v>14701.0468166289</v>
+        <v>32236.71008771754</v>
       </c>
       <c r="S7" t="n">
-        <v>8320.614854728416</v>
+        <v>15510.82234751753</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>5793.290667746985</v>
+        <v>10740.69138026643</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8525807068714482</v>
+        <v>0.4877132394325226</v>
       </c>
       <c r="W7" t="n">
         <v>15</v>
@@ -3141,20 +3141,20 @@
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>35165.32845541724</v>
+        <v>31193.84613159765</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>36585.12154212184</v>
+        <v>37323.21380044613</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>28781.52492855417</v>
+        <v>29343.01519418092</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.00221477405802073</v>
+        <v>-0.03845128954491384</v>
       </c>
       <c r="AG7" t="b">
         <v>0</v>
@@ -3192,17 +3192,17 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>37706.15468474031</v>
+        <v>37405.41340106671</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>24267.05895792773</v>
+        <v>23906.16024384153</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.05986989010444765</v>
+        <v>-0.04303043855751687</v>
       </c>
       <c r="O8" t="n">
-        <v>35882.62398533886</v>
+        <v>34791.73846160332</v>
       </c>
       <c r="P8" t="n">
         <v>196134.1000000003</v>
@@ -3211,17 +3211,17 @@
         <v>0.95</v>
       </c>
       <c r="R8" t="n">
-        <v>59913.60401142602</v>
+        <v>58406.55990798986</v>
       </c>
       <c r="S8" t="n">
-        <v>33113.02816564414</v>
+        <v>32921.85896947524</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>18226.61266052369</v>
+        <v>18251.05581035955</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1826165090645403</v>
+        <v>0.1920271546704329</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
@@ -3234,14 +3234,14 @@
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>37706.15468474031</v>
+        <v>37405.41340106671</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>24267.05895792773</v>
+        <v>23906.16024384153</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.05986989010444765</v>
+        <v>-0.04303043855751687</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0.95</v>
       </c>
       <c r="R9" t="n">
-        <v>38447.75369964709</v>
+        <v>35235.45937048257</v>
       </c>
       <c r="S9" t="n">
         <v>21672.60733244562</v>
@@ -3353,22 +3353,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>simple_rnn</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
-        </is>
-      </c>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'alpha': 2.0, 'l1_ratio': 0.0}</t>
+          <t>{'lags': 30, 'hidden_layers_struct': {'simple': {'units': 64}}, 'validation_split': 0.2, 'epochs': 15}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3377,77 +3373,69 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>37716.63248718336</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.019969672400095</v>
-      </c>
+        <v>39136.43125093719</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>27436.44637033332</v>
+        <v>24713.62632599629</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00870755755046182</v>
+        <v>-0.1418012303961034</v>
       </c>
       <c r="O10" t="n">
-        <v>-264.5597914918802</v>
+        <v>22580.09451599865</v>
       </c>
       <c r="P10" t="n">
-        <v>117011.1400000004</v>
+        <v>196134.1000000003</v>
       </c>
       <c r="Q10" t="n">
         <v>0.95</v>
       </c>
       <c r="R10" t="n">
-        <v>43508.42132442213</v>
+        <v>41273.44531549441</v>
       </c>
       <c r="S10" t="n">
-        <v>21061.27766572115</v>
+        <v>35196.86527809964</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>14761.77964882487</v>
+        <v>21878.84793785514</v>
       </c>
       <c r="V10" t="n">
-        <v>0.05547618550817512</v>
-      </c>
-      <c r="W10" t="n">
-        <v>15</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
-        <v>28047.22725745376</v>
-      </c>
-      <c r="Z10" t="inlineStr"/>
+        <v>0.0765018358299363</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="b">
+        <v>1</v>
+      </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>39522.6929766469</v>
+        <v>39136.43125093719</v>
       </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>29811.01554651642</v>
+        <v>24713.62632599629</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.1644507423304884</v>
+        <v>-0.1418012303961034</v>
       </c>
       <c r="AG10" t="b">
         <v>0</v>
@@ -3456,18 +3444,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>simple_rnn</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rnn</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'lags': 30, 'hidden_layers_struct': {'simple': {'units': 64}}, 'validation_split': 0.2, 'epochs': 15}</t>
+          <t>{'alpha': 2.0, 'l1_ratio': 0.0}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3476,69 +3468,77 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>40249.15563421383</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>37716.63248718336</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.019969672400095</v>
+      </c>
       <c r="M11" t="n">
-        <v>26441.71468110971</v>
+        <v>27436.44637033332</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.2076514654427457</v>
+        <v>0.00870755755046182</v>
       </c>
       <c r="O11" t="n">
-        <v>33802.82038298992</v>
+        <v>-264.5597914918802</v>
       </c>
       <c r="P11" t="n">
-        <v>196134.1000000003</v>
+        <v>117011.1400000004</v>
       </c>
       <c r="Q11" t="n">
         <v>0.95</v>
       </c>
       <c r="R11" t="n">
-        <v>34859.21976684192</v>
+        <v>42463.01079446647</v>
       </c>
       <c r="S11" t="n">
-        <v>36765.68494659376</v>
+        <v>21061.27766572115</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>21828.17858930334</v>
+        <v>14761.77964882487</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.00765853411323536</v>
-      </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="b">
-        <v>1</v>
-      </c>
+        <v>0.05547618550817512</v>
+      </c>
+      <c r="W11" t="n">
+        <v>15</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>28047.22725745376</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>40249.15563421383</v>
+        <v>39522.6929766469</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>26441.71468110971</v>
+        <v>29811.01554651642</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.2076514654427457</v>
+        <v>-0.1644507423304884</v>
       </c>
       <c r="AG11" t="b">
         <v>0</v>
@@ -3582,17 +3582,17 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>40332.36818693822</v>
+        <v>40525.52590577089</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>28191.23106337304</v>
+        <v>28708.53140137782</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.212650111491212</v>
+        <v>-0.2242930487918209</v>
       </c>
       <c r="O12" t="n">
-        <v>34728.99528194068</v>
+        <v>33544.78974899052</v>
       </c>
       <c r="P12" t="n">
         <v>196134.1000000003</v>
@@ -3601,17 +3601,17 @@
         <v>0.95</v>
       </c>
       <c r="R12" t="n">
-        <v>58647.93775778843</v>
+        <v>74092.93115430661</v>
       </c>
       <c r="S12" t="n">
-        <v>37420.01506200476</v>
+        <v>37548.34433889065</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>24021.74271360237</v>
+        <v>23775.11127169359</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.04384491689264314</v>
+        <v>-0.05101677714927533</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
@@ -3622,14 +3622,14 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>40332.36818693822</v>
+        <v>40525.52590577089</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>28191.23106337304</v>
+        <v>28708.53140137782</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.212650111491212</v>
+        <v>-0.2242930487918209</v>
       </c>
       <c r="AG12" t="b">
         <v>0</v>
@@ -3673,17 +3673,17 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>43743.32553226616</v>
+        <v>42748.6379268873</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>31902.39054044955</v>
+        <v>30912.15307347309</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4264339214952131</v>
+        <v>-0.3622995966424885</v>
       </c>
       <c r="O13" t="n">
-        <v>27761.96792092024</v>
+        <v>31441.81513097731</v>
       </c>
       <c r="P13" t="n">
         <v>196134.1000000003</v>
@@ -3692,17 +3692,17 @@
         <v>0.95</v>
       </c>
       <c r="R13" t="n">
-        <v>41684.27442179837</v>
+        <v>49070.26606914432</v>
       </c>
       <c r="S13" t="n">
-        <v>40000.71316718739</v>
+        <v>39703.50245337248</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>27462.51318217192</v>
+        <v>27181.90333705597</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.1927887477426513</v>
+        <v>-0.1751294341934435</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
@@ -3713,14 +3713,14 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>43743.32553226616</v>
+        <v>42748.6379268873</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>31902.39054044955</v>
+        <v>30912.15307347309</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.4264339214952131</v>
+        <v>-0.3622995966424885</v>
       </c>
       <c r="AG13" t="b">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0.95</v>
       </c>
       <c r="R14" t="n">
-        <v>43098.34943529539</v>
+        <v>37612.84169191385</v>
       </c>
       <c r="S14" t="n">
         <v>21673.57706693026</v>
@@ -3882,7 +3882,7 @@
         <v>0.95</v>
       </c>
       <c r="R15" t="n">
-        <v>23748.8889807319</v>
+        <v>26745.10592746655</v>
       </c>
       <c r="S15" t="n">
         <v>14850.01558985612</v>
@@ -3969,7 +3969,7 @@
         <v>0.95</v>
       </c>
       <c r="R16" t="n">
-        <v>23079.53732581655</v>
+        <v>25868.01169092826</v>
       </c>
       <c r="S16" t="n">
         <v>14660.87259256106</v>
@@ -4045,19 +4045,19 @@
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>36103.90759061156</v>
+        <v>35940.74549580696</v>
       </c>
       <c r="L17" t="n">
-        <v>1.644627446255676</v>
+        <v>1.796855793982487</v>
       </c>
       <c r="M17" t="n">
-        <v>25521.11665348853</v>
+        <v>24767.26218624677</v>
       </c>
       <c r="N17" t="n">
-        <v>0.09166846308427401</v>
+        <v>0.09985984173914297</v>
       </c>
       <c r="O17" t="n">
-        <v>-17989.28957697915</v>
+        <v>-18511.84442118179</v>
       </c>
       <c r="P17" t="n">
         <v>117011.1400000004</v>
@@ -4066,17 +4066,17 @@
         <v>0.95</v>
       </c>
       <c r="R17" t="n">
-        <v>16451.27485650121</v>
+        <v>13980.32574064079</v>
       </c>
       <c r="S17" t="n">
-        <v>8456.771532660279</v>
+        <v>8638.006800715166</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>6316.971579044766</v>
+        <v>6454.68842950571</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8477165593494711</v>
+        <v>0.8411195109092096</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
@@ -4087,20 +4087,20 @@
         </is>
       </c>
       <c r="Y17" t="n">
-        <v>38138.7855310816</v>
+        <v>37664.06410467719</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
-        <v>57599.60737182239</v>
+        <v>48686.50788677987</v>
       </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>53343.53478879203</v>
+        <v>44120.81706555283</v>
       </c>
       <c r="AF17" t="n">
-        <v>-1.473244835576729</v>
+        <v>-0.7670356652258608</v>
       </c>
       <c r="AG17" t="b">
         <v>0</v>
@@ -4138,17 +4138,17 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>60439.09727697859</v>
+        <v>60531.99069667154</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>48815.49252827952</v>
+        <v>48894.84488319206</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.723102587849669</v>
+        <v>-1.731479705256974</v>
       </c>
       <c r="O18" t="n">
-        <v>-3764.031626910976</v>
+        <v>-3822.543030522073</v>
       </c>
       <c r="P18" t="n">
         <v>196134.1000000003</v>
@@ -4157,17 +4157,17 @@
         <v>0.95</v>
       </c>
       <c r="R18" t="n">
-        <v>4725.941105704092</v>
+        <v>14800.37027875768</v>
       </c>
       <c r="S18" t="n">
-        <v>29778.98140123429</v>
+        <v>29794.9667096548</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>24112.0810734509</v>
+        <v>24117.5028457673</v>
       </c>
       <c r="V18" t="n">
-        <v>-1.023849034803249</v>
+        <v>-1.026022415671598</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
@@ -4180,18 +4180,18 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>(0.15227904557822872, 0.15205457390302116, 0.14944711530164964, 0.13270724830322558, 0.111930765335421, 0.10309476508251715, 0.10091102152764853, 0.08373191537026738, 0.013843549598020793)</t>
+          <t>(0.15237950285077534, 0.1521548830933929, 0.1495457043723662, 0.12904172526590282, 0.11200460516910891, 0.10316277587727028, 0.1009775917241852, 0.08688052956965525, 0.013852682077343213)</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>60439.09727697859</v>
+        <v>60531.99069667154</v>
       </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>48815.49252827952</v>
+        <v>48894.84488319206</v>
       </c>
       <c r="AF18" t="n">
-        <v>-1.723102587849669</v>
+        <v>-1.731479705256974</v>
       </c>
       <c r="AG18" t="b">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0.95</v>
       </c>
       <c r="R19" t="n">
-        <v>2140.784712228708</v>
+        <v>2772.563609378119</v>
       </c>
       <c r="S19" t="n">
         <v>1163.475770987645</v>
@@ -4363,7 +4363,7 @@
         <v>0.95</v>
       </c>
       <c r="R20" t="n">
-        <v>25300.46838582901</v>
+        <v>33398.66080728769</v>
       </c>
       <c r="S20" t="n">
         <v>16259.0912345341</v>
@@ -9296,19 +9296,19 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>rf</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>avg_lvl_models</t>
@@ -9321,12 +9321,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>simple_rnn</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -9392,31 +9392,31 @@
         <v>44536.22881471434</v>
       </c>
       <c r="F2" t="n">
-        <v>8958.628883750391</v>
+        <v>41533.82646672569</v>
       </c>
       <c r="G2" t="n">
-        <v>41533.82646672569</v>
+        <v>20917.53847235705</v>
       </c>
       <c r="H2" t="n">
-        <v>20917.53847235705</v>
+        <v>9176.890315258828</v>
       </c>
       <c r="I2" t="n">
-        <v>32590.77922206818</v>
+        <v>33105.0166494741</v>
       </c>
       <c r="J2" t="n">
         <v>13.29674259365965</v>
       </c>
       <c r="K2" t="n">
+        <v>31785.13976312129</v>
+      </c>
+      <c r="L2" t="n">
         <v>1080.987974248233</v>
       </c>
-      <c r="L2" t="n">
-        <v>30659.47830141483</v>
-      </c>
       <c r="M2" t="n">
-        <v>34801.57861496208</v>
+        <v>33375.04086637793</v>
       </c>
       <c r="N2" t="n">
-        <v>23409.2389499463</v>
+        <v>27824.01465607135</v>
       </c>
       <c r="O2" t="n">
         <v>833.969976162423</v>
@@ -9428,10 +9428,10 @@
         <v>15806.3609825745</v>
       </c>
       <c r="R2" t="n">
-        <v>14799.90776009776</v>
+        <v>18104.15348247045</v>
       </c>
       <c r="S2" t="n">
-        <v>7382.870136068413</v>
+        <v>7715.139347724365</v>
       </c>
       <c r="T2" t="n">
         <v>7817.546875</v>
@@ -9457,31 +9457,31 @@
         <v>36779.63894938694</v>
       </c>
       <c r="F3" t="n">
-        <v>2584.601565872771</v>
+        <v>41875.6914690007</v>
       </c>
       <c r="G3" t="n">
-        <v>41875.6914690007</v>
+        <v>-8468.788796732815</v>
       </c>
       <c r="H3" t="n">
-        <v>-8468.788796732815</v>
+        <v>3222.90993255937</v>
       </c>
       <c r="I3" t="n">
-        <v>32143.04679074809</v>
+        <v>31073.24836851955</v>
       </c>
       <c r="J3" t="n">
         <v>-8.85091504752371</v>
       </c>
       <c r="K3" t="n">
+        <v>22226.41286902501</v>
+      </c>
+      <c r="L3" t="n">
         <v>-453.4371041153819</v>
       </c>
-      <c r="L3" t="n">
-        <v>28183.08856195508</v>
-      </c>
       <c r="M3" t="n">
-        <v>29468.08944683967</v>
+        <v>26593.36704173906</v>
       </c>
       <c r="N3" t="n">
-        <v>25347.75205504744</v>
+        <v>25620.76277524976</v>
       </c>
       <c r="O3" t="n">
         <v>807.4333949374382</v>
@@ -9493,10 +9493,10 @@
         <v>15043.59461030478</v>
       </c>
       <c r="R3" t="n">
-        <v>-23745.82782142416</v>
+        <v>-9265.659628963236</v>
       </c>
       <c r="S3" t="n">
-        <v>-3073.594941943495</v>
+        <v>-1818.364457989991</v>
       </c>
       <c r="T3" t="n">
         <v>2321.00048828125</v>
@@ -9522,31 +9522,31 @@
         <v>13517.72961537878</v>
       </c>
       <c r="F4" t="n">
-        <v>-29353.33400169026</v>
+        <v>42217.55647127573</v>
       </c>
       <c r="G4" t="n">
-        <v>42217.55647127573</v>
+        <v>-37420.15732432127</v>
       </c>
       <c r="H4" t="n">
-        <v>-37420.15732432127</v>
+        <v>-27621.89925627791</v>
       </c>
       <c r="I4" t="n">
-        <v>21771.28650416175</v>
+        <v>21867.18869004195</v>
       </c>
       <c r="J4" t="n">
         <v>-13.18040404758317</v>
       </c>
       <c r="K4" t="n">
+        <v>2253.798348489496</v>
+      </c>
+      <c r="L4" t="n">
         <v>-1859.856935021227</v>
       </c>
-      <c r="L4" t="n">
-        <v>4148.61178800035</v>
-      </c>
       <c r="M4" t="n">
-        <v>27928.90704410075</v>
+        <v>30163.62568779288</v>
       </c>
       <c r="N4" t="n">
-        <v>28058.44203945695</v>
+        <v>28485.75432231723</v>
       </c>
       <c r="O4" t="n">
         <v>793.3030553936661</v>
@@ -9558,10 +9558,10 @@
         <v>-1738.11523135746</v>
       </c>
       <c r="R4" t="n">
-        <v>-15542.87133496913</v>
+        <v>-20998.84581254635</v>
       </c>
       <c r="S4" t="n">
-        <v>-15393.55504050872</v>
+        <v>-15592.21554430019</v>
       </c>
       <c r="T4" t="n">
         <v>-33837.66015625</v>
@@ -9587,31 +9587,31 @@
         <v>26474.36774046811</v>
       </c>
       <c r="F5" t="n">
-        <v>10245.38451987467</v>
+        <v>42559.42147355075</v>
       </c>
       <c r="G5" t="n">
-        <v>42559.42147355075</v>
+        <v>19806.64896727502</v>
       </c>
       <c r="H5" t="n">
-        <v>19806.64896727502</v>
+        <v>9517.566628085571</v>
       </c>
       <c r="I5" t="n">
-        <v>30386.35025594542</v>
+        <v>30207.79842722752</v>
       </c>
       <c r="J5" t="n">
         <v>14.15496687715518</v>
       </c>
       <c r="K5" t="n">
+        <v>17258.93459769188</v>
+      </c>
+      <c r="L5" t="n">
         <v>1595.222956535908</v>
       </c>
-      <c r="L5" t="n">
-        <v>26356.15214814766</v>
-      </c>
       <c r="M5" t="n">
-        <v>31303.66968505381</v>
+        <v>37908.81655921934</v>
       </c>
       <c r="N5" t="n">
-        <v>24690.94853857307</v>
+        <v>25754.60458512007</v>
       </c>
       <c r="O5" t="n">
         <v>849.5443982344311</v>
@@ -9623,10 +9623,10 @@
         <v>6009.39829985704</v>
       </c>
       <c r="R5" t="n">
-        <v>24295.98915684146</v>
+        <v>24484.94616343345</v>
       </c>
       <c r="S5" t="n">
-        <v>10827.47701713914</v>
+        <v>10793.82264341008</v>
       </c>
       <c r="T5" t="n">
         <v>25420.814453125</v>
@@ -9652,31 +9652,31 @@
         <v>39195.31969326003</v>
       </c>
       <c r="F6" t="n">
-        <v>10135.33775053712</v>
+        <v>42901.28647582576</v>
       </c>
       <c r="G6" t="n">
-        <v>42901.28647582576</v>
+        <v>22437.39307981117</v>
       </c>
       <c r="H6" t="n">
-        <v>22437.39307981117</v>
+        <v>9678.459960468334</v>
       </c>
       <c r="I6" t="n">
-        <v>36279.69179697378</v>
+        <v>38573.72965906064</v>
       </c>
       <c r="J6" t="n">
         <v>9.883815495280523</v>
       </c>
       <c r="K6" t="n">
+        <v>50504.32922258225</v>
+      </c>
+      <c r="L6" t="n">
         <v>785.7103009433935</v>
       </c>
-      <c r="L6" t="n">
-        <v>33276.50540014057</v>
-      </c>
       <c r="M6" t="n">
-        <v>30371.7926272556</v>
+        <v>32708.60661338864</v>
       </c>
       <c r="N6" t="n">
-        <v>24778.45951319261</v>
+        <v>23566.12460131271</v>
       </c>
       <c r="O6" t="n">
         <v>827.3229499736474</v>
@@ -9688,10 +9688,10 @@
         <v>16217.93688721876</v>
       </c>
       <c r="R6" t="n">
-        <v>14236.10145788805</v>
+        <v>12922.27242305046</v>
       </c>
       <c r="S6" t="n">
-        <v>9159.204775627608</v>
+        <v>8998.143575723936</v>
       </c>
       <c r="T6" t="n">
         <v>25859.6875</v>
@@ -9717,31 +9717,31 @@
         <v>46804.3356748559</v>
       </c>
       <c r="F7" t="n">
-        <v>-11004.78721319524</v>
+        <v>43243.15147810079</v>
       </c>
       <c r="G7" t="n">
-        <v>43243.15147810079</v>
+        <v>-24994.3671020098</v>
       </c>
       <c r="H7" t="n">
-        <v>-24994.3671020098</v>
+        <v>-12601.11080075255</v>
       </c>
       <c r="I7" t="n">
-        <v>39025.66119752282</v>
+        <v>39607.25716419851</v>
       </c>
       <c r="J7" t="n">
         <v>2.026569628803705</v>
       </c>
       <c r="K7" t="n">
+        <v>32080.61266647575</v>
+      </c>
+      <c r="L7" t="n">
         <v>293.9229934130866</v>
       </c>
-      <c r="L7" t="n">
-        <v>27602.93045152722</v>
-      </c>
       <c r="M7" t="n">
-        <v>32149.79504633842</v>
+        <v>30453.30743539481</v>
       </c>
       <c r="N7" t="n">
-        <v>23338.32271966486</v>
+        <v>25209.89584906547</v>
       </c>
       <c r="O7" t="n">
         <v>816.3571020546534</v>
@@ -9753,10 +9753,10 @@
         <v>37407.69285189482</v>
       </c>
       <c r="R7" t="n">
-        <v>-5231.953215702757</v>
+        <v>-17808.98335935998</v>
       </c>
       <c r="S7" t="n">
-        <v>-4960.549772455483</v>
+        <v>-6237.396274846341</v>
       </c>
       <c r="T7" t="n">
         <v>-17715.94921875</v>
@@ -9782,31 +9782,31 @@
         <v>40241.86092930887</v>
       </c>
       <c r="F8" t="n">
-        <v>4968.715480621207</v>
+        <v>43585.01648037581</v>
       </c>
       <c r="G8" t="n">
-        <v>43585.01648037581</v>
+        <v>4454.892820253534</v>
       </c>
       <c r="H8" t="n">
-        <v>4454.892820253534</v>
+        <v>6695.799728227015</v>
       </c>
       <c r="I8" t="n">
-        <v>35293.01486633017</v>
+        <v>35975.48624242411</v>
       </c>
       <c r="J8" t="n">
         <v>-4.773939786415771</v>
       </c>
       <c r="K8" t="n">
+        <v>38072.75521531401</v>
+      </c>
+      <c r="L8" t="n">
         <v>-12.93619340860573</v>
       </c>
-      <c r="L8" t="n">
-        <v>34954.46576252131</v>
-      </c>
       <c r="M8" t="n">
-        <v>27955.89853402971</v>
+        <v>29398.50975936501</v>
       </c>
       <c r="N8" t="n">
-        <v>26333.82663881405</v>
+        <v>27232.69696943758</v>
       </c>
       <c r="O8" t="n">
         <v>814.3050017249006</v>
@@ -9818,10 +9818,10 @@
         <v>17772.5095522211</v>
       </c>
       <c r="R8" t="n">
-        <v>6118.857893420291</v>
+        <v>-1376.184954553926</v>
       </c>
       <c r="S8" t="n">
-        <v>3078.249316343006</v>
+        <v>2652.252654091813</v>
       </c>
       <c r="T8" t="n">
         <v>8273.4609375</v>
@@ -9847,31 +9847,31 @@
         <v>45504.71673172074</v>
       </c>
       <c r="F9" t="n">
-        <v>9467.691125301613</v>
+        <v>43926.88148265082</v>
       </c>
       <c r="G9" t="n">
-        <v>43926.88148265082</v>
+        <v>18482.08253417617</v>
       </c>
       <c r="H9" t="n">
-        <v>18482.08253417617</v>
+        <v>10127.95838562479</v>
       </c>
       <c r="I9" t="n">
-        <v>31789.17741346056</v>
+        <v>33884.76767219709</v>
       </c>
       <c r="J9" t="n">
         <v>13.50715467205594</v>
       </c>
       <c r="K9" t="n">
+        <v>43835.29210594592</v>
+      </c>
+      <c r="L9" t="n">
         <v>1065.767475763543</v>
       </c>
-      <c r="L9" t="n">
-        <v>32195.52038478849</v>
-      </c>
       <c r="M9" t="n">
-        <v>27339.56318168341</v>
+        <v>29585.44775850324</v>
       </c>
       <c r="N9" t="n">
-        <v>23247.32974113374</v>
+        <v>26126.39551304875</v>
       </c>
       <c r="O9" t="n">
         <v>832.8442300629451</v>
@@ -9883,10 +9883,10 @@
         <v>17039.13194501787</v>
       </c>
       <c r="R9" t="n">
-        <v>17017.56619532414</v>
+        <v>23753.0202710362</v>
       </c>
       <c r="S9" t="n">
-        <v>8000.654143425276</v>
+        <v>8693.422803528249</v>
       </c>
       <c r="T9" t="n">
         <v>11320.703125</v>
@@ -9912,31 +9912,31 @@
         <v>37748.12686638235</v>
       </c>
       <c r="F10" t="n">
-        <v>3953.917045361316</v>
+        <v>44268.74648492585</v>
       </c>
       <c r="G10" t="n">
-        <v>44268.74648492585</v>
+        <v>-3114.994124225125</v>
       </c>
       <c r="H10" t="n">
-        <v>-3114.994124225125</v>
+        <v>3946.318790313276</v>
       </c>
       <c r="I10" t="n">
-        <v>29052.75584336196</v>
+        <v>30700.33414231637</v>
       </c>
       <c r="J10" t="n">
         <v>-9.656649895278203</v>
       </c>
       <c r="K10" t="n">
+        <v>17310.21111809685</v>
+      </c>
+      <c r="L10" t="n">
         <v>-489.6898789184938</v>
       </c>
-      <c r="L10" t="n">
-        <v>6369.473136801083</v>
-      </c>
       <c r="M10" t="n">
-        <v>29053.27487222253</v>
+        <v>29127.19315882025</v>
       </c>
       <c r="N10" t="n">
-        <v>24210.95803405268</v>
+        <v>26376.92815779446</v>
       </c>
       <c r="O10" t="n">
         <v>807.9095977331447</v>
@@ -9948,10 +9948,10 @@
         <v>16251.59668959543</v>
       </c>
       <c r="R10" t="n">
-        <v>-11985.40145527512</v>
+        <v>-10749.16386463035</v>
       </c>
       <c r="S10" t="n">
-        <v>-810.052077296561</v>
+        <v>-756.0766651505273</v>
       </c>
       <c r="T10" t="n">
         <v>7297.77685546875</v>
@@ -9977,31 +9977,31 @@
         <v>14486.21753235485</v>
       </c>
       <c r="F11" t="n">
-        <v>-23601.07340481069</v>
+        <v>44610.61148720087</v>
       </c>
       <c r="G11" t="n">
-        <v>44610.61148720087</v>
+        <v>-30170.75667827356</v>
       </c>
       <c r="H11" t="n">
-        <v>-30170.75667827356</v>
+        <v>-21874.40420009326</v>
       </c>
       <c r="I11" t="n">
-        <v>22472.01026140987</v>
+        <v>25160.65672556338</v>
       </c>
       <c r="J11" t="n">
         <v>-12.31194020524591</v>
       </c>
       <c r="K11" t="n">
+        <v>29316.30522521137</v>
+      </c>
+      <c r="L11" t="n">
         <v>-1719.555341504627</v>
       </c>
-      <c r="L11" t="n">
-        <v>11318.77021450139</v>
-      </c>
       <c r="M11" t="n">
-        <v>30567.50635692773</v>
+        <v>33056.75614917276</v>
       </c>
       <c r="N11" t="n">
-        <v>25660.30918571799</v>
+        <v>26682.69609599112</v>
       </c>
       <c r="O11" t="n">
         <v>795.5554143306387</v>
@@ -10013,10 +10013,10 @@
         <v>-529.9356514021365</v>
       </c>
       <c r="R11" t="n">
-        <v>-15256.53736488867</v>
+        <v>-28214.91433277891</v>
       </c>
       <c r="S11" t="n">
-        <v>-14562.87189479171</v>
+        <v>-15434.11495027988</v>
       </c>
       <c r="T11" t="n">
         <v>-38153</v>
@@ -10042,31 +10042,31 @@
         <v>27442.85565746643</v>
       </c>
       <c r="F12" t="n">
-        <v>10516.64652804394</v>
+        <v>44952.47648947588</v>
       </c>
       <c r="G12" t="n">
-        <v>44952.47648947588</v>
+        <v>19218.78880109813</v>
       </c>
       <c r="H12" t="n">
-        <v>19218.78880109813</v>
+        <v>9787.843748484223</v>
       </c>
       <c r="I12" t="n">
-        <v>29176.30762376673</v>
+        <v>29267.61467396514</v>
       </c>
       <c r="J12" t="n">
         <v>14.29691284508754</v>
       </c>
       <c r="K12" t="n">
+        <v>18893.97461336328</v>
+      </c>
+      <c r="L12" t="n">
         <v>1581.805238733685</v>
       </c>
-      <c r="L12" t="n">
-        <v>19344.67242226599</v>
-      </c>
       <c r="M12" t="n">
-        <v>29393.37336655704</v>
+        <v>29841.25346987544</v>
       </c>
       <c r="N12" t="n">
-        <v>25634.7766093403</v>
+        <v>26368.05071651189</v>
       </c>
       <c r="O12" t="n">
         <v>847.6561011219188</v>
@@ -10078,10 +10078,10 @@
         <v>7217.576607793527</v>
       </c>
       <c r="R12" t="n">
-        <v>16463.15042592471</v>
+        <v>21788.05878363543</v>
       </c>
       <c r="S12" t="n">
-        <v>11294.15662189284</v>
+        <v>11681.64920700478</v>
       </c>
       <c r="T12" t="n">
         <v>32048.02734375</v>
@@ -10107,31 +10107,31 @@
         <v>40163.8076102573</v>
       </c>
       <c r="F13" t="n">
-        <v>9398.704877076974</v>
+        <v>45294.34149175091</v>
       </c>
       <c r="G13" t="n">
-        <v>45294.34149175091</v>
+        <v>17896.68914009616</v>
       </c>
       <c r="H13" t="n">
-        <v>17896.68914009616</v>
+        <v>8609.91281601091</v>
       </c>
       <c r="I13" t="n">
-        <v>37684.21749606659</v>
+        <v>37428.79737173185</v>
       </c>
       <c r="J13" t="n">
         <v>7.486652814507639</v>
       </c>
       <c r="K13" t="n">
+        <v>37622.99028468428</v>
+      </c>
+      <c r="L13" t="n">
         <v>577.7244172306649</v>
       </c>
-      <c r="L13" t="n">
-        <v>46203.63006724563</v>
-      </c>
       <c r="M13" t="n">
-        <v>29872.56766662298</v>
+        <v>35288.35036580412</v>
       </c>
       <c r="N13" t="n">
-        <v>24592.12701085506</v>
+        <v>25713.6230995573</v>
       </c>
       <c r="O13" t="n">
         <v>824.6237304205508</v>
@@ -10143,10 +10143,10 @@
         <v>17426.11520427089</v>
       </c>
       <c r="R13" t="n">
-        <v>22280.69331470029</v>
+        <v>19200.79151169259</v>
       </c>
       <c r="S13" t="n">
-        <v>8722.613863150245</v>
+        <v>8392.646108939256</v>
       </c>
       <c r="T13" t="n">
         <v>23224.044921875</v>
@@ -10172,31 +10172,31 @@
         <v>47772.82359183375</v>
       </c>
       <c r="F14" t="n">
-        <v>-12104.67685067595</v>
+        <v>45636.20649402593</v>
       </c>
       <c r="G14" t="n">
-        <v>45636.20649402593</v>
+        <v>-24942.85497470634</v>
       </c>
       <c r="H14" t="n">
-        <v>-24942.85497470634</v>
+        <v>-13207.75749529956</v>
       </c>
       <c r="I14" t="n">
-        <v>39797.48798920588</v>
+        <v>40848.86266150449</v>
       </c>
       <c r="J14" t="n">
         <v>4.615755664650022</v>
       </c>
       <c r="K14" t="n">
+        <v>40055.40283918676</v>
+      </c>
+      <c r="L14" t="n">
         <v>418.9945215971347</v>
       </c>
-      <c r="L14" t="n">
-        <v>33206.09295591114</v>
-      </c>
       <c r="M14" t="n">
-        <v>31193.79029187856</v>
+        <v>31283.18768303989</v>
       </c>
       <c r="N14" t="n">
-        <v>24706.49915850683</v>
+        <v>26178.78926245867</v>
       </c>
       <c r="O14" t="n">
         <v>818.4967726486395</v>
@@ -10208,10 +10208,10 @@
         <v>38615.87116888162</v>
       </c>
       <c r="R14" t="n">
-        <v>-16987.12745705376</v>
+        <v>-20632.41668487038</v>
       </c>
       <c r="S14" t="n">
-        <v>-6876.285706126414</v>
+        <v>-7346.987926230743</v>
       </c>
       <c r="T14" t="n">
         <v>-21381.31640625</v>
@@ -10237,31 +10237,31 @@
         <v>41210.34884627309</v>
       </c>
       <c r="F15" t="n">
-        <v>5216.410381684809</v>
+        <v>45978.07149630095</v>
       </c>
       <c r="G15" t="n">
-        <v>45978.07149630095</v>
+        <v>4813.6298052523</v>
       </c>
       <c r="H15" t="n">
-        <v>4813.6298052523</v>
+        <v>6818.450438971056</v>
       </c>
       <c r="I15" t="n">
-        <v>34132.52830171819</v>
+        <v>35014.74210666997</v>
       </c>
       <c r="J15" t="n">
         <v>-4.385184283642688</v>
       </c>
       <c r="K15" t="n">
+        <v>26740.42012432365</v>
+      </c>
+      <c r="L15" t="n">
         <v>24.82834326860706</v>
       </c>
-      <c r="L15" t="n">
-        <v>20797.41181324645</v>
-      </c>
       <c r="M15" t="n">
-        <v>31284.27471666632</v>
+        <v>30664.46530656068</v>
       </c>
       <c r="N15" t="n">
-        <v>27364.82241042404</v>
+        <v>29099.33394906668</v>
       </c>
       <c r="O15" t="n">
         <v>815.1653547012171</v>
@@ -10273,10 +10273,10 @@
         <v>18980.68786920837</v>
       </c>
       <c r="R15" t="n">
-        <v>5353.100894448204</v>
+        <v>7139.687727987514</v>
       </c>
       <c r="S15" t="n">
-        <v>2815.236675803472</v>
+        <v>3176.025099084583</v>
       </c>
       <c r="T15" t="n">
         <v>4736.26904296875</v>
@@ -10302,31 +10302,31 @@
         <v>46473.20464867465</v>
       </c>
       <c r="F16" t="n">
-        <v>9488.518776897776</v>
+        <v>46319.93649857597</v>
       </c>
       <c r="G16" t="n">
-        <v>46319.93649857597</v>
+        <v>18789.63889552532</v>
       </c>
       <c r="H16" t="n">
-        <v>18789.63889552532</v>
+        <v>9176.28450501013</v>
       </c>
       <c r="I16" t="n">
-        <v>31615.62183567357</v>
+        <v>32079.34736117382</v>
       </c>
       <c r="J16" t="n">
         <v>12.14726727499647</v>
       </c>
       <c r="K16" t="n">
+        <v>23041.66583962663</v>
+      </c>
+      <c r="L16" t="n">
         <v>936.0897287369631</v>
       </c>
-      <c r="L16" t="n">
-        <v>22326.86971487402</v>
-      </c>
       <c r="M16" t="n">
-        <v>31435.83326757102</v>
+        <v>32083.64173970966</v>
       </c>
       <c r="N16" t="n">
-        <v>26267.11710152848</v>
+        <v>28614.31670863925</v>
       </c>
       <c r="O16" t="n">
         <v>830.3488251224235</v>
@@ -10338,10 +10338,10 @@
         <v>18247.31026200513</v>
       </c>
       <c r="R16" t="n">
-        <v>14961.78904069377</v>
+        <v>20470.28224530333</v>
       </c>
       <c r="S16" t="n">
-        <v>8496.104640414351</v>
+        <v>8950.670398258133</v>
       </c>
       <c r="T16" t="n">
         <v>18325.798828125</v>
@@ -10367,31 +10367,31 @@
         <v>38716.61478333698</v>
       </c>
       <c r="F17" t="n">
-        <v>2908.316549039184</v>
+        <v>46661.80150085099</v>
       </c>
       <c r="G17" t="n">
-        <v>46661.80150085099</v>
+        <v>-3793.466742155067</v>
       </c>
       <c r="H17" t="n">
-        <v>-3793.466742155067</v>
+        <v>3362.376586869748</v>
       </c>
       <c r="I17" t="n">
-        <v>32612.73371607344</v>
+        <v>32068.54465837534</v>
       </c>
       <c r="J17" t="n">
         <v>-8.245867701541176</v>
       </c>
       <c r="K17" t="n">
+        <v>27121.87357337622</v>
+      </c>
+      <c r="L17" t="n">
         <v>-445.2988233831608</v>
       </c>
-      <c r="L17" t="n">
-        <v>27435.95636527686</v>
-      </c>
       <c r="M17" t="n">
-        <v>34091.65348153262</v>
+        <v>30148.03851555882</v>
       </c>
       <c r="N17" t="n">
-        <v>27603.08301765023</v>
+        <v>27507.26831393985</v>
       </c>
       <c r="O17" t="n">
         <v>808.2857352449726</v>
@@ -10403,10 +10403,10 @@
         <v>17459.77500658269</v>
       </c>
       <c r="R17" t="n">
-        <v>-12891.93331819089</v>
+        <v>-13107.7481281252</v>
       </c>
       <c r="S17" t="n">
-        <v>-2068.120154733003</v>
+        <v>-2080.436612984291</v>
       </c>
       <c r="T17" t="n">
         <v>-3407.679443359375</v>
@@ -10432,31 +10432,31 @@
         <v>15454.7054493309</v>
       </c>
       <c r="F18" t="n">
-        <v>-22759.66090100999</v>
+        <v>47003.66650312601</v>
       </c>
       <c r="G18" t="n">
-        <v>47003.66650312601</v>
+        <v>-29234.6983086789</v>
       </c>
       <c r="H18" t="n">
-        <v>-29234.6983086789</v>
+        <v>-21378.10928596623</v>
       </c>
       <c r="I18" t="n">
-        <v>24418.88266424589</v>
+        <v>21246.83123395444</v>
       </c>
       <c r="J18" t="n">
         <v>-10.17039844376482</v>
       </c>
       <c r="K18" t="n">
+        <v>-5047.501586696875</v>
+      </c>
+      <c r="L18" t="n">
         <v>-1545.514383929797</v>
       </c>
-      <c r="L18" t="n">
-        <v>24968.0245102614</v>
-      </c>
       <c r="M18" t="n">
-        <v>30024.05311292706</v>
+        <v>35380.6433348417</v>
       </c>
       <c r="N18" t="n">
-        <v>26756.52220722286</v>
+        <v>26039.04663993491</v>
       </c>
       <c r="O18" t="n">
         <v>798.1326687205433</v>
@@ -10468,10 +10468,10 @@
         <v>678.2426655851268</v>
       </c>
       <c r="R18" t="n">
-        <v>-17747.06735688978</v>
+        <v>-22143.36298846321</v>
       </c>
       <c r="S18" t="n">
-        <v>-14276.46317676423</v>
+        <v>-14459.03572632214</v>
       </c>
       <c r="T18" t="n">
         <v>-40280.16015625</v>
@@ -10497,31 +10497,31 @@
         <v>28411.34357446764</v>
       </c>
       <c r="F19" t="n">
-        <v>10622.04265459048</v>
+        <v>47345.53150540103</v>
       </c>
       <c r="G19" t="n">
-        <v>47345.53150540103</v>
+        <v>22970.98989501474</v>
       </c>
       <c r="H19" t="n">
-        <v>22970.98989501474</v>
+        <v>9525.613147897113</v>
       </c>
       <c r="I19" t="n">
-        <v>30284.88518313128</v>
+        <v>31035.48249814757</v>
       </c>
       <c r="J19" t="n">
         <v>13.47062639192213</v>
       </c>
       <c r="K19" t="n">
+        <v>22588.99420650749</v>
+      </c>
+      <c r="L19" t="n">
         <v>1463.170347735893</v>
       </c>
-      <c r="L19" t="n">
-        <v>23620.76075488477</v>
-      </c>
       <c r="M19" t="n">
-        <v>30612.71042779086</v>
+        <v>33775.18366549907</v>
       </c>
       <c r="N19" t="n">
-        <v>23970.60282109602</v>
+        <v>27844.67465189545</v>
       </c>
       <c r="O19" t="n">
         <v>845.9161908612255</v>
@@ -10533,10 +10533,10 @@
         <v>8425.754924780791</v>
       </c>
       <c r="R19" t="n">
-        <v>22740.67402745878</v>
+        <v>27051.54162250571</v>
       </c>
       <c r="S19" t="n">
-        <v>11390.74558516894</v>
+        <v>11661.78549136914</v>
       </c>
       <c r="T19" t="n">
         <v>26833.23046875</v>
@@ -10562,31 +10562,31 @@
         <v>41132.29552720401</v>
       </c>
       <c r="F20" t="n">
-        <v>9847.592035234047</v>
+        <v>47687.39650767605</v>
       </c>
       <c r="G20" t="n">
-        <v>47687.39650767605</v>
+        <v>9566.629226668178</v>
       </c>
       <c r="H20" t="n">
-        <v>9566.629226668178</v>
+        <v>6750.825138714821</v>
       </c>
       <c r="I20" t="n">
-        <v>40809.95549176837</v>
+        <v>37928.07360349948</v>
       </c>
       <c r="J20" t="n">
         <v>5.900659499826172</v>
       </c>
       <c r="K20" t="n">
+        <v>34960.98796427993</v>
+      </c>
+      <c r="L20" t="n">
         <v>498.1813245916318</v>
       </c>
-      <c r="L20" t="n">
-        <v>57446.93646853861</v>
-      </c>
       <c r="M20" t="n">
-        <v>31919.50601903943</v>
+        <v>31838.38216159044</v>
       </c>
       <c r="N20" t="n">
-        <v>27091.46205952315</v>
+        <v>26603.47931507973</v>
       </c>
       <c r="O20" t="n">
         <v>822.9717482486531</v>
@@ -10598,10 +10598,10 @@
         <v>18634.29352125815</v>
       </c>
       <c r="R20" t="n">
-        <v>10460.03609430806</v>
+        <v>8278.058990895974</v>
       </c>
       <c r="S20" t="n">
-        <v>6062.402350142178</v>
+        <v>5472.616341670824</v>
       </c>
       <c r="T20" t="n">
         <v>15552.7724609375</v>
@@ -10627,31 +10627,31 @@
         <v>48741.31150884127</v>
       </c>
       <c r="F21" t="n">
-        <v>-12102.12895721911</v>
+        <v>48029.26150995107</v>
       </c>
       <c r="G21" t="n">
-        <v>48029.26150995107</v>
+        <v>-24524.92360709046</v>
       </c>
       <c r="H21" t="n">
-        <v>-24524.92360709046</v>
+        <v>-12432.99344557733</v>
       </c>
       <c r="I21" t="n">
-        <v>41817.56216898687</v>
+        <v>42901.00373730395</v>
       </c>
       <c r="J21" t="n">
         <v>5.604278673204378</v>
       </c>
       <c r="K21" t="n">
+        <v>39571.33595856724</v>
+      </c>
+      <c r="L21" t="n">
         <v>474.0130184743061</v>
       </c>
-      <c r="L21" t="n">
-        <v>39140.1650241792</v>
-      </c>
       <c r="M21" t="n">
-        <v>29337.98232852219</v>
+        <v>35810.4221033573</v>
       </c>
       <c r="N21" t="n">
-        <v>25791.33170077352</v>
+        <v>27555.253538087</v>
       </c>
       <c r="O21" t="n">
         <v>819.554635025198</v>
@@ -10663,10 +10663,10 @@
         <v>39824.04948586888</v>
       </c>
       <c r="R21" t="n">
-        <v>-7096.994142263814</v>
+        <v>-18865.01159473053</v>
       </c>
       <c r="S21" t="n">
-        <v>-4593.63254176074</v>
+        <v>-5638.303390658837</v>
       </c>
       <c r="T21" t="n">
         <v>-11073.078125</v>
@@ -10692,31 +10692,31 @@
         <v>42178.83676329079</v>
       </c>
       <c r="F22" t="n">
-        <v>5204.665885120575</v>
+        <v>48371.12651222609</v>
       </c>
       <c r="G22" t="n">
-        <v>48371.12651222609</v>
+        <v>5117.630475184883</v>
       </c>
       <c r="H22" t="n">
-        <v>5117.630475184883</v>
+        <v>6818.251411823051</v>
       </c>
       <c r="I22" t="n">
-        <v>37626.90691692166</v>
+        <v>35823.97543172378</v>
       </c>
       <c r="J22" t="n">
         <v>-3.605763338598845</v>
       </c>
       <c r="K22" t="n">
+        <v>27298.90748836247</v>
+      </c>
+      <c r="L22" t="n">
         <v>37.80367982688841</v>
       </c>
-      <c r="L22" t="n">
-        <v>40576.05698318032</v>
-      </c>
       <c r="M22" t="n">
-        <v>32903.83086008279</v>
+        <v>30315.1588110104</v>
       </c>
       <c r="N22" t="n">
-        <v>27942.62845978884</v>
+        <v>29384.99812209604</v>
       </c>
       <c r="O22" t="n">
         <v>815.2670216485263</v>
@@ -10728,10 +10728,10 @@
         <v>20188.86618619563</v>
       </c>
       <c r="R22" t="n">
-        <v>5038.721252261324</v>
+        <v>8339.687352628149</v>
       </c>
       <c r="S22" t="n">
-        <v>2317.986582831885</v>
+        <v>2810.578477329453</v>
       </c>
       <c r="T22" t="n">
         <v>1702.97802734375</v>
@@ -10757,31 +10757,31 @@
         <v>47441.69256568105</v>
       </c>
       <c r="F23" t="n">
-        <v>9830.908639262549</v>
+        <v>48712.99151450111</v>
       </c>
       <c r="G23" t="n">
-        <v>48712.99151450111</v>
+        <v>20588.24007449641</v>
       </c>
       <c r="H23" t="n">
-        <v>20588.24007449641</v>
+        <v>8884.565761198515</v>
       </c>
       <c r="I23" t="n">
-        <v>34550.56172955265</v>
+        <v>33760.71916323803</v>
       </c>
       <c r="J23" t="n">
         <v>11.3119605370931</v>
       </c>
       <c r="K23" t="n">
+        <v>34612.31080398706</v>
+      </c>
+      <c r="L23" t="n">
         <v>875.1502950785473</v>
       </c>
-      <c r="L23" t="n">
-        <v>36218.88611310421</v>
-      </c>
       <c r="M23" t="n">
-        <v>32067.98146287499</v>
+        <v>25530.05109050794</v>
       </c>
       <c r="N23" t="n">
-        <v>26092.35737531333</v>
+        <v>27918.12252628057</v>
       </c>
       <c r="O23" t="n">
         <v>828.8549900836035</v>
@@ -10793,10 +10793,10 @@
         <v>19455.48857899239</v>
       </c>
       <c r="R23" t="n">
-        <v>14170.26902466053</v>
+        <v>21295.05212379714</v>
       </c>
       <c r="S23" t="n">
-        <v>9669.878084504329</v>
+        <v>10180.08234224788</v>
       </c>
       <c r="T23" t="n">
         <v>30820.853515625</v>
@@ -10822,31 +10822,31 @@
         <v>39685.10270033492</v>
       </c>
       <c r="F24" t="n">
-        <v>4130.185725950482</v>
+        <v>49054.85651677613</v>
       </c>
       <c r="G24" t="n">
-        <v>49054.85651677613</v>
+        <v>-5448.955372074694</v>
       </c>
       <c r="H24" t="n">
-        <v>-5448.955372074694</v>
+        <v>4108.284765527895</v>
       </c>
       <c r="I24" t="n">
-        <v>33019.97782932387</v>
+        <v>32843.86844915074</v>
       </c>
       <c r="J24" t="n">
         <v>-7.28552406985662</v>
       </c>
       <c r="K24" t="n">
+        <v>21505.5522408828</v>
+      </c>
+      <c r="L24" t="n">
         <v>-369.9595893339925</v>
       </c>
-      <c r="L24" t="n">
-        <v>23671.11711086033</v>
-      </c>
       <c r="M24" t="n">
-        <v>29711.664440684</v>
+        <v>31141.68578241019</v>
       </c>
       <c r="N24" t="n">
-        <v>28301.48940879254</v>
+        <v>27628.15789565889</v>
       </c>
       <c r="O24" t="n">
         <v>809.2751415578878</v>
@@ -10858,10 +10858,10 @@
         <v>18667.95332356995</v>
       </c>
       <c r="R24" t="n">
-        <v>-13430.79922939737</v>
+        <v>-10665.13460934955</v>
       </c>
       <c r="S24" t="n">
-        <v>-3324.95022892082</v>
+        <v>-3146.734799194025</v>
       </c>
       <c r="T24" t="n">
         <v>-17629.044921875</v>
@@ -10887,31 +10887,31 @@
         <v>16423.19336630698</v>
       </c>
       <c r="F25" t="n">
-        <v>-21309.03602377552</v>
+        <v>49396.72151905115</v>
       </c>
       <c r="G25" t="n">
-        <v>49396.72151905115</v>
+        <v>-31402.02732918993</v>
       </c>
       <c r="H25" t="n">
-        <v>-31402.02732918993</v>
+        <v>-19944.35742227598</v>
       </c>
       <c r="I25" t="n">
-        <v>25083.22677625293</v>
+        <v>22845.10156743204</v>
       </c>
       <c r="J25" t="n">
         <v>-8.403860194842444</v>
       </c>
       <c r="K25" t="n">
+        <v>2360.289701003393</v>
+      </c>
+      <c r="L25" t="n">
         <v>-1441.3508667432</v>
       </c>
-      <c r="L25" t="n">
-        <v>22554.99421030282</v>
-      </c>
       <c r="M25" t="n">
-        <v>29240.46396977155</v>
+        <v>32001.13525177089</v>
       </c>
       <c r="N25" t="n">
-        <v>26999.02923820613</v>
+        <v>26528.06079493909</v>
       </c>
       <c r="O25" t="n">
         <v>798.3155201069316</v>
@@ -10923,10 +10923,10 @@
         <v>1886.420982572385</v>
       </c>
       <c r="R25" t="n">
-        <v>-19064.7832824891</v>
+        <v>-30654.74500994072</v>
       </c>
       <c r="S25" t="n">
-        <v>-12954.78667230872</v>
+        <v>-13773.17465236805</v>
       </c>
       <c r="T25" t="n">
         <v>-18534.232421875</v>
@@ -10952,31 +10952,31 @@
         <v>29379.83149142638</v>
       </c>
       <c r="F26" t="n">
-        <v>9952.063443156943</v>
+        <v>49738.58652132617</v>
       </c>
       <c r="G26" t="n">
-        <v>49738.58652132617</v>
+        <v>19101.11648573785</v>
       </c>
       <c r="H26" t="n">
-        <v>19101.11648573785</v>
+        <v>9223.772312046176</v>
       </c>
       <c r="I26" t="n">
-        <v>31737.35990318416</v>
+        <v>31404.03053728913</v>
       </c>
       <c r="J26" t="n">
         <v>12.16811613007929</v>
       </c>
       <c r="K26" t="n">
+        <v>20690.89523169919</v>
+      </c>
+      <c r="L26" t="n">
         <v>1317.010628736256</v>
       </c>
-      <c r="L26" t="n">
-        <v>23964.9181437835</v>
-      </c>
       <c r="M26" t="n">
-        <v>30480.42288529871</v>
+        <v>31165.11421767471</v>
       </c>
       <c r="N26" t="n">
-        <v>28166.61459913103</v>
+        <v>28089.31125167905</v>
       </c>
       <c r="O26" t="n">
         <v>842.0676621988562</v>
@@ -10988,10 +10988,10 @@
         <v>9633.933241768049</v>
       </c>
       <c r="R26" t="n">
-        <v>19908.0984770355</v>
+        <v>21067.25026743057</v>
       </c>
       <c r="S26" t="n">
-        <v>10037.98561557624</v>
+        <v>10075.56784410614</v>
       </c>
       <c r="T26" t="n">
         <v>23139.029296875</v>
@@ -11017,31 +11017,31 @@
         <v>42100.78344420128</v>
       </c>
       <c r="F27" t="n">
-        <v>9982.942920755302</v>
+        <v>50080.45152360119</v>
       </c>
       <c r="G27" t="n">
-        <v>50080.45152360119</v>
+        <v>15952.68110171532</v>
       </c>
       <c r="H27" t="n">
-        <v>15952.68110171532</v>
+        <v>6880.789248990852</v>
       </c>
       <c r="I27" t="n">
-        <v>38777.56030769247</v>
+        <v>41765.12681536909</v>
       </c>
       <c r="J27" t="n">
         <v>4.324484282609002</v>
       </c>
       <c r="K27" t="n">
+        <v>54119.08155348894</v>
+      </c>
+      <c r="L27" t="n">
         <v>421.2430657276935</v>
       </c>
-      <c r="L27" t="n">
-        <v>33639.83526516406</v>
-      </c>
       <c r="M27" t="n">
-        <v>33384.81463363318</v>
+        <v>37171.85225894747</v>
       </c>
       <c r="N27" t="n">
-        <v>25809.7365785919</v>
+        <v>25443.98472636564</v>
       </c>
       <c r="O27" t="n">
         <v>822.123123589618</v>
@@ -11053,10 +11053,10 @@
         <v>19842.47183824541</v>
       </c>
       <c r="R27" t="n">
-        <v>13440.46725735032</v>
+        <v>7475.731334838462</v>
       </c>
       <c r="S27" t="n">
-        <v>6367.316233457698</v>
+        <v>5457.099781807889</v>
       </c>
       <c r="T27" t="n">
         <v>7660.5478515625</v>
@@ -11082,31 +11082,31 @@
         <v>49709.7994258372</v>
       </c>
       <c r="F28" t="n">
-        <v>-11914.54661492839</v>
+        <v>50422.31652587621</v>
       </c>
       <c r="G28" t="n">
-        <v>50422.31652587621</v>
+        <v>-21349.7722409592</v>
       </c>
       <c r="H28" t="n">
-        <v>-21349.7722409592</v>
+        <v>-12192.7875838071</v>
       </c>
       <c r="I28" t="n">
-        <v>43109.10218108332</v>
+        <v>42447.38615464035</v>
       </c>
       <c r="J28" t="n">
         <v>7.98851136737535</v>
       </c>
       <c r="K28" t="n">
+        <v>28979.84606860278</v>
+      </c>
+      <c r="L28" t="n">
         <v>602.8368673636555</v>
       </c>
-      <c r="L28" t="n">
-        <v>40403.43159345684</v>
-      </c>
       <c r="M28" t="n">
-        <v>31985.24930421261</v>
+        <v>35889.59438581613</v>
       </c>
       <c r="N28" t="n">
-        <v>26370.37576065732</v>
+        <v>28595.88799236415</v>
       </c>
       <c r="O28" t="n">
         <v>821.2619558434543</v>
@@ -11118,10 +11118,10 @@
         <v>41032.22780285614</v>
       </c>
       <c r="R28" t="n">
-        <v>-4680.434642182354</v>
+        <v>-12120.54872370055</v>
       </c>
       <c r="S28" t="n">
-        <v>-3558.407695290735</v>
+        <v>-4212.823128147778</v>
       </c>
       <c r="T28" t="n">
         <v>-7234.28564453125</v>
@@ -11147,31 +11147,31 @@
         <v>43147.32468026019</v>
       </c>
       <c r="F29" t="n">
-        <v>5204.665885120575</v>
+        <v>50764.18152815122</v>
       </c>
       <c r="G29" t="n">
-        <v>50764.18152815122</v>
+        <v>7133.905434295478</v>
       </c>
       <c r="H29" t="n">
-        <v>7133.905434295478</v>
+        <v>6816.718124321129</v>
       </c>
       <c r="I29" t="n">
-        <v>37777.23012100164</v>
+        <v>38614.82012285762</v>
       </c>
       <c r="J29" t="n">
         <v>-4.106898700616095</v>
       </c>
       <c r="K29" t="n">
+        <v>32992.94218976347</v>
+      </c>
+      <c r="L29" t="n">
         <v>18.192367830477</v>
       </c>
-      <c r="L29" t="n">
-        <v>29637.95593250541</v>
-      </c>
       <c r="M29" t="n">
-        <v>35400.68670925198</v>
+        <v>36664.51586610822</v>
       </c>
       <c r="N29" t="n">
-        <v>27623.58091196863</v>
+        <v>29705.48551270215</v>
       </c>
       <c r="O29" t="n">
         <v>813.535389300249</v>
@@ -11183,10 +11183,10 @@
         <v>21397.0445031829</v>
       </c>
       <c r="R29" t="n">
-        <v>6109.757427288235</v>
+        <v>10698.06766365937</v>
       </c>
       <c r="S29" t="n">
-        <v>2170.467798093558</v>
+        <v>2777.922776421301</v>
       </c>
       <c r="T29" t="n">
         <v>1356.231201171875</v>
@@ -11212,31 +11212,31 @@
         <v>48410.18048266041</v>
       </c>
       <c r="F30" t="n">
-        <v>9802.041017706828</v>
+        <v>51106.04653042625</v>
       </c>
       <c r="G30" t="n">
-        <v>51106.04653042625</v>
+        <v>20407.09042872198</v>
       </c>
       <c r="H30" t="n">
-        <v>20407.09042872198</v>
+        <v>7978.317922373577</v>
       </c>
       <c r="I30" t="n">
-        <v>34287.51798585999</v>
+        <v>36787.6116934132</v>
       </c>
       <c r="J30" t="n">
         <v>9.274774405222038</v>
       </c>
       <c r="K30" t="n">
+        <v>42278.08465146569</v>
+      </c>
+      <c r="L30" t="n">
         <v>725.1710182481579</v>
       </c>
-      <c r="L30" t="n">
-        <v>24052.54989991708</v>
-      </c>
       <c r="M30" t="n">
-        <v>35278.3954262778</v>
+        <v>34448.26090176104</v>
       </c>
       <c r="N30" t="n">
-        <v>26750.50220228581</v>
+        <v>29355.85163567958</v>
       </c>
       <c r="O30" t="n">
         <v>826.7591227512129</v>
@@ -11248,10 +11248,10 @@
         <v>20663.66689597965</v>
       </c>
       <c r="R30" t="n">
-        <v>14732.76837091554</v>
+        <v>17548.87485208236</v>
       </c>
       <c r="S30" t="n">
-        <v>9314.666241787638</v>
+        <v>9338.925770516396</v>
       </c>
       <c r="T30" t="n">
         <v>29076.970703125</v>
@@ -11277,31 +11277,31 @@
         <v>40653.59061733034</v>
       </c>
       <c r="F31" t="n">
-        <v>3734.891157476864</v>
+        <v>51447.91153270127</v>
       </c>
       <c r="G31" t="n">
-        <v>51447.91153270127</v>
+        <v>-8370.699624495779</v>
       </c>
       <c r="H31" t="n">
-        <v>-8370.699624495779</v>
+        <v>4192.390441419125</v>
       </c>
       <c r="I31" t="n">
-        <v>35882.62398533886</v>
+        <v>34791.73846160332</v>
       </c>
       <c r="J31" t="n">
         <v>-4.78871999658485</v>
       </c>
       <c r="K31" t="n">
+        <v>22580.09451599865</v>
+      </c>
+      <c r="L31" t="n">
         <v>-264.5597914918802</v>
       </c>
-      <c r="L31" t="n">
-        <v>33802.82038298992</v>
-      </c>
       <c r="M31" t="n">
-        <v>34728.99528194068</v>
+        <v>33544.78974899052</v>
       </c>
       <c r="N31" t="n">
-        <v>27761.96792092024</v>
+        <v>31441.81513097731</v>
       </c>
       <c r="O31" t="n">
         <v>810.7585375980128</v>
@@ -11313,10 +11313,10 @@
         <v>19876.13164055721</v>
       </c>
       <c r="R31" t="n">
-        <v>-17989.28957697915</v>
+        <v>-18511.84442118179</v>
       </c>
       <c r="S31" t="n">
-        <v>-3764.031626910976</v>
+        <v>-3822.543030522073</v>
       </c>
       <c r="T31" t="n">
         <v>-19374.58984375</v>
@@ -11372,19 +11372,19 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>rf</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>avg_lvl_models</t>
@@ -11397,12 +11397,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>simple_rnn</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -11468,31 +11468,31 @@
         <v>44536.22881471434</v>
       </c>
       <c r="F2" t="n">
-        <v>72741.93888375002</v>
+        <v>41533.82646672569</v>
       </c>
       <c r="G2" t="n">
-        <v>41533.82646672569</v>
+        <v>84700.84847235667</v>
       </c>
       <c r="H2" t="n">
-        <v>84700.84847235667</v>
+        <v>72960.20031525845</v>
       </c>
       <c r="I2" t="n">
-        <v>32590.77922206818</v>
+        <v>33105.0166494741</v>
       </c>
       <c r="J2" t="n">
         <v>63796.60674259328</v>
       </c>
       <c r="K2" t="n">
+        <v>31785.13976312129</v>
+      </c>
+      <c r="L2" t="n">
         <v>64864.29797424785</v>
       </c>
-      <c r="L2" t="n">
-        <v>30659.47830141483</v>
-      </c>
       <c r="M2" t="n">
-        <v>34801.57861496208</v>
+        <v>33375.04086637793</v>
       </c>
       <c r="N2" t="n">
-        <v>23409.2389499463</v>
+        <v>27824.01465607135</v>
       </c>
       <c r="O2" t="n">
         <v>64617.27997616204</v>
@@ -11504,10 +11504,10 @@
         <v>15806.3609825745</v>
       </c>
       <c r="R2" t="n">
-        <v>78583.21776009738</v>
+        <v>81887.46348247008</v>
       </c>
       <c r="S2" t="n">
-        <v>7382.870136068413</v>
+        <v>7715.139347724365</v>
       </c>
       <c r="T2" t="n">
         <v>71600.85687499962</v>
@@ -11533,31 +11533,31 @@
         <v>36779.63894938694</v>
       </c>
       <c r="F3" t="n">
-        <v>75326.54044962279</v>
+        <v>41875.6914690007</v>
       </c>
       <c r="G3" t="n">
-        <v>41875.6914690007</v>
+        <v>76232.05967562385</v>
       </c>
       <c r="H3" t="n">
-        <v>76232.05967562385</v>
+        <v>76183.11024781782</v>
       </c>
       <c r="I3" t="n">
-        <v>32143.04679074809</v>
+        <v>31073.24836851955</v>
       </c>
       <c r="J3" t="n">
         <v>63787.75582754576</v>
       </c>
       <c r="K3" t="n">
+        <v>22226.41286902501</v>
+      </c>
+      <c r="L3" t="n">
         <v>64410.86087013247</v>
       </c>
-      <c r="L3" t="n">
-        <v>28183.08856195508</v>
-      </c>
       <c r="M3" t="n">
-        <v>29468.08944683967</v>
+        <v>26593.36704173906</v>
       </c>
       <c r="N3" t="n">
-        <v>25347.75205504744</v>
+        <v>25620.76277524976</v>
       </c>
       <c r="O3" t="n">
         <v>65424.71337109948</v>
@@ -11569,10 +11569,10 @@
         <v>15043.59461030478</v>
       </c>
       <c r="R3" t="n">
-        <v>54837.38993867322</v>
+        <v>72621.80385350683</v>
       </c>
       <c r="S3" t="n">
-        <v>-3073.594941943495</v>
+        <v>-1818.364457989991</v>
       </c>
       <c r="T3" t="n">
         <v>73921.85736328087</v>
@@ -11598,31 +11598,31 @@
         <v>13517.72961537878</v>
       </c>
       <c r="F4" t="n">
-        <v>45973.20644793252</v>
+        <v>42217.55647127573</v>
       </c>
       <c r="G4" t="n">
-        <v>42217.55647127573</v>
+        <v>38811.90235130258</v>
       </c>
       <c r="H4" t="n">
-        <v>38811.90235130258</v>
+        <v>48561.21099153991</v>
       </c>
       <c r="I4" t="n">
-        <v>21771.28650416175</v>
+        <v>21867.18869004195</v>
       </c>
       <c r="J4" t="n">
         <v>63774.57542349817</v>
       </c>
       <c r="K4" t="n">
+        <v>2253.798348489496</v>
+      </c>
+      <c r="L4" t="n">
         <v>62551.00393511124</v>
       </c>
-      <c r="L4" t="n">
-        <v>4148.61178800035</v>
-      </c>
       <c r="M4" t="n">
-        <v>27928.90704410075</v>
+        <v>30163.62568779288</v>
       </c>
       <c r="N4" t="n">
-        <v>28058.44203945695</v>
+        <v>28485.75432231723</v>
       </c>
       <c r="O4" t="n">
         <v>66218.01642649315</v>
@@ -11634,10 +11634,10 @@
         <v>-1738.11523135746</v>
       </c>
       <c r="R4" t="n">
-        <v>39294.5186037041</v>
+        <v>51622.95804096048</v>
       </c>
       <c r="S4" t="n">
-        <v>-15393.55504050872</v>
+        <v>-15592.21554430019</v>
       </c>
       <c r="T4" t="n">
         <v>40084.19720703087</v>
@@ -11663,31 +11663,31 @@
         <v>26474.36774046811</v>
       </c>
       <c r="F5" t="n">
-        <v>56218.59096780719</v>
+        <v>42559.42147355075</v>
       </c>
       <c r="G5" t="n">
-        <v>42559.42147355075</v>
+        <v>58618.55131857761</v>
       </c>
       <c r="H5" t="n">
-        <v>58618.55131857761</v>
+        <v>58078.77761962548</v>
       </c>
       <c r="I5" t="n">
-        <v>30386.35025594542</v>
+        <v>30207.79842722752</v>
       </c>
       <c r="J5" t="n">
         <v>63788.73039037533</v>
       </c>
       <c r="K5" t="n">
+        <v>17258.93459769188</v>
+      </c>
+      <c r="L5" t="n">
         <v>64146.22689164715</v>
       </c>
-      <c r="L5" t="n">
-        <v>26356.15214814766</v>
-      </c>
       <c r="M5" t="n">
-        <v>31303.66968505381</v>
+        <v>37908.81655921934</v>
       </c>
       <c r="N5" t="n">
-        <v>24690.94853857307</v>
+        <v>25754.60458512007</v>
       </c>
       <c r="O5" t="n">
         <v>67067.56082472758</v>
@@ -11699,10 +11699,10 @@
         <v>6009.39829985704</v>
       </c>
       <c r="R5" t="n">
-        <v>63590.50776054556</v>
+        <v>76107.90420439394</v>
       </c>
       <c r="S5" t="n">
-        <v>10827.47701713914</v>
+        <v>10793.82264341008</v>
       </c>
       <c r="T5" t="n">
         <v>65505.01166015587</v>
@@ -11728,31 +11728,31 @@
         <v>39195.31969326003</v>
       </c>
       <c r="F6" t="n">
-        <v>66353.92871834431</v>
+        <v>42901.28647582576</v>
       </c>
       <c r="G6" t="n">
-        <v>42901.28647582576</v>
+        <v>81055.94439838878</v>
       </c>
       <c r="H6" t="n">
-        <v>81055.94439838878</v>
+        <v>67757.23758009382</v>
       </c>
       <c r="I6" t="n">
-        <v>36279.69179697378</v>
+        <v>38573.72965906064</v>
       </c>
       <c r="J6" t="n">
         <v>63798.61420587061</v>
       </c>
       <c r="K6" t="n">
+        <v>50504.32922258225</v>
+      </c>
+      <c r="L6" t="n">
         <v>64931.93719259054</v>
       </c>
-      <c r="L6" t="n">
-        <v>33276.50540014057</v>
-      </c>
       <c r="M6" t="n">
-        <v>30371.7926272556</v>
+        <v>32708.60661338864</v>
       </c>
       <c r="N6" t="n">
-        <v>24778.45951319261</v>
+        <v>23566.12460131271</v>
       </c>
       <c r="O6" t="n">
         <v>67894.88377470123</v>
@@ -11764,10 +11764,10 @@
         <v>16217.93688721876</v>
       </c>
       <c r="R6" t="n">
-        <v>77826.6092184336</v>
+        <v>89030.17662744439</v>
       </c>
       <c r="S6" t="n">
-        <v>9159.204775627608</v>
+        <v>8998.143575723936</v>
       </c>
       <c r="T6" t="n">
         <v>91364.69916015587</v>
@@ -11793,31 +11793,31 @@
         <v>46804.3356748559</v>
       </c>
       <c r="F7" t="n">
-        <v>55349.14150514906</v>
+        <v>43243.15147810079</v>
       </c>
       <c r="G7" t="n">
-        <v>43243.15147810079</v>
+        <v>56061.57729637897</v>
       </c>
       <c r="H7" t="n">
-        <v>56061.57729637897</v>
+        <v>55156.12677934127</v>
       </c>
       <c r="I7" t="n">
-        <v>39025.66119752282</v>
+        <v>39607.25716419851</v>
       </c>
       <c r="J7" t="n">
         <v>63800.64077549941</v>
       </c>
       <c r="K7" t="n">
+        <v>32080.61266647575</v>
+      </c>
+      <c r="L7" t="n">
         <v>65225.86018600363</v>
       </c>
-      <c r="L7" t="n">
-        <v>27602.93045152722</v>
-      </c>
       <c r="M7" t="n">
-        <v>32149.79504633842</v>
+        <v>30453.30743539481</v>
       </c>
       <c r="N7" t="n">
-        <v>23338.32271966486</v>
+        <v>25209.89584906547</v>
       </c>
       <c r="O7" t="n">
         <v>68711.24087675588</v>
@@ -11829,10 +11829,10 @@
         <v>37407.69285189482</v>
       </c>
       <c r="R7" t="n">
-        <v>72594.65600273084</v>
+        <v>71221.19326808442</v>
       </c>
       <c r="S7" t="n">
-        <v>-4960.549772455483</v>
+        <v>-6237.396274846341</v>
       </c>
       <c r="T7" t="n">
         <v>73648.74994140587</v>
@@ -11858,31 +11858,31 @@
         <v>40241.86092930887</v>
       </c>
       <c r="F8" t="n">
-        <v>60317.85698577027</v>
+        <v>43585.01648037581</v>
       </c>
       <c r="G8" t="n">
-        <v>43585.01648037581</v>
+        <v>60516.4701166325</v>
       </c>
       <c r="H8" t="n">
-        <v>60516.4701166325</v>
+        <v>61851.92650756829</v>
       </c>
       <c r="I8" t="n">
-        <v>35293.01486633017</v>
+        <v>35975.48624242411</v>
       </c>
       <c r="J8" t="n">
         <v>63795.866835713</v>
       </c>
       <c r="K8" t="n">
+        <v>38072.75521531401</v>
+      </c>
+      <c r="L8" t="n">
         <v>65212.92399259502</v>
       </c>
-      <c r="L8" t="n">
-        <v>34954.46576252131</v>
-      </c>
       <c r="M8" t="n">
-        <v>27955.89853402971</v>
+        <v>29398.50975936501</v>
       </c>
       <c r="N8" t="n">
-        <v>26333.82663881405</v>
+        <v>27232.69696943758</v>
       </c>
       <c r="O8" t="n">
         <v>69525.54587848079</v>
@@ -11894,10 +11894,10 @@
         <v>17772.5095522211</v>
       </c>
       <c r="R8" t="n">
-        <v>78713.51389615114</v>
+        <v>69845.00831353049</v>
       </c>
       <c r="S8" t="n">
-        <v>3078.249316343006</v>
+        <v>2652.252654091813</v>
       </c>
       <c r="T8" t="n">
         <v>81922.21087890587</v>
@@ -11923,31 +11923,31 @@
         <v>45504.71673172074</v>
       </c>
       <c r="F9" t="n">
-        <v>69785.54811107188</v>
+        <v>43926.88148265082</v>
       </c>
       <c r="G9" t="n">
-        <v>43926.88148265082</v>
+        <v>78998.55265080868</v>
       </c>
       <c r="H9" t="n">
-        <v>78998.55265080868</v>
+        <v>71979.88489319307</v>
       </c>
       <c r="I9" t="n">
-        <v>31789.17741346056</v>
+        <v>33884.76767219709</v>
       </c>
       <c r="J9" t="n">
         <v>63809.37399038506</v>
       </c>
       <c r="K9" t="n">
+        <v>43835.29210594592</v>
+      </c>
+      <c r="L9" t="n">
         <v>66278.69146835856</v>
       </c>
-      <c r="L9" t="n">
-        <v>32195.52038478849</v>
-      </c>
       <c r="M9" t="n">
-        <v>27339.56318168341</v>
+        <v>29585.44775850324</v>
       </c>
       <c r="N9" t="n">
-        <v>23247.32974113374</v>
+        <v>26126.39551304875</v>
       </c>
       <c r="O9" t="n">
         <v>70358.39010854372</v>
@@ -11959,10 +11959,10 @@
         <v>17039.13194501787</v>
       </c>
       <c r="R9" t="n">
-        <v>95731.08009147528</v>
+        <v>93598.02858456669</v>
       </c>
       <c r="S9" t="n">
-        <v>8000.654143425276</v>
+        <v>8693.422803528249</v>
       </c>
       <c r="T9" t="n">
         <v>93242.91400390587</v>
@@ -11988,31 +11988,31 @@
         <v>37748.12686638235</v>
       </c>
       <c r="F10" t="n">
-        <v>73739.4651564332</v>
+        <v>44268.74648492585</v>
       </c>
       <c r="G10" t="n">
-        <v>44268.74648492585</v>
+        <v>75883.55852658355</v>
       </c>
       <c r="H10" t="n">
-        <v>75883.55852658355</v>
+        <v>75926.20368350635</v>
       </c>
       <c r="I10" t="n">
-        <v>29052.75584336196</v>
+        <v>30700.33414231637</v>
       </c>
       <c r="J10" t="n">
         <v>63799.71734048978</v>
       </c>
       <c r="K10" t="n">
+        <v>17310.21111809685</v>
+      </c>
+      <c r="L10" t="n">
         <v>65789.00158944007</v>
       </c>
-      <c r="L10" t="n">
-        <v>6369.473136801083</v>
-      </c>
       <c r="M10" t="n">
-        <v>29053.27487222253</v>
+        <v>29127.19315882025</v>
       </c>
       <c r="N10" t="n">
-        <v>24210.95803405268</v>
+        <v>26376.92815779446</v>
       </c>
       <c r="O10" t="n">
         <v>71166.29970627687</v>
@@ -12024,10 +12024,10 @@
         <v>16251.59668959543</v>
       </c>
       <c r="R10" t="n">
-        <v>83745.67863620016</v>
+        <v>82848.86471993635</v>
       </c>
       <c r="S10" t="n">
-        <v>-810.052077296561</v>
+        <v>-756.0766651505273</v>
       </c>
       <c r="T10" t="n">
         <v>100540.6908593746</v>
@@ -12053,31 +12053,31 @@
         <v>14486.21753235485</v>
       </c>
       <c r="F11" t="n">
-        <v>50138.39175162252</v>
+        <v>44610.61148720087</v>
       </c>
       <c r="G11" t="n">
-        <v>44610.61148720087</v>
+        <v>45712.80184831</v>
       </c>
       <c r="H11" t="n">
-        <v>45712.80184831</v>
+        <v>54051.79948341309</v>
       </c>
       <c r="I11" t="n">
-        <v>22472.01026140987</v>
+        <v>25160.65672556338</v>
       </c>
       <c r="J11" t="n">
         <v>63787.40540028453</v>
       </c>
       <c r="K11" t="n">
+        <v>29316.30522521137</v>
+      </c>
+      <c r="L11" t="n">
         <v>64069.44624793545</v>
       </c>
-      <c r="L11" t="n">
-        <v>11318.77021450139</v>
-      </c>
       <c r="M11" t="n">
-        <v>30567.50635692773</v>
+        <v>33056.75614917276</v>
       </c>
       <c r="N11" t="n">
-        <v>25660.30918571799</v>
+        <v>26682.69609599112</v>
       </c>
       <c r="O11" t="n">
         <v>71961.85512060751</v>
@@ -12089,10 +12089,10 @@
         <v>-529.9356514021365</v>
       </c>
       <c r="R11" t="n">
-        <v>68489.14127131148</v>
+        <v>54633.95038715744</v>
       </c>
       <c r="S11" t="n">
-        <v>-14562.87189479171</v>
+        <v>-15434.11495027988</v>
       </c>
       <c r="T11" t="n">
         <v>62387.69085937462</v>
@@ -12118,31 +12118,31 @@
         <v>27442.85565746643</v>
       </c>
       <c r="F12" t="n">
-        <v>60655.03827966646</v>
+        <v>44952.47648947588</v>
       </c>
       <c r="G12" t="n">
-        <v>44952.47648947588</v>
+        <v>64931.59064940813</v>
       </c>
       <c r="H12" t="n">
-        <v>64931.59064940813</v>
+        <v>63839.64323189731</v>
       </c>
       <c r="I12" t="n">
-        <v>29176.30762376673</v>
+        <v>29267.61467396514</v>
       </c>
       <c r="J12" t="n">
         <v>63801.70231312962</v>
       </c>
       <c r="K12" t="n">
+        <v>18893.97461336328</v>
+      </c>
+      <c r="L12" t="n">
         <v>65651.25148666913</v>
       </c>
-      <c r="L12" t="n">
-        <v>19344.67242226599</v>
-      </c>
       <c r="M12" t="n">
-        <v>29393.37336655704</v>
+        <v>29841.25346987544</v>
       </c>
       <c r="N12" t="n">
-        <v>25634.7766093403</v>
+        <v>26368.05071651189</v>
       </c>
       <c r="O12" t="n">
         <v>72809.51122172942</v>
@@ -12154,10 +12154,10 @@
         <v>7217.576607793527</v>
       </c>
       <c r="R12" t="n">
-        <v>84952.29169723619</v>
+        <v>76422.00917079288</v>
       </c>
       <c r="S12" t="n">
-        <v>11294.15662189284</v>
+        <v>11681.64920700478</v>
       </c>
       <c r="T12" t="n">
         <v>94435.71820312462</v>
@@ -12183,31 +12183,31 @@
         <v>40163.8076102573</v>
       </c>
       <c r="F13" t="n">
-        <v>70053.74315674343</v>
+        <v>45294.34149175091</v>
       </c>
       <c r="G13" t="n">
-        <v>45294.34149175091</v>
+        <v>82828.27978950429</v>
       </c>
       <c r="H13" t="n">
-        <v>82828.27978950429</v>
+        <v>72449.55604790822</v>
       </c>
       <c r="I13" t="n">
-        <v>37684.21749606659</v>
+        <v>37428.79737173185</v>
       </c>
       <c r="J13" t="n">
         <v>63809.18896594412</v>
       </c>
       <c r="K13" t="n">
+        <v>37622.99028468428</v>
+      </c>
+      <c r="L13" t="n">
         <v>66228.9759038998</v>
       </c>
-      <c r="L13" t="n">
-        <v>46203.63006724563</v>
-      </c>
       <c r="M13" t="n">
-        <v>29872.56766662298</v>
+        <v>35288.35036580412</v>
       </c>
       <c r="N13" t="n">
-        <v>24592.12701085506</v>
+        <v>25713.6230995573</v>
       </c>
       <c r="O13" t="n">
         <v>73634.13495214998</v>
@@ -12219,10 +12219,10 @@
         <v>17426.11520427089</v>
       </c>
       <c r="R13" t="n">
-        <v>107232.9850119365</v>
+        <v>95622.80068248548</v>
       </c>
       <c r="S13" t="n">
-        <v>8722.613863150245</v>
+        <v>8392.646108939256</v>
       </c>
       <c r="T13" t="n">
         <v>117659.7631249996</v>
@@ -12248,31 +12248,31 @@
         <v>47772.82359183375</v>
       </c>
       <c r="F14" t="n">
-        <v>57949.06630606748</v>
+        <v>45636.20649402593</v>
       </c>
       <c r="G14" t="n">
-        <v>45636.20649402593</v>
+        <v>57885.42481479795</v>
       </c>
       <c r="H14" t="n">
-        <v>57885.42481479795</v>
+        <v>59241.79855260866</v>
       </c>
       <c r="I14" t="n">
-        <v>39797.48798920588</v>
+        <v>40848.86266150449</v>
       </c>
       <c r="J14" t="n">
         <v>63813.80472160877</v>
       </c>
       <c r="K14" t="n">
+        <v>40055.40283918676</v>
+      </c>
+      <c r="L14" t="n">
         <v>66647.97042549694</v>
       </c>
-      <c r="L14" t="n">
-        <v>33206.09295591114</v>
-      </c>
       <c r="M14" t="n">
-        <v>31193.79029187856</v>
+        <v>31283.18768303989</v>
       </c>
       <c r="N14" t="n">
-        <v>24706.49915850683</v>
+        <v>26178.78926245867</v>
       </c>
       <c r="O14" t="n">
         <v>74452.63172479862</v>
@@ -12284,10 +12284,10 @@
         <v>38615.87116888162</v>
       </c>
       <c r="R14" t="n">
-        <v>90245.85755488272</v>
+        <v>74990.38399761511</v>
       </c>
       <c r="S14" t="n">
-        <v>-6876.285706126414</v>
+        <v>-7346.987926230743</v>
       </c>
       <c r="T14" t="n">
         <v>96278.44671874962</v>
@@ -12313,31 +12313,31 @@
         <v>41210.34884627309</v>
       </c>
       <c r="F15" t="n">
-        <v>63165.47668775229</v>
+        <v>45978.07149630095</v>
       </c>
       <c r="G15" t="n">
-        <v>45978.07149630095</v>
+        <v>62699.05462005024</v>
       </c>
       <c r="H15" t="n">
-        <v>62699.05462005024</v>
+        <v>66060.24899157972</v>
       </c>
       <c r="I15" t="n">
-        <v>34132.52830171819</v>
+        <v>35014.74210666997</v>
       </c>
       <c r="J15" t="n">
         <v>63809.41953732513</v>
       </c>
       <c r="K15" t="n">
+        <v>26740.42012432365</v>
+      </c>
+      <c r="L15" t="n">
         <v>66672.79876876554</v>
       </c>
-      <c r="L15" t="n">
-        <v>20797.41181324645</v>
-      </c>
       <c r="M15" t="n">
-        <v>31284.27471666632</v>
+        <v>30664.46530656068</v>
       </c>
       <c r="N15" t="n">
-        <v>27364.82241042404</v>
+        <v>29099.33394906668</v>
       </c>
       <c r="O15" t="n">
         <v>75267.79707949983</v>
@@ -12349,10 +12349,10 @@
         <v>18980.68786920837</v>
       </c>
       <c r="R15" t="n">
-        <v>95598.95844933092</v>
+        <v>82130.07172560263</v>
       </c>
       <c r="S15" t="n">
-        <v>2815.236675803472</v>
+        <v>3176.025099084583</v>
       </c>
       <c r="T15" t="n">
         <v>101014.7157617184</v>
@@ -12378,31 +12378,31 @@
         <v>46473.20464867465</v>
       </c>
       <c r="F16" t="n">
-        <v>72653.99546465006</v>
+        <v>46319.93649857597</v>
       </c>
       <c r="G16" t="n">
-        <v>46319.93649857597</v>
+        <v>81488.69351557556</v>
       </c>
       <c r="H16" t="n">
-        <v>81488.69351557556</v>
+        <v>75236.53349658985</v>
       </c>
       <c r="I16" t="n">
-        <v>31615.62183567357</v>
+        <v>32079.34736117382</v>
       </c>
       <c r="J16" t="n">
         <v>63821.56680460012</v>
       </c>
       <c r="K16" t="n">
+        <v>23041.66583962663</v>
+      </c>
+      <c r="L16" t="n">
         <v>67608.8884975025</v>
       </c>
-      <c r="L16" t="n">
-        <v>22326.86971487402</v>
-      </c>
       <c r="M16" t="n">
-        <v>31435.83326757102</v>
+        <v>32083.64173970966</v>
       </c>
       <c r="N16" t="n">
-        <v>26267.11710152848</v>
+        <v>28614.31670863925</v>
       </c>
       <c r="O16" t="n">
         <v>76098.14590462224</v>
@@ -12414,10 +12414,10 @@
         <v>18247.31026200513</v>
       </c>
       <c r="R16" t="n">
-        <v>110560.7474900247</v>
+        <v>102600.353970906</v>
       </c>
       <c r="S16" t="n">
-        <v>8496.104640414351</v>
+        <v>8950.670398258133</v>
       </c>
       <c r="T16" t="n">
         <v>119340.5145898434</v>
@@ -12443,31 +12443,31 @@
         <v>38716.61478333698</v>
       </c>
       <c r="F17" t="n">
-        <v>75562.31201368924</v>
+        <v>46661.80150085099</v>
       </c>
       <c r="G17" t="n">
-        <v>46661.80150085099</v>
+        <v>77695.22677342049</v>
       </c>
       <c r="H17" t="n">
-        <v>77695.22677342049</v>
+        <v>78598.9100834596</v>
       </c>
       <c r="I17" t="n">
-        <v>32612.73371607344</v>
+        <v>32068.54465837534</v>
       </c>
       <c r="J17" t="n">
         <v>63813.32093689858</v>
       </c>
       <c r="K17" t="n">
+        <v>27121.87357337622</v>
+      </c>
+      <c r="L17" t="n">
         <v>67163.58967411934</v>
       </c>
-      <c r="L17" t="n">
-        <v>27435.95636527686</v>
-      </c>
       <c r="M17" t="n">
-        <v>34091.65348153262</v>
+        <v>30148.03851555882</v>
       </c>
       <c r="N17" t="n">
-        <v>27603.08301765023</v>
+        <v>27507.26831393985</v>
       </c>
       <c r="O17" t="n">
         <v>76906.43163986722</v>
@@ -12479,10 +12479,10 @@
         <v>17459.77500658269</v>
       </c>
       <c r="R17" t="n">
-        <v>97668.8141718338</v>
+        <v>89492.60584278076</v>
       </c>
       <c r="S17" t="n">
-        <v>-2068.120154733003</v>
+        <v>-2080.436612984291</v>
       </c>
       <c r="T17" t="n">
         <v>115932.835146484</v>
@@ -12508,31 +12508,31 @@
         <v>15454.7054493309</v>
       </c>
       <c r="F18" t="n">
-        <v>52802.65111267925</v>
+        <v>47003.66650312601</v>
       </c>
       <c r="G18" t="n">
-        <v>47003.66650312601</v>
+        <v>48460.5284647416</v>
       </c>
       <c r="H18" t="n">
-        <v>48460.5284647416</v>
+        <v>57220.80079749337</v>
       </c>
       <c r="I18" t="n">
-        <v>24418.88266424589</v>
+        <v>21246.83123395444</v>
       </c>
       <c r="J18" t="n">
         <v>63803.15053845482</v>
       </c>
       <c r="K18" t="n">
+        <v>-5047.501586696875</v>
+      </c>
+      <c r="L18" t="n">
         <v>65618.07529018955</v>
       </c>
-      <c r="L18" t="n">
-        <v>24968.0245102614</v>
-      </c>
       <c r="M18" t="n">
-        <v>30024.05311292706</v>
+        <v>35380.6433348417</v>
       </c>
       <c r="N18" t="n">
-        <v>26756.52220722286</v>
+        <v>26039.04663993491</v>
       </c>
       <c r="O18" t="n">
         <v>77704.56430858777</v>
@@ -12544,10 +12544,10 @@
         <v>678.2426655851268</v>
       </c>
       <c r="R18" t="n">
-        <v>79921.74681494402</v>
+        <v>67349.24285431755</v>
       </c>
       <c r="S18" t="n">
-        <v>-14276.46317676423</v>
+        <v>-14459.03572632214</v>
       </c>
       <c r="T18" t="n">
         <v>75652.67499023399</v>
@@ -12573,31 +12573,31 @@
         <v>28411.34357446764</v>
       </c>
       <c r="F19" t="n">
-        <v>63424.69376726973</v>
+        <v>47345.53150540103</v>
       </c>
       <c r="G19" t="n">
-        <v>47345.53150540103</v>
+        <v>71431.51835975634</v>
       </c>
       <c r="H19" t="n">
-        <v>71431.51835975634</v>
+        <v>66746.41394539048</v>
       </c>
       <c r="I19" t="n">
-        <v>30284.88518313128</v>
+        <v>31035.48249814757</v>
       </c>
       <c r="J19" t="n">
         <v>63816.62116484674</v>
       </c>
       <c r="K19" t="n">
+        <v>22588.99420650749</v>
+      </c>
+      <c r="L19" t="n">
         <v>67081.24563792544</v>
       </c>
-      <c r="L19" t="n">
-        <v>23620.76075488477</v>
-      </c>
       <c r="M19" t="n">
-        <v>30612.71042779086</v>
+        <v>33775.18366549907</v>
       </c>
       <c r="N19" t="n">
-        <v>23970.60282109602</v>
+        <v>27844.67465189545</v>
       </c>
       <c r="O19" t="n">
         <v>78550.480499449</v>
@@ -12609,10 +12609,10 @@
         <v>8425.754924780791</v>
       </c>
       <c r="R19" t="n">
-        <v>102662.4208424028</v>
+        <v>94400.78447682326</v>
       </c>
       <c r="S19" t="n">
-        <v>11390.74558516894</v>
+        <v>11661.78549136914</v>
       </c>
       <c r="T19" t="n">
         <v>102485.905458984</v>
@@ -12638,31 +12638,31 @@
         <v>41132.29552720401</v>
       </c>
       <c r="F20" t="n">
-        <v>73272.28580250379</v>
+        <v>47687.39650767605</v>
       </c>
       <c r="G20" t="n">
-        <v>47687.39650767605</v>
+        <v>80998.14758642451</v>
       </c>
       <c r="H20" t="n">
-        <v>80998.14758642451</v>
+        <v>73497.2390841053</v>
       </c>
       <c r="I20" t="n">
-        <v>40809.95549176837</v>
+        <v>37928.07360349948</v>
       </c>
       <c r="J20" t="n">
         <v>63822.52182434657</v>
       </c>
       <c r="K20" t="n">
+        <v>34960.98796427993</v>
+      </c>
+      <c r="L20" t="n">
         <v>67579.42696251707</v>
       </c>
-      <c r="L20" t="n">
-        <v>57446.93646853861</v>
-      </c>
       <c r="M20" t="n">
-        <v>31919.50601903943</v>
+        <v>31838.38216159044</v>
       </c>
       <c r="N20" t="n">
-        <v>27091.46205952315</v>
+        <v>26603.47931507973</v>
       </c>
       <c r="O20" t="n">
         <v>79373.45224769766</v>
@@ -12674,10 +12674,10 @@
         <v>18634.29352125815</v>
       </c>
       <c r="R20" t="n">
-        <v>113122.4569367109</v>
+        <v>102678.8434677192</v>
       </c>
       <c r="S20" t="n">
-        <v>6062.402350142178</v>
+        <v>5472.616341670824</v>
       </c>
       <c r="T20" t="n">
         <v>118038.6779199215</v>
@@ -12703,31 +12703,31 @@
         <v>48741.31150884127</v>
       </c>
       <c r="F21" t="n">
-        <v>61170.15684528468</v>
+        <v>48029.26150995107</v>
       </c>
       <c r="G21" t="n">
-        <v>48029.26150995107</v>
+        <v>56473.22397933406</v>
       </c>
       <c r="H21" t="n">
-        <v>56473.22397933406</v>
+        <v>61064.24563852797</v>
       </c>
       <c r="I21" t="n">
-        <v>41817.56216898687</v>
+        <v>42901.00373730395</v>
       </c>
       <c r="J21" t="n">
         <v>63828.12610301978</v>
       </c>
       <c r="K21" t="n">
+        <v>39571.33595856724</v>
+      </c>
+      <c r="L21" t="n">
         <v>68053.43998099137</v>
       </c>
-      <c r="L21" t="n">
-        <v>39140.1650241792</v>
-      </c>
       <c r="M21" t="n">
-        <v>29337.98232852219</v>
+        <v>35810.4221033573</v>
       </c>
       <c r="N21" t="n">
-        <v>25791.33170077352</v>
+        <v>27555.253538087</v>
       </c>
       <c r="O21" t="n">
         <v>80193.00688272285</v>
@@ -12739,10 +12739,10 @@
         <v>39824.04948586888</v>
       </c>
       <c r="R21" t="n">
-        <v>106025.4627944471</v>
+        <v>83813.83187298871</v>
       </c>
       <c r="S21" t="n">
-        <v>-4593.63254176074</v>
+        <v>-5638.303390658837</v>
       </c>
       <c r="T21" t="n">
         <v>106965.5997949215</v>
@@ -12768,31 +12768,31 @@
         <v>42178.83676329079</v>
       </c>
       <c r="F22" t="n">
-        <v>66374.82273040526</v>
+        <v>48371.12651222609</v>
       </c>
       <c r="G22" t="n">
-        <v>48371.12651222609</v>
+        <v>61590.85445451894</v>
       </c>
       <c r="H22" t="n">
-        <v>61590.85445451894</v>
+        <v>67882.49705035101</v>
       </c>
       <c r="I22" t="n">
-        <v>37626.90691692166</v>
+        <v>35823.97543172378</v>
       </c>
       <c r="J22" t="n">
         <v>63824.52033968118</v>
       </c>
       <c r="K22" t="n">
+        <v>27298.90748836247</v>
+      </c>
+      <c r="L22" t="n">
         <v>68091.24366081826</v>
       </c>
-      <c r="L22" t="n">
-        <v>40576.05698318032</v>
-      </c>
       <c r="M22" t="n">
-        <v>32903.83086008279</v>
+        <v>30315.1588110104</v>
       </c>
       <c r="N22" t="n">
-        <v>27942.62845978884</v>
+        <v>29384.99812209604</v>
       </c>
       <c r="O22" t="n">
         <v>81008.27390437138</v>
@@ -12804,10 +12804,10 @@
         <v>20188.86618619563</v>
       </c>
       <c r="R22" t="n">
-        <v>111064.1840467084</v>
+        <v>92153.51922561685</v>
       </c>
       <c r="S22" t="n">
-        <v>2317.986582831885</v>
+        <v>2810.578477329453</v>
       </c>
       <c r="T22" t="n">
         <v>108668.5778222652</v>
@@ -12833,31 +12833,31 @@
         <v>47441.69256568105</v>
       </c>
       <c r="F23" t="n">
-        <v>76205.7313696678</v>
+        <v>48712.99151450111</v>
       </c>
       <c r="G23" t="n">
-        <v>48712.99151450111</v>
+        <v>82179.09452901535</v>
       </c>
       <c r="H23" t="n">
-        <v>82179.09452901535</v>
+        <v>76767.06281154952</v>
       </c>
       <c r="I23" t="n">
-        <v>34550.56172955265</v>
+        <v>33760.71916323803</v>
       </c>
       <c r="J23" t="n">
         <v>63835.83230021827</v>
       </c>
       <c r="K23" t="n">
+        <v>34612.31080398706</v>
+      </c>
+      <c r="L23" t="n">
         <v>68966.39395589681</v>
       </c>
-      <c r="L23" t="n">
-        <v>36218.88611310421</v>
-      </c>
       <c r="M23" t="n">
-        <v>32067.98146287499</v>
+        <v>25530.05109050794</v>
       </c>
       <c r="N23" t="n">
-        <v>26092.35737531333</v>
+        <v>27918.12252628057</v>
       </c>
       <c r="O23" t="n">
         <v>81837.12889445499</v>
@@ -12869,10 +12869,10 @@
         <v>19455.48857899239</v>
       </c>
       <c r="R23" t="n">
-        <v>125234.4530713689</v>
+        <v>113448.571349414</v>
       </c>
       <c r="S23" t="n">
-        <v>9669.878084504329</v>
+        <v>10180.08234224788</v>
       </c>
       <c r="T23" t="n">
         <v>139489.4313378902</v>
@@ -12898,31 +12898,31 @@
         <v>39685.10270033492</v>
       </c>
       <c r="F24" t="n">
-        <v>80335.91709561828</v>
+        <v>49054.85651677613</v>
       </c>
       <c r="G24" t="n">
-        <v>49054.85651677613</v>
+        <v>76730.13915694066</v>
       </c>
       <c r="H24" t="n">
-        <v>76730.13915694066</v>
+        <v>80875.34757707741</v>
       </c>
       <c r="I24" t="n">
-        <v>33019.97782932387</v>
+        <v>32843.86844915074</v>
       </c>
       <c r="J24" t="n">
         <v>63828.54677614842</v>
       </c>
       <c r="K24" t="n">
+        <v>21505.5522408828</v>
+      </c>
+      <c r="L24" t="n">
         <v>68596.43436656283</v>
       </c>
-      <c r="L24" t="n">
-        <v>23671.11711086033</v>
-      </c>
       <c r="M24" t="n">
-        <v>29711.664440684</v>
+        <v>31141.68578241019</v>
       </c>
       <c r="N24" t="n">
-        <v>28301.48940879254</v>
+        <v>27628.15789565889</v>
       </c>
       <c r="O24" t="n">
         <v>82646.40403601287</v>
@@ -12934,10 +12934,10 @@
         <v>18667.95332356995</v>
       </c>
       <c r="R24" t="n">
-        <v>111803.6538419716</v>
+        <v>102783.4367400644</v>
       </c>
       <c r="S24" t="n">
-        <v>-3324.95022892082</v>
+        <v>-3146.734799194025</v>
       </c>
       <c r="T24" t="n">
         <v>121860.3864160152</v>
@@ -12963,31 +12963,31 @@
         <v>16423.19336630698</v>
       </c>
       <c r="F25" t="n">
-        <v>59026.88107184276</v>
+        <v>49396.72151905115</v>
       </c>
       <c r="G25" t="n">
-        <v>49396.72151905115</v>
+        <v>45328.11182775072</v>
       </c>
       <c r="H25" t="n">
-        <v>45328.11182775072</v>
+        <v>60930.99015480143</v>
       </c>
       <c r="I25" t="n">
-        <v>25083.22677625293</v>
+        <v>22845.10156743204</v>
       </c>
       <c r="J25" t="n">
         <v>63820.14291595358</v>
       </c>
       <c r="K25" t="n">
+        <v>2360.289701003393</v>
+      </c>
+      <c r="L25" t="n">
         <v>67155.08349981962</v>
       </c>
-      <c r="L25" t="n">
-        <v>22554.99421030282</v>
-      </c>
       <c r="M25" t="n">
-        <v>29240.46396977155</v>
+        <v>32001.13525177089</v>
       </c>
       <c r="N25" t="n">
-        <v>26999.02923820613</v>
+        <v>26528.06079493909</v>
       </c>
       <c r="O25" t="n">
         <v>83444.7195561198</v>
@@ -12999,10 +12999,10 @@
         <v>1886.420982572385</v>
       </c>
       <c r="R25" t="n">
-        <v>92738.87055948246</v>
+        <v>72128.69173012371</v>
       </c>
       <c r="S25" t="n">
-        <v>-12954.78667230872</v>
+        <v>-13773.17465236805</v>
       </c>
       <c r="T25" t="n">
         <v>103326.1539941402</v>
@@ -13028,31 +13028,31 @@
         <v>29379.83149142638</v>
       </c>
       <c r="F26" t="n">
-        <v>68978.9445149997</v>
+        <v>49738.58652132617</v>
       </c>
       <c r="G26" t="n">
-        <v>49738.58652132617</v>
+        <v>64429.22831348857</v>
       </c>
       <c r="H26" t="n">
-        <v>64429.22831348857</v>
+        <v>70154.76246684761</v>
       </c>
       <c r="I26" t="n">
-        <v>31737.35990318416</v>
+        <v>31404.03053728913</v>
       </c>
       <c r="J26" t="n">
         <v>63832.31103208366</v>
       </c>
       <c r="K26" t="n">
+        <v>20690.89523169919</v>
+      </c>
+      <c r="L26" t="n">
         <v>68472.09412855588</v>
       </c>
-      <c r="L26" t="n">
-        <v>23964.9181437835</v>
-      </c>
       <c r="M26" t="n">
-        <v>30480.42288529871</v>
+        <v>31165.11421767471</v>
       </c>
       <c r="N26" t="n">
-        <v>28166.61459913103</v>
+        <v>28089.31125167905</v>
       </c>
       <c r="O26" t="n">
         <v>84286.78721831866</v>
@@ -13064,10 +13064,10 @@
         <v>9633.933241768049</v>
       </c>
       <c r="R26" t="n">
-        <v>112646.969036518</v>
+        <v>93195.94199755427</v>
       </c>
       <c r="S26" t="n">
-        <v>10037.98561557624</v>
+        <v>10075.56784410614</v>
       </c>
       <c r="T26" t="n">
         <v>126465.1832910152</v>
@@ -13093,31 +13093,31 @@
         <v>42100.78344420128</v>
       </c>
       <c r="F27" t="n">
-        <v>78961.88743575501</v>
+        <v>50080.45152360119</v>
       </c>
       <c r="G27" t="n">
-        <v>50080.45152360119</v>
+        <v>80381.90941520389</v>
       </c>
       <c r="H27" t="n">
-        <v>80381.90941520389</v>
+        <v>77035.55171583846</v>
       </c>
       <c r="I27" t="n">
-        <v>38777.56030769247</v>
+        <v>41765.12681536909</v>
       </c>
       <c r="J27" t="n">
         <v>63836.63551636627</v>
       </c>
       <c r="K27" t="n">
+        <v>54119.08155348894</v>
+      </c>
+      <c r="L27" t="n">
         <v>68893.33719428358</v>
       </c>
-      <c r="L27" t="n">
-        <v>33639.83526516406</v>
-      </c>
       <c r="M27" t="n">
-        <v>33384.81463363318</v>
+        <v>37171.85225894747</v>
       </c>
       <c r="N27" t="n">
-        <v>25809.7365785919</v>
+        <v>25443.98472636564</v>
       </c>
       <c r="O27" t="n">
         <v>85108.91034190827</v>
@@ -13129,10 +13129,10 @@
         <v>19842.47183824541</v>
       </c>
       <c r="R27" t="n">
-        <v>126087.4362938683</v>
+        <v>100671.6733323927</v>
       </c>
       <c r="S27" t="n">
-        <v>6367.316233457698</v>
+        <v>5457.099781807889</v>
       </c>
       <c r="T27" t="n">
         <v>134125.7311425777</v>
@@ -13158,31 +13158,31 @@
         <v>49709.7994258372</v>
       </c>
       <c r="F28" t="n">
-        <v>67047.34082082662</v>
+        <v>50422.31652587621</v>
       </c>
       <c r="G28" t="n">
-        <v>50422.31652587621</v>
+        <v>59032.13717424469</v>
       </c>
       <c r="H28" t="n">
-        <v>59032.13717424469</v>
+        <v>64842.76413203136</v>
       </c>
       <c r="I28" t="n">
-        <v>43109.10218108332</v>
+        <v>42447.38615464035</v>
       </c>
       <c r="J28" t="n">
         <v>63844.62402773364</v>
       </c>
       <c r="K28" t="n">
+        <v>28979.84606860278</v>
+      </c>
+      <c r="L28" t="n">
         <v>69496.17406164724</v>
       </c>
-      <c r="L28" t="n">
-        <v>40403.43159345684</v>
-      </c>
       <c r="M28" t="n">
-        <v>31985.24930421261</v>
+        <v>35889.59438581613</v>
       </c>
       <c r="N28" t="n">
-        <v>26370.37576065732</v>
+        <v>28595.88799236415</v>
       </c>
       <c r="O28" t="n">
         <v>85930.17229775172</v>
@@ -13194,10 +13194,10 @@
         <v>41032.22780285614</v>
       </c>
       <c r="R28" t="n">
-        <v>121407.0016516859</v>
+        <v>88551.12460869219</v>
       </c>
       <c r="S28" t="n">
-        <v>-3558.407695290735</v>
+        <v>-4212.823128147778</v>
       </c>
       <c r="T28" t="n">
         <v>126891.4454980465</v>
@@ -13223,31 +13223,31 @@
         <v>43147.32468026019</v>
       </c>
       <c r="F29" t="n">
-        <v>72252.00670594719</v>
+        <v>50764.18152815122</v>
       </c>
       <c r="G29" t="n">
-        <v>50764.18152815122</v>
+        <v>66166.04260854017</v>
       </c>
       <c r="H29" t="n">
-        <v>66166.04260854017</v>
+        <v>71659.48225635248</v>
       </c>
       <c r="I29" t="n">
-        <v>37777.23012100164</v>
+        <v>38614.82012285762</v>
       </c>
       <c r="J29" t="n">
         <v>63840.51712903303</v>
       </c>
       <c r="K29" t="n">
+        <v>32992.94218976347</v>
+      </c>
+      <c r="L29" t="n">
         <v>69514.36642947771</v>
       </c>
-      <c r="L29" t="n">
-        <v>29637.95593250541</v>
-      </c>
       <c r="M29" t="n">
-        <v>35400.68670925198</v>
+        <v>36664.51586610822</v>
       </c>
       <c r="N29" t="n">
-        <v>27623.58091196863</v>
+        <v>29705.48551270215</v>
       </c>
       <c r="O29" t="n">
         <v>86743.70768705197</v>
@@ -13259,10 +13259,10 @@
         <v>21397.0445031829</v>
       </c>
       <c r="R29" t="n">
-        <v>127516.7590789742</v>
+        <v>99249.19227235156</v>
       </c>
       <c r="S29" t="n">
-        <v>2170.467798093558</v>
+        <v>2777.922776421301</v>
       </c>
       <c r="T29" t="n">
         <v>128247.6766992184</v>
@@ -13288,31 +13288,31 @@
         <v>48410.18048266041</v>
       </c>
       <c r="F30" t="n">
-        <v>82054.04772365402</v>
+        <v>51106.04653042625</v>
       </c>
       <c r="G30" t="n">
-        <v>51106.04653042625</v>
+        <v>86573.13303726215</v>
       </c>
       <c r="H30" t="n">
-        <v>86573.13303726215</v>
+        <v>79637.80017872606</v>
       </c>
       <c r="I30" t="n">
-        <v>34287.51798585999</v>
+        <v>36787.6116934132</v>
       </c>
       <c r="J30" t="n">
         <v>63849.79190343825</v>
       </c>
       <c r="K30" t="n">
+        <v>42278.08465146569</v>
+      </c>
+      <c r="L30" t="n">
         <v>70239.53744772587</v>
       </c>
-      <c r="L30" t="n">
-        <v>24052.54989991708</v>
-      </c>
       <c r="M30" t="n">
-        <v>35278.3954262778</v>
+        <v>34448.26090176104</v>
       </c>
       <c r="N30" t="n">
-        <v>26750.50220228581</v>
+        <v>29355.85163567958</v>
       </c>
       <c r="O30" t="n">
         <v>87570.46680980318</v>
@@ -13324,10 +13324,10 @@
         <v>20663.66689597965</v>
       </c>
       <c r="R30" t="n">
-        <v>142249.5274498897</v>
+        <v>116798.0671244339</v>
       </c>
       <c r="S30" t="n">
-        <v>9314.666241787638</v>
+        <v>9338.925770516396</v>
       </c>
       <c r="T30" t="n">
         <v>157324.6474023434</v>
@@ -13353,31 +13353,31 @@
         <v>40653.59061733034</v>
       </c>
       <c r="F31" t="n">
-        <v>85788.93888113087</v>
+        <v>51447.91153270127</v>
       </c>
       <c r="G31" t="n">
-        <v>51447.91153270127</v>
+        <v>78202.43341276636</v>
       </c>
       <c r="H31" t="n">
-        <v>78202.43341276636</v>
+        <v>83830.19062014518</v>
       </c>
       <c r="I31" t="n">
-        <v>35882.62398533886</v>
+        <v>34791.73846160332</v>
       </c>
       <c r="J31" t="n">
         <v>63845.00318344167</v>
       </c>
       <c r="K31" t="n">
+        <v>22580.09451599865</v>
+      </c>
+      <c r="L31" t="n">
         <v>69974.977656234</v>
       </c>
-      <c r="L31" t="n">
-        <v>33802.82038298992</v>
-      </c>
       <c r="M31" t="n">
-        <v>34728.99528194068</v>
+        <v>33544.78974899052</v>
       </c>
       <c r="N31" t="n">
-        <v>27761.96792092024</v>
+        <v>31441.81513097731</v>
       </c>
       <c r="O31" t="n">
         <v>88381.2253474012</v>
@@ -13389,10 +13389,10 @@
         <v>19876.13164055721</v>
       </c>
       <c r="R31" t="n">
-        <v>124260.2378729105</v>
+        <v>98286.22270325215</v>
       </c>
       <c r="S31" t="n">
-        <v>-3764.031626910976</v>
+        <v>-3822.543030522073</v>
       </c>
       <c r="T31" t="n">
         <v>137950.0575585934</v>
@@ -13443,19 +13443,19 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>hwes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>rf</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hwes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>avg_lvl_models</t>
@@ -13468,12 +13468,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>simple_rnn</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -13536,31 +13536,31 @@
         <v>26355.05142591604</v>
       </c>
       <c r="E2" t="n">
-        <v>161333.6837311761</v>
+        <v>62004.62081089896</v>
       </c>
       <c r="F2" t="n">
-        <v>62004.62081089896</v>
+        <v>146320.0304552208</v>
       </c>
       <c r="G2" t="n">
-        <v>146320.0304552208</v>
+        <v>162752.4859465116</v>
       </c>
       <c r="H2" t="n">
-        <v>37193.00559726088</v>
+        <v>42417.37720059092</v>
       </c>
       <c r="I2" t="n">
         <v>196119.3173840611</v>
       </c>
       <c r="J2" t="n">
+        <v>63593.35134848663</v>
+      </c>
+      <c r="K2" t="n">
         <v>194123.8714462589</v>
       </c>
-      <c r="K2" t="n">
-        <v>24921.49941678647</v>
-      </c>
       <c r="L2" t="n">
-        <v>60845.45761722931</v>
+        <v>64551.19520543823</v>
       </c>
       <c r="M2" t="n">
-        <v>42107.72301774776</v>
+        <v>41525.10632447904</v>
       </c>
       <c r="N2" t="n">
         <v>197364.5340971538</v>
@@ -13572,10 +13572,10 @@
         <v>42249.21834462186</v>
       </c>
       <c r="Q2" t="n">
-        <v>164480.8265207475</v>
+        <v>172396.6457638893</v>
       </c>
       <c r="R2" t="n">
-        <v>-20636.6265289151</v>
+        <v>-19746.73223734764</v>
       </c>
       <c r="S2" t="n">
         <v>164560.7386718753</v>
@@ -13598,31 +13598,31 @@
         <v>40457.44088633588</v>
       </c>
       <c r="E3" t="n">
-        <v>188892.7031862976</v>
+        <v>62725.94858970377</v>
       </c>
       <c r="F3" t="n">
-        <v>62725.94858970377</v>
+        <v>172882.8628230442</v>
       </c>
       <c r="G3" t="n">
-        <v>172882.8628230442</v>
+        <v>191355.7875194735</v>
       </c>
       <c r="H3" t="n">
-        <v>45087.58582238821</v>
+        <v>45739.14716788363</v>
       </c>
       <c r="I3" t="n">
         <v>196132.4980207444</v>
       </c>
       <c r="J3" t="n">
+        <v>23286.9975349218</v>
+      </c>
+      <c r="K3" t="n">
         <v>196168.9229679753</v>
       </c>
-      <c r="K3" t="n">
-        <v>11305.51535550991</v>
-      </c>
       <c r="L3" t="n">
-        <v>61926.95777345904</v>
+        <v>54561.97572889931</v>
       </c>
       <c r="M3" t="n">
-        <v>44340.98033276803</v>
+        <v>44936.97096187925</v>
       </c>
       <c r="N3" t="n">
         <v>198660.7599740869</v>
@@ -13634,10 +13634,10 @@
         <v>61112.64305292943</v>
       </c>
       <c r="Q3" t="n">
-        <v>258635.2568933193</v>
+        <v>258776.1885880884</v>
       </c>
       <c r="R3" t="n">
-        <v>22835.02709821458</v>
+        <v>22497.18504397481</v>
       </c>
       <c r="S3" t="n">
         <v>222252.2699218753</v>
@@ -13660,31 +13660,31 @@
         <v>56178.95657014073</v>
       </c>
       <c r="E4" t="n">
-        <v>217404.9697210694</v>
+        <v>63447.27636850859</v>
       </c>
       <c r="F4" t="n">
-        <v>63447.27636850859</v>
+        <v>204358.9304745469</v>
       </c>
       <c r="G4" t="n">
-        <v>204358.9304745469</v>
+        <v>218356.3448252567</v>
       </c>
       <c r="H4" t="n">
-        <v>65416.90822756301</v>
+        <v>65842.87582910556</v>
       </c>
       <c r="I4" t="n">
         <v>196146.8925290172</v>
       </c>
       <c r="J4" t="n">
+        <v>70094.31167080114</v>
+      </c>
+      <c r="K4" t="n">
         <v>198062.9999160435</v>
       </c>
-      <c r="K4" t="n">
-        <v>80836.05469380032</v>
-      </c>
       <c r="L4" t="n">
-        <v>47828.91507552422</v>
+        <v>61682.4158241988</v>
       </c>
       <c r="M4" t="n">
-        <v>41094.40479973262</v>
+        <v>41390.3878863976</v>
       </c>
       <c r="N4" t="n">
         <v>199939.2229411766</v>
@@ -13696,10 +13696,10 @@
         <v>99585.65518723585</v>
       </c>
       <c r="Q4" t="n">
-        <v>299624.8406970928</v>
+        <v>307842.0291074235</v>
       </c>
       <c r="R4" t="n">
-        <v>16587.29584412201</v>
+        <v>17124.62197468262</v>
       </c>
       <c r="S4" t="n">
         <v>249059.2289062503</v>
@@ -13722,31 +13722,31 @@
         <v>61903.65753238738</v>
       </c>
       <c r="E5" t="n">
-        <v>209678.9138082303</v>
+        <v>64168.6041473134</v>
       </c>
       <c r="F5" t="n">
-        <v>64168.6041473134</v>
+        <v>180269.2700732384</v>
       </c>
       <c r="G5" t="n">
-        <v>180269.2700732384</v>
+        <v>211971.7545573352</v>
       </c>
       <c r="H5" t="n">
-        <v>63777.67968164008</v>
+        <v>60372.53708367121</v>
       </c>
       <c r="I5" t="n">
         <v>196153.2957480212</v>
       </c>
       <c r="J5" t="n">
+        <v>49540.82854800529</v>
+      </c>
+      <c r="K5" t="n">
         <v>198862.6081572417</v>
       </c>
-      <c r="K5" t="n">
-        <v>73064.22559659788</v>
-      </c>
       <c r="L5" t="n">
-        <v>60106.45998315521</v>
+        <v>56566.53464933641</v>
       </c>
       <c r="M5" t="n">
-        <v>37110.64658326959</v>
+        <v>36932.82818192994</v>
       </c>
       <c r="N5" t="n">
         <v>201201.7734040867</v>
@@ -13758,10 +13758,10 @@
         <v>87971.16824624821</v>
       </c>
       <c r="Q5" t="n">
-        <v>315403.102004951</v>
+        <v>315649.7681291497</v>
       </c>
       <c r="R5" t="n">
-        <v>-1437.505667095175</v>
+        <v>-1880.027604121383</v>
       </c>
       <c r="S5" t="n">
         <v>246813.7367187503</v>
@@ -13784,31 +13784,31 @@
         <v>55945.95130131052</v>
       </c>
       <c r="E6" t="n">
-        <v>234519.7067071343</v>
+        <v>64889.93192611821</v>
       </c>
       <c r="F6" t="n">
-        <v>64889.93192611821</v>
+        <v>183515.1151231813</v>
       </c>
       <c r="G6" t="n">
-        <v>183515.1151231813</v>
+        <v>237945.6801277632</v>
       </c>
       <c r="H6" t="n">
-        <v>58463.03095449891</v>
+        <v>58311.41133651465</v>
       </c>
       <c r="I6" t="n">
         <v>196146.0058650646</v>
       </c>
       <c r="J6" t="n">
+        <v>48679.37289124734</v>
+      </c>
+      <c r="K6" t="n">
         <v>199134.1544523772</v>
       </c>
-      <c r="K6" t="n">
-        <v>54960.34716660686</v>
-      </c>
       <c r="L6" t="n">
-        <v>50413.64737402803</v>
+        <v>55959.4468099118</v>
       </c>
       <c r="M6" t="n">
-        <v>36612.4353242517</v>
+        <v>36134.65321985339</v>
       </c>
       <c r="N6" t="n">
         <v>202457.5609998674</v>
@@ -13820,10 +13820,10 @@
         <v>86703.0468291181</v>
       </c>
       <c r="Q6" t="n">
-        <v>372397.9111935098</v>
+        <v>386909.5224918935</v>
       </c>
       <c r="R6" t="n">
-        <v>11324.34248650388</v>
+        <v>12800.45766975882</v>
       </c>
       <c r="S6" t="n">
         <v>282892.4710937503</v>
@@ -13846,31 +13846,31 @@
         <v>60827.29417286511</v>
       </c>
       <c r="E7" t="n">
-        <v>257371.4661895333</v>
+        <v>65611.25970492302</v>
       </c>
       <c r="F7" t="n">
-        <v>65611.25970492302</v>
+        <v>194591.1463355215</v>
       </c>
       <c r="G7" t="n">
-        <v>194591.1463355215</v>
+        <v>260808.8632693724</v>
       </c>
       <c r="H7" t="n">
-        <v>61067.55964793768</v>
+        <v>61306.23552180938</v>
       </c>
       <c r="I7" t="n">
         <v>196159.1931327427</v>
       </c>
       <c r="J7" t="n">
+        <v>41165.92437665617</v>
+      </c>
+      <c r="K7" t="n">
         <v>200577.986818473</v>
       </c>
-      <c r="K7" t="n">
-        <v>45686.43159645951</v>
-      </c>
       <c r="L7" t="n">
-        <v>59401.47586860367</v>
+        <v>67401.47436511228</v>
       </c>
       <c r="M7" t="n">
-        <v>43800.42314795858</v>
+        <v>42230.33886222696</v>
       </c>
       <c r="N7" t="n">
         <v>203731.6732348336</v>
@@ -13882,10 +13882,10 @@
         <v>89072.14179987165</v>
       </c>
       <c r="Q7" t="n">
-        <v>395227.2647756138</v>
+        <v>410238.4486913421</v>
       </c>
       <c r="R7" t="n">
-        <v>14115.31087678621</v>
+        <v>14154.35546363145</v>
       </c>
       <c r="S7" t="n">
         <v>346086.7132812503</v>
@@ -13908,31 +13908,31 @@
         <v>56391.05653594075</v>
       </c>
       <c r="E8" t="n">
-        <v>282886.5007796381</v>
+        <v>66332.58748372784</v>
       </c>
       <c r="F8" t="n">
-        <v>66332.58748372784</v>
+        <v>214856.4271637662</v>
       </c>
       <c r="G8" t="n">
-        <v>214856.4271637662</v>
+        <v>286479.9766025999</v>
       </c>
       <c r="H8" t="n">
-        <v>63580.9007326255</v>
+        <v>65657.4344289607</v>
       </c>
       <c r="I8" t="n">
         <v>196163.6978779547</v>
       </c>
       <c r="J8" t="n">
+        <v>63257.36043670186</v>
+      </c>
+      <c r="K8" t="n">
         <v>201673.553342995</v>
       </c>
-      <c r="K8" t="n">
-        <v>52508.77262398608</v>
-      </c>
       <c r="L8" t="n">
-        <v>67787.55323853801</v>
+        <v>71222.28157788227</v>
       </c>
       <c r="M8" t="n">
-        <v>40181.80611340558</v>
+        <v>42610.759532027</v>
       </c>
       <c r="N8" t="n">
         <v>204996.1014260818</v>
@@ -13944,10 +13944,10 @@
         <v>111895.30564935</v>
       </c>
       <c r="Q8" t="n">
-        <v>465203.1548159043</v>
+        <v>484243.0268815128</v>
       </c>
       <c r="R8" t="n">
-        <v>16490.49282856446</v>
+        <v>16992.22882471477</v>
       </c>
       <c r="S8" t="n">
         <v>370378.1097656253</v>
@@ -13970,31 +13970,31 @@
         <v>28232.48678812306</v>
       </c>
       <c r="E9" t="n">
-        <v>248032.4623739646</v>
+        <v>67053.91526253265</v>
       </c>
       <c r="F9" t="n">
-        <v>67053.91526253265</v>
+        <v>170227.376908435</v>
       </c>
       <c r="G9" t="n">
-        <v>170227.376908435</v>
+        <v>253724.1460376625</v>
       </c>
       <c r="H9" t="n">
-        <v>33666.51915835639</v>
+        <v>35634.76153010925</v>
       </c>
       <c r="I9" t="n">
         <v>196152.2657678655</v>
       </c>
       <c r="J9" t="n">
+        <v>10377.4523252085</v>
+      </c>
+      <c r="K9" t="n">
         <v>200162.0075736356</v>
       </c>
-      <c r="K9" t="n">
-        <v>-7911.43708831371</v>
-      </c>
       <c r="L9" t="n">
-        <v>57703.55300601729</v>
+        <v>57166.94721134313</v>
       </c>
       <c r="M9" t="n">
-        <v>44265.24048413194</v>
+        <v>42258.89583930677</v>
       </c>
       <c r="N9" t="n">
         <v>206232.2369390397</v>
@@ -14006,10 +14006,10 @@
         <v>45836.38187346442</v>
       </c>
       <c r="Q9" t="n">
-        <v>449981.4220998906</v>
+        <v>459757.0443635904</v>
       </c>
       <c r="R9" t="n">
-        <v>-17057.31562527225</v>
+        <v>-17518.97171688177</v>
       </c>
       <c r="S9" t="n">
         <v>342040.6625000003</v>
@@ -14032,31 +14032,31 @@
         <v>42334.87624858027</v>
       </c>
       <c r="E10" t="n">
-        <v>273167.2897352381</v>
+        <v>67775.24304133747</v>
       </c>
       <c r="F10" t="n">
-        <v>67775.24304133747</v>
+        <v>197583.1643924063</v>
       </c>
       <c r="G10" t="n">
-        <v>197583.1643924063</v>
+        <v>278919.1663922388</v>
       </c>
       <c r="H10" t="n">
-        <v>52211.26036418015</v>
+        <v>49350.66725791775</v>
       </c>
       <c r="I10" t="n">
         <v>196164.6110930888</v>
       </c>
       <c r="J10" t="n">
+        <v>45306.9549348057</v>
+      </c>
+      <c r="K10" t="n">
         <v>202112.0442630017</v>
       </c>
-      <c r="K10" t="n">
-        <v>62185.00809935042</v>
-      </c>
       <c r="L10" t="n">
-        <v>61525.54095962652</v>
+        <v>53161.66970082231</v>
       </c>
       <c r="M10" t="n">
-        <v>42555.61250505751</v>
+        <v>44912.79207830734</v>
       </c>
       <c r="N10" t="n">
         <v>207524.9347368669</v>
@@ -14068,10 +14068,10 @@
         <v>68398.46544009642</v>
       </c>
       <c r="Q10" t="n">
-        <v>536885.2961082915</v>
+        <v>554836.4943219562</v>
       </c>
       <c r="R10" t="n">
-        <v>20397.71577368389</v>
+        <v>21303.73145811132</v>
       </c>
       <c r="S10" t="n">
         <v>382472.9203125003</v>
@@ -14094,31 +14094,31 @@
         <v>58056.39193239605</v>
       </c>
       <c r="E11" t="n">
-        <v>302080.3504533616</v>
+        <v>68496.57082014228</v>
       </c>
       <c r="F11" t="n">
-        <v>68496.57082014228</v>
+        <v>231897.7709718279</v>
       </c>
       <c r="G11" t="n">
-        <v>231897.7709718279</v>
+        <v>305618.1519230803</v>
       </c>
       <c r="H11" t="n">
-        <v>63777.85140436658</v>
+        <v>63350.55839200571</v>
       </c>
       <c r="I11" t="n">
         <v>196177.3658593641</v>
       </c>
       <c r="J11" t="n">
+        <v>49757.2022294224</v>
+      </c>
+      <c r="K11" t="n">
         <v>203624.2488858374</v>
       </c>
-      <c r="K11" t="n">
-        <v>43079.27691251344</v>
-      </c>
       <c r="L11" t="n">
-        <v>68680.12316998551</v>
+        <v>55551.25534938283</v>
       </c>
       <c r="M11" t="n">
-        <v>36882.976952982</v>
+        <v>39915.57535778885</v>
       </c>
       <c r="N11" t="n">
         <v>208798.6818453205</v>
@@ -14130,10 +14130,10 @@
         <v>107027.2410602851</v>
       </c>
       <c r="Q11" t="n">
-        <v>586839.0767363408</v>
+        <v>619879.0693361245</v>
       </c>
       <c r="R11" t="n">
-        <v>20869.10649254953</v>
+        <v>21954.10120226076</v>
       </c>
       <c r="S11" t="n">
         <v>444957.7054687503</v>
@@ -14156,31 +14156,31 @@
         <v>63781.09289464068</v>
       </c>
       <c r="E12" t="n">
-        <v>309890.8823750177</v>
+        <v>69217.8985989471</v>
       </c>
       <c r="F12" t="n">
-        <v>69217.8985989471</v>
+        <v>204826.2199826934</v>
       </c>
       <c r="G12" t="n">
-        <v>204826.2199826934</v>
+        <v>313920.5865009771</v>
       </c>
       <c r="H12" t="n">
-        <v>62898.90969337833</v>
+        <v>62850.59905357615</v>
       </c>
       <c r="I12" t="n">
         <v>196186.5282430591</v>
       </c>
       <c r="J12" t="n">
+        <v>47894.51048987067</v>
+      </c>
+      <c r="K12" t="n">
         <v>204676.8074312411</v>
       </c>
-      <c r="K12" t="n">
-        <v>44824.97301707572</v>
-      </c>
       <c r="L12" t="n">
-        <v>68345.12010573456</v>
+        <v>66714.28319667288</v>
       </c>
       <c r="M12" t="n">
-        <v>41967.53342409438</v>
+        <v>40142.34774194365</v>
       </c>
       <c r="N12" t="n">
         <v>210064.5405281757</v>
@@ -14192,10 +14192,10 @@
         <v>95419.31386553621</v>
       </c>
       <c r="Q12" t="n">
-        <v>636293.9863186571</v>
+        <v>666068.8776738556</v>
       </c>
       <c r="R12" t="n">
-        <v>4831.797463251744</v>
+        <v>4738.45641486608</v>
       </c>
       <c r="S12" t="n">
         <v>461515.4789062503</v>
@@ -14218,31 +14218,31 @@
         <v>57823.38666353616</v>
       </c>
       <c r="E13" t="n">
-        <v>333027.8893386467</v>
+        <v>69939.22637775191</v>
       </c>
       <c r="F13" t="n">
-        <v>69939.22637775191</v>
+        <v>211324.6441484814</v>
       </c>
       <c r="G13" t="n">
-        <v>211324.6441484814</v>
+        <v>338027.4675485556</v>
       </c>
       <c r="H13" t="n">
-        <v>59463.43904041179</v>
+        <v>61505.96944641487</v>
       </c>
       <c r="I13" t="n">
         <v>196178.5643249402</v>
       </c>
       <c r="J13" t="n">
+        <v>49072.61219798035</v>
+      </c>
+      <c r="K13" t="n">
         <v>204901.2395044091</v>
       </c>
-      <c r="K13" t="n">
-        <v>51067.13482128389</v>
-      </c>
       <c r="L13" t="n">
-        <v>49399.18640930957</v>
+        <v>60865.2847109259</v>
       </c>
       <c r="M13" t="n">
-        <v>40712.51989438688</v>
+        <v>47581.1874640987</v>
       </c>
       <c r="N13" t="n">
         <v>211321.0541941843</v>
@@ -14254,10 +14254,10 @@
         <v>94151.46870230781</v>
       </c>
       <c r="Q13" t="n">
-        <v>672202.1742213967</v>
+        <v>706951.6485913568</v>
       </c>
       <c r="R13" t="n">
-        <v>7996.168752438232</v>
+        <v>8583.035170339572</v>
       </c>
       <c r="S13" t="n">
         <v>482368.1722656253</v>
@@ -14280,31 +14280,31 @@
         <v>62704.72953508487</v>
       </c>
       <c r="E14" t="n">
-        <v>357346.220159141</v>
+        <v>70660.55415655673</v>
       </c>
       <c r="F14" t="n">
-        <v>70660.55415655673</v>
+        <v>220726.5158074459</v>
       </c>
       <c r="G14" t="n">
-        <v>220726.5158074459</v>
+        <v>361673.8513287285</v>
       </c>
       <c r="H14" t="n">
-        <v>62036.81749244052</v>
+        <v>63539.67626926359</v>
       </c>
       <c r="I14" t="n">
         <v>196191.5029677451</v>
       </c>
       <c r="J14" t="n">
+        <v>54248.03310644932</v>
+      </c>
+      <c r="K14" t="n">
         <v>206362.1662666799</v>
       </c>
-      <c r="K14" t="n">
-        <v>40656.01092377608</v>
-      </c>
       <c r="L14" t="n">
-        <v>66266.29141745875</v>
+        <v>61069.65224539348</v>
       </c>
       <c r="M14" t="n">
-        <v>39744.58421041077</v>
+        <v>43372.07141438728</v>
       </c>
       <c r="N14" t="n">
         <v>212595.1620567243</v>
@@ -14316,10 +14316,10 @@
         <v>96520.57530708125</v>
       </c>
       <c r="Q14" t="n">
-        <v>722095.838189272</v>
+        <v>748508.9334484288</v>
       </c>
       <c r="R14" t="n">
-        <v>13284.28383803047</v>
+        <v>12545.14067331541</v>
       </c>
       <c r="S14" t="n">
         <v>507475.6800781253</v>
@@ -14342,31 +14342,31 @@
         <v>58268.49189813426</v>
       </c>
       <c r="E15" t="n">
-        <v>382406.799663595</v>
+        <v>71381.88193536154</v>
       </c>
       <c r="F15" t="n">
-        <v>71381.88193536154</v>
+        <v>241849.0609913895</v>
       </c>
       <c r="G15" t="n">
-        <v>241849.0609913895</v>
+        <v>386566.0449540158</v>
       </c>
       <c r="H15" t="n">
-        <v>61590.39544048427</v>
+        <v>59927.64564922234</v>
       </c>
       <c r="I15" t="n">
         <v>196197.4756702133</v>
       </c>
       <c r="J15" t="n">
+        <v>18250.25229992124</v>
+      </c>
+      <c r="K15" t="n">
         <v>207392.8531756059</v>
       </c>
-      <c r="K15" t="n">
-        <v>25371.65978437367</v>
-      </c>
       <c r="L15" t="n">
-        <v>65303.490787083</v>
+        <v>61554.28790738591</v>
       </c>
       <c r="M15" t="n">
-        <v>43548.92242657399</v>
+        <v>41117.53446062809</v>
       </c>
       <c r="N15" t="n">
         <v>213859.1726258066</v>
@@ -14378,10 +14378,10 @@
         <v>119343.7396465089</v>
       </c>
       <c r="Q15" t="n">
-        <v>780296.148494586</v>
+        <v>811054.048596904</v>
       </c>
       <c r="R15" t="n">
-        <v>20583.78784998482</v>
+        <v>21039.09836597649</v>
       </c>
       <c r="S15" t="n">
         <v>583259.2816406253</v>
@@ -14404,31 +14404,31 @@
         <v>30109.92215034146</v>
       </c>
       <c r="E16" t="n">
-        <v>348334.7800170408</v>
+        <v>72103.20971416635</v>
       </c>
       <c r="F16" t="n">
-        <v>72103.20971416635</v>
+        <v>195816.2542543841</v>
       </c>
       <c r="G16" t="n">
-        <v>195816.2542543841</v>
+        <v>353954.265506456</v>
       </c>
       <c r="H16" t="n">
-        <v>39747.79086187674</v>
+        <v>43405.34110856109</v>
       </c>
       <c r="I16" t="n">
         <v>196188.0598761073</v>
       </c>
       <c r="J16" t="n">
+        <v>60754.06126196989</v>
+      </c>
+      <c r="K16" t="n">
         <v>206066.8495379272</v>
       </c>
-      <c r="K16" t="n">
-        <v>15924.04525400775</v>
-      </c>
       <c r="L16" t="n">
-        <v>73030.7907569916</v>
+        <v>57195.01610990771</v>
       </c>
       <c r="M16" t="n">
-        <v>42572.3182343573</v>
+        <v>42838.47884695387</v>
       </c>
       <c r="N16" t="n">
         <v>215097.1102318369</v>
@@ -14440,10 +14440,10 @@
         <v>53284.81589125688</v>
       </c>
       <c r="Q16" t="n">
-        <v>766357.691805552</v>
+        <v>785654.6881042356</v>
       </c>
       <c r="R16" t="n">
-        <v>-17345.38592405313</v>
+        <v>-18079.3682753253</v>
       </c>
       <c r="S16" t="n">
         <v>555856.8265625003</v>
@@ -14466,31 +14466,31 @@
         <v>44212.31161072858</v>
       </c>
       <c r="E17" t="n">
-        <v>373469.6073783142</v>
+        <v>72824.53749297117</v>
       </c>
       <c r="F17" t="n">
-        <v>72824.53749297117</v>
+        <v>218225.5867461128</v>
       </c>
       <c r="G17" t="n">
-        <v>218225.5867461128</v>
+        <v>379054.5407058257</v>
       </c>
       <c r="H17" t="n">
-        <v>53576.84029330439</v>
+        <v>52461.588557893</v>
       </c>
       <c r="I17" t="n">
         <v>196200.5543664196</v>
       </c>
       <c r="J17" t="n">
+        <v>50624.00044621534</v>
+      </c>
+      <c r="K17" t="n">
         <v>207974.2308661533</v>
       </c>
-      <c r="K17" t="n">
-        <v>64299.76170444796</v>
-      </c>
       <c r="L17" t="n">
-        <v>60306.20976879605</v>
+        <v>65681.20510535548</v>
       </c>
       <c r="M17" t="n">
-        <v>43785.76617937243</v>
+        <v>43164.51821775442</v>
       </c>
       <c r="N17" t="n">
         <v>216388.0473622448</v>
@@ -14502,10 +14502,10 @@
         <v>75846.89945875783</v>
       </c>
       <c r="Q17" t="n">
-        <v>854924.5194328995</v>
+        <v>882399.5170509807</v>
       </c>
       <c r="R17" t="n">
-        <v>20396.36720163223</v>
+        <v>21295.51077785731</v>
       </c>
       <c r="S17" t="n">
         <v>599279.7679687503</v>
@@ -14528,31 +14528,31 @@
         <v>59933.82729458695</v>
       </c>
       <c r="E18" t="n">
-        <v>402545.9730157448</v>
+        <v>73545.86527177598</v>
       </c>
       <c r="F18" t="n">
-        <v>73545.86527177598</v>
+        <v>246643.1391212172</v>
       </c>
       <c r="G18" t="n">
-        <v>246643.1391212172</v>
+        <v>406203.1422391858</v>
       </c>
       <c r="H18" t="n">
-        <v>68111.59639957656</v>
+        <v>69433.02733214792</v>
       </c>
       <c r="I18" t="n">
         <v>196212.1319189086</v>
       </c>
       <c r="J18" t="n">
+        <v>76671.47069400857</v>
+      </c>
+      <c r="K18" t="n">
         <v>209355.1238305566</v>
       </c>
-      <c r="K18" t="n">
-        <v>68850.58239946076</v>
-      </c>
       <c r="L18" t="n">
-        <v>61552.41742684849</v>
+        <v>64098.06544999787</v>
       </c>
       <c r="M18" t="n">
-        <v>41720.14483726626</v>
+        <v>41925.05598014003</v>
       </c>
       <c r="N18" t="n">
         <v>217659.4694449347</v>
@@ -14564,10 +14564,10 @@
         <v>114475.6750789831</v>
       </c>
       <c r="Q18" t="n">
-        <v>913025.8011691131</v>
+        <v>926684.8470194211</v>
       </c>
       <c r="R18" t="n">
-        <v>17909.91148802642</v>
+        <v>16543.23086087453</v>
       </c>
       <c r="S18" t="n">
         <v>632572.5335937503</v>
@@ -14590,31 +14590,31 @@
         <v>65658.52825685171</v>
       </c>
       <c r="E19" t="n">
-        <v>424223.7912140295</v>
+        <v>74267.19305058078</v>
       </c>
       <c r="F19" t="n">
-        <v>74267.19305058078</v>
+        <v>223896.5149515294</v>
       </c>
       <c r="G19" t="n">
-        <v>223896.5149515294</v>
+        <v>430058.7735417354</v>
       </c>
       <c r="H19" t="n">
-        <v>65898.28174175759</v>
+        <v>66119.50223280163</v>
       </c>
       <c r="I19" t="n">
         <v>196222.3834653347</v>
       </c>
       <c r="J19" t="n">
+        <v>63664.18410833785</v>
+      </c>
+      <c r="K19" t="n">
         <v>210405.1042786026</v>
       </c>
-      <c r="K19" t="n">
-        <v>54294.1930589617</v>
-      </c>
       <c r="L19" t="n">
-        <v>66719.6491377146</v>
+        <v>59695.4394208134</v>
       </c>
       <c r="M19" t="n">
-        <v>43265.16468379652</v>
+        <v>42689.14727967387</v>
       </c>
       <c r="N19" t="n">
         <v>218925.9527166658</v>
@@ -14626,10 +14626,10 @@
         <v>102867.7478842358</v>
       </c>
       <c r="Q19" t="n">
-        <v>976088.9760932071</v>
+        <v>988997.9608575545</v>
       </c>
       <c r="R19" t="n">
-        <v>11773.26262401666</v>
+        <v>12110.61223099167</v>
       </c>
       <c r="S19" t="n">
         <v>680940.6703125003</v>
@@ -14652,31 +14652,31 @@
         <v>59700.82202576758</v>
       </c>
       <c r="E20" t="n">
-        <v>448542.1220345238</v>
+        <v>74988.5208293856</v>
       </c>
       <c r="F20" t="n">
-        <v>74988.5208293856</v>
+        <v>237499.0481591607</v>
       </c>
       <c r="G20" t="n">
-        <v>237499.0481591607</v>
+        <v>453257.4193975409</v>
       </c>
       <c r="H20" t="n">
-        <v>65015.02890236961</v>
+        <v>59911.60596814133</v>
       </c>
       <c r="I20" t="n">
         <v>196216.4166956174</v>
       </c>
       <c r="J20" t="n">
+        <v>13151.70083497541</v>
+      </c>
+      <c r="K20" t="n">
         <v>210705.185058151</v>
       </c>
-      <c r="K20" t="n">
-        <v>48367.59593454457</v>
-      </c>
       <c r="L20" t="n">
-        <v>75762.23010477136</v>
+        <v>67182.7918092818</v>
       </c>
       <c r="M20" t="n">
-        <v>42429.18263385749</v>
+        <v>45397.13255508996</v>
       </c>
       <c r="N20" t="n">
         <v>220184.237642123</v>
@@ -14688,10 +14688,10 @@
         <v>101599.9027210074</v>
       </c>
       <c r="Q20" t="n">
-        <v>1002213.220249358</v>
+        <v>1034681.359111893</v>
       </c>
       <c r="R20" t="n">
-        <v>8401.831674161283</v>
+        <v>9951.74164356883</v>
       </c>
       <c r="S20" t="n">
         <v>705793.4984375003</v>
@@ -14714,31 +14714,31 @@
         <v>64582.16489732971</v>
       </c>
       <c r="E21" t="n">
-        <v>473352.9401278836</v>
+        <v>75709.84860819041</v>
       </c>
       <c r="F21" t="n">
-        <v>75709.84860819041</v>
+        <v>258680.0668613946</v>
       </c>
       <c r="G21" t="n">
-        <v>258680.0668613946</v>
+        <v>478191.6022213919</v>
       </c>
       <c r="H21" t="n">
-        <v>68386.11381170343</v>
+        <v>64840.81011568311</v>
       </c>
       <c r="I21" t="n">
         <v>196229.8456956082</v>
       </c>
       <c r="J21" t="n">
+        <v>39567.62506106799</v>
+      </c>
+      <c r="K21" t="n">
         <v>212189.1321645082</v>
       </c>
-      <c r="K21" t="n">
-        <v>52087.45857343681</v>
-      </c>
       <c r="L21" t="n">
-        <v>80042.46240904044</v>
+        <v>64139.05235477396</v>
       </c>
       <c r="M21" t="n">
-        <v>44517.61214801675</v>
+        <v>44578.42614648944</v>
       </c>
       <c r="N21" t="n">
         <v>221458.5237870078</v>
@@ -14750,10 +14750,10 @@
         <v>103969.0093257808</v>
       </c>
       <c r="Q21" t="n">
-        <v>1081431.619479441</v>
+        <v>1082566.226518329</v>
       </c>
       <c r="R21" t="n">
-        <v>17080.73281137021</v>
+        <v>14537.58185114355</v>
       </c>
       <c r="S21" t="n">
         <v>731536.9710937503</v>
@@ -14776,31 +14776,31 @@
         <v>60145.92726036196</v>
       </c>
       <c r="E22" t="n">
-        <v>499245.8400845313</v>
+        <v>76431.17638699523</v>
       </c>
       <c r="F22" t="n">
-        <v>76431.17638699523</v>
+        <v>284837.5682715309</v>
       </c>
       <c r="G22" t="n">
-        <v>284837.5682715309</v>
+        <v>504933.3877358118</v>
       </c>
       <c r="H22" t="n">
-        <v>64908.92555960013</v>
+        <v>69594.45592481688</v>
       </c>
       <c r="I22" t="n">
         <v>196235.1862414195</v>
       </c>
       <c r="J22" t="n">
+        <v>71706.53145326386</v>
+      </c>
+      <c r="K22" t="n">
         <v>213190.6833552174</v>
       </c>
-      <c r="K22" t="n">
-        <v>32583.7475807548</v>
-      </c>
       <c r="L22" t="n">
-        <v>62878.32509154984</v>
+        <v>63941.4127049894</v>
       </c>
       <c r="M22" t="n">
-        <v>49514.99253558225</v>
+        <v>46813.36397136754</v>
       </c>
       <c r="N22" t="n">
         <v>222721.6279122633</v>
@@ -14812,10 +14812,10 @@
         <v>126792.1736652085</v>
       </c>
       <c r="Q22" t="n">
-        <v>1136828.527932114</v>
+        <v>1138759.222678373</v>
       </c>
       <c r="R22" t="n">
-        <v>18222.56071727571</v>
+        <v>18487.47385314389</v>
       </c>
       <c r="S22" t="n">
         <v>780488.2640625003</v>
@@ -14838,31 +14838,31 @@
         <v>31987.35751258445</v>
       </c>
       <c r="E23" t="n">
-        <v>464254.8401937085</v>
+        <v>77152.50416580004</v>
       </c>
       <c r="F23" t="n">
-        <v>77152.50416580004</v>
+        <v>228969.3018577569</v>
       </c>
       <c r="G23" t="n">
-        <v>228969.3018577569</v>
+        <v>472710.8275887918</v>
       </c>
       <c r="H23" t="n">
-        <v>42259.00150157085</v>
+        <v>49343.07837750472</v>
       </c>
       <c r="I23" t="n">
         <v>196228.6003516668</v>
       </c>
       <c r="J23" t="n">
+        <v>71755.52635284077</v>
+      </c>
+      <c r="K23" t="n">
         <v>212081.8058329003</v>
       </c>
-      <c r="K23" t="n">
-        <v>10381.56080648267</v>
-      </c>
       <c r="L23" t="n">
-        <v>70712.11385655413</v>
+        <v>68962.05134898731</v>
       </c>
       <c r="M23" t="n">
-        <v>51576.82323197431</v>
+        <v>48625.53520065403</v>
       </c>
       <c r="N23" t="n">
         <v>223961.7953281668</v>
@@ -14874,10 +14874,10 @@
         <v>60733.24990995647</v>
       </c>
       <c r="Q23" t="n">
-        <v>1117876.019235669</v>
+        <v>1118578.040672828</v>
       </c>
       <c r="R23" t="n">
-        <v>-18949.00999840293</v>
+        <v>-18638.31767394146</v>
       </c>
       <c r="S23" t="n">
         <v>751638.7894531253</v>
@@ -14900,31 +14900,31 @@
         <v>46089.74697296617</v>
       </c>
       <c r="E24" t="n">
-        <v>489389.6675549819</v>
+        <v>77873.83194460486</v>
       </c>
       <c r="F24" t="n">
-        <v>77873.83194460486</v>
+        <v>250111.1082305576</v>
       </c>
       <c r="G24" t="n">
-        <v>250111.1082305576</v>
+        <v>497605.9790747607</v>
       </c>
       <c r="H24" t="n">
-        <v>50911.81888057183</v>
+        <v>53391.31326783936</v>
       </c>
       <c r="I24" t="n">
         <v>196240.4795795396</v>
       </c>
       <c r="J24" t="n">
+        <v>43087.97756963825</v>
+      </c>
+      <c r="K24" t="n">
         <v>213809.0016772926</v>
       </c>
-      <c r="K24" t="n">
-        <v>22275.7134644911</v>
-      </c>
       <c r="L24" t="n">
-        <v>55629.34206656821</v>
+        <v>52704.47165021308</v>
       </c>
       <c r="M24" t="n">
-        <v>48645.90882538266</v>
+        <v>50594.47023473091</v>
       </c>
       <c r="N24" t="n">
         <v>225248.57098293</v>
@@ -14936,10 +14936,10 @@
         <v>83295.33347745743</v>
       </c>
       <c r="Q24" t="n">
-        <v>1212786.626900207</v>
+        <v>1212281.599603615</v>
       </c>
       <c r="R24" t="n">
-        <v>21515.64534579094</v>
+        <v>21593.30336712735</v>
       </c>
       <c r="S24" t="n">
         <v>805394.2347656253</v>
@@ -14962,31 +14962,31 @@
         <v>61811.26265682434</v>
       </c>
       <c r="E25" t="n">
-        <v>517467.8617038327</v>
+        <v>78595.15972340967</v>
       </c>
       <c r="F25" t="n">
-        <v>78595.15972340967</v>
+        <v>290706.4485045215</v>
       </c>
       <c r="G25" t="n">
-        <v>290706.4485045215</v>
+        <v>522558.6876296655</v>
       </c>
       <c r="H25" t="n">
-        <v>70634.06808747993</v>
+        <v>74157.22814349746</v>
       </c>
       <c r="I25" t="n">
         <v>196249.6786811269</v>
       </c>
       <c r="J25" t="n">
+        <v>88958.11373587859</v>
+      </c>
+      <c r="K25" t="n">
         <v>214967.0595797527</v>
       </c>
-      <c r="K25" t="n">
-        <v>71448.14210277508</v>
-      </c>
       <c r="L25" t="n">
-        <v>54665.91599426277</v>
+        <v>68261.81942405114</v>
       </c>
       <c r="M25" t="n">
-        <v>48103.76757736809</v>
+        <v>45183.17296261645</v>
       </c>
       <c r="N25" t="n">
         <v>226516.8661692066</v>
@@ -14998,10 +14998,10 @@
         <v>121924.1090976827</v>
       </c>
       <c r="Q25" t="n">
-        <v>1265128.671924356</v>
+        <v>1259253.88273942</v>
       </c>
       <c r="R25" t="n">
-        <v>17517.96001338197</v>
+        <v>16716.2049375826</v>
       </c>
       <c r="S25" t="n">
         <v>821928.8890625003</v>
@@ -15024,31 +15024,31 @@
         <v>67535.96361906275</v>
       </c>
       <c r="E26" t="n">
-        <v>553934.8988929042</v>
+        <v>79316.48750221448</v>
       </c>
       <c r="F26" t="n">
-        <v>79316.48750221448</v>
+        <v>253426.6528032277</v>
       </c>
       <c r="G26" t="n">
-        <v>253426.6528032277</v>
+        <v>558809.0808751388</v>
       </c>
       <c r="H26" t="n">
-        <v>68640.39727993465</v>
+        <v>68460.5049102335</v>
       </c>
       <c r="I26" t="n">
         <v>196259.7180638867</v>
       </c>
       <c r="J26" t="n">
+        <v>59402.45202563413</v>
+      </c>
+      <c r="K26" t="n">
         <v>215993.2821312837</v>
       </c>
-      <c r="K26" t="n">
-        <v>55197.94495687194</v>
-      </c>
       <c r="L26" t="n">
-        <v>66427.79572136114</v>
+        <v>61698.4376590521</v>
       </c>
       <c r="M26" t="n">
-        <v>47562.04718747443</v>
+        <v>46647.75922341204</v>
       </c>
       <c r="N26" t="n">
         <v>227781.7668138232</v>
@@ -15060,10 +15060,10 @@
         <v>110316.1819029354</v>
       </c>
       <c r="Q26" t="n">
-        <v>1322817.754495118</v>
+        <v>1320423.511327739</v>
       </c>
       <c r="R26" t="n">
-        <v>12182.30668452122</v>
+        <v>12506.36959975493</v>
       </c>
       <c r="S26" t="n">
         <v>879296.1898437503</v>
@@ -15086,31 +15086,31 @@
         <v>61578.2573879709</v>
       </c>
       <c r="E27" t="n">
-        <v>578068.9660606594</v>
+        <v>80037.8152810193</v>
       </c>
       <c r="F27" t="n">
-        <v>80037.8152810193</v>
+        <v>272022.5721573092</v>
       </c>
       <c r="G27" t="n">
-        <v>272022.5721573092</v>
+        <v>582986.6139246535</v>
       </c>
       <c r="H27" t="n">
-        <v>67315.53703996737</v>
+        <v>68064.67107111003</v>
       </c>
       <c r="I27" t="n">
         <v>196256.9285185377</v>
       </c>
       <c r="J27" t="n">
+        <v>55656.68615392454</v>
+      </c>
+      <c r="K27" t="n">
         <v>216448.324819053</v>
       </c>
-      <c r="K27" t="n">
-        <v>66992.77436768719</v>
-      </c>
       <c r="L27" t="n">
-        <v>50412.32634714849</v>
+        <v>65922.54385669538</v>
       </c>
       <c r="M27" t="n">
-        <v>50377.38927786059</v>
+        <v>52196.3322312177</v>
       </c>
       <c r="N27" t="n">
         <v>229038.7112021579</v>
@@ -15122,10 +15122,10 @@
         <v>109048.336739707</v>
       </c>
       <c r="Q27" t="n">
-        <v>1371796.429974003</v>
+        <v>1370200.057672421</v>
       </c>
       <c r="R27" t="n">
-        <v>12203.07356048294</v>
+        <v>12346.98487281558</v>
       </c>
       <c r="S27" t="n">
         <v>915379.7171875003</v>
@@ -15148,31 +15148,31 @@
         <v>66459.60025951738</v>
       </c>
       <c r="E28" t="n">
-        <v>602996.5536302973</v>
+        <v>80759.14305982411</v>
       </c>
       <c r="F28" t="n">
-        <v>80759.14305982411</v>
+        <v>295633.5134377676</v>
       </c>
       <c r="G28" t="n">
-        <v>295633.5134377676</v>
+        <v>607510.9567333122</v>
       </c>
       <c r="H28" t="n">
-        <v>65306.41446142153</v>
+        <v>70212.89661876917</v>
       </c>
       <c r="I28" t="n">
         <v>196269.1189250803</v>
       </c>
       <c r="J28" t="n">
+        <v>44033.85035115039</v>
+      </c>
+      <c r="K28" t="n">
         <v>217731.9981164375</v>
       </c>
-      <c r="K28" t="n">
-        <v>17697.38355376201</v>
-      </c>
       <c r="L28" t="n">
-        <v>70246.61554856012</v>
+        <v>79759.19566740404</v>
       </c>
       <c r="M28" t="n">
-        <v>48406.96954985715</v>
+        <v>51809.77989240594</v>
       </c>
       <c r="N28" t="n">
         <v>230309.4244437391</v>
@@ -15184,10 +15184,10 @@
         <v>111417.4433444804</v>
       </c>
       <c r="Q28" t="n">
-        <v>1427608.40153729</v>
+        <v>1415361.997283129</v>
       </c>
       <c r="R28" t="n">
-        <v>15855.19376747038</v>
+        <v>14967.43000666423</v>
       </c>
       <c r="S28" t="n">
         <v>960383.2835937503</v>
@@ -15210,31 +15210,31 @@
         <v>62023.36262260013</v>
       </c>
       <c r="E29" t="n">
-        <v>627924.1411999352</v>
+        <v>81480.47083862893</v>
       </c>
       <c r="F29" t="n">
-        <v>81480.47083862893</v>
+        <v>328390.6956723991</v>
       </c>
       <c r="G29" t="n">
-        <v>328390.6956723991</v>
+        <v>631907.7766766038</v>
       </c>
       <c r="H29" t="n">
-        <v>73276.11636393635</v>
+        <v>71549.2492763464</v>
       </c>
       <c r="I29" t="n">
         <v>196274.6479027781</v>
       </c>
       <c r="J29" t="n">
+        <v>61121.18982945093</v>
+      </c>
+      <c r="K29" t="n">
         <v>218640.7383550166</v>
       </c>
-      <c r="K29" t="n">
-        <v>68135.95361963818</v>
-      </c>
       <c r="L29" t="n">
-        <v>69152.84620905528</v>
+        <v>66012.45551802823</v>
       </c>
       <c r="M29" t="n">
-        <v>54846.68624770053</v>
+        <v>51186.90402819521</v>
       </c>
       <c r="N29" t="n">
         <v>231571.8352581866</v>
@@ -15246,10 +15246,10 @@
         <v>134240.6076839081</v>
       </c>
       <c r="Q29" t="n">
-        <v>1483271.643012043</v>
+        <v>1465626.505919993</v>
       </c>
       <c r="R29" t="n">
-        <v>15040.19661031657</v>
+        <v>14591.21500161381</v>
       </c>
       <c r="S29" t="n">
         <v>977584.5667968753</v>
@@ -15272,31 +15272,31 @@
         <v>33864.79287479144</v>
       </c>
       <c r="E30" t="n">
-        <v>593134.4714084611</v>
+        <v>82201.79861743374</v>
       </c>
       <c r="F30" t="n">
-        <v>82201.79861743374</v>
+        <v>273643.1546619937</v>
       </c>
       <c r="G30" t="n">
-        <v>273643.1546619937</v>
+        <v>599504.5968875729</v>
       </c>
       <c r="H30" t="n">
-        <v>49169.20787659989</v>
+        <v>46983.18348310341</v>
       </c>
       <c r="I30" t="n">
         <v>196273.4135174057</v>
       </c>
       <c r="J30" t="n">
+        <v>26033.54685829286</v>
+      </c>
+      <c r="K30" t="n">
         <v>217814.6230015101</v>
       </c>
-      <c r="K30" t="n">
-        <v>43079.59547872996</v>
-      </c>
       <c r="L30" t="n">
-        <v>74840.74371326577</v>
+        <v>77377.95703824173</v>
       </c>
       <c r="M30" t="n">
-        <v>54022.15504580148</v>
+        <v>51042.79519329078</v>
       </c>
       <c r="N30" t="n">
         <v>232815.8506234501</v>
@@ -15308,10 +15308,10 @@
         <v>68181.68392865607</v>
       </c>
       <c r="Q30" t="n">
-        <v>1472063.064871765</v>
+        <v>1449311.354591875</v>
       </c>
       <c r="R30" t="n">
-        <v>-17545.8732385012</v>
+        <v>-17597.25743425151</v>
       </c>
       <c r="S30" t="n">
         <v>955629.7679687503</v>
@@ -15334,31 +15334,31 @@
         <v>47967.18233520376</v>
       </c>
       <c r="E31" t="n">
-        <v>618269.2987697346</v>
+        <v>82923.12639623854</v>
       </c>
       <c r="F31" t="n">
-        <v>82923.12639623854</v>
+        <v>294888.3629498562</v>
       </c>
       <c r="G31" t="n">
-        <v>294888.3629498562</v>
+        <v>624339.7601893601</v>
       </c>
       <c r="H31" t="n">
-        <v>58999.7443825655</v>
+        <v>59636.55532677996</v>
       </c>
       <c r="I31" t="n">
         <v>196286.3037276245</v>
       </c>
       <c r="J31" t="n">
+        <v>65170.28919181236</v>
+      </c>
+      <c r="K31" t="n">
         <v>219657.1521303262</v>
       </c>
-      <c r="K31" t="n">
-        <v>57965.05203039952</v>
-      </c>
       <c r="L31" t="n">
-        <v>64284.12565620551</v>
+        <v>58770.23544923969</v>
       </c>
       <c r="M31" t="n">
-        <v>50897.30687899001</v>
+        <v>54300.44747825868</v>
       </c>
       <c r="N31" t="n">
         <v>234102.8908296798</v>
@@ -15370,10 +15370,10 @@
         <v>90743.76749615703</v>
       </c>
       <c r="Q31" t="n">
-        <v>1562920.277940185</v>
+        <v>1543304.657391749</v>
       </c>
       <c r="R31" t="n">
-        <v>21139.29810942825</v>
+        <v>21573.76237126133</v>
       </c>
       <c r="S31" t="n">
         <v>1010988.615625</v>

--- a/examples/eCommerce_results.xlsx
+++ b/examples/eCommerce_results.xlsx
@@ -556,7 +556,7 @@
         <v>-2203.674255376641</v>
       </c>
       <c r="F2" t="n">
-        <v>-48829.61453176878</v>
+        <v>-33260.83041985453</v>
       </c>
       <c r="G2" t="n">
         <v>-30014.68500000002</v>
@@ -568,7 +568,7 @@
         <v>-14.49559657031799</v>
       </c>
       <c r="J2" t="n">
-        <v>-36233.03463540238</v>
+        <v>-35400.85048483992</v>
       </c>
       <c r="K2" t="n">
         <v>1233.710885033743</v>
@@ -583,19 +583,19 @@
         <v>10420.36625339445</v>
       </c>
       <c r="O2" t="n">
-        <v>8011.839406525934</v>
+        <v>23193.18913063018</v>
       </c>
       <c r="P2" t="n">
-        <v>48524.40864297267</v>
+        <v>53904.62846255179</v>
       </c>
       <c r="Q2" t="n">
-        <v>37629.42856023368</v>
+        <v>39044.69034736571</v>
       </c>
       <c r="R2" t="n">
-        <v>23423.26526687976</v>
+        <v>26562.81259985339</v>
       </c>
       <c r="S2" t="n">
-        <v>-21645.36584114237</v>
+        <v>-20430.72104420088</v>
       </c>
     </row>
     <row r="3">
@@ -615,7 +615,7 @@
         <v>1848.581724177951</v>
       </c>
       <c r="F3" t="n">
-        <v>33308.76437937809</v>
+        <v>39026.36029931121</v>
       </c>
       <c r="G3" t="n">
         <v>19441.46400000004</v>
@@ -627,7 +627,7 @@
         <v>14.14208860912441</v>
       </c>
       <c r="J3" t="n">
-        <v>10647.87584031355</v>
+        <v>9788.58392426902</v>
       </c>
       <c r="K3" t="n">
         <v>1298.372415588591</v>
@@ -642,19 +642,19 @@
         <v>26622.08502430787</v>
       </c>
       <c r="O3" t="n">
-        <v>21250.73700467942</v>
+        <v>40959.37006652829</v>
       </c>
       <c r="P3" t="n">
-        <v>51984.52855330821</v>
+        <v>51343.28608941491</v>
       </c>
       <c r="Q3" t="n">
-        <v>37865.44143399951</v>
+        <v>39267.66887746211</v>
       </c>
       <c r="R3" t="n">
-        <v>36801.18830215338</v>
+        <v>39725.41945092741</v>
       </c>
       <c r="S3" t="n">
-        <v>13482.95433404219</v>
+        <v>14174.7010521842</v>
       </c>
     </row>
     <row r="4">
@@ -674,7 +674,7 @@
         <v>1455.88383847281</v>
       </c>
       <c r="F4" t="n">
-        <v>45951.21870327272</v>
+        <v>3801.010425355872</v>
       </c>
       <c r="G4" t="n">
         <v>18390.03550000001</v>
@@ -686,7 +686,7 @@
         <v>13.63947805201882</v>
       </c>
       <c r="J4" t="n">
-        <v>14869.78441976641</v>
+        <v>15336.75099387178</v>
       </c>
       <c r="K4" t="n">
         <v>1278.343201189139</v>
@@ -701,19 +701,19 @@
         <v>43740.11813860359</v>
       </c>
       <c r="O4" t="n">
-        <v>52216.39943107183</v>
+        <v>61671.38871617193</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.88095833297</v>
+        <v>55608.30260881181</v>
       </c>
       <c r="Q4" t="n">
-        <v>35072.79123568055</v>
+        <v>37148.90848496315</v>
       </c>
       <c r="R4" t="n">
-        <v>56823.02780660756</v>
+        <v>58454.53183301635</v>
       </c>
       <c r="S4" t="n">
-        <v>15306.08309637296</v>
+        <v>11730.99459239774</v>
       </c>
     </row>
     <row r="5">
@@ -733,7 +733,7 @@
         <v>351.0342713853844</v>
       </c>
       <c r="F5" t="n">
-        <v>-24185.40346710147</v>
+        <v>1368.990180668957</v>
       </c>
       <c r="G5" t="n">
         <v>6625.767999999926</v>
@@ -745,7 +745,7 @@
         <v>3.22240641247523</v>
       </c>
       <c r="J5" t="n">
-        <v>-11536.28285927498</v>
+        <v>-13256.68841339047</v>
       </c>
       <c r="K5" t="n">
         <v>1262.728189813412</v>
@@ -760,19 +760,19 @@
         <v>48114.74462822801</v>
       </c>
       <c r="O5" t="n">
-        <v>52914.74966484543</v>
+        <v>74977.88741040582</v>
       </c>
       <c r="P5" t="n">
-        <v>57149.63639926071</v>
+        <v>53534.8970725369</v>
       </c>
       <c r="Q5" t="n">
-        <v>39630.43653669831</v>
+        <v>35884.07234326717</v>
       </c>
       <c r="R5" t="n">
-        <v>55958.37820941483</v>
+        <v>58058.66881304417</v>
       </c>
       <c r="S5" t="n">
-        <v>-4912.259060638773</v>
+        <v>-2951.215820517049</v>
       </c>
     </row>
     <row r="6">
@@ -792,7 +792,7 @@
         <v>0.2638325789502005</v>
       </c>
       <c r="F6" t="n">
-        <v>12180.47152939309</v>
+        <v>8252.868819804889</v>
       </c>
       <c r="G6" t="n">
         <v>-5351.166499999976</v>
@@ -804,7 +804,7 @@
         <v>-7.378216808915852</v>
       </c>
       <c r="J6" t="n">
-        <v>3998.183509110208</v>
+        <v>4444.154593036042</v>
       </c>
       <c r="K6" t="n">
         <v>1257.338957732416</v>
@@ -819,19 +819,19 @@
         <v>42346.0147212294</v>
       </c>
       <c r="O6" t="n">
-        <v>24209.82101579605</v>
+        <v>58697.18965558166</v>
       </c>
       <c r="P6" t="n">
-        <v>53511.02558463986</v>
+        <v>53785.80171630438</v>
       </c>
       <c r="Q6" t="n">
-        <v>38406.61586322722</v>
+        <v>36216.6066676217</v>
       </c>
       <c r="R6" t="n">
-        <v>49057.12941814982</v>
+        <v>53710.29164327048</v>
       </c>
       <c r="S6" t="n">
-        <v>3116.807781860962</v>
+        <v>2918.467829571567</v>
       </c>
     </row>
     <row r="7">
@@ -851,7 +851,7 @@
         <v>1116.161367366752</v>
       </c>
       <c r="F7" t="n">
-        <v>20004.44786924699</v>
+        <v>16368.14240929025</v>
       </c>
       <c r="G7" t="n">
         <v>13418.18049999998</v>
@@ -863,7 +863,7 @@
         <v>13.05923263460029</v>
       </c>
       <c r="J7" t="n">
-        <v>7676.766483955561</v>
+        <v>9508.481282760329</v>
       </c>
       <c r="K7" t="n">
         <v>1273.784290342001</v>
@@ -878,19 +878,19 @@
         <v>46926.72790776837</v>
       </c>
       <c r="O7" t="n">
-        <v>50928.94410808261</v>
+        <v>59020.94488997216</v>
       </c>
       <c r="P7" t="n">
-        <v>54291.91803249474</v>
+        <v>49186.21870576438</v>
       </c>
       <c r="Q7" t="n">
-        <v>36170.7017025536</v>
+        <v>39610.36727169391</v>
       </c>
       <c r="R7" t="n">
-        <v>54668.15249698053</v>
+        <v>55586.14778616617</v>
       </c>
       <c r="S7" t="n">
-        <v>8115.744522555244</v>
+        <v>8157.999955864544</v>
       </c>
     </row>
     <row r="8">
@@ -910,7 +910,7 @@
         <v>74.52103935271623</v>
       </c>
       <c r="F8" t="n">
-        <v>11791.76133421955</v>
+        <v>14398.92381858472</v>
       </c>
       <c r="G8" t="n">
         <v>13855.36249999995</v>
@@ -922,7 +922,7 @@
         <v>-4.790503298818812</v>
       </c>
       <c r="J8" t="n">
-        <v>9190.641467724607</v>
+        <v>8872.280082822568</v>
       </c>
       <c r="K8" t="n">
         <v>1259.2729713546</v>
@@ -937,19 +937,19 @@
         <v>39461.72967586313</v>
       </c>
       <c r="O8" t="n">
-        <v>32526.76777588305</v>
+        <v>48806.32648180659</v>
       </c>
       <c r="P8" t="n">
-        <v>56005.7465408289</v>
+        <v>52963.94881110902</v>
       </c>
       <c r="Q8" t="n">
-        <v>39828.94169510361</v>
+        <v>39710.03728643116</v>
       </c>
       <c r="R8" t="n">
-        <v>50569.56606940536</v>
+        <v>52443.68843619554</v>
       </c>
       <c r="S8" t="n">
-        <v>7955.134664332276</v>
+        <v>8216.420848466176</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
         <v>-1853.780483362679</v>
       </c>
       <c r="F9" t="n">
-        <v>-36099.98675813324</v>
+        <v>-36228.90027211142</v>
       </c>
       <c r="G9" t="n">
         <v>-33807.24000000001</v>
@@ -981,7 +981,7 @@
         <v>-12.2130544259203</v>
       </c>
       <c r="J9" t="n">
-        <v>-25839.07086932051</v>
+        <v>-27302.04245249036</v>
       </c>
       <c r="K9" t="n">
         <v>1237.836511636107</v>
@@ -996,19 +996,19 @@
         <v>6647.416987219958</v>
       </c>
       <c r="O9" t="n">
-        <v>19981.17316285907</v>
+        <v>24439.79401804773</v>
       </c>
       <c r="P9" t="n">
-        <v>55835.77585175748</v>
+        <v>54863.72058059807</v>
       </c>
       <c r="Q9" t="n">
-        <v>36329.69286628482</v>
+        <v>41214.50731246051</v>
       </c>
       <c r="R9" t="n">
-        <v>26248.59450923187</v>
+        <v>27444.50594211829</v>
       </c>
       <c r="S9" t="n">
-        <v>-19032.41021702632</v>
+        <v>-19468.96597585992</v>
       </c>
     </row>
     <row r="10">
@@ -1028,7 +1028,7 @@
         <v>1698.675970224861</v>
       </c>
       <c r="F10" t="n">
-        <v>31030.04157928953</v>
+        <v>30195.83622126207</v>
       </c>
       <c r="G10" t="n">
         <v>17408.00350000005</v>
@@ -1040,7 +1040,7 @@
         <v>13.00527191721643</v>
       </c>
       <c r="J10" t="n">
-        <v>9284.068000198569</v>
+        <v>8867.696989449621</v>
       </c>
       <c r="K10" t="n">
         <v>1294.798385849503</v>
@@ -1055,19 +1055,19 @@
         <v>22058.18637164952</v>
       </c>
       <c r="O10" t="n">
-        <v>32155.05922996399</v>
+        <v>13732.60653295993</v>
       </c>
       <c r="P10" t="n">
-        <v>48346.99206890043</v>
+        <v>56140.36141090031</v>
       </c>
       <c r="Q10" t="n">
-        <v>37170.74457013723</v>
+        <v>40778.51693014798</v>
       </c>
       <c r="R10" t="n">
-        <v>37976.55947349466</v>
+        <v>36973.51504563846</v>
       </c>
       <c r="S10" t="n">
-        <v>11880.63894949834</v>
+        <v>11993.52086398919</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>1055.524584885309</v>
       </c>
       <c r="F11" t="n">
-        <v>46039.47618584413</v>
+        <v>30104.2070569576</v>
       </c>
       <c r="G11" t="n">
         <v>19071.23699999999</v>
@@ -1099,7 +1099,7 @@
         <v>11.15829635894696</v>
       </c>
       <c r="J11" t="n">
-        <v>11765.23150373985</v>
+        <v>12665.50787145611</v>
       </c>
       <c r="K11" t="n">
         <v>1273.640654178246</v>
@@ -1114,19 +1114,19 @@
         <v>38745.74707449323</v>
       </c>
       <c r="O11" t="n">
-        <v>62898.13791025395</v>
+        <v>52556.79060409303</v>
       </c>
       <c r="P11" t="n">
-        <v>50415.16186335381</v>
+        <v>51993.76391001936</v>
       </c>
       <c r="Q11" t="n">
-        <v>40544.18674225804</v>
+        <v>42096.58095640656</v>
       </c>
       <c r="R11" t="n">
-        <v>58549.56818050266</v>
+        <v>57519.5180311674</v>
       </c>
       <c r="S11" t="n">
-        <v>16189.14942514878</v>
+        <v>15162.19236463973</v>
       </c>
     </row>
     <row r="12">
@@ -1146,7 +1146,7 @@
         <v>615.9399586790219</v>
       </c>
       <c r="F12" t="n">
-        <v>-17271.3302249949</v>
+        <v>1880.526967952827</v>
       </c>
       <c r="G12" t="n">
         <v>8352.682499999959</v>
@@ -1158,7 +1158,7 @@
         <v>7.193089204582496</v>
       </c>
       <c r="J12" t="n">
-        <v>-11132.06104783384</v>
+        <v>-14337.23184580604</v>
       </c>
       <c r="K12" t="n">
         <v>1266.097348001633</v>
@@ -1173,19 +1173,19 @@
         <v>43055.44026560965</v>
       </c>
       <c r="O12" t="n">
-        <v>65136.744368329</v>
+        <v>53506.28494077797</v>
       </c>
       <c r="P12" t="n">
-        <v>50637.3928926092</v>
+        <v>47602.93102612134</v>
       </c>
       <c r="Q12" t="n">
-        <v>37044.6660949516</v>
+        <v>40829.71264792201</v>
       </c>
       <c r="R12" t="n">
-        <v>56572.03716168186</v>
+        <v>55017.76934152922</v>
       </c>
       <c r="S12" t="n">
-        <v>-3595.106402943621</v>
+        <v>-2366.24385849787</v>
       </c>
     </row>
     <row r="13">
@@ -1205,7 +1205,7 @@
         <v>2.705210824907965</v>
       </c>
       <c r="F13" t="n">
-        <v>22230.52962938421</v>
+        <v>8406.447097547938</v>
       </c>
       <c r="G13" t="n">
         <v>-6559.680499999971</v>
@@ -1217,7 +1217,7 @@
         <v>-7.484395123443139</v>
       </c>
       <c r="J13" t="n">
-        <v>4236.595587527822</v>
+        <v>4545.477821636507</v>
       </c>
       <c r="K13" t="n">
         <v>1258.196785775535</v>
@@ -1232,19 +1232,19 @@
         <v>37670.29100100447</v>
       </c>
       <c r="O13" t="n">
-        <v>49272.76053473528</v>
+        <v>35827.82209599671</v>
       </c>
       <c r="P13" t="n">
-        <v>51304.96939046021</v>
+        <v>51174.496516391</v>
       </c>
       <c r="Q13" t="n">
-        <v>36432.03576281724</v>
+        <v>39960.9613458049</v>
       </c>
       <c r="R13" t="n">
-        <v>52262.48930663488</v>
+        <v>50827.27705951772</v>
       </c>
       <c r="S13" t="n">
-        <v>5423.156960957826</v>
+        <v>4357.302104576454</v>
       </c>
     </row>
     <row r="14">
@@ -1264,7 +1264,7 @@
         <v>1057.772074281805</v>
       </c>
       <c r="F14" t="n">
-        <v>17627.07364118381</v>
+        <v>16077.8473002692</v>
       </c>
       <c r="G14" t="n">
         <v>8268.986999999988</v>
@@ -1276,7 +1276,7 @@
         <v>12.52480474198565</v>
       </c>
       <c r="J14" t="n">
-        <v>5252.463994925715</v>
+        <v>7796.288117216172</v>
       </c>
       <c r="K14" t="n">
         <v>1273.245686646077</v>
@@ -1291,19 +1291,19 @@
         <v>42972.37177798508</v>
       </c>
       <c r="O14" t="n">
-        <v>46375.04925500747</v>
+        <v>62414.74108932252</v>
       </c>
       <c r="P14" t="n">
-        <v>52256.20142390545</v>
+        <v>55614.96863362785</v>
       </c>
       <c r="Q14" t="n">
-        <v>37447.5561045247</v>
+        <v>41464.05933565852</v>
       </c>
       <c r="R14" t="n">
-        <v>54234.41343780574</v>
+        <v>57579.40804854449</v>
       </c>
       <c r="S14" t="n">
-        <v>5400.942009058587</v>
+        <v>5739.51358975226</v>
       </c>
     </row>
     <row r="15">
@@ -1323,7 +1323,7 @@
         <v>155.3135370442143</v>
       </c>
       <c r="F15" t="n">
-        <v>17569.76506381764</v>
+        <v>12522.62733769202</v>
       </c>
       <c r="G15" t="n">
         <v>13855.36249999994</v>
@@ -1335,7 +1335,7 @@
         <v>-2.022363300154896</v>
       </c>
       <c r="J15" t="n">
-        <v>8398.721168716404</v>
+        <v>7155.068214181307</v>
       </c>
       <c r="K15" t="n">
         <v>1259.920309642475</v>
@@ -1350,19 +1350,19 @@
         <v>35601.12773515782</v>
       </c>
       <c r="O15" t="n">
-        <v>42780.4277323037</v>
+        <v>51073.63567780312</v>
       </c>
       <c r="P15" t="n">
-        <v>52680.28033177729</v>
+        <v>63819.33076488013</v>
       </c>
       <c r="Q15" t="n">
-        <v>38595.09609693346</v>
+        <v>39222.70880523202</v>
       </c>
       <c r="R15" t="n">
-        <v>51721.66406722914</v>
+        <v>54587.3599367864</v>
       </c>
       <c r="S15" t="n">
-        <v>8086.682707452193</v>
+        <v>7568.458152373187</v>
       </c>
     </row>
     <row r="16">
@@ -1382,7 +1382,7 @@
         <v>-1719.557963148407</v>
       </c>
       <c r="F16" t="n">
-        <v>-44914.12564184814</v>
+        <v>-26256.79847203333</v>
       </c>
       <c r="G16" t="n">
         <v>-33225.56850000002</v>
@@ -1394,7 +1394,7 @@
         <v>-11.25617493133117</v>
       </c>
       <c r="J16" t="n">
-        <v>-25075.09998320431</v>
+        <v>-25410.35445916601</v>
       </c>
       <c r="K16" t="n">
         <v>1239.576484819386</v>
@@ -1409,19 +1409,19 @@
         <v>3299.520914896822</v>
       </c>
       <c r="O16" t="n">
-        <v>4020.340644812804</v>
+        <v>-981.6720636352144</v>
       </c>
       <c r="P16" t="n">
-        <v>53590.99846682604</v>
+        <v>54526.12201894398</v>
       </c>
       <c r="Q16" t="n">
-        <v>39677.14401349184</v>
+        <v>42421.17106186625</v>
       </c>
       <c r="R16" t="n">
-        <v>24537.86378754963</v>
+        <v>24348.88348641311</v>
       </c>
       <c r="S16" t="n">
-        <v>-18797.04538221324</v>
+        <v>-17407.48883750411</v>
       </c>
     </row>
     <row r="17">
@@ -1441,7 +1441,7 @@
         <v>1616.378631262028</v>
       </c>
       <c r="F17" t="n">
-        <v>32220.04312062499</v>
+        <v>25936.01411763973</v>
       </c>
       <c r="G17" t="n">
         <v>18512.49005000006</v>
@@ -1453,7 +1453,7 @@
         <v>12.77744517794563</v>
       </c>
       <c r="J17" t="n">
-        <v>8843.953072499799</v>
+        <v>7849.256122035745</v>
       </c>
       <c r="K17" t="n">
         <v>1292.484551911726</v>
@@ -1468,19 +1468,19 @@
         <v>15718.39988815706</v>
       </c>
       <c r="O17" t="n">
-        <v>32420.19874905465</v>
+        <v>50490.17729407486</v>
       </c>
       <c r="P17" t="n">
-        <v>57372.2298531663</v>
+        <v>50799.49702521082</v>
       </c>
       <c r="Q17" t="n">
-        <v>39875.56503760334</v>
+        <v>43837.79517737087</v>
       </c>
       <c r="R17" t="n">
-        <v>39674.60962543421</v>
+        <v>41883.10617641024</v>
       </c>
       <c r="S17" t="n">
-        <v>13188.43361225648</v>
+        <v>12700.40892176666</v>
       </c>
     </row>
     <row r="18">
@@ -1500,7 +1500,7 @@
         <v>962.9169842656054</v>
       </c>
       <c r="F18" t="n">
-        <v>41379.13254738586</v>
+        <v>35057.81945930979</v>
       </c>
       <c r="G18" t="n">
         <v>20255.8435</v>
@@ -1512,7 +1512,7 @@
         <v>10.14793660936091</v>
       </c>
       <c r="J18" t="n">
-        <v>11606.12438326168</v>
+        <v>12002.21203859547</v>
       </c>
       <c r="K18" t="n">
         <v>1272.003150556234</v>
@@ -1527,19 +1527,19 @@
         <v>34304.73257755489</v>
       </c>
       <c r="O18" t="n">
-        <v>40202.92833882388</v>
+        <v>61058.77456370945</v>
       </c>
       <c r="P18" t="n">
-        <v>57745.61784902687</v>
+        <v>49756.00850268539</v>
       </c>
       <c r="Q18" t="n">
-        <v>39300.17383827623</v>
+        <v>42130.41912218388</v>
       </c>
       <c r="R18" t="n">
-        <v>56432.59086473339</v>
+        <v>58674.94545936935</v>
       </c>
       <c r="S18" t="n">
-        <v>12270.26064087395</v>
+        <v>12096.2414342083</v>
       </c>
     </row>
     <row r="19">
@@ -1559,7 +1559,7 @@
         <v>572.5341703116934</v>
       </c>
       <c r="F19" t="n">
-        <v>-16802.32419627029</v>
+        <v>1629.964322287704</v>
       </c>
       <c r="G19" t="n">
         <v>3007.534449999932</v>
@@ -1571,7 +1571,7 @@
         <v>7.056518224492297</v>
       </c>
       <c r="J19" t="n">
-        <v>-9590.548165630922</v>
+        <v>-12410.90497278736</v>
       </c>
       <c r="K19" t="n">
         <v>1266.135498992303</v>
@@ -1586,19 +1586,19 @@
         <v>42185.63954230393</v>
       </c>
       <c r="O19" t="n">
-        <v>38658.339198392</v>
+        <v>76964.52460230344</v>
       </c>
       <c r="P19" t="n">
-        <v>55212.23718483921</v>
+        <v>50027.59076712008</v>
       </c>
       <c r="Q19" t="n">
-        <v>40585.61964601752</v>
+        <v>38632.24138764379</v>
       </c>
       <c r="R19" t="n">
-        <v>54714.68455116233</v>
+        <v>59167.2789408507</v>
       </c>
       <c r="S19" t="n">
-        <v>-1583.263002503172</v>
+        <v>-394.9333393503767</v>
       </c>
     </row>
     <row r="20">
@@ -1618,7 +1618,7 @@
         <v>57.01767172978418</v>
       </c>
       <c r="F20" t="n">
-        <v>16864.70513920135</v>
+        <v>4279.915885580662</v>
       </c>
       <c r="G20" t="n">
         <v>-2831.556499999967</v>
@@ -1630,7 +1630,7 @@
         <v>-5.818137440614817</v>
       </c>
       <c r="J20" t="n">
-        <v>3946.006747755529</v>
+        <v>4488.372063125844</v>
       </c>
       <c r="K20" t="n">
         <v>1259.578830618237</v>
@@ -1645,19 +1645,19 @@
         <v>41166.66873265</v>
       </c>
       <c r="O20" t="n">
-        <v>55538.03105788703</v>
+        <v>50781.53435348567</v>
       </c>
       <c r="P20" t="n">
-        <v>55618.22398361083</v>
+        <v>54359.46492667432</v>
       </c>
       <c r="Q20" t="n">
-        <v>39100.44549667653</v>
+        <v>39878.28969434854</v>
       </c>
       <c r="R20" t="n">
-        <v>55544.52535779715</v>
+        <v>54796.32370584487</v>
       </c>
       <c r="S20" t="n">
-        <v>5792.358894799136</v>
+        <v>4798.789165727742</v>
       </c>
     </row>
     <row r="21">
@@ -1677,7 +1677,7 @@
         <v>1090.925923525262</v>
       </c>
       <c r="F21" t="n">
-        <v>10655.8825320406</v>
+        <v>16330.31160565348</v>
       </c>
       <c r="G21" t="n">
         <v>12709.90549999997</v>
@@ -1689,7 +1689,7 @@
         <v>12.81586347788247</v>
       </c>
       <c r="J21" t="n">
-        <v>5059.393870685547</v>
+        <v>6377.039434847871</v>
       </c>
       <c r="K21" t="n">
         <v>1273.305411040041</v>
@@ -1704,19 +1704,19 @@
         <v>47781.19574167953</v>
       </c>
       <c r="O21" t="n">
-        <v>30834.87890262303</v>
+        <v>31842.36441927311</v>
       </c>
       <c r="P21" t="n">
-        <v>58913.25946578379</v>
+        <v>56186.17576980586</v>
       </c>
       <c r="Q21" t="n">
-        <v>37819.59795168456</v>
+        <v>40673.92829515812</v>
       </c>
       <c r="R21" t="n">
-        <v>54595.65533447557</v>
+        <v>54757.75992935353</v>
       </c>
       <c r="S21" t="n">
-        <v>6065.371193145685</v>
+        <v>6836.386280387273</v>
       </c>
     </row>
     <row r="22">
@@ -1736,7 +1736,7 @@
         <v>107.7794583240175</v>
       </c>
       <c r="F22" t="n">
-        <v>17161.79982991761</v>
+        <v>10414.12853049975</v>
       </c>
       <c r="G22" t="n">
         <v>13855.36249999994</v>
@@ -1748,7 +1748,7 @@
         <v>-3.401609549173385</v>
       </c>
       <c r="J22" t="n">
-        <v>5856.880363880741</v>
+        <v>5643.56167358274</v>
       </c>
       <c r="K22" t="n">
         <v>1259.475158300031</v>
@@ -1763,19 +1763,19 @@
         <v>34634.16139973752</v>
       </c>
       <c r="O22" t="n">
-        <v>37433.47655405161</v>
+        <v>25974.45207587747</v>
       </c>
       <c r="P22" t="n">
-        <v>59988.19156264777</v>
+        <v>48305.60446822222</v>
       </c>
       <c r="Q22" t="n">
-        <v>38933.89195430693</v>
+        <v>42907.8879514682</v>
       </c>
       <c r="R22" t="n">
-        <v>52802.19683164301</v>
+        <v>50063.96603515181</v>
       </c>
       <c r="S22" t="n">
-        <v>8764.576078257334</v>
+        <v>8195.802207787661</v>
       </c>
     </row>
     <row r="23">
@@ -1795,7 +1795,7 @@
         <v>-1486.848756438929</v>
       </c>
       <c r="F23" t="n">
-        <v>-45734.900615239</v>
+        <v>-25743.86178091326</v>
       </c>
       <c r="G23" t="n">
         <v>-33509.44050000001</v>
@@ -1807,7 +1807,7 @@
         <v>-8.433777481329448</v>
       </c>
       <c r="J23" t="n">
-        <v>-21717.44670507859</v>
+        <v>-22927.94826946628</v>
       </c>
       <c r="K23" t="n">
         <v>1242.018289506746</v>
@@ -1822,19 +1822,19 @@
         <v>6003.950612402226</v>
       </c>
       <c r="O23" t="n">
-        <v>10614.51356047302</v>
+        <v>28288.03351549385</v>
       </c>
       <c r="P23" t="n">
-        <v>50172.72242391582</v>
+        <v>53182.84359202202</v>
       </c>
       <c r="Q23" t="n">
-        <v>42714.80298314389</v>
+        <v>42554.56274874326</v>
       </c>
       <c r="R23" t="n">
-        <v>26701.99597558506</v>
+        <v>29633.91038826026</v>
       </c>
       <c r="S23" t="n">
-        <v>-18946.99110902926</v>
+        <v>-17544.57952264497</v>
       </c>
     </row>
     <row r="24">
@@ -1854,7 +1854,7 @@
         <v>1514.128077304828</v>
       </c>
       <c r="F24" t="n">
-        <v>34329.25739987657</v>
+        <v>26450.65407863406</v>
       </c>
       <c r="G24" t="n">
         <v>15592.34650000005</v>
@@ -1866,7 +1866,7 @@
         <v>12.63749895544966</v>
       </c>
       <c r="J24" t="n">
-        <v>7659.720481826349</v>
+        <v>5938.967279237404</v>
       </c>
       <c r="K24" t="n">
         <v>1287.981234434555</v>
@@ -1881,19 +1881,19 @@
         <v>20417.49800427219</v>
       </c>
       <c r="O24" t="n">
-        <v>52123.1624538755</v>
+        <v>32569.65361417768</v>
       </c>
       <c r="P24" t="n">
-        <v>57988.0799400055</v>
+        <v>54632.44835069414</v>
       </c>
       <c r="Q24" t="n">
-        <v>43005.67141646382</v>
+        <v>42475.66743270453</v>
       </c>
       <c r="R24" t="n">
-        <v>44585.8893487159</v>
+        <v>41237.44014689184</v>
       </c>
       <c r="S24" t="n">
-        <v>12575.3226961643</v>
+        <v>11875.94403021368</v>
       </c>
     </row>
     <row r="25">
@@ -1913,7 +1913,7 @@
         <v>736.8386244445595</v>
       </c>
       <c r="F25" t="n">
-        <v>37552.12041652923</v>
+        <v>15576.46106971436</v>
       </c>
       <c r="G25" t="n">
         <v>24977.89450000004</v>
@@ -1925,7 +1925,7 @@
         <v>7.391026498316639</v>
       </c>
       <c r="J25" t="n">
-        <v>9077.362882083769</v>
+        <v>8662.622300272289</v>
       </c>
       <c r="K25" t="n">
         <v>1268.307972930912</v>
@@ -1940,19 +1940,19 @@
         <v>36385.80983183318</v>
       </c>
       <c r="O25" t="n">
-        <v>28577.04775841592</v>
+        <v>33158.92050011215</v>
       </c>
       <c r="P25" t="n">
-        <v>51536.88233537074</v>
+        <v>51424.85752318319</v>
       </c>
       <c r="Q25" t="n">
-        <v>43037.584201287</v>
+        <v>41530.87167273459</v>
       </c>
       <c r="R25" t="n">
-        <v>55606.13533609897</v>
+        <v>56029.44039337844</v>
       </c>
       <c r="S25" t="n">
-        <v>15115.40944808861</v>
+        <v>13240.92773249342</v>
       </c>
     </row>
     <row r="26">
@@ -1972,7 +1972,7 @@
         <v>593.6447879510812</v>
       </c>
       <c r="F26" t="n">
-        <v>-9891.452676675966</v>
+        <v>2990.528773823107</v>
       </c>
       <c r="G26" t="n">
         <v>-5237.962000000032</v>
@@ -1984,7 +1984,7 @@
         <v>8.131982766623073</v>
       </c>
       <c r="J26" t="n">
-        <v>-5390.65404288197</v>
+        <v>-13123.10732213304</v>
       </c>
       <c r="K26" t="n">
         <v>1265.124158023839</v>
@@ -1999,19 +1999,19 @@
         <v>43484.79975885239</v>
       </c>
       <c r="O26" t="n">
-        <v>61478.34581499453</v>
+        <v>47552.47633731957</v>
       </c>
       <c r="P26" t="n">
-        <v>58703.20849352236</v>
+        <v>58140.25299000497</v>
       </c>
       <c r="Q26" t="n">
-        <v>40744.69494404253</v>
+        <v>39613.84266521451</v>
       </c>
       <c r="R26" t="n">
-        <v>59571.84929632938</v>
+        <v>57340.46683061217</v>
       </c>
       <c r="S26" t="n">
-        <v>-4132.720906673324</v>
+        <v>-3970.753390715268</v>
       </c>
     </row>
     <row r="27">
@@ -2031,7 +2031,7 @@
         <v>183.3335264012202</v>
       </c>
       <c r="F27" t="n">
-        <v>21322.32189546371</v>
+        <v>7588.99667669124</v>
       </c>
       <c r="G27" t="n">
         <v>-2977.290499999998</v>
@@ -2043,7 +2043,7 @@
         <v>-2.844139734633762</v>
       </c>
       <c r="J27" t="n">
-        <v>4669.617895533326</v>
+        <v>4714.973935462917</v>
       </c>
       <c r="K27" t="n">
         <v>1258.267235857835</v>
@@ -2058,19 +2058,19 @@
         <v>42577.17518684345</v>
       </c>
       <c r="O27" t="n">
-        <v>69826.02747979159</v>
+        <v>62029.13420525546</v>
       </c>
       <c r="P27" t="n">
-        <v>66940.27944945449</v>
+        <v>55882.50921602602</v>
       </c>
       <c r="Q27" t="n">
-        <v>43646.49644482251</v>
+        <v>45104.18780350205</v>
       </c>
       <c r="R27" t="n">
-        <v>60944.17522442444</v>
+        <v>58458.8934888123</v>
       </c>
       <c r="S27" t="n">
-        <v>4583.191979793723</v>
+        <v>3493.597126668957</v>
       </c>
     </row>
     <row r="28">
@@ -2090,7 +2090,7 @@
         <v>918.595099856391</v>
       </c>
       <c r="F28" t="n">
-        <v>4428.862697284562</v>
+        <v>17365.87248981187</v>
       </c>
       <c r="G28" t="n">
         <v>4481.131500000018</v>
@@ -2102,7 +2102,7 @@
         <v>11.38675420923036</v>
       </c>
       <c r="J28" t="n">
-        <v>5004.947510627419</v>
+        <v>5613.191957570617</v>
       </c>
       <c r="K28" t="n">
         <v>1270.139714893143</v>
@@ -2117,19 +2117,19 @@
         <v>47981.4871920303</v>
       </c>
       <c r="O28" t="n">
-        <v>46945.95544928845</v>
+        <v>39457.82208924112</v>
       </c>
       <c r="P28" t="n">
-        <v>72161.03242294902</v>
+        <v>53417.47148587461</v>
       </c>
       <c r="Q28" t="n">
-        <v>42543.83562628445</v>
+        <v>42609.01381650027</v>
       </c>
       <c r="R28" t="n">
-        <v>60383.41510662849</v>
+        <v>56645.3413770705</v>
       </c>
       <c r="S28" t="n">
-        <v>5319.981555140353</v>
+        <v>6624.652358071567</v>
       </c>
     </row>
     <row r="29">
@@ -2149,7 +2149,7 @@
         <v>125.3744415718946</v>
       </c>
       <c r="F29" t="n">
-        <v>17123.84736677919</v>
+        <v>10730.13586975097</v>
       </c>
       <c r="G29" t="n">
         <v>7543.331499999933</v>
@@ -2161,7 +2161,7 @@
         <v>-1.295066141009546</v>
       </c>
       <c r="J29" t="n">
-        <v>5534.06446087178</v>
+        <v>5009.896101067717</v>
       </c>
       <c r="K29" t="n">
         <v>1258.700098790373</v>
@@ -2176,19 +2176,19 @@
         <v>39026.39812035518</v>
       </c>
       <c r="O29" t="n">
-        <v>27922.2305498123</v>
+        <v>57399.59938612457</v>
       </c>
       <c r="P29" t="n">
-        <v>59093.12564217921</v>
+        <v>63520.50516892786</v>
       </c>
       <c r="Q29" t="n">
-        <v>48497.83838580545</v>
+        <v>48850.12808952983</v>
       </c>
       <c r="R29" t="n">
-        <v>54199.45554646365</v>
+        <v>59093.31812743297</v>
       </c>
       <c r="S29" t="n">
-        <v>9137.581537121754</v>
+        <v>8556.090474020313</v>
       </c>
     </row>
     <row r="30">
@@ -2208,7 +2208,7 @@
         <v>-1217.25493271206</v>
       </c>
       <c r="F30" t="n">
-        <v>-42542.25544487911</v>
+        <v>-24096.86962953557</v>
       </c>
       <c r="G30" t="n">
         <v>-32646.79205000001</v>
@@ -2220,7 +2220,7 @@
         <v>-3.474695829608528</v>
       </c>
       <c r="J30" t="n">
-        <v>-19413.30675560835</v>
+        <v>-19758.63189783747</v>
       </c>
       <c r="K30" t="n">
         <v>1244.016254576602</v>
@@ -2235,19 +2235,19 @@
         <v>6129.476665923661</v>
       </c>
       <c r="O30" t="n">
-        <v>35801.17741233882</v>
+        <v>14196.77543182491</v>
       </c>
       <c r="P30" t="n">
-        <v>63074.96230833526</v>
+        <v>61470.45660698409</v>
       </c>
       <c r="Q30" t="n">
-        <v>44925.47038381037</v>
+        <v>48471.2713645726</v>
       </c>
       <c r="R30" t="n">
-        <v>33367.14411369606</v>
+        <v>30558.12887068136</v>
       </c>
       <c r="S30" t="n">
-        <v>-18937.95313923888</v>
+        <v>-17526.41934039288</v>
       </c>
     </row>
     <row r="31">
@@ -2267,7 +2267,7 @@
         <v>1453.824447091402</v>
       </c>
       <c r="F31" t="n">
-        <v>33811.23821934162</v>
+        <v>27787.29896094358</v>
       </c>
       <c r="G31" t="n">
         <v>15827.61600000004</v>
@@ -2279,7 +2279,7 @@
         <v>11.80260256018808</v>
       </c>
       <c r="J31" t="n">
-        <v>5846.135116641193</v>
+        <v>5767.395005461391</v>
       </c>
       <c r="K31" t="n">
         <v>1287.04074681115</v>
@@ -2294,19 +2294,19 @@
         <v>22528.89567107038</v>
       </c>
       <c r="O31" t="n">
-        <v>38560.83402375278</v>
+        <v>27248.10128484843</v>
       </c>
       <c r="P31" t="n">
-        <v>63914.11775464291</v>
+        <v>59836.80160876746</v>
       </c>
       <c r="Q31" t="n">
-        <v>48836.96754441973</v>
+        <v>46673.37651706573</v>
       </c>
       <c r="R31" t="n">
-        <v>45519.7954852309</v>
+        <v>43012.13264064036</v>
       </c>
       <c r="S31" t="n">
-        <v>12311.33968483507</v>
+        <v>11994.40558226836</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +2548,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>27665.59924092042</v>
+        <v>26788.65305812045</v>
       </c>
       <c r="S2" t="n">
         <v>12337.76797872265</v>
@@ -2635,7 +2635,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>19476.04117147804</v>
+        <v>29517.74899121901</v>
       </c>
       <c r="S3" t="n">
         <v>12868.88802035351</v>
@@ -2722,7 +2722,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>20667.22687279868</v>
+        <v>23690.50622090206</v>
       </c>
       <c r="S4" t="n">
         <v>12220.84377658014</v>
@@ -2819,7 +2819,7 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>21554.04636380669</v>
+        <v>17705.65726019396</v>
       </c>
       <c r="S5" t="n">
         <v>11067.24746300106</v>
@@ -2891,17 +2891,17 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>24865.47617710349</v>
+        <v>24793.07056420475</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>18674.75350645674</v>
+        <v>18731.86951224733</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1596282297739512</v>
+        <v>0.1645152499738803</v>
       </c>
       <c r="O6" t="n">
-        <v>35949.94764330907</v>
+        <v>37452.54142047645</v>
       </c>
       <c r="P6" t="n">
         <v>108579.9399999999</v>
@@ -2910,17 +2910,17 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>28744.06364876802</v>
+        <v>17966.49934797717</v>
       </c>
       <c r="S6" t="n">
-        <v>21852.629821093</v>
+        <v>12649.20083927984</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>15388.75490872605</v>
+        <v>8709.555006922837</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3509393024533637</v>
+        <v>0.5657261706923997</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -2933,14 +2933,14 @@
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>24865.47617710349</v>
+        <v>24793.07056420475</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>18674.75350645674</v>
+        <v>18731.86951224733</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1596282297739512</v>
+        <v>0.1645152499738803</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -2984,17 +2984,17 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>29351.71799223681</v>
+        <v>28822.49888849188</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>22083.00153910057</v>
+        <v>21997.83072682013</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1709677832005803</v>
+        <v>-0.1291227465175835</v>
       </c>
       <c r="O7" t="n">
-        <v>16137.32249516695</v>
+        <v>23855.46307513787</v>
       </c>
       <c r="P7" t="n">
         <v>108579.9399999999</v>
@@ -3003,17 +3003,17 @@
         <v>0.95</v>
       </c>
       <c r="R7" t="n">
-        <v>34444.08555968429</v>
+        <v>24529.65222958731</v>
       </c>
       <c r="S7" t="n">
-        <v>25591.44598361614</v>
+        <v>15155.48123134249</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>19234.01415017878</v>
+        <v>10407.85009176438</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1098410864533355</v>
+        <v>0.3765854359478062</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
@@ -3024,14 +3024,14 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>29351.71799223681</v>
+        <v>28822.49888849188</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>22083.00153910057</v>
+        <v>21997.83072682013</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.1709677832005803</v>
+        <v>-0.1291227465175835</v>
       </c>
       <c r="AG7" t="b">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>0.95</v>
       </c>
       <c r="R8" t="n">
-        <v>16616.32657836801</v>
+        <v>15601.44369690462</v>
       </c>
       <c r="S8" t="n">
         <v>7432.281182776811</v>
@@ -3143,18 +3143,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rnn</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'lags': 30, 'hidden_layers_struct': {'lstm': {'units': 64}}, 'validation_split': 0.2, 'epochs': 15}</t>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3163,69 +3167,77 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>31526.25820631497</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>32043.24093435504</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.00051910753658</v>
+      </c>
       <c r="M9" t="n">
-        <v>25844.13545716563</v>
+        <v>24864.36755553836</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.3508985970445306</v>
+        <v>-0.001911583514120574</v>
       </c>
       <c r="O9" t="n">
-        <v>28759.37848547248</v>
+        <v>-4.78871999658485</v>
       </c>
       <c r="P9" t="n">
-        <v>108579.9399999999</v>
+        <v>29456.98000000008</v>
       </c>
       <c r="Q9" t="n">
         <v>0.95</v>
       </c>
       <c r="R9" t="n">
-        <v>43498.40478218317</v>
+        <v>32493.19185576024</v>
       </c>
       <c r="S9" t="n">
-        <v>27269.132524389</v>
+        <v>20699.25487183625</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>21384.18712900014</v>
+        <v>15065.87938610985</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.01069598242538272</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="b">
-        <v>1</v>
-      </c>
+        <v>0.000387059301644066</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>27646.81273464491</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>31526.25820631497</v>
+        <v>31839.60750404194</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>25844.13545716563</v>
+        <v>25270.80613558676</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.3508985970445306</v>
+        <v>-0.3778860558604529</v>
       </c>
       <c r="AG9" t="b">
         <v>0</v>
@@ -3234,22 +3246,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
-        </is>
-      </c>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
+          <t>{'lags': 30, 'hidden_layers_struct': {'lstm': {'units': 64}}, 'validation_split': 0.2, 'epochs': 15}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3258,77 +3266,69 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>32043.24093435504</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.00051910753658</v>
-      </c>
+        <v>32365.35374207257</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>24864.36755553836</v>
+        <v>27240.73610750823</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.001911583514120574</v>
+        <v>-0.4237659763108075</v>
       </c>
       <c r="O10" t="n">
-        <v>-4.78871999658485</v>
+        <v>30388.03138397334</v>
       </c>
       <c r="P10" t="n">
-        <v>29456.98000000008</v>
+        <v>108579.9399999999</v>
       </c>
       <c r="Q10" t="n">
         <v>0.95</v>
       </c>
       <c r="R10" t="n">
-        <v>39757.00684550363</v>
+        <v>32502.38307552152</v>
       </c>
       <c r="S10" t="n">
-        <v>20699.25487183625</v>
+        <v>17057.83685957964</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>15065.87938610985</v>
+        <v>12464.79973672659</v>
       </c>
       <c r="V10" t="n">
-        <v>0.000387059301644066</v>
-      </c>
-      <c r="W10" t="n">
-        <v>15</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
-        <v>27646.81273464491</v>
-      </c>
-      <c r="Z10" t="inlineStr"/>
+        <v>0.2102577097399349</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="b">
+        <v>1</v>
+      </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>31839.60750404194</v>
+        <v>32365.35374207257</v>
       </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>25270.80613558676</v>
+        <v>27240.73610750823</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.3778860558604529</v>
+        <v>-0.4237659763108075</v>
       </c>
       <c r="AG10" t="b">
         <v>0</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 1000}</t>
+          <t>{'max_depth': 2, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3376,19 +3376,19 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>25878.20263782574</v>
+        <v>25754.24287854336</v>
       </c>
       <c r="L11" t="n">
-        <v>1.083146703142969</v>
+        <v>1.065235804569484</v>
       </c>
       <c r="M11" t="n">
-        <v>20410.96841279941</v>
+        <v>20244.16834192742</v>
       </c>
       <c r="N11" t="n">
-        <v>0.346531367420734</v>
+        <v>0.3527767629321115</v>
       </c>
       <c r="O11" t="n">
-        <v>4383.119487171513</v>
+        <v>4437.806433369641</v>
       </c>
       <c r="P11" t="n">
         <v>29456.98000000008</v>
@@ -3397,17 +3397,17 @@
         <v>0.95</v>
       </c>
       <c r="R11" t="n">
-        <v>26533.38475132186</v>
+        <v>24228.67274647006</v>
       </c>
       <c r="S11" t="n">
-        <v>14544.49565542618</v>
+        <v>14634.58431474006</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>10251.49062836065</v>
+        <v>10351.39192892257</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5064629304220203</v>
+        <v>0.5003300547060487</v>
       </c>
       <c r="W11" t="n">
         <v>15</v>
@@ -3418,20 +3418,20 @@
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>31346.66313509358</v>
+        <v>31062.6085827574</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>32333.48851024318</v>
+        <v>32797.85699191691</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>27186.47486706556</v>
+        <v>27596.63524463925</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.4209638256235226</v>
+        <v>-0.4620722356155855</v>
       </c>
       <c r="AG11" t="b">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>0.95</v>
       </c>
       <c r="R12" t="n">
-        <v>38060.83539495466</v>
+        <v>39296.8426911963</v>
       </c>
       <c r="S12" t="n">
         <v>20058.32566821467</v>
@@ -3578,17 +3578,17 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>34623.16853037302</v>
+        <v>34794.80596274531</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>29212.50767388699</v>
+        <v>29198.5828896759</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.6293392278527623</v>
+        <v>-0.6455335151918271</v>
       </c>
       <c r="O13" t="n">
-        <v>26048.74412412865</v>
+        <v>27220.10708582847</v>
       </c>
       <c r="P13" t="n">
         <v>108579.9399999999</v>
@@ -3597,17 +3597,17 @@
         <v>0.95</v>
       </c>
       <c r="R13" t="n">
-        <v>23769.02219293492</v>
+        <v>37377.2151667309</v>
       </c>
       <c r="S13" t="n">
-        <v>31469.68579858338</v>
+        <v>17682.94048810437</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>26284.3553983611</v>
+        <v>12958.70921516244</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.3460546973056922</v>
+        <v>0.1513151444108429</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
@@ -3618,14 +3618,14 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>34623.16853037302</v>
+        <v>34794.80596274531</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>29212.50767388699</v>
+        <v>29198.5828896759</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.6293392278527623</v>
+        <v>-0.6455335151918271</v>
       </c>
       <c r="AG13" t="b">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0.95</v>
       </c>
       <c r="R14" t="n">
-        <v>19488.37002473983</v>
+        <v>22155.29227561452</v>
       </c>
       <c r="S14" t="n">
         <v>12795.3763381528</v>
@@ -3781,7 +3781,7 @@
         <v>0.95</v>
       </c>
       <c r="R15" t="n">
-        <v>36033.31585145782</v>
+        <v>40316.71640754444</v>
       </c>
       <c r="S15" t="n">
         <v>20717.5516584629</v>
@@ -3824,101 +3824,89 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>weighted_differenced_models</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>gbt</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'max_depth': 3, 'max_features': 'sqrt'}</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ['elasticnet', 'gbt', 'knn', 'lightgbm', 'mlp', 'mlr', 'rf', 'svr', 'xgboost'], 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>25427.40837801126</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.217926146880025</v>
-      </c>
+        <v>51973.273765118</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>21080.06244351353</v>
+        <v>45609.32384468697</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3690997153510144</v>
+        <v>-2.671453579598549</v>
       </c>
       <c r="O16" t="n">
-        <v>-12354.18644367486</v>
+        <v>-2175.866227862922</v>
       </c>
       <c r="P16" t="n">
-        <v>29456.98000000008</v>
+        <v>108579.9399999999</v>
       </c>
       <c r="Q16" t="n">
         <v>0.95</v>
       </c>
       <c r="R16" t="n">
-        <v>10996.82425445663</v>
+        <v>12049.51306614099</v>
       </c>
       <c r="S16" t="n">
-        <v>5279.315188885151</v>
+        <v>29039.20001547937</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>4030.854550749131</v>
+        <v>24014.72393364687</v>
       </c>
       <c r="V16" t="n">
-        <v>0.934975409155852</v>
-      </c>
-      <c r="W16" t="n">
-        <v>15</v>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y16" t="n">
-        <v>38177.69204657705</v>
-      </c>
+        <v>-1.302855304500893</v>
+      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>['svr', 'mlp', 'elasticnet', 'rf', 'knn', 'lightgbm', 'xgboost', 'gbt', 'mlr']</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>(0.1507576477890515, 0.15053541877769236, 0.147954010915846, 0.12851433374080173, 0.1108124813438475, 0.10206476028391398, 0.09990283419318753, 0.09575327224756379, 0.013705240708095591)</t>
+        </is>
+      </c>
       <c r="AC16" t="n">
-        <v>50672.76017335004</v>
+        <v>51973.273765118</v>
       </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>46229.01130544116</v>
+        <v>45609.32384468697</v>
       </c>
       <c r="AF16" t="n">
-        <v>-2.49001277490236</v>
+        <v>-2.671453579598549</v>
       </c>
       <c r="AG16" t="b">
         <v>0</v>
@@ -3927,89 +3915,101 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>weighted_differenced_models</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ['elasticnet', 'gbt', 'knn', 'lightgbm', 'mlp', 'mlr', 'rf', 'svr', 'xgboost'], 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>{'max_depth': 3}</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F17" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>52318.61834268505</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+        <v>25144.35118561254</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.638826561727977</v>
+      </c>
       <c r="M17" t="n">
-        <v>45909.67219547262</v>
+        <v>19090.3116673177</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.720406779147344</v>
+        <v>0.3830678620100439</v>
       </c>
       <c r="O17" t="n">
-        <v>-3240.037326945445</v>
+        <v>-19374.58984375</v>
       </c>
       <c r="P17" t="n">
-        <v>108579.9399999999</v>
+        <v>29456.98000000008</v>
       </c>
       <c r="Q17" t="n">
         <v>0.95</v>
       </c>
       <c r="R17" t="n">
-        <v>4981.750607992897</v>
+        <v>1856.205576078515</v>
       </c>
       <c r="S17" t="n">
-        <v>28979.69798153869</v>
+        <v>1076.099230654983</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>24003.25167170807</v>
+        <v>800.1724612897821</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.29342775890343</v>
-      </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+        <v>0.9972983624284568</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>35500.67515392271</v>
+      </c>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>['svr', 'mlp', 'elasticnet', 'rf', 'knn', 'lightgbm', 'xgboost', 'gbt', 'mlr']</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>(0.15304412521203734, 0.15281852574734028, 0.15019796676525432, 0.12860442848818918, 0.11249312733755705, 0.10361273329552644, 0.10141801818700152, 0.0838979726750906, 0.013913102292003394)</t>
-        </is>
-      </c>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
-        <v>52318.61834268505</v>
+        <v>61812.14921811551</v>
       </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>45909.67219547262</v>
+        <v>56900.07244531212</v>
       </c>
       <c r="AF17" t="n">
-        <v>-2.720406779147344</v>
+        <v>-4.193086815163937</v>
       </c>
       <c r="AG17" t="b">
         <v>0</v>
@@ -4018,12 +4018,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'max_depth': 3}</t>
+          <t>{'n_neighbors': 20, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4057,19 +4057,19 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>25144.35118561254</v>
+        <v>26929.04965209192</v>
       </c>
       <c r="L18" t="n">
-        <v>1.638826561727977</v>
+        <v>1.176178004951962</v>
       </c>
       <c r="M18" t="n">
-        <v>19090.3116673177</v>
+        <v>19448.84417833333</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3830678620100439</v>
+        <v>0.2923824732011151</v>
       </c>
       <c r="O18" t="n">
-        <v>-19374.58984375</v>
+        <v>1826.176999999946</v>
       </c>
       <c r="P18" t="n">
         <v>29456.98000000008</v>
@@ -4078,17 +4078,17 @@
         <v>0.95</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.560937482229</v>
+        <v>30879.42897970277</v>
       </c>
       <c r="S18" t="n">
-        <v>1076.099230654983</v>
+        <v>15169.19888959875</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>800.1724612897821</v>
+        <v>10488.75636559487</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9972983624284568</v>
+        <v>0.463156453489467</v>
       </c>
       <c r="W18" t="n">
         <v>15</v>
@@ -4099,20 +4099,20 @@
         </is>
       </c>
       <c r="Y18" t="n">
-        <v>35500.67515392271</v>
+        <v>33808.42759304329</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
-        <v>61812.14921811551</v>
+        <v>93490.91694515613</v>
       </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>56900.07244531212</v>
+        <v>86383.48147666598</v>
       </c>
       <c r="AF18" t="n">
-        <v>-4.193086815163937</v>
+        <v>-10.88000799357899</v>
       </c>
       <c r="AG18" t="b">
         <v>0</v>
@@ -4121,12 +4121,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 20, 'weights': 'uniform'}</t>
+          <t>{'max_depth': 2, 'max_features': 'sqrt'}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4160,19 +4160,19 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>26929.04965209192</v>
+        <v>24591.54506110333</v>
       </c>
       <c r="L19" t="n">
-        <v>1.176178004951962</v>
+        <v>1.710500660154284</v>
       </c>
       <c r="M19" t="n">
-        <v>19448.84417833333</v>
+        <v>19160.09921838301</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2923824732011151</v>
+        <v>0.4098965429988287</v>
       </c>
       <c r="O19" t="n">
-        <v>1826.176999999946</v>
+        <v>-211.9584152434823</v>
       </c>
       <c r="P19" t="n">
         <v>29456.98000000008</v>
@@ -4181,17 +4181,17 @@
         <v>0.95</v>
       </c>
       <c r="R19" t="n">
-        <v>30273.56972111523</v>
+        <v>12746.7411631564</v>
       </c>
       <c r="S19" t="n">
-        <v>15169.19888959875</v>
+        <v>8437.956025320322</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>10488.75636559487</v>
+        <v>6307.177965967046</v>
       </c>
       <c r="V19" t="n">
-        <v>0.463156453489467</v>
+        <v>0.8338895476103978</v>
       </c>
       <c r="W19" t="n">
         <v>15</v>
@@ -4202,20 +4202,20 @@
         </is>
       </c>
       <c r="Y19" t="n">
-        <v>33808.42759304329</v>
+        <v>36144.33355865628</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
-        <v>93490.91694515613</v>
+        <v>94461.80948750862</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>86383.48147666598</v>
+        <v>86319.30702320879</v>
       </c>
       <c r="AF19" t="n">
-        <v>-10.88000799357899</v>
+        <v>-11.12803426775901</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -9134,14 +9134,14 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>rf</t>
@@ -9169,22 +9169,22 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>weighted_differenced_models</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>gbt</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_differenced_models</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
         </is>
       </c>
     </row>
@@ -9208,28 +9208,28 @@
         <v>-2676.884687993313</v>
       </c>
       <c r="G2" t="n">
-        <v>36398.60902564585</v>
+        <v>35324.44067375112</v>
       </c>
       <c r="H2" t="n">
-        <v>33959.21337291745</v>
+        <v>23032.75979219599</v>
       </c>
       <c r="I2" t="n">
         <v>20917.53847235705</v>
       </c>
       <c r="J2" t="n">
-        <v>26524.80764021201</v>
+        <v>13.29674259365965</v>
       </c>
       <c r="K2" t="n">
-        <v>13.29674259365965</v>
+        <v>29574.14197309612</v>
       </c>
       <c r="L2" t="n">
-        <v>9332.688425953731</v>
+        <v>9343.65443095039</v>
       </c>
       <c r="M2" t="n">
         <v>1080.987974248233</v>
       </c>
       <c r="N2" t="n">
-        <v>23710.68735978528</v>
+        <v>24068.62814435958</v>
       </c>
       <c r="O2" t="n">
         <v>10420.36625339445</v>
@@ -9238,16 +9238,16 @@
         <v>833.969976162423</v>
       </c>
       <c r="Q2" t="n">
-        <v>13820.96583067798</v>
+        <v>7548.155329733634</v>
       </c>
       <c r="R2" t="n">
-        <v>7339.440332926622</v>
+        <v>7817.546875</v>
       </c>
       <c r="S2" t="n">
-        <v>7817.546875</v>
+        <v>15687.32449999998</v>
       </c>
       <c r="T2" t="n">
-        <v>15687.32449999998</v>
+        <v>15060.51583555504</v>
       </c>
     </row>
     <row r="3">
@@ -9270,28 +9270,28 @@
         <v>-14342.86235163776</v>
       </c>
       <c r="G3" t="n">
-        <v>33033.00261782181</v>
+        <v>34473.20593199546</v>
       </c>
       <c r="H3" t="n">
-        <v>19225.88380319922</v>
+        <v>24483.73831584005</v>
       </c>
       <c r="I3" t="n">
         <v>-8468.788796732815</v>
       </c>
       <c r="J3" t="n">
-        <v>21286.31472211926</v>
+        <v>-8.85091504752371</v>
       </c>
       <c r="K3" t="n">
-        <v>-8.85091504752371</v>
+        <v>26287.75008043496</v>
       </c>
       <c r="L3" t="n">
-        <v>3484.398899156187</v>
+        <v>3819.68447541469</v>
       </c>
       <c r="M3" t="n">
         <v>-453.4371041153819</v>
       </c>
       <c r="N3" t="n">
-        <v>23681.52339183389</v>
+        <v>23503.65672009288</v>
       </c>
       <c r="O3" t="n">
         <v>26622.08502430787</v>
@@ -9300,16 +9300,16 @@
         <v>807.4333949374382</v>
       </c>
       <c r="Q3" t="n">
-        <v>-8699.562962175449</v>
+        <v>-1223.734375366237</v>
       </c>
       <c r="R3" t="n">
-        <v>-1717.249316110821</v>
+        <v>2321.00048828125</v>
       </c>
       <c r="S3" t="n">
-        <v>2321.00048828125</v>
+        <v>-5760.005000000061</v>
       </c>
       <c r="T3" t="n">
-        <v>-5760.005000000061</v>
+        <v>-3139.129552598522</v>
       </c>
     </row>
     <row r="4">
@@ -9332,28 +9332,28 @@
         <v>-21189.89468491689</v>
       </c>
       <c r="G4" t="n">
-        <v>23862.97542012189</v>
+        <v>23501.71110061496</v>
       </c>
       <c r="H4" t="n">
-        <v>18076.87177852019</v>
+        <v>23521.38935343175</v>
       </c>
       <c r="I4" t="n">
         <v>-37420.15732432127</v>
       </c>
       <c r="J4" t="n">
-        <v>31292.86609646825</v>
+        <v>-13.18040404758317</v>
       </c>
       <c r="K4" t="n">
-        <v>-13.18040404758317</v>
+        <v>25536.63527225404</v>
       </c>
       <c r="L4" t="n">
-        <v>-26051.94375942288</v>
+        <v>-26998.84440809317</v>
       </c>
       <c r="M4" t="n">
         <v>-1859.856935021227</v>
       </c>
       <c r="N4" t="n">
-        <v>25660.44109184517</v>
+        <v>23443.30410459935</v>
       </c>
       <c r="O4" t="n">
         <v>43740.11813860359</v>
@@ -9362,16 +9362,16 @@
         <v>793.3030553936661</v>
       </c>
       <c r="Q4" t="n">
-        <v>-36639.12513901815</v>
+        <v>-16281.04066900908</v>
       </c>
       <c r="R4" t="n">
-        <v>-16672.29444029149</v>
+        <v>-33837.66015625</v>
       </c>
       <c r="S4" t="n">
-        <v>-33837.66015625</v>
+        <v>-22083.39200000003</v>
       </c>
       <c r="T4" t="n">
-        <v>-22083.39200000003</v>
+        <v>-28369.32446967332</v>
       </c>
     </row>
     <row r="5">
@@ -9394,28 +9394,28 @@
         <v>18694.74995852456</v>
       </c>
       <c r="G5" t="n">
-        <v>32783.32530683565</v>
+        <v>32083.28700305615</v>
       </c>
       <c r="H5" t="n">
-        <v>26240.01595469861</v>
+        <v>24312.09189207255</v>
       </c>
       <c r="I5" t="n">
         <v>19806.64896727502</v>
       </c>
       <c r="J5" t="n">
-        <v>29545.65342808513</v>
+        <v>14.15496687715518</v>
       </c>
       <c r="K5" t="n">
-        <v>14.15496687715518</v>
+        <v>25299.56340940295</v>
       </c>
       <c r="L5" t="n">
-        <v>9717.304778193513</v>
+        <v>9789.468603776209</v>
       </c>
       <c r="M5" t="n">
         <v>1595.222956535908</v>
       </c>
       <c r="N5" t="n">
-        <v>24269.6085837364</v>
+        <v>25543.35453858821</v>
       </c>
       <c r="O5" t="n">
         <v>48114.74462822801</v>
@@ -9424,16 +9424,16 @@
         <v>849.5443982344311</v>
       </c>
       <c r="Q5" t="n">
-        <v>25271.46744065045</v>
+        <v>11125.24976684947</v>
       </c>
       <c r="R5" t="n">
-        <v>10840.75114063627</v>
+        <v>25420.814453125</v>
       </c>
       <c r="S5" t="n">
-        <v>25420.814453125</v>
+        <v>19633.25305000002</v>
       </c>
       <c r="T5" t="n">
-        <v>19633.25305000002</v>
+        <v>26191.68069361556</v>
       </c>
     </row>
     <row r="6">
@@ -9456,28 +9456,28 @@
         <v>13824.33457045888</v>
       </c>
       <c r="G6" t="n">
-        <v>42326.77530824054</v>
+        <v>41693.70286191459</v>
       </c>
       <c r="H6" t="n">
-        <v>37315.41062377689</v>
+        <v>36177.99521367697</v>
       </c>
       <c r="I6" t="n">
         <v>22437.39307981117</v>
       </c>
       <c r="J6" t="n">
-        <v>33747.1687111616</v>
+        <v>9.883815495280523</v>
       </c>
       <c r="K6" t="n">
-        <v>9.883815495280523</v>
+        <v>32474.60514376311</v>
       </c>
       <c r="L6" t="n">
-        <v>9500.227739291358</v>
+        <v>9555.933871283722</v>
       </c>
       <c r="M6" t="n">
         <v>785.7103009433935</v>
       </c>
       <c r="N6" t="n">
-        <v>24936.22083053587</v>
+        <v>22914.69268375261</v>
       </c>
       <c r="O6" t="n">
         <v>42346.0147212294</v>
@@ -9486,16 +9486,16 @@
         <v>827.3229499736474</v>
       </c>
       <c r="Q6" t="n">
-        <v>32973.16859734405</v>
+        <v>9570.603325529446</v>
       </c>
       <c r="R6" t="n">
-        <v>10643.58031000405</v>
+        <v>25859.6875</v>
       </c>
       <c r="S6" t="n">
-        <v>25859.6875</v>
+        <v>11285.22499999999</v>
       </c>
       <c r="T6" t="n">
-        <v>11285.22499999999</v>
+        <v>18657.67984561576</v>
       </c>
     </row>
     <row r="7">
@@ -9518,28 +9518,28 @@
         <v>-8643.784468718011</v>
       </c>
       <c r="G7" t="n">
-        <v>41972.05703646278</v>
+        <v>41108.56297561189</v>
       </c>
       <c r="H7" t="n">
-        <v>26176.1749783717</v>
+        <v>30521.49813545791</v>
       </c>
       <c r="I7" t="n">
         <v>-24994.3671020098</v>
       </c>
       <c r="J7" t="n">
-        <v>36536.77987961916</v>
+        <v>2.026569628803705</v>
       </c>
       <c r="K7" t="n">
-        <v>2.026569628803705</v>
+        <v>25131.90277559905</v>
       </c>
       <c r="L7" t="n">
-        <v>-13079.41966093024</v>
+        <v>-12243.53113267151</v>
       </c>
       <c r="M7" t="n">
         <v>293.9229934130866</v>
       </c>
       <c r="N7" t="n">
-        <v>24393.43824178426</v>
+        <v>25408.53376276194</v>
       </c>
       <c r="O7" t="n">
         <v>46926.72790776837</v>
@@ -9548,16 +9548,16 @@
         <v>816.3571020546534</v>
       </c>
       <c r="Q7" t="n">
-        <v>-16407.62745603356</v>
+        <v>-6166.72091246647</v>
       </c>
       <c r="R7" t="n">
-        <v>-6136.075602837491</v>
+        <v>-17715.94921875</v>
       </c>
       <c r="S7" t="n">
-        <v>-17715.94921875</v>
+        <v>11199.62094999996</v>
       </c>
       <c r="T7" t="n">
-        <v>11199.62094999996</v>
+        <v>-16310.57486725515</v>
       </c>
     </row>
     <row r="8">
@@ -9580,28 +9580,28 @@
         <v>4232.187510283436</v>
       </c>
       <c r="G8" t="n">
-        <v>39137.12984900201</v>
+        <v>39246.18647487103</v>
       </c>
       <c r="H8" t="n">
-        <v>36345.51917366235</v>
+        <v>41454.66303636131</v>
       </c>
       <c r="I8" t="n">
         <v>4454.892820253534</v>
       </c>
       <c r="J8" t="n">
-        <v>29510.38522598295</v>
+        <v>-4.773939786415771</v>
       </c>
       <c r="K8" t="n">
-        <v>-4.773939786415771</v>
+        <v>26049.5037762828</v>
       </c>
       <c r="L8" t="n">
-        <v>6020.223190532754</v>
+        <v>5724.530846824523</v>
       </c>
       <c r="M8" t="n">
         <v>-12.93619340860573</v>
       </c>
       <c r="N8" t="n">
-        <v>24203.75405243187</v>
+        <v>23318.88802051617</v>
       </c>
       <c r="O8" t="n">
         <v>39461.72967586313</v>
@@ -9610,16 +9610,16 @@
         <v>814.3050017249006</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1569.438862728511</v>
+        <v>3705.783098496818</v>
       </c>
       <c r="R8" t="n">
-        <v>2558.654423770621</v>
+        <v>8273.4609375</v>
       </c>
       <c r="S8" t="n">
-        <v>8273.4609375</v>
+        <v>3863.376000000008</v>
       </c>
       <c r="T8" t="n">
-        <v>3863.376000000008</v>
+        <v>11306.40774881516</v>
       </c>
     </row>
     <row r="9">
@@ -9642,28 +9642,28 @@
         <v>16431.5631017688</v>
       </c>
       <c r="G9" t="n">
-        <v>37090.30804728462</v>
+        <v>37129.18334843794</v>
       </c>
       <c r="H9" t="n">
-        <v>37222.1577595487</v>
+        <v>32215.17280850856</v>
       </c>
       <c r="I9" t="n">
         <v>18482.08253417617</v>
       </c>
       <c r="J9" t="n">
-        <v>27768.39159039108</v>
+        <v>13.50715467205594</v>
       </c>
       <c r="K9" t="n">
-        <v>13.50715467205594</v>
+        <v>31638.43790046571</v>
       </c>
       <c r="L9" t="n">
-        <v>10262.93657072153</v>
+        <v>9528.845887805333</v>
       </c>
       <c r="M9" t="n">
         <v>1065.767475763543</v>
       </c>
       <c r="N9" t="n">
-        <v>23010.51851207613</v>
+        <v>24419.58426111488</v>
       </c>
       <c r="O9" t="n">
         <v>6647.416987219958</v>
@@ -9672,16 +9672,16 @@
         <v>832.8442300629451</v>
       </c>
       <c r="Q9" t="n">
-        <v>28049.85009012726</v>
+        <v>9594.057509978056</v>
       </c>
       <c r="R9" t="n">
-        <v>9019.219391283077</v>
+        <v>11320.703125</v>
       </c>
       <c r="S9" t="n">
-        <v>11320.703125</v>
+        <v>15687.32449999998</v>
       </c>
       <c r="T9" t="n">
-        <v>15687.32449999998</v>
+        <v>32409.32774267167</v>
       </c>
     </row>
     <row r="10">
@@ -9704,28 +9704,28 @@
         <v>-22426.17762685642</v>
       </c>
       <c r="G10" t="n">
-        <v>34674.39252425857</v>
+        <v>34403.38786694747</v>
       </c>
       <c r="H10" t="n">
-        <v>20170.30942461489</v>
+        <v>23705.23629934861</v>
       </c>
       <c r="I10" t="n">
         <v>-3114.994124225125</v>
       </c>
       <c r="J10" t="n">
-        <v>30916.26933566479</v>
+        <v>-9.656649895278203</v>
       </c>
       <c r="K10" t="n">
-        <v>-9.656649895278203</v>
+        <v>26152.40485856084</v>
       </c>
       <c r="L10" t="n">
-        <v>4182.464548047384</v>
+        <v>4650.085873702974</v>
       </c>
       <c r="M10" t="n">
         <v>-489.6898789184938</v>
       </c>
       <c r="N10" t="n">
-        <v>24729.85448917075</v>
+        <v>24061.75949036329</v>
       </c>
       <c r="O10" t="n">
         <v>22058.18637164952</v>
@@ -9734,16 +9734,16 @@
         <v>807.9095977331447</v>
       </c>
       <c r="Q10" t="n">
-        <v>-18587.82920339341</v>
+        <v>-481.0651244057152</v>
       </c>
       <c r="R10" t="n">
-        <v>-1354.466669870172</v>
+        <v>7297.77685546875</v>
       </c>
       <c r="S10" t="n">
-        <v>7297.77685546875</v>
+        <v>-4327.766000000058</v>
       </c>
       <c r="T10" t="n">
-        <v>-4327.766000000058</v>
+        <v>-7840.692089733503</v>
       </c>
     </row>
     <row r="11">
@@ -9766,28 +9766,28 @@
         <v>-24047.10839403625</v>
       </c>
       <c r="G11" t="n">
-        <v>23241.24010538661</v>
+        <v>21739.90857450257</v>
       </c>
       <c r="H11" t="n">
-        <v>17635.2452970147</v>
+        <v>2486.236214007994</v>
       </c>
       <c r="I11" t="n">
         <v>-30170.75667827356</v>
       </c>
       <c r="J11" t="n">
-        <v>28275.84240782259</v>
+        <v>-12.31194020524591</v>
       </c>
       <c r="K11" t="n">
-        <v>-12.31194020524591</v>
+        <v>34464.87153840361</v>
       </c>
       <c r="L11" t="n">
-        <v>-21572.86196800226</v>
+        <v>-21416.26574392216</v>
       </c>
       <c r="M11" t="n">
         <v>-1719.555341504627</v>
       </c>
       <c r="N11" t="n">
-        <v>25317.85704108997</v>
+        <v>23768.51627732737</v>
       </c>
       <c r="O11" t="n">
         <v>38745.74707449323</v>
@@ -9796,16 +9796,16 @@
         <v>795.5554143306387</v>
       </c>
       <c r="Q11" t="n">
-        <v>-31967.08773517769</v>
+        <v>-15900.28090078614</v>
       </c>
       <c r="R11" t="n">
-        <v>-15660.73128674085</v>
+        <v>-38153</v>
       </c>
       <c r="S11" t="n">
-        <v>-38153</v>
+        <v>-24321.00250000002</v>
       </c>
       <c r="T11" t="n">
-        <v>-24321.00250000002</v>
+        <v>-32333.573039674</v>
       </c>
     </row>
     <row r="12">
@@ -9828,28 +9828,28 @@
         <v>28761.66998265569</v>
       </c>
       <c r="G12" t="n">
-        <v>32939.35586443548</v>
+        <v>31850.72279106883</v>
       </c>
       <c r="H12" t="n">
-        <v>26564.29207069276</v>
+        <v>19929.59186711608</v>
       </c>
       <c r="I12" t="n">
         <v>19218.78880109813</v>
       </c>
       <c r="J12" t="n">
-        <v>30747.3246036589</v>
+        <v>14.29691284508754</v>
       </c>
       <c r="K12" t="n">
-        <v>14.29691284508754</v>
+        <v>29166.03395096956</v>
       </c>
       <c r="L12" t="n">
-        <v>9843.829468359807</v>
+        <v>10073.64511311965</v>
       </c>
       <c r="M12" t="n">
         <v>1581.805238733685</v>
       </c>
       <c r="N12" t="n">
-        <v>24452.13805761187</v>
+        <v>25047.69740031136</v>
       </c>
       <c r="O12" t="n">
         <v>43055.44026560965</v>
@@ -9858,16 +9858,16 @@
         <v>847.6561011219188</v>
       </c>
       <c r="Q12" t="n">
-        <v>28706.82361058123</v>
+        <v>12397.12681616944</v>
       </c>
       <c r="R12" t="n">
-        <v>12237.24094171657</v>
+        <v>32048.02734375</v>
       </c>
       <c r="S12" t="n">
-        <v>32048.02734375</v>
+        <v>22682.41955000002</v>
       </c>
       <c r="T12" t="n">
-        <v>22682.41955000002</v>
+        <v>27859.21634708534</v>
       </c>
     </row>
     <row r="13">
@@ -9890,28 +9890,28 @@
         <v>6769.26525003661</v>
       </c>
       <c r="G13" t="n">
-        <v>43412.04144378558</v>
+        <v>41639.81519628251</v>
       </c>
       <c r="H13" t="n">
-        <v>43814.01866716889</v>
+        <v>42765.71776521055</v>
       </c>
       <c r="I13" t="n">
         <v>17896.68914009616</v>
       </c>
       <c r="J13" t="n">
-        <v>33231.35854157357</v>
+        <v>7.486652814507639</v>
       </c>
       <c r="K13" t="n">
-        <v>7.486652814507639</v>
+        <v>24996.14117534755</v>
       </c>
       <c r="L13" t="n">
-        <v>8457.629713200622</v>
+        <v>9006.48278287193</v>
       </c>
       <c r="M13" t="n">
         <v>577.7244172306649</v>
       </c>
       <c r="N13" t="n">
-        <v>26782.95428803413</v>
+        <v>23660.88882369696</v>
       </c>
       <c r="O13" t="n">
         <v>37670.29100100447</v>
@@ -9920,16 +9920,16 @@
         <v>824.6237304205508</v>
       </c>
       <c r="Q13" t="n">
-        <v>25742.14295743622</v>
+        <v>8754.197506203793</v>
       </c>
       <c r="R13" t="n">
-        <v>8885.319106733496</v>
+        <v>23224.044921875</v>
       </c>
       <c r="S13" t="n">
-        <v>23224.044921875</v>
+        <v>9955.745499999986</v>
       </c>
       <c r="T13" t="n">
-        <v>9955.745499999986</v>
+        <v>21336.59634562911</v>
       </c>
     </row>
     <row r="14">
@@ -9952,28 +9952,28 @@
         <v>4901.632239380851</v>
       </c>
       <c r="G14" t="n">
-        <v>42942.45148594936</v>
+        <v>43551.59102986001</v>
       </c>
       <c r="H14" t="n">
-        <v>37407.1346483141</v>
+        <v>45158.272420077</v>
       </c>
       <c r="I14" t="n">
         <v>-24942.85497470634</v>
       </c>
       <c r="J14" t="n">
-        <v>31285.46663950233</v>
+        <v>4.615755664650022</v>
       </c>
       <c r="K14" t="n">
-        <v>4.615755664650022</v>
+        <v>29389.51789349018</v>
       </c>
       <c r="L14" t="n">
-        <v>-13883.27762121626</v>
+        <v>-13310.75744689914</v>
       </c>
       <c r="M14" t="n">
         <v>418.9945215971347</v>
       </c>
       <c r="N14" t="n">
-        <v>24717.85421005784</v>
+        <v>23126.64199168159</v>
       </c>
       <c r="O14" t="n">
         <v>42972.37177798508</v>
@@ -9982,16 +9982,16 @@
         <v>818.4967726486395</v>
       </c>
       <c r="Q14" t="n">
-        <v>-23544.40138742906</v>
+        <v>-6817.76628439592</v>
       </c>
       <c r="R14" t="n">
-        <v>-7627.65196414207</v>
+        <v>-21381.31640625</v>
       </c>
       <c r="S14" t="n">
-        <v>-21381.31640625</v>
+        <v>5590.333949999973</v>
       </c>
       <c r="T14" t="n">
-        <v>5590.333949999973</v>
+        <v>-13556.09825798679</v>
       </c>
     </row>
     <row r="15">
@@ -10014,28 +10014,28 @@
         <v>-2650.127572109138</v>
       </c>
       <c r="G15" t="n">
-        <v>40952.6015534209</v>
+        <v>39826.47217686397</v>
       </c>
       <c r="H15" t="n">
-        <v>46696.15801077036</v>
+        <v>40724.21458092627</v>
       </c>
       <c r="I15" t="n">
         <v>4813.6298052523</v>
       </c>
       <c r="J15" t="n">
-        <v>30970.37627549766</v>
+        <v>-4.385184283642688</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.385184283642688</v>
+        <v>29202.50043282954</v>
       </c>
       <c r="L15" t="n">
-        <v>6574.734143791214</v>
+        <v>5639.309748675867</v>
       </c>
       <c r="M15" t="n">
         <v>24.82834326860706</v>
       </c>
       <c r="N15" t="n">
-        <v>24518.97314410283</v>
+        <v>24375.88678071646</v>
       </c>
       <c r="O15" t="n">
         <v>35601.12773515782</v>
@@ -10044,16 +10044,16 @@
         <v>815.1653547012171</v>
       </c>
       <c r="Q15" t="n">
-        <v>11631.14304997468</v>
+        <v>3521.343723225885</v>
       </c>
       <c r="R15" t="n">
-        <v>3504.539365738467</v>
+        <v>4736.26904296875</v>
       </c>
       <c r="S15" t="n">
-        <v>4736.26904296875</v>
+        <v>5450.377000000023</v>
       </c>
       <c r="T15" t="n">
-        <v>5450.377000000023</v>
+        <v>11890.85225110224</v>
       </c>
     </row>
     <row r="16">
@@ -10076,28 +10076,28 @@
         <v>12544.45321271221</v>
       </c>
       <c r="G16" t="n">
-        <v>38388.65861764905</v>
+        <v>36120.9984052306</v>
       </c>
       <c r="H16" t="n">
-        <v>37739.43637807069</v>
+        <v>25627.10380473731</v>
       </c>
       <c r="I16" t="n">
         <v>18789.63889552532</v>
       </c>
       <c r="J16" t="n">
-        <v>30453.05315852313</v>
+        <v>12.14726727499647</v>
       </c>
       <c r="K16" t="n">
-        <v>12.14726727499647</v>
+        <v>28655.85919255016</v>
       </c>
       <c r="L16" t="n">
-        <v>9140.384764823339</v>
+        <v>9119.544873514014</v>
       </c>
       <c r="M16" t="n">
         <v>936.0897287369631</v>
       </c>
       <c r="N16" t="n">
-        <v>27801.87349746971</v>
+        <v>25837.77854984699</v>
       </c>
       <c r="O16" t="n">
         <v>3299.520914896822</v>
@@ -10106,16 +10106,16 @@
         <v>830.3488251224235</v>
       </c>
       <c r="Q16" t="n">
-        <v>24930.14407595839</v>
+        <v>9229.931137041012</v>
       </c>
       <c r="R16" t="n">
-        <v>9281.278112070962</v>
+        <v>18325.798828125</v>
       </c>
       <c r="S16" t="n">
-        <v>18325.798828125</v>
+        <v>15687.32449999998</v>
       </c>
       <c r="T16" t="n">
-        <v>15687.32449999998</v>
+        <v>22282.2182270294</v>
       </c>
     </row>
     <row r="17">
@@ -10138,28 +10138,28 @@
         <v>-15207.2246389238</v>
       </c>
       <c r="G17" t="n">
-        <v>33400.70637134711</v>
+        <v>32614.55186969912</v>
       </c>
       <c r="H17" t="n">
-        <v>17536.73684769495</v>
+        <v>12204.72804773486</v>
       </c>
       <c r="I17" t="n">
         <v>-3793.466742155067</v>
       </c>
       <c r="J17" t="n">
-        <v>25457.4566328734</v>
+        <v>-8.245867701541176</v>
       </c>
       <c r="K17" t="n">
-        <v>-8.245867701541176</v>
+        <v>26104.33381596951</v>
       </c>
       <c r="L17" t="n">
-        <v>3434.299736233509</v>
+        <v>3603.252133018347</v>
       </c>
       <c r="M17" t="n">
         <v>-445.2988233831608</v>
       </c>
       <c r="N17" t="n">
-        <v>25803.16828915028</v>
+        <v>24985.2183944784</v>
       </c>
       <c r="O17" t="n">
         <v>15718.39988815706</v>
@@ -10168,16 +10168,16 @@
         <v>808.2857352449726</v>
       </c>
       <c r="Q17" t="n">
-        <v>-21817.58010659483</v>
+        <v>-945.2958825571147</v>
       </c>
       <c r="R17" t="n">
-        <v>-2770.29945801951</v>
+        <v>-3407.679443359375</v>
       </c>
       <c r="S17" t="n">
-        <v>-3407.679443359375</v>
+        <v>-4327.76600000006</v>
       </c>
       <c r="T17" t="n">
-        <v>-4327.76600000006</v>
+        <v>-495.9660518170242</v>
       </c>
     </row>
     <row r="18">
@@ -10200,28 +10200,28 @@
         <v>-24821.2633362054</v>
       </c>
       <c r="G18" t="n">
-        <v>20607.17416079063</v>
+        <v>23483.05193642695</v>
       </c>
       <c r="H18" t="n">
-        <v>-3428.594643918423</v>
+        <v>17757.18694929032</v>
       </c>
       <c r="I18" t="n">
         <v>-29234.6983086789</v>
       </c>
       <c r="J18" t="n">
-        <v>29125.02544848917</v>
+        <v>-10.17039844376482</v>
       </c>
       <c r="K18" t="n">
-        <v>-10.17039844376482</v>
+        <v>30621.50840755103</v>
       </c>
       <c r="L18" t="n">
-        <v>-20665.45481618811</v>
+        <v>-20450.18288241044</v>
       </c>
       <c r="M18" t="n">
         <v>-1545.514383929797</v>
       </c>
       <c r="N18" t="n">
-        <v>27092.01193325816</v>
+        <v>24540.89181044175</v>
       </c>
       <c r="O18" t="n">
         <v>34304.73257755489</v>
@@ -10230,16 +10230,16 @@
         <v>798.1326687205433</v>
       </c>
       <c r="Q18" t="n">
-        <v>-30874.65817720159</v>
+        <v>-15778.33674869014</v>
       </c>
       <c r="R18" t="n">
-        <v>-15067.17236316798</v>
+        <v>-40280.16015625</v>
       </c>
       <c r="S18" t="n">
-        <v>-40280.16015625</v>
+        <v>-19984.17650000004</v>
       </c>
       <c r="T18" t="n">
-        <v>-19984.17650000004</v>
+        <v>-36319.5050685666</v>
       </c>
     </row>
     <row r="19">
@@ -10262,28 +10262,28 @@
         <v>26483.74346097398</v>
       </c>
       <c r="G19" t="n">
-        <v>33460.9687433316</v>
+        <v>31086.44254570026</v>
       </c>
       <c r="H19" t="n">
-        <v>25663.39388201757</v>
+        <v>11198.43765805438</v>
       </c>
       <c r="I19" t="n">
         <v>22970.98989501474</v>
       </c>
       <c r="J19" t="n">
-        <v>28491.97457029073</v>
+        <v>13.47062639192213</v>
       </c>
       <c r="K19" t="n">
-        <v>13.47062639192213</v>
+        <v>28700.85348499416</v>
       </c>
       <c r="L19" t="n">
-        <v>9594.939559671549</v>
+        <v>9413.188374477329</v>
       </c>
       <c r="M19" t="n">
         <v>1463.170347735893</v>
       </c>
       <c r="N19" t="n">
-        <v>27686.42226234375</v>
+        <v>25320.81618818416</v>
       </c>
       <c r="O19" t="n">
         <v>42185.63954230393</v>
@@ -10292,16 +10292,16 @@
         <v>845.9161908612255</v>
       </c>
       <c r="Q19" t="n">
-        <v>30556.77399349038</v>
+        <v>11706.76895304494</v>
       </c>
       <c r="R19" t="n">
-        <v>11915.18688854384</v>
+        <v>26833.23046875</v>
       </c>
       <c r="S19" t="n">
-        <v>26833.23046875</v>
+        <v>20413.39255000002</v>
       </c>
       <c r="T19" t="n">
-        <v>20413.39255000002</v>
+        <v>26116.41448146593</v>
       </c>
     </row>
     <row r="20">
@@ -10324,28 +10324,28 @@
         <v>7519.84600928086</v>
       </c>
       <c r="G20" t="n">
-        <v>42830.5801145014</v>
+        <v>44144.92000971959</v>
       </c>
       <c r="H20" t="n">
-        <v>34317.08264212159</v>
+        <v>43286.20027231571</v>
       </c>
       <c r="I20" t="n">
         <v>9566.629226668178</v>
       </c>
       <c r="J20" t="n">
-        <v>30537.19655382333</v>
+        <v>5.900659499826172</v>
       </c>
       <c r="K20" t="n">
-        <v>5.900659499826172</v>
+        <v>31820.66224209515</v>
       </c>
       <c r="L20" t="n">
-        <v>6327.156453029766</v>
+        <v>8364.046173038749</v>
       </c>
       <c r="M20" t="n">
         <v>498.1813245916318</v>
       </c>
       <c r="N20" t="n">
-        <v>26964.39037136136</v>
+        <v>25912.18631942271</v>
       </c>
       <c r="O20" t="n">
         <v>41166.66873265</v>
@@ -10354,16 +10354,16 @@
         <v>822.9717482486531</v>
       </c>
       <c r="Q20" t="n">
-        <v>18596.37113516228</v>
+        <v>6575.779270232578</v>
       </c>
       <c r="R20" t="n">
-        <v>6273.10728203599</v>
+        <v>15552.7724609375</v>
       </c>
       <c r="S20" t="n">
-        <v>15552.7724609375</v>
+        <v>9105.891499999983</v>
       </c>
       <c r="T20" t="n">
-        <v>9105.891499999983</v>
+        <v>17335.43348288874</v>
       </c>
     </row>
     <row r="21">
@@ -10386,28 +10386,28 @@
         <v>1941.354923659615</v>
       </c>
       <c r="G21" t="n">
-        <v>44457.38662816231</v>
+        <v>45869.93120265175</v>
       </c>
       <c r="H21" t="n">
-        <v>35070.32384064196</v>
+        <v>50734.62460680303</v>
       </c>
       <c r="I21" t="n">
         <v>-24524.92360709046</v>
       </c>
       <c r="J21" t="n">
-        <v>32968.71278235314</v>
+        <v>5.604278673204378</v>
       </c>
       <c r="K21" t="n">
-        <v>5.604278673204378</v>
+        <v>26460.85382852329</v>
       </c>
       <c r="L21" t="n">
-        <v>-13060.67244440661</v>
+        <v>-12543.33235323733</v>
       </c>
       <c r="M21" t="n">
         <v>474.0130184743061</v>
       </c>
       <c r="N21" t="n">
-        <v>26724.08601377903</v>
+        <v>27455.45622287391</v>
       </c>
       <c r="O21" t="n">
         <v>47781.19574167953</v>
@@ -10416,16 +10416,16 @@
         <v>819.554635025198</v>
       </c>
       <c r="Q21" t="n">
-        <v>-22935.19052920312</v>
+        <v>-5228.567269246333</v>
       </c>
       <c r="R21" t="n">
-        <v>-6009.248344283923</v>
+        <v>-11073.078125</v>
       </c>
       <c r="S21" t="n">
-        <v>-11073.078125</v>
+        <v>9193.818949999968</v>
       </c>
       <c r="T21" t="n">
-        <v>9193.818949999968</v>
+        <v>-13024.44740529548</v>
       </c>
     </row>
     <row r="22">
@@ -10448,28 +10448,28 @@
         <v>-3011.550679978045</v>
       </c>
       <c r="G22" t="n">
-        <v>39371.29996909836</v>
+        <v>41184.90500977622</v>
       </c>
       <c r="H22" t="n">
-        <v>32251.2705889046</v>
+        <v>45237.02514569757</v>
       </c>
       <c r="I22" t="n">
         <v>5117.630475184883</v>
       </c>
       <c r="J22" t="n">
-        <v>31055.81966130434</v>
+        <v>-3.605763338598845</v>
       </c>
       <c r="K22" t="n">
-        <v>-3.605763338598845</v>
+        <v>29684.8668368697</v>
       </c>
       <c r="L22" t="n">
-        <v>6718.597557120583</v>
+        <v>5630.472380732403</v>
       </c>
       <c r="M22" t="n">
         <v>37.80367982688841</v>
       </c>
       <c r="N22" t="n">
-        <v>24333.21753241791</v>
+        <v>25413.65108480452</v>
       </c>
       <c r="O22" t="n">
         <v>34634.16139973752</v>
@@ -10478,16 +10478,16 @@
         <v>815.2670216485263</v>
       </c>
       <c r="Q22" t="n">
-        <v>17475.22704665656</v>
+        <v>3608.218965494791</v>
       </c>
       <c r="R22" t="n">
-        <v>3541.621537779864</v>
+        <v>1702.97802734375</v>
       </c>
       <c r="S22" t="n">
-        <v>1702.97802734375</v>
+        <v>3737.835950000011</v>
       </c>
       <c r="T22" t="n">
-        <v>3737.835950000011</v>
+        <v>17662.86896520076</v>
       </c>
     </row>
     <row r="23">
@@ -10510,28 +10510,28 @@
         <v>9583.390632329862</v>
       </c>
       <c r="G23" t="n">
-        <v>37910.47621931392</v>
+        <v>36725.65883264127</v>
       </c>
       <c r="H23" t="n">
-        <v>26370.45522217972</v>
+        <v>21588.00469498633</v>
       </c>
       <c r="I23" t="n">
         <v>20588.24007449641</v>
       </c>
       <c r="J23" t="n">
-        <v>31650.22363346813</v>
+        <v>11.3119605370931</v>
       </c>
       <c r="K23" t="n">
-        <v>11.3119605370931</v>
+        <v>31468.59048556535</v>
       </c>
       <c r="L23" t="n">
-        <v>9017.280554775854</v>
+        <v>8689.387704014169</v>
       </c>
       <c r="M23" t="n">
         <v>875.1502950785473</v>
       </c>
       <c r="N23" t="n">
-        <v>27478.92279966919</v>
+        <v>24149.28476805686</v>
       </c>
       <c r="O23" t="n">
         <v>6003.950612402226</v>
@@ -10540,16 +10540,16 @@
         <v>828.8549900836035</v>
       </c>
       <c r="Q23" t="n">
-        <v>21081.56063673552</v>
+        <v>10266.78355387057</v>
       </c>
       <c r="R23" t="n">
-        <v>10143.17129218341</v>
+        <v>30820.853515625</v>
       </c>
       <c r="S23" t="n">
-        <v>30820.853515625</v>
+        <v>13889.33399999997</v>
       </c>
       <c r="T23" t="n">
-        <v>13889.33399999997</v>
+        <v>21336.63855367951</v>
       </c>
     </row>
     <row r="24">
@@ -10572,28 +10572,28 @@
         <v>-15081.54675391916</v>
       </c>
       <c r="G24" t="n">
-        <v>36594.66838949475</v>
+        <v>34925.45651369736</v>
       </c>
       <c r="H24" t="n">
-        <v>24263.66804032175</v>
+        <v>16086.39560546055</v>
       </c>
       <c r="I24" t="n">
         <v>-5448.955372074694</v>
       </c>
       <c r="J24" t="n">
-        <v>30015.86539765893</v>
+        <v>-7.28552406985662</v>
       </c>
       <c r="K24" t="n">
-        <v>-7.28552406985662</v>
+        <v>28530.51023019402</v>
       </c>
       <c r="L24" t="n">
-        <v>4392.656063266934</v>
+        <v>4310.890850201939</v>
       </c>
       <c r="M24" t="n">
         <v>-369.9595893339925</v>
       </c>
       <c r="N24" t="n">
-        <v>27733.40944976954</v>
+        <v>25711.55392151399</v>
       </c>
       <c r="O24" t="n">
         <v>20417.49800427219</v>
@@ -10602,16 +10602,16 @@
         <v>809.2751415578878</v>
       </c>
       <c r="Q24" t="n">
-        <v>-19221.15037907304</v>
+        <v>-2434.788139294384</v>
       </c>
       <c r="R24" t="n">
-        <v>-3809.978639697478</v>
+        <v>-17629.044921875</v>
       </c>
       <c r="S24" t="n">
-        <v>-17629.044921875</v>
+        <v>-2374.699000000058</v>
       </c>
       <c r="T24" t="n">
-        <v>-2374.699000000058</v>
+        <v>-2796.663632072599</v>
       </c>
     </row>
     <row r="25">
@@ -10634,28 +10634,28 @@
         <v>-21558.89817888747</v>
       </c>
       <c r="G25" t="n">
-        <v>25387.33271543447</v>
+        <v>23209.72329492441</v>
       </c>
       <c r="H25" t="n">
-        <v>17830.60621752738</v>
+        <v>8590.195825245226</v>
       </c>
       <c r="I25" t="n">
         <v>-31402.02732918993</v>
       </c>
       <c r="J25" t="n">
-        <v>33595.46395105569</v>
+        <v>-8.403860194842444</v>
       </c>
       <c r="K25" t="n">
-        <v>-8.403860194842444</v>
+        <v>31605.10855951009</v>
       </c>
       <c r="L25" t="n">
-        <v>-18516.58777000009</v>
+        <v>-18860.65303463738</v>
       </c>
       <c r="M25" t="n">
         <v>-1441.3508667432</v>
       </c>
       <c r="N25" t="n">
-        <v>28299.35030460952</v>
+        <v>24286.85014486684</v>
       </c>
       <c r="O25" t="n">
         <v>36385.80983183318</v>
@@ -10664,16 +10664,16 @@
         <v>798.3155201069316</v>
       </c>
       <c r="Q25" t="n">
-        <v>-36907.66399558201</v>
+        <v>-14176.35390882427</v>
       </c>
       <c r="R25" t="n">
-        <v>-14051.24505042684</v>
+        <v>-18534.232421875</v>
       </c>
       <c r="S25" t="n">
-        <v>-18534.232421875</v>
+        <v>-27064.32700000001</v>
       </c>
       <c r="T25" t="n">
-        <v>-27064.32700000001</v>
+        <v>-34537.9866611021</v>
       </c>
     </row>
     <row r="26">
@@ -10696,28 +10696,28 @@
         <v>18736.11461282197</v>
       </c>
       <c r="G26" t="n">
-        <v>32854.4373119766</v>
+        <v>33788.30635662492</v>
       </c>
       <c r="H26" t="n">
-        <v>18066.79128978847</v>
+        <v>25312.72064828201</v>
       </c>
       <c r="I26" t="n">
         <v>19101.11648573785</v>
       </c>
       <c r="J26" t="n">
-        <v>27923.29388215838</v>
+        <v>12.16811613007929</v>
       </c>
       <c r="K26" t="n">
-        <v>12.16811613007929</v>
+        <v>29080.21868523805</v>
       </c>
       <c r="L26" t="n">
-        <v>9224.30428077961</v>
+        <v>9413.188374477329</v>
       </c>
       <c r="M26" t="n">
         <v>1317.010628736256</v>
       </c>
       <c r="N26" t="n">
-        <v>25863.77041382416</v>
+        <v>23997.99956478922</v>
       </c>
       <c r="O26" t="n">
         <v>43484.79975885239</v>
@@ -10726,16 +10726,16 @@
         <v>842.0676621988562</v>
       </c>
       <c r="Q26" t="n">
-        <v>29053.38663437969</v>
+        <v>10226.05499975318</v>
       </c>
       <c r="R26" t="n">
-        <v>10709.56030309214</v>
+        <v>23139.029296875</v>
       </c>
       <c r="S26" t="n">
-        <v>23139.029296875</v>
+        <v>19296.26755000002</v>
       </c>
       <c r="T26" t="n">
-        <v>19296.26755000002</v>
+        <v>21267.50043207973</v>
       </c>
     </row>
     <row r="27">
@@ -10758,28 +10758,28 @@
         <v>10676.53004310741</v>
       </c>
       <c r="G27" t="n">
-        <v>45252.69577408513</v>
+        <v>45370.39281886705</v>
       </c>
       <c r="H27" t="n">
-        <v>44670.29603255537</v>
+        <v>41607.52475623337</v>
       </c>
       <c r="I27" t="n">
         <v>15952.68110171532</v>
       </c>
       <c r="J27" t="n">
-        <v>31092.79787536858</v>
+        <v>4.324484282609002</v>
       </c>
       <c r="K27" t="n">
-        <v>4.324484282609002</v>
+        <v>34925.85961445717</v>
       </c>
       <c r="L27" t="n">
-        <v>6506.04364993641</v>
+        <v>6357.359061973422</v>
       </c>
       <c r="M27" t="n">
         <v>421.2430657276935</v>
       </c>
       <c r="N27" t="n">
-        <v>27156.82392938881</v>
+        <v>27210.41278009562</v>
       </c>
       <c r="O27" t="n">
         <v>42577.17518684345</v>
@@ -10788,16 +10788,16 @@
         <v>822.123123589618</v>
       </c>
       <c r="Q27" t="n">
-        <v>23396.57848764533</v>
+        <v>6527.426376110924</v>
       </c>
       <c r="R27" t="n">
-        <v>6736.42314079901</v>
+        <v>7660.5478515625</v>
       </c>
       <c r="S27" t="n">
-        <v>7660.5478515625</v>
+        <v>10388.88049999997</v>
       </c>
       <c r="T27" t="n">
-        <v>10388.88049999997</v>
+        <v>19137.0861408928</v>
       </c>
     </row>
     <row r="28">
@@ -10820,28 +10820,28 @@
         <v>5600.505894952543</v>
       </c>
       <c r="G28" t="n">
-        <v>45136.83434646669</v>
+        <v>43996.94087203248</v>
       </c>
       <c r="H28" t="n">
-        <v>31972.6562421426</v>
+        <v>32040.10953927783</v>
       </c>
       <c r="I28" t="n">
         <v>-21349.7722409592</v>
       </c>
       <c r="J28" t="n">
-        <v>35656.54009753762</v>
+        <v>7.98851136737535</v>
       </c>
       <c r="K28" t="n">
-        <v>7.98851136737535</v>
+        <v>29831.93104406743</v>
       </c>
       <c r="L28" t="n">
-        <v>-12756.75022458325</v>
+        <v>-12400.80700666326</v>
       </c>
       <c r="M28" t="n">
         <v>602.8368673636555</v>
       </c>
       <c r="N28" t="n">
-        <v>27246.71398198901</v>
+        <v>25024.61541728451</v>
       </c>
       <c r="O28" t="n">
         <v>47981.4871920303</v>
@@ -10850,16 +10850,16 @@
         <v>821.2619558434543</v>
       </c>
       <c r="Q28" t="n">
-        <v>-24619.29899942307</v>
+        <v>-4349.632180658639</v>
       </c>
       <c r="R28" t="n">
-        <v>-5299.408242746701</v>
+        <v>-7234.28564453125</v>
       </c>
       <c r="S28" t="n">
-        <v>-7234.28564453125</v>
+        <v>9396.977449999955</v>
       </c>
       <c r="T28" t="n">
-        <v>9396.977449999955</v>
+        <v>-12390.49647227074</v>
       </c>
     </row>
     <row r="29">
@@ -10882,28 +10882,28 @@
         <v>-295.9863200005422</v>
       </c>
       <c r="G29" t="n">
-        <v>43166.68262933051</v>
+        <v>41395.18742783352</v>
       </c>
       <c r="H29" t="n">
-        <v>46157.51377810535</v>
+        <v>35867.23709187357</v>
       </c>
       <c r="I29" t="n">
         <v>7133.905434295478</v>
       </c>
       <c r="J29" t="n">
-        <v>33012.2195550978</v>
+        <v>-4.106898700616095</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.106898700616095</v>
+        <v>31154.49815828202</v>
       </c>
       <c r="L29" t="n">
-        <v>6816.505582086755</v>
+        <v>5630.472380732403</v>
       </c>
       <c r="M29" t="n">
         <v>18.192367830477</v>
       </c>
       <c r="N29" t="n">
-        <v>26202.96145757286</v>
+        <v>25950.49313014148</v>
       </c>
       <c r="O29" t="n">
         <v>39026.39812035518</v>
@@ -10912,16 +10912,16 @@
         <v>813.535389300249</v>
       </c>
       <c r="Q29" t="n">
-        <v>19319.17831807371</v>
+        <v>3506.334507323125</v>
       </c>
       <c r="R29" t="n">
-        <v>3470.526289134032</v>
+        <v>1356.231201171875</v>
       </c>
       <c r="S29" t="n">
-        <v>1356.231201171875</v>
+        <v>-232.4560000000141</v>
       </c>
       <c r="T29" t="n">
-        <v>-232.4560000000141</v>
+        <v>19051.27498161577</v>
       </c>
     </row>
     <row r="30">
@@ -10944,28 +10944,28 @@
         <v>8285.601776878128</v>
       </c>
       <c r="G30" t="n">
-        <v>40520.48883998033</v>
+        <v>40614.62531633762</v>
       </c>
       <c r="H30" t="n">
-        <v>38693.81376055179</v>
+        <v>44448.07076054958</v>
       </c>
       <c r="I30" t="n">
         <v>20407.09042872198</v>
       </c>
       <c r="J30" t="n">
-        <v>32897.77907053677</v>
+        <v>9.274774405222038</v>
       </c>
       <c r="K30" t="n">
-        <v>9.274774405222038</v>
+        <v>29365.34251991509</v>
       </c>
       <c r="L30" t="n">
-        <v>8325.304502806055</v>
+        <v>7665.05266732275</v>
       </c>
       <c r="M30" t="n">
         <v>725.1710182481579</v>
       </c>
       <c r="N30" t="n">
-        <v>27609.51622250376</v>
+        <v>26046.65110762863</v>
       </c>
       <c r="O30" t="n">
         <v>6129.476665923661</v>
@@ -10974,16 +10974,16 @@
         <v>826.7591227512129</v>
       </c>
       <c r="Q30" t="n">
-        <v>11232.75250420705</v>
+        <v>9617.248443897337</v>
       </c>
       <c r="R30" t="n">
-        <v>8827.402982654592</v>
+        <v>29076.970703125</v>
       </c>
       <c r="S30" t="n">
-        <v>29076.970703125</v>
+        <v>12434.69749999998</v>
       </c>
       <c r="T30" t="n">
-        <v>12434.69749999998</v>
+        <v>20047.96736010469</v>
       </c>
     </row>
     <row r="31">
@@ -11006,28 +11006,28 @@
         <v>-16102.60418057437</v>
       </c>
       <c r="G31" t="n">
-        <v>35949.94764330907</v>
+        <v>37452.54142047645</v>
       </c>
       <c r="H31" t="n">
-        <v>16137.32249516695</v>
+        <v>23855.46307513787</v>
       </c>
       <c r="I31" t="n">
         <v>-8370.699624495779</v>
       </c>
       <c r="J31" t="n">
-        <v>28759.37848547248</v>
+        <v>-4.78871999658485</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.78871999658485</v>
+        <v>30388.03138397334</v>
       </c>
       <c r="L31" t="n">
-        <v>4383.119487171513</v>
+        <v>4437.806433369641</v>
       </c>
       <c r="M31" t="n">
         <v>-264.5597914918802</v>
       </c>
       <c r="N31" t="n">
-        <v>26048.74412412865</v>
+        <v>27220.10708582847</v>
       </c>
       <c r="O31" t="n">
         <v>22528.89567107038</v>
@@ -11036,16 +11036,16 @@
         <v>810.7585375980128</v>
       </c>
       <c r="Q31" t="n">
-        <v>-12354.18644367486</v>
+        <v>-2175.866227862922</v>
       </c>
       <c r="R31" t="n">
-        <v>-3240.037326945445</v>
+        <v>-19374.58984375</v>
       </c>
       <c r="S31" t="n">
-        <v>-19374.58984375</v>
+        <v>1826.176999999946</v>
       </c>
       <c r="T31" t="n">
-        <v>1826.176999999946</v>
+        <v>-211.9584152434823</v>
       </c>
     </row>
   </sheetData>
@@ -11115,14 +11115,14 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>rf</t>
@@ -11150,22 +11150,22 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>weighted_differenced_models</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>gbt</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_differenced_models</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
         </is>
       </c>
     </row>
@@ -11189,28 +11189,28 @@
         <v>61106.42531200631</v>
       </c>
       <c r="G2" t="n">
-        <v>36398.60902564585</v>
+        <v>35324.44067375112</v>
       </c>
       <c r="H2" t="n">
-        <v>33959.21337291745</v>
+        <v>23032.75979219599</v>
       </c>
       <c r="I2" t="n">
         <v>84700.84847235667</v>
       </c>
       <c r="J2" t="n">
-        <v>26524.80764021201</v>
+        <v>63796.60674259328</v>
       </c>
       <c r="K2" t="n">
-        <v>63796.60674259328</v>
+        <v>29574.14197309612</v>
       </c>
       <c r="L2" t="n">
-        <v>73115.99842595335</v>
+        <v>73126.96443095001</v>
       </c>
       <c r="M2" t="n">
         <v>64864.29797424785</v>
       </c>
       <c r="N2" t="n">
-        <v>23710.68735978528</v>
+        <v>24068.62814435958</v>
       </c>
       <c r="O2" t="n">
         <v>10420.36625339445</v>
@@ -11219,16 +11219,16 @@
         <v>64617.27997616204</v>
       </c>
       <c r="Q2" t="n">
-        <v>77604.27583067759</v>
+        <v>7548.155329733634</v>
       </c>
       <c r="R2" t="n">
-        <v>7339.440332926622</v>
+        <v>71600.85687499962</v>
       </c>
       <c r="S2" t="n">
-        <v>71600.85687499962</v>
+        <v>79470.63449999959</v>
       </c>
       <c r="T2" t="n">
-        <v>79470.63449999959</v>
+        <v>78843.82583555466</v>
       </c>
     </row>
     <row r="3">
@@ -11251,28 +11251,28 @@
         <v>46763.56296036854</v>
       </c>
       <c r="G3" t="n">
-        <v>33033.00261782181</v>
+        <v>34473.20593199546</v>
       </c>
       <c r="H3" t="n">
-        <v>19225.88380319922</v>
+        <v>24483.73831584005</v>
       </c>
       <c r="I3" t="n">
         <v>76232.05967562385</v>
       </c>
       <c r="J3" t="n">
-        <v>21286.31472211926</v>
+        <v>63787.75582754576</v>
       </c>
       <c r="K3" t="n">
-        <v>63787.75582754576</v>
+        <v>26287.75008043496</v>
       </c>
       <c r="L3" t="n">
-        <v>76600.39732510954</v>
+        <v>76946.6489063647</v>
       </c>
       <c r="M3" t="n">
         <v>64410.86087013247</v>
       </c>
       <c r="N3" t="n">
-        <v>23681.52339183389</v>
+        <v>23503.65672009288</v>
       </c>
       <c r="O3" t="n">
         <v>26622.08502430787</v>
@@ -11281,16 +11281,16 @@
         <v>65424.71337109948</v>
       </c>
       <c r="Q3" t="n">
-        <v>68904.71286850215</v>
+        <v>-1223.734375366237</v>
       </c>
       <c r="R3" t="n">
-        <v>-1717.249316110821</v>
+        <v>73921.85736328087</v>
       </c>
       <c r="S3" t="n">
-        <v>73921.85736328087</v>
+        <v>73710.62949999953</v>
       </c>
       <c r="T3" t="n">
-        <v>73710.62949999953</v>
+        <v>75704.69628295614</v>
       </c>
     </row>
     <row r="4">
@@ -11313,28 +11313,28 @@
         <v>25573.66827545166</v>
       </c>
       <c r="G4" t="n">
-        <v>23862.97542012189</v>
+        <v>23501.71110061496</v>
       </c>
       <c r="H4" t="n">
-        <v>18076.87177852019</v>
+        <v>23521.38935343175</v>
       </c>
       <c r="I4" t="n">
         <v>38811.90235130258</v>
       </c>
       <c r="J4" t="n">
-        <v>31292.86609646825</v>
+        <v>63774.57542349817</v>
       </c>
       <c r="K4" t="n">
-        <v>63774.57542349817</v>
+        <v>25536.63527225404</v>
       </c>
       <c r="L4" t="n">
-        <v>50548.45356568666</v>
+        <v>49947.80449827153</v>
       </c>
       <c r="M4" t="n">
         <v>62551.00393511124</v>
       </c>
       <c r="N4" t="n">
-        <v>25660.44109184517</v>
+        <v>23443.30410459935</v>
       </c>
       <c r="O4" t="n">
         <v>43740.11813860359</v>
@@ -11343,16 +11343,16 @@
         <v>66218.01642649315</v>
       </c>
       <c r="Q4" t="n">
-        <v>32265.587729484</v>
+        <v>-16281.04066900908</v>
       </c>
       <c r="R4" t="n">
-        <v>-16672.29444029149</v>
+        <v>40084.19720703087</v>
       </c>
       <c r="S4" t="n">
-        <v>40084.19720703087</v>
+        <v>51627.23749999949</v>
       </c>
       <c r="T4" t="n">
-        <v>51627.23749999949</v>
+        <v>47335.37181328282</v>
       </c>
     </row>
     <row r="5">
@@ -11375,28 +11375,28 @@
         <v>44268.41823397622</v>
       </c>
       <c r="G5" t="n">
-        <v>32783.32530683565</v>
+        <v>32083.28700305615</v>
       </c>
       <c r="H5" t="n">
-        <v>26240.01595469861</v>
+        <v>24312.09189207255</v>
       </c>
       <c r="I5" t="n">
         <v>58618.55131857761</v>
       </c>
       <c r="J5" t="n">
-        <v>29545.65342808513</v>
+        <v>63788.73039037533</v>
       </c>
       <c r="K5" t="n">
-        <v>63788.73039037533</v>
+        <v>25299.56340940295</v>
       </c>
       <c r="L5" t="n">
-        <v>60265.75834388018</v>
+        <v>59737.27310204774</v>
       </c>
       <c r="M5" t="n">
         <v>64146.22689164715</v>
       </c>
       <c r="N5" t="n">
-        <v>24269.6085837364</v>
+        <v>25543.35453858821</v>
       </c>
       <c r="O5" t="n">
         <v>48114.74462822801</v>
@@ -11405,16 +11405,16 @@
         <v>67067.56082472758</v>
       </c>
       <c r="Q5" t="n">
-        <v>57537.05517013444</v>
+        <v>11125.24976684947</v>
       </c>
       <c r="R5" t="n">
-        <v>10840.75114063627</v>
+        <v>65505.01166015587</v>
       </c>
       <c r="S5" t="n">
-        <v>65505.01166015587</v>
+        <v>71260.49054999952</v>
       </c>
       <c r="T5" t="n">
-        <v>71260.49054999952</v>
+        <v>73527.05250689838</v>
       </c>
     </row>
     <row r="6">
@@ -11437,28 +11437,28 @@
         <v>58092.7528044351</v>
       </c>
       <c r="G6" t="n">
-        <v>42326.77530824054</v>
+        <v>41693.70286191459</v>
       </c>
       <c r="H6" t="n">
-        <v>37315.41062377689</v>
+        <v>36177.99521367697</v>
       </c>
       <c r="I6" t="n">
         <v>81055.94439838878</v>
       </c>
       <c r="J6" t="n">
-        <v>33747.1687111616</v>
+        <v>63798.61420587061</v>
       </c>
       <c r="K6" t="n">
-        <v>63798.61420587061</v>
+        <v>32474.60514376311</v>
       </c>
       <c r="L6" t="n">
-        <v>69765.98608317153</v>
+        <v>69293.20697333146</v>
       </c>
       <c r="M6" t="n">
         <v>64931.93719259054</v>
       </c>
       <c r="N6" t="n">
-        <v>24936.22083053587</v>
+        <v>22914.69268375261</v>
       </c>
       <c r="O6" t="n">
         <v>42346.0147212294</v>
@@ -11467,16 +11467,16 @@
         <v>67894.88377470123</v>
       </c>
       <c r="Q6" t="n">
-        <v>90510.22376747848</v>
+        <v>9570.603325529446</v>
       </c>
       <c r="R6" t="n">
-        <v>10643.58031000405</v>
+        <v>91364.69916015587</v>
       </c>
       <c r="S6" t="n">
-        <v>91364.69916015587</v>
+        <v>82545.71554999951</v>
       </c>
       <c r="T6" t="n">
-        <v>82545.71554999951</v>
+        <v>92184.73235251414</v>
       </c>
     </row>
     <row r="7">
@@ -11499,28 +11499,28 @@
         <v>49448.96833571709</v>
       </c>
       <c r="G7" t="n">
-        <v>41972.05703646278</v>
+        <v>41108.56297561189</v>
       </c>
       <c r="H7" t="n">
-        <v>26176.1749783717</v>
+        <v>30521.49813545791</v>
       </c>
       <c r="I7" t="n">
         <v>56061.57729637897</v>
       </c>
       <c r="J7" t="n">
-        <v>36536.77987961916</v>
+        <v>63800.64077549941</v>
       </c>
       <c r="K7" t="n">
-        <v>63800.64077549941</v>
+        <v>25131.90277559905</v>
       </c>
       <c r="L7" t="n">
-        <v>56686.56642224129</v>
+        <v>57049.67584065995</v>
       </c>
       <c r="M7" t="n">
         <v>65225.86018600363</v>
       </c>
       <c r="N7" t="n">
-        <v>24393.43824178426</v>
+        <v>25408.53376276194</v>
       </c>
       <c r="O7" t="n">
         <v>46926.72790776837</v>
@@ -11529,16 +11529,16 @@
         <v>68711.24087675588</v>
       </c>
       <c r="Q7" t="n">
-        <v>74102.59631144493</v>
+        <v>-6166.72091246647</v>
       </c>
       <c r="R7" t="n">
-        <v>-6136.075602837491</v>
+        <v>73648.74994140587</v>
       </c>
       <c r="S7" t="n">
-        <v>73648.74994140587</v>
+        <v>93745.33649999948</v>
       </c>
       <c r="T7" t="n">
-        <v>93745.33649999948</v>
+        <v>75874.157485259</v>
       </c>
     </row>
     <row r="8">
@@ -11561,28 +11561,28 @@
         <v>53681.15584600053</v>
       </c>
       <c r="G8" t="n">
-        <v>39137.12984900201</v>
+        <v>39246.18647487103</v>
       </c>
       <c r="H8" t="n">
-        <v>36345.51917366235</v>
+        <v>41454.66303636131</v>
       </c>
       <c r="I8" t="n">
         <v>60516.4701166325</v>
       </c>
       <c r="J8" t="n">
-        <v>29510.38522598295</v>
+        <v>63795.866835713</v>
       </c>
       <c r="K8" t="n">
-        <v>63795.866835713</v>
+        <v>26049.5037762828</v>
       </c>
       <c r="L8" t="n">
-        <v>62706.78961277404</v>
+        <v>62774.20668748447</v>
       </c>
       <c r="M8" t="n">
         <v>65212.92399259502</v>
       </c>
       <c r="N8" t="n">
-        <v>24203.75405243187</v>
+        <v>23318.88802051617</v>
       </c>
       <c r="O8" t="n">
         <v>39461.72967586313</v>
@@ -11591,16 +11591,16 @@
         <v>69525.54587848079</v>
       </c>
       <c r="Q8" t="n">
-        <v>72533.15744871642</v>
+        <v>3705.783098496818</v>
       </c>
       <c r="R8" t="n">
-        <v>2558.654423770621</v>
+        <v>81922.21087890587</v>
       </c>
       <c r="S8" t="n">
-        <v>81922.21087890587</v>
+        <v>97608.71249999948</v>
       </c>
       <c r="T8" t="n">
-        <v>97608.71249999948</v>
+        <v>87180.56523407417</v>
       </c>
     </row>
     <row r="9">
@@ -11623,28 +11623,28 @@
         <v>70112.71894776932</v>
       </c>
       <c r="G9" t="n">
-        <v>37090.30804728462</v>
+        <v>37129.18334843794</v>
       </c>
       <c r="H9" t="n">
-        <v>37222.1577595487</v>
+        <v>32215.17280850856</v>
       </c>
       <c r="I9" t="n">
         <v>78998.55265080868</v>
       </c>
       <c r="J9" t="n">
-        <v>27768.39159039108</v>
+        <v>63809.37399038506</v>
       </c>
       <c r="K9" t="n">
-        <v>63809.37399038506</v>
+        <v>31638.43790046571</v>
       </c>
       <c r="L9" t="n">
-        <v>72969.72618349557</v>
+        <v>72303.05257528981</v>
       </c>
       <c r="M9" t="n">
         <v>66278.69146835856</v>
       </c>
       <c r="N9" t="n">
-        <v>23010.51851207613</v>
+        <v>24419.58426111488</v>
       </c>
       <c r="O9" t="n">
         <v>6647.416987219958</v>
@@ -11653,16 +11653,16 @@
         <v>70358.39010854372</v>
       </c>
       <c r="Q9" t="n">
-        <v>100583.0075388437</v>
+        <v>9594.057509978056</v>
       </c>
       <c r="R9" t="n">
-        <v>9019.219391283077</v>
+        <v>93242.91400390587</v>
       </c>
       <c r="S9" t="n">
-        <v>93242.91400390587</v>
+        <v>113296.0369999995</v>
       </c>
       <c r="T9" t="n">
-        <v>113296.0369999995</v>
+        <v>119589.8929767458</v>
       </c>
     </row>
     <row r="10">
@@ -11685,28 +11685,28 @@
         <v>47686.5413209129</v>
       </c>
       <c r="G10" t="n">
-        <v>34674.39252425857</v>
+        <v>34403.38786694747</v>
       </c>
       <c r="H10" t="n">
-        <v>20170.30942461489</v>
+        <v>23705.23629934861</v>
       </c>
       <c r="I10" t="n">
         <v>75883.55852658355</v>
       </c>
       <c r="J10" t="n">
-        <v>30916.26933566479</v>
+        <v>63799.71734048978</v>
       </c>
       <c r="K10" t="n">
-        <v>63799.71734048978</v>
+        <v>26152.40485856084</v>
       </c>
       <c r="L10" t="n">
-        <v>77152.19073154296</v>
+        <v>76953.13844899279</v>
       </c>
       <c r="M10" t="n">
         <v>65789.00158944007</v>
       </c>
       <c r="N10" t="n">
-        <v>24729.85448917075</v>
+        <v>24061.75949036329</v>
       </c>
       <c r="O10" t="n">
         <v>22058.18637164952</v>
@@ -11715,16 +11715,16 @@
         <v>71166.29970627687</v>
       </c>
       <c r="Q10" t="n">
-        <v>81995.17833545027</v>
+        <v>-481.0651244057152</v>
       </c>
       <c r="R10" t="n">
-        <v>-1354.466669870172</v>
+        <v>100540.6908593746</v>
       </c>
       <c r="S10" t="n">
-        <v>100540.6908593746</v>
+        <v>108968.2709999994</v>
       </c>
       <c r="T10" t="n">
-        <v>108968.2709999994</v>
+        <v>111749.2008870123</v>
       </c>
     </row>
     <row r="11">
@@ -11747,28 +11747,28 @@
         <v>23639.43292687665</v>
       </c>
       <c r="G11" t="n">
-        <v>23241.24010538661</v>
+        <v>21739.90857450257</v>
       </c>
       <c r="H11" t="n">
-        <v>17635.2452970147</v>
+        <v>2486.236214007994</v>
       </c>
       <c r="I11" t="n">
         <v>45712.80184831</v>
       </c>
       <c r="J11" t="n">
-        <v>28275.84240782259</v>
+        <v>63787.40540028453</v>
       </c>
       <c r="K11" t="n">
-        <v>63787.40540028453</v>
+        <v>34464.87153840361</v>
       </c>
       <c r="L11" t="n">
-        <v>55579.32876354069</v>
+        <v>55536.87270507062</v>
       </c>
       <c r="M11" t="n">
         <v>64069.44624793545</v>
       </c>
       <c r="N11" t="n">
-        <v>25317.85704108997</v>
+        <v>23768.51627732737</v>
       </c>
       <c r="O11" t="n">
         <v>38745.74707449323</v>
@@ -11777,16 +11777,16 @@
         <v>71961.85512060751</v>
       </c>
       <c r="Q11" t="n">
-        <v>50028.09060027258</v>
+        <v>-15900.28090078614</v>
       </c>
       <c r="R11" t="n">
-        <v>-15660.73128674085</v>
+        <v>62387.69085937462</v>
       </c>
       <c r="S11" t="n">
-        <v>62387.69085937462</v>
+        <v>84647.26849999938</v>
       </c>
       <c r="T11" t="n">
-        <v>84647.26849999938</v>
+        <v>79415.62784733834</v>
       </c>
     </row>
     <row r="12">
@@ -11809,28 +11809,28 @@
         <v>52401.10290953234</v>
       </c>
       <c r="G12" t="n">
-        <v>32939.35586443548</v>
+        <v>31850.72279106883</v>
       </c>
       <c r="H12" t="n">
-        <v>26564.29207069276</v>
+        <v>19929.59186711608</v>
       </c>
       <c r="I12" t="n">
         <v>64931.59064940813</v>
       </c>
       <c r="J12" t="n">
-        <v>30747.3246036589</v>
+        <v>63801.70231312962</v>
       </c>
       <c r="K12" t="n">
-        <v>63801.70231312962</v>
+        <v>29166.03395096956</v>
       </c>
       <c r="L12" t="n">
-        <v>65423.1582319005</v>
+        <v>65610.51781819027</v>
       </c>
       <c r="M12" t="n">
         <v>65651.25148666913</v>
       </c>
       <c r="N12" t="n">
-        <v>24452.13805761187</v>
+        <v>25047.69740031136</v>
       </c>
       <c r="O12" t="n">
         <v>43055.44026560965</v>
@@ -11839,16 +11839,16 @@
         <v>72809.51122172942</v>
       </c>
       <c r="Q12" t="n">
-        <v>78734.91421085381</v>
+        <v>12397.12681616944</v>
       </c>
       <c r="R12" t="n">
-        <v>12237.24094171657</v>
+        <v>94435.71820312462</v>
       </c>
       <c r="S12" t="n">
-        <v>94435.71820312462</v>
+        <v>107329.6880499994</v>
       </c>
       <c r="T12" t="n">
-        <v>107329.6880499994</v>
+        <v>107274.8441944237</v>
       </c>
     </row>
     <row r="13">
@@ -11871,28 +11871,28 @@
         <v>59170.36815956895</v>
       </c>
       <c r="G13" t="n">
-        <v>43412.04144378558</v>
+        <v>41639.81519628251</v>
       </c>
       <c r="H13" t="n">
-        <v>43814.01866716889</v>
+        <v>42765.71776521055</v>
       </c>
       <c r="I13" t="n">
         <v>82828.27978950429</v>
       </c>
       <c r="J13" t="n">
-        <v>33231.35854157357</v>
+        <v>63809.18896594412</v>
       </c>
       <c r="K13" t="n">
-        <v>63809.18896594412</v>
+        <v>24996.14117534755</v>
       </c>
       <c r="L13" t="n">
-        <v>73880.78794510112</v>
+        <v>74617.0006010622</v>
       </c>
       <c r="M13" t="n">
         <v>66228.9759038998</v>
       </c>
       <c r="N13" t="n">
-        <v>26782.95428803413</v>
+        <v>23660.88882369696</v>
       </c>
       <c r="O13" t="n">
         <v>37670.29100100447</v>
@@ -11901,16 +11901,16 @@
         <v>73634.13495214998</v>
       </c>
       <c r="Q13" t="n">
-        <v>104477.05716829</v>
+        <v>8754.197506203793</v>
       </c>
       <c r="R13" t="n">
-        <v>8885.319106733496</v>
+        <v>117659.7631249996</v>
       </c>
       <c r="S13" t="n">
-        <v>117659.7631249996</v>
+        <v>117285.4335499994</v>
       </c>
       <c r="T13" t="n">
-        <v>117285.4335499994</v>
+        <v>128611.4405400528</v>
       </c>
     </row>
     <row r="14">
@@ -11933,28 +11933,28 @@
         <v>64072.0003989498</v>
       </c>
       <c r="G14" t="n">
-        <v>42942.45148594936</v>
+        <v>43551.59102986001</v>
       </c>
       <c r="H14" t="n">
-        <v>37407.1346483141</v>
+        <v>45158.272420077</v>
       </c>
       <c r="I14" t="n">
         <v>57885.42481479795</v>
       </c>
       <c r="J14" t="n">
-        <v>31285.46663950233</v>
+        <v>63813.80472160877</v>
       </c>
       <c r="K14" t="n">
-        <v>63813.80472160877</v>
+        <v>29389.51789349018</v>
       </c>
       <c r="L14" t="n">
-        <v>59997.51032388486</v>
+        <v>61306.24315416306</v>
       </c>
       <c r="M14" t="n">
         <v>66647.97042549694</v>
       </c>
       <c r="N14" t="n">
-        <v>24717.85421005784</v>
+        <v>23126.64199168159</v>
       </c>
       <c r="O14" t="n">
         <v>42972.37177798508</v>
@@ -11963,16 +11963,16 @@
         <v>74452.63172479862</v>
       </c>
       <c r="Q14" t="n">
-        <v>80932.65578086097</v>
+        <v>-6817.76628439592</v>
       </c>
       <c r="R14" t="n">
-        <v>-7627.65196414207</v>
+        <v>96278.44671874962</v>
       </c>
       <c r="S14" t="n">
-        <v>96278.44671874962</v>
+        <v>122875.7674999994</v>
       </c>
       <c r="T14" t="n">
-        <v>122875.7674999994</v>
+        <v>115055.342282066</v>
       </c>
     </row>
     <row r="15">
@@ -11995,28 +11995,28 @@
         <v>61421.87282684066</v>
       </c>
       <c r="G15" t="n">
-        <v>40952.6015534209</v>
+        <v>39826.47217686397</v>
       </c>
       <c r="H15" t="n">
-        <v>46696.15801077036</v>
+        <v>40724.21458092627</v>
       </c>
       <c r="I15" t="n">
         <v>62699.05462005024</v>
       </c>
       <c r="J15" t="n">
-        <v>30970.37627549766</v>
+        <v>63809.41953732513</v>
       </c>
       <c r="K15" t="n">
-        <v>63809.41953732513</v>
+        <v>29202.50043282954</v>
       </c>
       <c r="L15" t="n">
-        <v>66572.24446767608</v>
+        <v>66945.55290283893</v>
       </c>
       <c r="M15" t="n">
         <v>66672.79876876554</v>
       </c>
       <c r="N15" t="n">
-        <v>24518.97314410283</v>
+        <v>24375.88678071646</v>
       </c>
       <c r="O15" t="n">
         <v>35601.12773515782</v>
@@ -12025,16 +12025,16 @@
         <v>75267.79707949983</v>
       </c>
       <c r="Q15" t="n">
-        <v>92563.79883083564</v>
+        <v>3521.343723225885</v>
       </c>
       <c r="R15" t="n">
-        <v>3504.539365738467</v>
+        <v>101014.7157617184</v>
       </c>
       <c r="S15" t="n">
-        <v>101014.7157617184</v>
+        <v>128326.1444999994</v>
       </c>
       <c r="T15" t="n">
-        <v>128326.1444999994</v>
+        <v>126946.1945331682</v>
       </c>
     </row>
     <row r="16">
@@ -12057,28 +12057,28 @@
         <v>73966.32603955286</v>
       </c>
       <c r="G16" t="n">
-        <v>38388.65861764905</v>
+        <v>36120.9984052306</v>
       </c>
       <c r="H16" t="n">
-        <v>37739.43637807069</v>
+        <v>25627.10380473731</v>
       </c>
       <c r="I16" t="n">
         <v>81488.69351557556</v>
       </c>
       <c r="J16" t="n">
-        <v>30453.05315852313</v>
+        <v>63821.56680460012</v>
       </c>
       <c r="K16" t="n">
-        <v>63821.56680460012</v>
+        <v>28655.85919255016</v>
       </c>
       <c r="L16" t="n">
-        <v>75712.62923249941</v>
+        <v>76065.09777635294</v>
       </c>
       <c r="M16" t="n">
         <v>67608.8884975025</v>
       </c>
       <c r="N16" t="n">
-        <v>27801.87349746971</v>
+        <v>25837.77854984699</v>
       </c>
       <c r="O16" t="n">
         <v>3299.520914896822</v>
@@ -12087,16 +12087,16 @@
         <v>76098.14590462224</v>
       </c>
       <c r="Q16" t="n">
-        <v>117493.942906794</v>
+        <v>9229.931137041012</v>
       </c>
       <c r="R16" t="n">
-        <v>9281.278112070962</v>
+        <v>119340.5145898434</v>
       </c>
       <c r="S16" t="n">
-        <v>119340.5145898434</v>
+        <v>144013.4689999994</v>
       </c>
       <c r="T16" t="n">
-        <v>144013.4689999994</v>
+        <v>149228.4127601976</v>
       </c>
     </row>
     <row r="17">
@@ -12119,28 +12119,28 @@
         <v>58759.10140062906</v>
       </c>
       <c r="G17" t="n">
-        <v>33400.70637134711</v>
+        <v>32614.55186969912</v>
       </c>
       <c r="H17" t="n">
-        <v>17536.73684769495</v>
+        <v>12204.72804773486</v>
       </c>
       <c r="I17" t="n">
         <v>77695.22677342049</v>
       </c>
       <c r="J17" t="n">
-        <v>25457.4566328734</v>
+        <v>63813.32093689858</v>
       </c>
       <c r="K17" t="n">
-        <v>63813.32093689858</v>
+        <v>26104.33381596951</v>
       </c>
       <c r="L17" t="n">
-        <v>79146.92896873293</v>
+        <v>79668.34990937129</v>
       </c>
       <c r="M17" t="n">
         <v>67163.58967411934</v>
       </c>
       <c r="N17" t="n">
-        <v>25803.16828915028</v>
+        <v>24985.2183944784</v>
       </c>
       <c r="O17" t="n">
         <v>15718.39988815706</v>
@@ -12149,16 +12149,16 @@
         <v>76906.43163986722</v>
       </c>
       <c r="Q17" t="n">
-        <v>95676.3628001992</v>
+        <v>-945.2958825571147</v>
       </c>
       <c r="R17" t="n">
-        <v>-2770.29945801951</v>
+        <v>115932.835146484</v>
       </c>
       <c r="S17" t="n">
-        <v>115932.835146484</v>
+        <v>139685.7029999993</v>
       </c>
       <c r="T17" t="n">
-        <v>139685.7029999993</v>
+        <v>148732.4467083806</v>
       </c>
     </row>
     <row r="18">
@@ -12181,28 +12181,28 @@
         <v>33937.83806442365</v>
       </c>
       <c r="G18" t="n">
-        <v>20607.17416079063</v>
+        <v>23483.05193642695</v>
       </c>
       <c r="H18" t="n">
-        <v>-3428.594643918423</v>
+        <v>17757.18694929032</v>
       </c>
       <c r="I18" t="n">
         <v>48460.5284647416</v>
       </c>
       <c r="J18" t="n">
-        <v>29125.02544848917</v>
+        <v>63803.15053845482</v>
       </c>
       <c r="K18" t="n">
-        <v>63803.15053845482</v>
+        <v>30621.50840755103</v>
       </c>
       <c r="L18" t="n">
-        <v>58481.47415254482</v>
+        <v>59218.16702696085</v>
       </c>
       <c r="M18" t="n">
         <v>65618.07529018955</v>
       </c>
       <c r="N18" t="n">
-        <v>27092.01193325816</v>
+        <v>24540.89181044175</v>
       </c>
       <c r="O18" t="n">
         <v>34304.73257755489</v>
@@ -12211,16 +12211,16 @@
         <v>77704.56430858777</v>
       </c>
       <c r="Q18" t="n">
-        <v>64801.70462299762</v>
+        <v>-15778.33674869014</v>
       </c>
       <c r="R18" t="n">
-        <v>-15067.17236316798</v>
+        <v>75652.67499023399</v>
       </c>
       <c r="S18" t="n">
-        <v>75652.67499023399</v>
+        <v>119701.5264999993</v>
       </c>
       <c r="T18" t="n">
-        <v>119701.5264999993</v>
+        <v>112412.941639814</v>
       </c>
     </row>
     <row r="19">
@@ -12243,28 +12243,28 @@
         <v>60421.58152539763</v>
       </c>
       <c r="G19" t="n">
-        <v>33460.9687433316</v>
+        <v>31086.44254570026</v>
       </c>
       <c r="H19" t="n">
-        <v>25663.39388201757</v>
+        <v>11198.43765805438</v>
       </c>
       <c r="I19" t="n">
         <v>71431.51835975634</v>
       </c>
       <c r="J19" t="n">
-        <v>28491.97457029073</v>
+        <v>63816.62116484674</v>
       </c>
       <c r="K19" t="n">
-        <v>63816.62116484674</v>
+        <v>28700.85348499416</v>
       </c>
       <c r="L19" t="n">
-        <v>68076.41371221637</v>
+        <v>68631.35540143818</v>
       </c>
       <c r="M19" t="n">
         <v>67081.24563792544</v>
       </c>
       <c r="N19" t="n">
-        <v>27686.42226234375</v>
+        <v>25320.81618818416</v>
       </c>
       <c r="O19" t="n">
         <v>42185.63954230393</v>
@@ -12273,16 +12273,16 @@
         <v>78550.480499449</v>
       </c>
       <c r="Q19" t="n">
-        <v>95358.47861648799</v>
+        <v>11706.76895304494</v>
       </c>
       <c r="R19" t="n">
-        <v>11915.18688854384</v>
+        <v>102485.905458984</v>
       </c>
       <c r="S19" t="n">
-        <v>102485.905458984</v>
+        <v>140114.9190499993</v>
       </c>
       <c r="T19" t="n">
-        <v>140114.9190499993</v>
+        <v>138529.3561212799</v>
       </c>
     </row>
     <row r="20">
@@ -12305,28 +12305,28 @@
         <v>67941.42753467849</v>
       </c>
       <c r="G20" t="n">
-        <v>42830.5801145014</v>
+        <v>44144.92000971959</v>
       </c>
       <c r="H20" t="n">
-        <v>34317.08264212159</v>
+        <v>43286.20027231571</v>
       </c>
       <c r="I20" t="n">
         <v>80998.14758642451</v>
       </c>
       <c r="J20" t="n">
-        <v>30537.19655382333</v>
+        <v>63822.52182434657</v>
       </c>
       <c r="K20" t="n">
-        <v>63822.52182434657</v>
+        <v>31820.66224209515</v>
       </c>
       <c r="L20" t="n">
-        <v>74403.57016524613</v>
+        <v>76995.40157447693</v>
       </c>
       <c r="M20" t="n">
         <v>67579.42696251707</v>
       </c>
       <c r="N20" t="n">
-        <v>26964.39037136136</v>
+        <v>25912.18631942271</v>
       </c>
       <c r="O20" t="n">
         <v>41166.66873265</v>
@@ -12335,16 +12335,16 @@
         <v>79373.45224769766</v>
       </c>
       <c r="Q20" t="n">
-        <v>113954.8497516503</v>
+        <v>6575.779270232578</v>
       </c>
       <c r="R20" t="n">
-        <v>6273.10728203599</v>
+        <v>118038.6779199215</v>
       </c>
       <c r="S20" t="n">
-        <v>118038.6779199215</v>
+        <v>149220.8105499992</v>
       </c>
       <c r="T20" t="n">
-        <v>149220.8105499992</v>
+        <v>155864.7896041687</v>
       </c>
     </row>
     <row r="21">
@@ -12367,28 +12367,28 @@
         <v>69882.7824583381</v>
       </c>
       <c r="G21" t="n">
-        <v>44457.38662816231</v>
+        <v>45869.93120265175</v>
       </c>
       <c r="H21" t="n">
-        <v>35070.32384064196</v>
+        <v>50734.62460680303</v>
       </c>
       <c r="I21" t="n">
         <v>56473.22397933406</v>
       </c>
       <c r="J21" t="n">
-        <v>32968.71278235314</v>
+        <v>63828.12610301978</v>
       </c>
       <c r="K21" t="n">
-        <v>63828.12610301978</v>
+        <v>26460.85382852329</v>
       </c>
       <c r="L21" t="n">
-        <v>61342.89772083952</v>
+        <v>64452.0692212396</v>
       </c>
       <c r="M21" t="n">
         <v>68053.43998099137</v>
       </c>
       <c r="N21" t="n">
-        <v>26724.08601377903</v>
+        <v>27455.45622287391</v>
       </c>
       <c r="O21" t="n">
         <v>47781.19574167953</v>
@@ -12397,16 +12397,16 @@
         <v>80193.00688272285</v>
       </c>
       <c r="Q21" t="n">
-        <v>91019.65922244714</v>
+        <v>-5228.567269246333</v>
       </c>
       <c r="R21" t="n">
-        <v>-6009.248344283923</v>
+        <v>106965.5997949215</v>
       </c>
       <c r="S21" t="n">
-        <v>106965.5997949215</v>
+        <v>158414.6294999992</v>
       </c>
       <c r="T21" t="n">
-        <v>158414.6294999992</v>
+        <v>142840.3421988732</v>
       </c>
     </row>
     <row r="22">
@@ -12429,28 +12429,28 @@
         <v>66871.23177836006</v>
       </c>
       <c r="G22" t="n">
-        <v>39371.29996909836</v>
+        <v>41184.90500977622</v>
       </c>
       <c r="H22" t="n">
-        <v>32251.2705889046</v>
+        <v>45237.02514569757</v>
       </c>
       <c r="I22" t="n">
         <v>61590.85445451894</v>
       </c>
       <c r="J22" t="n">
-        <v>31055.81966130434</v>
+        <v>63824.52033968118</v>
       </c>
       <c r="K22" t="n">
-        <v>63824.52033968118</v>
+        <v>29684.8668368697</v>
       </c>
       <c r="L22" t="n">
-        <v>68061.4952779601</v>
+        <v>70082.541601972</v>
       </c>
       <c r="M22" t="n">
         <v>68091.24366081826</v>
       </c>
       <c r="N22" t="n">
-        <v>24333.21753241791</v>
+        <v>25413.65108480452</v>
       </c>
       <c r="O22" t="n">
         <v>34634.16139973752</v>
@@ -12459,16 +12459,16 @@
         <v>81008.27390437138</v>
       </c>
       <c r="Q22" t="n">
-        <v>108494.8862691037</v>
+        <v>3608.218965494791</v>
       </c>
       <c r="R22" t="n">
-        <v>3541.621537779864</v>
+        <v>108668.5778222652</v>
       </c>
       <c r="S22" t="n">
-        <v>108668.5778222652</v>
+        <v>162152.4654499992</v>
       </c>
       <c r="T22" t="n">
-        <v>162152.4654499992</v>
+        <v>160503.211164074</v>
       </c>
     </row>
     <row r="23">
@@ -12491,28 +12491,28 @@
         <v>76454.62241068992</v>
       </c>
       <c r="G23" t="n">
-        <v>37910.47621931392</v>
+        <v>36725.65883264127</v>
       </c>
       <c r="H23" t="n">
-        <v>26370.45522217972</v>
+        <v>21588.00469498633</v>
       </c>
       <c r="I23" t="n">
         <v>82179.09452901535</v>
       </c>
       <c r="J23" t="n">
-        <v>31650.22363346813</v>
+        <v>63835.83230021827</v>
       </c>
       <c r="K23" t="n">
-        <v>63835.83230021827</v>
+        <v>31468.59048556535</v>
       </c>
       <c r="L23" t="n">
-        <v>77078.77583273596</v>
+        <v>78771.92930598617</v>
       </c>
       <c r="M23" t="n">
         <v>68966.39395589681</v>
       </c>
       <c r="N23" t="n">
-        <v>27478.92279966919</v>
+        <v>24149.28476805686</v>
       </c>
       <c r="O23" t="n">
         <v>6003.950612402226</v>
@@ -12521,16 +12521,16 @@
         <v>81837.12889445499</v>
       </c>
       <c r="Q23" t="n">
-        <v>129576.4469058392</v>
+        <v>10266.78355387057</v>
       </c>
       <c r="R23" t="n">
-        <v>10143.17129218341</v>
+        <v>139489.4313378902</v>
       </c>
       <c r="S23" t="n">
-        <v>139489.4313378902</v>
+        <v>176041.7994499992</v>
       </c>
       <c r="T23" t="n">
-        <v>176041.7994499992</v>
+        <v>181839.8497177535</v>
       </c>
     </row>
     <row r="24">
@@ -12553,28 +12553,28 @@
         <v>61373.07565677076</v>
       </c>
       <c r="G24" t="n">
-        <v>36594.66838949475</v>
+        <v>34925.45651369736</v>
       </c>
       <c r="H24" t="n">
-        <v>24263.66804032175</v>
+        <v>16086.39560546055</v>
       </c>
       <c r="I24" t="n">
         <v>76730.13915694066</v>
       </c>
       <c r="J24" t="n">
-        <v>30015.86539765893</v>
+        <v>63828.54677614842</v>
       </c>
       <c r="K24" t="n">
-        <v>63828.54677614842</v>
+        <v>28530.51023019402</v>
       </c>
       <c r="L24" t="n">
-        <v>81471.43189600289</v>
+        <v>83082.8201561881</v>
       </c>
       <c r="M24" t="n">
         <v>68596.43436656283</v>
       </c>
       <c r="N24" t="n">
-        <v>27733.40944976954</v>
+        <v>25711.55392151399</v>
       </c>
       <c r="O24" t="n">
         <v>20417.49800427219</v>
@@ -12583,16 +12583,16 @@
         <v>82646.40403601287</v>
       </c>
       <c r="Q24" t="n">
-        <v>110355.2965267662</v>
+        <v>-2434.788139294384</v>
       </c>
       <c r="R24" t="n">
-        <v>-3809.978639697478</v>
+        <v>121860.3864160152</v>
       </c>
       <c r="S24" t="n">
-        <v>121860.3864160152</v>
+        <v>173667.1004499991</v>
       </c>
       <c r="T24" t="n">
-        <v>173667.1004499991</v>
+        <v>179043.1860856809</v>
       </c>
     </row>
     <row r="25">
@@ -12615,28 +12615,28 @@
         <v>39814.17747788329</v>
       </c>
       <c r="G25" t="n">
-        <v>25387.33271543447</v>
+        <v>23209.72329492441</v>
       </c>
       <c r="H25" t="n">
-        <v>17830.60621752738</v>
+        <v>8590.195825245226</v>
       </c>
       <c r="I25" t="n">
         <v>45328.11182775072</v>
       </c>
       <c r="J25" t="n">
-        <v>33595.46395105569</v>
+        <v>63820.14291595358</v>
       </c>
       <c r="K25" t="n">
-        <v>63820.14291595358</v>
+        <v>31605.10855951009</v>
       </c>
       <c r="L25" t="n">
-        <v>62954.8441260028</v>
+        <v>64222.16712155072</v>
       </c>
       <c r="M25" t="n">
         <v>67155.08349981962</v>
       </c>
       <c r="N25" t="n">
-        <v>28299.35030460952</v>
+        <v>24286.85014486684</v>
       </c>
       <c r="O25" t="n">
         <v>36385.80983183318</v>
@@ -12645,16 +12645,16 @@
         <v>83444.7195561198</v>
       </c>
       <c r="Q25" t="n">
-        <v>73447.63253118416</v>
+        <v>-14176.35390882427</v>
       </c>
       <c r="R25" t="n">
-        <v>-14051.24505042684</v>
+        <v>103326.1539941402</v>
       </c>
       <c r="S25" t="n">
-        <v>103326.1539941402</v>
+        <v>146602.7734499991</v>
       </c>
       <c r="T25" t="n">
-        <v>146602.7734499991</v>
+        <v>144505.1994245788</v>
       </c>
     </row>
     <row r="26">
@@ -12677,28 +12677,28 @@
         <v>58550.29209070526</v>
       </c>
       <c r="G26" t="n">
-        <v>32854.4373119766</v>
+        <v>33788.30635662492</v>
       </c>
       <c r="H26" t="n">
-        <v>18066.79128978847</v>
+        <v>25312.72064828201</v>
       </c>
       <c r="I26" t="n">
         <v>64429.22831348857</v>
       </c>
       <c r="J26" t="n">
-        <v>27923.29388215838</v>
+        <v>63832.31103208366</v>
       </c>
       <c r="K26" t="n">
-        <v>63832.31103208366</v>
+        <v>29080.21868523805</v>
       </c>
       <c r="L26" t="n">
-        <v>72179.14840678242</v>
+        <v>73635.35549602806</v>
       </c>
       <c r="M26" t="n">
         <v>68472.09412855588</v>
       </c>
       <c r="N26" t="n">
-        <v>25863.77041382416</v>
+        <v>23997.99956478922</v>
       </c>
       <c r="O26" t="n">
         <v>43484.79975885239</v>
@@ -12707,16 +12707,16 @@
         <v>84286.78721831866</v>
       </c>
       <c r="Q26" t="n">
-        <v>102501.0191655639</v>
+        <v>10226.05499975318</v>
       </c>
       <c r="R26" t="n">
-        <v>10709.56030309214</v>
+        <v>126465.1832910152</v>
       </c>
       <c r="S26" t="n">
-        <v>126465.1832910152</v>
+        <v>165899.0409999991</v>
       </c>
       <c r="T26" t="n">
-        <v>165899.0409999991</v>
+        <v>165772.6998566585</v>
       </c>
     </row>
     <row r="27">
@@ -12739,28 +12739,28 @@
         <v>69226.82213381268</v>
       </c>
       <c r="G27" t="n">
-        <v>45252.69577408513</v>
+        <v>45370.39281886705</v>
       </c>
       <c r="H27" t="n">
-        <v>44670.29603255537</v>
+        <v>41607.52475623337</v>
       </c>
       <c r="I27" t="n">
         <v>80381.90941520389</v>
       </c>
       <c r="J27" t="n">
-        <v>31092.79787536858</v>
+        <v>63836.63551636627</v>
       </c>
       <c r="K27" t="n">
-        <v>63836.63551636627</v>
+        <v>34925.85961445717</v>
       </c>
       <c r="L27" t="n">
-        <v>78685.19205671884</v>
+        <v>79992.71455800148</v>
       </c>
       <c r="M27" t="n">
         <v>68893.33719428358</v>
       </c>
       <c r="N27" t="n">
-        <v>27156.82392938881</v>
+        <v>27210.41278009562</v>
       </c>
       <c r="O27" t="n">
         <v>42577.17518684345</v>
@@ -12769,16 +12769,16 @@
         <v>85108.91034190827</v>
       </c>
       <c r="Q27" t="n">
-        <v>125897.5976532092</v>
+        <v>6527.426376110924</v>
       </c>
       <c r="R27" t="n">
-        <v>6736.42314079901</v>
+        <v>134125.7311425777</v>
       </c>
       <c r="S27" t="n">
-        <v>134125.7311425777</v>
+        <v>176287.9214999991</v>
       </c>
       <c r="T27" t="n">
-        <v>176287.9214999991</v>
+        <v>184909.7859975513</v>
       </c>
     </row>
     <row r="28">
@@ -12801,28 +12801,28 @@
         <v>74827.32802876522</v>
       </c>
       <c r="G28" t="n">
-        <v>45136.83434646669</v>
+        <v>43996.94087203248</v>
       </c>
       <c r="H28" t="n">
-        <v>31972.6562421426</v>
+        <v>32040.10953927783</v>
       </c>
       <c r="I28" t="n">
         <v>59032.13717424469</v>
       </c>
       <c r="J28" t="n">
-        <v>35656.54009753762</v>
+        <v>63844.62402773364</v>
       </c>
       <c r="K28" t="n">
-        <v>63844.62402773364</v>
+        <v>29831.93104406743</v>
       </c>
       <c r="L28" t="n">
-        <v>65928.44183213558</v>
+        <v>67591.90755133821</v>
       </c>
       <c r="M28" t="n">
         <v>69496.17406164724</v>
       </c>
       <c r="N28" t="n">
-        <v>27246.71398198901</v>
+        <v>25024.61541728451</v>
       </c>
       <c r="O28" t="n">
         <v>47981.4871920303</v>
@@ -12831,16 +12831,16 @@
         <v>85930.17229775172</v>
       </c>
       <c r="Q28" t="n">
-        <v>101278.2986537861</v>
+        <v>-4349.632180658639</v>
       </c>
       <c r="R28" t="n">
-        <v>-5299.408242746701</v>
+        <v>126891.4454980465</v>
       </c>
       <c r="S28" t="n">
-        <v>126891.4454980465</v>
+        <v>185684.898949999</v>
       </c>
       <c r="T28" t="n">
-        <v>185684.898949999</v>
+        <v>172519.2895252805</v>
       </c>
     </row>
     <row r="29">
@@ -12863,28 +12863,28 @@
         <v>74531.34170876467</v>
       </c>
       <c r="G29" t="n">
-        <v>43166.68262933051</v>
+        <v>41395.18742783352</v>
       </c>
       <c r="H29" t="n">
-        <v>46157.51377810535</v>
+        <v>35867.23709187357</v>
       </c>
       <c r="I29" t="n">
         <v>66166.04260854017</v>
       </c>
       <c r="J29" t="n">
-        <v>33012.2195550978</v>
+        <v>63840.51712903303</v>
       </c>
       <c r="K29" t="n">
-        <v>63840.51712903303</v>
+        <v>31154.49815828202</v>
       </c>
       <c r="L29" t="n">
-        <v>72744.94741422233</v>
+        <v>73222.37993207062</v>
       </c>
       <c r="M29" t="n">
         <v>69514.36642947771</v>
       </c>
       <c r="N29" t="n">
-        <v>26202.96145757286</v>
+        <v>25950.49313014148</v>
       </c>
       <c r="O29" t="n">
         <v>39026.39812035518</v>
@@ -12893,16 +12893,16 @@
         <v>86743.70768705197</v>
       </c>
       <c r="Q29" t="n">
-        <v>120597.4769718598</v>
+        <v>3506.334507323125</v>
       </c>
       <c r="R29" t="n">
-        <v>3470.526289134032</v>
+        <v>128247.6766992184</v>
       </c>
       <c r="S29" t="n">
-        <v>128247.6766992184</v>
+        <v>185452.442949999</v>
       </c>
       <c r="T29" t="n">
-        <v>185452.442949999</v>
+        <v>191570.5645068963</v>
       </c>
     </row>
     <row r="30">
@@ -12925,28 +12925,28 @@
         <v>82816.9434856428</v>
       </c>
       <c r="G30" t="n">
-        <v>40520.48883998033</v>
+        <v>40614.62531633762</v>
       </c>
       <c r="H30" t="n">
-        <v>38693.81376055179</v>
+        <v>44448.07076054958</v>
       </c>
       <c r="I30" t="n">
         <v>86573.13303726215</v>
       </c>
       <c r="J30" t="n">
-        <v>32897.77907053677</v>
+        <v>63849.79190343825</v>
       </c>
       <c r="K30" t="n">
-        <v>63849.79190343825</v>
+        <v>29365.34251991509</v>
       </c>
       <c r="L30" t="n">
-        <v>81070.25191702839</v>
+        <v>80887.43259939336</v>
       </c>
       <c r="M30" t="n">
         <v>70239.53744772587</v>
       </c>
       <c r="N30" t="n">
-        <v>27609.51622250376</v>
+        <v>26046.65110762863</v>
       </c>
       <c r="O30" t="n">
         <v>6129.476665923661</v>
@@ -12955,16 +12955,16 @@
         <v>87570.46680980318</v>
       </c>
       <c r="Q30" t="n">
-        <v>131830.2294760669</v>
+        <v>9617.248443897337</v>
       </c>
       <c r="R30" t="n">
-        <v>8827.402982654592</v>
+        <v>157324.6474023434</v>
       </c>
       <c r="S30" t="n">
-        <v>157324.6474023434</v>
+        <v>197887.140449999</v>
       </c>
       <c r="T30" t="n">
-        <v>197887.140449999</v>
+        <v>211618.531867001</v>
       </c>
     </row>
     <row r="31">
@@ -12987,28 +12987,28 @@
         <v>66714.33930506842</v>
       </c>
       <c r="G31" t="n">
-        <v>35949.94764330907</v>
+        <v>37452.54142047645</v>
       </c>
       <c r="H31" t="n">
-        <v>16137.32249516695</v>
+        <v>23855.46307513787</v>
       </c>
       <c r="I31" t="n">
         <v>78202.43341276636</v>
       </c>
       <c r="J31" t="n">
-        <v>28759.37848547248</v>
+        <v>63845.00318344167</v>
       </c>
       <c r="K31" t="n">
-        <v>63845.00318344167</v>
+        <v>30388.03138397334</v>
       </c>
       <c r="L31" t="n">
-        <v>85453.3714041999</v>
+        <v>85325.239032763</v>
       </c>
       <c r="M31" t="n">
         <v>69974.977656234</v>
       </c>
       <c r="N31" t="n">
-        <v>26048.74412412865</v>
+        <v>27220.10708582847</v>
       </c>
       <c r="O31" t="n">
         <v>22528.89567107038</v>
@@ -13017,16 +13017,16 @@
         <v>88381.2253474012</v>
       </c>
       <c r="Q31" t="n">
-        <v>119476.043032392</v>
+        <v>-2175.866227862922</v>
       </c>
       <c r="R31" t="n">
-        <v>-3240.037326945445</v>
+        <v>137950.0575585934</v>
       </c>
       <c r="S31" t="n">
-        <v>137950.0575585934</v>
+        <v>199713.317449999</v>
       </c>
       <c r="T31" t="n">
-        <v>199713.317449999</v>
+        <v>211406.5734517575</v>
       </c>
     </row>
   </sheetData>
@@ -13091,14 +13091,14 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rf</t>
@@ -13126,22 +13126,22 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>weighted_differenced_models</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>gbt</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_differenced_models</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
         </is>
       </c>
     </row>
@@ -13162,28 +13162,28 @@
         <v>25988.00470708264</v>
       </c>
       <c r="F2" t="n">
-        <v>23423.26526687976</v>
+        <v>26562.81259985339</v>
       </c>
       <c r="G2" t="n">
-        <v>8011.839406525934</v>
+        <v>23193.18913063018</v>
       </c>
       <c r="H2" t="n">
         <v>60555.59395910171</v>
       </c>
       <c r="I2" t="n">
-        <v>48524.40864297267</v>
+        <v>108565.4444034296</v>
       </c>
       <c r="J2" t="n">
-        <v>108565.4444034296</v>
+        <v>53904.62846255179</v>
       </c>
       <c r="K2" t="n">
-        <v>72346.90536459754</v>
+        <v>73179.08951516</v>
       </c>
       <c r="L2" t="n">
         <v>106376.2657446233</v>
       </c>
       <c r="M2" t="n">
-        <v>37629.42856023368</v>
+        <v>39044.69034736571</v>
       </c>
       <c r="N2" t="n">
         <v>10420.36625339445</v>
@@ -13192,16 +13192,16 @@
         <v>109813.6508850337</v>
       </c>
       <c r="P2" t="n">
-        <v>59750.32546823113</v>
+        <v>-20430.72104420088</v>
       </c>
       <c r="Q2" t="n">
-        <v>-21645.36584114237</v>
+        <v>76602.86578124992</v>
       </c>
       <c r="R2" t="n">
-        <v>76602.86578124992</v>
+        <v>78565.2549999999</v>
       </c>
       <c r="S2" t="n">
-        <v>78565.2549999999</v>
+        <v>75319.10958014539</v>
       </c>
     </row>
     <row r="3">
@@ -13221,28 +13221,28 @@
         <v>42545.11076950476</v>
       </c>
       <c r="F3" t="n">
-        <v>36801.18830215338</v>
+        <v>39725.41945092741</v>
       </c>
       <c r="G3" t="n">
-        <v>21250.73700467942</v>
+        <v>40959.37006652829</v>
       </c>
       <c r="H3" t="n">
         <v>89157.25744008778</v>
       </c>
       <c r="I3" t="n">
-        <v>51984.52855330821</v>
+        <v>108579.5864920387</v>
       </c>
       <c r="J3" t="n">
-        <v>108579.5864920387</v>
+        <v>51343.28608941491</v>
       </c>
       <c r="K3" t="n">
-        <v>82994.78120491109</v>
+        <v>82967.67343942903</v>
       </c>
       <c r="L3" t="n">
         <v>108224.8474688012</v>
       </c>
       <c r="M3" t="n">
-        <v>37865.44143399951</v>
+        <v>39267.66887746211</v>
       </c>
       <c r="N3" t="n">
         <v>26622.08502430787</v>
@@ -13251,16 +13251,16 @@
         <v>111112.0233006222</v>
       </c>
       <c r="P3" t="n">
-        <v>93059.08984760923</v>
+        <v>14174.7010521842</v>
       </c>
       <c r="Q3" t="n">
-        <v>13482.95433404219</v>
+        <v>110715.5571874999</v>
       </c>
       <c r="R3" t="n">
-        <v>110715.5571874999</v>
+        <v>98006.71899999995</v>
       </c>
       <c r="S3" t="n">
-        <v>98006.71899999995</v>
+        <v>114345.4698794566</v>
       </c>
     </row>
     <row r="4">
@@ -13280,28 +13280,28 @@
         <v>83525.76067228391</v>
       </c>
       <c r="F4" t="n">
-        <v>56823.02780660756</v>
+        <v>58454.53183301635</v>
       </c>
       <c r="G4" t="n">
-        <v>52216.39943107183</v>
+        <v>61671.38871617193</v>
       </c>
       <c r="H4" t="n">
         <v>115547.7362451855</v>
       </c>
       <c r="I4" t="n">
-        <v>55718.88095833297</v>
+        <v>108593.2259700907</v>
       </c>
       <c r="J4" t="n">
-        <v>108593.2259700907</v>
+        <v>55608.30260881181</v>
       </c>
       <c r="K4" t="n">
-        <v>97864.5656246775</v>
+        <v>98304.4244333008</v>
       </c>
       <c r="L4" t="n">
         <v>109680.731307274</v>
       </c>
       <c r="M4" t="n">
-        <v>35072.79123568055</v>
+        <v>37148.90848496315</v>
       </c>
       <c r="N4" t="n">
         <v>43740.11813860359</v>
@@ -13310,16 +13310,16 @@
         <v>112390.3665018114</v>
       </c>
       <c r="P4" t="n">
-        <v>139010.3085508819</v>
+        <v>11730.99459239774</v>
       </c>
       <c r="Q4" t="n">
-        <v>15306.08309637296</v>
+        <v>147679.8032812499</v>
       </c>
       <c r="R4" t="n">
-        <v>147679.8032812499</v>
+        <v>116396.7545</v>
       </c>
       <c r="S4" t="n">
-        <v>116396.7545</v>
+        <v>118146.4803048125</v>
       </c>
     </row>
     <row r="5">
@@ -13339,28 +13339,28 @@
         <v>75142.64166326725</v>
       </c>
       <c r="F5" t="n">
-        <v>55958.37820941483</v>
+        <v>58058.66881304417</v>
       </c>
       <c r="G5" t="n">
-        <v>52914.74966484543</v>
+        <v>74977.88741040582</v>
       </c>
       <c r="H5" t="n">
         <v>102445.8477539441</v>
       </c>
       <c r="I5" t="n">
-        <v>57149.63639926071</v>
+        <v>108596.4483765032</v>
       </c>
       <c r="J5" t="n">
-        <v>108596.4483765032</v>
+        <v>53534.8970725369</v>
       </c>
       <c r="K5" t="n">
-        <v>86328.28276540252</v>
+        <v>85047.73601991033</v>
       </c>
       <c r="L5" t="n">
         <v>110031.7655786594</v>
       </c>
       <c r="M5" t="n">
-        <v>39630.43653669831</v>
+        <v>35884.07234326717</v>
       </c>
       <c r="N5" t="n">
         <v>48114.74462822801</v>
@@ -13369,16 +13369,16 @@
         <v>113653.0946916248</v>
       </c>
       <c r="P5" t="n">
-        <v>114824.9050837805</v>
+        <v>-2951.215820517049</v>
       </c>
       <c r="Q5" t="n">
-        <v>-4912.259060638773</v>
+        <v>138636.0298437499</v>
       </c>
       <c r="R5" t="n">
-        <v>138636.0298437499</v>
+        <v>123022.5224999999</v>
       </c>
       <c r="S5" t="n">
-        <v>123022.5224999999</v>
+        <v>119515.4704854814</v>
       </c>
     </row>
     <row r="6">
@@ -13398,28 +13398,28 @@
         <v>70758.12640939264</v>
       </c>
       <c r="F6" t="n">
-        <v>49057.12941814982</v>
+        <v>53710.29164327048</v>
       </c>
       <c r="G6" t="n">
-        <v>24209.82101579605</v>
+        <v>58697.18965558166</v>
       </c>
       <c r="H6" t="n">
         <v>104169.5104160463</v>
       </c>
       <c r="I6" t="n">
-        <v>53511.02558463986</v>
+        <v>108589.0701596943</v>
       </c>
       <c r="J6" t="n">
-        <v>108589.0701596943</v>
+        <v>53785.80171630438</v>
       </c>
       <c r="K6" t="n">
-        <v>90326.46627451273</v>
+        <v>89491.89061294637</v>
       </c>
       <c r="L6" t="n">
         <v>110032.0294112384</v>
       </c>
       <c r="M6" t="n">
-        <v>38406.61586322722</v>
+        <v>36216.6066676217</v>
       </c>
       <c r="N6" t="n">
         <v>42346.0147212294</v>
@@ -13428,16 +13428,16 @@
         <v>114910.4336493572</v>
       </c>
       <c r="P6" t="n">
-        <v>127005.3766131736</v>
+        <v>2918.467829571567</v>
       </c>
       <c r="Q6" t="n">
-        <v>3116.807781860962</v>
+        <v>157111.4907812499</v>
       </c>
       <c r="R6" t="n">
-        <v>157111.4907812499</v>
+        <v>117671.3559999999</v>
       </c>
       <c r="S6" t="n">
-        <v>117671.3559999999</v>
+        <v>127768.3393052863</v>
       </c>
     </row>
     <row r="7">
@@ -13457,28 +13457,28 @@
         <v>80867.68877050304</v>
       </c>
       <c r="F7" t="n">
-        <v>54668.15249698053</v>
+        <v>55586.14778616617</v>
       </c>
       <c r="G7" t="n">
-        <v>50928.94410808261</v>
+        <v>59020.94488997216</v>
       </c>
       <c r="H7" t="n">
         <v>111129.6433683446</v>
       </c>
       <c r="I7" t="n">
-        <v>54291.91803249474</v>
+        <v>108602.1293923289</v>
       </c>
       <c r="J7" t="n">
-        <v>108602.1293923289</v>
+        <v>49186.21870576438</v>
       </c>
       <c r="K7" t="n">
-        <v>98003.23275846829</v>
+        <v>99000.3718957067</v>
       </c>
       <c r="L7" t="n">
         <v>111148.1907786051</v>
       </c>
       <c r="M7" t="n">
-        <v>36170.7017025536</v>
+        <v>39610.36727169391</v>
       </c>
       <c r="N7" t="n">
         <v>46926.72790776837</v>
@@ -13487,16 +13487,16 @@
         <v>116184.2179396992</v>
       </c>
       <c r="P7" t="n">
-        <v>147009.8244824206</v>
+        <v>8157.999955864544</v>
       </c>
       <c r="Q7" t="n">
-        <v>8115.744522555244</v>
+        <v>183874.9087499999</v>
       </c>
       <c r="R7" t="n">
-        <v>183874.9087499999</v>
+        <v>131089.5364999999</v>
       </c>
       <c r="S7" t="n">
-        <v>131089.5364999999</v>
+        <v>144136.4817145766</v>
       </c>
     </row>
     <row r="8">
@@ -13516,28 +13516,28 @@
         <v>74518.95076262734</v>
       </c>
       <c r="F8" t="n">
-        <v>50569.56606940536</v>
+        <v>52443.68843619554</v>
       </c>
       <c r="G8" t="n">
-        <v>32526.76777588305</v>
+        <v>48806.32648180659</v>
       </c>
       <c r="H8" t="n">
         <v>127519.5518588954</v>
       </c>
       <c r="I8" t="n">
-        <v>56005.7465408289</v>
+        <v>108597.3388890301</v>
       </c>
       <c r="J8" t="n">
-        <v>108597.3388890301</v>
+        <v>52963.94881110902</v>
       </c>
       <c r="K8" t="n">
-        <v>107193.8742261929</v>
+        <v>107872.6519785293</v>
       </c>
       <c r="L8" t="n">
         <v>111222.7118179578</v>
       </c>
       <c r="M8" t="n">
-        <v>39828.94169510361</v>
+        <v>39710.03728643116</v>
       </c>
       <c r="N8" t="n">
         <v>39461.72967586313</v>
@@ -13546,16 +13546,16 @@
         <v>117443.4909110538</v>
       </c>
       <c r="P8" t="n">
-        <v>158801.5858166401</v>
+        <v>8216.420848466176</v>
       </c>
       <c r="Q8" t="n">
-        <v>7955.134664332276</v>
+        <v>207659.4575781249</v>
       </c>
       <c r="R8" t="n">
-        <v>207659.4575781249</v>
+        <v>144944.8989999998</v>
       </c>
       <c r="S8" t="n">
-        <v>144944.8989999998</v>
+        <v>158535.4055331613</v>
       </c>
     </row>
     <row r="9">
@@ -13575,28 +13575,28 @@
         <v>28222.2471859495</v>
       </c>
       <c r="F9" t="n">
-        <v>26248.59450923187</v>
+        <v>27444.50594211829</v>
       </c>
       <c r="G9" t="n">
-        <v>19981.17316285907</v>
+        <v>24439.79401804773</v>
       </c>
       <c r="H9" t="n">
         <v>84503.20038429985</v>
       </c>
       <c r="I9" t="n">
-        <v>55835.77585175748</v>
+        <v>108585.1258346042</v>
       </c>
       <c r="J9" t="n">
-        <v>108585.1258346042</v>
+        <v>54863.72058059807</v>
       </c>
       <c r="K9" t="n">
-        <v>81354.80335687239</v>
+        <v>80570.60952603893</v>
       </c>
       <c r="L9" t="n">
         <v>109368.9313345952</v>
       </c>
       <c r="M9" t="n">
-        <v>36329.69286628482</v>
+        <v>41214.50731246051</v>
       </c>
       <c r="N9" t="n">
         <v>6647.416987219958</v>
@@ -13605,16 +13605,16 @@
         <v>118681.3274226899</v>
       </c>
       <c r="P9" t="n">
-        <v>122701.5990585069</v>
+        <v>-19468.96597585992</v>
       </c>
       <c r="Q9" t="n">
-        <v>-19032.41021702632</v>
+        <v>171319.1294531249</v>
       </c>
       <c r="R9" t="n">
-        <v>171319.1294531249</v>
+        <v>111137.6589999998</v>
       </c>
       <c r="S9" t="n">
-        <v>111137.6589999998</v>
+        <v>122306.5052610499</v>
       </c>
     </row>
     <row r="10">
@@ -13634,28 +13634,28 @@
         <v>55256.34963392222</v>
       </c>
       <c r="F10" t="n">
-        <v>37976.55947349466</v>
+        <v>36973.51504563846</v>
       </c>
       <c r="G10" t="n">
-        <v>32155.05922996399</v>
+        <v>13732.60653295993</v>
       </c>
       <c r="H10" t="n">
         <v>105575.8140555845</v>
       </c>
       <c r="I10" t="n">
-        <v>48346.99206890043</v>
+        <v>108598.1311065214</v>
       </c>
       <c r="J10" t="n">
-        <v>108598.1311065214</v>
+        <v>56140.36141090031</v>
       </c>
       <c r="K10" t="n">
-        <v>90638.87135707097</v>
+        <v>89438.30651548854</v>
       </c>
       <c r="L10" t="n">
         <v>111067.60730482</v>
       </c>
       <c r="M10" t="n">
-        <v>37170.74457013723</v>
+        <v>40778.51693014798</v>
       </c>
       <c r="N10" t="n">
         <v>22058.18637164952</v>
@@ -13664,16 +13664,16 @@
         <v>119976.1258085394</v>
       </c>
       <c r="P10" t="n">
-        <v>153731.6406377964</v>
+        <v>11993.52086398919</v>
       </c>
       <c r="Q10" t="n">
-        <v>11880.63894949834</v>
+        <v>201986.4868749999</v>
       </c>
       <c r="R10" t="n">
-        <v>201986.4868749999</v>
+        <v>128545.6624999999</v>
       </c>
       <c r="S10" t="n">
-        <v>128545.6624999999</v>
+        <v>152502.341482312</v>
       </c>
     </row>
     <row r="11">
@@ -13693,28 +13693,28 @@
         <v>77462.62061516479</v>
       </c>
       <c r="F11" t="n">
-        <v>58549.56818050266</v>
+        <v>57519.5180311674</v>
       </c>
       <c r="G11" t="n">
-        <v>62898.13791025395</v>
+        <v>52556.79060409303</v>
       </c>
       <c r="H11" t="n">
         <v>137758.9044871912</v>
       </c>
       <c r="I11" t="n">
-        <v>50415.16186335381</v>
+        <v>108609.2894028803</v>
       </c>
       <c r="J11" t="n">
-        <v>108609.2894028803</v>
+        <v>51993.76391001936</v>
       </c>
       <c r="K11" t="n">
-        <v>102404.1028608108</v>
+        <v>102103.8143869447</v>
       </c>
       <c r="L11" t="n">
         <v>112123.1318897053</v>
       </c>
       <c r="M11" t="n">
-        <v>40544.18674225804</v>
+        <v>42096.58095640656</v>
       </c>
       <c r="N11" t="n">
         <v>38745.74707449323</v>
@@ -13723,16 +13723,16 @@
         <v>121249.7664627177</v>
       </c>
       <c r="P11" t="n">
-        <v>199771.1168236405</v>
+        <v>15162.19236463973</v>
       </c>
       <c r="Q11" t="n">
-        <v>16189.14942514878</v>
+        <v>248027.4634374999</v>
       </c>
       <c r="R11" t="n">
-        <v>248027.4634374999</v>
+        <v>147616.8994999999</v>
       </c>
       <c r="S11" t="n">
-        <v>147616.8994999999</v>
+        <v>182606.5485392695</v>
       </c>
     </row>
     <row r="12">
@@ -13752,28 +13752,28 @@
         <v>66308.86620490329</v>
       </c>
       <c r="F12" t="n">
-        <v>56572.03716168186</v>
+        <v>55017.76934152922</v>
       </c>
       <c r="G12" t="n">
-        <v>65136.744368329</v>
+        <v>53506.28494077797</v>
       </c>
       <c r="H12" t="n">
         <v>121809.7087365097</v>
       </c>
       <c r="I12" t="n">
-        <v>50637.3928926092</v>
+        <v>108616.4824920849</v>
       </c>
       <c r="J12" t="n">
-        <v>108616.4824920849</v>
+        <v>47602.93102612134</v>
       </c>
       <c r="K12" t="n">
-        <v>91272.04181297697</v>
+        <v>87766.58254113862</v>
       </c>
       <c r="L12" t="n">
         <v>112739.0718483844</v>
       </c>
       <c r="M12" t="n">
-        <v>37044.6660949516</v>
+        <v>40829.71264792201</v>
       </c>
       <c r="N12" t="n">
         <v>43055.44026560965</v>
@@ -13782,16 +13782,16 @@
         <v>122515.8638107193</v>
       </c>
       <c r="P12" t="n">
-        <v>182499.7865986456</v>
+        <v>-2366.24385849787</v>
       </c>
       <c r="Q12" t="n">
-        <v>-3595.106402943621</v>
+        <v>246708.943540039</v>
       </c>
       <c r="R12" t="n">
-        <v>246708.943540039</v>
+        <v>155969.5819999998</v>
       </c>
       <c r="S12" t="n">
-        <v>155969.5819999998</v>
+        <v>184487.0755072224</v>
       </c>
     </row>
     <row r="13">
@@ -13811,28 +13811,28 @@
         <v>65082.73305116723</v>
       </c>
       <c r="F13" t="n">
-        <v>52262.48930663488</v>
+        <v>50827.27705951772</v>
       </c>
       <c r="G13" t="n">
-        <v>49272.76053473528</v>
+        <v>35827.82209599671</v>
       </c>
       <c r="H13" t="n">
         <v>126309.777365862</v>
       </c>
       <c r="I13" t="n">
-        <v>51304.96939046021</v>
+        <v>108608.9980969615</v>
       </c>
       <c r="J13" t="n">
-        <v>108608.9980969615</v>
+        <v>51174.496516391</v>
       </c>
       <c r="K13" t="n">
-        <v>95508.63740050478</v>
+        <v>92312.06036277513</v>
       </c>
       <c r="L13" t="n">
         <v>112741.7770592093</v>
       </c>
       <c r="M13" t="n">
-        <v>36432.03576281724</v>
+        <v>39960.9613458049</v>
       </c>
       <c r="N13" t="n">
         <v>37670.29100100447</v>
@@ -13841,16 +13841,16 @@
         <v>123774.0605964948</v>
       </c>
       <c r="P13" t="n">
-        <v>204730.3162280298</v>
+        <v>4357.302104576454</v>
       </c>
       <c r="Q13" t="n">
-        <v>5423.156960957826</v>
+        <v>277375.164243164</v>
       </c>
       <c r="R13" t="n">
-        <v>277375.164243164</v>
+        <v>149409.9014999999</v>
       </c>
       <c r="S13" t="n">
-        <v>149409.9014999999</v>
+        <v>192893.5226047703</v>
       </c>
     </row>
     <row r="14">
@@ -13870,28 +13870,28 @@
         <v>81222.56981826788</v>
       </c>
       <c r="F14" t="n">
-        <v>54234.41343780574</v>
+        <v>57579.40804854449</v>
       </c>
       <c r="G14" t="n">
-        <v>46375.04925500747</v>
+        <v>62414.74108932252</v>
       </c>
       <c r="H14" t="n">
         <v>131362.9455273665</v>
       </c>
       <c r="I14" t="n">
-        <v>52256.20142390545</v>
+        <v>108621.5229017035</v>
       </c>
       <c r="J14" t="n">
-        <v>108621.5229017035</v>
+        <v>55614.96863362785</v>
       </c>
       <c r="K14" t="n">
-        <v>100761.1013954305</v>
+        <v>100108.3484799913</v>
       </c>
       <c r="L14" t="n">
         <v>113799.5491334911</v>
       </c>
       <c r="M14" t="n">
-        <v>37447.5561045247</v>
+        <v>41464.05933565852</v>
       </c>
       <c r="N14" t="n">
         <v>42972.37177798508</v>
@@ -13900,16 +13900,16 @@
         <v>125047.3062831409</v>
       </c>
       <c r="P14" t="n">
-        <v>222357.3898692137</v>
+        <v>5739.51358975226</v>
       </c>
       <c r="Q14" t="n">
-        <v>5400.942009058587</v>
+        <v>289331.5421728515</v>
       </c>
       <c r="R14" t="n">
-        <v>289331.5421728515</v>
+        <v>157678.8884999999</v>
       </c>
       <c r="S14" t="n">
-        <v>157678.8884999999</v>
+        <v>208971.3699050395</v>
       </c>
     </row>
     <row r="15">
@@ -13929,28 +13929,28 @@
         <v>77874.7301108164</v>
       </c>
       <c r="F15" t="n">
-        <v>51721.66406722914</v>
+        <v>54587.3599367864</v>
       </c>
       <c r="G15" t="n">
-        <v>42780.4277323037</v>
+        <v>51073.63567780312</v>
       </c>
       <c r="H15" t="n">
         <v>153634.3331884501</v>
       </c>
       <c r="I15" t="n">
-        <v>52680.28033177729</v>
+        <v>108619.5005384033</v>
       </c>
       <c r="J15" t="n">
-        <v>108619.5005384033</v>
+        <v>63819.33076488013</v>
       </c>
       <c r="K15" t="n">
-        <v>109159.8225641469</v>
+        <v>107263.4166941726</v>
       </c>
       <c r="L15" t="n">
         <v>113954.8626705353</v>
       </c>
       <c r="M15" t="n">
-        <v>38595.09609693346</v>
+        <v>39222.70880523202</v>
       </c>
       <c r="N15" t="n">
         <v>35601.12773515782</v>
@@ -13959,16 +13959,16 @@
         <v>126307.2265927834</v>
       </c>
       <c r="P15" t="n">
-        <v>239927.1549330313</v>
+        <v>7568.458152373187</v>
       </c>
       <c r="Q15" t="n">
-        <v>8086.682707452193</v>
+        <v>304092.2980322265</v>
       </c>
       <c r="R15" t="n">
-        <v>304092.2980322265</v>
+        <v>171534.2509999998</v>
       </c>
       <c r="S15" t="n">
-        <v>171534.2509999998</v>
+        <v>221493.9972427315</v>
       </c>
     </row>
     <row r="16">
@@ -13988,28 +13988,28 @@
         <v>34843.13025493772</v>
       </c>
       <c r="F16" t="n">
-        <v>24537.86378754963</v>
+        <v>24348.88348641311</v>
       </c>
       <c r="G16" t="n">
-        <v>4020.340644812804</v>
+        <v>-981.6720636352144</v>
       </c>
       <c r="H16" t="n">
         <v>112665.3790717116</v>
       </c>
       <c r="I16" t="n">
-        <v>53590.99846682604</v>
+        <v>108608.244363472</v>
       </c>
       <c r="J16" t="n">
-        <v>108608.244363472</v>
+        <v>54526.12201894398</v>
       </c>
       <c r="K16" t="n">
-        <v>84084.72258094259</v>
+        <v>81853.0622350066</v>
       </c>
       <c r="L16" t="n">
         <v>112235.3047073869</v>
       </c>
       <c r="M16" t="n">
-        <v>39677.14401349184</v>
+        <v>42421.17106186625</v>
       </c>
       <c r="N16" t="n">
         <v>3299.520914896822</v>
@@ -14018,16 +14018,16 @@
         <v>127546.8030776027</v>
       </c>
       <c r="P16" t="n">
-        <v>195013.0292911832</v>
+        <v>-17407.48883750411</v>
       </c>
       <c r="Q16" t="n">
-        <v>-18797.04538221324</v>
+        <v>273007.7667822265</v>
       </c>
       <c r="R16" t="n">
-        <v>273007.7667822265</v>
+        <v>138308.6824999998</v>
       </c>
       <c r="S16" t="n">
-        <v>138308.6824999998</v>
+        <v>195237.1987706982</v>
       </c>
     </row>
     <row r="17">
@@ -14047,28 +14047,28 @@
         <v>58890.02923473548</v>
       </c>
       <c r="F17" t="n">
-        <v>39674.60962543421</v>
+        <v>41883.10617641024</v>
       </c>
       <c r="G17" t="n">
-        <v>32420.19874905465</v>
+        <v>50490.17729407486</v>
       </c>
       <c r="H17" t="n">
         <v>136499.9436413923</v>
       </c>
       <c r="I17" t="n">
-        <v>57372.2298531663</v>
+        <v>108621.0218086499</v>
       </c>
       <c r="J17" t="n">
-        <v>108621.0218086499</v>
+        <v>50799.49702521082</v>
       </c>
       <c r="K17" t="n">
-        <v>92928.67565344239</v>
+        <v>89702.31835704234</v>
       </c>
       <c r="L17" t="n">
         <v>113851.6833386489</v>
       </c>
       <c r="M17" t="n">
-        <v>39875.56503760334</v>
+        <v>43837.79517737087</v>
       </c>
       <c r="N17" t="n">
         <v>15718.39988815706</v>
@@ -14077,16 +14077,16 @@
         <v>128839.2876295145</v>
       </c>
       <c r="P17" t="n">
-        <v>227233.0724118082</v>
+        <v>12700.40892176666</v>
       </c>
       <c r="Q17" t="n">
-        <v>13188.43361225648</v>
+        <v>312632.5792822265</v>
       </c>
       <c r="R17" t="n">
-        <v>312632.5792822265</v>
+        <v>156821.1725499998</v>
       </c>
       <c r="S17" t="n">
-        <v>156821.1725499998</v>
+        <v>221173.2128883379</v>
       </c>
     </row>
     <row r="18">
@@ -14106,28 +14106,28 @@
         <v>80160.36161462835</v>
       </c>
       <c r="F18" t="n">
-        <v>56432.59086473339</v>
+        <v>58674.94545936935</v>
       </c>
       <c r="G18" t="n">
-        <v>40202.92833882388</v>
+        <v>61058.77456370945</v>
       </c>
       <c r="H18" t="n">
         <v>161971.4570134279</v>
       </c>
       <c r="I18" t="n">
-        <v>57745.61784902687</v>
+        <v>108631.1697452593</v>
       </c>
       <c r="J18" t="n">
-        <v>108631.1697452593</v>
+        <v>49756.00850268539</v>
       </c>
       <c r="K18" t="n">
-        <v>104534.8000367041</v>
+        <v>101704.5303956378</v>
       </c>
       <c r="L18" t="n">
         <v>114814.6003229145</v>
       </c>
       <c r="M18" t="n">
-        <v>39300.17383827623</v>
+        <v>42130.41912218388</v>
       </c>
       <c r="N18" t="n">
         <v>34304.73257755489</v>
@@ -14136,16 +14136,16 @@
         <v>130111.2907800707</v>
       </c>
       <c r="P18" t="n">
-        <v>268612.204959194</v>
+        <v>12096.2414342083</v>
       </c>
       <c r="Q18" t="n">
-        <v>12270.26064087395</v>
+        <v>329902.0167822265</v>
       </c>
       <c r="R18" t="n">
-        <v>329902.0167822265</v>
+        <v>177077.0160499998</v>
       </c>
       <c r="S18" t="n">
-        <v>177077.0160499998</v>
+        <v>256231.0323476477</v>
       </c>
     </row>
     <row r="19">
@@ -14165,28 +14165,28 @@
         <v>78226.71638218292</v>
       </c>
       <c r="F19" t="n">
-        <v>54714.68455116233</v>
+        <v>59167.2789408507</v>
       </c>
       <c r="G19" t="n">
-        <v>38658.339198392</v>
+        <v>76964.52460230344</v>
       </c>
       <c r="H19" t="n">
         <v>146630.0894843643</v>
       </c>
       <c r="I19" t="n">
-        <v>55212.23718483921</v>
+        <v>108638.2262634838</v>
       </c>
       <c r="J19" t="n">
-        <v>108638.2262634838</v>
+        <v>50027.59076712008</v>
       </c>
       <c r="K19" t="n">
-        <v>94944.25187107314</v>
+        <v>89293.62542285045</v>
       </c>
       <c r="L19" t="n">
         <v>115387.1344932262</v>
       </c>
       <c r="M19" t="n">
-        <v>40585.61964601752</v>
+        <v>38632.24138764379</v>
       </c>
       <c r="N19" t="n">
         <v>42185.63954230393</v>
@@ -14195,16 +14195,16 @@
         <v>131377.426279063</v>
       </c>
       <c r="P19" t="n">
-        <v>251809.8807629237</v>
+        <v>-394.9333393503767</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1583.263002503172</v>
+        <v>350185.3507666015</v>
       </c>
       <c r="R19" t="n">
-        <v>350185.3507666015</v>
+        <v>180084.5504999998</v>
       </c>
       <c r="S19" t="n">
-        <v>180084.5504999998</v>
+        <v>257860.9966699354</v>
       </c>
     </row>
     <row r="20">
@@ -14224,28 +14224,28 @@
         <v>72196.80562126449</v>
       </c>
       <c r="F20" t="n">
-        <v>55544.52535779715</v>
+        <v>54796.32370584487</v>
       </c>
       <c r="G20" t="n">
-        <v>55538.03105788703</v>
+        <v>50781.53435348567</v>
       </c>
       <c r="H20" t="n">
         <v>150712.77571313</v>
       </c>
       <c r="I20" t="n">
-        <v>55618.22398361083</v>
+        <v>108632.4081260431</v>
       </c>
       <c r="J20" t="n">
-        <v>108632.4081260431</v>
+        <v>54359.46492667432</v>
       </c>
       <c r="K20" t="n">
-        <v>98890.25861882867</v>
+        <v>93781.9974859763</v>
       </c>
       <c r="L20" t="n">
         <v>115444.152164956</v>
       </c>
       <c r="M20" t="n">
-        <v>39100.44549667653</v>
+        <v>39878.28969434854</v>
       </c>
       <c r="N20" t="n">
         <v>41166.66873265</v>
@@ -14254,16 +14254,16 @@
         <v>132637.0051096813</v>
       </c>
       <c r="P20" t="n">
-        <v>268674.5859021251</v>
+        <v>4798.789165727742</v>
       </c>
       <c r="Q20" t="n">
-        <v>5792.358894799136</v>
+        <v>386164.4757666015</v>
       </c>
       <c r="R20" t="n">
-        <v>386164.4757666015</v>
+        <v>177252.9939999998</v>
       </c>
       <c r="S20" t="n">
-        <v>177252.9939999998</v>
+        <v>262140.9125555161</v>
       </c>
     </row>
     <row r="21">
@@ -14283,28 +14283,28 @@
         <v>88804.62996851582</v>
       </c>
       <c r="F21" t="n">
-        <v>54595.65533447557</v>
+        <v>54757.75992935353</v>
       </c>
       <c r="G21" t="n">
-        <v>30834.87890262303</v>
+        <v>31842.36441927311</v>
       </c>
       <c r="H21" t="n">
         <v>164604.6912558211</v>
       </c>
       <c r="I21" t="n">
-        <v>58913.25946578379</v>
+        <v>108645.223989521</v>
       </c>
       <c r="J21" t="n">
-        <v>108645.223989521</v>
+        <v>56186.17576980586</v>
       </c>
       <c r="K21" t="n">
-        <v>103949.6524895142</v>
+        <v>100159.0369208242</v>
       </c>
       <c r="L21" t="n">
         <v>116535.0780884813</v>
       </c>
       <c r="M21" t="n">
-        <v>37819.59795168456</v>
+        <v>40673.92829515812</v>
       </c>
       <c r="N21" t="n">
         <v>47781.19574167953</v>
@@ -14313,16 +14313,16 @@
         <v>133910.3105207213</v>
       </c>
       <c r="P21" t="n">
-        <v>279330.4684341656</v>
+        <v>6836.386280387273</v>
       </c>
       <c r="Q21" t="n">
-        <v>6065.371193145685</v>
+        <v>396614.254086914</v>
       </c>
       <c r="R21" t="n">
-        <v>396614.254086914</v>
+        <v>189962.8994999997</v>
       </c>
       <c r="S21" t="n">
-        <v>189962.8994999997</v>
+        <v>278471.2241611695</v>
       </c>
     </row>
     <row r="22">
@@ -14342,28 +14342,28 @@
         <v>82470.24838753346</v>
       </c>
       <c r="F22" t="n">
-        <v>52802.19683164301</v>
+        <v>50063.96603515181</v>
       </c>
       <c r="G22" t="n">
-        <v>37433.47655405161</v>
+        <v>25974.45207587747</v>
       </c>
       <c r="H22" t="n">
         <v>180855.9090377101</v>
       </c>
       <c r="I22" t="n">
-        <v>59988.19156264777</v>
+        <v>108641.8223799719</v>
       </c>
       <c r="J22" t="n">
-        <v>108641.8223799719</v>
+        <v>48305.60446822222</v>
       </c>
       <c r="K22" t="n">
-        <v>109806.532853395</v>
+        <v>105802.5985944069</v>
       </c>
       <c r="L22" t="n">
         <v>116642.8575468053</v>
       </c>
       <c r="M22" t="n">
-        <v>38933.89195430693</v>
+        <v>42907.8879514682</v>
       </c>
       <c r="N22" t="n">
         <v>34634.16139973752</v>
@@ -14372,16 +14372,16 @@
         <v>135169.7856790213</v>
       </c>
       <c r="P22" t="n">
-        <v>296492.2682640832</v>
+        <v>8195.802207787661</v>
       </c>
       <c r="Q22" t="n">
-        <v>8764.576078257334</v>
+        <v>428253.170102539</v>
       </c>
       <c r="R22" t="n">
-        <v>428253.170102539</v>
+        <v>203818.2619999997</v>
       </c>
       <c r="S22" t="n">
-        <v>203818.2619999997</v>
+        <v>288885.3526916693</v>
       </c>
     </row>
     <row r="23">
@@ -14401,28 +14401,28 @@
         <v>39619.41852553776</v>
       </c>
       <c r="F23" t="n">
-        <v>26701.99597558506</v>
+        <v>29633.91038826026</v>
       </c>
       <c r="G23" t="n">
-        <v>10614.51356047302</v>
+        <v>28288.03351549385</v>
       </c>
       <c r="H23" t="n">
         <v>139175.7267803983</v>
       </c>
       <c r="I23" t="n">
-        <v>50172.72242391582</v>
+        <v>108633.3886024905</v>
       </c>
       <c r="J23" t="n">
-        <v>108633.3886024905</v>
+        <v>53182.84359202202</v>
       </c>
       <c r="K23" t="n">
-        <v>88089.08614831636</v>
+        <v>82874.65032494064</v>
       </c>
       <c r="L23" t="n">
         <v>115156.0087903664</v>
       </c>
       <c r="M23" t="n">
-        <v>42714.80298314389</v>
+        <v>42554.56274874326</v>
       </c>
       <c r="N23" t="n">
         <v>6003.950612402226</v>
@@ -14431,16 +14431,16 @@
         <v>136411.8039685281</v>
       </c>
       <c r="P23" t="n">
-        <v>250757.3676488443</v>
+        <v>-17544.57952264497</v>
       </c>
       <c r="Q23" t="n">
-        <v>-18946.99110902926</v>
+        <v>392775.533383789</v>
       </c>
       <c r="R23" t="n">
-        <v>392775.533383789</v>
+        <v>170308.8214999997</v>
       </c>
       <c r="S23" t="n">
-        <v>170308.8214999997</v>
+        <v>263141.4909107561</v>
       </c>
     </row>
     <row r="24">
@@ -14460,28 +14460,28 @@
         <v>56825.01563897256</v>
       </c>
       <c r="F24" t="n">
-        <v>44585.8893487159</v>
+        <v>41237.44014689184</v>
       </c>
       <c r="G24" t="n">
-        <v>52123.1624538755</v>
+        <v>32569.65361417768</v>
       </c>
       <c r="H24" t="n">
         <v>162922.7549785968</v>
       </c>
       <c r="I24" t="n">
-        <v>57988.0799400055</v>
+        <v>108646.026101446</v>
       </c>
       <c r="J24" t="n">
-        <v>108646.026101446</v>
+        <v>54632.44835069414</v>
       </c>
       <c r="K24" t="n">
-        <v>95748.8066301427</v>
+        <v>88813.61760417804</v>
       </c>
       <c r="L24" t="n">
         <v>116670.1368676712</v>
       </c>
       <c r="M24" t="n">
-        <v>43005.67141646382</v>
+        <v>42475.66743270453</v>
       </c>
       <c r="N24" t="n">
         <v>20417.49800427219</v>
@@ -14490,16 +14490,16 @@
         <v>137699.7852029626</v>
       </c>
       <c r="P24" t="n">
-        <v>285086.6250487209</v>
+        <v>11875.94403021368</v>
       </c>
       <c r="Q24" t="n">
-        <v>12575.3226961643</v>
+        <v>430537.224790039</v>
       </c>
       <c r="R24" t="n">
-        <v>430537.224790039</v>
+        <v>185901.1679999997</v>
       </c>
       <c r="S24" t="n">
-        <v>185901.1679999997</v>
+        <v>289592.1449893901</v>
       </c>
     </row>
     <row r="25">
@@ -14519,28 +14519,28 @@
         <v>85660.2135638827</v>
       </c>
       <c r="F25" t="n">
-        <v>55606.13533609897</v>
+        <v>56029.44039337844</v>
       </c>
       <c r="G25" t="n">
-        <v>28577.04775841592</v>
+        <v>33158.92050011215</v>
       </c>
       <c r="H25" t="n">
         <v>189039.6403911478</v>
       </c>
       <c r="I25" t="n">
-        <v>51536.88233537074</v>
+        <v>108653.4171279443</v>
       </c>
       <c r="J25" t="n">
-        <v>108653.4171279443</v>
+        <v>51424.85752318319</v>
       </c>
       <c r="K25" t="n">
-        <v>104826.1695122265</v>
+        <v>97476.23990445033</v>
       </c>
       <c r="L25" t="n">
         <v>117406.9754921157</v>
       </c>
       <c r="M25" t="n">
-        <v>43037.584201287</v>
+        <v>41530.87167273459</v>
       </c>
       <c r="N25" t="n">
         <v>36385.80983183318</v>
@@ -14549,16 +14549,16 @@
         <v>138968.0931758936</v>
       </c>
       <c r="P25" t="n">
-        <v>322638.7454652501</v>
+        <v>13240.92773249342</v>
       </c>
       <c r="Q25" t="n">
-        <v>15115.40944808861</v>
+        <v>475642.572446289</v>
       </c>
       <c r="R25" t="n">
-        <v>475642.572446289</v>
+        <v>210879.0624999998</v>
       </c>
       <c r="S25" t="n">
-        <v>210879.0624999998</v>
+        <v>305168.6060591044</v>
       </c>
     </row>
     <row r="26">
@@ -14578,28 +14578,28 @@
         <v>82866.29273821994</v>
       </c>
       <c r="F26" t="n">
-        <v>59571.84929632938</v>
+        <v>57340.46683061217</v>
       </c>
       <c r="G26" t="n">
-        <v>61478.34581499453</v>
+        <v>47552.47633731957</v>
       </c>
       <c r="H26" t="n">
         <v>166831.7525463003</v>
       </c>
       <c r="I26" t="n">
-        <v>58703.20849352236</v>
+        <v>108661.5491107109</v>
       </c>
       <c r="J26" t="n">
-        <v>108661.5491107109</v>
+        <v>58140.25299000497</v>
       </c>
       <c r="K26" t="n">
-        <v>99435.51546934451</v>
+        <v>84353.13258231728</v>
       </c>
       <c r="L26" t="n">
         <v>118000.6202800668</v>
       </c>
       <c r="M26" t="n">
-        <v>40744.69494404253</v>
+        <v>39613.84266521451</v>
       </c>
       <c r="N26" t="n">
         <v>43484.79975885239</v>
@@ -14608,16 +14608,16 @@
         <v>140233.2173339174</v>
       </c>
       <c r="P26" t="n">
-        <v>312747.2927885741</v>
+        <v>-3970.753390715268</v>
       </c>
       <c r="Q26" t="n">
-        <v>-4132.720906673324</v>
+        <v>475992.7460913085</v>
       </c>
       <c r="R26" t="n">
-        <v>475992.7460913085</v>
+        <v>205641.1004999997</v>
       </c>
       <c r="S26" t="n">
-        <v>205641.1004999997</v>
+        <v>308159.1348329275</v>
       </c>
     </row>
     <row r="27">
@@ -14637,28 +14637,28 @@
         <v>69610.65928468276</v>
       </c>
       <c r="F27" t="n">
-        <v>60944.17522442444</v>
+        <v>58458.8934888123</v>
       </c>
       <c r="G27" t="n">
-        <v>69826.02747979159</v>
+        <v>62029.13420525546</v>
       </c>
       <c r="H27" t="n">
         <v>172818.8638770896</v>
       </c>
       <c r="I27" t="n">
-        <v>66940.27944945449</v>
+        <v>108658.7049709763</v>
       </c>
       <c r="J27" t="n">
-        <v>108658.7049709763</v>
+        <v>55882.50921602602</v>
       </c>
       <c r="K27" t="n">
-        <v>104105.1333648778</v>
+        <v>89068.10651778019</v>
       </c>
       <c r="L27" t="n">
         <v>118183.953806468</v>
       </c>
       <c r="M27" t="n">
-        <v>43646.49644482251</v>
+        <v>45104.18780350205</v>
       </c>
       <c r="N27" t="n">
         <v>42577.17518684345</v>
@@ -14667,16 +14667,16 @@
         <v>141491.4845697752</v>
       </c>
       <c r="P27" t="n">
-        <v>334069.6146840378</v>
+        <v>3493.597126668957</v>
       </c>
       <c r="Q27" t="n">
-        <v>4583.191979793723</v>
+        <v>494461.8261694335</v>
       </c>
       <c r="R27" t="n">
-        <v>494461.8261694335</v>
+        <v>202663.8099999997</v>
       </c>
       <c r="S27" t="n">
-        <v>202663.8099999997</v>
+        <v>315748.1315096188</v>
       </c>
     </row>
     <row r="28">
@@ -14696,28 +14696,28 @@
         <v>85153.01132789908</v>
       </c>
       <c r="F28" t="n">
-        <v>60383.41510662849</v>
+        <v>56645.3413770705</v>
       </c>
       <c r="G28" t="n">
-        <v>46945.95544928845</v>
+        <v>39457.82208924112</v>
       </c>
       <c r="H28" t="n">
         <v>188342.2103608764</v>
       </c>
       <c r="I28" t="n">
-        <v>72161.03242294902</v>
+        <v>108670.0917251855</v>
       </c>
       <c r="J28" t="n">
-        <v>108670.0917251855</v>
+        <v>53417.47148587461</v>
       </c>
       <c r="K28" t="n">
-        <v>109110.0808755053</v>
+        <v>94681.29847535081</v>
       </c>
       <c r="L28" t="n">
         <v>119102.5489063244</v>
       </c>
       <c r="M28" t="n">
-        <v>42543.83562628445</v>
+        <v>42609.01381650027</v>
       </c>
       <c r="N28" t="n">
         <v>47981.4871920303</v>
@@ -14726,16 +14726,16 @@
         <v>142761.6242846684</v>
       </c>
       <c r="P28" t="n">
-        <v>338498.4773813224</v>
+        <v>6624.652358071567</v>
       </c>
       <c r="Q28" t="n">
-        <v>5319.981555140353</v>
+        <v>510651.2246069335</v>
       </c>
       <c r="R28" t="n">
-        <v>510651.2246069335</v>
+        <v>207144.9414999998</v>
       </c>
       <c r="S28" t="n">
-        <v>207144.9414999998</v>
+        <v>333114.0039994306</v>
       </c>
     </row>
     <row r="29">
@@ -14755,28 +14755,28 @@
         <v>83364.98554419036</v>
       </c>
       <c r="F29" t="n">
-        <v>54199.45554646365</v>
+        <v>59093.31812743297</v>
       </c>
       <c r="G29" t="n">
-        <v>27922.2305498123</v>
+        <v>57399.59938612457</v>
       </c>
       <c r="H29" t="n">
         <v>202427.876313284</v>
       </c>
       <c r="I29" t="n">
-        <v>59093.12564217921</v>
+        <v>108668.7966590445</v>
       </c>
       <c r="J29" t="n">
-        <v>108668.7966590445</v>
+        <v>63520.50516892786</v>
       </c>
       <c r="K29" t="n">
-        <v>114644.145336377</v>
+        <v>99691.19457641852</v>
       </c>
       <c r="L29" t="n">
         <v>119227.9233478963</v>
       </c>
       <c r="M29" t="n">
-        <v>48497.83838580545</v>
+        <v>48850.12808952983</v>
       </c>
       <c r="N29" t="n">
         <v>39026.39812035518</v>
@@ -14785,16 +14785,16 @@
         <v>144020.3243834588</v>
       </c>
       <c r="P29" t="n">
-        <v>355622.3247481015</v>
+        <v>8556.090474020313</v>
       </c>
       <c r="Q29" t="n">
-        <v>9137.581537121754</v>
+        <v>554970.7675756835</v>
       </c>
       <c r="R29" t="n">
-        <v>554970.7675756835</v>
+        <v>214688.2729999997</v>
       </c>
       <c r="S29" t="n">
-        <v>214688.2729999997</v>
+        <v>343844.1398691816</v>
       </c>
     </row>
     <row r="30">
@@ -14814,28 +14814,28 @@
         <v>47315.34007945612</v>
       </c>
       <c r="F30" t="n">
-        <v>33367.14411369606</v>
+        <v>30558.12887068136</v>
       </c>
       <c r="G30" t="n">
-        <v>35801.17741233882</v>
+        <v>14196.77543182491</v>
       </c>
       <c r="H30" t="n">
         <v>165006.2782633696</v>
       </c>
       <c r="I30" t="n">
-        <v>63074.96230833526</v>
+        <v>108665.3219632149</v>
       </c>
       <c r="J30" t="n">
-        <v>108665.3219632149</v>
+        <v>61470.45660698409</v>
       </c>
       <c r="K30" t="n">
-        <v>95230.8385807687</v>
+        <v>79932.56267858105</v>
       </c>
       <c r="L30" t="n">
         <v>118010.6684151843</v>
       </c>
       <c r="M30" t="n">
-        <v>44925.47038381037</v>
+        <v>48471.2713645726</v>
       </c>
       <c r="N30" t="n">
         <v>6129.476665923661</v>
@@ -14844,16 +14844,16 @@
         <v>145264.3406380354</v>
       </c>
       <c r="P30" t="n">
-        <v>313080.0693032224</v>
+        <v>-17526.41934039288</v>
       </c>
       <c r="Q30" t="n">
-        <v>-18937.95313923888</v>
+        <v>507368.9707006835</v>
       </c>
       <c r="R30" t="n">
-        <v>507368.9707006835</v>
+        <v>182041.4809499997</v>
       </c>
       <c r="S30" t="n">
-        <v>182041.4809499997</v>
+        <v>319747.270239646</v>
       </c>
     </row>
     <row r="31">
@@ -14873,28 +14873,28 @@
         <v>62913.81865436349</v>
       </c>
       <c r="F31" t="n">
-        <v>45519.7954852309</v>
+        <v>43012.13264064036</v>
       </c>
       <c r="G31" t="n">
-        <v>38560.83402375278</v>
+        <v>27248.10128484843</v>
       </c>
       <c r="H31" t="n">
         <v>190157.1966619115</v>
       </c>
       <c r="I31" t="n">
-        <v>63914.11775464291</v>
+        <v>108677.1245657751</v>
       </c>
       <c r="J31" t="n">
-        <v>108677.1245657751</v>
+        <v>59836.80160876746</v>
       </c>
       <c r="K31" t="n">
-        <v>101076.9736974099</v>
+        <v>85699.95768404244</v>
       </c>
       <c r="L31" t="n">
         <v>119464.4928622757</v>
       </c>
       <c r="M31" t="n">
-        <v>48836.96754441973</v>
+        <v>46673.37651706573</v>
       </c>
       <c r="N31" t="n">
         <v>22528.89567107038</v>
@@ -14903,16 +14903,16 @@
         <v>146551.3813848465</v>
       </c>
       <c r="P31" t="n">
-        <v>346891.307522564</v>
+        <v>11994.40558226836</v>
       </c>
       <c r="Q31" t="n">
-        <v>12311.33968483507</v>
+        <v>543873.2402319335</v>
       </c>
       <c r="R31" t="n">
-        <v>543873.2402319335</v>
+        <v>197869.0969499997</v>
       </c>
       <c r="S31" t="n">
-        <v>197869.0969499997</v>
+        <v>347534.5692005896</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_results.xlsx
+++ b/examples/eCommerce_results.xlsx
@@ -556,7 +556,7 @@
         <v>-2203.674255376641</v>
       </c>
       <c r="F2" t="n">
-        <v>-33260.83041985453</v>
+        <v>-39063.73120607932</v>
       </c>
       <c r="G2" t="n">
         <v>-30014.68500000002</v>
@@ -568,7 +568,7 @@
         <v>-14.49559657031799</v>
       </c>
       <c r="J2" t="n">
-        <v>-35400.85048483992</v>
+        <v>-36073.21526127103</v>
       </c>
       <c r="K2" t="n">
         <v>1233.710885033743</v>
@@ -583,19 +583,19 @@
         <v>10420.36625339445</v>
       </c>
       <c r="O2" t="n">
-        <v>23193.18913063018</v>
+        <v>61840.42745614285</v>
       </c>
       <c r="P2" t="n">
-        <v>53904.62846255179</v>
+        <v>44825.18554154154</v>
       </c>
       <c r="Q2" t="n">
-        <v>39044.69034736571</v>
+        <v>41666.2922904658</v>
       </c>
       <c r="R2" t="n">
-        <v>26562.81259985339</v>
+        <v>31161.29793522518</v>
       </c>
       <c r="S2" t="n">
-        <v>-20430.72104420088</v>
+        <v>-20704.89045518694</v>
       </c>
     </row>
     <row r="3">
@@ -615,7 +615,7 @@
         <v>1848.581724177951</v>
       </c>
       <c r="F3" t="n">
-        <v>39026.36029931121</v>
+        <v>34159.40096689207</v>
       </c>
       <c r="G3" t="n">
         <v>19441.46400000004</v>
@@ -627,7 +627,7 @@
         <v>14.14208860912441</v>
       </c>
       <c r="J3" t="n">
-        <v>9788.58392426902</v>
+        <v>11085.17890573785</v>
       </c>
       <c r="K3" t="n">
         <v>1298.372415588591</v>
@@ -642,19 +642,19 @@
         <v>26622.08502430787</v>
       </c>
       <c r="O3" t="n">
-        <v>40959.37006652829</v>
+        <v>20080.87068303852</v>
       </c>
       <c r="P3" t="n">
-        <v>51343.28608941491</v>
+        <v>56926.08510877963</v>
       </c>
       <c r="Q3" t="n">
-        <v>39267.66887746211</v>
+        <v>39231.00250503954</v>
       </c>
       <c r="R3" t="n">
-        <v>39725.41945092741</v>
+        <v>37535.08134570632</v>
       </c>
       <c r="S3" t="n">
-        <v>14174.7010521842</v>
+        <v>13505.95581609674</v>
       </c>
     </row>
     <row r="4">
@@ -674,7 +674,7 @@
         <v>1455.88383847281</v>
       </c>
       <c r="F4" t="n">
-        <v>3801.010425355872</v>
+        <v>43470.25866132489</v>
       </c>
       <c r="G4" t="n">
         <v>18390.03550000001</v>
@@ -686,7 +686,7 @@
         <v>13.63947805201882</v>
       </c>
       <c r="J4" t="n">
-        <v>15336.75099387178</v>
+        <v>15315.42969712549</v>
       </c>
       <c r="K4" t="n">
         <v>1278.343201189139</v>
@@ -701,19 +701,19 @@
         <v>43740.11813860359</v>
       </c>
       <c r="O4" t="n">
-        <v>61671.38871617193</v>
+        <v>57401.59919356937</v>
       </c>
       <c r="P4" t="n">
-        <v>55608.30260881181</v>
+        <v>55245.00425633784</v>
       </c>
       <c r="Q4" t="n">
-        <v>37148.90848496315</v>
+        <v>40622.11451391813</v>
       </c>
       <c r="R4" t="n">
-        <v>58454.53183301635</v>
+        <v>58288.83442642755</v>
       </c>
       <c r="S4" t="n">
-        <v>11730.99459239774</v>
+        <v>15009.52128957185</v>
       </c>
     </row>
     <row r="5">
@@ -733,7 +733,7 @@
         <v>351.0342713853844</v>
       </c>
       <c r="F5" t="n">
-        <v>1368.990180668957</v>
+        <v>-17762.25552182837</v>
       </c>
       <c r="G5" t="n">
         <v>6625.767999999926</v>
@@ -745,7 +745,7 @@
         <v>3.22240641247523</v>
       </c>
       <c r="J5" t="n">
-        <v>-13256.68841339047</v>
+        <v>-12132.05287515871</v>
       </c>
       <c r="K5" t="n">
         <v>1262.728189813412</v>
@@ -760,19 +760,19 @@
         <v>48114.74462822801</v>
       </c>
       <c r="O5" t="n">
-        <v>74977.88741040582</v>
+        <v>64107.82078643317</v>
       </c>
       <c r="P5" t="n">
-        <v>53534.8970725369</v>
+        <v>55326.03852499957</v>
       </c>
       <c r="Q5" t="n">
-        <v>35884.07234326717</v>
+        <v>38611.68026061413</v>
       </c>
       <c r="R5" t="n">
-        <v>58058.66881304417</v>
+        <v>57151.33777673517</v>
       </c>
       <c r="S5" t="n">
-        <v>-2951.215820517049</v>
+        <v>-4378.156911579076</v>
       </c>
     </row>
     <row r="6">
@@ -792,7 +792,7 @@
         <v>0.2638325789502005</v>
       </c>
       <c r="F6" t="n">
-        <v>8252.868819804889</v>
+        <v>19459.42499154292</v>
       </c>
       <c r="G6" t="n">
         <v>-5351.166499999976</v>
@@ -804,7 +804,7 @@
         <v>-7.378216808915852</v>
       </c>
       <c r="J6" t="n">
-        <v>4444.154593036042</v>
+        <v>3795.999469247904</v>
       </c>
       <c r="K6" t="n">
         <v>1257.338957732416</v>
@@ -819,19 +819,19 @@
         <v>42346.0147212294</v>
       </c>
       <c r="O6" t="n">
-        <v>58697.18965558166</v>
+        <v>49221.85605105515</v>
       </c>
       <c r="P6" t="n">
-        <v>53785.80171630438</v>
+        <v>50977.42487691458</v>
       </c>
       <c r="Q6" t="n">
-        <v>36216.6066676217</v>
+        <v>39454.42759407994</v>
       </c>
       <c r="R6" t="n">
-        <v>53710.29164327048</v>
+        <v>52418.02171220504</v>
       </c>
       <c r="S6" t="n">
-        <v>2918.467829571567</v>
+        <v>3620.393243129049</v>
       </c>
     </row>
     <row r="7">
@@ -851,7 +851,7 @@
         <v>1116.161367366752</v>
       </c>
       <c r="F7" t="n">
-        <v>16368.14240929025</v>
+        <v>18626.21124190732</v>
       </c>
       <c r="G7" t="n">
         <v>13418.18049999998</v>
@@ -863,7 +863,7 @@
         <v>13.05923263460029</v>
       </c>
       <c r="J7" t="n">
-        <v>9508.481282760329</v>
+        <v>8162.33902837384</v>
       </c>
       <c r="K7" t="n">
         <v>1273.784290342001</v>
@@ -878,19 +878,19 @@
         <v>46926.72790776837</v>
       </c>
       <c r="O7" t="n">
-        <v>59020.94488997216</v>
+        <v>51731.62086616155</v>
       </c>
       <c r="P7" t="n">
-        <v>49186.21870576438</v>
+        <v>57838.34678452607</v>
       </c>
       <c r="Q7" t="n">
-        <v>39610.36727169391</v>
+        <v>37904.05583891687</v>
       </c>
       <c r="R7" t="n">
-        <v>55586.14778616617</v>
+        <v>55537.07530361961</v>
       </c>
       <c r="S7" t="n">
-        <v>8157.999955864544</v>
+        <v>8008.175618399807</v>
       </c>
     </row>
     <row r="8">
@@ -910,7 +910,7 @@
         <v>74.52103935271623</v>
       </c>
       <c r="F8" t="n">
-        <v>14398.92381858472</v>
+        <v>20276.29719425286</v>
       </c>
       <c r="G8" t="n">
         <v>13855.36249999995</v>
@@ -922,7 +922,7 @@
         <v>-4.790503298818812</v>
       </c>
       <c r="J8" t="n">
-        <v>8872.280082822568</v>
+        <v>9214.407188254323</v>
       </c>
       <c r="K8" t="n">
         <v>1259.2729713546</v>
@@ -937,19 +937,19 @@
         <v>39461.72967586313</v>
       </c>
       <c r="O8" t="n">
-        <v>48806.32648180659</v>
+        <v>50122.61074415799</v>
       </c>
       <c r="P8" t="n">
-        <v>52963.94881110902</v>
+        <v>43109.06275573429</v>
       </c>
       <c r="Q8" t="n">
-        <v>39710.03728643116</v>
+        <v>38347.38208446142</v>
       </c>
       <c r="R8" t="n">
-        <v>52443.68843619554</v>
+        <v>51029.22315119653</v>
       </c>
       <c r="S8" t="n">
-        <v>8216.420848466176</v>
+        <v>8610.084620870204</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
         <v>-1853.780483362679</v>
       </c>
       <c r="F9" t="n">
-        <v>-36228.90027211142</v>
+        <v>-31162.16947512151</v>
       </c>
       <c r="G9" t="n">
         <v>-33807.24000000001</v>
@@ -981,7 +981,7 @@
         <v>-12.2130544259203</v>
       </c>
       <c r="J9" t="n">
-        <v>-27302.04245249036</v>
+        <v>-25753.2128819426</v>
       </c>
       <c r="K9" t="n">
         <v>1237.836511636107</v>
@@ -996,19 +996,19 @@
         <v>6647.416987219958</v>
       </c>
       <c r="O9" t="n">
-        <v>24439.79401804773</v>
+        <v>19085.98427688418</v>
       </c>
       <c r="P9" t="n">
-        <v>54863.72058059807</v>
+        <v>52770.39786823448</v>
       </c>
       <c r="Q9" t="n">
-        <v>41214.50731246051</v>
+        <v>40432.55347813007</v>
       </c>
       <c r="R9" t="n">
-        <v>27444.50594211829</v>
+        <v>26268.92218671006</v>
       </c>
       <c r="S9" t="n">
-        <v>-19468.96597585992</v>
+        <v>-18539.39285139669</v>
       </c>
     </row>
     <row r="10">
@@ -1028,7 +1028,7 @@
         <v>1698.675970224861</v>
       </c>
       <c r="F10" t="n">
-        <v>30195.83622126207</v>
+        <v>39537.15573581378</v>
       </c>
       <c r="G10" t="n">
         <v>17408.00350000005</v>
@@ -1040,7 +1040,7 @@
         <v>13.00527191721643</v>
       </c>
       <c r="J10" t="n">
-        <v>8867.696989449621</v>
+        <v>9462.183290941619</v>
       </c>
       <c r="K10" t="n">
         <v>1294.798385849503</v>
@@ -1055,19 +1055,19 @@
         <v>22058.18637164952</v>
       </c>
       <c r="O10" t="n">
-        <v>13732.60653295993</v>
+        <v>30652.63431446073</v>
       </c>
       <c r="P10" t="n">
-        <v>56140.36141090031</v>
+        <v>56446.72026208158</v>
       </c>
       <c r="Q10" t="n">
-        <v>40778.51693014798</v>
+        <v>45175.03858668026</v>
       </c>
       <c r="R10" t="n">
-        <v>36973.51504563846</v>
+        <v>40062.50194409765</v>
       </c>
       <c r="S10" t="n">
-        <v>11993.52086398919</v>
+        <v>12480.17189829965</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>1055.524584885309</v>
       </c>
       <c r="F11" t="n">
-        <v>30104.2070569576</v>
+        <v>30594.79143335643</v>
       </c>
       <c r="G11" t="n">
         <v>19071.23699999999</v>
@@ -1099,7 +1099,7 @@
         <v>11.15829635894696</v>
       </c>
       <c r="J11" t="n">
-        <v>12665.50787145611</v>
+        <v>12516.19337521941</v>
       </c>
       <c r="K11" t="n">
         <v>1273.640654178246</v>
@@ -1114,19 +1114,19 @@
         <v>38745.74707449323</v>
       </c>
       <c r="O11" t="n">
-        <v>52556.79060409303</v>
+        <v>55582.36335884805</v>
       </c>
       <c r="P11" t="n">
-        <v>51993.76391001936</v>
+        <v>47232.68835847493</v>
       </c>
       <c r="Q11" t="n">
-        <v>42096.58095640656</v>
+        <v>40572.27141671356</v>
       </c>
       <c r="R11" t="n">
-        <v>57519.5180311674</v>
+        <v>57053.83055452706</v>
       </c>
       <c r="S11" t="n">
-        <v>15162.19236463973</v>
+        <v>14910.75448535595</v>
       </c>
     </row>
     <row r="12">
@@ -1146,7 +1146,7 @@
         <v>615.9399586790219</v>
       </c>
       <c r="F12" t="n">
-        <v>1880.526967952827</v>
+        <v>5414.741395605057</v>
       </c>
       <c r="G12" t="n">
         <v>8352.682499999959</v>
@@ -1158,7 +1158,7 @@
         <v>7.193089204582496</v>
       </c>
       <c r="J12" t="n">
-        <v>-14337.23184580604</v>
+        <v>-11616.33448275726</v>
       </c>
       <c r="K12" t="n">
         <v>1266.097348001633</v>
@@ -1173,19 +1173,19 @@
         <v>43055.44026560965</v>
       </c>
       <c r="O12" t="n">
-        <v>53506.28494077797</v>
+        <v>52933.52455609913</v>
       </c>
       <c r="P12" t="n">
-        <v>47602.93102612134</v>
+        <v>48925.92338043567</v>
       </c>
       <c r="Q12" t="n">
-        <v>40829.71264792201</v>
+        <v>41562.82976063904</v>
       </c>
       <c r="R12" t="n">
-        <v>55017.76934152922</v>
+        <v>55229.67635329387</v>
       </c>
       <c r="S12" t="n">
-        <v>-2366.24385849787</v>
+        <v>-1786.645308613728</v>
       </c>
     </row>
     <row r="13">
@@ -1205,7 +1205,7 @@
         <v>2.705210824907965</v>
       </c>
       <c r="F13" t="n">
-        <v>8406.447097547938</v>
+        <v>35197.10079870946</v>
       </c>
       <c r="G13" t="n">
         <v>-6559.680499999971</v>
@@ -1217,7 +1217,7 @@
         <v>-7.484395123443139</v>
       </c>
       <c r="J13" t="n">
-        <v>4545.477821636507</v>
+        <v>4249.883546954301</v>
       </c>
       <c r="K13" t="n">
         <v>1258.196785775535</v>
@@ -1232,19 +1232,19 @@
         <v>37670.29100100447</v>
       </c>
       <c r="O13" t="n">
-        <v>35827.82209599671</v>
+        <v>32809.57549667058</v>
       </c>
       <c r="P13" t="n">
-        <v>51174.496516391</v>
+        <v>54251.34912321385</v>
       </c>
       <c r="Q13" t="n">
-        <v>39960.9613458049</v>
+        <v>40699.60219850299</v>
       </c>
       <c r="R13" t="n">
-        <v>50827.27705951772</v>
+        <v>50941.16946811698</v>
       </c>
       <c r="S13" t="n">
-        <v>4357.302104576454</v>
+        <v>6366.165759484124</v>
       </c>
     </row>
     <row r="14">
@@ -1264,7 +1264,7 @@
         <v>1057.772074281805</v>
       </c>
       <c r="F14" t="n">
-        <v>16077.8473002692</v>
+        <v>15311.44555271533</v>
       </c>
       <c r="G14" t="n">
         <v>8268.986999999988</v>
@@ -1276,7 +1276,7 @@
         <v>12.52480474198565</v>
       </c>
       <c r="J14" t="n">
-        <v>7796.288117216172</v>
+        <v>5341.486332069815</v>
       </c>
       <c r="K14" t="n">
         <v>1273.245686646077</v>
@@ -1291,19 +1291,19 @@
         <v>42972.37177798508</v>
       </c>
       <c r="O14" t="n">
-        <v>62414.74108932252</v>
+        <v>55656.66041213746</v>
       </c>
       <c r="P14" t="n">
-        <v>55614.96863362785</v>
+        <v>45603.68663389202</v>
       </c>
       <c r="Q14" t="n">
-        <v>41464.05933565852</v>
+        <v>39798.40741832492</v>
       </c>
       <c r="R14" t="n">
-        <v>57579.40804854449</v>
+        <v>54945.83453507956</v>
       </c>
       <c r="S14" t="n">
-        <v>5739.51358975226</v>
+        <v>5166.13884624727</v>
       </c>
     </row>
     <row r="15">
@@ -1323,7 +1323,7 @@
         <v>155.3135370442143</v>
       </c>
       <c r="F15" t="n">
-        <v>12522.62733769202</v>
+        <v>21186.71193099603</v>
       </c>
       <c r="G15" t="n">
         <v>13855.36249999994</v>
@@ -1335,7 +1335,7 @@
         <v>-2.022363300154896</v>
       </c>
       <c r="J15" t="n">
-        <v>7155.068214181307</v>
+        <v>8392.533949528841</v>
       </c>
       <c r="K15" t="n">
         <v>1259.920309642475</v>
@@ -1350,19 +1350,19 @@
         <v>35601.12773515782</v>
       </c>
       <c r="O15" t="n">
-        <v>51073.63567780312</v>
+        <v>55670.88557965751</v>
       </c>
       <c r="P15" t="n">
-        <v>63819.33076488013</v>
+        <v>63863.42360669727</v>
       </c>
       <c r="Q15" t="n">
-        <v>39222.70880523202</v>
+        <v>43042.41545131143</v>
       </c>
       <c r="R15" t="n">
-        <v>54587.3599367864</v>
+        <v>55796.0812781794</v>
       </c>
       <c r="S15" t="n">
-        <v>7568.458152373187</v>
+        <v>8323.508664778275</v>
       </c>
     </row>
     <row r="16">
@@ -1382,7 +1382,7 @@
         <v>-1719.557963148407</v>
       </c>
       <c r="F16" t="n">
-        <v>-26256.79847203333</v>
+        <v>-32063.09945848267</v>
       </c>
       <c r="G16" t="n">
         <v>-33225.56850000002</v>
@@ -1394,7 +1394,7 @@
         <v>-11.25617493133117</v>
       </c>
       <c r="J16" t="n">
-        <v>-25410.35445916601</v>
+        <v>-24588.69776295849</v>
       </c>
       <c r="K16" t="n">
         <v>1239.576484819386</v>
@@ -1409,19 +1409,19 @@
         <v>3299.520914896822</v>
       </c>
       <c r="O16" t="n">
-        <v>-981.6720636352144</v>
+        <v>30587.43347270427</v>
       </c>
       <c r="P16" t="n">
-        <v>54526.12201894398</v>
+        <v>60186.48314938421</v>
       </c>
       <c r="Q16" t="n">
-        <v>42421.17106186625</v>
+        <v>42316.14233980116</v>
       </c>
       <c r="R16" t="n">
-        <v>24348.88348641311</v>
+        <v>29652.37462137234</v>
       </c>
       <c r="S16" t="n">
-        <v>-17407.48883750411</v>
+        <v>-17579.18187246034</v>
       </c>
     </row>
     <row r="17">
@@ -1441,7 +1441,7 @@
         <v>1616.378631262028</v>
       </c>
       <c r="F17" t="n">
-        <v>25936.01411763973</v>
+        <v>49595.43037838469</v>
       </c>
       <c r="G17" t="n">
         <v>18512.49005000006</v>
@@ -1453,7 +1453,7 @@
         <v>12.77744517794563</v>
       </c>
       <c r="J17" t="n">
-        <v>7849.256122035745</v>
+        <v>9237.513656215149</v>
       </c>
       <c r="K17" t="n">
         <v>1292.484551911726</v>
@@ -1468,19 +1468,19 @@
         <v>15718.39988815706</v>
       </c>
       <c r="O17" t="n">
-        <v>50490.17729407486</v>
+        <v>46298.98861748275</v>
       </c>
       <c r="P17" t="n">
-        <v>50799.49702521082</v>
+        <v>53255.60357648249</v>
       </c>
       <c r="Q17" t="n">
-        <v>43837.79517737087</v>
+        <v>39237.96299988386</v>
       </c>
       <c r="R17" t="n">
-        <v>41883.10617641024</v>
+        <v>40978.11841886632</v>
       </c>
       <c r="S17" t="n">
-        <v>12700.40892176666</v>
+        <v>14519.66543861525</v>
       </c>
     </row>
     <row r="18">
@@ -1500,7 +1500,7 @@
         <v>962.9169842656054</v>
       </c>
       <c r="F18" t="n">
-        <v>35057.81945930979</v>
+        <v>31498.10643762394</v>
       </c>
       <c r="G18" t="n">
         <v>20255.8435</v>
@@ -1512,7 +1512,7 @@
         <v>10.14793660936091</v>
       </c>
       <c r="J18" t="n">
-        <v>12002.21203859547</v>
+        <v>11979.53601004175</v>
       </c>
       <c r="K18" t="n">
         <v>1272.003150556234</v>
@@ -1527,19 +1527,19 @@
         <v>34304.73257755489</v>
       </c>
       <c r="O18" t="n">
-        <v>61058.77456370945</v>
+        <v>44851.4160255992</v>
       </c>
       <c r="P18" t="n">
-        <v>49756.00850268539</v>
+        <v>54660.1932520401</v>
       </c>
       <c r="Q18" t="n">
-        <v>42130.41912218388</v>
+        <v>43755.7642409211</v>
       </c>
       <c r="R18" t="n">
-        <v>58674.94545936935</v>
+        <v>57292.39850650959</v>
       </c>
       <c r="S18" t="n">
-        <v>12096.2414342083</v>
+        <v>11386.14291829283</v>
       </c>
     </row>
     <row r="19">
@@ -1559,7 +1559,7 @@
         <v>572.5341703116934</v>
       </c>
       <c r="F19" t="n">
-        <v>1629.964322287704</v>
+        <v>20083.15881921035</v>
       </c>
       <c r="G19" t="n">
         <v>3007.534449999932</v>
@@ -1571,7 +1571,7 @@
         <v>7.056518224492297</v>
       </c>
       <c r="J19" t="n">
-        <v>-12410.90497278736</v>
+        <v>-10284.65148944697</v>
       </c>
       <c r="K19" t="n">
         <v>1266.135498992303</v>
@@ -1586,19 +1586,19 @@
         <v>42185.63954230393</v>
       </c>
       <c r="O19" t="n">
-        <v>76964.52460230344</v>
+        <v>28618.5777402067</v>
       </c>
       <c r="P19" t="n">
-        <v>50027.59076712008</v>
+        <v>48738.33626461741</v>
       </c>
       <c r="Q19" t="n">
-        <v>38632.24138764379</v>
+        <v>38045.84477550146</v>
       </c>
       <c r="R19" t="n">
-        <v>59167.2789408507</v>
+        <v>51992.7649441733</v>
       </c>
       <c r="S19" t="n">
-        <v>-394.9333393503767</v>
+        <v>1331.201813396861</v>
       </c>
     </row>
     <row r="20">
@@ -1618,7 +1618,7 @@
         <v>57.01767172978418</v>
       </c>
       <c r="F20" t="n">
-        <v>4279.915885580662</v>
+        <v>17621.93270936803</v>
       </c>
       <c r="G20" t="n">
         <v>-2831.556499999967</v>
@@ -1630,7 +1630,7 @@
         <v>-5.818137440614817</v>
       </c>
       <c r="J20" t="n">
-        <v>4488.372063125844</v>
+        <v>3751.808621355181</v>
       </c>
       <c r="K20" t="n">
         <v>1259.578830618237</v>
@@ -1645,19 +1645,19 @@
         <v>41166.66873265</v>
       </c>
       <c r="O20" t="n">
-        <v>50781.53435348567</v>
+        <v>31390.94186591802</v>
       </c>
       <c r="P20" t="n">
-        <v>54359.46492667432</v>
+        <v>62832.46785801287</v>
       </c>
       <c r="Q20" t="n">
-        <v>39878.28969434854</v>
+        <v>39801.44596070465</v>
       </c>
       <c r="R20" t="n">
-        <v>54796.32370584487</v>
+        <v>53225.69037872017</v>
       </c>
       <c r="S20" t="n">
-        <v>4798.789165727742</v>
+        <v>5771.166453200151</v>
       </c>
     </row>
     <row r="21">
@@ -1677,7 +1677,7 @@
         <v>1090.925923525262</v>
       </c>
       <c r="F21" t="n">
-        <v>16330.31160565348</v>
+        <v>25985.20412227948</v>
       </c>
       <c r="G21" t="n">
         <v>12709.90549999997</v>
@@ -1689,7 +1689,7 @@
         <v>12.81586347788247</v>
       </c>
       <c r="J21" t="n">
-        <v>6377.039434847871</v>
+        <v>5135.596170925341</v>
       </c>
       <c r="K21" t="n">
         <v>1273.305411040041</v>
@@ -1704,19 +1704,19 @@
         <v>47781.19574167953</v>
       </c>
       <c r="O21" t="n">
-        <v>31842.36441927311</v>
+        <v>63357.02576421614</v>
       </c>
       <c r="P21" t="n">
-        <v>56186.17576980586</v>
+        <v>56888.23114844079</v>
       </c>
       <c r="Q21" t="n">
-        <v>40673.92829515812</v>
+        <v>43143.81345500585</v>
       </c>
       <c r="R21" t="n">
-        <v>54757.75992935353</v>
+        <v>59712.98876984292</v>
       </c>
       <c r="S21" t="n">
-        <v>6836.386280387273</v>
+        <v>7266.437067716623</v>
       </c>
     </row>
     <row r="22">
@@ -1736,7 +1736,7 @@
         <v>107.7794583240175</v>
       </c>
       <c r="F22" t="n">
-        <v>10414.12853049975</v>
+        <v>48479.36396166772</v>
       </c>
       <c r="G22" t="n">
         <v>13855.36249999994</v>
@@ -1748,7 +1748,7 @@
         <v>-3.401609549173385</v>
       </c>
       <c r="J22" t="n">
-        <v>5643.56167358274</v>
+        <v>5732.074825377586</v>
       </c>
       <c r="K22" t="n">
         <v>1259.475158300031</v>
@@ -1763,19 +1763,19 @@
         <v>34634.16139973752</v>
       </c>
       <c r="O22" t="n">
-        <v>25974.45207587747</v>
+        <v>58861.99579338785</v>
       </c>
       <c r="P22" t="n">
-        <v>48305.60446822222</v>
+        <v>53686.85978680189</v>
       </c>
       <c r="Q22" t="n">
-        <v>42907.8879514682</v>
+        <v>40623.59333592829</v>
       </c>
       <c r="R22" t="n">
-        <v>50063.96603515181</v>
+        <v>55204.60952380184</v>
       </c>
       <c r="S22" t="n">
-        <v>8195.802207787661</v>
+        <v>11187.60319115853</v>
       </c>
     </row>
     <row r="23">
@@ -1795,7 +1795,7 @@
         <v>-1486.848756438929</v>
       </c>
       <c r="F23" t="n">
-        <v>-25743.86178091326</v>
+        <v>-40509.26992546148</v>
       </c>
       <c r="G23" t="n">
         <v>-33509.44050000001</v>
@@ -1807,7 +1807,7 @@
         <v>-8.433777481329448</v>
       </c>
       <c r="J23" t="n">
-        <v>-22927.94826946628</v>
+        <v>-22428.24783047658</v>
       </c>
       <c r="K23" t="n">
         <v>1242.018289506746</v>
@@ -1822,19 +1822,19 @@
         <v>6003.950612402226</v>
       </c>
       <c r="O23" t="n">
-        <v>28288.03351549385</v>
+        <v>36987.97252467152</v>
       </c>
       <c r="P23" t="n">
-        <v>53182.84359202202</v>
+        <v>47785.18855802115</v>
       </c>
       <c r="Q23" t="n">
-        <v>42554.56274874326</v>
+        <v>47515.52196673747</v>
       </c>
       <c r="R23" t="n">
-        <v>29633.91038826026</v>
+        <v>30814.37370157041</v>
       </c>
       <c r="S23" t="n">
-        <v>-17544.57952264497</v>
+        <v>-18485.60882756436</v>
       </c>
     </row>
     <row r="24">
@@ -1854,7 +1854,7 @@
         <v>1514.128077304828</v>
       </c>
       <c r="F24" t="n">
-        <v>26450.65407863406</v>
+        <v>38341.30602921801</v>
       </c>
       <c r="G24" t="n">
         <v>15592.34650000005</v>
@@ -1866,7 +1866,7 @@
         <v>12.63749895544966</v>
       </c>
       <c r="J24" t="n">
-        <v>5938.967279237404</v>
+        <v>8669.119069254839</v>
       </c>
       <c r="K24" t="n">
         <v>1287.981234434555</v>
@@ -1881,19 +1881,19 @@
         <v>20417.49800427219</v>
       </c>
       <c r="O24" t="n">
-        <v>32569.65361417768</v>
+        <v>37935.35379620847</v>
       </c>
       <c r="P24" t="n">
-        <v>54632.44835069414</v>
+        <v>50259.27072475549</v>
       </c>
       <c r="Q24" t="n">
-        <v>42475.66743270453</v>
+        <v>42670.60011955794</v>
       </c>
       <c r="R24" t="n">
-        <v>41237.44014689184</v>
+        <v>41407.07661016977</v>
       </c>
       <c r="S24" t="n">
-        <v>11875.94403021368</v>
+        <v>12913.50177920778</v>
       </c>
     </row>
     <row r="25">
@@ -1913,7 +1913,7 @@
         <v>736.8386244445595</v>
       </c>
       <c r="F25" t="n">
-        <v>15576.46106971436</v>
+        <v>26127.32525413246</v>
       </c>
       <c r="G25" t="n">
         <v>24977.89450000004</v>
@@ -1925,7 +1925,7 @@
         <v>7.391026498316639</v>
       </c>
       <c r="J25" t="n">
-        <v>8662.622300272289</v>
+        <v>9344.741372323422</v>
       </c>
       <c r="K25" t="n">
         <v>1268.307972930912</v>
@@ -1940,19 +1940,19 @@
         <v>36385.80983183318</v>
       </c>
       <c r="O25" t="n">
-        <v>33158.92050011215</v>
+        <v>68130.66968487973</v>
       </c>
       <c r="P25" t="n">
-        <v>51424.85752318319</v>
+        <v>64379.38039932723</v>
       </c>
       <c r="Q25" t="n">
-        <v>41530.87167273459</v>
+        <v>44140.7821849316</v>
       </c>
       <c r="R25" t="n">
-        <v>56029.44039337844</v>
+        <v>63248.89504667967</v>
       </c>
       <c r="S25" t="n">
-        <v>13240.92773249342</v>
+        <v>14131.99213551943</v>
       </c>
     </row>
     <row r="26">
@@ -1972,7 +1972,7 @@
         <v>593.6447879510812</v>
       </c>
       <c r="F26" t="n">
-        <v>2990.528773823107</v>
+        <v>40901.11144381294</v>
       </c>
       <c r="G26" t="n">
         <v>-5237.962000000032</v>
@@ -1984,7 +1984,7 @@
         <v>8.131982766623073</v>
       </c>
       <c r="J26" t="n">
-        <v>-13123.10732213304</v>
+        <v>-10051.70032346908</v>
       </c>
       <c r="K26" t="n">
         <v>1265.124158023839</v>
@@ -1999,19 +1999,19 @@
         <v>43484.79975885239</v>
       </c>
       <c r="O26" t="n">
-        <v>47552.47633731957</v>
+        <v>49963.04034817334</v>
       </c>
       <c r="P26" t="n">
-        <v>58140.25299000497</v>
+        <v>60441.53949695702</v>
       </c>
       <c r="Q26" t="n">
-        <v>39613.84266521451</v>
+        <v>45505.25598202106</v>
       </c>
       <c r="R26" t="n">
-        <v>57340.46683061217</v>
+        <v>58855.21880698537</v>
       </c>
       <c r="S26" t="n">
-        <v>-3970.753390715268</v>
+        <v>-679.4015887265243</v>
       </c>
     </row>
     <row r="27">
@@ -2031,7 +2031,7 @@
         <v>183.3335264012202</v>
       </c>
       <c r="F27" t="n">
-        <v>7588.99667669124</v>
+        <v>1160.533810026955</v>
       </c>
       <c r="G27" t="n">
         <v>-2977.290499999998</v>
@@ -2043,7 +2043,7 @@
         <v>-2.844139734633762</v>
       </c>
       <c r="J27" t="n">
-        <v>4714.973935462917</v>
+        <v>4648.799304108585</v>
       </c>
       <c r="K27" t="n">
         <v>1258.267235857835</v>
@@ -2058,19 +2058,19 @@
         <v>42577.17518684345</v>
       </c>
       <c r="O27" t="n">
-        <v>62029.13420525546</v>
+        <v>57878.5629769599</v>
       </c>
       <c r="P27" t="n">
-        <v>55882.50921602602</v>
+        <v>72021.64131373758</v>
       </c>
       <c r="Q27" t="n">
-        <v>45104.18780350205</v>
+        <v>44691.8812248927</v>
       </c>
       <c r="R27" t="n">
-        <v>58458.8934888123</v>
+        <v>60112.64410178467</v>
       </c>
       <c r="S27" t="n">
-        <v>3493.597126668957</v>
+        <v>2897.105064981894</v>
       </c>
     </row>
     <row r="28">
@@ -2090,7 +2090,7 @@
         <v>918.595099856391</v>
       </c>
       <c r="F28" t="n">
-        <v>17365.87248981187</v>
+        <v>26171.35763741339</v>
       </c>
       <c r="G28" t="n">
         <v>4481.131500000018</v>
@@ -2102,7 +2102,7 @@
         <v>11.38675420923036</v>
       </c>
       <c r="J28" t="n">
-        <v>5613.191957570617</v>
+        <v>4865.583729714799</v>
       </c>
       <c r="K28" t="n">
         <v>1270.139714893143</v>
@@ -2117,19 +2117,19 @@
         <v>47981.4871920303</v>
       </c>
       <c r="O28" t="n">
-        <v>39457.82208924112</v>
+        <v>46543.89383891579</v>
       </c>
       <c r="P28" t="n">
-        <v>53417.47148587461</v>
+        <v>66811.98759515518</v>
       </c>
       <c r="Q28" t="n">
-        <v>42609.01381650027</v>
+        <v>45317.63003499027</v>
       </c>
       <c r="R28" t="n">
-        <v>56645.3413770705</v>
+        <v>59958.08481670553</v>
       </c>
       <c r="S28" t="n">
-        <v>6624.652358071567</v>
+        <v>7029.225386919059</v>
       </c>
     </row>
     <row r="29">
@@ -2149,7 +2149,7 @@
         <v>125.3744415718946</v>
       </c>
       <c r="F29" t="n">
-        <v>10730.13586975097</v>
+        <v>25085.87386006098</v>
       </c>
       <c r="G29" t="n">
         <v>7543.331499999933</v>
@@ -2161,7 +2161,7 @@
         <v>-1.295066141009546</v>
       </c>
       <c r="J29" t="n">
-        <v>5009.896101067717</v>
+        <v>5315.0152201035</v>
       </c>
       <c r="K29" t="n">
         <v>1258.700098790373</v>
@@ -2176,19 +2176,19 @@
         <v>39026.39812035518</v>
       </c>
       <c r="O29" t="n">
-        <v>57399.59938612457</v>
+        <v>60128.54698030348</v>
       </c>
       <c r="P29" t="n">
-        <v>63520.50516892786</v>
+        <v>67091.23578812832</v>
       </c>
       <c r="Q29" t="n">
-        <v>48850.12808952983</v>
+        <v>44289.31480875727</v>
       </c>
       <c r="R29" t="n">
-        <v>59093.31812743297</v>
+        <v>59341.72740351967</v>
       </c>
       <c r="S29" t="n">
-        <v>8556.090474020313</v>
+        <v>9700.606712793549</v>
       </c>
     </row>
     <row r="30">
@@ -2208,7 +2208,7 @@
         <v>-1217.25493271206</v>
       </c>
       <c r="F30" t="n">
-        <v>-24096.86962953557</v>
+        <v>-40085.60791307216</v>
       </c>
       <c r="G30" t="n">
         <v>-32646.79205000001</v>
@@ -2220,7 +2220,7 @@
         <v>-3.474695829608528</v>
       </c>
       <c r="J30" t="n">
-        <v>-19758.63189783747</v>
+        <v>-20293.66339053254</v>
       </c>
       <c r="K30" t="n">
         <v>1244.016254576602</v>
@@ -2235,19 +2235,19 @@
         <v>6129.476665923661</v>
       </c>
       <c r="O30" t="n">
-        <v>14196.77543182491</v>
+        <v>43925.79641274568</v>
       </c>
       <c r="P30" t="n">
-        <v>61470.45660698409</v>
+        <v>74476.98418449634</v>
       </c>
       <c r="Q30" t="n">
-        <v>48471.2713645726</v>
+        <v>47612.9850742298</v>
       </c>
       <c r="R30" t="n">
-        <v>30558.12887068136</v>
+        <v>36540.59490897997</v>
       </c>
       <c r="S30" t="n">
-        <v>-17526.41934039288</v>
+        <v>-18735.16683167071</v>
       </c>
     </row>
     <row r="31">
@@ -2267,7 +2267,7 @@
         <v>1453.824447091402</v>
       </c>
       <c r="F31" t="n">
-        <v>27787.29896094358</v>
+        <v>51408.04515538685</v>
       </c>
       <c r="G31" t="n">
         <v>15827.61600000004</v>
@@ -2279,7 +2279,7 @@
         <v>11.80260256018808</v>
       </c>
       <c r="J31" t="n">
-        <v>5767.395005461391</v>
+        <v>6071.517540101769</v>
       </c>
       <c r="K31" t="n">
         <v>1287.04074681115</v>
@@ -2294,19 +2294,19 @@
         <v>22528.89567107038</v>
       </c>
       <c r="O31" t="n">
-        <v>27248.10128484843</v>
+        <v>46552.46582907971</v>
       </c>
       <c r="P31" t="n">
-        <v>59836.80160876746</v>
+        <v>70194.34800241822</v>
       </c>
       <c r="Q31" t="n">
-        <v>46673.37651706573</v>
+        <v>48683.47423319455</v>
       </c>
       <c r="R31" t="n">
-        <v>43012.13264064036</v>
+        <v>47536.70530549905</v>
       </c>
       <c r="S31" t="n">
-        <v>11994.40558226836</v>
+        <v>13626.66506337853</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +2548,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>26788.65305812045</v>
+        <v>27687.1584950067</v>
       </c>
       <c r="S2" t="n">
         <v>12337.76797872265</v>
@@ -2635,7 +2635,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>29517.74899121901</v>
+        <v>22408.1388997311</v>
       </c>
       <c r="S3" t="n">
         <v>12868.88802035351</v>
@@ -2722,7 +2722,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>23690.50622090206</v>
+        <v>22333.93952363097</v>
       </c>
       <c r="S4" t="n">
         <v>12220.84377658014</v>
@@ -2819,7 +2819,7 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>17705.65726019396</v>
+        <v>19981.66488645603</v>
       </c>
       <c r="S5" t="n">
         <v>11067.24746300106</v>
@@ -2891,17 +2891,17 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>24793.07056420475</v>
+        <v>24656.11687553683</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>18731.86951224733</v>
+        <v>18420.31090452697</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1645152499738803</v>
+        <v>0.1737199743309491</v>
       </c>
       <c r="O6" t="n">
-        <v>37452.54142047645</v>
+        <v>37086.7489293573</v>
       </c>
       <c r="P6" t="n">
         <v>108579.9399999999</v>
@@ -2910,17 +2910,17 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>17966.49934797717</v>
+        <v>30456.50349411263</v>
       </c>
       <c r="S6" t="n">
-        <v>12649.20083927984</v>
+        <v>12676.88600930604</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>8709.555006922837</v>
+        <v>8872.311636037934</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5657261706923997</v>
+        <v>0.563823109431799</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -2933,14 +2933,14 @@
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>24793.07056420475</v>
+        <v>24656.11687553683</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>18731.86951224733</v>
+        <v>18420.31090452697</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1645152499738803</v>
+        <v>0.1737199743309491</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -2984,17 +2984,17 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>28822.49888849188</v>
+        <v>28906.91147137367</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>21997.83072682013</v>
+        <v>22478.32428899525</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1291227465175835</v>
+        <v>-0.1357461651449112</v>
       </c>
       <c r="O7" t="n">
-        <v>23855.46307513787</v>
+        <v>19968.16566855012</v>
       </c>
       <c r="P7" t="n">
         <v>108579.9399999999</v>
@@ -3003,17 +3003,17 @@
         <v>0.95</v>
       </c>
       <c r="R7" t="n">
-        <v>24529.65222958731</v>
+        <v>27349.58209148212</v>
       </c>
       <c r="S7" t="n">
-        <v>15155.48123134249</v>
+        <v>14274.19966111732</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>10407.85009176438</v>
+        <v>10191.44785378062</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3765854359478062</v>
+        <v>0.4469797729440474</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
@@ -3024,14 +3024,14 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>28822.49888849188</v>
+        <v>28906.91147137367</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>21997.83072682013</v>
+        <v>22478.32428899525</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.1291227465175835</v>
+        <v>-0.1357461651449112</v>
       </c>
       <c r="AG7" t="b">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>0.95</v>
       </c>
       <c r="R8" t="n">
-        <v>15601.44369690462</v>
+        <v>15998.57409327871</v>
       </c>
       <c r="S8" t="n">
         <v>7432.281182776811</v>
@@ -3143,12 +3143,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
+          <t>{'max_depth': 2, 'n_estimators': 1000}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3182,19 +3182,19 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>32043.24093435504</v>
+        <v>25884.94986801319</v>
       </c>
       <c r="L9" t="n">
-        <v>1.00051910753658</v>
+        <v>1.067675170614808</v>
       </c>
       <c r="M9" t="n">
-        <v>24864.36755553836</v>
+        <v>20437.05047270541</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.001911583514120574</v>
+        <v>0.346190564920707</v>
       </c>
       <c r="O9" t="n">
-        <v>-4.78871999658485</v>
+        <v>4248.68572480478</v>
       </c>
       <c r="P9" t="n">
         <v>29456.98000000008</v>
@@ -3203,17 +3203,17 @@
         <v>0.95</v>
       </c>
       <c r="R9" t="n">
-        <v>32493.19185576024</v>
+        <v>27368.31348129625</v>
       </c>
       <c r="S9" t="n">
-        <v>20699.25487183625</v>
+        <v>14575.3696767532</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>15065.87938610985</v>
+        <v>10273.23109827689</v>
       </c>
       <c r="V9" t="n">
-        <v>0.000387059301644066</v>
+        <v>0.5043654157489157</v>
       </c>
       <c r="W9" t="n">
         <v>15</v>
@@ -3224,20 +3224,20 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>27646.81273464491</v>
+        <v>31412.95632449055</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>31839.60750404194</v>
+        <v>30542.95548914466</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>25270.80613558676</v>
+        <v>25617.92342481</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.3778860558604529</v>
+        <v>-0.2679438244315526</v>
       </c>
       <c r="AG9" t="b">
         <v>0</v>
@@ -3281,17 +3281,17 @@
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>32365.35374207257</v>
+        <v>31658.78037116102</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>27240.73610750823</v>
+        <v>25877.27458200056</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.4237659763108075</v>
+        <v>-0.3622796035355502</v>
       </c>
       <c r="O10" t="n">
-        <v>30388.03138397334</v>
+        <v>28900.93759839831</v>
       </c>
       <c r="P10" t="n">
         <v>108579.9399999999</v>
@@ -3300,17 +3300,17 @@
         <v>0.95</v>
       </c>
       <c r="R10" t="n">
-        <v>32502.38307552152</v>
+        <v>34001.4066127517</v>
       </c>
       <c r="S10" t="n">
-        <v>17057.83685957964</v>
+        <v>17042.90685612897</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>12464.79973672659</v>
+        <v>12543.28554255624</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2102577097399349</v>
+        <v>0.211639560814868</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
@@ -3321,14 +3321,14 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>32365.35374207257</v>
+        <v>31658.78037116102</v>
       </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>27240.73610750823</v>
+        <v>25877.27458200056</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.4237659763108075</v>
+        <v>-0.3622796035355502</v>
       </c>
       <c r="AG10" t="b">
         <v>0</v>
@@ -3337,12 +3337,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 100}</t>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3376,19 +3376,19 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>25754.24287854336</v>
+        <v>32043.24093435504</v>
       </c>
       <c r="L11" t="n">
-        <v>1.065235804569484</v>
+        <v>1.00051910753658</v>
       </c>
       <c r="M11" t="n">
-        <v>20244.16834192742</v>
+        <v>24864.36755553836</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3527767629321115</v>
+        <v>-0.001911583514120574</v>
       </c>
       <c r="O11" t="n">
-        <v>4437.806433369641</v>
+        <v>-4.78871999658485</v>
       </c>
       <c r="P11" t="n">
         <v>29456.98000000008</v>
@@ -3397,17 +3397,17 @@
         <v>0.95</v>
       </c>
       <c r="R11" t="n">
-        <v>24228.67274647006</v>
+        <v>41796.32711835457</v>
       </c>
       <c r="S11" t="n">
-        <v>14634.58431474006</v>
+        <v>20699.25487183625</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>10351.39192892257</v>
+        <v>15065.87938610985</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5003300547060487</v>
+        <v>0.000387059301644066</v>
       </c>
       <c r="W11" t="n">
         <v>15</v>
@@ -3418,20 +3418,20 @@
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>31062.6085827574</v>
+        <v>27646.81273464491</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>32797.85699191691</v>
+        <v>31839.60750404194</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>27596.63524463925</v>
+        <v>25270.80613558676</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.4620722356155855</v>
+        <v>-0.3778860558604529</v>
       </c>
       <c r="AG11" t="b">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>0.95</v>
       </c>
       <c r="R12" t="n">
-        <v>39296.8426911963</v>
+        <v>32919.10261177662</v>
       </c>
       <c r="S12" t="n">
         <v>20058.32566821467</v>
@@ -3578,17 +3578,17 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>34794.80596274531</v>
+        <v>32983.39059039969</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>29198.5828896759</v>
+        <v>27601.56086857653</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.6455335151918271</v>
+        <v>-0.478660561860103</v>
       </c>
       <c r="O13" t="n">
-        <v>27220.10708582847</v>
+        <v>30033.95084015725</v>
       </c>
       <c r="P13" t="n">
         <v>108579.9399999999</v>
@@ -3597,17 +3597,17 @@
         <v>0.95</v>
       </c>
       <c r="R13" t="n">
-        <v>37377.2151667309</v>
+        <v>35189.15960750734</v>
       </c>
       <c r="S13" t="n">
-        <v>17682.94048810437</v>
+        <v>17587.54616407278</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>12958.70921516244</v>
+        <v>12892.48670295801</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1513151444108429</v>
+        <v>0.1604472614471202</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
@@ -3618,14 +3618,14 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>34794.80596274531</v>
+        <v>32983.39059039969</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>29198.5828896759</v>
+        <v>27601.56086857653</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.6455335151918271</v>
+        <v>-0.478660561860103</v>
       </c>
       <c r="AG13" t="b">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0.95</v>
       </c>
       <c r="R14" t="n">
-        <v>22155.29227561452</v>
+        <v>26848.07525884996</v>
       </c>
       <c r="S14" t="n">
         <v>12795.3763381528</v>
@@ -3781,7 +3781,7 @@
         <v>0.95</v>
       </c>
       <c r="R15" t="n">
-        <v>40316.71640754444</v>
+        <v>32323.63795860685</v>
       </c>
       <c r="S15" t="n">
         <v>20717.5516584629</v>
@@ -3853,17 +3853,17 @@
         <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>51973.273765118</v>
+        <v>52225.33921946173</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>45609.32384468697</v>
+        <v>45827.78452469434</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.671453579598549</v>
+        <v>-2.70715234212187</v>
       </c>
       <c r="O16" t="n">
-        <v>-2175.866227862922</v>
+        <v>-2613.55967479733</v>
       </c>
       <c r="P16" t="n">
         <v>108579.9399999999</v>
@@ -3872,17 +3872,17 @@
         <v>0.95</v>
       </c>
       <c r="R16" t="n">
-        <v>12049.51306614099</v>
+        <v>12142.13761764583</v>
       </c>
       <c r="S16" t="n">
-        <v>29039.20001547937</v>
+        <v>29022.61671430531</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>24014.72393364687</v>
+        <v>24001.05494356769</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.302855304500893</v>
+        <v>-1.300225890546646</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
@@ -3895,18 +3895,18 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>(0.1507576477890515, 0.15053541877769236, 0.147954010915846, 0.12851433374080173, 0.1108124813438475, 0.10206476028391398, 0.09990283419318753, 0.09575327224756379, 0.013705240708095591)</t>
+          <t>(0.15389817629259986, 0.1536713178872781, 0.15103613507544877, 0.12888581114485592, 0.11312088666399568, 0.10419093625959631, 0.10198397371062005, 0.07922201966627809, 0.013990743299327259)</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>51973.273765118</v>
+        <v>52225.33921946173</v>
       </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>45609.32384468697</v>
+        <v>45827.78452469434</v>
       </c>
       <c r="AF16" t="n">
-        <v>-2.671453579598549</v>
+        <v>-2.70715234212187</v>
       </c>
       <c r="AG16" t="b">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1856.205576078515</v>
+        <v>1915.29377584021</v>
       </c>
       <c r="S17" t="n">
         <v>1076.099230654983</v>
@@ -4018,12 +4018,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 20, 'weights': 'uniform'}</t>
+          <t>{'max_depth': 2, 'max_features': None}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4057,19 +4057,19 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>26929.04965209192</v>
+        <v>24775.2813705625</v>
       </c>
       <c r="L18" t="n">
-        <v>1.176178004951962</v>
+        <v>1.271354597447388</v>
       </c>
       <c r="M18" t="n">
-        <v>19448.84417833333</v>
+        <v>18957.61751070063</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2923824732011151</v>
+        <v>0.4010456574418879</v>
       </c>
       <c r="O18" t="n">
-        <v>1826.176999999946</v>
+        <v>-4777.433508609184</v>
       </c>
       <c r="P18" t="n">
         <v>29456.98000000008</v>
@@ -4078,17 +4078,17 @@
         <v>0.95</v>
       </c>
       <c r="R18" t="n">
-        <v>30879.42897970277</v>
+        <v>15089.07245983581</v>
       </c>
       <c r="S18" t="n">
-        <v>15169.19888959875</v>
+        <v>7728.69657395036</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>10488.75636559487</v>
+        <v>5846.962475026751</v>
       </c>
       <c r="V18" t="n">
-        <v>0.463156453489467</v>
+        <v>0.8606410195652093</v>
       </c>
       <c r="W18" t="n">
         <v>15</v>
@@ -4099,20 +4099,20 @@
         </is>
       </c>
       <c r="Y18" t="n">
-        <v>33808.42759304329</v>
+        <v>38959.34106732667</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
-        <v>93490.91694515613</v>
+        <v>72964.49225774991</v>
       </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>86383.48147666598</v>
+        <v>67797.15116222495</v>
       </c>
       <c r="AF18" t="n">
-        <v>-10.88000799357899</v>
+        <v>-6.236041077620468</v>
       </c>
       <c r="AG18" t="b">
         <v>0</v>
@@ -4121,12 +4121,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'max_features': 'sqrt'}</t>
+          <t>{'n_neighbors': 20, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4160,19 +4160,19 @@
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>24591.54506110333</v>
+        <v>26929.04965209192</v>
       </c>
       <c r="L19" t="n">
-        <v>1.710500660154284</v>
+        <v>1.176178004951962</v>
       </c>
       <c r="M19" t="n">
-        <v>19160.09921838301</v>
+        <v>19448.84417833333</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4098965429988287</v>
+        <v>0.2923824732011151</v>
       </c>
       <c r="O19" t="n">
-        <v>-211.9584152434823</v>
+        <v>1826.176999999946</v>
       </c>
       <c r="P19" t="n">
         <v>29456.98000000008</v>
@@ -4181,17 +4181,17 @@
         <v>0.95</v>
       </c>
       <c r="R19" t="n">
-        <v>12746.7411631564</v>
+        <v>24773.69044148448</v>
       </c>
       <c r="S19" t="n">
-        <v>8437.956025320322</v>
+        <v>15169.19888959875</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>6307.177965967046</v>
+        <v>10488.75636559487</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8338895476103978</v>
+        <v>0.463156453489467</v>
       </c>
       <c r="W19" t="n">
         <v>15</v>
@@ -4202,20 +4202,20 @@
         </is>
       </c>
       <c r="Y19" t="n">
-        <v>36144.33355865628</v>
+        <v>33808.42759304329</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
-        <v>94461.80948750862</v>
+        <v>93490.91694515613</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>86319.30702320879</v>
+        <v>86383.48147666598</v>
       </c>
       <c r="AF19" t="n">
-        <v>-11.12803426775901</v>
+        <v>-10.88000799357899</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -9134,19 +9134,19 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>rf</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>elasticnet</t>
@@ -9179,12 +9179,12 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
     </row>
@@ -9208,28 +9208,28 @@
         <v>-2676.884687993313</v>
       </c>
       <c r="G2" t="n">
-        <v>35324.44067375112</v>
+        <v>37990.08709957275</v>
       </c>
       <c r="H2" t="n">
-        <v>23032.75979219599</v>
+        <v>36980.9507190719</v>
       </c>
       <c r="I2" t="n">
         <v>20917.53847235705</v>
       </c>
       <c r="J2" t="n">
+        <v>9252.081398390961</v>
+      </c>
+      <c r="K2" t="n">
+        <v>32244.00780575721</v>
+      </c>
+      <c r="L2" t="n">
         <v>13.29674259365965</v>
-      </c>
-      <c r="K2" t="n">
-        <v>29574.14197309612</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9343.65443095039</v>
       </c>
       <c r="M2" t="n">
         <v>1080.987974248233</v>
       </c>
       <c r="N2" t="n">
-        <v>24068.62814435958</v>
+        <v>26110.09636557399</v>
       </c>
       <c r="O2" t="n">
         <v>10420.36625339445</v>
@@ -9238,16 +9238,16 @@
         <v>833.969976162423</v>
       </c>
       <c r="Q2" t="n">
-        <v>7548.155329733634</v>
+        <v>7545.712362608975</v>
       </c>
       <c r="R2" t="n">
         <v>7817.546875</v>
       </c>
       <c r="S2" t="n">
+        <v>16987.66905244121</v>
+      </c>
+      <c r="T2" t="n">
         <v>15687.32449999998</v>
-      </c>
-      <c r="T2" t="n">
-        <v>15060.51583555504</v>
       </c>
     </row>
     <row r="3">
@@ -9270,28 +9270,28 @@
         <v>-14342.86235163776</v>
       </c>
       <c r="G3" t="n">
-        <v>34473.20593199546</v>
+        <v>35395.39345175216</v>
       </c>
       <c r="H3" t="n">
-        <v>24483.73831584005</v>
+        <v>24030.24346134885</v>
       </c>
       <c r="I3" t="n">
         <v>-8468.788796732815</v>
       </c>
       <c r="J3" t="n">
+        <v>3457.641706318819</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29460.62324219494</v>
+      </c>
+      <c r="L3" t="n">
         <v>-8.85091504752371</v>
-      </c>
-      <c r="K3" t="n">
-        <v>26287.75008043496</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3819.68447541469</v>
       </c>
       <c r="M3" t="n">
         <v>-453.4371041153819</v>
       </c>
       <c r="N3" t="n">
-        <v>23503.65672009288</v>
+        <v>27239.59105112104</v>
       </c>
       <c r="O3" t="n">
         <v>26622.08502430787</v>
@@ -9300,16 +9300,16 @@
         <v>807.4333949374382</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1223.734375366237</v>
+        <v>-1732.226051220001</v>
       </c>
       <c r="R3" t="n">
         <v>2321.00048828125</v>
       </c>
       <c r="S3" t="n">
+        <v>-9269.817390272594</v>
+      </c>
+      <c r="T3" t="n">
         <v>-5760.005000000061</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-3139.129552598522</v>
       </c>
     </row>
     <row r="4">
@@ -9332,28 +9332,28 @@
         <v>-21189.89468491689</v>
       </c>
       <c r="G4" t="n">
-        <v>23501.71110061496</v>
+        <v>20240.991409578</v>
       </c>
       <c r="H4" t="n">
-        <v>23521.38935343175</v>
+        <v>-3667.891429396717</v>
       </c>
       <c r="I4" t="n">
         <v>-37420.15732432127</v>
       </c>
       <c r="J4" t="n">
+        <v>-27269.4209602357</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28888.03622562138</v>
+      </c>
+      <c r="L4" t="n">
         <v>-13.18040404758317</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25536.63527225404</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-26998.84440809317</v>
       </c>
       <c r="M4" t="n">
         <v>-1859.856935021227</v>
       </c>
       <c r="N4" t="n">
-        <v>23443.30410459935</v>
+        <v>24456.14609680175</v>
       </c>
       <c r="O4" t="n">
         <v>43740.11813860359</v>
@@ -9362,16 +9362,16 @@
         <v>793.3030553936661</v>
       </c>
       <c r="Q4" t="n">
-        <v>-16281.04066900908</v>
+        <v>-15335.49207430412</v>
       </c>
       <c r="R4" t="n">
         <v>-33837.66015625</v>
       </c>
       <c r="S4" t="n">
+        <v>-19132.45774167882</v>
+      </c>
+      <c r="T4" t="n">
         <v>-22083.39200000003</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-28369.32446967332</v>
       </c>
     </row>
     <row r="5">
@@ -9394,28 +9394,28 @@
         <v>18694.74995852456</v>
       </c>
       <c r="G5" t="n">
-        <v>32083.28700305615</v>
+        <v>31701.96546013077</v>
       </c>
       <c r="H5" t="n">
-        <v>24312.09189207255</v>
+        <v>16373.98592579289</v>
       </c>
       <c r="I5" t="n">
         <v>19806.64896727502</v>
       </c>
       <c r="J5" t="n">
+        <v>9322.612916566812</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30425.67707482575</v>
+      </c>
+      <c r="L5" t="n">
         <v>14.15496687715518</v>
-      </c>
-      <c r="K5" t="n">
-        <v>25299.56340940295</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9789.468603776209</v>
       </c>
       <c r="M5" t="n">
         <v>1595.222956535908</v>
       </c>
       <c r="N5" t="n">
-        <v>25543.35453858821</v>
+        <v>25686.09603896736</v>
       </c>
       <c r="O5" t="n">
         <v>48114.74462822801</v>
@@ -9424,16 +9424,16 @@
         <v>849.5443982344311</v>
       </c>
       <c r="Q5" t="n">
-        <v>11125.24976684947</v>
+        <v>10823.23751515103</v>
       </c>
       <c r="R5" t="n">
         <v>25420.814453125</v>
       </c>
       <c r="S5" t="n">
+        <v>26623.36464771071</v>
+      </c>
+      <c r="T5" t="n">
         <v>19633.25305000002</v>
-      </c>
-      <c r="T5" t="n">
-        <v>26191.68069361556</v>
       </c>
     </row>
     <row r="6">
@@ -9456,28 +9456,28 @@
         <v>13824.33457045888</v>
       </c>
       <c r="G6" t="n">
-        <v>41693.70286191459</v>
+        <v>41607.49323999904</v>
       </c>
       <c r="H6" t="n">
-        <v>36177.99521367697</v>
+        <v>35318.74598735271</v>
       </c>
       <c r="I6" t="n">
         <v>22437.39307981117</v>
       </c>
       <c r="J6" t="n">
+        <v>9354.925120946809</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29008.33143515287</v>
+      </c>
+      <c r="L6" t="n">
         <v>9.883815495280523</v>
-      </c>
-      <c r="K6" t="n">
-        <v>32474.60514376311</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9555.933871283722</v>
       </c>
       <c r="M6" t="n">
         <v>785.7103009433935</v>
       </c>
       <c r="N6" t="n">
-        <v>22914.69268375261</v>
+        <v>26636.74826527833</v>
       </c>
       <c r="O6" t="n">
         <v>42346.0147212294</v>
@@ -9486,16 +9486,16 @@
         <v>827.3229499736474</v>
       </c>
       <c r="Q6" t="n">
-        <v>9570.603325529446</v>
+        <v>9160.342287687126</v>
       </c>
       <c r="R6" t="n">
         <v>25859.6875</v>
       </c>
       <c r="S6" t="n">
+        <v>15930.64812600873</v>
+      </c>
+      <c r="T6" t="n">
         <v>11285.22499999999</v>
-      </c>
-      <c r="T6" t="n">
-        <v>18657.67984561576</v>
       </c>
     </row>
     <row r="7">
@@ -9518,28 +9518,28 @@
         <v>-8643.784468718011</v>
       </c>
       <c r="G7" t="n">
-        <v>41108.56297561189</v>
+        <v>42512.09729455989</v>
       </c>
       <c r="H7" t="n">
-        <v>30521.49813545791</v>
+        <v>32225.41380951552</v>
       </c>
       <c r="I7" t="n">
         <v>-24994.3671020098</v>
       </c>
       <c r="J7" t="n">
+        <v>-12509.21326893557</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30595.26067747174</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.026569628803705</v>
-      </c>
-      <c r="K7" t="n">
-        <v>25131.90277559905</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-12243.53113267151</v>
       </c>
       <c r="M7" t="n">
         <v>293.9229934130866</v>
       </c>
       <c r="N7" t="n">
-        <v>25408.53376276194</v>
+        <v>28066.00041946767</v>
       </c>
       <c r="O7" t="n">
         <v>46926.72790776837</v>
@@ -9548,16 +9548,16 @@
         <v>816.3571020546534</v>
       </c>
       <c r="Q7" t="n">
-        <v>-6166.72091246647</v>
+        <v>-6002.882261016783</v>
       </c>
       <c r="R7" t="n">
         <v>-17715.94921875</v>
       </c>
       <c r="S7" t="n">
+        <v>-16359.22851835548</v>
+      </c>
+      <c r="T7" t="n">
         <v>11199.62094999996</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-16310.57486725515</v>
       </c>
     </row>
     <row r="8">
@@ -9580,28 +9580,28 @@
         <v>4232.187510283436</v>
       </c>
       <c r="G8" t="n">
-        <v>39246.18647487103</v>
+        <v>40577.0511882876</v>
       </c>
       <c r="H8" t="n">
-        <v>41454.66303636131</v>
+        <v>38093.3357496157</v>
       </c>
       <c r="I8" t="n">
         <v>4454.892820253534</v>
       </c>
       <c r="J8" t="n">
+        <v>6129.262894183956</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36492.37995936273</v>
+      </c>
+      <c r="L8" t="n">
         <v>-4.773939786415771</v>
-      </c>
-      <c r="K8" t="n">
-        <v>26049.5037762828</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5724.530846824523</v>
       </c>
       <c r="M8" t="n">
         <v>-12.93619340860573</v>
       </c>
       <c r="N8" t="n">
-        <v>23318.88802051617</v>
+        <v>25553.39211809783</v>
       </c>
       <c r="O8" t="n">
         <v>39461.72967586313</v>
@@ -9610,16 +9610,16 @@
         <v>814.3050017249006</v>
       </c>
       <c r="Q8" t="n">
-        <v>3705.783098496818</v>
+        <v>3185.030796447125</v>
       </c>
       <c r="R8" t="n">
         <v>8273.4609375</v>
       </c>
       <c r="S8" t="n">
+        <v>5910.772406879028</v>
+      </c>
+      <c r="T8" t="n">
         <v>3863.376000000008</v>
-      </c>
-      <c r="T8" t="n">
-        <v>11306.40774881516</v>
       </c>
     </row>
     <row r="9">
@@ -9642,28 +9642,28 @@
         <v>16431.5631017688</v>
       </c>
       <c r="G9" t="n">
-        <v>37129.18334843794</v>
+        <v>36674.00504483646</v>
       </c>
       <c r="H9" t="n">
-        <v>32215.17280850856</v>
+        <v>29766.5501034364</v>
       </c>
       <c r="I9" t="n">
         <v>18482.08253417617</v>
       </c>
       <c r="J9" t="n">
+        <v>9754.393088802841</v>
+      </c>
+      <c r="K9" t="n">
+        <v>28580.51059854923</v>
+      </c>
+      <c r="L9" t="n">
         <v>13.50715467205594</v>
-      </c>
-      <c r="K9" t="n">
-        <v>31638.43790046571</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9528.845887805333</v>
       </c>
       <c r="M9" t="n">
         <v>1065.767475763543</v>
       </c>
       <c r="N9" t="n">
-        <v>24419.58426111488</v>
+        <v>26739.88614289312</v>
       </c>
       <c r="O9" t="n">
         <v>6647.416987219958</v>
@@ -9672,16 +9672,16 @@
         <v>832.8442300629451</v>
       </c>
       <c r="Q9" t="n">
-        <v>9594.057509978056</v>
+        <v>8298.18463693472</v>
       </c>
       <c r="R9" t="n">
         <v>11320.703125</v>
       </c>
       <c r="S9" t="n">
+        <v>21018.32162704902</v>
+      </c>
+      <c r="T9" t="n">
         <v>15687.32449999998</v>
-      </c>
-      <c r="T9" t="n">
-        <v>32409.32774267167</v>
       </c>
     </row>
     <row r="10">
@@ -9704,28 +9704,28 @@
         <v>-22426.17762685642</v>
       </c>
       <c r="G10" t="n">
-        <v>34403.38786694747</v>
+        <v>33798.80759815924</v>
       </c>
       <c r="H10" t="n">
-        <v>23705.23629934861</v>
+        <v>17800.54115591197</v>
       </c>
       <c r="I10" t="n">
         <v>-3114.994124225125</v>
       </c>
       <c r="J10" t="n">
+        <v>4026.679214577884</v>
+      </c>
+      <c r="K10" t="n">
+        <v>25518.02856216876</v>
+      </c>
+      <c r="L10" t="n">
         <v>-9.656649895278203</v>
-      </c>
-      <c r="K10" t="n">
-        <v>26152.40485856084</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4650.085873702974</v>
       </c>
       <c r="M10" t="n">
         <v>-489.6898789184938</v>
       </c>
       <c r="N10" t="n">
-        <v>24061.75949036329</v>
+        <v>26368.76904867439</v>
       </c>
       <c r="O10" t="n">
         <v>22058.18637164952</v>
@@ -9734,16 +9734,16 @@
         <v>807.9095977331447</v>
       </c>
       <c r="Q10" t="n">
-        <v>-481.0651244057152</v>
+        <v>273.3077778806627</v>
       </c>
       <c r="R10" t="n">
         <v>7297.77685546875</v>
       </c>
       <c r="S10" t="n">
+        <v>1124.087184426717</v>
+      </c>
+      <c r="T10" t="n">
         <v>-4327.766000000058</v>
-      </c>
-      <c r="T10" t="n">
-        <v>-7840.692089733503</v>
       </c>
     </row>
     <row r="11">
@@ -9766,28 +9766,28 @@
         <v>-24047.10839403625</v>
       </c>
       <c r="G11" t="n">
-        <v>21739.90857450257</v>
+        <v>22666.47187002317</v>
       </c>
       <c r="H11" t="n">
-        <v>2486.236214007994</v>
+        <v>12034.46743291802</v>
       </c>
       <c r="I11" t="n">
         <v>-30170.75667827356</v>
       </c>
       <c r="J11" t="n">
+        <v>-22194.13039721144</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31100.70270761697</v>
+      </c>
+      <c r="L11" t="n">
         <v>-12.31194020524591</v>
-      </c>
-      <c r="K11" t="n">
-        <v>34464.87153840361</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-21416.26574392216</v>
       </c>
       <c r="M11" t="n">
         <v>-1719.555341504627</v>
       </c>
       <c r="N11" t="n">
-        <v>23768.51627732737</v>
+        <v>24070.39695784821</v>
       </c>
       <c r="O11" t="n">
         <v>38745.74707449323</v>
@@ -9796,16 +9796,16 @@
         <v>795.5554143306387</v>
       </c>
       <c r="Q11" t="n">
-        <v>-15900.28090078614</v>
+        <v>-15289.26309162211</v>
       </c>
       <c r="R11" t="n">
         <v>-38153</v>
       </c>
       <c r="S11" t="n">
+        <v>-27358.78132634767</v>
+      </c>
+      <c r="T11" t="n">
         <v>-24321.00250000002</v>
-      </c>
-      <c r="T11" t="n">
-        <v>-32333.573039674</v>
       </c>
     </row>
     <row r="12">
@@ -9828,28 +9828,28 @@
         <v>28761.66998265569</v>
       </c>
       <c r="G12" t="n">
-        <v>31850.72279106883</v>
+        <v>32456.94087535019</v>
       </c>
       <c r="H12" t="n">
-        <v>19929.59186711608</v>
+        <v>20376.09410763605</v>
       </c>
       <c r="I12" t="n">
         <v>19218.78880109813</v>
       </c>
       <c r="J12" t="n">
+        <v>9362.6929189404</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31579.12146322427</v>
+      </c>
+      <c r="L12" t="n">
         <v>14.29691284508754</v>
-      </c>
-      <c r="K12" t="n">
-        <v>29166.03395096956</v>
-      </c>
-      <c r="L12" t="n">
-        <v>10073.64511311965</v>
       </c>
       <c r="M12" t="n">
         <v>1581.805238733685</v>
       </c>
       <c r="N12" t="n">
-        <v>25047.69740031136</v>
+        <v>26431.63423750623</v>
       </c>
       <c r="O12" t="n">
         <v>43055.44026560965</v>
@@ -9858,16 +9858,16 @@
         <v>847.6561011219188</v>
       </c>
       <c r="Q12" t="n">
-        <v>12397.12681616944</v>
+        <v>11517.63029487377</v>
       </c>
       <c r="R12" t="n">
         <v>32048.02734375</v>
       </c>
       <c r="S12" t="n">
+        <v>21462.35601694114</v>
+      </c>
+      <c r="T12" t="n">
         <v>22682.41955000002</v>
-      </c>
-      <c r="T12" t="n">
-        <v>27859.21634708534</v>
       </c>
     </row>
     <row r="13">
@@ -9890,28 +9890,28 @@
         <v>6769.26525003661</v>
       </c>
       <c r="G13" t="n">
-        <v>41639.81519628251</v>
+        <v>41745.35326593964</v>
       </c>
       <c r="H13" t="n">
-        <v>42765.71776521055</v>
+        <v>32267.24871182887</v>
       </c>
       <c r="I13" t="n">
         <v>17896.68914009616</v>
       </c>
       <c r="J13" t="n">
+        <v>8153.621594139533</v>
+      </c>
+      <c r="K13" t="n">
+        <v>32321.09819632916</v>
+      </c>
+      <c r="L13" t="n">
         <v>7.486652814507639</v>
-      </c>
-      <c r="K13" t="n">
-        <v>24996.14117534755</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9006.48278287193</v>
       </c>
       <c r="M13" t="n">
         <v>577.7244172306649</v>
       </c>
       <c r="N13" t="n">
-        <v>23660.88882369696</v>
+        <v>27573.16734369694</v>
       </c>
       <c r="O13" t="n">
         <v>37670.29100100447</v>
@@ -9920,16 +9920,16 @@
         <v>824.6237304205508</v>
       </c>
       <c r="Q13" t="n">
-        <v>8754.197506203793</v>
+        <v>8465.113550468584</v>
       </c>
       <c r="R13" t="n">
         <v>23224.044921875</v>
       </c>
       <c r="S13" t="n">
+        <v>22024.79303997797</v>
+      </c>
+      <c r="T13" t="n">
         <v>9955.745499999986</v>
-      </c>
-      <c r="T13" t="n">
-        <v>21336.59634562911</v>
       </c>
     </row>
     <row r="14">
@@ -9952,28 +9952,28 @@
         <v>4901.632239380851</v>
       </c>
       <c r="G14" t="n">
-        <v>43551.59102986001</v>
+        <v>43932.69961590536</v>
       </c>
       <c r="H14" t="n">
-        <v>45158.272420077</v>
+        <v>41176.63034794328</v>
       </c>
       <c r="I14" t="n">
         <v>-24942.85497470634</v>
       </c>
       <c r="J14" t="n">
+        <v>-12991.61736326331</v>
+      </c>
+      <c r="K14" t="n">
+        <v>32335.83036258219</v>
+      </c>
+      <c r="L14" t="n">
         <v>4.615755664650022</v>
-      </c>
-      <c r="K14" t="n">
-        <v>29389.51789349018</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-13310.75744689914</v>
       </c>
       <c r="M14" t="n">
         <v>418.9945215971347</v>
       </c>
       <c r="N14" t="n">
-        <v>23126.64199168159</v>
+        <v>26829.73169704078</v>
       </c>
       <c r="O14" t="n">
         <v>42972.37177798508</v>
@@ -9982,16 +9982,16 @@
         <v>818.4967726486395</v>
       </c>
       <c r="Q14" t="n">
-        <v>-6817.76628439592</v>
+        <v>-7317.135698422289</v>
       </c>
       <c r="R14" t="n">
         <v>-21381.31640625</v>
       </c>
       <c r="S14" t="n">
+        <v>-22143.44364606451</v>
+      </c>
+      <c r="T14" t="n">
         <v>5590.333949999973</v>
-      </c>
-      <c r="T14" t="n">
-        <v>-13556.09825798679</v>
       </c>
     </row>
     <row r="15">
@@ -10014,28 +10014,28 @@
         <v>-2650.127572109138</v>
       </c>
       <c r="G15" t="n">
-        <v>39826.47217686397</v>
+        <v>39383.12001812486</v>
       </c>
       <c r="H15" t="n">
-        <v>40724.21458092627</v>
+        <v>34187.72881903646</v>
       </c>
       <c r="I15" t="n">
         <v>4813.6298052523</v>
       </c>
       <c r="J15" t="n">
+        <v>6565.631196061107</v>
+      </c>
+      <c r="K15" t="n">
+        <v>29908.08061021416</v>
+      </c>
+      <c r="L15" t="n">
         <v>-4.385184283642688</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29202.50043282954</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5639.309748675867</v>
       </c>
       <c r="M15" t="n">
         <v>24.82834326860706</v>
       </c>
       <c r="N15" t="n">
-        <v>24375.88678071646</v>
+        <v>27103.32725404797</v>
       </c>
       <c r="O15" t="n">
         <v>35601.12773515782</v>
@@ -10044,16 +10044,16 @@
         <v>815.1653547012171</v>
       </c>
       <c r="Q15" t="n">
-        <v>3521.343723225885</v>
+        <v>3085.959657591619</v>
       </c>
       <c r="R15" t="n">
         <v>4736.26904296875</v>
       </c>
       <c r="S15" t="n">
+        <v>6906.918530822824</v>
+      </c>
+      <c r="T15" t="n">
         <v>5450.377000000023</v>
-      </c>
-      <c r="T15" t="n">
-        <v>11890.85225110224</v>
       </c>
     </row>
     <row r="16">
@@ -10076,28 +10076,28 @@
         <v>12544.45321271221</v>
       </c>
       <c r="G16" t="n">
-        <v>36120.9984052306</v>
+        <v>37782.42486809612</v>
       </c>
       <c r="H16" t="n">
-        <v>25627.10380473731</v>
+        <v>33027.89572423694</v>
       </c>
       <c r="I16" t="n">
         <v>18789.63889552532</v>
       </c>
       <c r="J16" t="n">
+        <v>9026.509301376977</v>
+      </c>
+      <c r="K16" t="n">
+        <v>30652.35219208596</v>
+      </c>
+      <c r="L16" t="n">
         <v>12.14726727499647</v>
-      </c>
-      <c r="K16" t="n">
-        <v>28655.85919255016</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9119.544873514014</v>
       </c>
       <c r="M16" t="n">
         <v>936.0897287369631</v>
       </c>
       <c r="N16" t="n">
-        <v>25837.77854984699</v>
+        <v>28070.47887087016</v>
       </c>
       <c r="O16" t="n">
         <v>3299.520914896822</v>
@@ -10106,16 +10106,16 @@
         <v>830.3488251224235</v>
       </c>
       <c r="Q16" t="n">
-        <v>9229.931137041012</v>
+        <v>8552.657302846843</v>
       </c>
       <c r="R16" t="n">
         <v>18325.798828125</v>
       </c>
       <c r="S16" t="n">
+        <v>16933.56175787725</v>
+      </c>
+      <c r="T16" t="n">
         <v>15687.32449999998</v>
-      </c>
-      <c r="T16" t="n">
-        <v>22282.2182270294</v>
       </c>
     </row>
     <row r="17">
@@ -10138,28 +10138,28 @@
         <v>-15207.2246389238</v>
       </c>
       <c r="G17" t="n">
-        <v>32614.55186969912</v>
+        <v>35003.88890049067</v>
       </c>
       <c r="H17" t="n">
-        <v>12204.72804773486</v>
+        <v>21362.86000664754</v>
       </c>
       <c r="I17" t="n">
         <v>-3793.466742155067</v>
       </c>
       <c r="J17" t="n">
+        <v>3510.607690619563</v>
+      </c>
+      <c r="K17" t="n">
+        <v>31435.98265523313</v>
+      </c>
+      <c r="L17" t="n">
         <v>-8.245867701541176</v>
-      </c>
-      <c r="K17" t="n">
-        <v>26104.33381596951</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3603.252133018347</v>
       </c>
       <c r="M17" t="n">
         <v>-445.2988233831608</v>
       </c>
       <c r="N17" t="n">
-        <v>24985.2183944784</v>
+        <v>27220.7968118429</v>
       </c>
       <c r="O17" t="n">
         <v>15718.39988815706</v>
@@ -10168,16 +10168,16 @@
         <v>808.2857352449726</v>
       </c>
       <c r="Q17" t="n">
-        <v>-945.2958825571147</v>
+        <v>-1011.907396438142</v>
       </c>
       <c r="R17" t="n">
         <v>-3407.679443359375</v>
       </c>
       <c r="S17" t="n">
+        <v>-948.6075316131077</v>
+      </c>
+      <c r="T17" t="n">
         <v>-4327.76600000006</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-495.9660518170242</v>
       </c>
     </row>
     <row r="18">
@@ -10200,28 +10200,28 @@
         <v>-24821.2633362054</v>
       </c>
       <c r="G18" t="n">
-        <v>23483.05193642695</v>
+        <v>24711.23828686111</v>
       </c>
       <c r="H18" t="n">
-        <v>17757.18694929032</v>
+        <v>24550.96753148212</v>
       </c>
       <c r="I18" t="n">
         <v>-29234.6983086789</v>
       </c>
       <c r="J18" t="n">
+        <v>-21093.39171858201</v>
+      </c>
+      <c r="K18" t="n">
+        <v>30468.82468148915</v>
+      </c>
+      <c r="L18" t="n">
         <v>-10.17039844376482</v>
-      </c>
-      <c r="K18" t="n">
-        <v>30621.50840755103</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-20450.18288241044</v>
       </c>
       <c r="M18" t="n">
         <v>-1545.514383929797</v>
       </c>
       <c r="N18" t="n">
-        <v>24540.89181044175</v>
+        <v>26497.099407351</v>
       </c>
       <c r="O18" t="n">
         <v>34304.73257755489</v>
@@ -10230,16 +10230,16 @@
         <v>798.1326687205433</v>
       </c>
       <c r="Q18" t="n">
-        <v>-15778.33674869014</v>
+        <v>-14738.16292870947</v>
       </c>
       <c r="R18" t="n">
         <v>-40280.16015625</v>
       </c>
       <c r="S18" t="n">
+        <v>-27082.70641872935</v>
+      </c>
+      <c r="T18" t="n">
         <v>-19984.17650000004</v>
-      </c>
-      <c r="T18" t="n">
-        <v>-36319.5050685666</v>
       </c>
     </row>
     <row r="19">
@@ -10262,28 +10262,28 @@
         <v>26483.74346097398</v>
       </c>
       <c r="G19" t="n">
-        <v>31086.44254570026</v>
+        <v>32942.00894602854</v>
       </c>
       <c r="H19" t="n">
-        <v>11198.43765805438</v>
+        <v>19312.47779185026</v>
       </c>
       <c r="I19" t="n">
         <v>22970.98989501474</v>
       </c>
       <c r="J19" t="n">
+        <v>8977.446863485533</v>
+      </c>
+      <c r="K19" t="n">
+        <v>30356.21816886513</v>
+      </c>
+      <c r="L19" t="n">
         <v>13.47062639192213</v>
-      </c>
-      <c r="K19" t="n">
-        <v>28700.85348499416</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9413.188374477329</v>
       </c>
       <c r="M19" t="n">
         <v>1463.170347735893</v>
       </c>
       <c r="N19" t="n">
-        <v>25320.81618818416</v>
+        <v>28540.37617281525</v>
       </c>
       <c r="O19" t="n">
         <v>42185.63954230393</v>
@@ -10292,16 +10292,16 @@
         <v>845.9161908612255</v>
       </c>
       <c r="Q19" t="n">
-        <v>11706.76895304494</v>
+        <v>10914.23098217093</v>
       </c>
       <c r="R19" t="n">
         <v>26833.23046875</v>
       </c>
       <c r="S19" t="n">
+        <v>20124.22972181256</v>
+      </c>
+      <c r="T19" t="n">
         <v>20413.39255000002</v>
-      </c>
-      <c r="T19" t="n">
-        <v>26116.41448146593</v>
       </c>
     </row>
     <row r="20">
@@ -10324,28 +10324,28 @@
         <v>7519.84600928086</v>
       </c>
       <c r="G20" t="n">
-        <v>44144.92000971959</v>
+        <v>42925.46489136678</v>
       </c>
       <c r="H20" t="n">
-        <v>43286.20027231571</v>
+        <v>36746.9270002201</v>
       </c>
       <c r="I20" t="n">
         <v>9566.629226668178</v>
       </c>
       <c r="J20" t="n">
+        <v>6196.759001500054</v>
+      </c>
+      <c r="K20" t="n">
+        <v>27157.12906163482</v>
+      </c>
+      <c r="L20" t="n">
         <v>5.900659499826172</v>
-      </c>
-      <c r="K20" t="n">
-        <v>31820.66224209515</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8364.046173038749</v>
       </c>
       <c r="M20" t="n">
         <v>498.1813245916318</v>
       </c>
       <c r="N20" t="n">
-        <v>25912.18631942271</v>
+        <v>28578.80694350897</v>
       </c>
       <c r="O20" t="n">
         <v>41166.66873265</v>
@@ -10354,16 +10354,16 @@
         <v>822.9717482486531</v>
       </c>
       <c r="Q20" t="n">
-        <v>6575.779270232578</v>
+        <v>6213.227852746777</v>
       </c>
       <c r="R20" t="n">
         <v>15552.7724609375</v>
       </c>
       <c r="S20" t="n">
+        <v>18853.15729439109</v>
+      </c>
+      <c r="T20" t="n">
         <v>9105.891499999983</v>
-      </c>
-      <c r="T20" t="n">
-        <v>17335.43348288874</v>
       </c>
     </row>
     <row r="21">
@@ -10386,28 +10386,28 @@
         <v>1941.354923659615</v>
       </c>
       <c r="G21" t="n">
-        <v>45869.93120265175</v>
+        <v>45210.7676789621</v>
       </c>
       <c r="H21" t="n">
-        <v>50734.62460680303</v>
+        <v>34725.02220582066</v>
       </c>
       <c r="I21" t="n">
         <v>-24524.92360709046</v>
       </c>
       <c r="J21" t="n">
+        <v>-12514.21805142088</v>
+      </c>
+      <c r="K21" t="n">
+        <v>34254.03787024914</v>
+      </c>
+      <c r="L21" t="n">
         <v>5.604278673204378</v>
-      </c>
-      <c r="K21" t="n">
-        <v>26460.85382852329</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-12543.33235323733</v>
       </c>
       <c r="M21" t="n">
         <v>474.0130184743061</v>
       </c>
       <c r="N21" t="n">
-        <v>27455.45622287391</v>
+        <v>31057.72991630284</v>
       </c>
       <c r="O21" t="n">
         <v>47781.19574167953</v>
@@ -10416,16 +10416,16 @@
         <v>819.554635025198</v>
       </c>
       <c r="Q21" t="n">
-        <v>-5228.567269246333</v>
+        <v>-5507.91117828743</v>
       </c>
       <c r="R21" t="n">
         <v>-11073.078125</v>
       </c>
       <c r="S21" t="n">
+        <v>-18633.84705554593</v>
+      </c>
+      <c r="T21" t="n">
         <v>9193.818949999968</v>
-      </c>
-      <c r="T21" t="n">
-        <v>-13024.44740529548</v>
       </c>
     </row>
     <row r="22">
@@ -10448,28 +10448,28 @@
         <v>-3011.550679978045</v>
       </c>
       <c r="G22" t="n">
-        <v>41184.90500977622</v>
+        <v>39082.41760441178</v>
       </c>
       <c r="H22" t="n">
-        <v>45237.02514569757</v>
+        <v>28472.78620186148</v>
       </c>
       <c r="I22" t="n">
         <v>5117.630475184883</v>
       </c>
       <c r="J22" t="n">
+        <v>6679.13066252595</v>
+      </c>
+      <c r="K22" t="n">
+        <v>30511.73072512446</v>
+      </c>
+      <c r="L22" t="n">
         <v>-3.605763338598845</v>
-      </c>
-      <c r="K22" t="n">
-        <v>29684.8668368697</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5630.472380732403</v>
       </c>
       <c r="M22" t="n">
         <v>37.80367982688841</v>
       </c>
       <c r="N22" t="n">
-        <v>25413.65108480452</v>
+        <v>26633.61430283485</v>
       </c>
       <c r="O22" t="n">
         <v>34634.16139973752</v>
@@ -10478,16 +10478,16 @@
         <v>815.2670216485263</v>
       </c>
       <c r="Q22" t="n">
-        <v>3608.218965494791</v>
+        <v>3207.896712707548</v>
       </c>
       <c r="R22" t="n">
         <v>1702.97802734375</v>
       </c>
       <c r="S22" t="n">
+        <v>14249.15895588616</v>
+      </c>
+      <c r="T22" t="n">
         <v>3737.835950000011</v>
-      </c>
-      <c r="T22" t="n">
-        <v>17662.86896520076</v>
       </c>
     </row>
     <row r="23">
@@ -10510,28 +10510,28 @@
         <v>9583.390632329862</v>
       </c>
       <c r="G23" t="n">
-        <v>36725.65883264127</v>
+        <v>39663.9484123659</v>
       </c>
       <c r="H23" t="n">
-        <v>21588.00469498633</v>
+        <v>39915.33760288206</v>
       </c>
       <c r="I23" t="n">
         <v>20588.24007449641</v>
       </c>
       <c r="J23" t="n">
+        <v>8241.316715991479</v>
+      </c>
+      <c r="K23" t="n">
+        <v>30844.25176868288</v>
+      </c>
+      <c r="L23" t="n">
         <v>11.3119605370931</v>
-      </c>
-      <c r="K23" t="n">
-        <v>31468.59048556535</v>
-      </c>
-      <c r="L23" t="n">
-        <v>8689.387704014169</v>
       </c>
       <c r="M23" t="n">
         <v>875.1502950785473</v>
       </c>
       <c r="N23" t="n">
-        <v>24149.28476805686</v>
+        <v>27014.31763511597</v>
       </c>
       <c r="O23" t="n">
         <v>6003.950612402226</v>
@@ -10540,16 +10540,16 @@
         <v>828.8549900836035</v>
       </c>
       <c r="Q23" t="n">
-        <v>10266.78355387057</v>
+        <v>9492.94913872225</v>
       </c>
       <c r="R23" t="n">
         <v>30820.853515625</v>
       </c>
       <c r="S23" t="n">
+        <v>14840.44184790185</v>
+      </c>
+      <c r="T23" t="n">
         <v>13889.33399999997</v>
-      </c>
-      <c r="T23" t="n">
-        <v>21336.63855367951</v>
       </c>
     </row>
     <row r="24">
@@ -10572,28 +10572,28 @@
         <v>-15081.54675391916</v>
       </c>
       <c r="G24" t="n">
-        <v>34925.45651369736</v>
+        <v>36234.0953852327</v>
       </c>
       <c r="H24" t="n">
-        <v>16086.39560546055</v>
+        <v>25636.78539662658</v>
       </c>
       <c r="I24" t="n">
         <v>-5448.955372074694</v>
       </c>
       <c r="J24" t="n">
+        <v>4086.484580419522</v>
+      </c>
+      <c r="K24" t="n">
+        <v>28642.97053361682</v>
+      </c>
+      <c r="L24" t="n">
         <v>-7.28552406985662</v>
-      </c>
-      <c r="K24" t="n">
-        <v>28530.51023019402</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4310.890850201939</v>
       </c>
       <c r="M24" t="n">
         <v>-369.9595893339925</v>
       </c>
       <c r="N24" t="n">
-        <v>25711.55392151399</v>
+        <v>25209.17592767252</v>
       </c>
       <c r="O24" t="n">
         <v>20417.49800427219</v>
@@ -10602,16 +10602,16 @@
         <v>809.2751415578878</v>
       </c>
       <c r="Q24" t="n">
-        <v>-2434.788139294384</v>
+        <v>-2310.078415515462</v>
       </c>
       <c r="R24" t="n">
         <v>-17629.044921875</v>
       </c>
       <c r="S24" t="n">
+        <v>-745.6954532950743</v>
+      </c>
+      <c r="T24" t="n">
         <v>-2374.699000000058</v>
-      </c>
-      <c r="T24" t="n">
-        <v>-2796.663632072599</v>
       </c>
     </row>
     <row r="25">
@@ -10634,28 +10634,28 @@
         <v>-21558.89817888747</v>
       </c>
       <c r="G25" t="n">
-        <v>23209.72329492441</v>
+        <v>25755.28088413988</v>
       </c>
       <c r="H25" t="n">
-        <v>8590.195825245226</v>
+        <v>22385.82380757331</v>
       </c>
       <c r="I25" t="n">
         <v>-31402.02732918993</v>
       </c>
       <c r="J25" t="n">
+        <v>-18441.04726962348</v>
+      </c>
+      <c r="K25" t="n">
+        <v>34017.15035813002</v>
+      </c>
+      <c r="L25" t="n">
         <v>-8.403860194842444</v>
-      </c>
-      <c r="K25" t="n">
-        <v>31605.10855951009</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-18860.65303463738</v>
       </c>
       <c r="M25" t="n">
         <v>-1441.3508667432</v>
       </c>
       <c r="N25" t="n">
-        <v>24286.85014486684</v>
+        <v>25898.08348842709</v>
       </c>
       <c r="O25" t="n">
         <v>36385.80983183318</v>
@@ -10664,16 +10664,16 @@
         <v>798.3155201069316</v>
       </c>
       <c r="Q25" t="n">
-        <v>-14176.35390882427</v>
+        <v>-13278.88294467423</v>
       </c>
       <c r="R25" t="n">
         <v>-18534.232421875</v>
       </c>
       <c r="S25" t="n">
+        <v>-28789.95571403391</v>
+      </c>
+      <c r="T25" t="n">
         <v>-27064.32700000001</v>
-      </c>
-      <c r="T25" t="n">
-        <v>-34537.9866611021</v>
       </c>
     </row>
     <row r="26">
@@ -10696,28 +10696,28 @@
         <v>18736.11461282197</v>
       </c>
       <c r="G26" t="n">
-        <v>33788.30635662492</v>
+        <v>34954.95157422336</v>
       </c>
       <c r="H26" t="n">
-        <v>25312.72064828201</v>
+        <v>29827.16017426251</v>
       </c>
       <c r="I26" t="n">
         <v>19101.11648573785</v>
       </c>
       <c r="J26" t="n">
+        <v>8094.291074278441</v>
+      </c>
+      <c r="K26" t="n">
+        <v>29703.37819312809</v>
+      </c>
+      <c r="L26" t="n">
         <v>12.16811613007929</v>
-      </c>
-      <c r="K26" t="n">
-        <v>29080.21868523805</v>
-      </c>
-      <c r="L26" t="n">
-        <v>9413.188374477329</v>
       </c>
       <c r="M26" t="n">
         <v>1317.010628736256</v>
       </c>
       <c r="N26" t="n">
-        <v>23997.99956478922</v>
+        <v>27026.91705410777</v>
       </c>
       <c r="O26" t="n">
         <v>43484.79975885239</v>
@@ -10726,16 +10726,16 @@
         <v>842.0676621988562</v>
       </c>
       <c r="Q26" t="n">
-        <v>10226.05499975318</v>
+        <v>9594.330412018413</v>
       </c>
       <c r="R26" t="n">
         <v>23139.029296875</v>
       </c>
       <c r="S26" t="n">
+        <v>17997.47032196171</v>
+      </c>
+      <c r="T26" t="n">
         <v>19296.26755000002</v>
-      </c>
-      <c r="T26" t="n">
-        <v>21267.50043207973</v>
       </c>
     </row>
     <row r="27">
@@ -10758,28 +10758,28 @@
         <v>10676.53004310741</v>
       </c>
       <c r="G27" t="n">
-        <v>45370.39281886705</v>
+        <v>46099.10901311375</v>
       </c>
       <c r="H27" t="n">
-        <v>41607.52475623337</v>
+        <v>45921.1348197296</v>
       </c>
       <c r="I27" t="n">
         <v>15952.68110171532</v>
       </c>
       <c r="J27" t="n">
+        <v>6571.970600885349</v>
+      </c>
+      <c r="K27" t="n">
+        <v>32822.19527042953</v>
+      </c>
+      <c r="L27" t="n">
         <v>4.324484282609002</v>
-      </c>
-      <c r="K27" t="n">
-        <v>34925.85961445717</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6357.359061973422</v>
       </c>
       <c r="M27" t="n">
         <v>421.2430657276935</v>
       </c>
       <c r="N27" t="n">
-        <v>27210.41278009562</v>
+        <v>30101.48042035399</v>
       </c>
       <c r="O27" t="n">
         <v>42577.17518684345</v>
@@ -10788,16 +10788,16 @@
         <v>822.123123589618</v>
       </c>
       <c r="Q27" t="n">
-        <v>6527.426376110924</v>
+        <v>6383.906401187753</v>
       </c>
       <c r="R27" t="n">
         <v>7660.5478515625</v>
       </c>
       <c r="S27" t="n">
+        <v>19920.1190228421</v>
+      </c>
+      <c r="T27" t="n">
         <v>10388.88049999997</v>
-      </c>
-      <c r="T27" t="n">
-        <v>19137.0861408928</v>
       </c>
     </row>
     <row r="28">
@@ -10820,28 +10820,28 @@
         <v>5600.505894952543</v>
       </c>
       <c r="G28" t="n">
-        <v>43996.94087203248</v>
+        <v>47308.03462761285</v>
       </c>
       <c r="H28" t="n">
-        <v>32040.10953927783</v>
+        <v>44683.86806058136</v>
       </c>
       <c r="I28" t="n">
         <v>-21349.7722409592</v>
       </c>
       <c r="J28" t="n">
+        <v>-12137.48153352005</v>
+      </c>
+      <c r="K28" t="n">
+        <v>35540.67884095607</v>
+      </c>
+      <c r="L28" t="n">
         <v>7.98851136737535</v>
-      </c>
-      <c r="K28" t="n">
-        <v>29831.93104406743</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-12400.80700666326</v>
       </c>
       <c r="M28" t="n">
         <v>602.8368673636555</v>
       </c>
       <c r="N28" t="n">
-        <v>25024.61541728451</v>
+        <v>29849.76538815497</v>
       </c>
       <c r="O28" t="n">
         <v>47981.4871920303</v>
@@ -10850,16 +10850,16 @@
         <v>821.2619558434543</v>
       </c>
       <c r="Q28" t="n">
-        <v>-4349.632180658639</v>
+        <v>-4511.733197645193</v>
       </c>
       <c r="R28" t="n">
         <v>-7234.28564453125</v>
       </c>
       <c r="S28" t="n">
+        <v>-16979.72645982755</v>
+      </c>
+      <c r="T28" t="n">
         <v>9396.977449999955</v>
-      </c>
-      <c r="T28" t="n">
-        <v>-12390.49647227074</v>
       </c>
     </row>
     <row r="29">
@@ -10882,28 +10882,28 @@
         <v>-295.9863200005422</v>
       </c>
       <c r="G29" t="n">
-        <v>41395.18742783352</v>
+        <v>41553.82622741702</v>
       </c>
       <c r="H29" t="n">
-        <v>35867.23709187357</v>
+        <v>37105.33660777656</v>
       </c>
       <c r="I29" t="n">
         <v>7133.905434295478</v>
       </c>
       <c r="J29" t="n">
+        <v>6681.95117667408</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29911.42752953766</v>
+      </c>
+      <c r="L29" t="n">
         <v>-4.106898700616095</v>
-      </c>
-      <c r="K29" t="n">
-        <v>31154.49815828202</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5630.472380732403</v>
       </c>
       <c r="M29" t="n">
         <v>18.192367830477</v>
       </c>
       <c r="N29" t="n">
-        <v>25950.49313014148</v>
+        <v>27065.93584006725</v>
       </c>
       <c r="O29" t="n">
         <v>39026.39812035518</v>
@@ -10912,16 +10912,16 @@
         <v>813.535389300249</v>
       </c>
       <c r="Q29" t="n">
-        <v>3506.334507323125</v>
+        <v>2884.504402422235</v>
       </c>
       <c r="R29" t="n">
         <v>1356.231201171875</v>
       </c>
       <c r="S29" t="n">
+        <v>13188.40479120079</v>
+      </c>
+      <c r="T29" t="n">
         <v>-232.4560000000141</v>
-      </c>
-      <c r="T29" t="n">
-        <v>19051.27498161577</v>
       </c>
     </row>
     <row r="30">
@@ -10944,28 +10944,28 @@
         <v>8285.601776878128</v>
       </c>
       <c r="G30" t="n">
-        <v>40614.62531633762</v>
+        <v>41279.27781496177</v>
       </c>
       <c r="H30" t="n">
-        <v>44448.07076054958</v>
+        <v>43169.58572050182</v>
       </c>
       <c r="I30" t="n">
         <v>20407.09042872198</v>
       </c>
       <c r="J30" t="n">
+        <v>6887.062961608508</v>
+      </c>
+      <c r="K30" t="n">
+        <v>33108.61591715215</v>
+      </c>
+      <c r="L30" t="n">
         <v>9.274774405222038</v>
-      </c>
-      <c r="K30" t="n">
-        <v>29365.34251991509</v>
-      </c>
-      <c r="L30" t="n">
-        <v>7665.05266732275</v>
       </c>
       <c r="M30" t="n">
         <v>725.1710182481579</v>
       </c>
       <c r="N30" t="n">
-        <v>26046.65110762863</v>
+        <v>28234.43024080841</v>
       </c>
       <c r="O30" t="n">
         <v>6129.476665923661</v>
@@ -10974,16 +10974,16 @@
         <v>826.7591227512129</v>
       </c>
       <c r="Q30" t="n">
-        <v>9617.248443897337</v>
+        <v>9018.807087356769</v>
       </c>
       <c r="R30" t="n">
         <v>29076.970703125</v>
       </c>
       <c r="S30" t="n">
+        <v>16142.0874224298</v>
+      </c>
+      <c r="T30" t="n">
         <v>12434.69749999998</v>
-      </c>
-      <c r="T30" t="n">
-        <v>20047.96736010469</v>
       </c>
     </row>
     <row r="31">
@@ -11006,28 +11006,28 @@
         <v>-16102.60418057437</v>
       </c>
       <c r="G31" t="n">
-        <v>37452.54142047645</v>
+        <v>37086.7489293573</v>
       </c>
       <c r="H31" t="n">
-        <v>23855.46307513787</v>
+        <v>19968.16566855012</v>
       </c>
       <c r="I31" t="n">
         <v>-8370.699624495779</v>
       </c>
       <c r="J31" t="n">
+        <v>4248.68572480478</v>
+      </c>
+      <c r="K31" t="n">
+        <v>28900.93759839831</v>
+      </c>
+      <c r="L31" t="n">
         <v>-4.78871999658485</v>
-      </c>
-      <c r="K31" t="n">
-        <v>30388.03138397334</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4437.806433369641</v>
       </c>
       <c r="M31" t="n">
         <v>-264.5597914918802</v>
       </c>
       <c r="N31" t="n">
-        <v>27220.10708582847</v>
+        <v>30033.95084015725</v>
       </c>
       <c r="O31" t="n">
         <v>22528.89567107038</v>
@@ -11036,16 +11036,16 @@
         <v>810.7585375980128</v>
       </c>
       <c r="Q31" t="n">
-        <v>-2175.866227862922</v>
+        <v>-2613.55967479733</v>
       </c>
       <c r="R31" t="n">
         <v>-19374.58984375</v>
       </c>
       <c r="S31" t="n">
+        <v>-4777.433508609184</v>
+      </c>
+      <c r="T31" t="n">
         <v>1826.176999999946</v>
-      </c>
-      <c r="T31" t="n">
-        <v>-211.9584152434823</v>
       </c>
     </row>
   </sheetData>
@@ -11115,19 +11115,19 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>rf</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>elasticnet</t>
@@ -11160,12 +11160,12 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
     </row>
@@ -11189,28 +11189,28 @@
         <v>61106.42531200631</v>
       </c>
       <c r="G2" t="n">
-        <v>35324.44067375112</v>
+        <v>37990.08709957275</v>
       </c>
       <c r="H2" t="n">
-        <v>23032.75979219599</v>
+        <v>36980.9507190719</v>
       </c>
       <c r="I2" t="n">
         <v>84700.84847235667</v>
       </c>
       <c r="J2" t="n">
+        <v>73035.39139839058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>32244.00780575721</v>
+      </c>
+      <c r="L2" t="n">
         <v>63796.60674259328</v>
-      </c>
-      <c r="K2" t="n">
-        <v>29574.14197309612</v>
-      </c>
-      <c r="L2" t="n">
-        <v>73126.96443095001</v>
       </c>
       <c r="M2" t="n">
         <v>64864.29797424785</v>
       </c>
       <c r="N2" t="n">
-        <v>24068.62814435958</v>
+        <v>26110.09636557399</v>
       </c>
       <c r="O2" t="n">
         <v>10420.36625339445</v>
@@ -11219,16 +11219,16 @@
         <v>64617.27997616204</v>
       </c>
       <c r="Q2" t="n">
-        <v>7548.155329733634</v>
+        <v>7545.712362608975</v>
       </c>
       <c r="R2" t="n">
         <v>71600.85687499962</v>
       </c>
       <c r="S2" t="n">
+        <v>80770.97905244083</v>
+      </c>
+      <c r="T2" t="n">
         <v>79470.63449999959</v>
-      </c>
-      <c r="T2" t="n">
-        <v>78843.82583555466</v>
       </c>
     </row>
     <row r="3">
@@ -11251,28 +11251,28 @@
         <v>46763.56296036854</v>
       </c>
       <c r="G3" t="n">
-        <v>34473.20593199546</v>
+        <v>35395.39345175216</v>
       </c>
       <c r="H3" t="n">
-        <v>24483.73831584005</v>
+        <v>24030.24346134885</v>
       </c>
       <c r="I3" t="n">
         <v>76232.05967562385</v>
       </c>
       <c r="J3" t="n">
+        <v>76493.03310470939</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29460.62324219494</v>
+      </c>
+      <c r="L3" t="n">
         <v>63787.75582754576</v>
-      </c>
-      <c r="K3" t="n">
-        <v>26287.75008043496</v>
-      </c>
-      <c r="L3" t="n">
-        <v>76946.6489063647</v>
       </c>
       <c r="M3" t="n">
         <v>64410.86087013247</v>
       </c>
       <c r="N3" t="n">
-        <v>23503.65672009288</v>
+        <v>27239.59105112104</v>
       </c>
       <c r="O3" t="n">
         <v>26622.08502430787</v>
@@ -11281,16 +11281,16 @@
         <v>65424.71337109948</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1223.734375366237</v>
+        <v>-1732.226051220001</v>
       </c>
       <c r="R3" t="n">
         <v>73921.85736328087</v>
       </c>
       <c r="S3" t="n">
+        <v>71501.16166216823</v>
+      </c>
+      <c r="T3" t="n">
         <v>73710.62949999953</v>
-      </c>
-      <c r="T3" t="n">
-        <v>75704.69628295614</v>
       </c>
     </row>
     <row r="4">
@@ -11313,28 +11313,28 @@
         <v>25573.66827545166</v>
       </c>
       <c r="G4" t="n">
-        <v>23501.71110061496</v>
+        <v>20240.991409578</v>
       </c>
       <c r="H4" t="n">
-        <v>23521.38935343175</v>
+        <v>-3667.891429396717</v>
       </c>
       <c r="I4" t="n">
         <v>38811.90235130258</v>
       </c>
       <c r="J4" t="n">
+        <v>49223.61214447369</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28888.03622562138</v>
+      </c>
+      <c r="L4" t="n">
         <v>63774.57542349817</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25536.63527225404</v>
-      </c>
-      <c r="L4" t="n">
-        <v>49947.80449827153</v>
       </c>
       <c r="M4" t="n">
         <v>62551.00393511124</v>
       </c>
       <c r="N4" t="n">
-        <v>23443.30410459935</v>
+        <v>24456.14609680175</v>
       </c>
       <c r="O4" t="n">
         <v>43740.11813860359</v>
@@ -11343,16 +11343,16 @@
         <v>66218.01642649315</v>
       </c>
       <c r="Q4" t="n">
-        <v>-16281.04066900908</v>
+        <v>-15335.49207430412</v>
       </c>
       <c r="R4" t="n">
         <v>40084.19720703087</v>
       </c>
       <c r="S4" t="n">
+        <v>52368.70392048941</v>
+      </c>
+      <c r="T4" t="n">
         <v>51627.23749999949</v>
-      </c>
-      <c r="T4" t="n">
-        <v>47335.37181328282</v>
       </c>
     </row>
     <row r="5">
@@ -11375,28 +11375,28 @@
         <v>44268.41823397622</v>
       </c>
       <c r="G5" t="n">
-        <v>32083.28700305615</v>
+        <v>31701.96546013077</v>
       </c>
       <c r="H5" t="n">
-        <v>24312.09189207255</v>
+        <v>16373.98592579289</v>
       </c>
       <c r="I5" t="n">
         <v>58618.55131857761</v>
       </c>
       <c r="J5" t="n">
+        <v>58546.2250610405</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30425.67707482575</v>
+      </c>
+      <c r="L5" t="n">
         <v>63788.73039037533</v>
-      </c>
-      <c r="K5" t="n">
-        <v>25299.56340940295</v>
-      </c>
-      <c r="L5" t="n">
-        <v>59737.27310204774</v>
       </c>
       <c r="M5" t="n">
         <v>64146.22689164715</v>
       </c>
       <c r="N5" t="n">
-        <v>25543.35453858821</v>
+        <v>25686.09603896736</v>
       </c>
       <c r="O5" t="n">
         <v>48114.74462822801</v>
@@ -11405,16 +11405,16 @@
         <v>67067.56082472758</v>
       </c>
       <c r="Q5" t="n">
-        <v>11125.24976684947</v>
+        <v>10823.23751515103</v>
       </c>
       <c r="R5" t="n">
         <v>65505.01166015587</v>
       </c>
       <c r="S5" t="n">
+        <v>78992.06856820012</v>
+      </c>
+      <c r="T5" t="n">
         <v>71260.49054999952</v>
-      </c>
-      <c r="T5" t="n">
-        <v>73527.05250689838</v>
       </c>
     </row>
     <row r="6">
@@ -11437,28 +11437,28 @@
         <v>58092.7528044351</v>
       </c>
       <c r="G6" t="n">
-        <v>41693.70286191459</v>
+        <v>41607.49323999904</v>
       </c>
       <c r="H6" t="n">
-        <v>36177.99521367697</v>
+        <v>35318.74598735271</v>
       </c>
       <c r="I6" t="n">
         <v>81055.94439838878</v>
       </c>
       <c r="J6" t="n">
+        <v>67901.15018198731</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29008.33143515287</v>
+      </c>
+      <c r="L6" t="n">
         <v>63798.61420587061</v>
-      </c>
-      <c r="K6" t="n">
-        <v>32474.60514376311</v>
-      </c>
-      <c r="L6" t="n">
-        <v>69293.20697333146</v>
       </c>
       <c r="M6" t="n">
         <v>64931.93719259054</v>
       </c>
       <c r="N6" t="n">
-        <v>22914.69268375261</v>
+        <v>26636.74826527833</v>
       </c>
       <c r="O6" t="n">
         <v>42346.0147212294</v>
@@ -11467,16 +11467,16 @@
         <v>67894.88377470123</v>
       </c>
       <c r="Q6" t="n">
-        <v>9570.603325529446</v>
+        <v>9160.342287687126</v>
       </c>
       <c r="R6" t="n">
         <v>91364.69916015587</v>
       </c>
       <c r="S6" t="n">
+        <v>94922.71669420885</v>
+      </c>
+      <c r="T6" t="n">
         <v>82545.71554999951</v>
-      </c>
-      <c r="T6" t="n">
-        <v>92184.73235251414</v>
       </c>
     </row>
     <row r="7">
@@ -11499,28 +11499,28 @@
         <v>49448.96833571709</v>
       </c>
       <c r="G7" t="n">
-        <v>41108.56297561189</v>
+        <v>42512.09729455989</v>
       </c>
       <c r="H7" t="n">
-        <v>30521.49813545791</v>
+        <v>32225.41380951552</v>
       </c>
       <c r="I7" t="n">
         <v>56061.57729637897</v>
       </c>
       <c r="J7" t="n">
+        <v>55391.93691305174</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30595.26067747174</v>
+      </c>
+      <c r="L7" t="n">
         <v>63800.64077549941</v>
-      </c>
-      <c r="K7" t="n">
-        <v>25131.90277559905</v>
-      </c>
-      <c r="L7" t="n">
-        <v>57049.67584065995</v>
       </c>
       <c r="M7" t="n">
         <v>65225.86018600363</v>
       </c>
       <c r="N7" t="n">
-        <v>25408.53376276194</v>
+        <v>28066.00041946767</v>
       </c>
       <c r="O7" t="n">
         <v>46926.72790776837</v>
@@ -11529,16 +11529,16 @@
         <v>68711.24087675588</v>
       </c>
       <c r="Q7" t="n">
-        <v>-6166.72091246647</v>
+        <v>-6002.882261016783</v>
       </c>
       <c r="R7" t="n">
         <v>73648.74994140587</v>
       </c>
       <c r="S7" t="n">
+        <v>78563.48817585337</v>
+      </c>
+      <c r="T7" t="n">
         <v>93745.33649999948</v>
-      </c>
-      <c r="T7" t="n">
-        <v>75874.157485259</v>
       </c>
     </row>
     <row r="8">
@@ -11561,28 +11561,28 @@
         <v>53681.15584600053</v>
       </c>
       <c r="G8" t="n">
-        <v>39246.18647487103</v>
+        <v>40577.0511882876</v>
       </c>
       <c r="H8" t="n">
-        <v>41454.66303636131</v>
+        <v>38093.3357496157</v>
       </c>
       <c r="I8" t="n">
         <v>60516.4701166325</v>
       </c>
       <c r="J8" t="n">
+        <v>61521.1998072357</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36492.37995936273</v>
+      </c>
+      <c r="L8" t="n">
         <v>63795.866835713</v>
-      </c>
-      <c r="K8" t="n">
-        <v>26049.5037762828</v>
-      </c>
-      <c r="L8" t="n">
-        <v>62774.20668748447</v>
       </c>
       <c r="M8" t="n">
         <v>65212.92399259502</v>
       </c>
       <c r="N8" t="n">
-        <v>23318.88802051617</v>
+        <v>25553.39211809783</v>
       </c>
       <c r="O8" t="n">
         <v>39461.72967586313</v>
@@ -11591,16 +11591,16 @@
         <v>69525.54587848079</v>
       </c>
       <c r="Q8" t="n">
-        <v>3705.783098496818</v>
+        <v>3185.030796447125</v>
       </c>
       <c r="R8" t="n">
         <v>81922.21087890587</v>
       </c>
       <c r="S8" t="n">
+        <v>84474.2605827324</v>
+      </c>
+      <c r="T8" t="n">
         <v>97608.71249999948</v>
-      </c>
-      <c r="T8" t="n">
-        <v>87180.56523407417</v>
       </c>
     </row>
     <row r="9">
@@ -11623,28 +11623,28 @@
         <v>70112.71894776932</v>
       </c>
       <c r="G9" t="n">
-        <v>37129.18334843794</v>
+        <v>36674.00504483646</v>
       </c>
       <c r="H9" t="n">
-        <v>32215.17280850856</v>
+        <v>29766.5501034364</v>
       </c>
       <c r="I9" t="n">
         <v>78998.55265080868</v>
       </c>
       <c r="J9" t="n">
+        <v>71275.59289603855</v>
+      </c>
+      <c r="K9" t="n">
+        <v>28580.51059854923</v>
+      </c>
+      <c r="L9" t="n">
         <v>63809.37399038506</v>
-      </c>
-      <c r="K9" t="n">
-        <v>31638.43790046571</v>
-      </c>
-      <c r="L9" t="n">
-        <v>72303.05257528981</v>
       </c>
       <c r="M9" t="n">
         <v>66278.69146835856</v>
       </c>
       <c r="N9" t="n">
-        <v>24419.58426111488</v>
+        <v>26739.88614289312</v>
       </c>
       <c r="O9" t="n">
         <v>6647.416987219958</v>
@@ -11653,16 +11653,16 @@
         <v>70358.39010854372</v>
       </c>
       <c r="Q9" t="n">
-        <v>9594.057509978056</v>
+        <v>8298.18463693472</v>
       </c>
       <c r="R9" t="n">
         <v>93242.91400390587</v>
       </c>
       <c r="S9" t="n">
+        <v>105492.5822097814</v>
+      </c>
+      <c r="T9" t="n">
         <v>113296.0369999995</v>
-      </c>
-      <c r="T9" t="n">
-        <v>119589.8929767458</v>
       </c>
     </row>
     <row r="10">
@@ -11685,28 +11685,28 @@
         <v>47686.5413209129</v>
       </c>
       <c r="G10" t="n">
-        <v>34403.38786694747</v>
+        <v>33798.80759815924</v>
       </c>
       <c r="H10" t="n">
-        <v>23705.23629934861</v>
+        <v>17800.54115591197</v>
       </c>
       <c r="I10" t="n">
         <v>75883.55852658355</v>
       </c>
       <c r="J10" t="n">
+        <v>75302.27211061644</v>
+      </c>
+      <c r="K10" t="n">
+        <v>25518.02856216876</v>
+      </c>
+      <c r="L10" t="n">
         <v>63799.71734048978</v>
-      </c>
-      <c r="K10" t="n">
-        <v>26152.40485856084</v>
-      </c>
-      <c r="L10" t="n">
-        <v>76953.13844899279</v>
       </c>
       <c r="M10" t="n">
         <v>65789.00158944007</v>
       </c>
       <c r="N10" t="n">
-        <v>24061.75949036329</v>
+        <v>26368.76904867439</v>
       </c>
       <c r="O10" t="n">
         <v>22058.18637164952</v>
@@ -11715,16 +11715,16 @@
         <v>71166.29970627687</v>
       </c>
       <c r="Q10" t="n">
-        <v>-481.0651244057152</v>
+        <v>273.3077778806627</v>
       </c>
       <c r="R10" t="n">
         <v>100540.6908593746</v>
       </c>
       <c r="S10" t="n">
+        <v>106616.6693942081</v>
+      </c>
+      <c r="T10" t="n">
         <v>108968.2709999994</v>
-      </c>
-      <c r="T10" t="n">
-        <v>111749.2008870123</v>
       </c>
     </row>
     <row r="11">
@@ -11747,28 +11747,28 @@
         <v>23639.43292687665</v>
       </c>
       <c r="G11" t="n">
-        <v>21739.90857450257</v>
+        <v>22666.47187002317</v>
       </c>
       <c r="H11" t="n">
-        <v>2486.236214007994</v>
+        <v>12034.46743291802</v>
       </c>
       <c r="I11" t="n">
         <v>45712.80184831</v>
       </c>
       <c r="J11" t="n">
+        <v>53108.141713405</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31100.70270761697</v>
+      </c>
+      <c r="L11" t="n">
         <v>63787.40540028453</v>
-      </c>
-      <c r="K11" t="n">
-        <v>34464.87153840361</v>
-      </c>
-      <c r="L11" t="n">
-        <v>55536.87270507062</v>
       </c>
       <c r="M11" t="n">
         <v>64069.44624793545</v>
       </c>
       <c r="N11" t="n">
-        <v>23768.51627732737</v>
+        <v>24070.39695784821</v>
       </c>
       <c r="O11" t="n">
         <v>38745.74707449323</v>
@@ -11777,16 +11777,16 @@
         <v>71961.85512060751</v>
       </c>
       <c r="Q11" t="n">
-        <v>-15900.28090078614</v>
+        <v>-15289.26309162211</v>
       </c>
       <c r="R11" t="n">
         <v>62387.69085937462</v>
       </c>
       <c r="S11" t="n">
+        <v>79257.88806786048</v>
+      </c>
+      <c r="T11" t="n">
         <v>84647.26849999938</v>
-      </c>
-      <c r="T11" t="n">
-        <v>79415.62784733834</v>
       </c>
     </row>
     <row r="12">
@@ -11809,28 +11809,28 @@
         <v>52401.10290953234</v>
       </c>
       <c r="G12" t="n">
-        <v>31850.72279106883</v>
+        <v>32456.94087535019</v>
       </c>
       <c r="H12" t="n">
-        <v>19929.59186711608</v>
+        <v>20376.09410763605</v>
       </c>
       <c r="I12" t="n">
         <v>64931.59064940813</v>
       </c>
       <c r="J12" t="n">
+        <v>62470.8346323454</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31579.12146322427</v>
+      </c>
+      <c r="L12" t="n">
         <v>63801.70231312962</v>
-      </c>
-      <c r="K12" t="n">
-        <v>29166.03395096956</v>
-      </c>
-      <c r="L12" t="n">
-        <v>65610.51781819027</v>
       </c>
       <c r="M12" t="n">
         <v>65651.25148666913</v>
       </c>
       <c r="N12" t="n">
-        <v>25047.69740031136</v>
+        <v>26431.63423750623</v>
       </c>
       <c r="O12" t="n">
         <v>43055.44026560965</v>
@@ -11839,16 +11839,16 @@
         <v>72809.51122172942</v>
       </c>
       <c r="Q12" t="n">
-        <v>12397.12681616944</v>
+        <v>11517.63029487377</v>
       </c>
       <c r="R12" t="n">
         <v>94435.71820312462</v>
       </c>
       <c r="S12" t="n">
+        <v>100720.2440848016</v>
+      </c>
+      <c r="T12" t="n">
         <v>107329.6880499994</v>
-      </c>
-      <c r="T12" t="n">
-        <v>107274.8441944237</v>
       </c>
     </row>
     <row r="13">
@@ -11871,28 +11871,28 @@
         <v>59170.36815956895</v>
       </c>
       <c r="G13" t="n">
-        <v>41639.81519628251</v>
+        <v>41745.35326593964</v>
       </c>
       <c r="H13" t="n">
-        <v>42765.71776521055</v>
+        <v>32267.24871182887</v>
       </c>
       <c r="I13" t="n">
         <v>82828.27978950429</v>
       </c>
       <c r="J13" t="n">
+        <v>70624.45622648494</v>
+      </c>
+      <c r="K13" t="n">
+        <v>32321.09819632916</v>
+      </c>
+      <c r="L13" t="n">
         <v>63809.18896594412</v>
-      </c>
-      <c r="K13" t="n">
-        <v>24996.14117534755</v>
-      </c>
-      <c r="L13" t="n">
-        <v>74617.0006010622</v>
       </c>
       <c r="M13" t="n">
         <v>66228.9759038998</v>
       </c>
       <c r="N13" t="n">
-        <v>23660.88882369696</v>
+        <v>27573.16734369694</v>
       </c>
       <c r="O13" t="n">
         <v>37670.29100100447</v>
@@ -11901,16 +11901,16 @@
         <v>73634.13495214998</v>
       </c>
       <c r="Q13" t="n">
-        <v>8754.197506203793</v>
+        <v>8465.113550468584</v>
       </c>
       <c r="R13" t="n">
         <v>117659.7631249996</v>
       </c>
       <c r="S13" t="n">
+        <v>122745.0371247796</v>
+      </c>
+      <c r="T13" t="n">
         <v>117285.4335499994</v>
-      </c>
-      <c r="T13" t="n">
-        <v>128611.4405400528</v>
       </c>
     </row>
     <row r="14">
@@ -11933,28 +11933,28 @@
         <v>64072.0003989498</v>
       </c>
       <c r="G14" t="n">
-        <v>43551.59102986001</v>
+        <v>43932.69961590536</v>
       </c>
       <c r="H14" t="n">
-        <v>45158.272420077</v>
+        <v>41176.63034794328</v>
       </c>
       <c r="I14" t="n">
         <v>57885.42481479795</v>
       </c>
       <c r="J14" t="n">
+        <v>57632.83886322162</v>
+      </c>
+      <c r="K14" t="n">
+        <v>32335.83036258219</v>
+      </c>
+      <c r="L14" t="n">
         <v>63813.80472160877</v>
-      </c>
-      <c r="K14" t="n">
-        <v>29389.51789349018</v>
-      </c>
-      <c r="L14" t="n">
-        <v>61306.24315416306</v>
       </c>
       <c r="M14" t="n">
         <v>66647.97042549694</v>
       </c>
       <c r="N14" t="n">
-        <v>23126.64199168159</v>
+        <v>26829.73169704078</v>
       </c>
       <c r="O14" t="n">
         <v>42972.37177798508</v>
@@ -11963,16 +11963,16 @@
         <v>74452.63172479862</v>
       </c>
       <c r="Q14" t="n">
-        <v>-6817.76628439592</v>
+        <v>-7317.135698422289</v>
       </c>
       <c r="R14" t="n">
         <v>96278.44671874962</v>
       </c>
       <c r="S14" t="n">
+        <v>100601.5934787151</v>
+      </c>
+      <c r="T14" t="n">
         <v>122875.7674999994</v>
-      </c>
-      <c r="T14" t="n">
-        <v>115055.342282066</v>
       </c>
     </row>
     <row r="15">
@@ -11995,28 +11995,28 @@
         <v>61421.87282684066</v>
       </c>
       <c r="G15" t="n">
-        <v>39826.47217686397</v>
+        <v>39383.12001812486</v>
       </c>
       <c r="H15" t="n">
-        <v>40724.21458092627</v>
+        <v>34187.72881903646</v>
       </c>
       <c r="I15" t="n">
         <v>62699.05462005024</v>
       </c>
       <c r="J15" t="n">
+        <v>64198.47005928273</v>
+      </c>
+      <c r="K15" t="n">
+        <v>29908.08061021416</v>
+      </c>
+      <c r="L15" t="n">
         <v>63809.41953732513</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29202.50043282954</v>
-      </c>
-      <c r="L15" t="n">
-        <v>66945.55290283893</v>
       </c>
       <c r="M15" t="n">
         <v>66672.79876876554</v>
       </c>
       <c r="N15" t="n">
-        <v>24375.88678071646</v>
+        <v>27103.32725404797</v>
       </c>
       <c r="O15" t="n">
         <v>35601.12773515782</v>
@@ -12025,16 +12025,16 @@
         <v>75267.79707949983</v>
       </c>
       <c r="Q15" t="n">
-        <v>3521.343723225885</v>
+        <v>3085.959657591619</v>
       </c>
       <c r="R15" t="n">
         <v>101014.7157617184</v>
       </c>
       <c r="S15" t="n">
+        <v>107508.5120095379</v>
+      </c>
+      <c r="T15" t="n">
         <v>128326.1444999994</v>
-      </c>
-      <c r="T15" t="n">
-        <v>126946.1945331682</v>
       </c>
     </row>
     <row r="16">
@@ -12057,28 +12057,28 @@
         <v>73966.32603955286</v>
       </c>
       <c r="G16" t="n">
-        <v>36120.9984052306</v>
+        <v>37782.42486809612</v>
       </c>
       <c r="H16" t="n">
-        <v>25627.10380473731</v>
+        <v>33027.89572423694</v>
       </c>
       <c r="I16" t="n">
         <v>81488.69351557556</v>
       </c>
       <c r="J16" t="n">
+        <v>73224.97936065971</v>
+      </c>
+      <c r="K16" t="n">
+        <v>30652.35219208596</v>
+      </c>
+      <c r="L16" t="n">
         <v>63821.56680460012</v>
-      </c>
-      <c r="K16" t="n">
-        <v>28655.85919255016</v>
-      </c>
-      <c r="L16" t="n">
-        <v>76065.09777635294</v>
       </c>
       <c r="M16" t="n">
         <v>67608.8884975025</v>
       </c>
       <c r="N16" t="n">
-        <v>25837.77854984699</v>
+        <v>28070.47887087016</v>
       </c>
       <c r="O16" t="n">
         <v>3299.520914896822</v>
@@ -12087,16 +12087,16 @@
         <v>76098.14590462224</v>
       </c>
       <c r="Q16" t="n">
-        <v>9229.931137041012</v>
+        <v>8552.657302846843</v>
       </c>
       <c r="R16" t="n">
         <v>119340.5145898434</v>
       </c>
       <c r="S16" t="n">
+        <v>124442.0737674151</v>
+      </c>
+      <c r="T16" t="n">
         <v>144013.4689999994</v>
-      </c>
-      <c r="T16" t="n">
-        <v>149228.4127601976</v>
       </c>
     </row>
     <row r="17">
@@ -12119,28 +12119,28 @@
         <v>58759.10140062906</v>
       </c>
       <c r="G17" t="n">
-        <v>32614.55186969912</v>
+        <v>35003.88890049067</v>
       </c>
       <c r="H17" t="n">
-        <v>12204.72804773486</v>
+        <v>21362.86000664754</v>
       </c>
       <c r="I17" t="n">
         <v>77695.22677342049</v>
       </c>
       <c r="J17" t="n">
+        <v>76735.58705127928</v>
+      </c>
+      <c r="K17" t="n">
+        <v>31435.98265523313</v>
+      </c>
+      <c r="L17" t="n">
         <v>63813.32093689858</v>
-      </c>
-      <c r="K17" t="n">
-        <v>26104.33381596951</v>
-      </c>
-      <c r="L17" t="n">
-        <v>79668.34990937129</v>
       </c>
       <c r="M17" t="n">
         <v>67163.58967411934</v>
       </c>
       <c r="N17" t="n">
-        <v>24985.2183944784</v>
+        <v>27220.7968118429</v>
       </c>
       <c r="O17" t="n">
         <v>15718.39988815706</v>
@@ -12149,16 +12149,16 @@
         <v>76906.43163986722</v>
       </c>
       <c r="Q17" t="n">
-        <v>-945.2958825571147</v>
+        <v>-1011.907396438142</v>
       </c>
       <c r="R17" t="n">
         <v>115932.835146484</v>
       </c>
       <c r="S17" t="n">
+        <v>123493.466235802</v>
+      </c>
+      <c r="T17" t="n">
         <v>139685.7029999993</v>
-      </c>
-      <c r="T17" t="n">
-        <v>148732.4467083806</v>
       </c>
     </row>
     <row r="18">
@@ -12181,28 +12181,28 @@
         <v>33937.83806442365</v>
       </c>
       <c r="G18" t="n">
-        <v>23483.05193642695</v>
+        <v>24711.23828686111</v>
       </c>
       <c r="H18" t="n">
-        <v>17757.18694929032</v>
+        <v>24550.96753148212</v>
       </c>
       <c r="I18" t="n">
         <v>48460.5284647416</v>
       </c>
       <c r="J18" t="n">
+        <v>55642.19533269727</v>
+      </c>
+      <c r="K18" t="n">
+        <v>30468.82468148915</v>
+      </c>
+      <c r="L18" t="n">
         <v>63803.15053845482</v>
-      </c>
-      <c r="K18" t="n">
-        <v>30621.50840755103</v>
-      </c>
-      <c r="L18" t="n">
-        <v>59218.16702696085</v>
       </c>
       <c r="M18" t="n">
         <v>65618.07529018955</v>
       </c>
       <c r="N18" t="n">
-        <v>24540.89181044175</v>
+        <v>26497.099407351</v>
       </c>
       <c r="O18" t="n">
         <v>34304.73257755489</v>
@@ -12211,16 +12211,16 @@
         <v>77704.56430858777</v>
       </c>
       <c r="Q18" t="n">
-        <v>-15778.33674869014</v>
+        <v>-14738.16292870947</v>
       </c>
       <c r="R18" t="n">
         <v>75652.67499023399</v>
       </c>
       <c r="S18" t="n">
+        <v>96410.75981707269</v>
+      </c>
+      <c r="T18" t="n">
         <v>119701.5264999993</v>
-      </c>
-      <c r="T18" t="n">
-        <v>112412.941639814</v>
       </c>
     </row>
     <row r="19">
@@ -12243,28 +12243,28 @@
         <v>60421.58152539763</v>
       </c>
       <c r="G19" t="n">
-        <v>31086.44254570026</v>
+        <v>32942.00894602854</v>
       </c>
       <c r="H19" t="n">
-        <v>11198.43765805438</v>
+        <v>19312.47779185026</v>
       </c>
       <c r="I19" t="n">
         <v>71431.51835975634</v>
       </c>
       <c r="J19" t="n">
+        <v>64619.6421961828</v>
+      </c>
+      <c r="K19" t="n">
+        <v>30356.21816886513</v>
+      </c>
+      <c r="L19" t="n">
         <v>63816.62116484674</v>
-      </c>
-      <c r="K19" t="n">
-        <v>28700.85348499416</v>
-      </c>
-      <c r="L19" t="n">
-        <v>68631.35540143818</v>
       </c>
       <c r="M19" t="n">
         <v>67081.24563792544</v>
       </c>
       <c r="N19" t="n">
-        <v>25320.81618818416</v>
+        <v>28540.37617281525</v>
       </c>
       <c r="O19" t="n">
         <v>42185.63954230393</v>
@@ -12273,16 +12273,16 @@
         <v>78550.480499449</v>
       </c>
       <c r="Q19" t="n">
-        <v>11706.76895304494</v>
+        <v>10914.23098217093</v>
       </c>
       <c r="R19" t="n">
         <v>102485.905458984</v>
       </c>
       <c r="S19" t="n">
+        <v>116534.9895388852</v>
+      </c>
+      <c r="T19" t="n">
         <v>140114.9190499993</v>
-      </c>
-      <c r="T19" t="n">
-        <v>138529.3561212799</v>
       </c>
     </row>
     <row r="20">
@@ -12305,28 +12305,28 @@
         <v>67941.42753467849</v>
       </c>
       <c r="G20" t="n">
-        <v>44144.92000971959</v>
+        <v>42925.46489136678</v>
       </c>
       <c r="H20" t="n">
-        <v>43286.20027231571</v>
+        <v>36746.9270002201</v>
       </c>
       <c r="I20" t="n">
         <v>80998.14758642451</v>
       </c>
       <c r="J20" t="n">
+        <v>70816.40119768286</v>
+      </c>
+      <c r="K20" t="n">
+        <v>27157.12906163482</v>
+      </c>
+      <c r="L20" t="n">
         <v>63822.52182434657</v>
-      </c>
-      <c r="K20" t="n">
-        <v>31820.66224209515</v>
-      </c>
-      <c r="L20" t="n">
-        <v>76995.40157447693</v>
       </c>
       <c r="M20" t="n">
         <v>67579.42696251707</v>
       </c>
       <c r="N20" t="n">
-        <v>25912.18631942271</v>
+        <v>28578.80694350897</v>
       </c>
       <c r="O20" t="n">
         <v>41166.66873265</v>
@@ -12335,16 +12335,16 @@
         <v>79373.45224769766</v>
       </c>
       <c r="Q20" t="n">
-        <v>6575.779270232578</v>
+        <v>6213.227852746777</v>
       </c>
       <c r="R20" t="n">
         <v>118038.6779199215</v>
       </c>
       <c r="S20" t="n">
+        <v>135388.1468332763</v>
+      </c>
+      <c r="T20" t="n">
         <v>149220.8105499992</v>
-      </c>
-      <c r="T20" t="n">
-        <v>155864.7896041687</v>
       </c>
     </row>
     <row r="21">
@@ -12367,28 +12367,28 @@
         <v>69882.7824583381</v>
       </c>
       <c r="G21" t="n">
-        <v>45869.93120265175</v>
+        <v>45210.7676789621</v>
       </c>
       <c r="H21" t="n">
-        <v>50734.62460680303</v>
+        <v>34725.02220582066</v>
       </c>
       <c r="I21" t="n">
         <v>56473.22397933406</v>
       </c>
       <c r="J21" t="n">
+        <v>58302.18314626197</v>
+      </c>
+      <c r="K21" t="n">
+        <v>34254.03787024914</v>
+      </c>
+      <c r="L21" t="n">
         <v>63828.12610301978</v>
-      </c>
-      <c r="K21" t="n">
-        <v>26460.85382852329</v>
-      </c>
-      <c r="L21" t="n">
-        <v>64452.0692212396</v>
       </c>
       <c r="M21" t="n">
         <v>68053.43998099137</v>
       </c>
       <c r="N21" t="n">
-        <v>27455.45622287391</v>
+        <v>31057.72991630284</v>
       </c>
       <c r="O21" t="n">
         <v>47781.19574167953</v>
@@ -12397,16 +12397,16 @@
         <v>80193.00688272285</v>
       </c>
       <c r="Q21" t="n">
-        <v>-5228.567269246333</v>
+        <v>-5507.91117828743</v>
       </c>
       <c r="R21" t="n">
         <v>106965.5997949215</v>
       </c>
       <c r="S21" t="n">
+        <v>116754.2997777304</v>
+      </c>
+      <c r="T21" t="n">
         <v>158414.6294999992</v>
-      </c>
-      <c r="T21" t="n">
-        <v>142840.3421988732</v>
       </c>
     </row>
     <row r="22">
@@ -12429,28 +12429,28 @@
         <v>66871.23177836006</v>
       </c>
       <c r="G22" t="n">
-        <v>41184.90500977622</v>
+        <v>39082.41760441178</v>
       </c>
       <c r="H22" t="n">
-        <v>45237.02514569757</v>
+        <v>28472.78620186148</v>
       </c>
       <c r="I22" t="n">
         <v>61590.85445451894</v>
       </c>
       <c r="J22" t="n">
+        <v>64981.31380878793</v>
+      </c>
+      <c r="K22" t="n">
+        <v>30511.73072512446</v>
+      </c>
+      <c r="L22" t="n">
         <v>63824.52033968118</v>
-      </c>
-      <c r="K22" t="n">
-        <v>29684.8668368697</v>
-      </c>
-      <c r="L22" t="n">
-        <v>70082.541601972</v>
       </c>
       <c r="M22" t="n">
         <v>68091.24366081826</v>
       </c>
       <c r="N22" t="n">
-        <v>25413.65108480452</v>
+        <v>26633.61430283485</v>
       </c>
       <c r="O22" t="n">
         <v>34634.16139973752</v>
@@ -12459,16 +12459,16 @@
         <v>81008.27390437138</v>
       </c>
       <c r="Q22" t="n">
-        <v>3608.218965494791</v>
+        <v>3207.896712707548</v>
       </c>
       <c r="R22" t="n">
         <v>108668.5778222652</v>
       </c>
       <c r="S22" t="n">
+        <v>131003.4587336165</v>
+      </c>
+      <c r="T22" t="n">
         <v>162152.4654499992</v>
-      </c>
-      <c r="T22" t="n">
-        <v>160503.211164074</v>
       </c>
     </row>
     <row r="23">
@@ -12491,28 +12491,28 @@
         <v>76454.62241068992</v>
       </c>
       <c r="G23" t="n">
-        <v>36725.65883264127</v>
+        <v>39663.9484123659</v>
       </c>
       <c r="H23" t="n">
-        <v>21588.00469498633</v>
+        <v>39915.33760288206</v>
       </c>
       <c r="I23" t="n">
         <v>82179.09452901535</v>
       </c>
       <c r="J23" t="n">
+        <v>73222.63052477941</v>
+      </c>
+      <c r="K23" t="n">
+        <v>30844.25176868288</v>
+      </c>
+      <c r="L23" t="n">
         <v>63835.83230021827</v>
-      </c>
-      <c r="K23" t="n">
-        <v>31468.59048556535</v>
-      </c>
-      <c r="L23" t="n">
-        <v>78771.92930598617</v>
       </c>
       <c r="M23" t="n">
         <v>68966.39395589681</v>
       </c>
       <c r="N23" t="n">
-        <v>24149.28476805686</v>
+        <v>27014.31763511597</v>
       </c>
       <c r="O23" t="n">
         <v>6003.950612402226</v>
@@ -12521,16 +12521,16 @@
         <v>81837.12889445499</v>
       </c>
       <c r="Q23" t="n">
-        <v>10266.78355387057</v>
+        <v>9492.94913872225</v>
       </c>
       <c r="R23" t="n">
         <v>139489.4313378902</v>
       </c>
       <c r="S23" t="n">
+        <v>145843.9005815184</v>
+      </c>
+      <c r="T23" t="n">
         <v>176041.7994499992</v>
-      </c>
-      <c r="T23" t="n">
-        <v>181839.8497177535</v>
       </c>
     </row>
     <row r="24">
@@ -12553,28 +12553,28 @@
         <v>61373.07565677076</v>
       </c>
       <c r="G24" t="n">
-        <v>34925.45651369736</v>
+        <v>36234.0953852327</v>
       </c>
       <c r="H24" t="n">
-        <v>16086.39560546055</v>
+        <v>25636.78539662658</v>
       </c>
       <c r="I24" t="n">
         <v>76730.13915694066</v>
       </c>
       <c r="J24" t="n">
+        <v>77309.11510519893</v>
+      </c>
+      <c r="K24" t="n">
+        <v>28642.97053361682</v>
+      </c>
+      <c r="L24" t="n">
         <v>63828.54677614842</v>
-      </c>
-      <c r="K24" t="n">
-        <v>28530.51023019402</v>
-      </c>
-      <c r="L24" t="n">
-        <v>83082.8201561881</v>
       </c>
       <c r="M24" t="n">
         <v>68596.43436656283</v>
       </c>
       <c r="N24" t="n">
-        <v>25711.55392151399</v>
+        <v>25209.17592767252</v>
       </c>
       <c r="O24" t="n">
         <v>20417.49800427219</v>
@@ -12583,16 +12583,16 @@
         <v>82646.40403601287</v>
       </c>
       <c r="Q24" t="n">
-        <v>-2434.788139294384</v>
+        <v>-2310.078415515462</v>
       </c>
       <c r="R24" t="n">
         <v>121860.3864160152</v>
       </c>
       <c r="S24" t="n">
+        <v>145098.2051282233</v>
+      </c>
+      <c r="T24" t="n">
         <v>173667.1004499991</v>
-      </c>
-      <c r="T24" t="n">
-        <v>179043.1860856809</v>
       </c>
     </row>
     <row r="25">
@@ -12615,28 +12615,28 @@
         <v>39814.17747788329</v>
       </c>
       <c r="G25" t="n">
-        <v>23209.72329492441</v>
+        <v>25755.28088413988</v>
       </c>
       <c r="H25" t="n">
-        <v>8590.195825245226</v>
+        <v>22385.82380757331</v>
       </c>
       <c r="I25" t="n">
         <v>45328.11182775072</v>
       </c>
       <c r="J25" t="n">
+        <v>58868.06783557545</v>
+      </c>
+      <c r="K25" t="n">
+        <v>34017.15035813002</v>
+      </c>
+      <c r="L25" t="n">
         <v>63820.14291595358</v>
-      </c>
-      <c r="K25" t="n">
-        <v>31605.10855951009</v>
-      </c>
-      <c r="L25" t="n">
-        <v>64222.16712155072</v>
       </c>
       <c r="M25" t="n">
         <v>67155.08349981962</v>
       </c>
       <c r="N25" t="n">
-        <v>24286.85014486684</v>
+        <v>25898.08348842709</v>
       </c>
       <c r="O25" t="n">
         <v>36385.80983183318</v>
@@ -12645,16 +12645,16 @@
         <v>83444.7195561198</v>
       </c>
       <c r="Q25" t="n">
-        <v>-14176.35390882427</v>
+        <v>-13278.88294467423</v>
       </c>
       <c r="R25" t="n">
         <v>103326.1539941402</v>
       </c>
       <c r="S25" t="n">
+        <v>116308.2494141894</v>
+      </c>
+      <c r="T25" t="n">
         <v>146602.7734499991</v>
-      </c>
-      <c r="T25" t="n">
-        <v>144505.1994245788</v>
       </c>
     </row>
     <row r="26">
@@ -12677,28 +12677,28 @@
         <v>58550.29209070526</v>
       </c>
       <c r="G26" t="n">
-        <v>33788.30635662492</v>
+        <v>34954.95157422336</v>
       </c>
       <c r="H26" t="n">
-        <v>25312.72064828201</v>
+        <v>29827.16017426251</v>
       </c>
       <c r="I26" t="n">
         <v>64429.22831348857</v>
       </c>
       <c r="J26" t="n">
+        <v>66962.35890985389</v>
+      </c>
+      <c r="K26" t="n">
+        <v>29703.37819312809</v>
+      </c>
+      <c r="L26" t="n">
         <v>63832.31103208366</v>
-      </c>
-      <c r="K26" t="n">
-        <v>29080.21868523805</v>
-      </c>
-      <c r="L26" t="n">
-        <v>73635.35549602806</v>
       </c>
       <c r="M26" t="n">
         <v>68472.09412855588</v>
       </c>
       <c r="N26" t="n">
-        <v>23997.99956478922</v>
+        <v>27026.91705410777</v>
       </c>
       <c r="O26" t="n">
         <v>43484.79975885239</v>
@@ -12707,16 +12707,16 @@
         <v>84286.78721831866</v>
       </c>
       <c r="Q26" t="n">
-        <v>10226.05499975318</v>
+        <v>9594.330412018413</v>
       </c>
       <c r="R26" t="n">
         <v>126465.1832910152</v>
       </c>
       <c r="S26" t="n">
+        <v>134305.7197361511</v>
+      </c>
+      <c r="T26" t="n">
         <v>165899.0409999991</v>
-      </c>
-      <c r="T26" t="n">
-        <v>165772.6998566585</v>
       </c>
     </row>
     <row r="27">
@@ -12739,28 +12739,28 @@
         <v>69226.82213381268</v>
       </c>
       <c r="G27" t="n">
-        <v>45370.39281886705</v>
+        <v>46099.10901311375</v>
       </c>
       <c r="H27" t="n">
-        <v>41607.52475623337</v>
+        <v>45921.1348197296</v>
       </c>
       <c r="I27" t="n">
         <v>80381.90941520389</v>
       </c>
       <c r="J27" t="n">
+        <v>73534.32951073925</v>
+      </c>
+      <c r="K27" t="n">
+        <v>32822.19527042953</v>
+      </c>
+      <c r="L27" t="n">
         <v>63836.63551636627</v>
-      </c>
-      <c r="K27" t="n">
-        <v>34925.85961445717</v>
-      </c>
-      <c r="L27" t="n">
-        <v>79992.71455800148</v>
       </c>
       <c r="M27" t="n">
         <v>68893.33719428358</v>
       </c>
       <c r="N27" t="n">
-        <v>27210.41278009562</v>
+        <v>30101.48042035399</v>
       </c>
       <c r="O27" t="n">
         <v>42577.17518684345</v>
@@ -12769,16 +12769,16 @@
         <v>85108.91034190827</v>
       </c>
       <c r="Q27" t="n">
-        <v>6527.426376110924</v>
+        <v>6383.906401187753</v>
       </c>
       <c r="R27" t="n">
         <v>134125.7311425777</v>
       </c>
       <c r="S27" t="n">
+        <v>154225.8387589933</v>
+      </c>
+      <c r="T27" t="n">
         <v>176287.9214999991</v>
-      </c>
-      <c r="T27" t="n">
-        <v>184909.7859975513</v>
       </c>
     </row>
     <row r="28">
@@ -12801,28 +12801,28 @@
         <v>74827.32802876522</v>
       </c>
       <c r="G28" t="n">
-        <v>43996.94087203248</v>
+        <v>47308.03462761285</v>
       </c>
       <c r="H28" t="n">
-        <v>32040.10953927783</v>
+        <v>44683.86806058136</v>
       </c>
       <c r="I28" t="n">
         <v>59032.13717424469</v>
       </c>
       <c r="J28" t="n">
+        <v>61396.84797721919</v>
+      </c>
+      <c r="K28" t="n">
+        <v>35540.67884095607</v>
+      </c>
+      <c r="L28" t="n">
         <v>63844.62402773364</v>
-      </c>
-      <c r="K28" t="n">
-        <v>29831.93104406743</v>
-      </c>
-      <c r="L28" t="n">
-        <v>67591.90755133821</v>
       </c>
       <c r="M28" t="n">
         <v>69496.17406164724</v>
       </c>
       <c r="N28" t="n">
-        <v>25024.61541728451</v>
+        <v>29849.76538815497</v>
       </c>
       <c r="O28" t="n">
         <v>47981.4871920303</v>
@@ -12831,16 +12831,16 @@
         <v>85930.17229775172</v>
       </c>
       <c r="Q28" t="n">
-        <v>-4349.632180658639</v>
+        <v>-4511.733197645193</v>
       </c>
       <c r="R28" t="n">
         <v>126891.4454980465</v>
       </c>
       <c r="S28" t="n">
+        <v>137246.1122991657</v>
+      </c>
+      <c r="T28" t="n">
         <v>185684.898949999</v>
-      </c>
-      <c r="T28" t="n">
-        <v>172519.2895252805</v>
       </c>
     </row>
     <row r="29">
@@ -12863,28 +12863,28 @@
         <v>74531.34170876467</v>
       </c>
       <c r="G29" t="n">
-        <v>41395.18742783352</v>
+        <v>41553.82622741702</v>
       </c>
       <c r="H29" t="n">
-        <v>35867.23709187357</v>
+        <v>37105.33660777656</v>
       </c>
       <c r="I29" t="n">
         <v>66166.04260854017</v>
       </c>
       <c r="J29" t="n">
+        <v>68078.79915389327</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29911.42752953766</v>
+      </c>
+      <c r="L29" t="n">
         <v>63840.51712903303</v>
-      </c>
-      <c r="K29" t="n">
-        <v>31154.49815828202</v>
-      </c>
-      <c r="L29" t="n">
-        <v>73222.37993207062</v>
       </c>
       <c r="M29" t="n">
         <v>69514.36642947771</v>
       </c>
       <c r="N29" t="n">
-        <v>25950.49313014148</v>
+        <v>27065.93584006725</v>
       </c>
       <c r="O29" t="n">
         <v>39026.39812035518</v>
@@ -12893,16 +12893,16 @@
         <v>86743.70768705197</v>
       </c>
       <c r="Q29" t="n">
-        <v>3506.334507323125</v>
+        <v>2884.504402422235</v>
       </c>
       <c r="R29" t="n">
         <v>128247.6766992184</v>
       </c>
       <c r="S29" t="n">
+        <v>150434.5170903665</v>
+      </c>
+      <c r="T29" t="n">
         <v>185452.442949999</v>
-      </c>
-      <c r="T29" t="n">
-        <v>191570.5645068963</v>
       </c>
     </row>
     <row r="30">
@@ -12925,28 +12925,28 @@
         <v>82816.9434856428</v>
       </c>
       <c r="G30" t="n">
-        <v>40614.62531633762</v>
+        <v>41279.27781496177</v>
       </c>
       <c r="H30" t="n">
-        <v>44448.07076054958</v>
+        <v>43169.58572050182</v>
       </c>
       <c r="I30" t="n">
         <v>86573.13303726215</v>
       </c>
       <c r="J30" t="n">
+        <v>74965.86211550178</v>
+      </c>
+      <c r="K30" t="n">
+        <v>33108.61591715215</v>
+      </c>
+      <c r="L30" t="n">
         <v>63849.79190343825</v>
-      </c>
-      <c r="K30" t="n">
-        <v>29365.34251991509</v>
-      </c>
-      <c r="L30" t="n">
-        <v>80887.43259939336</v>
       </c>
       <c r="M30" t="n">
         <v>70239.53744772587</v>
       </c>
       <c r="N30" t="n">
-        <v>26046.65110762863</v>
+        <v>28234.43024080841</v>
       </c>
       <c r="O30" t="n">
         <v>6129.476665923661</v>
@@ -12955,16 +12955,16 @@
         <v>87570.46680980318</v>
       </c>
       <c r="Q30" t="n">
-        <v>9617.248443897337</v>
+        <v>9018.807087356769</v>
       </c>
       <c r="R30" t="n">
         <v>157324.6474023434</v>
       </c>
       <c r="S30" t="n">
+        <v>166576.6045127963</v>
+      </c>
+      <c r="T30" t="n">
         <v>197887.140449999</v>
-      </c>
-      <c r="T30" t="n">
-        <v>211618.531867001</v>
       </c>
     </row>
     <row r="31">
@@ -12987,28 +12987,28 @@
         <v>66714.33930506842</v>
       </c>
       <c r="G31" t="n">
-        <v>37452.54142047645</v>
+        <v>37086.7489293573</v>
       </c>
       <c r="H31" t="n">
-        <v>23855.46307513787</v>
+        <v>19968.16566855012</v>
       </c>
       <c r="I31" t="n">
         <v>78202.43341276636</v>
       </c>
       <c r="J31" t="n">
+        <v>79214.54784030655</v>
+      </c>
+      <c r="K31" t="n">
+        <v>28900.93759839831</v>
+      </c>
+      <c r="L31" t="n">
         <v>63845.00318344167</v>
-      </c>
-      <c r="K31" t="n">
-        <v>30388.03138397334</v>
-      </c>
-      <c r="L31" t="n">
-        <v>85325.239032763</v>
       </c>
       <c r="M31" t="n">
         <v>69974.977656234</v>
       </c>
       <c r="N31" t="n">
-        <v>27220.10708582847</v>
+        <v>30033.95084015725</v>
       </c>
       <c r="O31" t="n">
         <v>22528.89567107038</v>
@@ -13017,16 +13017,16 @@
         <v>88381.2253474012</v>
       </c>
       <c r="Q31" t="n">
-        <v>-2175.866227862922</v>
+        <v>-2613.55967479733</v>
       </c>
       <c r="R31" t="n">
         <v>137950.0575585934</v>
       </c>
       <c r="S31" t="n">
+        <v>161799.1710041871</v>
+      </c>
+      <c r="T31" t="n">
         <v>199713.317449999</v>
-      </c>
-      <c r="T31" t="n">
-        <v>211406.5734517575</v>
       </c>
     </row>
   </sheetData>
@@ -13091,19 +13091,19 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>mlp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rf</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>elasticnet</t>
@@ -13136,12 +13136,12 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>knn</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
     </row>
@@ -13162,28 +13162,28 @@
         <v>25988.00470708264</v>
       </c>
       <c r="F2" t="n">
-        <v>26562.81259985339</v>
+        <v>31161.29793522518</v>
       </c>
       <c r="G2" t="n">
-        <v>23193.18913063018</v>
+        <v>61840.42745614285</v>
       </c>
       <c r="H2" t="n">
         <v>60555.59395910171</v>
       </c>
       <c r="I2" t="n">
+        <v>72506.72473872888</v>
+      </c>
+      <c r="J2" t="n">
+        <v>44825.18554154154</v>
+      </c>
+      <c r="K2" t="n">
         <v>108565.4444034296</v>
-      </c>
-      <c r="J2" t="n">
-        <v>53904.62846255179</v>
-      </c>
-      <c r="K2" t="n">
-        <v>73179.08951516</v>
       </c>
       <c r="L2" t="n">
         <v>106376.2657446233</v>
       </c>
       <c r="M2" t="n">
-        <v>39044.69034736571</v>
+        <v>41666.2922904658</v>
       </c>
       <c r="N2" t="n">
         <v>10420.36625339445</v>
@@ -13192,16 +13192,16 @@
         <v>109813.6508850337</v>
       </c>
       <c r="P2" t="n">
-        <v>-20430.72104420088</v>
+        <v>-20704.89045518694</v>
       </c>
       <c r="Q2" t="n">
         <v>76602.86578124992</v>
       </c>
       <c r="R2" t="n">
+        <v>69516.2087939206</v>
+      </c>
+      <c r="S2" t="n">
         <v>78565.2549999999</v>
-      </c>
-      <c r="S2" t="n">
-        <v>75319.10958014539</v>
       </c>
     </row>
     <row r="3">
@@ -13221,28 +13221,28 @@
         <v>42545.11076950476</v>
       </c>
       <c r="F3" t="n">
-        <v>39725.41945092741</v>
+        <v>37535.08134570632</v>
       </c>
       <c r="G3" t="n">
-        <v>40959.37006652829</v>
+        <v>20080.87068303852</v>
       </c>
       <c r="H3" t="n">
         <v>89157.25744008778</v>
       </c>
       <c r="I3" t="n">
+        <v>83591.90364446673</v>
+      </c>
+      <c r="J3" t="n">
+        <v>56926.08510877963</v>
+      </c>
+      <c r="K3" t="n">
         <v>108579.5864920387</v>
-      </c>
-      <c r="J3" t="n">
-        <v>51343.28608941491</v>
-      </c>
-      <c r="K3" t="n">
-        <v>82967.67343942903</v>
       </c>
       <c r="L3" t="n">
         <v>108224.8474688012</v>
       </c>
       <c r="M3" t="n">
-        <v>39267.66887746211</v>
+        <v>39231.00250503954</v>
       </c>
       <c r="N3" t="n">
         <v>26622.08502430787</v>
@@ -13251,16 +13251,16 @@
         <v>111112.0233006222</v>
       </c>
       <c r="P3" t="n">
-        <v>14174.7010521842</v>
+        <v>13505.95581609674</v>
       </c>
       <c r="Q3" t="n">
         <v>110715.5571874999</v>
       </c>
       <c r="R3" t="n">
+        <v>103675.6097608127</v>
+      </c>
+      <c r="S3" t="n">
         <v>98006.71899999995</v>
-      </c>
-      <c r="S3" t="n">
-        <v>114345.4698794566</v>
       </c>
     </row>
     <row r="4">
@@ -13280,28 +13280,28 @@
         <v>83525.76067228391</v>
       </c>
       <c r="F4" t="n">
-        <v>58454.53183301635</v>
+        <v>58288.83442642755</v>
       </c>
       <c r="G4" t="n">
-        <v>61671.38871617193</v>
+        <v>57401.59919356937</v>
       </c>
       <c r="H4" t="n">
         <v>115547.7362451855</v>
       </c>
       <c r="I4" t="n">
+        <v>98907.33334159221</v>
+      </c>
+      <c r="J4" t="n">
+        <v>55245.00425633784</v>
+      </c>
+      <c r="K4" t="n">
         <v>108593.2259700907</v>
-      </c>
-      <c r="J4" t="n">
-        <v>55608.30260881181</v>
-      </c>
-      <c r="K4" t="n">
-        <v>98304.4244333008</v>
       </c>
       <c r="L4" t="n">
         <v>109680.731307274</v>
       </c>
       <c r="M4" t="n">
-        <v>37148.90848496315</v>
+        <v>40622.11451391813</v>
       </c>
       <c r="N4" t="n">
         <v>43740.11813860359</v>
@@ -13310,16 +13310,16 @@
         <v>112390.3665018114</v>
       </c>
       <c r="P4" t="n">
-        <v>11730.99459239774</v>
+        <v>15009.52128957185</v>
       </c>
       <c r="Q4" t="n">
         <v>147679.8032812499</v>
       </c>
       <c r="R4" t="n">
+        <v>147145.8684221375</v>
+      </c>
+      <c r="S4" t="n">
         <v>116396.7545</v>
-      </c>
-      <c r="S4" t="n">
-        <v>118146.4803048125</v>
       </c>
     </row>
     <row r="5">
@@ -13339,28 +13339,28 @@
         <v>75142.64166326725</v>
       </c>
       <c r="F5" t="n">
-        <v>58058.66881304417</v>
+        <v>57151.33777673517</v>
       </c>
       <c r="G5" t="n">
-        <v>74977.88741040582</v>
+        <v>64107.82078643317</v>
       </c>
       <c r="H5" t="n">
         <v>102445.8477539441</v>
       </c>
       <c r="I5" t="n">
+        <v>86775.2804664335</v>
+      </c>
+      <c r="J5" t="n">
+        <v>55326.03852499957</v>
+      </c>
+      <c r="K5" t="n">
         <v>108596.4483765032</v>
-      </c>
-      <c r="J5" t="n">
-        <v>53534.8970725369</v>
-      </c>
-      <c r="K5" t="n">
-        <v>85047.73601991033</v>
       </c>
       <c r="L5" t="n">
         <v>110031.7655786594</v>
       </c>
       <c r="M5" t="n">
-        <v>35884.07234326717</v>
+        <v>38611.68026061413</v>
       </c>
       <c r="N5" t="n">
         <v>48114.74462822801</v>
@@ -13369,16 +13369,16 @@
         <v>113653.0946916248</v>
       </c>
       <c r="P5" t="n">
-        <v>-2951.215820517049</v>
+        <v>-4378.156911579076</v>
       </c>
       <c r="Q5" t="n">
         <v>138636.0298437499</v>
       </c>
       <c r="R5" t="n">
+        <v>129383.6129003092</v>
+      </c>
+      <c r="S5" t="n">
         <v>123022.5224999999</v>
-      </c>
-      <c r="S5" t="n">
-        <v>119515.4704854814</v>
       </c>
     </row>
     <row r="6">
@@ -13398,28 +13398,28 @@
         <v>70758.12640939264</v>
       </c>
       <c r="F6" t="n">
-        <v>53710.29164327048</v>
+        <v>52418.02171220504</v>
       </c>
       <c r="G6" t="n">
-        <v>58697.18965558166</v>
+        <v>49221.85605105515</v>
       </c>
       <c r="H6" t="n">
         <v>104169.5104160463</v>
       </c>
       <c r="I6" t="n">
+        <v>90571.27993568141</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50977.42487691458</v>
+      </c>
+      <c r="K6" t="n">
         <v>108589.0701596943</v>
-      </c>
-      <c r="J6" t="n">
-        <v>53785.80171630438</v>
-      </c>
-      <c r="K6" t="n">
-        <v>89491.89061294637</v>
       </c>
       <c r="L6" t="n">
         <v>110032.0294112384</v>
       </c>
       <c r="M6" t="n">
-        <v>36216.6066676217</v>
+        <v>39454.42759407994</v>
       </c>
       <c r="N6" t="n">
         <v>42346.0147212294</v>
@@ -13428,16 +13428,16 @@
         <v>114910.4336493572</v>
       </c>
       <c r="P6" t="n">
-        <v>2918.467829571567</v>
+        <v>3620.393243129049</v>
       </c>
       <c r="Q6" t="n">
         <v>157111.4907812499</v>
       </c>
       <c r="R6" t="n">
+        <v>148843.0378918521</v>
+      </c>
+      <c r="S6" t="n">
         <v>117671.3559999999</v>
-      </c>
-      <c r="S6" t="n">
-        <v>127768.3393052863</v>
       </c>
     </row>
     <row r="7">
@@ -13457,28 +13457,28 @@
         <v>80867.68877050304</v>
       </c>
       <c r="F7" t="n">
-        <v>55586.14778616617</v>
+        <v>55537.07530361961</v>
       </c>
       <c r="G7" t="n">
-        <v>59020.94488997216</v>
+        <v>51731.62086616155</v>
       </c>
       <c r="H7" t="n">
         <v>111129.6433683446</v>
       </c>
       <c r="I7" t="n">
+        <v>98733.61896405525</v>
+      </c>
+      <c r="J7" t="n">
+        <v>57838.34678452607</v>
+      </c>
+      <c r="K7" t="n">
         <v>108602.1293923289</v>
-      </c>
-      <c r="J7" t="n">
-        <v>49186.21870576438</v>
-      </c>
-      <c r="K7" t="n">
-        <v>99000.3718957067</v>
       </c>
       <c r="L7" t="n">
         <v>111148.1907786051</v>
       </c>
       <c r="M7" t="n">
-        <v>39610.36727169391</v>
+        <v>37904.05583891687</v>
       </c>
       <c r="N7" t="n">
         <v>46926.72790776837</v>
@@ -13487,16 +13487,16 @@
         <v>116184.2179396992</v>
       </c>
       <c r="P7" t="n">
-        <v>8157.999955864544</v>
+        <v>8008.175618399807</v>
       </c>
       <c r="Q7" t="n">
         <v>183874.9087499999</v>
       </c>
       <c r="R7" t="n">
+        <v>167469.2491337594</v>
+      </c>
+      <c r="S7" t="n">
         <v>131089.5364999999</v>
-      </c>
-      <c r="S7" t="n">
-        <v>144136.4817145766</v>
       </c>
     </row>
     <row r="8">
@@ -13516,28 +13516,28 @@
         <v>74518.95076262734</v>
       </c>
       <c r="F8" t="n">
-        <v>52443.68843619554</v>
+        <v>51029.22315119653</v>
       </c>
       <c r="G8" t="n">
-        <v>48806.32648180659</v>
+        <v>50122.61074415799</v>
       </c>
       <c r="H8" t="n">
         <v>127519.5518588954</v>
       </c>
       <c r="I8" t="n">
+        <v>107948.0261523096</v>
+      </c>
+      <c r="J8" t="n">
+        <v>43109.06275573429</v>
+      </c>
+      <c r="K8" t="n">
         <v>108597.3388890301</v>
-      </c>
-      <c r="J8" t="n">
-        <v>52963.94881110902</v>
-      </c>
-      <c r="K8" t="n">
-        <v>107872.6519785293</v>
       </c>
       <c r="L8" t="n">
         <v>111222.7118179578</v>
       </c>
       <c r="M8" t="n">
-        <v>39710.03728643116</v>
+        <v>38347.38208446142</v>
       </c>
       <c r="N8" t="n">
         <v>39461.72967586313</v>
@@ -13546,16 +13546,16 @@
         <v>117443.4909110538</v>
       </c>
       <c r="P8" t="n">
-        <v>8216.420848466176</v>
+        <v>8610.084620870204</v>
       </c>
       <c r="Q8" t="n">
         <v>207659.4575781249</v>
       </c>
       <c r="R8" t="n">
+        <v>187745.5463280123</v>
+      </c>
+      <c r="S8" t="n">
         <v>144944.8989999998</v>
-      </c>
-      <c r="S8" t="n">
-        <v>158535.4055331613</v>
       </c>
     </row>
     <row r="9">
@@ -13575,28 +13575,28 @@
         <v>28222.2471859495</v>
       </c>
       <c r="F9" t="n">
-        <v>27444.50594211829</v>
+        <v>26268.92218671006</v>
       </c>
       <c r="G9" t="n">
-        <v>24439.79401804773</v>
+        <v>19085.98427688418</v>
       </c>
       <c r="H9" t="n">
         <v>84503.20038429985</v>
       </c>
       <c r="I9" t="n">
+        <v>82194.81327036697</v>
+      </c>
+      <c r="J9" t="n">
+        <v>52770.39786823448</v>
+      </c>
+      <c r="K9" t="n">
         <v>108585.1258346042</v>
-      </c>
-      <c r="J9" t="n">
-        <v>54863.72058059807</v>
-      </c>
-      <c r="K9" t="n">
-        <v>80570.60952603893</v>
       </c>
       <c r="L9" t="n">
         <v>109368.9313345952</v>
       </c>
       <c r="M9" t="n">
-        <v>41214.50731246051</v>
+        <v>40432.55347813007</v>
       </c>
       <c r="N9" t="n">
         <v>6647.416987219958</v>
@@ -13605,16 +13605,16 @@
         <v>118681.3274226899</v>
       </c>
       <c r="P9" t="n">
-        <v>-19468.96597585992</v>
+        <v>-18539.39285139669</v>
       </c>
       <c r="Q9" t="n">
         <v>171319.1294531249</v>
       </c>
       <c r="R9" t="n">
+        <v>156583.3768528908</v>
+      </c>
+      <c r="S9" t="n">
         <v>111137.6589999998</v>
-      </c>
-      <c r="S9" t="n">
-        <v>122306.5052610499</v>
       </c>
     </row>
     <row r="10">
@@ -13634,28 +13634,28 @@
         <v>55256.34963392222</v>
       </c>
       <c r="F10" t="n">
-        <v>36973.51504563846</v>
+        <v>40062.50194409765</v>
       </c>
       <c r="G10" t="n">
-        <v>13732.60653295993</v>
+        <v>30652.63431446073</v>
       </c>
       <c r="H10" t="n">
         <v>105575.8140555845</v>
       </c>
       <c r="I10" t="n">
+        <v>91656.9965613086</v>
+      </c>
+      <c r="J10" t="n">
+        <v>56446.72026208158</v>
+      </c>
+      <c r="K10" t="n">
         <v>108598.1311065214</v>
-      </c>
-      <c r="J10" t="n">
-        <v>56140.36141090031</v>
-      </c>
-      <c r="K10" t="n">
-        <v>89438.30651548854</v>
       </c>
       <c r="L10" t="n">
         <v>111067.60730482</v>
       </c>
       <c r="M10" t="n">
-        <v>40778.51693014798</v>
+        <v>45175.03858668026</v>
       </c>
       <c r="N10" t="n">
         <v>22058.18637164952</v>
@@ -13664,16 +13664,16 @@
         <v>119976.1258085394</v>
       </c>
       <c r="P10" t="n">
-        <v>11993.52086398919</v>
+        <v>12480.17189829965</v>
       </c>
       <c r="Q10" t="n">
         <v>201986.4868749999</v>
       </c>
       <c r="R10" t="n">
+        <v>196120.5325887045</v>
+      </c>
+      <c r="S10" t="n">
         <v>128545.6624999999</v>
-      </c>
-      <c r="S10" t="n">
-        <v>152502.341482312</v>
       </c>
     </row>
     <row r="11">
@@ -13693,28 +13693,28 @@
         <v>77462.62061516479</v>
       </c>
       <c r="F11" t="n">
-        <v>57519.5180311674</v>
+        <v>57053.83055452706</v>
       </c>
       <c r="G11" t="n">
-        <v>52556.79060409303</v>
+        <v>55582.36335884805</v>
       </c>
       <c r="H11" t="n">
         <v>137758.9044871912</v>
       </c>
       <c r="I11" t="n">
+        <v>104173.189936528</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47232.68835847493</v>
+      </c>
+      <c r="K11" t="n">
         <v>108609.2894028803</v>
-      </c>
-      <c r="J11" t="n">
-        <v>51993.76391001936</v>
-      </c>
-      <c r="K11" t="n">
-        <v>102103.8143869447</v>
       </c>
       <c r="L11" t="n">
         <v>112123.1318897053</v>
       </c>
       <c r="M11" t="n">
-        <v>42096.58095640656</v>
+        <v>40572.27141671356</v>
       </c>
       <c r="N11" t="n">
         <v>38745.74707449323</v>
@@ -13723,16 +13723,16 @@
         <v>121249.7664627177</v>
       </c>
       <c r="P11" t="n">
-        <v>15162.19236463973</v>
+        <v>14910.75448535595</v>
       </c>
       <c r="Q11" t="n">
         <v>248027.4634374999</v>
       </c>
       <c r="R11" t="n">
+        <v>226715.324022061</v>
+      </c>
+      <c r="S11" t="n">
         <v>147616.8994999999</v>
-      </c>
-      <c r="S11" t="n">
-        <v>182606.5485392695</v>
       </c>
     </row>
     <row r="12">
@@ -13752,28 +13752,28 @@
         <v>66308.86620490329</v>
       </c>
       <c r="F12" t="n">
-        <v>55017.76934152922</v>
+        <v>55229.67635329387</v>
       </c>
       <c r="G12" t="n">
-        <v>53506.28494077797</v>
+        <v>52933.52455609913</v>
       </c>
       <c r="H12" t="n">
         <v>121809.7087365097</v>
       </c>
       <c r="I12" t="n">
+        <v>92556.85545377075</v>
+      </c>
+      <c r="J12" t="n">
+        <v>48925.92338043567</v>
+      </c>
+      <c r="K12" t="n">
         <v>108616.4824920849</v>
-      </c>
-      <c r="J12" t="n">
-        <v>47602.93102612134</v>
-      </c>
-      <c r="K12" t="n">
-        <v>87766.58254113862</v>
       </c>
       <c r="L12" t="n">
         <v>112739.0718483844</v>
       </c>
       <c r="M12" t="n">
-        <v>40829.71264792201</v>
+        <v>41562.82976063904</v>
       </c>
       <c r="N12" t="n">
         <v>43055.44026560965</v>
@@ -13782,16 +13782,16 @@
         <v>122515.8638107193</v>
       </c>
       <c r="P12" t="n">
-        <v>-2366.24385849787</v>
+        <v>-1786.645308613728</v>
       </c>
       <c r="Q12" t="n">
         <v>246708.943540039</v>
       </c>
       <c r="R12" t="n">
+        <v>232130.065417666</v>
+      </c>
+      <c r="S12" t="n">
         <v>155969.5819999998</v>
-      </c>
-      <c r="S12" t="n">
-        <v>184487.0755072224</v>
       </c>
     </row>
     <row r="13">
@@ -13811,28 +13811,28 @@
         <v>65082.73305116723</v>
       </c>
       <c r="F13" t="n">
-        <v>50827.27705951772</v>
+        <v>50941.16946811698</v>
       </c>
       <c r="G13" t="n">
-        <v>35827.82209599671</v>
+        <v>32809.57549667058</v>
       </c>
       <c r="H13" t="n">
         <v>126309.777365862</v>
       </c>
       <c r="I13" t="n">
+        <v>96806.73900072505</v>
+      </c>
+      <c r="J13" t="n">
+        <v>54251.34912321385</v>
+      </c>
+      <c r="K13" t="n">
         <v>108608.9980969615</v>
-      </c>
-      <c r="J13" t="n">
-        <v>51174.496516391</v>
-      </c>
-      <c r="K13" t="n">
-        <v>92312.06036277513</v>
       </c>
       <c r="L13" t="n">
         <v>112741.7770592093</v>
       </c>
       <c r="M13" t="n">
-        <v>39960.9613458049</v>
+        <v>40699.60219850299</v>
       </c>
       <c r="N13" t="n">
         <v>37670.29100100447</v>
@@ -13841,16 +13841,16 @@
         <v>123774.0605964948</v>
       </c>
       <c r="P13" t="n">
-        <v>4357.302104576454</v>
+        <v>6366.165759484124</v>
       </c>
       <c r="Q13" t="n">
         <v>277375.164243164</v>
       </c>
       <c r="R13" t="n">
+        <v>267327.1662163755</v>
+      </c>
+      <c r="S13" t="n">
         <v>149409.9014999999</v>
-      </c>
-      <c r="S13" t="n">
-        <v>192893.5226047703</v>
       </c>
     </row>
     <row r="14">
@@ -13870,28 +13870,28 @@
         <v>81222.56981826788</v>
       </c>
       <c r="F14" t="n">
-        <v>57579.40804854449</v>
+        <v>54945.83453507956</v>
       </c>
       <c r="G14" t="n">
-        <v>62414.74108932252</v>
+        <v>55656.66041213746</v>
       </c>
       <c r="H14" t="n">
         <v>131362.9455273665</v>
       </c>
       <c r="I14" t="n">
+        <v>102148.2253327949</v>
+      </c>
+      <c r="J14" t="n">
+        <v>45603.68663389202</v>
+      </c>
+      <c r="K14" t="n">
         <v>108621.5229017035</v>
-      </c>
-      <c r="J14" t="n">
-        <v>55614.96863362785</v>
-      </c>
-      <c r="K14" t="n">
-        <v>100108.3484799913</v>
       </c>
       <c r="L14" t="n">
         <v>113799.5491334911</v>
       </c>
       <c r="M14" t="n">
-        <v>41464.05933565852</v>
+        <v>39798.40741832492</v>
       </c>
       <c r="N14" t="n">
         <v>42972.37177798508</v>
@@ -13900,16 +13900,16 @@
         <v>125047.3062831409</v>
       </c>
       <c r="P14" t="n">
-        <v>5739.51358975226</v>
+        <v>5166.13884624727</v>
       </c>
       <c r="Q14" t="n">
         <v>289331.5421728515</v>
       </c>
       <c r="R14" t="n">
+        <v>282638.6117690908</v>
+      </c>
+      <c r="S14" t="n">
         <v>157678.8884999999</v>
-      </c>
-      <c r="S14" t="n">
-        <v>208971.3699050395</v>
       </c>
     </row>
     <row r="15">
@@ -13929,28 +13929,28 @@
         <v>77874.7301108164</v>
       </c>
       <c r="F15" t="n">
-        <v>54587.3599367864</v>
+        <v>55796.0812781794</v>
       </c>
       <c r="G15" t="n">
-        <v>51073.63567780312</v>
+        <v>55670.88557965751</v>
       </c>
       <c r="H15" t="n">
         <v>153634.3331884501</v>
       </c>
       <c r="I15" t="n">
+        <v>110540.7592823237</v>
+      </c>
+      <c r="J15" t="n">
+        <v>63863.42360669727</v>
+      </c>
+      <c r="K15" t="n">
         <v>108619.5005384033</v>
-      </c>
-      <c r="J15" t="n">
-        <v>63819.33076488013</v>
-      </c>
-      <c r="K15" t="n">
-        <v>107263.4166941726</v>
       </c>
       <c r="L15" t="n">
         <v>113954.8626705353</v>
       </c>
       <c r="M15" t="n">
-        <v>39222.70880523202</v>
+        <v>43042.41545131143</v>
       </c>
       <c r="N15" t="n">
         <v>35601.12773515782</v>
@@ -13959,16 +13959,16 @@
         <v>126307.2265927834</v>
       </c>
       <c r="P15" t="n">
-        <v>7568.458152373187</v>
+        <v>8323.508664778275</v>
       </c>
       <c r="Q15" t="n">
         <v>304092.2980322265</v>
       </c>
       <c r="R15" t="n">
+        <v>303825.3237000869</v>
+      </c>
+      <c r="S15" t="n">
         <v>171534.2509999998</v>
-      </c>
-      <c r="S15" t="n">
-        <v>221493.9972427315</v>
       </c>
     </row>
     <row r="16">
@@ -13988,28 +13988,28 @@
         <v>34843.13025493772</v>
       </c>
       <c r="F16" t="n">
-        <v>24348.88348641311</v>
+        <v>29652.37462137234</v>
       </c>
       <c r="G16" t="n">
-        <v>-981.6720636352144</v>
+        <v>30587.43347270427</v>
       </c>
       <c r="H16" t="n">
         <v>112665.3790717116</v>
       </c>
       <c r="I16" t="n">
+        <v>85952.0615193652</v>
+      </c>
+      <c r="J16" t="n">
+        <v>60186.48314938421</v>
+      </c>
+      <c r="K16" t="n">
         <v>108608.244363472</v>
-      </c>
-      <c r="J16" t="n">
-        <v>54526.12201894398</v>
-      </c>
-      <c r="K16" t="n">
-        <v>81853.0622350066</v>
       </c>
       <c r="L16" t="n">
         <v>112235.3047073869</v>
       </c>
       <c r="M16" t="n">
-        <v>42421.17106186625</v>
+        <v>42316.14233980116</v>
       </c>
       <c r="N16" t="n">
         <v>3299.520914896822</v>
@@ -14018,16 +14018,16 @@
         <v>127546.8030776027</v>
       </c>
       <c r="P16" t="n">
-        <v>-17407.48883750411</v>
+        <v>-17579.18187246034</v>
       </c>
       <c r="Q16" t="n">
         <v>273007.7667822265</v>
       </c>
       <c r="R16" t="n">
+        <v>271762.2242416042</v>
+      </c>
+      <c r="S16" t="n">
         <v>138308.6824999998</v>
-      </c>
-      <c r="S16" t="n">
-        <v>195237.1987706982</v>
       </c>
     </row>
     <row r="17">
@@ -14047,28 +14047,28 @@
         <v>58890.02923473548</v>
       </c>
       <c r="F17" t="n">
-        <v>41883.10617641024</v>
+        <v>40978.11841886632</v>
       </c>
       <c r="G17" t="n">
-        <v>50490.17729407486</v>
+        <v>46298.98861748275</v>
       </c>
       <c r="H17" t="n">
         <v>136499.9436413923</v>
       </c>
       <c r="I17" t="n">
+        <v>95189.57517558035</v>
+      </c>
+      <c r="J17" t="n">
+        <v>53255.60357648249</v>
+      </c>
+      <c r="K17" t="n">
         <v>108621.0218086499</v>
-      </c>
-      <c r="J17" t="n">
-        <v>50799.49702521082</v>
-      </c>
-      <c r="K17" t="n">
-        <v>89702.31835704234</v>
       </c>
       <c r="L17" t="n">
         <v>113851.6833386489</v>
       </c>
       <c r="M17" t="n">
-        <v>43837.79517737087</v>
+        <v>39237.96299988386</v>
       </c>
       <c r="N17" t="n">
         <v>15718.39988815706</v>
@@ -14077,16 +14077,16 @@
         <v>128839.2876295145</v>
       </c>
       <c r="P17" t="n">
-        <v>12700.40892176666</v>
+        <v>14519.66543861525</v>
       </c>
       <c r="Q17" t="n">
         <v>312632.5792822265</v>
       </c>
       <c r="R17" t="n">
+        <v>321357.6546199889</v>
+      </c>
+      <c r="S17" t="n">
         <v>156821.1725499998</v>
-      </c>
-      <c r="S17" t="n">
-        <v>221173.2128883379</v>
       </c>
     </row>
     <row r="18">
@@ -14106,28 +14106,28 @@
         <v>80160.36161462835</v>
       </c>
       <c r="F18" t="n">
-        <v>58674.94545936935</v>
+        <v>57292.39850650959</v>
       </c>
       <c r="G18" t="n">
-        <v>61058.77456370945</v>
+        <v>44851.4160255992</v>
       </c>
       <c r="H18" t="n">
         <v>161971.4570134279</v>
       </c>
       <c r="I18" t="n">
+        <v>107169.1111856221</v>
+      </c>
+      <c r="J18" t="n">
+        <v>54660.1932520401</v>
+      </c>
+      <c r="K18" t="n">
         <v>108631.1697452593</v>
-      </c>
-      <c r="J18" t="n">
-        <v>49756.00850268539</v>
-      </c>
-      <c r="K18" t="n">
-        <v>101704.5303956378</v>
       </c>
       <c r="L18" t="n">
         <v>114814.6003229145</v>
       </c>
       <c r="M18" t="n">
-        <v>42130.41912218388</v>
+        <v>43755.7642409211</v>
       </c>
       <c r="N18" t="n">
         <v>34304.73257755489</v>
@@ -14136,16 +14136,16 @@
         <v>130111.2907800707</v>
       </c>
       <c r="P18" t="n">
-        <v>12096.2414342083</v>
+        <v>11386.14291829283</v>
       </c>
       <c r="Q18" t="n">
         <v>329902.0167822265</v>
       </c>
       <c r="R18" t="n">
+        <v>352855.7610576128</v>
+      </c>
+      <c r="S18" t="n">
         <v>177077.0160499998</v>
-      </c>
-      <c r="S18" t="n">
-        <v>256231.0323476477</v>
       </c>
     </row>
     <row r="19">
@@ -14165,28 +14165,28 @@
         <v>78226.71638218292</v>
       </c>
       <c r="F19" t="n">
-        <v>59167.2789408507</v>
+        <v>51992.7649441733</v>
       </c>
       <c r="G19" t="n">
-        <v>76964.52460230344</v>
+        <v>28618.5777402067</v>
       </c>
       <c r="H19" t="n">
         <v>146630.0894843643</v>
       </c>
       <c r="I19" t="n">
+        <v>96884.45969617515</v>
+      </c>
+      <c r="J19" t="n">
+        <v>48738.33626461741</v>
+      </c>
+      <c r="K19" t="n">
         <v>108638.2262634838</v>
-      </c>
-      <c r="J19" t="n">
-        <v>50027.59076712008</v>
-      </c>
-      <c r="K19" t="n">
-        <v>89293.62542285045</v>
       </c>
       <c r="L19" t="n">
         <v>115387.1344932262</v>
       </c>
       <c r="M19" t="n">
-        <v>38632.24138764379</v>
+        <v>38045.84477550146</v>
       </c>
       <c r="N19" t="n">
         <v>42185.63954230393</v>
@@ -14195,16 +14195,16 @@
         <v>131377.426279063</v>
       </c>
       <c r="P19" t="n">
-        <v>-394.9333393503767</v>
+        <v>1331.201813396861</v>
       </c>
       <c r="Q19" t="n">
         <v>350185.3507666015</v>
       </c>
       <c r="R19" t="n">
+        <v>372938.9198768232</v>
+      </c>
+      <c r="S19" t="n">
         <v>180084.5504999998</v>
-      </c>
-      <c r="S19" t="n">
-        <v>257860.9966699354</v>
       </c>
     </row>
     <row r="20">
@@ -14224,28 +14224,28 @@
         <v>72196.80562126449</v>
       </c>
       <c r="F20" t="n">
-        <v>54796.32370584487</v>
+        <v>53225.69037872017</v>
       </c>
       <c r="G20" t="n">
-        <v>50781.53435348567</v>
+        <v>31390.94186591802</v>
       </c>
       <c r="H20" t="n">
         <v>150712.77571313</v>
       </c>
       <c r="I20" t="n">
+        <v>100636.2683175303</v>
+      </c>
+      <c r="J20" t="n">
+        <v>62832.46785801287</v>
+      </c>
+      <c r="K20" t="n">
         <v>108632.4081260431</v>
-      </c>
-      <c r="J20" t="n">
-        <v>54359.46492667432</v>
-      </c>
-      <c r="K20" t="n">
-        <v>93781.9974859763</v>
       </c>
       <c r="L20" t="n">
         <v>115444.152164956</v>
       </c>
       <c r="M20" t="n">
-        <v>39878.28969434854</v>
+        <v>39801.44596070465</v>
       </c>
       <c r="N20" t="n">
         <v>41166.66873265</v>
@@ -14254,16 +14254,16 @@
         <v>132637.0051096813</v>
       </c>
       <c r="P20" t="n">
-        <v>4798.789165727742</v>
+        <v>5771.166453200151</v>
       </c>
       <c r="Q20" t="n">
         <v>386164.4757666015</v>
       </c>
       <c r="R20" t="n">
+        <v>390560.8525861913</v>
+      </c>
+      <c r="S20" t="n">
         <v>177252.9939999998</v>
-      </c>
-      <c r="S20" t="n">
-        <v>262140.9125555161</v>
       </c>
     </row>
     <row r="21">
@@ -14283,28 +14283,28 @@
         <v>88804.62996851582</v>
       </c>
       <c r="F21" t="n">
-        <v>54757.75992935353</v>
+        <v>59712.98876984292</v>
       </c>
       <c r="G21" t="n">
-        <v>31842.36441927311</v>
+        <v>63357.02576421614</v>
       </c>
       <c r="H21" t="n">
         <v>164604.6912558211</v>
       </c>
       <c r="I21" t="n">
+        <v>105771.8644884557</v>
+      </c>
+      <c r="J21" t="n">
+        <v>56888.23114844079</v>
+      </c>
+      <c r="K21" t="n">
         <v>108645.223989521</v>
-      </c>
-      <c r="J21" t="n">
-        <v>56186.17576980586</v>
-      </c>
-      <c r="K21" t="n">
-        <v>100159.0369208242</v>
       </c>
       <c r="L21" t="n">
         <v>116535.0780884813</v>
       </c>
       <c r="M21" t="n">
-        <v>40673.92829515812</v>
+        <v>43143.81345500585</v>
       </c>
       <c r="N21" t="n">
         <v>47781.19574167953</v>
@@ -14313,16 +14313,16 @@
         <v>133910.3105207213</v>
       </c>
       <c r="P21" t="n">
-        <v>6836.386280387273</v>
+        <v>7266.437067716623</v>
       </c>
       <c r="Q21" t="n">
         <v>396614.254086914</v>
       </c>
       <c r="R21" t="n">
+        <v>416546.0567084707</v>
+      </c>
+      <c r="S21" t="n">
         <v>189962.8994999997</v>
-      </c>
-      <c r="S21" t="n">
-        <v>278471.2241611695</v>
       </c>
     </row>
     <row r="22">
@@ -14342,28 +14342,28 @@
         <v>82470.24838753346</v>
       </c>
       <c r="F22" t="n">
-        <v>50063.96603515181</v>
+        <v>55204.60952380184</v>
       </c>
       <c r="G22" t="n">
-        <v>25974.45207587747</v>
+        <v>58861.99579338785</v>
       </c>
       <c r="H22" t="n">
         <v>180855.9090377101</v>
       </c>
       <c r="I22" t="n">
+        <v>111503.9393138333</v>
+      </c>
+      <c r="J22" t="n">
+        <v>53686.85978680189</v>
+      </c>
+      <c r="K22" t="n">
         <v>108641.8223799719</v>
-      </c>
-      <c r="J22" t="n">
-        <v>48305.60446822222</v>
-      </c>
-      <c r="K22" t="n">
-        <v>105802.5985944069</v>
       </c>
       <c r="L22" t="n">
         <v>116642.8575468053</v>
       </c>
       <c r="M22" t="n">
-        <v>42907.8879514682</v>
+        <v>40623.59333592829</v>
       </c>
       <c r="N22" t="n">
         <v>34634.16139973752</v>
@@ -14372,16 +14372,16 @@
         <v>135169.7856790213</v>
       </c>
       <c r="P22" t="n">
-        <v>8195.802207787661</v>
+        <v>11187.60319115853</v>
       </c>
       <c r="Q22" t="n">
         <v>428253.170102539</v>
       </c>
       <c r="R22" t="n">
+        <v>465025.4206701384</v>
+      </c>
+      <c r="S22" t="n">
         <v>203818.2619999997</v>
-      </c>
-      <c r="S22" t="n">
-        <v>288885.3526916693</v>
       </c>
     </row>
     <row r="23">
@@ -14401,28 +14401,28 @@
         <v>39619.41852553776</v>
       </c>
       <c r="F23" t="n">
-        <v>29633.91038826026</v>
+        <v>30814.37370157041</v>
       </c>
       <c r="G23" t="n">
-        <v>28288.03351549385</v>
+        <v>36987.97252467152</v>
       </c>
       <c r="H23" t="n">
         <v>139175.7267803983</v>
       </c>
       <c r="I23" t="n">
+        <v>89075.69148335668</v>
+      </c>
+      <c r="J23" t="n">
+        <v>47785.18855802115</v>
+      </c>
+      <c r="K23" t="n">
         <v>108633.3886024905</v>
-      </c>
-      <c r="J23" t="n">
-        <v>53182.84359202202</v>
-      </c>
-      <c r="K23" t="n">
-        <v>82874.65032494064</v>
       </c>
       <c r="L23" t="n">
         <v>115156.0087903664</v>
       </c>
       <c r="M23" t="n">
-        <v>42554.56274874326</v>
+        <v>47515.52196673747</v>
       </c>
       <c r="N23" t="n">
         <v>6003.950612402226</v>
@@ -14431,16 +14431,16 @@
         <v>136411.8039685281</v>
       </c>
       <c r="P23" t="n">
-        <v>-17544.57952264497</v>
+        <v>-18485.60882756436</v>
       </c>
       <c r="Q23" t="n">
         <v>392775.533383789</v>
       </c>
       <c r="R23" t="n">
+        <v>424516.1507446769</v>
+      </c>
+      <c r="S23" t="n">
         <v>170308.8214999997</v>
-      </c>
-      <c r="S23" t="n">
-        <v>263141.4909107561</v>
       </c>
     </row>
     <row r="24">
@@ -14460,28 +14460,28 @@
         <v>56825.01563897256</v>
       </c>
       <c r="F24" t="n">
-        <v>41237.44014689184</v>
+        <v>41407.07661016977</v>
       </c>
       <c r="G24" t="n">
-        <v>32569.65361417768</v>
+        <v>37935.35379620847</v>
       </c>
       <c r="H24" t="n">
         <v>162922.7549785968</v>
       </c>
       <c r="I24" t="n">
+        <v>97744.81055261153</v>
+      </c>
+      <c r="J24" t="n">
+        <v>50259.27072475549</v>
+      </c>
+      <c r="K24" t="n">
         <v>108646.026101446</v>
-      </c>
-      <c r="J24" t="n">
-        <v>54632.44835069414</v>
-      </c>
-      <c r="K24" t="n">
-        <v>88813.61760417804</v>
       </c>
       <c r="L24" t="n">
         <v>116670.1368676712</v>
       </c>
       <c r="M24" t="n">
-        <v>42475.66743270453</v>
+        <v>42670.60011955794</v>
       </c>
       <c r="N24" t="n">
         <v>20417.49800427219</v>
@@ -14490,16 +14490,16 @@
         <v>137699.7852029626</v>
       </c>
       <c r="P24" t="n">
-        <v>11875.94403021368</v>
+        <v>12913.50177920778</v>
       </c>
       <c r="Q24" t="n">
         <v>430537.224790039</v>
       </c>
       <c r="R24" t="n">
+        <v>462857.456773895</v>
+      </c>
+      <c r="S24" t="n">
         <v>185901.1679999997</v>
-      </c>
-      <c r="S24" t="n">
-        <v>289592.1449893901</v>
       </c>
     </row>
     <row r="25">
@@ -14519,28 +14519,28 @@
         <v>85660.2135638827</v>
       </c>
       <c r="F25" t="n">
-        <v>56029.44039337844</v>
+        <v>63248.89504667967</v>
       </c>
       <c r="G25" t="n">
-        <v>33158.92050011215</v>
+        <v>68130.66968487973</v>
       </c>
       <c r="H25" t="n">
         <v>189039.6403911478</v>
       </c>
       <c r="I25" t="n">
+        <v>107089.5519249349</v>
+      </c>
+      <c r="J25" t="n">
+        <v>64379.38039932723</v>
+      </c>
+      <c r="K25" t="n">
         <v>108653.4171279443</v>
-      </c>
-      <c r="J25" t="n">
-        <v>51424.85752318319</v>
-      </c>
-      <c r="K25" t="n">
-        <v>97476.23990445033</v>
       </c>
       <c r="L25" t="n">
         <v>117406.9754921157</v>
       </c>
       <c r="M25" t="n">
-        <v>41530.87167273459</v>
+        <v>44140.7821849316</v>
       </c>
       <c r="N25" t="n">
         <v>36385.80983183318</v>
@@ -14549,16 +14549,16 @@
         <v>138968.0931758936</v>
       </c>
       <c r="P25" t="n">
-        <v>13240.92773249342</v>
+        <v>14131.99213551943</v>
       </c>
       <c r="Q25" t="n">
         <v>475642.572446289</v>
       </c>
       <c r="R25" t="n">
+        <v>488984.7820280274</v>
+      </c>
+      <c r="S25" t="n">
         <v>210879.0624999998</v>
-      </c>
-      <c r="S25" t="n">
-        <v>305168.6060591044</v>
       </c>
     </row>
     <row r="26">
@@ -14578,28 +14578,28 @@
         <v>82866.29273821994</v>
       </c>
       <c r="F26" t="n">
-        <v>57340.46683061217</v>
+        <v>58855.21880698537</v>
       </c>
       <c r="G26" t="n">
-        <v>47552.47633731957</v>
+        <v>49963.04034817334</v>
       </c>
       <c r="H26" t="n">
         <v>166831.7525463003</v>
       </c>
       <c r="I26" t="n">
+        <v>97037.85160146587</v>
+      </c>
+      <c r="J26" t="n">
+        <v>60441.53949695702</v>
+      </c>
+      <c r="K26" t="n">
         <v>108661.5491107109</v>
-      </c>
-      <c r="J26" t="n">
-        <v>58140.25299000497</v>
-      </c>
-      <c r="K26" t="n">
-        <v>84353.13258231728</v>
       </c>
       <c r="L26" t="n">
         <v>118000.6202800668</v>
       </c>
       <c r="M26" t="n">
-        <v>39613.84266521451</v>
+        <v>45505.25598202106</v>
       </c>
       <c r="N26" t="n">
         <v>43484.79975885239</v>
@@ -14608,16 +14608,16 @@
         <v>140233.2173339174</v>
       </c>
       <c r="P26" t="n">
-        <v>-3970.753390715268</v>
+        <v>-679.4015887265243</v>
       </c>
       <c r="Q26" t="n">
         <v>475992.7460913085</v>
       </c>
       <c r="R26" t="n">
+        <v>529885.8934718403</v>
+      </c>
+      <c r="S26" t="n">
         <v>205641.1004999997</v>
-      </c>
-      <c r="S26" t="n">
-        <v>308159.1348329275</v>
       </c>
     </row>
     <row r="27">
@@ -14637,28 +14637,28 @@
         <v>69610.65928468276</v>
       </c>
       <c r="F27" t="n">
-        <v>58458.8934888123</v>
+        <v>60112.64410178467</v>
       </c>
       <c r="G27" t="n">
-        <v>62029.13420525546</v>
+        <v>57878.5629769599</v>
       </c>
       <c r="H27" t="n">
         <v>172818.8638770896</v>
       </c>
       <c r="I27" t="n">
+        <v>101686.6509055745</v>
+      </c>
+      <c r="J27" t="n">
+        <v>72021.64131373758</v>
+      </c>
+      <c r="K27" t="n">
         <v>108658.7049709763</v>
-      </c>
-      <c r="J27" t="n">
-        <v>55882.50921602602</v>
-      </c>
-      <c r="K27" t="n">
-        <v>89068.10651778019</v>
       </c>
       <c r="L27" t="n">
         <v>118183.953806468</v>
       </c>
       <c r="M27" t="n">
-        <v>45104.18780350205</v>
+        <v>44691.8812248927</v>
       </c>
       <c r="N27" t="n">
         <v>42577.17518684345</v>
@@ -14667,16 +14667,16 @@
         <v>141491.4845697752</v>
       </c>
       <c r="P27" t="n">
-        <v>3493.597126668957</v>
+        <v>2897.105064981894</v>
       </c>
       <c r="Q27" t="n">
         <v>494461.8261694335</v>
       </c>
       <c r="R27" t="n">
+        <v>531046.4272818672</v>
+      </c>
+      <c r="S27" t="n">
         <v>202663.8099999997</v>
-      </c>
-      <c r="S27" t="n">
-        <v>315748.1315096188</v>
       </c>
     </row>
     <row r="28">
@@ -14696,28 +14696,28 @@
         <v>85153.01132789908</v>
       </c>
       <c r="F28" t="n">
-        <v>56645.3413770705</v>
+        <v>59958.08481670553</v>
       </c>
       <c r="G28" t="n">
-        <v>39457.82208924112</v>
+        <v>46543.89383891579</v>
       </c>
       <c r="H28" t="n">
         <v>188342.2103608764</v>
       </c>
       <c r="I28" t="n">
+        <v>106552.2346352892</v>
+      </c>
+      <c r="J28" t="n">
+        <v>66811.98759515518</v>
+      </c>
+      <c r="K28" t="n">
         <v>108670.0917251855</v>
-      </c>
-      <c r="J28" t="n">
-        <v>53417.47148587461</v>
-      </c>
-      <c r="K28" t="n">
-        <v>94681.29847535081</v>
       </c>
       <c r="L28" t="n">
         <v>119102.5489063244</v>
       </c>
       <c r="M28" t="n">
-        <v>42609.01381650027</v>
+        <v>45317.63003499027</v>
       </c>
       <c r="N28" t="n">
         <v>47981.4871920303</v>
@@ -14726,16 +14726,16 @@
         <v>142761.6242846684</v>
       </c>
       <c r="P28" t="n">
-        <v>6624.652358071567</v>
+        <v>7029.225386919059</v>
       </c>
       <c r="Q28" t="n">
         <v>510651.2246069335</v>
       </c>
       <c r="R28" t="n">
+        <v>557217.7849192807</v>
+      </c>
+      <c r="S28" t="n">
         <v>207144.9414999998</v>
-      </c>
-      <c r="S28" t="n">
-        <v>333114.0039994306</v>
       </c>
     </row>
     <row r="29">
@@ -14755,28 +14755,28 @@
         <v>83364.98554419036</v>
       </c>
       <c r="F29" t="n">
-        <v>59093.31812743297</v>
+        <v>59341.72740351967</v>
       </c>
       <c r="G29" t="n">
-        <v>57399.59938612457</v>
+        <v>60128.54698030348</v>
       </c>
       <c r="H29" t="n">
         <v>202427.876313284</v>
       </c>
       <c r="I29" t="n">
+        <v>111867.2498553927</v>
+      </c>
+      <c r="J29" t="n">
+        <v>67091.23578812832</v>
+      </c>
+      <c r="K29" t="n">
         <v>108668.7966590445</v>
-      </c>
-      <c r="J29" t="n">
-        <v>63520.50516892786</v>
-      </c>
-      <c r="K29" t="n">
-        <v>99691.19457641852</v>
       </c>
       <c r="L29" t="n">
         <v>119227.9233478963</v>
       </c>
       <c r="M29" t="n">
-        <v>48850.12808952983</v>
+        <v>44289.31480875727</v>
       </c>
       <c r="N29" t="n">
         <v>39026.39812035518</v>
@@ -14785,16 +14785,16 @@
         <v>144020.3243834588</v>
       </c>
       <c r="P29" t="n">
-        <v>8556.090474020313</v>
+        <v>9700.606712793549</v>
       </c>
       <c r="Q29" t="n">
         <v>554970.7675756835</v>
       </c>
       <c r="R29" t="n">
+        <v>582303.6587793416</v>
+      </c>
+      <c r="S29" t="n">
         <v>214688.2729999997</v>
-      </c>
-      <c r="S29" t="n">
-        <v>343844.1398691816</v>
       </c>
     </row>
     <row r="30">
@@ -14814,28 +14814,28 @@
         <v>47315.34007945612</v>
       </c>
       <c r="F30" t="n">
-        <v>30558.12887068136</v>
+        <v>36540.59490897997</v>
       </c>
       <c r="G30" t="n">
-        <v>14196.77543182491</v>
+        <v>43925.79641274568</v>
       </c>
       <c r="H30" t="n">
         <v>165006.2782633696</v>
       </c>
       <c r="I30" t="n">
+        <v>91573.58646486021</v>
+      </c>
+      <c r="J30" t="n">
+        <v>74476.98418449634</v>
+      </c>
+      <c r="K30" t="n">
         <v>108665.3219632149</v>
-      </c>
-      <c r="J30" t="n">
-        <v>61470.45660698409</v>
-      </c>
-      <c r="K30" t="n">
-        <v>79932.56267858105</v>
       </c>
       <c r="L30" t="n">
         <v>118010.6684151843</v>
       </c>
       <c r="M30" t="n">
-        <v>48471.2713645726</v>
+        <v>47612.9850742298</v>
       </c>
       <c r="N30" t="n">
         <v>6129.476665923661</v>
@@ -14844,16 +14844,16 @@
         <v>145264.3406380354</v>
       </c>
       <c r="P30" t="n">
-        <v>-17526.41934039288</v>
+        <v>-18735.16683167071</v>
       </c>
       <c r="Q30" t="n">
         <v>507368.9707006835</v>
       </c>
       <c r="R30" t="n">
+        <v>542218.0508662695</v>
+      </c>
+      <c r="S30" t="n">
         <v>182041.4809499997</v>
-      </c>
-      <c r="S30" t="n">
-        <v>319747.270239646</v>
       </c>
     </row>
     <row r="31">
@@ -14873,28 +14873,28 @@
         <v>62913.81865436349</v>
       </c>
       <c r="F31" t="n">
-        <v>43012.13264064036</v>
+        <v>47536.70530549905</v>
       </c>
       <c r="G31" t="n">
-        <v>27248.10128484843</v>
+        <v>46552.46582907971</v>
       </c>
       <c r="H31" t="n">
         <v>190157.1966619115</v>
       </c>
       <c r="I31" t="n">
+        <v>97645.10400496198</v>
+      </c>
+      <c r="J31" t="n">
+        <v>70194.34800241822</v>
+      </c>
+      <c r="K31" t="n">
         <v>108677.1245657751</v>
-      </c>
-      <c r="J31" t="n">
-        <v>59836.80160876746</v>
-      </c>
-      <c r="K31" t="n">
-        <v>85699.95768404244</v>
       </c>
       <c r="L31" t="n">
         <v>119464.4928622757</v>
       </c>
       <c r="M31" t="n">
-        <v>46673.37651706573</v>
+        <v>48683.47423319455</v>
       </c>
       <c r="N31" t="n">
         <v>22528.89567107038</v>
@@ -14903,16 +14903,16 @@
         <v>146551.3813848465</v>
       </c>
       <c r="P31" t="n">
-        <v>11994.40558226836</v>
+        <v>13626.66506337853</v>
       </c>
       <c r="Q31" t="n">
         <v>543873.2402319335</v>
       </c>
       <c r="R31" t="n">
+        <v>593626.0960216564</v>
+      </c>
+      <c r="S31" t="n">
         <v>197869.0969499997</v>
-      </c>
-      <c r="S31" t="n">
-        <v>347534.5692005896</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_results.xlsx
+++ b/examples/eCommerce_results.xlsx
@@ -556,7 +556,7 @@
         <v>-2203.674255376641</v>
       </c>
       <c r="F2" t="n">
-        <v>-39063.73120607932</v>
+        <v>-38342.31600449189</v>
       </c>
       <c r="G2" t="n">
         <v>-30014.68500000002</v>
@@ -568,7 +568,7 @@
         <v>-14.49559657031799</v>
       </c>
       <c r="J2" t="n">
-        <v>-36073.21526127103</v>
+        <v>-37204.27743574464</v>
       </c>
       <c r="K2" t="n">
         <v>1233.710885033743</v>
@@ -583,19 +583,19 @@
         <v>10420.36625339445</v>
       </c>
       <c r="O2" t="n">
-        <v>61840.42745614285</v>
+        <v>6983.800852682138</v>
       </c>
       <c r="P2" t="n">
-        <v>44825.18554154154</v>
+        <v>44028.88357418474</v>
       </c>
       <c r="Q2" t="n">
-        <v>41666.2922904658</v>
+        <v>40714.73342764851</v>
       </c>
       <c r="R2" t="n">
-        <v>31161.29793522518</v>
+        <v>23074.94258756307</v>
       </c>
       <c r="S2" t="n">
-        <v>-20704.89045518694</v>
+        <v>-21155.60373634912</v>
       </c>
     </row>
     <row r="3">
@@ -615,7 +615,7 @@
         <v>1848.581724177951</v>
       </c>
       <c r="F3" t="n">
-        <v>34159.40096689207</v>
+        <v>33872.62145686762</v>
       </c>
       <c r="G3" t="n">
         <v>19441.46400000004</v>
@@ -627,7 +627,7 @@
         <v>14.14208860912441</v>
       </c>
       <c r="J3" t="n">
-        <v>11085.17890573785</v>
+        <v>10345.66590072965</v>
       </c>
       <c r="K3" t="n">
         <v>1298.372415588591</v>
@@ -642,19 +642,19 @@
         <v>26622.08502430787</v>
       </c>
       <c r="O3" t="n">
-        <v>20080.87068303852</v>
+        <v>13170.23835153191</v>
       </c>
       <c r="P3" t="n">
-        <v>56926.08510877963</v>
+        <v>42489.43309754309</v>
       </c>
       <c r="Q3" t="n">
-        <v>39231.00250503954</v>
+        <v>39637.38732373949</v>
       </c>
       <c r="R3" t="n">
-        <v>37535.08134570632</v>
+        <v>34543.524270843</v>
       </c>
       <c r="S3" t="n">
-        <v>13505.95581609674</v>
+        <v>13798.56186434994</v>
       </c>
     </row>
     <row r="4">
@@ -674,7 +674,7 @@
         <v>1455.88383847281</v>
       </c>
       <c r="F4" t="n">
-        <v>43470.25866132489</v>
+        <v>31948.48963106132</v>
       </c>
       <c r="G4" t="n">
         <v>18390.03550000001</v>
@@ -686,7 +686,7 @@
         <v>13.63947805201882</v>
       </c>
       <c r="J4" t="n">
-        <v>15315.42969712549</v>
+        <v>13837.94420495251</v>
       </c>
       <c r="K4" t="n">
         <v>1278.343201189139</v>
@@ -701,19 +701,19 @@
         <v>43740.11813860359</v>
       </c>
       <c r="O4" t="n">
-        <v>57401.59919356937</v>
+        <v>22464.34345129041</v>
       </c>
       <c r="P4" t="n">
-        <v>55245.00425633784</v>
+        <v>41203.01327355441</v>
       </c>
       <c r="Q4" t="n">
-        <v>40622.11451391813</v>
+        <v>40369.32008447465</v>
       </c>
       <c r="R4" t="n">
-        <v>58288.83442642755</v>
+        <v>51255.68569006956</v>
       </c>
       <c r="S4" t="n">
-        <v>15009.52128957185</v>
+        <v>14269.40613980969</v>
       </c>
     </row>
     <row r="5">
@@ -733,7 +733,7 @@
         <v>351.0342713853844</v>
       </c>
       <c r="F5" t="n">
-        <v>-17762.25552182837</v>
+        <v>4502.917603950928</v>
       </c>
       <c r="G5" t="n">
         <v>6625.767999999926</v>
@@ -745,7 +745,7 @@
         <v>3.22240641247523</v>
       </c>
       <c r="J5" t="n">
-        <v>-12132.05287515871</v>
+        <v>-12433.80759054036</v>
       </c>
       <c r="K5" t="n">
         <v>1262.728189813412</v>
@@ -760,19 +760,19 @@
         <v>48114.74462822801</v>
       </c>
       <c r="O5" t="n">
-        <v>64107.82078643317</v>
+        <v>40938.44004297969</v>
       </c>
       <c r="P5" t="n">
-        <v>55326.03852499957</v>
+        <v>41587.15427934882</v>
       </c>
       <c r="Q5" t="n">
-        <v>38611.68026061413</v>
+        <v>38895.22253850516</v>
       </c>
       <c r="R5" t="n">
-        <v>57151.33777673517</v>
+        <v>51919.23453227615</v>
       </c>
       <c r="S5" t="n">
-        <v>-4378.156911579076</v>
+        <v>-2514.428519917416</v>
       </c>
     </row>
     <row r="6">
@@ -792,7 +792,7 @@
         <v>0.2638325789502005</v>
       </c>
       <c r="F6" t="n">
-        <v>19459.42499154292</v>
+        <v>6403.209128028976</v>
       </c>
       <c r="G6" t="n">
         <v>-5351.166499999976</v>
@@ -804,7 +804,7 @@
         <v>-7.378216808915852</v>
       </c>
       <c r="J6" t="n">
-        <v>3795.999469247904</v>
+        <v>4693.709765862634</v>
       </c>
       <c r="K6" t="n">
         <v>1257.338957732416</v>
@@ -819,19 +819,19 @@
         <v>42346.0147212294</v>
       </c>
       <c r="O6" t="n">
-        <v>49221.85605105515</v>
+        <v>35285.61216776845</v>
       </c>
       <c r="P6" t="n">
-        <v>50977.42487691458</v>
+        <v>39488.23663644787</v>
       </c>
       <c r="Q6" t="n">
-        <v>39454.42759407994</v>
+        <v>40730.43094530996</v>
       </c>
       <c r="R6" t="n">
-        <v>52418.02171220504</v>
+        <v>48968.10331613028</v>
       </c>
       <c r="S6" t="n">
-        <v>3620.393243129049</v>
+        <v>2777.332204833823</v>
       </c>
     </row>
     <row r="7">
@@ -851,7 +851,7 @@
         <v>1116.161367366752</v>
       </c>
       <c r="F7" t="n">
-        <v>18626.21124190732</v>
+        <v>11102.83048692055</v>
       </c>
       <c r="G7" t="n">
         <v>13418.18049999998</v>
@@ -863,7 +863,7 @@
         <v>13.05923263460029</v>
       </c>
       <c r="J7" t="n">
-        <v>8162.33902837384</v>
+        <v>8261.964988236443</v>
       </c>
       <c r="K7" t="n">
         <v>1273.784290342001</v>
@@ -878,19 +878,19 @@
         <v>46926.72790776837</v>
       </c>
       <c r="O7" t="n">
-        <v>51731.62086616155</v>
+        <v>41434.57997348663</v>
       </c>
       <c r="P7" t="n">
-        <v>57838.34678452607</v>
+        <v>41527.68104143914</v>
       </c>
       <c r="Q7" t="n">
-        <v>37904.05583891687</v>
+        <v>43759.43055456992</v>
       </c>
       <c r="R7" t="n">
-        <v>55537.07530361961</v>
+        <v>52572.45645788978</v>
       </c>
       <c r="S7" t="n">
-        <v>8008.175618399807</v>
+        <v>7499.474058463853</v>
       </c>
     </row>
     <row r="8">
@@ -910,7 +910,7 @@
         <v>74.52103935271623</v>
       </c>
       <c r="F8" t="n">
-        <v>20276.29719425286</v>
+        <v>17072.21445385131</v>
       </c>
       <c r="G8" t="n">
         <v>13855.36249999995</v>
@@ -922,7 +922,7 @@
         <v>-4.790503298818812</v>
       </c>
       <c r="J8" t="n">
-        <v>9214.407188254323</v>
+        <v>8060.037495238753</v>
       </c>
       <c r="K8" t="n">
         <v>1259.2729713546</v>
@@ -937,19 +937,19 @@
         <v>39461.72967586313</v>
       </c>
       <c r="O8" t="n">
-        <v>50122.61074415799</v>
+        <v>16772.37209589122</v>
       </c>
       <c r="P8" t="n">
-        <v>43109.06275573429</v>
+        <v>43133.51671181914</v>
       </c>
       <c r="Q8" t="n">
-        <v>38347.38208446142</v>
+        <v>41393.73924571809</v>
       </c>
       <c r="R8" t="n">
-        <v>51029.22315119653</v>
+        <v>46703.59064677863</v>
       </c>
       <c r="S8" t="n">
-        <v>8610.084620870204</v>
+        <v>8385.805676056982</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
         <v>-1853.780483362679</v>
       </c>
       <c r="F9" t="n">
-        <v>-31162.16947512151</v>
+        <v>-35949.2757428699</v>
       </c>
       <c r="G9" t="n">
         <v>-33807.24000000001</v>
@@ -981,7 +981,7 @@
         <v>-12.2130544259203</v>
       </c>
       <c r="J9" t="n">
-        <v>-25753.2128819426</v>
+        <v>-27556.87262652797</v>
       </c>
       <c r="K9" t="n">
         <v>1237.836511636107</v>
@@ -996,19 +996,19 @@
         <v>6647.416987219958</v>
       </c>
       <c r="O9" t="n">
-        <v>19085.98427688418</v>
+        <v>12850.84596566482</v>
       </c>
       <c r="P9" t="n">
-        <v>52770.39786823448</v>
+        <v>42217.1130400705</v>
       </c>
       <c r="Q9" t="n">
-        <v>40432.55347813007</v>
+        <v>43904.87933293459</v>
       </c>
       <c r="R9" t="n">
-        <v>26268.92218671006</v>
+        <v>24366.62257462737</v>
       </c>
       <c r="S9" t="n">
-        <v>-18539.39285139669</v>
+        <v>-19493.74630965121</v>
       </c>
     </row>
     <row r="10">
@@ -1028,7 +1028,7 @@
         <v>1698.675970224861</v>
       </c>
       <c r="F10" t="n">
-        <v>39537.15573581378</v>
+        <v>27502.20311722371</v>
       </c>
       <c r="G10" t="n">
         <v>17408.00350000005</v>
@@ -1040,7 +1040,7 @@
         <v>13.00527191721643</v>
       </c>
       <c r="J10" t="n">
-        <v>9462.183290941619</v>
+        <v>8563.881116243083</v>
       </c>
       <c r="K10" t="n">
         <v>1294.798385849503</v>
@@ -1055,19 +1055,19 @@
         <v>22058.18637164952</v>
       </c>
       <c r="O10" t="n">
-        <v>30652.63431446073</v>
+        <v>25352.65434165386</v>
       </c>
       <c r="P10" t="n">
-        <v>56446.72026208158</v>
+        <v>43632.88610483405</v>
       </c>
       <c r="Q10" t="n">
-        <v>45175.03858668026</v>
+        <v>41517.35517484304</v>
       </c>
       <c r="R10" t="n">
-        <v>40062.50194409765</v>
+        <v>36952.28800954171</v>
       </c>
       <c r="S10" t="n">
-        <v>12480.17189829965</v>
+        <v>11733.27894662657</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>1055.524584885309</v>
       </c>
       <c r="F11" t="n">
-        <v>30594.79143335643</v>
+        <v>46323.59678079833</v>
       </c>
       <c r="G11" t="n">
         <v>19071.23699999999</v>
@@ -1099,7 +1099,7 @@
         <v>11.15829635894696</v>
       </c>
       <c r="J11" t="n">
-        <v>12516.19337521941</v>
+        <v>11756.03304967225</v>
       </c>
       <c r="K11" t="n">
         <v>1273.640654178246</v>
@@ -1114,19 +1114,19 @@
         <v>38745.74707449323</v>
       </c>
       <c r="O11" t="n">
-        <v>55582.36335884805</v>
+        <v>28664.38886317787</v>
       </c>
       <c r="P11" t="n">
-        <v>47232.68835847493</v>
+        <v>51202.13786783691</v>
       </c>
       <c r="Q11" t="n">
-        <v>40572.27141671356</v>
+        <v>40273.80500947711</v>
       </c>
       <c r="R11" t="n">
-        <v>57053.83055452706</v>
+        <v>53732.83178402069</v>
       </c>
       <c r="S11" t="n">
-        <v>14910.75448535595</v>
+        <v>16665.64208759849</v>
       </c>
     </row>
     <row r="12">
@@ -1146,7 +1146,7 @@
         <v>615.9399586790219</v>
       </c>
       <c r="F12" t="n">
-        <v>5414.741395605057</v>
+        <v>-7361.579632197638</v>
       </c>
       <c r="G12" t="n">
         <v>8352.682499999959</v>
@@ -1158,7 +1158,7 @@
         <v>7.193089204582496</v>
       </c>
       <c r="J12" t="n">
-        <v>-11616.33448275726</v>
+        <v>-12567.76087933568</v>
       </c>
       <c r="K12" t="n">
         <v>1266.097348001633</v>
@@ -1173,19 +1173,19 @@
         <v>43055.44026560965</v>
       </c>
       <c r="O12" t="n">
-        <v>52933.52455609913</v>
+        <v>23049.62204810558</v>
       </c>
       <c r="P12" t="n">
-        <v>48925.92338043567</v>
+        <v>40456.11755226132</v>
       </c>
       <c r="Q12" t="n">
-        <v>41562.82976063904</v>
+        <v>43508.57121388373</v>
       </c>
       <c r="R12" t="n">
-        <v>55229.67635329387</v>
+        <v>50028.53822716197</v>
       </c>
       <c r="S12" t="n">
-        <v>-1786.645308613728</v>
+        <v>-3016.02734494216</v>
       </c>
     </row>
     <row r="13">
@@ -1205,7 +1205,7 @@
         <v>2.705210824907965</v>
       </c>
       <c r="F13" t="n">
-        <v>35197.10079870946</v>
+        <v>1925.028528978039</v>
       </c>
       <c r="G13" t="n">
         <v>-6559.680499999971</v>
@@ -1217,7 +1217,7 @@
         <v>-7.484395123443139</v>
       </c>
       <c r="J13" t="n">
-        <v>4249.883546954301</v>
+        <v>4573.826349056855</v>
       </c>
       <c r="K13" t="n">
         <v>1258.196785775535</v>
@@ -1232,19 +1232,19 @@
         <v>37670.29100100447</v>
       </c>
       <c r="O13" t="n">
-        <v>32809.57549667058</v>
+        <v>41433.12056708273</v>
       </c>
       <c r="P13" t="n">
-        <v>54251.34912321385</v>
+        <v>35556.86436689672</v>
       </c>
       <c r="Q13" t="n">
-        <v>40699.60219850299</v>
+        <v>42642.94582437452</v>
       </c>
       <c r="R13" t="n">
-        <v>50941.16946811698</v>
+        <v>49780.08431668363</v>
       </c>
       <c r="S13" t="n">
-        <v>6366.165759484124</v>
+        <v>3735.297110050596</v>
       </c>
     </row>
     <row r="14">
@@ -1264,7 +1264,7 @@
         <v>1057.772074281805</v>
       </c>
       <c r="F14" t="n">
-        <v>15311.44555271533</v>
+        <v>11620.34221538912</v>
       </c>
       <c r="G14" t="n">
         <v>8268.986999999988</v>
@@ -1276,7 +1276,7 @@
         <v>12.52480474198565</v>
       </c>
       <c r="J14" t="n">
-        <v>5341.486332069815</v>
+        <v>6030.146431516115</v>
       </c>
       <c r="K14" t="n">
         <v>1273.245686646077</v>
@@ -1291,19 +1291,19 @@
         <v>42972.37177798508</v>
       </c>
       <c r="O14" t="n">
-        <v>55656.66041213746</v>
+        <v>48062.1133501118</v>
       </c>
       <c r="P14" t="n">
-        <v>45603.68663389202</v>
+        <v>42815.44377819415</v>
       </c>
       <c r="Q14" t="n">
-        <v>39798.40741832492</v>
+        <v>44855.33150619503</v>
       </c>
       <c r="R14" t="n">
-        <v>54945.83453507956</v>
+        <v>54184.99655938621</v>
       </c>
       <c r="S14" t="n">
-        <v>5166.13884624727</v>
+        <v>5097.058871282972</v>
       </c>
     </row>
     <row r="15">
@@ -1323,7 +1323,7 @@
         <v>155.3135370442143</v>
       </c>
       <c r="F15" t="n">
-        <v>21186.71193099603</v>
+        <v>16310.70841649919</v>
       </c>
       <c r="G15" t="n">
         <v>13855.36249999994</v>
@@ -1335,7 +1335,7 @@
         <v>-2.022363300154896</v>
       </c>
       <c r="J15" t="n">
-        <v>8392.533949528841</v>
+        <v>6030.642922694649</v>
       </c>
       <c r="K15" t="n">
         <v>1259.920309642475</v>
@@ -1350,19 +1350,19 @@
         <v>35601.12773515782</v>
       </c>
       <c r="O15" t="n">
-        <v>55670.88557965751</v>
+        <v>26582.08612533418</v>
       </c>
       <c r="P15" t="n">
-        <v>63863.42360669727</v>
+        <v>44770.36881319996</v>
       </c>
       <c r="Q15" t="n">
-        <v>43042.41545131143</v>
+        <v>41109.28119839844</v>
       </c>
       <c r="R15" t="n">
-        <v>55796.0812781794</v>
+        <v>48636.79720664601</v>
       </c>
       <c r="S15" t="n">
-        <v>8323.508664778275</v>
+        <v>7806.595759130088</v>
       </c>
     </row>
     <row r="16">
@@ -1382,7 +1382,7 @@
         <v>-1719.557963148407</v>
       </c>
       <c r="F16" t="n">
-        <v>-32063.09945848267</v>
+        <v>-39352.74917327918</v>
       </c>
       <c r="G16" t="n">
         <v>-33225.56850000002</v>
@@ -1394,7 +1394,7 @@
         <v>-11.25617493133117</v>
       </c>
       <c r="J16" t="n">
-        <v>-24588.69776295849</v>
+        <v>-26687.24725869663</v>
       </c>
       <c r="K16" t="n">
         <v>1239.576484819386</v>
@@ -1409,19 +1409,19 @@
         <v>3299.520914896822</v>
       </c>
       <c r="O16" t="n">
-        <v>30587.43347270427</v>
+        <v>19408.61502407877</v>
       </c>
       <c r="P16" t="n">
-        <v>60186.48314938421</v>
+        <v>44632.46299786743</v>
       </c>
       <c r="Q16" t="n">
-        <v>42316.14233980116</v>
+        <v>41191.97226546105</v>
       </c>
       <c r="R16" t="n">
-        <v>29652.37462137234</v>
+        <v>25672.80195358914</v>
       </c>
       <c r="S16" t="n">
-        <v>-17579.18187246034</v>
+        <v>-18852.79078178151</v>
       </c>
     </row>
     <row r="17">
@@ -1441,7 +1441,7 @@
         <v>1616.378631262028</v>
       </c>
       <c r="F17" t="n">
-        <v>49595.43037838469</v>
+        <v>24744.52043899256</v>
       </c>
       <c r="G17" t="n">
         <v>18512.49005000006</v>
@@ -1453,7 +1453,7 @@
         <v>12.77744517794563</v>
       </c>
       <c r="J17" t="n">
-        <v>9237.513656215149</v>
+        <v>6543.407907594028</v>
       </c>
       <c r="K17" t="n">
         <v>1292.484551911726</v>
@@ -1468,19 +1468,19 @@
         <v>15718.39988815706</v>
       </c>
       <c r="O17" t="n">
-        <v>46298.98861748275</v>
+        <v>12105.4840772663</v>
       </c>
       <c r="P17" t="n">
-        <v>53255.60357648249</v>
+        <v>50557.40383075114</v>
       </c>
       <c r="Q17" t="n">
-        <v>39237.96299988386</v>
+        <v>44588.67756981608</v>
       </c>
       <c r="R17" t="n">
-        <v>40978.11841886632</v>
+        <v>36472.26274514982</v>
       </c>
       <c r="S17" t="n">
-        <v>14519.66543861525</v>
+        <v>12453.03116352153</v>
       </c>
     </row>
     <row r="18">
@@ -1500,7 +1500,7 @@
         <v>962.9169842656054</v>
       </c>
       <c r="F18" t="n">
-        <v>31498.10643762394</v>
+        <v>53309.93982027828</v>
       </c>
       <c r="G18" t="n">
         <v>20255.8435</v>
@@ -1512,7 +1512,7 @@
         <v>10.14793660936091</v>
       </c>
       <c r="J18" t="n">
-        <v>11979.53601004175</v>
+        <v>11348.80993342991</v>
       </c>
       <c r="K18" t="n">
         <v>1272.003150556234</v>
@@ -1527,19 +1527,19 @@
         <v>34304.73257755489</v>
       </c>
       <c r="O18" t="n">
-        <v>44851.4160255992</v>
+        <v>35763.56938301263</v>
       </c>
       <c r="P18" t="n">
-        <v>54660.1932520401</v>
+        <v>42806.18900587675</v>
       </c>
       <c r="Q18" t="n">
-        <v>43755.7642409211</v>
+        <v>41730.88801249382</v>
       </c>
       <c r="R18" t="n">
-        <v>57292.39850650959</v>
+        <v>54011.43748977</v>
       </c>
       <c r="S18" t="n">
-        <v>11386.14291829283</v>
+        <v>13842.55555339214</v>
       </c>
     </row>
     <row r="19">
@@ -1559,7 +1559,7 @@
         <v>572.5341703116934</v>
       </c>
       <c r="F19" t="n">
-        <v>20083.15881921035</v>
+        <v>-15504.18508751402</v>
       </c>
       <c r="G19" t="n">
         <v>3007.534449999932</v>
@@ -1571,7 +1571,7 @@
         <v>7.056518224492297</v>
       </c>
       <c r="J19" t="n">
-        <v>-10284.65148944697</v>
+        <v>-9319.399586337633</v>
       </c>
       <c r="K19" t="n">
         <v>1266.135498992303</v>
@@ -1586,19 +1586,19 @@
         <v>42185.63954230393</v>
       </c>
       <c r="O19" t="n">
-        <v>28618.5777402067</v>
+        <v>36843.93137776074</v>
       </c>
       <c r="P19" t="n">
-        <v>48738.33626461741</v>
+        <v>43754.96496513006</v>
       </c>
       <c r="Q19" t="n">
-        <v>38045.84477550146</v>
+        <v>39916.84261651275</v>
       </c>
       <c r="R19" t="n">
-        <v>51992.7649441733</v>
+        <v>52723.19068404158</v>
       </c>
       <c r="S19" t="n">
-        <v>1331.201813396861</v>
+        <v>-1652.601518446054</v>
       </c>
     </row>
     <row r="20">
@@ -1618,7 +1618,7 @@
         <v>57.01767172978418</v>
       </c>
       <c r="F20" t="n">
-        <v>17621.93270936803</v>
+        <v>4856.107186079649</v>
       </c>
       <c r="G20" t="n">
         <v>-2831.556499999967</v>
@@ -1630,7 +1630,7 @@
         <v>-5.818137440614817</v>
       </c>
       <c r="J20" t="n">
-        <v>3751.808621355181</v>
+        <v>3938.893481608052</v>
       </c>
       <c r="K20" t="n">
         <v>1259.578830618237</v>
@@ -1645,19 +1645,19 @@
         <v>41166.66873265</v>
       </c>
       <c r="O20" t="n">
-        <v>31390.94186591802</v>
+        <v>32311.57166796265</v>
       </c>
       <c r="P20" t="n">
-        <v>62832.46785801287</v>
+        <v>42587.60487466391</v>
       </c>
       <c r="Q20" t="n">
-        <v>39801.44596070465</v>
+        <v>47618.13991769191</v>
       </c>
       <c r="R20" t="n">
-        <v>53225.69037872017</v>
+        <v>51581.75620381772</v>
       </c>
       <c r="S20" t="n">
-        <v>5771.166453200151</v>
+        <v>4784.9391274855</v>
       </c>
     </row>
     <row r="21">
@@ -1677,7 +1677,7 @@
         <v>1090.925923525262</v>
       </c>
       <c r="F21" t="n">
-        <v>25985.20412227948</v>
+        <v>14142.89523320139</v>
       </c>
       <c r="G21" t="n">
         <v>12709.90549999997</v>
@@ -1689,7 +1689,7 @@
         <v>12.81586347788247</v>
       </c>
       <c r="J21" t="n">
-        <v>5135.596170925341</v>
+        <v>5662.222780791343</v>
       </c>
       <c r="K21" t="n">
         <v>1273.305411040041</v>
@@ -1704,19 +1704,19 @@
         <v>47781.19574167953</v>
       </c>
       <c r="O21" t="n">
-        <v>63357.02576421614</v>
+        <v>39765.54326879498</v>
       </c>
       <c r="P21" t="n">
-        <v>56888.23114844079</v>
+        <v>47222.52752453204</v>
       </c>
       <c r="Q21" t="n">
-        <v>43143.81345500585</v>
+        <v>44939.84440431174</v>
       </c>
       <c r="R21" t="n">
-        <v>59712.98876984292</v>
+        <v>55218.53803126805</v>
       </c>
       <c r="S21" t="n">
-        <v>7266.437067716623</v>
+        <v>6551.657952186461</v>
       </c>
     </row>
     <row r="22">
@@ -1736,7 +1736,7 @@
         <v>107.7794583240175</v>
       </c>
       <c r="F22" t="n">
-        <v>48479.36396166772</v>
+        <v>12879.53700557941</v>
       </c>
       <c r="G22" t="n">
         <v>13855.36249999994</v>
@@ -1748,7 +1748,7 @@
         <v>-3.401609549173385</v>
       </c>
       <c r="J22" t="n">
-        <v>5732.074825377586</v>
+        <v>5424.31443742209</v>
       </c>
       <c r="K22" t="n">
         <v>1259.475158300031</v>
@@ -1763,19 +1763,19 @@
         <v>34634.16139973752</v>
       </c>
       <c r="O22" t="n">
-        <v>58861.99579338785</v>
+        <v>28751.83998970864</v>
       </c>
       <c r="P22" t="n">
-        <v>53686.85978680189</v>
+        <v>48071.89881566699</v>
       </c>
       <c r="Q22" t="n">
-        <v>40623.59333592829</v>
+        <v>42014.98687109765</v>
       </c>
       <c r="R22" t="n">
-        <v>55204.60952380184</v>
+        <v>50299.7919181383</v>
       </c>
       <c r="S22" t="n">
-        <v>11187.60319115853</v>
+        <v>8417.687969027927</v>
       </c>
     </row>
     <row r="23">
@@ -1795,7 +1795,7 @@
         <v>-1486.848756438929</v>
       </c>
       <c r="F23" t="n">
-        <v>-40509.26992546148</v>
+        <v>-31397.07090364888</v>
       </c>
       <c r="G23" t="n">
         <v>-33509.44050000001</v>
@@ -1807,7 +1807,7 @@
         <v>-8.433777481329448</v>
       </c>
       <c r="J23" t="n">
-        <v>-22428.24783047658</v>
+        <v>-22801.34877695593</v>
       </c>
       <c r="K23" t="n">
         <v>1242.018289506746</v>
@@ -1822,19 +1822,19 @@
         <v>6003.950612402226</v>
       </c>
       <c r="O23" t="n">
-        <v>36987.97252467152</v>
+        <v>1434.937279371953</v>
       </c>
       <c r="P23" t="n">
-        <v>47785.18855802115</v>
+        <v>49658.26063296791</v>
       </c>
       <c r="Q23" t="n">
-        <v>47515.52196673747</v>
+        <v>51161.23565731521</v>
       </c>
       <c r="R23" t="n">
-        <v>30814.37370157041</v>
+        <v>26523.76663303111</v>
       </c>
       <c r="S23" t="n">
-        <v>-18485.60882756436</v>
+        <v>-18087.93694562641</v>
       </c>
     </row>
     <row r="24">
@@ -1854,7 +1854,7 @@
         <v>1514.128077304828</v>
       </c>
       <c r="F24" t="n">
-        <v>38341.30602921801</v>
+        <v>32094.10711453114</v>
       </c>
       <c r="G24" t="n">
         <v>15592.34650000005</v>
@@ -1866,7 +1866,7 @@
         <v>12.63749895544966</v>
       </c>
       <c r="J24" t="n">
-        <v>8669.119069254839</v>
+        <v>5947.350034125157</v>
       </c>
       <c r="K24" t="n">
         <v>1287.981234434555</v>
@@ -1881,19 +1881,19 @@
         <v>20417.49800427219</v>
       </c>
       <c r="O24" t="n">
-        <v>37935.35379620847</v>
+        <v>9244.788650873743</v>
       </c>
       <c r="P24" t="n">
-        <v>50259.27072475549</v>
+        <v>53022.0597206461</v>
       </c>
       <c r="Q24" t="n">
-        <v>42670.60011955794</v>
+        <v>40903.40781741735</v>
       </c>
       <c r="R24" t="n">
-        <v>41407.07661016977</v>
+        <v>37450.65254565767</v>
       </c>
       <c r="S24" t="n">
-        <v>12913.50177920778</v>
+        <v>12467.53346850696</v>
       </c>
     </row>
     <row r="25">
@@ -1913,7 +1913,7 @@
         <v>736.8386244445595</v>
       </c>
       <c r="F25" t="n">
-        <v>26127.32525413246</v>
+        <v>20269.58651756337</v>
       </c>
       <c r="G25" t="n">
         <v>24977.89450000004</v>
@@ -1925,7 +1925,7 @@
         <v>7.391026498316639</v>
       </c>
       <c r="J25" t="n">
-        <v>9344.741372323422</v>
+        <v>9261.492478457194</v>
       </c>
       <c r="K25" t="n">
         <v>1268.307972930912</v>
@@ -1940,19 +1940,19 @@
         <v>36385.80983183318</v>
       </c>
       <c r="O25" t="n">
-        <v>68130.66968487973</v>
+        <v>39821.22399161514</v>
       </c>
       <c r="P25" t="n">
-        <v>64379.38039932723</v>
+        <v>51582.05921520408</v>
       </c>
       <c r="Q25" t="n">
-        <v>44140.7821849316</v>
+        <v>44974.89928141471</v>
       </c>
       <c r="R25" t="n">
-        <v>63248.89504667967</v>
+        <v>57495.65936369329</v>
       </c>
       <c r="S25" t="n">
-        <v>14131.99213551943</v>
+        <v>13787.90371565913</v>
       </c>
     </row>
     <row r="26">
@@ -1972,7 +1972,7 @@
         <v>593.6447879510812</v>
       </c>
       <c r="F26" t="n">
-        <v>40901.11144381294</v>
+        <v>2763.061818824531</v>
       </c>
       <c r="G26" t="n">
         <v>-5237.962000000032</v>
@@ -1984,7 +1984,7 @@
         <v>8.131982766623073</v>
       </c>
       <c r="J26" t="n">
-        <v>-10051.70032346908</v>
+        <v>-4507.278389496938</v>
       </c>
       <c r="K26" t="n">
         <v>1265.124158023839</v>
@@ -1999,19 +1999,19 @@
         <v>43484.79975885239</v>
       </c>
       <c r="O26" t="n">
-        <v>49963.04034817334</v>
+        <v>19501.50737426399</v>
       </c>
       <c r="P26" t="n">
-        <v>60441.53949695702</v>
+        <v>52091.00697397406</v>
       </c>
       <c r="Q26" t="n">
-        <v>45505.25598202106</v>
+        <v>45890.98259566005</v>
       </c>
       <c r="R26" t="n">
-        <v>58855.21880698537</v>
+        <v>53365.74182366347</v>
       </c>
       <c r="S26" t="n">
-        <v>-679.4015887265243</v>
+        <v>-2871.289327419982</v>
       </c>
     </row>
     <row r="27">
@@ -2031,7 +2031,7 @@
         <v>183.3335264012202</v>
       </c>
       <c r="F27" t="n">
-        <v>1160.533810026955</v>
+        <v>7029.991392562846</v>
       </c>
       <c r="G27" t="n">
         <v>-2977.290499999998</v>
@@ -2043,7 +2043,7 @@
         <v>-2.844139734633762</v>
       </c>
       <c r="J27" t="n">
-        <v>4648.799304108585</v>
+        <v>4693.709765862634</v>
       </c>
       <c r="K27" t="n">
         <v>1258.267235857835</v>
@@ -2058,19 +2058,19 @@
         <v>42577.17518684345</v>
       </c>
       <c r="O27" t="n">
-        <v>57878.5629769599</v>
+        <v>38606.18240810808</v>
       </c>
       <c r="P27" t="n">
-        <v>72021.64131373758</v>
+        <v>51558.19096324142</v>
       </c>
       <c r="Q27" t="n">
-        <v>44691.8812248927</v>
+        <v>47022.73122831043</v>
       </c>
       <c r="R27" t="n">
-        <v>60112.64410178467</v>
+        <v>54769.07539950891</v>
       </c>
       <c r="S27" t="n">
-        <v>2897.105064981894</v>
+        <v>3442.307526004711</v>
       </c>
     </row>
     <row r="28">
@@ -2090,7 +2090,7 @@
         <v>918.595099856391</v>
       </c>
       <c r="F28" t="n">
-        <v>26171.35763741339</v>
+        <v>9370.833420507945</v>
       </c>
       <c r="G28" t="n">
         <v>4481.131500000018</v>
@@ -2102,7 +2102,7 @@
         <v>11.38675420923036</v>
       </c>
       <c r="J28" t="n">
-        <v>4865.583729714799</v>
+        <v>5535.501290434514</v>
       </c>
       <c r="K28" t="n">
         <v>1270.139714893143</v>
@@ -2117,19 +2117,19 @@
         <v>47981.4871920303</v>
       </c>
       <c r="O28" t="n">
-        <v>46543.89383891579</v>
+        <v>27771.58809677301</v>
       </c>
       <c r="P28" t="n">
-        <v>66811.98759515518</v>
+        <v>51564.97348169501</v>
       </c>
       <c r="Q28" t="n">
-        <v>45317.63003499027</v>
+        <v>49002.42734097</v>
       </c>
       <c r="R28" t="n">
-        <v>59958.08481670553</v>
+        <v>55624.58159533078</v>
       </c>
       <c r="S28" t="n">
-        <v>7029.225386919059</v>
+        <v>5856.640400882113</v>
       </c>
     </row>
     <row r="29">
@@ -2149,7 +2149,7 @@
         <v>125.3744415718946</v>
       </c>
       <c r="F29" t="n">
-        <v>25085.87386006098</v>
+        <v>12138.71106443649</v>
       </c>
       <c r="G29" t="n">
         <v>7543.331499999933</v>
@@ -2161,7 +2161,7 @@
         <v>-1.295066141009546</v>
       </c>
       <c r="J29" t="n">
-        <v>5315.0152201035</v>
+        <v>5116.92877478822</v>
       </c>
       <c r="K29" t="n">
         <v>1258.700098790373</v>
@@ -2176,19 +2176,19 @@
         <v>39026.39812035518</v>
       </c>
       <c r="O29" t="n">
-        <v>60128.54698030348</v>
+        <v>18144.26265457211</v>
       </c>
       <c r="P29" t="n">
-        <v>67091.23578812832</v>
+        <v>52246.60687847849</v>
       </c>
       <c r="Q29" t="n">
-        <v>44289.31480875727</v>
+        <v>52490.80990215178</v>
       </c>
       <c r="R29" t="n">
-        <v>59341.72740351967</v>
+        <v>52394.95338323586</v>
       </c>
       <c r="S29" t="n">
-        <v>9700.606712793549</v>
+        <v>8717.690327983895</v>
       </c>
     </row>
     <row r="30">
@@ -2208,7 +2208,7 @@
         <v>-1217.25493271206</v>
       </c>
       <c r="F30" t="n">
-        <v>-40085.60791307216</v>
+        <v>-32793.53504981964</v>
       </c>
       <c r="G30" t="n">
         <v>-32646.79205000001</v>
@@ -2220,7 +2220,7 @@
         <v>-3.474695829608528</v>
       </c>
       <c r="J30" t="n">
-        <v>-20293.66339053254</v>
+        <v>-21504.53012525594</v>
       </c>
       <c r="K30" t="n">
         <v>1244.016254576602</v>
@@ -2235,19 +2235,19 @@
         <v>6129.476665923661</v>
       </c>
       <c r="O30" t="n">
-        <v>43925.79641274568</v>
+        <v>19956.24352442084</v>
       </c>
       <c r="P30" t="n">
-        <v>74476.98418449634</v>
+        <v>53744.15847681041</v>
       </c>
       <c r="Q30" t="n">
-        <v>47612.9850742298</v>
+        <v>52386.72283699032</v>
       </c>
       <c r="R30" t="n">
-        <v>36540.59490897997</v>
+        <v>30836.50336137279</v>
       </c>
       <c r="S30" t="n">
-        <v>-18735.16683167071</v>
+        <v>-18606.69870938322</v>
       </c>
     </row>
     <row r="31">
@@ -2267,7 +2267,7 @@
         <v>1453.824447091402</v>
       </c>
       <c r="F31" t="n">
-        <v>51408.04515538685</v>
+        <v>29163.04641846211</v>
       </c>
       <c r="G31" t="n">
         <v>15827.61600000004</v>
@@ -2279,7 +2279,7 @@
         <v>11.80260256018808</v>
       </c>
       <c r="J31" t="n">
-        <v>6071.517540101769</v>
+        <v>5658.665573454745</v>
       </c>
       <c r="K31" t="n">
         <v>1287.04074681115</v>
@@ -2294,19 +2294,19 @@
         <v>22528.89567107038</v>
       </c>
       <c r="O31" t="n">
-        <v>46552.46582907971</v>
+        <v>16307.53497657745</v>
       </c>
       <c r="P31" t="n">
-        <v>70194.34800241822</v>
+        <v>57208.03854289169</v>
       </c>
       <c r="Q31" t="n">
-        <v>48683.47423319455</v>
+        <v>51111.07220260736</v>
       </c>
       <c r="R31" t="n">
-        <v>47536.70530549905</v>
+        <v>41707.61354226819</v>
       </c>
       <c r="S31" t="n">
-        <v>13626.66506337853</v>
+        <v>12157.06093274394</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +2548,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>27687.1584950067</v>
+        <v>22138.75316058024</v>
       </c>
       <c r="S2" t="n">
         <v>12337.76797872265</v>
@@ -2635,7 +2635,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>22408.1388997311</v>
+        <v>22111.2577612055</v>
       </c>
       <c r="S3" t="n">
         <v>12868.88802035351</v>
@@ -2722,7 +2722,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>22333.93952363097</v>
+        <v>22578.2344265414</v>
       </c>
       <c r="S4" t="n">
         <v>12220.84377658014</v>
@@ -2819,7 +2819,7 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>19981.66488645603</v>
+        <v>26301.28308906815</v>
       </c>
       <c r="S5" t="n">
         <v>11067.24746300106</v>
@@ -2891,17 +2891,17 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>24656.11687553683</v>
+        <v>25365.23516069505</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>18420.31090452697</v>
+        <v>19539.1758178929</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1737199743309491</v>
+        <v>0.1255083232753494</v>
       </c>
       <c r="O6" t="n">
-        <v>37086.7489293573</v>
+        <v>36833.55568580871</v>
       </c>
       <c r="P6" t="n">
         <v>108579.9399999999</v>
@@ -2910,17 +2910,17 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>30456.50349411263</v>
+        <v>31911.50821153304</v>
       </c>
       <c r="S6" t="n">
-        <v>12676.88600930604</v>
+        <v>13117.10109793945</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>8872.311636037934</v>
+        <v>9096.501873804875</v>
       </c>
       <c r="V6" t="n">
-        <v>0.563823109431799</v>
+        <v>0.5330039432643885</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -2933,14 +2933,14 @@
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>24656.11687553683</v>
+        <v>25365.23516069505</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>18420.31090452697</v>
+        <v>19539.1758178929</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1737199743309491</v>
+        <v>0.1255083232753494</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -2949,18 +2949,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>simple_rnn</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rnn</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'lags': 30, 'hidden_layers_struct': {'simple': {'units': 64}}, 'validation_split': 0.2, 'epochs': 15}</t>
+          <t>{'max_depth': 3}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2969,69 +2973,77 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>28906.91147137367</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>24186.42677824134</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.431055845133463</v>
+      </c>
       <c r="M7" t="n">
-        <v>22478.32428899525</v>
+        <v>18601.82688365673</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1357461651449112</v>
+        <v>0.4291789883404016</v>
       </c>
       <c r="O7" t="n">
-        <v>19968.16566855012</v>
+        <v>-8370.699624495779</v>
       </c>
       <c r="P7" t="n">
-        <v>108579.9399999999</v>
+        <v>29456.98000000008</v>
       </c>
       <c r="Q7" t="n">
         <v>0.95</v>
       </c>
       <c r="R7" t="n">
-        <v>27349.58209148212</v>
+        <v>14410.39848825736</v>
       </c>
       <c r="S7" t="n">
-        <v>14274.19966111732</v>
+        <v>7432.281182776811</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>10191.44785378062</v>
+        <v>5438.725421452458</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4469797729440474</v>
-      </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="b">
-        <v>1</v>
-      </c>
+        <v>0.8711255843240786</v>
+      </c>
+      <c r="W7" t="n">
+        <v>15</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>35165.32845541724</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>28906.91147137367</v>
+        <v>30093.76927204353</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>22478.32428899525</v>
+        <v>25863.05292855415</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.1357461651449112</v>
+        <v>-0.2309235144135369</v>
       </c>
       <c r="AG7" t="b">
         <v>0</v>
@@ -3040,12 +3052,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>mlp</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3055,7 +3067,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'max_depth': 3}</t>
+          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3079,19 +3091,19 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>24186.42677824134</v>
+        <v>32043.24093435504</v>
       </c>
       <c r="L8" t="n">
-        <v>1.431055845133463</v>
+        <v>1.00051910753658</v>
       </c>
       <c r="M8" t="n">
-        <v>18601.82688365673</v>
+        <v>24864.36755553836</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4291789883404016</v>
+        <v>-0.001911583514120574</v>
       </c>
       <c r="O8" t="n">
-        <v>-8370.699624495779</v>
+        <v>-4.78871999658485</v>
       </c>
       <c r="P8" t="n">
         <v>29456.98000000008</v>
@@ -3100,17 +3112,17 @@
         <v>0.95</v>
       </c>
       <c r="R8" t="n">
-        <v>15998.57409327871</v>
+        <v>43026.091835487</v>
       </c>
       <c r="S8" t="n">
-        <v>7432.281182776811</v>
+        <v>20699.25487183625</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>5438.725421452458</v>
+        <v>15065.87938610985</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8711255843240786</v>
+        <v>0.000387059301644066</v>
       </c>
       <c r="W8" t="n">
         <v>15</v>
@@ -3121,20 +3133,20 @@
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>35165.32845541724</v>
+        <v>27646.81273464491</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>30093.76927204353</v>
+        <v>31839.60750404194</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>25863.05292855415</v>
+        <v>25270.80613558676</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.2309235144135369</v>
+        <v>-0.3778860558604529</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -3143,22 +3155,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rf</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
-        </is>
-      </c>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 1000}</t>
+          <t>{'lags': 30, 'hidden_layers_type': 'LSTM', 'hidden_layers_struct': [{'units': 64}, {'units': 64}, {'units': 64}], 'validation_split': 0.2, 'epochs': 15}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3167,77 +3175,69 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>25884.94986801319</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.067675170614808</v>
-      </c>
+        <v>32405.78863057389</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>20437.05047270541</v>
+        <v>27106.06638420042</v>
       </c>
       <c r="N9" t="n">
-        <v>0.346190564920707</v>
+        <v>-0.4273256951822966</v>
       </c>
       <c r="O9" t="n">
-        <v>4248.68572480478</v>
+        <v>32993.16150356529</v>
       </c>
       <c r="P9" t="n">
-        <v>29456.98000000008</v>
+        <v>108579.9399999999</v>
       </c>
       <c r="Q9" t="n">
         <v>0.95</v>
       </c>
       <c r="R9" t="n">
-        <v>27368.31348129625</v>
+        <v>27887.1709259074</v>
       </c>
       <c r="S9" t="n">
-        <v>14575.3696767532</v>
+        <v>17546.79008029524</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>10273.23109827689</v>
+        <v>12978.97109706463</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5043654157489157</v>
-      </c>
-      <c r="W9" t="n">
-        <v>15</v>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y9" t="n">
-        <v>31412.95632449055</v>
-      </c>
-      <c r="Z9" t="inlineStr"/>
+        <v>0.1643337883780304</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="b">
+        <v>1</v>
+      </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>30542.95548914466</v>
+        <v>32405.78863057389</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>25617.92342481</v>
+        <v>27106.06638420042</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.2679438244315526</v>
+        <v>-0.4273256951822966</v>
       </c>
       <c r="AG9" t="b">
         <v>0</v>
@@ -3246,18 +3246,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>lstm_regularized</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>rnn</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'lags': 30, 'hidden_layers_struct': {'lstm': {'units': 64}}, 'validation_split': 0.2, 'epochs': 15}</t>
+          <t>{'lags': 30, 'lstm_layer_sizes': (64, 64, 64), 'dropout': (0.2, 0, 0), 'validation_split': 0.2, 'epochs': 15}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3281,17 +3281,17 @@
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>31658.78037116102</v>
+        <v>32832.20749466422</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>25877.27458200056</v>
+        <v>27889.06007302985</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.3622796035355502</v>
+        <v>-0.4651364124360156</v>
       </c>
       <c r="O10" t="n">
-        <v>28900.93759839831</v>
+        <v>35258.75889486221</v>
       </c>
       <c r="P10" t="n">
         <v>108579.9399999999</v>
@@ -3300,17 +3300,17 @@
         <v>0.95</v>
       </c>
       <c r="R10" t="n">
-        <v>34001.4066127517</v>
+        <v>32348.03182538773</v>
       </c>
       <c r="S10" t="n">
-        <v>17042.90685612897</v>
+        <v>17509.71059974323</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>12543.28554255624</v>
+        <v>12833.27462660313</v>
       </c>
       <c r="V10" t="n">
-        <v>0.211639560814868</v>
+        <v>0.1678618786292362</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
@@ -3321,14 +3321,14 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>31658.78037116102</v>
+        <v>32832.20749466422</v>
       </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>25877.27458200056</v>
+        <v>27889.06007302985</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.3622796035355502</v>
+        <v>-0.4651364124360156</v>
       </c>
       <c r="AG10" t="b">
         <v>0</v>
@@ -3337,12 +3337,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mlp</t>
+          <t>elasticnet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'hidden_layer_sizes': (25,), 'solver': 'adam', 'random_state': 20}</t>
+          <t>{'alpha': 2.0, 'l1_ratio': 0.0}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3376,19 +3376,19 @@
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>32043.24093435504</v>
+        <v>31520.42256019139</v>
       </c>
       <c r="L11" t="n">
-        <v>1.00051910753658</v>
+        <v>1.020193680612416</v>
       </c>
       <c r="M11" t="n">
-        <v>24864.36755553836</v>
+        <v>24517.9743703333</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.001911583514120574</v>
+        <v>0.03051612713678542</v>
       </c>
       <c r="O11" t="n">
-        <v>-4.78871999658485</v>
+        <v>-264.5597914918802</v>
       </c>
       <c r="P11" t="n">
         <v>29456.98000000008</v>
@@ -3397,17 +3397,17 @@
         <v>0.95</v>
       </c>
       <c r="R11" t="n">
-        <v>41796.32711835457</v>
+        <v>40955.3487126105</v>
       </c>
       <c r="S11" t="n">
-        <v>20699.25487183625</v>
+        <v>20058.32566821467</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>15065.87938610985</v>
+        <v>14482.06603963049</v>
       </c>
       <c r="V11" t="n">
-        <v>0.000387059301644066</v>
+        <v>0.06133245504550477</v>
       </c>
       <c r="W11" t="n">
         <v>15</v>
@@ -3418,20 +3418,20 @@
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>27646.81273464491</v>
+        <v>28047.22725745376</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>31839.60750404194</v>
+        <v>32881.36086539151</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>25270.80613558676</v>
+        <v>26892.5435465164</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.3778860558604529</v>
+        <v>-0.4695266320963103</v>
       </c>
       <c r="AG11" t="b">
         <v>0</v>
@@ -3440,22 +3440,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>elasticnet</t>
+          <t>simple_rnn</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
-        </is>
-      </c>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'alpha': 2.0, 'l1_ratio': 0.0}</t>
+          <t>{'lags': 30, 'hidden_layers_type': 'SimpleRNN', 'hidden_layers_struct': [{'units': 64}, {'units': 64}, {'units': 64}], 'validation_split': 0.2, 'epochs': 15}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3464,77 +3460,69 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>31520.42256019139</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.020193680612416</v>
-      </c>
+        <v>35350.91711762363</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>24517.9743703333</v>
+        <v>28147.14238350599</v>
       </c>
       <c r="N12" t="n">
-        <v>0.03051612713678542</v>
+        <v>-0.6985536340800169</v>
       </c>
       <c r="O12" t="n">
-        <v>-264.5597914918802</v>
+        <v>8878.781003838027</v>
       </c>
       <c r="P12" t="n">
-        <v>29456.98000000008</v>
+        <v>108579.9399999999</v>
       </c>
       <c r="Q12" t="n">
         <v>0.95</v>
       </c>
       <c r="R12" t="n">
-        <v>32919.10261177662</v>
+        <v>27357.24373149621</v>
       </c>
       <c r="S12" t="n">
-        <v>20058.32566821467</v>
+        <v>17631.69209244017</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>14482.06603963049</v>
+        <v>12403.01509704312</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06133245504550477</v>
-      </c>
-      <c r="W12" t="n">
-        <v>15</v>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y12" t="n">
-        <v>28047.22725745376</v>
-      </c>
-      <c r="Z12" t="inlineStr"/>
+        <v>0.1562273037770922</v>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="b">
+        <v>1</v>
+      </c>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>32881.36086539151</v>
+        <v>35350.91711762363</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>26892.5435465164</v>
+        <v>28147.14238350599</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.4695266320963103</v>
+        <v>-0.6985536340800169</v>
       </c>
       <c r="AG12" t="b">
         <v>0</v>
@@ -3543,25 +3531,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lstm_regularized</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>silverkite</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'lags': 30, 'lstm_layer_sizes': (64, 64, 64), 'dropout': (0.2, 0, 0), 'validation_split': 0.2, 'epochs': 15}</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>340</v>
       </c>
@@ -3578,17 +3562,17 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>32983.39059039969</v>
+        <v>35736.39820237888</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>27601.56086857653</v>
+        <v>30068.38254106267</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.478660561860103</v>
+        <v>-0.735799071550407</v>
       </c>
       <c r="O13" t="n">
-        <v>30033.95084015725</v>
+        <v>22528.89567107038</v>
       </c>
       <c r="P13" t="n">
         <v>108579.9399999999</v>
@@ -3597,17 +3581,17 @@
         <v>0.95</v>
       </c>
       <c r="R13" t="n">
-        <v>35189.15960750734</v>
+        <v>24512.61127622827</v>
       </c>
       <c r="S13" t="n">
-        <v>17587.54616407278</v>
+        <v>12795.3763381528</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>12892.48670295801</v>
+        <v>8478.233253699636</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1604472614471202</v>
+        <v>0.5508997402055202</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
@@ -3618,14 +3602,14 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>32983.39059039969</v>
+        <v>35736.39820237888</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>27601.56086857653</v>
+        <v>30068.38254106267</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.478660561860103</v>
+        <v>-0.735799071550407</v>
       </c>
       <c r="AG13" t="b">
         <v>0</v>
@@ -3634,85 +3618,101 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>silverkite</t>
+          <t>gbt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>{'max_depth': 3, 'max_features': 'sqrt'}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F14" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>35736.39820237888</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+        <v>27680.07778026596</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.851092085747027</v>
+      </c>
       <c r="M14" t="n">
-        <v>30068.38254106267</v>
+        <v>21964.91368558941</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.735799071550407</v>
+        <v>0.2523623918343845</v>
       </c>
       <c r="O14" t="n">
-        <v>22528.89567107038</v>
+        <v>-25551.17484486938</v>
       </c>
       <c r="P14" t="n">
-        <v>108579.9399999999</v>
+        <v>29456.98000000008</v>
       </c>
       <c r="Q14" t="n">
         <v>0.95</v>
       </c>
       <c r="R14" t="n">
-        <v>26848.07525884996</v>
+        <v>9564.860969134495</v>
       </c>
       <c r="S14" t="n">
-        <v>12795.3763381528</v>
+        <v>5217.287972919471</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>8478.233253699636</v>
+        <v>4017.431320773956</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5508997402055202</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="b">
-        <v>1</v>
-      </c>
+        <v>0.9364943942519677</v>
+      </c>
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Y14" t="n">
+        <v>35836.58181258536</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="n">
-        <v>35736.39820237888</v>
+        <v>37312.25840202644</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>30068.38254106267</v>
+        <v>33708.68655103211</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.735799071550407</v>
+        <v>-0.8922606887213769</v>
       </c>
       <c r="AG14" t="b">
         <v>0</v>
@@ -3721,12 +3721,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>svr</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.01}</t>
+          <t>{'max_depth': 2, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3760,19 +3760,19 @@
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>32011.848791623</v>
+        <v>25965.43109437849</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9667580525609291</v>
+        <v>1.110217227139796</v>
       </c>
       <c r="M15" t="n">
-        <v>24697.68609871776</v>
+        <v>20497.72480817802</v>
       </c>
       <c r="N15" t="n">
-        <v>5.056163636962818e-05</v>
+        <v>0.3421186090355126</v>
       </c>
       <c r="O15" t="n">
-        <v>810.7585375980128</v>
+        <v>4317.692399939446</v>
       </c>
       <c r="P15" t="n">
         <v>29456.98000000008</v>
@@ -3781,17 +3781,17 @@
         <v>0.95</v>
       </c>
       <c r="R15" t="n">
-        <v>32323.63795860685</v>
+        <v>28397.0561038605</v>
       </c>
       <c r="S15" t="n">
-        <v>20717.5516584629</v>
+        <v>14613.09553238311</v>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>15029.25818428194</v>
+        <v>10367.00759221177</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.00138090657437151</v>
+        <v>0.5017963642895</v>
       </c>
       <c r="W15" t="n">
         <v>15</v>
@@ -3802,20 +3802,20 @@
         </is>
       </c>
       <c r="Y15" t="n">
-        <v>27612.34172955778</v>
+        <v>31328.8991325498</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
-        <v>39533.67775318301</v>
+        <v>39529.42223542883</v>
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>33451.60365633818</v>
+        <v>34599.06090102605</v>
       </c>
       <c r="AF15" t="n">
-        <v>-1.124282787362316</v>
+        <v>-1.123825484268411</v>
       </c>
       <c r="AG15" t="b">
         <v>0</v>
@@ -3824,89 +3824,101 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>weighted_differenced_models</t>
+          <t>svr</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'models': ['elasticnet', 'gbt', 'knn', 'lightgbm', 'mlp', 'mlr', 'rf', 'svr', 'xgboost'], 'determine_best_by': 'ValidationMetricValue'}</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>{'kernel': 'linear', 'C': 0.5, 'epsilon': 0.01}</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F16" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>52225.33921946173</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>32011.848791623</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9667580525609291</v>
+      </c>
       <c r="M16" t="n">
-        <v>45827.78452469434</v>
+        <v>24697.68609871776</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.70715234212187</v>
+        <v>5.056163636962818e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>-2613.55967479733</v>
+        <v>810.7585375980128</v>
       </c>
       <c r="P16" t="n">
-        <v>108579.9399999999</v>
+        <v>29456.98000000008</v>
       </c>
       <c r="Q16" t="n">
         <v>0.95</v>
       </c>
       <c r="R16" t="n">
-        <v>12142.13761764583</v>
+        <v>49366.14847174767</v>
       </c>
       <c r="S16" t="n">
-        <v>29022.61671430531</v>
+        <v>20717.5516584629</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>24001.05494356769</v>
+        <v>15029.25818428194</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.300225890546646</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+        <v>-0.00138090657437151</v>
+      </c>
+      <c r="W16" t="n">
+        <v>15</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>27612.34172955778</v>
+      </c>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>['svr', 'mlp', 'elasticnet', 'rf', 'knn', 'lightgbm', 'xgboost', 'gbt', 'mlr']</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>(0.15389817629259986, 0.1536713178872781, 0.15103613507544877, 0.12888581114485592, 0.11312088666399568, 0.10419093625959631, 0.10198397371062005, 0.07922201966627809, 0.013990743299327259)</t>
-        </is>
-      </c>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="n">
-        <v>52225.33921946173</v>
+        <v>39533.67775318301</v>
       </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>45827.78452469434</v>
+        <v>33451.60365633818</v>
       </c>
       <c r="AF16" t="n">
-        <v>-2.70715234212187</v>
+        <v>-1.124282787362316</v>
       </c>
       <c r="AG16" t="b">
         <v>0</v>
@@ -3915,101 +3927,89 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xgboost</t>
+          <t>weighted_differenced_models</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>xgboost</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>['AR1', 'AR2', 'AR3', 'AR4', 'AR5', 'AR6', 'AR7', 'AR8', 'AR9', 'AR10', 'AR11', 'AR12', 'AR13', 'AR14', 'AR15', 'AR16', 'AR17', 'AR18', 'AR19', 'AR20', 'AR21', 'AR22', 'AR23', 'AR24', 'AR25', 'AR26', 'AR27', 'AR28', 'dayofweek_1', 'dayofweek_2', 'dayofweek_3', 'dayofweek_4', 'dayofweek_5', 'dayofweek_6', 'weeksin', 'weekcos', 'monthsin', 'monthcos', 'quartersin', 'quartercos', 't']</t>
-        </is>
-      </c>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'max_depth': 3}</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'models': ['elasticnet', 'gbt', 'knn', 'lightgbm', 'mlp', 'mlr', 'rf', 'svr', 'xgboost'], 'determine_best_by': 'ValidationMetricValue'}</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>25144.35118561254</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.638826561727977</v>
-      </c>
+        <v>52488.0313629811</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>19090.3116673177</v>
+        <v>45953.68981343663</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3830678620100439</v>
+        <v>-2.744539901668302</v>
       </c>
       <c r="O17" t="n">
-        <v>-19374.58984375</v>
+        <v>-4674.472549287526</v>
       </c>
       <c r="P17" t="n">
-        <v>29456.98000000008</v>
+        <v>108579.9399999999</v>
       </c>
       <c r="Q17" t="n">
         <v>0.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1915.29377584021</v>
+        <v>3879.582342642305</v>
       </c>
       <c r="S17" t="n">
-        <v>1076.099230654983</v>
+        <v>28978.71353714254</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>800.1724612897821</v>
+        <v>24009.68210486884</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9972983624284568</v>
-      </c>
-      <c r="W17" t="n">
-        <v>15</v>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y17" t="n">
-        <v>35500.67515392271</v>
-      </c>
+        <v>-1.293271945426105</v>
+      </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>['svr', 'mlp', 'elasticnet', 'rf', 'knn', 'lightgbm', 'xgboost', 'gbt', 'mlr']</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>(0.150717361995727, 0.1504951923688976, 0.14791447431659083, 0.1267637183689832, 0.11078286978657882, 0.1020374863120869, 0.0998761379360499, 0.09771118055183789, 0.013701578363247908)</t>
+        </is>
+      </c>
       <c r="AC17" t="n">
-        <v>61812.14921811551</v>
+        <v>52488.0313629811</v>
       </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>56900.07244531212</v>
+        <v>45953.68981343663</v>
       </c>
       <c r="AF17" t="n">
-        <v>-4.193086815163937</v>
+        <v>-2.744539901668302</v>
       </c>
       <c r="AG17" t="b">
         <v>0</v>
@@ -4018,12 +4018,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>gbt</t>
+          <t>xgboost</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'max_features': None}</t>
+          <t>{'max_depth': 3}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4057,19 +4057,19 @@
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>24775.2813705625</v>
+        <v>25144.35118561254</v>
       </c>
       <c r="L18" t="n">
-        <v>1.271354597447388</v>
+        <v>1.638826561727977</v>
       </c>
       <c r="M18" t="n">
-        <v>18957.61751070063</v>
+        <v>19090.3116673177</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4010456574418879</v>
+        <v>0.3830678620100439</v>
       </c>
       <c r="O18" t="n">
-        <v>-4777.433508609184</v>
+        <v>-19374.58984375</v>
       </c>
       <c r="P18" t="n">
         <v>29456.98000000008</v>
@@ -4078,17 +4078,17 @@
         <v>0.95</v>
       </c>
       <c r="R18" t="n">
-        <v>15089.07245983581</v>
+        <v>1893.336720334051</v>
       </c>
       <c r="S18" t="n">
-        <v>7728.69657395036</v>
+        <v>1076.099230654983</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>5846.962475026751</v>
+        <v>800.1724612897821</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8606410195652093</v>
+        <v>0.9972983624284568</v>
       </c>
       <c r="W18" t="n">
         <v>15</v>
@@ -4099,20 +4099,20 @@
         </is>
       </c>
       <c r="Y18" t="n">
-        <v>38959.34106732667</v>
+        <v>35500.67515392271</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
-        <v>72964.49225774991</v>
+        <v>61812.14921811551</v>
       </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>67797.15116222495</v>
+        <v>56900.07244531212</v>
       </c>
       <c r="AF18" t="n">
-        <v>-6.236041077620468</v>
+        <v>-4.193086815163937</v>
       </c>
       <c r="AG18" t="b">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>0.95</v>
       </c>
       <c r="R19" t="n">
-        <v>24773.69044148448</v>
+        <v>28745.12623620111</v>
       </c>
       <c r="S19" t="n">
         <v>15169.19888959875</v>
@@ -9124,62 +9124,62 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_regularized</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>simple_rnn</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>rf</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_regularized</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>weighted_differenced_models</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -9208,43 +9208,43 @@
         <v>-2676.884687993313</v>
       </c>
       <c r="G2" t="n">
-        <v>37990.08709957275</v>
+        <v>36439.6772377845</v>
       </c>
       <c r="H2" t="n">
-        <v>36980.9507190719</v>
+        <v>20917.53847235705</v>
       </c>
       <c r="I2" t="n">
-        <v>20917.53847235705</v>
+        <v>13.29674259365965</v>
       </c>
       <c r="J2" t="n">
-        <v>9252.081398390961</v>
+        <v>26668.40891426353</v>
       </c>
       <c r="K2" t="n">
-        <v>32244.00780575721</v>
+        <v>26259.10420160963</v>
       </c>
       <c r="L2" t="n">
-        <v>13.29674259365965</v>
+        <v>1080.987974248233</v>
       </c>
       <c r="M2" t="n">
-        <v>1080.987974248233</v>
+        <v>31554.67274201212</v>
       </c>
       <c r="N2" t="n">
-        <v>26110.09636557399</v>
+        <v>10420.36625339445</v>
       </c>
       <c r="O2" t="n">
-        <v>10420.36625339445</v>
+        <v>15408.88238627509</v>
       </c>
       <c r="P2" t="n">
+        <v>9927.891309235018</v>
+      </c>
+      <c r="Q2" t="n">
         <v>833.969976162423</v>
       </c>
-      <c r="Q2" t="n">
-        <v>7545.712362608975</v>
-      </c>
       <c r="R2" t="n">
+        <v>7668.073843074046</v>
+      </c>
+      <c r="S2" t="n">
         <v>7817.546875</v>
-      </c>
-      <c r="S2" t="n">
-        <v>16987.66905244121</v>
       </c>
       <c r="T2" t="n">
         <v>15687.32449999998</v>
@@ -9270,43 +9270,43 @@
         <v>-14342.86235163776</v>
       </c>
       <c r="G3" t="n">
-        <v>35395.39345175216</v>
+        <v>34132.84862013084</v>
       </c>
       <c r="H3" t="n">
-        <v>24030.24346134885</v>
+        <v>-8468.788796732815</v>
       </c>
       <c r="I3" t="n">
-        <v>-8468.788796732815</v>
+        <v>-8.85091504752371</v>
       </c>
       <c r="J3" t="n">
-        <v>3457.641706318819</v>
+        <v>28231.19774607716</v>
       </c>
       <c r="K3" t="n">
-        <v>29460.62324219494</v>
+        <v>23695.98856737165</v>
       </c>
       <c r="L3" t="n">
-        <v>-8.85091504752371</v>
+        <v>-453.4371041153819</v>
       </c>
       <c r="M3" t="n">
-        <v>-453.4371041153819</v>
+        <v>19965.45761986672</v>
       </c>
       <c r="N3" t="n">
-        <v>27239.59105112104</v>
+        <v>26622.08502430787</v>
       </c>
       <c r="O3" t="n">
-        <v>26622.08502430787</v>
+        <v>-12640.13134968016</v>
       </c>
       <c r="P3" t="n">
+        <v>3624.610908541888</v>
+      </c>
+      <c r="Q3" t="n">
         <v>807.4333949374382</v>
       </c>
-      <c r="Q3" t="n">
-        <v>-1732.226051220001</v>
-      </c>
       <c r="R3" t="n">
+        <v>-2189.271792240008</v>
+      </c>
+      <c r="S3" t="n">
         <v>2321.00048828125</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-9269.817390272594</v>
       </c>
       <c r="T3" t="n">
         <v>-5760.005000000061</v>
@@ -9332,43 +9332,43 @@
         <v>-21189.89468491689</v>
       </c>
       <c r="G4" t="n">
-        <v>20240.991409578</v>
+        <v>23061.90735291688</v>
       </c>
       <c r="H4" t="n">
-        <v>-3667.891429396717</v>
+        <v>-37420.15732432127</v>
       </c>
       <c r="I4" t="n">
-        <v>-37420.15732432127</v>
+        <v>-13.18040404758317</v>
       </c>
       <c r="J4" t="n">
-        <v>-27269.4209602357</v>
+        <v>29544.82702825217</v>
       </c>
       <c r="K4" t="n">
-        <v>28888.03622562138</v>
+        <v>27473.96440067141</v>
       </c>
       <c r="L4" t="n">
-        <v>-13.18040404758317</v>
+        <v>-1859.856935021227</v>
       </c>
       <c r="M4" t="n">
-        <v>-1859.856935021227</v>
+        <v>12403.911067475</v>
       </c>
       <c r="N4" t="n">
-        <v>24456.14609680175</v>
+        <v>43740.11813860359</v>
       </c>
       <c r="O4" t="n">
-        <v>43740.11813860359</v>
+        <v>-32328.08814957822</v>
       </c>
       <c r="P4" t="n">
+        <v>-23601.42593600837</v>
+      </c>
+      <c r="Q4" t="n">
         <v>793.3030553936661</v>
       </c>
-      <c r="Q4" t="n">
-        <v>-15335.49207430412</v>
-      </c>
       <c r="R4" t="n">
+        <v>-16242.76911994775</v>
+      </c>
+      <c r="S4" t="n">
         <v>-33837.66015625</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-19132.45774167882</v>
       </c>
       <c r="T4" t="n">
         <v>-22083.39200000003</v>
@@ -9394,43 +9394,43 @@
         <v>18694.74995852456</v>
       </c>
       <c r="G5" t="n">
-        <v>31701.96546013077</v>
+        <v>32375.08833000988</v>
       </c>
       <c r="H5" t="n">
-        <v>16373.98592579289</v>
+        <v>19806.64896727502</v>
       </c>
       <c r="I5" t="n">
-        <v>19806.64896727502</v>
+        <v>14.15496687715518</v>
       </c>
       <c r="J5" t="n">
-        <v>9322.612916566812</v>
+        <v>29996.422752358</v>
       </c>
       <c r="K5" t="n">
-        <v>30425.67707482575</v>
+        <v>27162.23049137293</v>
       </c>
       <c r="L5" t="n">
-        <v>14.15496687715518</v>
+        <v>1595.222956535908</v>
       </c>
       <c r="M5" t="n">
-        <v>1595.222956535908</v>
+        <v>20038.96588500886</v>
       </c>
       <c r="N5" t="n">
-        <v>25686.09603896736</v>
+        <v>48114.74462822801</v>
       </c>
       <c r="O5" t="n">
-        <v>48114.74462822801</v>
+        <v>21466.37829879222</v>
       </c>
       <c r="P5" t="n">
+        <v>10533.3243565847</v>
+      </c>
+      <c r="Q5" t="n">
         <v>849.5443982344311</v>
       </c>
-      <c r="Q5" t="n">
-        <v>10823.23751515103</v>
-      </c>
       <c r="R5" t="n">
+        <v>10790.00557938849</v>
+      </c>
+      <c r="S5" t="n">
         <v>25420.814453125</v>
-      </c>
-      <c r="S5" t="n">
-        <v>26623.36464771071</v>
       </c>
       <c r="T5" t="n">
         <v>19633.25305000002</v>
@@ -9456,43 +9456,43 @@
         <v>13824.33457045888</v>
       </c>
       <c r="G6" t="n">
-        <v>41607.49323999904</v>
+        <v>42557.61103081364</v>
       </c>
       <c r="H6" t="n">
-        <v>35318.74598735271</v>
+        <v>22437.39307981117</v>
       </c>
       <c r="I6" t="n">
-        <v>22437.39307981117</v>
+        <v>9.883815495280523</v>
       </c>
       <c r="J6" t="n">
-        <v>9354.925120946809</v>
+        <v>30205.803863883</v>
       </c>
       <c r="K6" t="n">
-        <v>29008.33143515287</v>
+        <v>28849.86608872114</v>
       </c>
       <c r="L6" t="n">
-        <v>9.883815495280523</v>
+        <v>785.7103009433935</v>
       </c>
       <c r="M6" t="n">
-        <v>785.7103009433935</v>
+        <v>38558.98027088193</v>
       </c>
       <c r="N6" t="n">
-        <v>26636.74826527833</v>
+        <v>42346.0147212294</v>
       </c>
       <c r="O6" t="n">
-        <v>42346.0147212294</v>
+        <v>19360.11430602953</v>
       </c>
       <c r="P6" t="n">
+        <v>10174.39412807249</v>
+      </c>
+      <c r="Q6" t="n">
         <v>827.3229499736474</v>
       </c>
-      <c r="Q6" t="n">
-        <v>9160.342287687126</v>
-      </c>
       <c r="R6" t="n">
+        <v>9735.686701786146</v>
+      </c>
+      <c r="S6" t="n">
         <v>25859.6875</v>
-      </c>
-      <c r="S6" t="n">
-        <v>15930.64812600873</v>
       </c>
       <c r="T6" t="n">
         <v>11285.22499999999</v>
@@ -9518,43 +9518,43 @@
         <v>-8643.784468718011</v>
       </c>
       <c r="G7" t="n">
-        <v>42512.09729455989</v>
+        <v>37665.24933334986</v>
       </c>
       <c r="H7" t="n">
-        <v>32225.41380951552</v>
+        <v>-24994.3671020098</v>
       </c>
       <c r="I7" t="n">
-        <v>-24994.3671020098</v>
+        <v>2.026569628803705</v>
       </c>
       <c r="J7" t="n">
-        <v>-12509.21326893557</v>
+        <v>25693.76884357034</v>
       </c>
       <c r="K7" t="n">
-        <v>30595.26067747174</v>
+        <v>25395.29229466914</v>
       </c>
       <c r="L7" t="n">
-        <v>2.026569628803705</v>
+        <v>293.9229934130866</v>
       </c>
       <c r="M7" t="n">
-        <v>293.9229934130866</v>
+        <v>5869.678039745238</v>
       </c>
       <c r="N7" t="n">
-        <v>28066.00041946767</v>
+        <v>46926.72790776837</v>
       </c>
       <c r="O7" t="n">
-        <v>46926.72790776837</v>
+        <v>-10169.98063007862</v>
       </c>
       <c r="P7" t="n">
+        <v>-12072.56916559407</v>
+      </c>
+      <c r="Q7" t="n">
         <v>816.3571020546534</v>
       </c>
-      <c r="Q7" t="n">
-        <v>-6002.882261016783</v>
-      </c>
       <c r="R7" t="n">
+        <v>-5554.735248118008</v>
+      </c>
+      <c r="S7" t="n">
         <v>-17715.94921875</v>
-      </c>
-      <c r="S7" t="n">
-        <v>-16359.22851835548</v>
       </c>
       <c r="T7" t="n">
         <v>11199.62094999996</v>
@@ -9580,43 +9580,43 @@
         <v>4232.187510283436</v>
       </c>
       <c r="G8" t="n">
-        <v>40577.0511882876</v>
+        <v>36940.63219758445</v>
       </c>
       <c r="H8" t="n">
-        <v>38093.3357496157</v>
+        <v>4454.892820253534</v>
       </c>
       <c r="I8" t="n">
-        <v>4454.892820253534</v>
+        <v>-4.773939786415771</v>
       </c>
       <c r="J8" t="n">
-        <v>6129.262894183956</v>
+        <v>28000.95639569162</v>
       </c>
       <c r="K8" t="n">
-        <v>36492.37995936273</v>
+        <v>27008.20863327383</v>
       </c>
       <c r="L8" t="n">
-        <v>-4.773939786415771</v>
+        <v>-12.93619340860573</v>
       </c>
       <c r="M8" t="n">
-        <v>-12.93619340860573</v>
+        <v>19675.00986318885</v>
       </c>
       <c r="N8" t="n">
-        <v>25553.39211809783</v>
+        <v>39461.72967586313</v>
       </c>
       <c r="O8" t="n">
-        <v>39461.72967586313</v>
+        <v>416.4721746376661</v>
       </c>
       <c r="P8" t="n">
+        <v>6054.95802626723</v>
+      </c>
+      <c r="Q8" t="n">
         <v>814.3050017249006</v>
       </c>
-      <c r="Q8" t="n">
-        <v>3185.030796447125</v>
-      </c>
       <c r="R8" t="n">
+        <v>2695.211898449695</v>
+      </c>
+      <c r="S8" t="n">
         <v>8273.4609375</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5910.772406879028</v>
       </c>
       <c r="T8" t="n">
         <v>3863.376000000008</v>
@@ -9642,43 +9642,43 @@
         <v>16431.5631017688</v>
       </c>
       <c r="G9" t="n">
-        <v>36674.00504483646</v>
+        <v>35656.64441640452</v>
       </c>
       <c r="H9" t="n">
-        <v>29766.5501034364</v>
+        <v>18482.08253417617</v>
       </c>
       <c r="I9" t="n">
-        <v>18482.08253417617</v>
+        <v>13.50715467205594</v>
       </c>
       <c r="J9" t="n">
-        <v>9754.393088802841</v>
+        <v>27475.37881577013</v>
       </c>
       <c r="K9" t="n">
-        <v>28580.51059854923</v>
+        <v>25620.53710452615</v>
       </c>
       <c r="L9" t="n">
-        <v>13.50715467205594</v>
+        <v>1065.767475763543</v>
       </c>
       <c r="M9" t="n">
-        <v>1065.767475763543</v>
+        <v>24869.50652555897</v>
       </c>
       <c r="N9" t="n">
-        <v>26739.88614289312</v>
+        <v>6647.416987219958</v>
       </c>
       <c r="O9" t="n">
-        <v>6647.416987219958</v>
+        <v>19160.83482874926</v>
       </c>
       <c r="P9" t="n">
+        <v>10174.39412807249</v>
+      </c>
+      <c r="Q9" t="n">
         <v>832.8442300629451</v>
       </c>
-      <c r="Q9" t="n">
-        <v>8298.18463693472</v>
-      </c>
       <c r="R9" t="n">
+        <v>8426.729633670619</v>
+      </c>
+      <c r="S9" t="n">
         <v>11320.703125</v>
-      </c>
-      <c r="S9" t="n">
-        <v>21018.32162704902</v>
       </c>
       <c r="T9" t="n">
         <v>15687.32449999998</v>
@@ -9704,43 +9704,43 @@
         <v>-22426.17762685642</v>
       </c>
       <c r="G10" t="n">
-        <v>33798.80759815924</v>
+        <v>34325.40955062093</v>
       </c>
       <c r="H10" t="n">
-        <v>17800.54115591197</v>
+        <v>-3114.994124225125</v>
       </c>
       <c r="I10" t="n">
-        <v>-3114.994124225125</v>
+        <v>-9.656649895278203</v>
       </c>
       <c r="J10" t="n">
-        <v>4026.679214577884</v>
+        <v>29144.51894916443</v>
       </c>
       <c r="K10" t="n">
-        <v>25518.02856216876</v>
+        <v>26192.98585805072</v>
       </c>
       <c r="L10" t="n">
-        <v>-9.656649895278203</v>
+        <v>-489.6898789184938</v>
       </c>
       <c r="M10" t="n">
-        <v>-489.6898789184938</v>
+        <v>18036.04762677177</v>
       </c>
       <c r="N10" t="n">
-        <v>26368.76904867439</v>
+        <v>22058.18637164952</v>
       </c>
       <c r="O10" t="n">
-        <v>22058.18637164952</v>
+        <v>-10619.11997902114</v>
       </c>
       <c r="P10" t="n">
+        <v>4126.160876510874</v>
+      </c>
+      <c r="Q10" t="n">
         <v>807.9095977331447</v>
       </c>
-      <c r="Q10" t="n">
-        <v>273.3077778806627</v>
-      </c>
       <c r="R10" t="n">
+        <v>-842.3675212340894</v>
+      </c>
+      <c r="S10" t="n">
         <v>7297.77685546875</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1124.087184426717</v>
       </c>
       <c r="T10" t="n">
         <v>-4327.766000000058</v>
@@ -9766,43 +9766,43 @@
         <v>-24047.10839403625</v>
       </c>
       <c r="G11" t="n">
-        <v>22666.47187002317</v>
+        <v>22752.06509755781</v>
       </c>
       <c r="H11" t="n">
-        <v>12034.46743291802</v>
+        <v>-30170.75667827356</v>
       </c>
       <c r="I11" t="n">
-        <v>-30170.75667827356</v>
+        <v>-12.31194020524591</v>
       </c>
       <c r="J11" t="n">
-        <v>-22194.13039721144</v>
+        <v>29101.49530247597</v>
       </c>
       <c r="K11" t="n">
-        <v>31100.70270761697</v>
+        <v>29205.64075219481</v>
       </c>
       <c r="L11" t="n">
-        <v>-12.31194020524591</v>
+        <v>-1719.555341504627</v>
       </c>
       <c r="M11" t="n">
-        <v>-1719.555341504627</v>
+        <v>9497.58363645486</v>
       </c>
       <c r="N11" t="n">
-        <v>24070.39695784821</v>
+        <v>38745.74707449323</v>
       </c>
       <c r="O11" t="n">
-        <v>38745.74707449323</v>
+        <v>-30940.13207698501</v>
       </c>
       <c r="P11" t="n">
+        <v>-21054.25386803113</v>
+      </c>
+      <c r="Q11" t="n">
         <v>795.5554143306387</v>
       </c>
-      <c r="Q11" t="n">
-        <v>-15289.26309162211</v>
-      </c>
       <c r="R11" t="n">
+        <v>-15741.36459367112</v>
+      </c>
+      <c r="S11" t="n">
         <v>-38153</v>
-      </c>
-      <c r="S11" t="n">
-        <v>-27358.78132634767</v>
       </c>
       <c r="T11" t="n">
         <v>-24321.00250000002</v>
@@ -9828,43 +9828,43 @@
         <v>28761.66998265569</v>
       </c>
       <c r="G12" t="n">
-        <v>32456.94087535019</v>
+        <v>32515.85228586031</v>
       </c>
       <c r="H12" t="n">
-        <v>20376.09410763605</v>
+        <v>19218.78880109813</v>
       </c>
       <c r="I12" t="n">
-        <v>19218.78880109813</v>
+        <v>14.29691284508754</v>
       </c>
       <c r="J12" t="n">
-        <v>9362.6929189404</v>
+        <v>29160.93569969235</v>
       </c>
       <c r="K12" t="n">
-        <v>31579.12146322427</v>
+        <v>28835.50580239294</v>
       </c>
       <c r="L12" t="n">
-        <v>14.29691284508754</v>
+        <v>1581.805238733685</v>
       </c>
       <c r="M12" t="n">
-        <v>1581.805238733685</v>
+        <v>20802.78817985206</v>
       </c>
       <c r="N12" t="n">
-        <v>26431.63423750623</v>
+        <v>43055.44026560965</v>
       </c>
       <c r="O12" t="n">
-        <v>43055.44026560965</v>
+        <v>24224.97979153779</v>
       </c>
       <c r="P12" t="n">
+        <v>10771.97192249973</v>
+      </c>
+      <c r="Q12" t="n">
         <v>847.6561011219188</v>
       </c>
-      <c r="Q12" t="n">
-        <v>11517.63029487377</v>
-      </c>
       <c r="R12" t="n">
+        <v>12165.20049315307</v>
+      </c>
+      <c r="S12" t="n">
         <v>32048.02734375</v>
-      </c>
-      <c r="S12" t="n">
-        <v>21462.35601694114</v>
       </c>
       <c r="T12" t="n">
         <v>22682.41955000002</v>
@@ -9890,43 +9890,43 @@
         <v>6769.26525003661</v>
       </c>
       <c r="G13" t="n">
-        <v>41745.35326593964</v>
+        <v>41910.52107826938</v>
       </c>
       <c r="H13" t="n">
-        <v>32267.24871182887</v>
+        <v>17896.68914009616</v>
       </c>
       <c r="I13" t="n">
-        <v>17896.68914009616</v>
+        <v>7.486652814507639</v>
       </c>
       <c r="J13" t="n">
-        <v>8153.621594139533</v>
+        <v>29264.9095125228</v>
       </c>
       <c r="K13" t="n">
-        <v>32321.09819632916</v>
+        <v>29241.07105580269</v>
       </c>
       <c r="L13" t="n">
-        <v>7.486652814507639</v>
+        <v>577.7244172306649</v>
       </c>
       <c r="M13" t="n">
-        <v>577.7244172306649</v>
+        <v>34811.70836983768</v>
       </c>
       <c r="N13" t="n">
-        <v>27573.16734369694</v>
+        <v>37670.29100100447</v>
       </c>
       <c r="O13" t="n">
-        <v>37670.29100100447</v>
+        <v>25903.42946204117</v>
       </c>
       <c r="P13" t="n">
+        <v>9117.37753093639</v>
+      </c>
+      <c r="Q13" t="n">
         <v>824.6237304205508</v>
       </c>
-      <c r="Q13" t="n">
-        <v>8465.113550468584</v>
-      </c>
       <c r="R13" t="n">
+        <v>9239.009735544978</v>
+      </c>
+      <c r="S13" t="n">
         <v>23224.044921875</v>
-      </c>
-      <c r="S13" t="n">
-        <v>22024.79303997797</v>
       </c>
       <c r="T13" t="n">
         <v>9955.745499999986</v>
@@ -9952,43 +9952,43 @@
         <v>4901.632239380851</v>
       </c>
       <c r="G14" t="n">
-        <v>43932.69961590536</v>
+        <v>40363.57545335851</v>
       </c>
       <c r="H14" t="n">
-        <v>41176.63034794328</v>
+        <v>-24942.85497470634</v>
       </c>
       <c r="I14" t="n">
-        <v>-24942.85497470634</v>
+        <v>4.615755664650022</v>
       </c>
       <c r="J14" t="n">
-        <v>-12991.61736326331</v>
+        <v>27819.1102909088</v>
       </c>
       <c r="K14" t="n">
-        <v>32335.83036258219</v>
+        <v>24101.1898870088</v>
       </c>
       <c r="L14" t="n">
-        <v>4.615755664650022</v>
+        <v>418.9945215971347</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9945215971347</v>
+        <v>23438.02309182061</v>
       </c>
       <c r="N14" t="n">
-        <v>26829.73169704078</v>
+        <v>42972.37177798508</v>
       </c>
       <c r="O14" t="n">
-        <v>42972.37177798508</v>
+        <v>-24613.04972250164</v>
       </c>
       <c r="P14" t="n">
+        <v>-14221.61268835865</v>
+      </c>
+      <c r="Q14" t="n">
         <v>818.4967726486395</v>
       </c>
-      <c r="Q14" t="n">
-        <v>-7317.135698422289</v>
-      </c>
       <c r="R14" t="n">
+        <v>-8015.839166559588</v>
+      </c>
+      <c r="S14" t="n">
         <v>-21381.31640625</v>
-      </c>
-      <c r="S14" t="n">
-        <v>-22143.44364606451</v>
       </c>
       <c r="T14" t="n">
         <v>5590.333949999973</v>
@@ -10014,43 +10014,43 @@
         <v>-2650.127572109138</v>
       </c>
       <c r="G15" t="n">
-        <v>39383.12001812486</v>
+        <v>37133.06121401688</v>
       </c>
       <c r="H15" t="n">
-        <v>34187.72881903646</v>
+        <v>4813.6298052523</v>
       </c>
       <c r="I15" t="n">
-        <v>4813.6298052523</v>
+        <v>-4.385184283642688</v>
       </c>
       <c r="J15" t="n">
-        <v>6565.631196061107</v>
+        <v>28945.2199156016</v>
       </c>
       <c r="K15" t="n">
-        <v>29908.08061021416</v>
+        <v>26553.1769929394</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.385184283642688</v>
+        <v>24.82834326860706</v>
       </c>
       <c r="M15" t="n">
-        <v>24.82834326860706</v>
+        <v>19950.32814600168</v>
       </c>
       <c r="N15" t="n">
-        <v>27103.32725404797</v>
+        <v>35601.12773515782</v>
       </c>
       <c r="O15" t="n">
-        <v>35601.12773515782</v>
+        <v>5003.868877285082</v>
       </c>
       <c r="P15" t="n">
+        <v>6963.750148605232</v>
+      </c>
+      <c r="Q15" t="n">
         <v>815.1653547012171</v>
       </c>
-      <c r="Q15" t="n">
-        <v>3085.959657591619</v>
-      </c>
       <c r="R15" t="n">
+        <v>3029.265312476734</v>
+      </c>
+      <c r="S15" t="n">
         <v>4736.26904296875</v>
-      </c>
-      <c r="S15" t="n">
-        <v>6906.918530822824</v>
       </c>
       <c r="T15" t="n">
         <v>5450.377000000023</v>
@@ -10076,43 +10076,43 @@
         <v>12544.45321271221</v>
       </c>
       <c r="G16" t="n">
-        <v>37782.42486809612</v>
+        <v>37320.97001235669</v>
       </c>
       <c r="H16" t="n">
-        <v>33027.89572423694</v>
+        <v>18789.63889552532</v>
       </c>
       <c r="I16" t="n">
-        <v>18789.63889552532</v>
+        <v>12.14726727499647</v>
       </c>
       <c r="J16" t="n">
-        <v>9026.509301376977</v>
+        <v>30574.97256157247</v>
       </c>
       <c r="K16" t="n">
-        <v>30652.35219208596</v>
+        <v>26911.16704365758</v>
       </c>
       <c r="L16" t="n">
-        <v>12.14726727499647</v>
+        <v>936.0897287369631</v>
       </c>
       <c r="M16" t="n">
-        <v>936.0897287369631</v>
+        <v>31034.40319178699</v>
       </c>
       <c r="N16" t="n">
-        <v>28070.47887087016</v>
+        <v>3299.520914896822</v>
       </c>
       <c r="O16" t="n">
-        <v>3299.520914896822</v>
+        <v>23390.50157003678</v>
       </c>
       <c r="P16" t="n">
+        <v>10174.39412807249</v>
+      </c>
+      <c r="Q16" t="n">
         <v>830.3488251224235</v>
       </c>
-      <c r="Q16" t="n">
-        <v>8552.657302846843</v>
-      </c>
       <c r="R16" t="n">
+        <v>9498.018033115939</v>
+      </c>
+      <c r="S16" t="n">
         <v>18325.798828125</v>
-      </c>
-      <c r="S16" t="n">
-        <v>16933.56175787725</v>
       </c>
       <c r="T16" t="n">
         <v>15687.32449999998</v>
@@ -10138,43 +10138,43 @@
         <v>-15207.2246389238</v>
       </c>
       <c r="G17" t="n">
-        <v>35003.88890049067</v>
+        <v>34070.15062680492</v>
       </c>
       <c r="H17" t="n">
-        <v>21362.86000664754</v>
+        <v>-3793.466742155067</v>
       </c>
       <c r="I17" t="n">
-        <v>-3793.466742155067</v>
+        <v>-8.245867701541176</v>
       </c>
       <c r="J17" t="n">
-        <v>3510.607690619563</v>
+        <v>30568.94619971363</v>
       </c>
       <c r="K17" t="n">
-        <v>31435.98265523313</v>
+        <v>29419.35728438197</v>
       </c>
       <c r="L17" t="n">
-        <v>-8.245867701541176</v>
+        <v>-445.2988233831608</v>
       </c>
       <c r="M17" t="n">
-        <v>-445.2988233831608</v>
+        <v>13495.16807382777</v>
       </c>
       <c r="N17" t="n">
-        <v>27220.7968118429</v>
+        <v>15718.39988815706</v>
       </c>
       <c r="O17" t="n">
-        <v>15718.39988815706</v>
+        <v>-21222.74513466709</v>
       </c>
       <c r="P17" t="n">
+        <v>2900.316809512525</v>
+      </c>
+      <c r="Q17" t="n">
         <v>808.2857352449726</v>
       </c>
-      <c r="Q17" t="n">
-        <v>-1011.907396438142</v>
-      </c>
       <c r="R17" t="n">
+        <v>-3066.555939730158</v>
+      </c>
+      <c r="S17" t="n">
         <v>-3407.679443359375</v>
-      </c>
-      <c r="S17" t="n">
-        <v>-948.6075316131077</v>
       </c>
       <c r="T17" t="n">
         <v>-4327.76600000006</v>
@@ -10200,43 +10200,43 @@
         <v>-24821.2633362054</v>
       </c>
       <c r="G18" t="n">
-        <v>24711.23828686111</v>
+        <v>21928.69925065541</v>
       </c>
       <c r="H18" t="n">
-        <v>24550.96753148212</v>
+        <v>-29234.6983086789</v>
       </c>
       <c r="I18" t="n">
-        <v>-29234.6983086789</v>
+        <v>-10.17039844376482</v>
       </c>
       <c r="J18" t="n">
-        <v>-21093.39171858201</v>
+        <v>28987.69368855505</v>
       </c>
       <c r="K18" t="n">
-        <v>30468.82468148915</v>
+        <v>27696.74272487311</v>
       </c>
       <c r="L18" t="n">
-        <v>-10.17039844376482</v>
+        <v>-1545.514383929797</v>
       </c>
       <c r="M18" t="n">
-        <v>-1545.514383929797</v>
+        <v>5354.681953454201</v>
       </c>
       <c r="N18" t="n">
-        <v>26497.099407351</v>
+        <v>34304.73257755489</v>
       </c>
       <c r="O18" t="n">
-        <v>34304.73257755489</v>
+        <v>-19229.07147467507</v>
       </c>
       <c r="P18" t="n">
+        <v>-18949.35801676309</v>
+      </c>
+      <c r="Q18" t="n">
         <v>798.1326687205433</v>
       </c>
-      <c r="Q18" t="n">
-        <v>-14738.16292870947</v>
-      </c>
       <c r="R18" t="n">
+        <v>-13950.88531901092</v>
+      </c>
+      <c r="S18" t="n">
         <v>-40280.16015625</v>
-      </c>
-      <c r="S18" t="n">
-        <v>-27082.70641872935</v>
       </c>
       <c r="T18" t="n">
         <v>-19984.17650000004</v>
@@ -10262,43 +10262,43 @@
         <v>26483.74346097398</v>
       </c>
       <c r="G19" t="n">
-        <v>32942.00894602854</v>
+        <v>33331.5926710202</v>
       </c>
       <c r="H19" t="n">
-        <v>19312.47779185026</v>
+        <v>22970.98989501474</v>
       </c>
       <c r="I19" t="n">
-        <v>22970.98989501474</v>
+        <v>13.47062639192213</v>
       </c>
       <c r="J19" t="n">
-        <v>8977.446863485533</v>
+        <v>29183.47734436689</v>
       </c>
       <c r="K19" t="n">
-        <v>30356.21816886513</v>
+        <v>31749.35029343216</v>
       </c>
       <c r="L19" t="n">
-        <v>13.47062639192213</v>
+        <v>1463.170347735893</v>
       </c>
       <c r="M19" t="n">
-        <v>1463.170347735893</v>
+        <v>20003.33057067318</v>
       </c>
       <c r="N19" t="n">
-        <v>28540.37617281525</v>
+        <v>42185.63954230393</v>
       </c>
       <c r="O19" t="n">
-        <v>42185.63954230393</v>
+        <v>21274.03233561891</v>
       </c>
       <c r="P19" t="n">
+        <v>10333.82294313837</v>
+      </c>
+      <c r="Q19" t="n">
         <v>845.9161908612255</v>
       </c>
-      <c r="Q19" t="n">
-        <v>10914.23098217093</v>
-      </c>
       <c r="R19" t="n">
+        <v>11382.83501964347</v>
+      </c>
+      <c r="S19" t="n">
         <v>26833.23046875</v>
-      </c>
-      <c r="S19" t="n">
-        <v>20124.22972181256</v>
       </c>
       <c r="T19" t="n">
         <v>20413.39255000002</v>
@@ -10324,43 +10324,43 @@
         <v>7519.84600928086</v>
       </c>
       <c r="G20" t="n">
-        <v>42925.46489136678</v>
+        <v>43150.61843398948</v>
       </c>
       <c r="H20" t="n">
-        <v>36746.9270002201</v>
+        <v>9566.629226668178</v>
       </c>
       <c r="I20" t="n">
-        <v>9566.629226668178</v>
+        <v>5.900659499826172</v>
       </c>
       <c r="J20" t="n">
-        <v>6196.759001500054</v>
+        <v>30837.63739155827</v>
       </c>
       <c r="K20" t="n">
-        <v>27157.12906163482</v>
+        <v>26950.24939883499</v>
       </c>
       <c r="L20" t="n">
-        <v>5.900659499826172</v>
+        <v>498.1813245916318</v>
       </c>
       <c r="M20" t="n">
-        <v>498.1813245916318</v>
+        <v>36271.0510133296</v>
       </c>
       <c r="N20" t="n">
-        <v>28578.80694350897</v>
+        <v>41166.66873265</v>
       </c>
       <c r="O20" t="n">
-        <v>41166.66873265</v>
+        <v>17684.73562370713</v>
       </c>
       <c r="P20" t="n">
+        <v>8348.60140213747</v>
+      </c>
+      <c r="Q20" t="n">
         <v>822.9717482486531</v>
       </c>
-      <c r="Q20" t="n">
-        <v>6213.227852746777</v>
-      </c>
       <c r="R20" t="n">
+        <v>6626.2247310524</v>
+      </c>
+      <c r="S20" t="n">
         <v>15552.7724609375</v>
-      </c>
-      <c r="S20" t="n">
-        <v>18853.15729439109</v>
       </c>
       <c r="T20" t="n">
         <v>9105.891499999983</v>
@@ -10386,43 +10386,43 @@
         <v>1941.354923659615</v>
       </c>
       <c r="G21" t="n">
-        <v>45210.7676789621</v>
+        <v>42792.45205259928</v>
       </c>
       <c r="H21" t="n">
-        <v>34725.02220582066</v>
+        <v>-24524.92360709046</v>
       </c>
       <c r="I21" t="n">
-        <v>-24524.92360709046</v>
+        <v>5.604278673204378</v>
       </c>
       <c r="J21" t="n">
-        <v>-12514.21805142088</v>
+        <v>28248.54896410851</v>
       </c>
       <c r="K21" t="n">
-        <v>34254.03787024914</v>
+        <v>27005.31623385845</v>
       </c>
       <c r="L21" t="n">
-        <v>5.604278673204378</v>
+        <v>474.0130184743061</v>
       </c>
       <c r="M21" t="n">
-        <v>474.0130184743061</v>
+        <v>27854.71540986596</v>
       </c>
       <c r="N21" t="n">
-        <v>31057.72991630284</v>
+        <v>47781.19574167953</v>
       </c>
       <c r="O21" t="n">
-        <v>47781.19574167953</v>
+        <v>-16234.66032678791</v>
       </c>
       <c r="P21" t="n">
+        <v>-13555.92305644998</v>
+      </c>
+      <c r="Q21" t="n">
         <v>819.554635025198</v>
       </c>
-      <c r="Q21" t="n">
-        <v>-5507.91117828743</v>
-      </c>
       <c r="R21" t="n">
+        <v>-5673.509683757735</v>
+      </c>
+      <c r="S21" t="n">
         <v>-11073.078125</v>
-      </c>
-      <c r="S21" t="n">
-        <v>-18633.84705554593</v>
       </c>
       <c r="T21" t="n">
         <v>9193.818949999968</v>
@@ -10448,43 +10448,43 @@
         <v>-3011.550679978045</v>
       </c>
       <c r="G22" t="n">
-        <v>39082.41760441178</v>
+        <v>37399.29973516142</v>
       </c>
       <c r="H22" t="n">
-        <v>28472.78620186148</v>
+        <v>5117.630475184883</v>
       </c>
       <c r="I22" t="n">
-        <v>5117.630475184883</v>
+        <v>-3.605763338598845</v>
       </c>
       <c r="J22" t="n">
-        <v>6679.13066252595</v>
+        <v>27985.21347887365</v>
       </c>
       <c r="K22" t="n">
-        <v>30511.73072512446</v>
+        <v>27430.04124954937</v>
       </c>
       <c r="L22" t="n">
-        <v>-3.605763338598845</v>
+        <v>37.80367982688841</v>
       </c>
       <c r="M22" t="n">
-        <v>37.80367982688841</v>
+        <v>18421.05141664519</v>
       </c>
       <c r="N22" t="n">
-        <v>26633.61430283485</v>
+        <v>34634.16139973752</v>
       </c>
       <c r="O22" t="n">
-        <v>34634.16139973752</v>
+        <v>5139.863323983711</v>
       </c>
       <c r="P22" t="n">
+        <v>7065.252330717942</v>
+      </c>
+      <c r="Q22" t="n">
         <v>815.2670216485263</v>
       </c>
-      <c r="Q22" t="n">
-        <v>3207.896712707548</v>
-      </c>
       <c r="R22" t="n">
+        <v>2590.865939743876</v>
+      </c>
+      <c r="S22" t="n">
         <v>1702.97802734375</v>
-      </c>
-      <c r="S22" t="n">
-        <v>14249.15895588616</v>
       </c>
       <c r="T22" t="n">
         <v>3737.835950000011</v>
@@ -10510,43 +10510,43 @@
         <v>9583.390632329862</v>
       </c>
       <c r="G23" t="n">
-        <v>39663.9484123659</v>
+        <v>37201.91623483929</v>
       </c>
       <c r="H23" t="n">
-        <v>39915.33760288206</v>
+        <v>20588.24007449641</v>
       </c>
       <c r="I23" t="n">
-        <v>20588.24007449641</v>
+        <v>11.3119605370931</v>
       </c>
       <c r="J23" t="n">
-        <v>8241.316715991479</v>
+        <v>30149.06833688913</v>
       </c>
       <c r="K23" t="n">
-        <v>30844.25176868288</v>
+        <v>29298.51855803726</v>
       </c>
       <c r="L23" t="n">
-        <v>11.3119605370931</v>
+        <v>875.1502950785473</v>
       </c>
       <c r="M23" t="n">
-        <v>875.1502950785473</v>
+        <v>21092.09486906825</v>
       </c>
       <c r="N23" t="n">
-        <v>27014.31763511597</v>
+        <v>6003.950612402226</v>
       </c>
       <c r="O23" t="n">
-        <v>6003.950612402226</v>
+        <v>20859.61372689513</v>
       </c>
       <c r="P23" t="n">
+        <v>10174.39412807249</v>
+      </c>
+      <c r="Q23" t="n">
         <v>828.8549900836035</v>
       </c>
-      <c r="Q23" t="n">
-        <v>9492.94913872225</v>
-      </c>
       <c r="R23" t="n">
+        <v>10433.08208354383</v>
+      </c>
+      <c r="S23" t="n">
         <v>30820.853515625</v>
-      </c>
-      <c r="S23" t="n">
-        <v>14840.44184790185</v>
       </c>
       <c r="T23" t="n">
         <v>13889.33399999997</v>
@@ -10572,43 +10572,43 @@
         <v>-15081.54675391916</v>
       </c>
       <c r="G24" t="n">
-        <v>36234.0953852327</v>
+        <v>35532.07077042612</v>
       </c>
       <c r="H24" t="n">
-        <v>25636.78539662658</v>
+        <v>-5448.955372074694</v>
       </c>
       <c r="I24" t="n">
-        <v>-5448.955372074694</v>
+        <v>-7.28552406985662</v>
       </c>
       <c r="J24" t="n">
-        <v>4086.484580419522</v>
+        <v>30616.89328233002</v>
       </c>
       <c r="K24" t="n">
-        <v>28642.97053361682</v>
+        <v>28025.98677524774</v>
       </c>
       <c r="L24" t="n">
-        <v>-7.28552406985662</v>
+        <v>-369.9595893339925</v>
       </c>
       <c r="M24" t="n">
-        <v>-369.9595893339925</v>
+        <v>15931.87949669211</v>
       </c>
       <c r="N24" t="n">
-        <v>25209.17592767252</v>
+        <v>20417.49800427219</v>
       </c>
       <c r="O24" t="n">
-        <v>20417.49800427219</v>
+        <v>-24185.30272114064</v>
       </c>
       <c r="P24" t="n">
+        <v>4397.237306075989</v>
+      </c>
+      <c r="Q24" t="n">
         <v>809.2751415578878</v>
       </c>
-      <c r="Q24" t="n">
-        <v>-2310.078415515462</v>
-      </c>
       <c r="R24" t="n">
+        <v>-4526.046925752411</v>
+      </c>
+      <c r="S24" t="n">
         <v>-17629.044921875</v>
-      </c>
-      <c r="S24" t="n">
-        <v>-745.6954532950743</v>
       </c>
       <c r="T24" t="n">
         <v>-2374.699000000058</v>
@@ -10634,43 +10634,43 @@
         <v>-21558.89817888747</v>
       </c>
       <c r="G25" t="n">
-        <v>25755.28088413988</v>
+        <v>23527.31357518203</v>
       </c>
       <c r="H25" t="n">
-        <v>22385.82380757331</v>
+        <v>-31402.02732918993</v>
       </c>
       <c r="I25" t="n">
-        <v>-31402.02732918993</v>
+        <v>-8.403860194842444</v>
       </c>
       <c r="J25" t="n">
-        <v>-18441.04726962348</v>
+        <v>32198.75605798064</v>
       </c>
       <c r="K25" t="n">
-        <v>34017.15035813002</v>
+        <v>30617.17298688887</v>
       </c>
       <c r="L25" t="n">
-        <v>-8.403860194842444</v>
+        <v>-1441.3508667432</v>
       </c>
       <c r="M25" t="n">
-        <v>-1441.3508667432</v>
+        <v>3889.357446555977</v>
       </c>
       <c r="N25" t="n">
-        <v>25898.08348842709</v>
+        <v>36385.80983183318</v>
       </c>
       <c r="O25" t="n">
-        <v>36385.80983183318</v>
+        <v>-15579.06927290467</v>
       </c>
       <c r="P25" t="n">
+        <v>-17821.74785112371</v>
+      </c>
+      <c r="Q25" t="n">
         <v>798.3155201069316</v>
       </c>
-      <c r="Q25" t="n">
-        <v>-13278.88294467423</v>
-      </c>
       <c r="R25" t="n">
+        <v>-12224.50789748893</v>
+      </c>
+      <c r="S25" t="n">
         <v>-18534.232421875</v>
-      </c>
-      <c r="S25" t="n">
-        <v>-28789.95571403391</v>
       </c>
       <c r="T25" t="n">
         <v>-27064.32700000001</v>
@@ -10696,43 +10696,43 @@
         <v>18736.11461282197</v>
       </c>
       <c r="G26" t="n">
-        <v>34954.95157422336</v>
+        <v>34719.78020395518</v>
       </c>
       <c r="H26" t="n">
-        <v>29827.16017426251</v>
+        <v>19101.11648573785</v>
       </c>
       <c r="I26" t="n">
-        <v>19101.11648573785</v>
+        <v>12.16811613007929</v>
       </c>
       <c r="J26" t="n">
-        <v>8094.291074278441</v>
+        <v>29818.99788668154</v>
       </c>
       <c r="K26" t="n">
-        <v>29703.37819312809</v>
+        <v>29592.24648635982</v>
       </c>
       <c r="L26" t="n">
-        <v>12.16811613007929</v>
+        <v>1317.010628736256</v>
       </c>
       <c r="M26" t="n">
-        <v>1317.010628736256</v>
+        <v>25500.0114565797</v>
       </c>
       <c r="N26" t="n">
-        <v>27026.91705410777</v>
+        <v>43484.79975885239</v>
       </c>
       <c r="O26" t="n">
-        <v>43484.79975885239</v>
+        <v>18247.40871448686</v>
       </c>
       <c r="P26" t="n">
+        <v>10174.39412807249</v>
+      </c>
+      <c r="Q26" t="n">
         <v>842.0676621988562</v>
       </c>
-      <c r="Q26" t="n">
-        <v>9594.330412018413</v>
-      </c>
       <c r="R26" t="n">
+        <v>10050.74730546465</v>
+      </c>
+      <c r="S26" t="n">
         <v>23139.029296875</v>
-      </c>
-      <c r="S26" t="n">
-        <v>17997.47032196171</v>
       </c>
       <c r="T26" t="n">
         <v>19296.26755000002</v>
@@ -10758,43 +10758,43 @@
         <v>10676.53004310741</v>
       </c>
       <c r="G27" t="n">
-        <v>46099.10901311375</v>
+        <v>44191.96254936494</v>
       </c>
       <c r="H27" t="n">
-        <v>45921.1348197296</v>
+        <v>15952.68110171532</v>
       </c>
       <c r="I27" t="n">
-        <v>15952.68110171532</v>
+        <v>4.324484282609002</v>
       </c>
       <c r="J27" t="n">
-        <v>6571.970600885349</v>
+        <v>28715.76682351826</v>
       </c>
       <c r="K27" t="n">
-        <v>32822.19527042953</v>
+        <v>31441.83420174269</v>
       </c>
       <c r="L27" t="n">
-        <v>4.324484282609002</v>
+        <v>421.2430657276935</v>
       </c>
       <c r="M27" t="n">
-        <v>421.2430657276935</v>
+        <v>35337.18423901049</v>
       </c>
       <c r="N27" t="n">
-        <v>30101.48042035399</v>
+        <v>42577.17518684345</v>
       </c>
       <c r="O27" t="n">
-        <v>42577.17518684345</v>
+        <v>17155.02123554149</v>
       </c>
       <c r="P27" t="n">
+        <v>7065.252330717942</v>
+      </c>
+      <c r="Q27" t="n">
         <v>822.123123589618</v>
       </c>
-      <c r="Q27" t="n">
-        <v>6383.906401187753</v>
-      </c>
       <c r="R27" t="n">
+        <v>6448.794745256045</v>
+      </c>
+      <c r="S27" t="n">
         <v>7660.5478515625</v>
-      </c>
-      <c r="S27" t="n">
-        <v>19920.1190228421</v>
       </c>
       <c r="T27" t="n">
         <v>10388.88049999997</v>
@@ -10820,43 +10820,43 @@
         <v>5600.505894952543</v>
       </c>
       <c r="G28" t="n">
-        <v>47308.03462761285</v>
+        <v>43209.22041081091</v>
       </c>
       <c r="H28" t="n">
-        <v>44683.86806058136</v>
+        <v>-21349.7722409592</v>
       </c>
       <c r="I28" t="n">
-        <v>-21349.7722409592</v>
+        <v>7.98851136737535</v>
       </c>
       <c r="J28" t="n">
-        <v>-12137.48153352005</v>
+        <v>28087.85869504957</v>
       </c>
       <c r="K28" t="n">
-        <v>35540.67884095607</v>
+        <v>30580.11213284133</v>
       </c>
       <c r="L28" t="n">
-        <v>7.98851136737535</v>
+        <v>602.8368673636555</v>
       </c>
       <c r="M28" t="n">
-        <v>602.8368673636555</v>
+        <v>22714.64194418787</v>
       </c>
       <c r="N28" t="n">
-        <v>29849.76538815497</v>
+        <v>47981.4871920303</v>
       </c>
       <c r="O28" t="n">
-        <v>47981.4871920303</v>
+        <v>-17421.32937610839</v>
       </c>
       <c r="P28" t="n">
+        <v>-12192.24559100132</v>
+      </c>
+      <c r="Q28" t="n">
         <v>821.2619558434543</v>
       </c>
-      <c r="Q28" t="n">
-        <v>-4511.733197645193</v>
-      </c>
       <c r="R28" t="n">
+        <v>-4816.893784203975</v>
+      </c>
+      <c r="S28" t="n">
         <v>-7234.28564453125</v>
-      </c>
-      <c r="S28" t="n">
-        <v>-16979.72645982755</v>
       </c>
       <c r="T28" t="n">
         <v>9396.977449999955</v>
@@ -10882,43 +10882,43 @@
         <v>-295.9863200005422</v>
       </c>
       <c r="G29" t="n">
-        <v>41553.82622741702</v>
+        <v>40959.35505350855</v>
       </c>
       <c r="H29" t="n">
-        <v>37105.33660777656</v>
+        <v>7133.905434295478</v>
       </c>
       <c r="I29" t="n">
-        <v>7133.905434295478</v>
+        <v>-4.106898700616095</v>
       </c>
       <c r="J29" t="n">
-        <v>6681.95117667408</v>
+        <v>27177.79859284161</v>
       </c>
       <c r="K29" t="n">
-        <v>29911.42752953766</v>
+        <v>30699.80025634168</v>
       </c>
       <c r="L29" t="n">
-        <v>-4.106898700616095</v>
+        <v>18.192367830477</v>
       </c>
       <c r="M29" t="n">
-        <v>18.192367830477</v>
+        <v>32043.802910839</v>
       </c>
       <c r="N29" t="n">
-        <v>27065.93584006725</v>
+        <v>39026.39812035518</v>
       </c>
       <c r="O29" t="n">
-        <v>39026.39812035518</v>
+        <v>4066.216634862302</v>
       </c>
       <c r="P29" t="n">
+        <v>7065.252330717942</v>
+      </c>
+      <c r="Q29" t="n">
         <v>813.535389300249</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2884.504402422235</v>
-      </c>
       <c r="R29" t="n">
+        <v>2251.192528296596</v>
+      </c>
+      <c r="S29" t="n">
         <v>1356.231201171875</v>
-      </c>
-      <c r="S29" t="n">
-        <v>13188.40479120079</v>
       </c>
       <c r="T29" t="n">
         <v>-232.4560000000141</v>
@@ -10944,43 +10944,43 @@
         <v>8285.601776878128</v>
       </c>
       <c r="G30" t="n">
-        <v>41279.27781496177</v>
+        <v>38275.81253236683</v>
       </c>
       <c r="H30" t="n">
-        <v>43169.58572050182</v>
+        <v>20407.09042872198</v>
       </c>
       <c r="I30" t="n">
-        <v>20407.09042872198</v>
+        <v>9.274774405222038</v>
       </c>
       <c r="J30" t="n">
-        <v>6887.062961608508</v>
+        <v>32239.23375749139</v>
       </c>
       <c r="K30" t="n">
-        <v>33108.61591715215</v>
+        <v>28693.74644643066</v>
       </c>
       <c r="L30" t="n">
-        <v>9.274774405222038</v>
+        <v>725.1710182481579</v>
       </c>
       <c r="M30" t="n">
-        <v>725.1710182481579</v>
+        <v>22555.39469637572</v>
       </c>
       <c r="N30" t="n">
-        <v>28234.43024080841</v>
+        <v>6129.476665923661</v>
       </c>
       <c r="O30" t="n">
-        <v>6129.476665923661</v>
+        <v>17177.56777710066</v>
       </c>
       <c r="P30" t="n">
+        <v>10174.39412807249</v>
+      </c>
+      <c r="Q30" t="n">
         <v>826.7591227512129</v>
       </c>
-      <c r="Q30" t="n">
-        <v>9018.807087356769</v>
-      </c>
       <c r="R30" t="n">
+        <v>9678.911554243381</v>
+      </c>
+      <c r="S30" t="n">
         <v>29076.970703125</v>
-      </c>
-      <c r="S30" t="n">
-        <v>16142.0874224298</v>
       </c>
       <c r="T30" t="n">
         <v>12434.69749999998</v>
@@ -11006,43 +11006,43 @@
         <v>-16102.60418057437</v>
       </c>
       <c r="G31" t="n">
-        <v>37086.7489293573</v>
+        <v>36833.55568580871</v>
       </c>
       <c r="H31" t="n">
-        <v>19968.16566855012</v>
+        <v>-8370.699624495779</v>
       </c>
       <c r="I31" t="n">
-        <v>-8370.699624495779</v>
+        <v>-4.78871999658485</v>
       </c>
       <c r="J31" t="n">
-        <v>4248.68572480478</v>
+        <v>32993.16150356529</v>
       </c>
       <c r="K31" t="n">
-        <v>28900.93759839831</v>
+        <v>35258.75889486221</v>
       </c>
       <c r="L31" t="n">
-        <v>-4.78871999658485</v>
+        <v>-264.5597914918802</v>
       </c>
       <c r="M31" t="n">
-        <v>-264.5597914918802</v>
+        <v>8878.781003838027</v>
       </c>
       <c r="N31" t="n">
-        <v>30033.95084015725</v>
+        <v>22528.89567107038</v>
       </c>
       <c r="O31" t="n">
-        <v>22528.89567107038</v>
+        <v>-25551.17484486938</v>
       </c>
       <c r="P31" t="n">
+        <v>4317.692399939446</v>
+      </c>
+      <c r="Q31" t="n">
         <v>810.7585375980128</v>
       </c>
-      <c r="Q31" t="n">
-        <v>-2613.55967479733</v>
-      </c>
       <c r="R31" t="n">
+        <v>-4674.472549287526</v>
+      </c>
+      <c r="S31" t="n">
         <v>-19374.58984375</v>
-      </c>
-      <c r="S31" t="n">
-        <v>-4777.433508609184</v>
       </c>
       <c r="T31" t="n">
         <v>1826.176999999946</v>
@@ -11105,62 +11105,62 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_regularized</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>simple_rnn</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>rf</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_regularized</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>weighted_differenced_models</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -11189,43 +11189,43 @@
         <v>61106.42531200631</v>
       </c>
       <c r="G2" t="n">
-        <v>37990.08709957275</v>
+        <v>36439.6772377845</v>
       </c>
       <c r="H2" t="n">
-        <v>36980.9507190719</v>
+        <v>84700.84847235667</v>
       </c>
       <c r="I2" t="n">
-        <v>84700.84847235667</v>
+        <v>63796.60674259328</v>
       </c>
       <c r="J2" t="n">
-        <v>73035.39139839058</v>
+        <v>26668.40891426353</v>
       </c>
       <c r="K2" t="n">
-        <v>32244.00780575721</v>
+        <v>26259.10420160963</v>
       </c>
       <c r="L2" t="n">
-        <v>63796.60674259328</v>
+        <v>64864.29797424785</v>
       </c>
       <c r="M2" t="n">
-        <v>64864.29797424785</v>
+        <v>31554.67274201212</v>
       </c>
       <c r="N2" t="n">
-        <v>26110.09636557399</v>
+        <v>10420.36625339445</v>
       </c>
       <c r="O2" t="n">
-        <v>10420.36625339445</v>
+        <v>79192.19238627472</v>
       </c>
       <c r="P2" t="n">
+        <v>73711.20130923463</v>
+      </c>
+      <c r="Q2" t="n">
         <v>64617.27997616204</v>
       </c>
-      <c r="Q2" t="n">
-        <v>7545.712362608975</v>
-      </c>
       <c r="R2" t="n">
+        <v>7668.073843074046</v>
+      </c>
+      <c r="S2" t="n">
         <v>71600.85687499962</v>
-      </c>
-      <c r="S2" t="n">
-        <v>80770.97905244083</v>
       </c>
       <c r="T2" t="n">
         <v>79470.63449999959</v>
@@ -11251,43 +11251,43 @@
         <v>46763.56296036854</v>
       </c>
       <c r="G3" t="n">
-        <v>35395.39345175216</v>
+        <v>34132.84862013084</v>
       </c>
       <c r="H3" t="n">
-        <v>24030.24346134885</v>
+        <v>76232.05967562385</v>
       </c>
       <c r="I3" t="n">
-        <v>76232.05967562385</v>
+        <v>63787.75582754576</v>
       </c>
       <c r="J3" t="n">
-        <v>76493.03310470939</v>
+        <v>28231.19774607716</v>
       </c>
       <c r="K3" t="n">
-        <v>29460.62324219494</v>
+        <v>23695.98856737165</v>
       </c>
       <c r="L3" t="n">
-        <v>63787.75582754576</v>
+        <v>64410.86087013247</v>
       </c>
       <c r="M3" t="n">
-        <v>64410.86087013247</v>
+        <v>19965.45761986672</v>
       </c>
       <c r="N3" t="n">
-        <v>27239.59105112104</v>
+        <v>26622.08502430787</v>
       </c>
       <c r="O3" t="n">
-        <v>26622.08502430787</v>
+        <v>66552.06103659456</v>
       </c>
       <c r="P3" t="n">
+        <v>77335.81221777652</v>
+      </c>
+      <c r="Q3" t="n">
         <v>65424.71337109948</v>
       </c>
-      <c r="Q3" t="n">
-        <v>-1732.226051220001</v>
-      </c>
       <c r="R3" t="n">
+        <v>-2189.271792240008</v>
+      </c>
+      <c r="S3" t="n">
         <v>73921.85736328087</v>
-      </c>
-      <c r="S3" t="n">
-        <v>71501.16166216823</v>
       </c>
       <c r="T3" t="n">
         <v>73710.62949999953</v>
@@ -11313,43 +11313,43 @@
         <v>25573.66827545166</v>
       </c>
       <c r="G4" t="n">
-        <v>20240.991409578</v>
+        <v>23061.90735291688</v>
       </c>
       <c r="H4" t="n">
-        <v>-3667.891429396717</v>
+        <v>38811.90235130258</v>
       </c>
       <c r="I4" t="n">
-        <v>38811.90235130258</v>
+        <v>63774.57542349817</v>
       </c>
       <c r="J4" t="n">
-        <v>49223.61214447369</v>
+        <v>29544.82702825217</v>
       </c>
       <c r="K4" t="n">
-        <v>28888.03622562138</v>
+        <v>27473.96440067141</v>
       </c>
       <c r="L4" t="n">
-        <v>63774.57542349817</v>
+        <v>62551.00393511124</v>
       </c>
       <c r="M4" t="n">
-        <v>62551.00393511124</v>
+        <v>12403.911067475</v>
       </c>
       <c r="N4" t="n">
-        <v>24456.14609680175</v>
+        <v>43740.11813860359</v>
       </c>
       <c r="O4" t="n">
-        <v>43740.11813860359</v>
+        <v>34223.97288701635</v>
       </c>
       <c r="P4" t="n">
+        <v>53734.38628176815</v>
+      </c>
+      <c r="Q4" t="n">
         <v>66218.01642649315</v>
       </c>
-      <c r="Q4" t="n">
-        <v>-15335.49207430412</v>
-      </c>
       <c r="R4" t="n">
+        <v>-16242.76911994775</v>
+      </c>
+      <c r="S4" t="n">
         <v>40084.19720703087</v>
-      </c>
-      <c r="S4" t="n">
-        <v>52368.70392048941</v>
       </c>
       <c r="T4" t="n">
         <v>51627.23749999949</v>
@@ -11375,43 +11375,43 @@
         <v>44268.41823397622</v>
       </c>
       <c r="G5" t="n">
-        <v>31701.96546013077</v>
+        <v>32375.08833000988</v>
       </c>
       <c r="H5" t="n">
-        <v>16373.98592579289</v>
+        <v>58618.55131857761</v>
       </c>
       <c r="I5" t="n">
-        <v>58618.55131857761</v>
+        <v>63788.73039037533</v>
       </c>
       <c r="J5" t="n">
-        <v>58546.2250610405</v>
+        <v>29996.422752358</v>
       </c>
       <c r="K5" t="n">
-        <v>30425.67707482575</v>
+        <v>27162.23049137293</v>
       </c>
       <c r="L5" t="n">
-        <v>63788.73039037533</v>
+        <v>64146.22689164715</v>
       </c>
       <c r="M5" t="n">
-        <v>64146.22689164715</v>
+        <v>20038.96588500886</v>
       </c>
       <c r="N5" t="n">
-        <v>25686.09603896736</v>
+        <v>48114.74462822801</v>
       </c>
       <c r="O5" t="n">
-        <v>48114.74462822801</v>
+        <v>55690.35118580857</v>
       </c>
       <c r="P5" t="n">
+        <v>64267.71063835284</v>
+      </c>
+      <c r="Q5" t="n">
         <v>67067.56082472758</v>
       </c>
-      <c r="Q5" t="n">
-        <v>10823.23751515103</v>
-      </c>
       <c r="R5" t="n">
+        <v>10790.00557938849</v>
+      </c>
+      <c r="S5" t="n">
         <v>65505.01166015587</v>
-      </c>
-      <c r="S5" t="n">
-        <v>78992.06856820012</v>
       </c>
       <c r="T5" t="n">
         <v>71260.49054999952</v>
@@ -11437,43 +11437,43 @@
         <v>58092.7528044351</v>
       </c>
       <c r="G6" t="n">
-        <v>41607.49323999904</v>
+        <v>42557.61103081364</v>
       </c>
       <c r="H6" t="n">
-        <v>35318.74598735271</v>
+        <v>81055.94439838878</v>
       </c>
       <c r="I6" t="n">
-        <v>81055.94439838878</v>
+        <v>63798.61420587061</v>
       </c>
       <c r="J6" t="n">
-        <v>67901.15018198731</v>
+        <v>30205.803863883</v>
       </c>
       <c r="K6" t="n">
-        <v>29008.33143515287</v>
+        <v>28849.86608872114</v>
       </c>
       <c r="L6" t="n">
-        <v>63798.61420587061</v>
+        <v>64931.93719259054</v>
       </c>
       <c r="M6" t="n">
-        <v>64931.93719259054</v>
+        <v>38558.98027088193</v>
       </c>
       <c r="N6" t="n">
-        <v>26636.74826527833</v>
+        <v>42346.0147212294</v>
       </c>
       <c r="O6" t="n">
-        <v>42346.0147212294</v>
+        <v>75050.4654918381</v>
       </c>
       <c r="P6" t="n">
+        <v>74442.10476642533</v>
+      </c>
+      <c r="Q6" t="n">
         <v>67894.88377470123</v>
       </c>
-      <c r="Q6" t="n">
-        <v>9160.342287687126</v>
-      </c>
       <c r="R6" t="n">
+        <v>9735.686701786146</v>
+      </c>
+      <c r="S6" t="n">
         <v>91364.69916015587</v>
-      </c>
-      <c r="S6" t="n">
-        <v>94922.71669420885</v>
       </c>
       <c r="T6" t="n">
         <v>82545.71554999951</v>
@@ -11499,43 +11499,43 @@
         <v>49448.96833571709</v>
       </c>
       <c r="G7" t="n">
-        <v>42512.09729455989</v>
+        <v>37665.24933334986</v>
       </c>
       <c r="H7" t="n">
-        <v>32225.41380951552</v>
+        <v>56061.57729637897</v>
       </c>
       <c r="I7" t="n">
-        <v>56061.57729637897</v>
+        <v>63800.64077549941</v>
       </c>
       <c r="J7" t="n">
-        <v>55391.93691305174</v>
+        <v>25693.76884357034</v>
       </c>
       <c r="K7" t="n">
-        <v>30595.26067747174</v>
+        <v>25395.29229466914</v>
       </c>
       <c r="L7" t="n">
-        <v>63800.64077549941</v>
+        <v>65225.86018600363</v>
       </c>
       <c r="M7" t="n">
-        <v>65225.86018600363</v>
+        <v>5869.678039745238</v>
       </c>
       <c r="N7" t="n">
-        <v>28066.00041946767</v>
+        <v>46926.72790776837</v>
       </c>
       <c r="O7" t="n">
-        <v>46926.72790776837</v>
+        <v>64880.48486175948</v>
       </c>
       <c r="P7" t="n">
+        <v>62369.53560083126</v>
+      </c>
+      <c r="Q7" t="n">
         <v>68711.24087675588</v>
       </c>
-      <c r="Q7" t="n">
-        <v>-6002.882261016783</v>
-      </c>
       <c r="R7" t="n">
+        <v>-5554.735248118008</v>
+      </c>
+      <c r="S7" t="n">
         <v>73648.74994140587</v>
-      </c>
-      <c r="S7" t="n">
-        <v>78563.48817585337</v>
       </c>
       <c r="T7" t="n">
         <v>93745.33649999948</v>
@@ -11561,43 +11561,43 @@
         <v>53681.15584600053</v>
       </c>
       <c r="G8" t="n">
-        <v>40577.0511882876</v>
+        <v>36940.63219758445</v>
       </c>
       <c r="H8" t="n">
-        <v>38093.3357496157</v>
+        <v>60516.4701166325</v>
       </c>
       <c r="I8" t="n">
-        <v>60516.4701166325</v>
+        <v>63795.866835713</v>
       </c>
       <c r="J8" t="n">
-        <v>61521.1998072357</v>
+        <v>28000.95639569162</v>
       </c>
       <c r="K8" t="n">
-        <v>36492.37995936273</v>
+        <v>27008.20863327383</v>
       </c>
       <c r="L8" t="n">
-        <v>63795.866835713</v>
+        <v>65212.92399259502</v>
       </c>
       <c r="M8" t="n">
-        <v>65212.92399259502</v>
+        <v>19675.00986318885</v>
       </c>
       <c r="N8" t="n">
-        <v>25553.39211809783</v>
+        <v>39461.72967586313</v>
       </c>
       <c r="O8" t="n">
-        <v>39461.72967586313</v>
+        <v>65296.95703639714</v>
       </c>
       <c r="P8" t="n">
+        <v>68424.49362709849</v>
+      </c>
+      <c r="Q8" t="n">
         <v>69525.54587848079</v>
       </c>
-      <c r="Q8" t="n">
-        <v>3185.030796447125</v>
-      </c>
       <c r="R8" t="n">
+        <v>2695.211898449695</v>
+      </c>
+      <c r="S8" t="n">
         <v>81922.21087890587</v>
-      </c>
-      <c r="S8" t="n">
-        <v>84474.2605827324</v>
       </c>
       <c r="T8" t="n">
         <v>97608.71249999948</v>
@@ -11623,43 +11623,43 @@
         <v>70112.71894776932</v>
       </c>
       <c r="G9" t="n">
-        <v>36674.00504483646</v>
+        <v>35656.64441640452</v>
       </c>
       <c r="H9" t="n">
-        <v>29766.5501034364</v>
+        <v>78998.55265080868</v>
       </c>
       <c r="I9" t="n">
-        <v>78998.55265080868</v>
+        <v>63809.37399038506</v>
       </c>
       <c r="J9" t="n">
-        <v>71275.59289603855</v>
+        <v>27475.37881577013</v>
       </c>
       <c r="K9" t="n">
-        <v>28580.51059854923</v>
+        <v>25620.53710452615</v>
       </c>
       <c r="L9" t="n">
-        <v>63809.37399038506</v>
+        <v>66278.69146835856</v>
       </c>
       <c r="M9" t="n">
-        <v>66278.69146835856</v>
+        <v>24869.50652555897</v>
       </c>
       <c r="N9" t="n">
-        <v>26739.88614289312</v>
+        <v>6647.416987219958</v>
       </c>
       <c r="O9" t="n">
-        <v>6647.416987219958</v>
+        <v>84457.7918651464</v>
       </c>
       <c r="P9" t="n">
+        <v>78598.88775517099</v>
+      </c>
+      <c r="Q9" t="n">
         <v>70358.39010854372</v>
       </c>
-      <c r="Q9" t="n">
-        <v>8298.18463693472</v>
-      </c>
       <c r="R9" t="n">
+        <v>8426.729633670619</v>
+      </c>
+      <c r="S9" t="n">
         <v>93242.91400390587</v>
-      </c>
-      <c r="S9" t="n">
-        <v>105492.5822097814</v>
       </c>
       <c r="T9" t="n">
         <v>113296.0369999995</v>
@@ -11685,43 +11685,43 @@
         <v>47686.5413209129</v>
       </c>
       <c r="G10" t="n">
-        <v>33798.80759815924</v>
+        <v>34325.40955062093</v>
       </c>
       <c r="H10" t="n">
-        <v>17800.54115591197</v>
+        <v>75883.55852658355</v>
       </c>
       <c r="I10" t="n">
-        <v>75883.55852658355</v>
+        <v>63799.71734048978</v>
       </c>
       <c r="J10" t="n">
-        <v>75302.27211061644</v>
+        <v>29144.51894916443</v>
       </c>
       <c r="K10" t="n">
-        <v>25518.02856216876</v>
+        <v>26192.98585805072</v>
       </c>
       <c r="L10" t="n">
-        <v>63799.71734048978</v>
+        <v>65789.00158944007</v>
       </c>
       <c r="M10" t="n">
-        <v>65789.00158944007</v>
+        <v>18036.04762677177</v>
       </c>
       <c r="N10" t="n">
-        <v>26368.76904867439</v>
+        <v>22058.18637164952</v>
       </c>
       <c r="O10" t="n">
-        <v>22058.18637164952</v>
+        <v>73838.67188612526</v>
       </c>
       <c r="P10" t="n">
+        <v>82725.04863168186</v>
+      </c>
+      <c r="Q10" t="n">
         <v>71166.29970627687</v>
       </c>
-      <c r="Q10" t="n">
-        <v>273.3077778806627</v>
-      </c>
       <c r="R10" t="n">
+        <v>-842.3675212340894</v>
+      </c>
+      <c r="S10" t="n">
         <v>100540.6908593746</v>
-      </c>
-      <c r="S10" t="n">
-        <v>106616.6693942081</v>
       </c>
       <c r="T10" t="n">
         <v>108968.2709999994</v>
@@ -11747,43 +11747,43 @@
         <v>23639.43292687665</v>
       </c>
       <c r="G11" t="n">
-        <v>22666.47187002317</v>
+        <v>22752.06509755781</v>
       </c>
       <c r="H11" t="n">
-        <v>12034.46743291802</v>
+        <v>45712.80184831</v>
       </c>
       <c r="I11" t="n">
-        <v>45712.80184831</v>
+        <v>63787.40540028453</v>
       </c>
       <c r="J11" t="n">
-        <v>53108.141713405</v>
+        <v>29101.49530247597</v>
       </c>
       <c r="K11" t="n">
-        <v>31100.70270761697</v>
+        <v>29205.64075219481</v>
       </c>
       <c r="L11" t="n">
-        <v>63787.40540028453</v>
+        <v>64069.44624793545</v>
       </c>
       <c r="M11" t="n">
-        <v>64069.44624793545</v>
+        <v>9497.58363645486</v>
       </c>
       <c r="N11" t="n">
-        <v>24070.39695784821</v>
+        <v>38745.74707449323</v>
       </c>
       <c r="O11" t="n">
-        <v>38745.74707449323</v>
+        <v>42898.53980914025</v>
       </c>
       <c r="P11" t="n">
+        <v>61670.79476365072</v>
+      </c>
+      <c r="Q11" t="n">
         <v>71961.85512060751</v>
       </c>
-      <c r="Q11" t="n">
-        <v>-15289.26309162211</v>
-      </c>
       <c r="R11" t="n">
+        <v>-15741.36459367112</v>
+      </c>
+      <c r="S11" t="n">
         <v>62387.69085937462</v>
-      </c>
-      <c r="S11" t="n">
-        <v>79257.88806786048</v>
       </c>
       <c r="T11" t="n">
         <v>84647.26849999938</v>
@@ -11809,43 +11809,43 @@
         <v>52401.10290953234</v>
       </c>
       <c r="G12" t="n">
-        <v>32456.94087535019</v>
+        <v>32515.85228586031</v>
       </c>
       <c r="H12" t="n">
-        <v>20376.09410763605</v>
+        <v>64931.59064940813</v>
       </c>
       <c r="I12" t="n">
-        <v>64931.59064940813</v>
+        <v>63801.70231312962</v>
       </c>
       <c r="J12" t="n">
-        <v>62470.8346323454</v>
+        <v>29160.93569969235</v>
       </c>
       <c r="K12" t="n">
-        <v>31579.12146322427</v>
+        <v>28835.50580239294</v>
       </c>
       <c r="L12" t="n">
-        <v>63801.70231312962</v>
+        <v>65651.25148666913</v>
       </c>
       <c r="M12" t="n">
-        <v>65651.25148666913</v>
+        <v>20802.78817985206</v>
       </c>
       <c r="N12" t="n">
-        <v>26431.63423750623</v>
+        <v>43055.44026560965</v>
       </c>
       <c r="O12" t="n">
-        <v>43055.44026560965</v>
+        <v>67123.51960067803</v>
       </c>
       <c r="P12" t="n">
+        <v>72442.76668615045</v>
+      </c>
+      <c r="Q12" t="n">
         <v>72809.51122172942</v>
       </c>
-      <c r="Q12" t="n">
-        <v>11517.63029487377</v>
-      </c>
       <c r="R12" t="n">
+        <v>12165.20049315307</v>
+      </c>
+      <c r="S12" t="n">
         <v>94435.71820312462</v>
-      </c>
-      <c r="S12" t="n">
-        <v>100720.2440848016</v>
       </c>
       <c r="T12" t="n">
         <v>107329.6880499994</v>
@@ -11871,43 +11871,43 @@
         <v>59170.36815956895</v>
       </c>
       <c r="G13" t="n">
-        <v>41745.35326593964</v>
+        <v>41910.52107826938</v>
       </c>
       <c r="H13" t="n">
-        <v>32267.24871182887</v>
+        <v>82828.27978950429</v>
       </c>
       <c r="I13" t="n">
-        <v>82828.27978950429</v>
+        <v>63809.18896594412</v>
       </c>
       <c r="J13" t="n">
-        <v>70624.45622648494</v>
+        <v>29264.9095125228</v>
       </c>
       <c r="K13" t="n">
-        <v>32321.09819632916</v>
+        <v>29241.07105580269</v>
       </c>
       <c r="L13" t="n">
-        <v>63809.18896594412</v>
+        <v>66228.9759038998</v>
       </c>
       <c r="M13" t="n">
-        <v>66228.9759038998</v>
+        <v>34811.70836983768</v>
       </c>
       <c r="N13" t="n">
-        <v>27573.16734369694</v>
+        <v>37670.29100100447</v>
       </c>
       <c r="O13" t="n">
-        <v>37670.29100100447</v>
+        <v>93026.9490627192</v>
       </c>
       <c r="P13" t="n">
+        <v>81560.14421708684</v>
+      </c>
+      <c r="Q13" t="n">
         <v>73634.13495214998</v>
       </c>
-      <c r="Q13" t="n">
-        <v>8465.113550468584</v>
-      </c>
       <c r="R13" t="n">
+        <v>9239.009735544978</v>
+      </c>
+      <c r="S13" t="n">
         <v>117659.7631249996</v>
-      </c>
-      <c r="S13" t="n">
-        <v>122745.0371247796</v>
       </c>
       <c r="T13" t="n">
         <v>117285.4335499994</v>
@@ -11933,43 +11933,43 @@
         <v>64072.0003989498</v>
       </c>
       <c r="G14" t="n">
-        <v>43932.69961590536</v>
+        <v>40363.57545335851</v>
       </c>
       <c r="H14" t="n">
-        <v>41176.63034794328</v>
+        <v>57885.42481479795</v>
       </c>
       <c r="I14" t="n">
-        <v>57885.42481479795</v>
+        <v>63813.80472160877</v>
       </c>
       <c r="J14" t="n">
-        <v>57632.83886322162</v>
+        <v>27819.1102909088</v>
       </c>
       <c r="K14" t="n">
-        <v>32335.83036258219</v>
+        <v>24101.1898870088</v>
       </c>
       <c r="L14" t="n">
-        <v>63813.80472160877</v>
+        <v>66647.97042549694</v>
       </c>
       <c r="M14" t="n">
-        <v>66647.97042549694</v>
+        <v>23438.02309182061</v>
       </c>
       <c r="N14" t="n">
-        <v>26829.73169704078</v>
+        <v>42972.37177798508</v>
       </c>
       <c r="O14" t="n">
-        <v>42972.37177798508</v>
+        <v>68413.89934021755</v>
       </c>
       <c r="P14" t="n">
+        <v>67338.53152872818</v>
+      </c>
+      <c r="Q14" t="n">
         <v>74452.63172479862</v>
       </c>
-      <c r="Q14" t="n">
-        <v>-7317.135698422289</v>
-      </c>
       <c r="R14" t="n">
+        <v>-8015.839166559588</v>
+      </c>
+      <c r="S14" t="n">
         <v>96278.44671874962</v>
-      </c>
-      <c r="S14" t="n">
-        <v>100601.5934787151</v>
       </c>
       <c r="T14" t="n">
         <v>122875.7674999994</v>
@@ -11995,43 +11995,43 @@
         <v>61421.87282684066</v>
       </c>
       <c r="G15" t="n">
-        <v>39383.12001812486</v>
+        <v>37133.06121401688</v>
       </c>
       <c r="H15" t="n">
-        <v>34187.72881903646</v>
+        <v>62699.05462005024</v>
       </c>
       <c r="I15" t="n">
-        <v>62699.05462005024</v>
+        <v>63809.41953732513</v>
       </c>
       <c r="J15" t="n">
-        <v>64198.47005928273</v>
+        <v>28945.2199156016</v>
       </c>
       <c r="K15" t="n">
-        <v>29908.08061021416</v>
+        <v>26553.1769929394</v>
       </c>
       <c r="L15" t="n">
-        <v>63809.41953732513</v>
+        <v>66672.79876876554</v>
       </c>
       <c r="M15" t="n">
-        <v>66672.79876876554</v>
+        <v>19950.32814600168</v>
       </c>
       <c r="N15" t="n">
-        <v>27103.32725404797</v>
+        <v>35601.12773515782</v>
       </c>
       <c r="O15" t="n">
-        <v>35601.12773515782</v>
+        <v>73417.76821750264</v>
       </c>
       <c r="P15" t="n">
+        <v>74302.28167733342</v>
+      </c>
+      <c r="Q15" t="n">
         <v>75267.79707949983</v>
       </c>
-      <c r="Q15" t="n">
-        <v>3085.959657591619</v>
-      </c>
       <c r="R15" t="n">
+        <v>3029.265312476734</v>
+      </c>
+      <c r="S15" t="n">
         <v>101014.7157617184</v>
-      </c>
-      <c r="S15" t="n">
-        <v>107508.5120095379</v>
       </c>
       <c r="T15" t="n">
         <v>128326.1444999994</v>
@@ -12057,43 +12057,43 @@
         <v>73966.32603955286</v>
       </c>
       <c r="G16" t="n">
-        <v>37782.42486809612</v>
+        <v>37320.97001235669</v>
       </c>
       <c r="H16" t="n">
-        <v>33027.89572423694</v>
+        <v>81488.69351557556</v>
       </c>
       <c r="I16" t="n">
-        <v>81488.69351557556</v>
+        <v>63821.56680460012</v>
       </c>
       <c r="J16" t="n">
-        <v>73224.97936065971</v>
+        <v>30574.97256157247</v>
       </c>
       <c r="K16" t="n">
-        <v>30652.35219208596</v>
+        <v>26911.16704365758</v>
       </c>
       <c r="L16" t="n">
-        <v>63821.56680460012</v>
+        <v>67608.8884975025</v>
       </c>
       <c r="M16" t="n">
-        <v>67608.8884975025</v>
+        <v>31034.40319178699</v>
       </c>
       <c r="N16" t="n">
-        <v>28070.47887087016</v>
+        <v>3299.520914896822</v>
       </c>
       <c r="O16" t="n">
-        <v>3299.520914896822</v>
+        <v>96808.26978753942</v>
       </c>
       <c r="P16" t="n">
+        <v>84476.67580540592</v>
+      </c>
+      <c r="Q16" t="n">
         <v>76098.14590462224</v>
       </c>
-      <c r="Q16" t="n">
-        <v>8552.657302846843</v>
-      </c>
       <c r="R16" t="n">
+        <v>9498.018033115939</v>
+      </c>
+      <c r="S16" t="n">
         <v>119340.5145898434</v>
-      </c>
-      <c r="S16" t="n">
-        <v>124442.0737674151</v>
       </c>
       <c r="T16" t="n">
         <v>144013.4689999994</v>
@@ -12119,43 +12119,43 @@
         <v>58759.10140062906</v>
       </c>
       <c r="G17" t="n">
-        <v>35003.88890049067</v>
+        <v>34070.15062680492</v>
       </c>
       <c r="H17" t="n">
-        <v>21362.86000664754</v>
+        <v>77695.22677342049</v>
       </c>
       <c r="I17" t="n">
-        <v>77695.22677342049</v>
+        <v>63813.32093689858</v>
       </c>
       <c r="J17" t="n">
-        <v>76735.58705127928</v>
+        <v>30568.94619971363</v>
       </c>
       <c r="K17" t="n">
-        <v>31435.98265523313</v>
+        <v>29419.35728438197</v>
       </c>
       <c r="L17" t="n">
-        <v>63813.32093689858</v>
+        <v>67163.58967411934</v>
       </c>
       <c r="M17" t="n">
-        <v>67163.58967411934</v>
+        <v>13495.16807382777</v>
       </c>
       <c r="N17" t="n">
-        <v>27220.7968118429</v>
+        <v>15718.39988815706</v>
       </c>
       <c r="O17" t="n">
-        <v>15718.39988815706</v>
+        <v>75585.52465287232</v>
       </c>
       <c r="P17" t="n">
+        <v>87376.99261491845</v>
+      </c>
+      <c r="Q17" t="n">
         <v>76906.43163986722</v>
       </c>
-      <c r="Q17" t="n">
-        <v>-1011.907396438142</v>
-      </c>
       <c r="R17" t="n">
+        <v>-3066.555939730158</v>
+      </c>
+      <c r="S17" t="n">
         <v>115932.835146484</v>
-      </c>
-      <c r="S17" t="n">
-        <v>123493.466235802</v>
       </c>
       <c r="T17" t="n">
         <v>139685.7029999993</v>
@@ -12181,43 +12181,43 @@
         <v>33937.83806442365</v>
       </c>
       <c r="G18" t="n">
-        <v>24711.23828686111</v>
+        <v>21928.69925065541</v>
       </c>
       <c r="H18" t="n">
-        <v>24550.96753148212</v>
+        <v>48460.5284647416</v>
       </c>
       <c r="I18" t="n">
-        <v>48460.5284647416</v>
+        <v>63803.15053845482</v>
       </c>
       <c r="J18" t="n">
-        <v>55642.19533269727</v>
+        <v>28987.69368855505</v>
       </c>
       <c r="K18" t="n">
-        <v>30468.82468148915</v>
+        <v>27696.74272487311</v>
       </c>
       <c r="L18" t="n">
-        <v>63803.15053845482</v>
+        <v>65618.07529018955</v>
       </c>
       <c r="M18" t="n">
-        <v>65618.07529018955</v>
+        <v>5354.681953454201</v>
       </c>
       <c r="N18" t="n">
-        <v>26497.099407351</v>
+        <v>34304.73257755489</v>
       </c>
       <c r="O18" t="n">
-        <v>34304.73257755489</v>
+        <v>56356.45317819725</v>
       </c>
       <c r="P18" t="n">
+        <v>68427.63459815536</v>
+      </c>
+      <c r="Q18" t="n">
         <v>77704.56430858777</v>
       </c>
-      <c r="Q18" t="n">
-        <v>-14738.16292870947</v>
-      </c>
       <c r="R18" t="n">
+        <v>-13950.88531901092</v>
+      </c>
+      <c r="S18" t="n">
         <v>75652.67499023399</v>
-      </c>
-      <c r="S18" t="n">
-        <v>96410.75981707269</v>
       </c>
       <c r="T18" t="n">
         <v>119701.5264999993</v>
@@ -12243,43 +12243,43 @@
         <v>60421.58152539763</v>
       </c>
       <c r="G19" t="n">
-        <v>32942.00894602854</v>
+        <v>33331.5926710202</v>
       </c>
       <c r="H19" t="n">
-        <v>19312.47779185026</v>
+        <v>71431.51835975634</v>
       </c>
       <c r="I19" t="n">
-        <v>71431.51835975634</v>
+        <v>63816.62116484674</v>
       </c>
       <c r="J19" t="n">
-        <v>64619.6421961828</v>
+        <v>29183.47734436689</v>
       </c>
       <c r="K19" t="n">
-        <v>30356.21816886513</v>
+        <v>31749.35029343216</v>
       </c>
       <c r="L19" t="n">
-        <v>63816.62116484674</v>
+        <v>67081.24563792544</v>
       </c>
       <c r="M19" t="n">
-        <v>67081.24563792544</v>
+        <v>20003.33057067318</v>
       </c>
       <c r="N19" t="n">
-        <v>28540.37617281525</v>
+        <v>42185.63954230393</v>
       </c>
       <c r="O19" t="n">
-        <v>42185.63954230393</v>
+        <v>77630.48551381617</v>
       </c>
       <c r="P19" t="n">
+        <v>78761.45754129373</v>
+      </c>
+      <c r="Q19" t="n">
         <v>78550.480499449</v>
       </c>
-      <c r="Q19" t="n">
-        <v>10914.23098217093</v>
-      </c>
       <c r="R19" t="n">
+        <v>11382.83501964347</v>
+      </c>
+      <c r="S19" t="n">
         <v>102485.905458984</v>
-      </c>
-      <c r="S19" t="n">
-        <v>116534.9895388852</v>
       </c>
       <c r="T19" t="n">
         <v>140114.9190499993</v>
@@ -12305,43 +12305,43 @@
         <v>67941.42753467849</v>
       </c>
       <c r="G20" t="n">
-        <v>42925.46489136678</v>
+        <v>43150.61843398948</v>
       </c>
       <c r="H20" t="n">
-        <v>36746.9270002201</v>
+        <v>80998.14758642451</v>
       </c>
       <c r="I20" t="n">
-        <v>80998.14758642451</v>
+        <v>63822.52182434657</v>
       </c>
       <c r="J20" t="n">
-        <v>70816.40119768286</v>
+        <v>30837.63739155827</v>
       </c>
       <c r="K20" t="n">
-        <v>27157.12906163482</v>
+        <v>26950.24939883499</v>
       </c>
       <c r="L20" t="n">
-        <v>63822.52182434657</v>
+        <v>67579.42696251707</v>
       </c>
       <c r="M20" t="n">
-        <v>67579.42696251707</v>
+        <v>36271.0510133296</v>
       </c>
       <c r="N20" t="n">
-        <v>28578.80694350897</v>
+        <v>41166.66873265</v>
       </c>
       <c r="O20" t="n">
-        <v>41166.66873265</v>
+        <v>95315.2211375233</v>
       </c>
       <c r="P20" t="n">
+        <v>87110.0589434312</v>
+      </c>
+      <c r="Q20" t="n">
         <v>79373.45224769766</v>
       </c>
-      <c r="Q20" t="n">
-        <v>6213.227852746777</v>
-      </c>
       <c r="R20" t="n">
+        <v>6626.2247310524</v>
+      </c>
+      <c r="S20" t="n">
         <v>118038.6779199215</v>
-      </c>
-      <c r="S20" t="n">
-        <v>135388.1468332763</v>
       </c>
       <c r="T20" t="n">
         <v>149220.8105499992</v>
@@ -12367,43 +12367,43 @@
         <v>69882.7824583381</v>
       </c>
       <c r="G21" t="n">
-        <v>45210.7676789621</v>
+        <v>42792.45205259928</v>
       </c>
       <c r="H21" t="n">
-        <v>34725.02220582066</v>
+        <v>56473.22397933406</v>
       </c>
       <c r="I21" t="n">
-        <v>56473.22397933406</v>
+        <v>63828.12610301978</v>
       </c>
       <c r="J21" t="n">
-        <v>58302.18314626197</v>
+        <v>28248.54896410851</v>
       </c>
       <c r="K21" t="n">
-        <v>34254.03787024914</v>
+        <v>27005.31623385845</v>
       </c>
       <c r="L21" t="n">
-        <v>63828.12610301978</v>
+        <v>68053.43998099137</v>
       </c>
       <c r="M21" t="n">
-        <v>68053.43998099137</v>
+        <v>27854.71540986596</v>
       </c>
       <c r="N21" t="n">
-        <v>31057.72991630284</v>
+        <v>47781.19574167953</v>
       </c>
       <c r="O21" t="n">
-        <v>47781.19574167953</v>
+        <v>79080.56081073539</v>
       </c>
       <c r="P21" t="n">
+        <v>73554.13588698121</v>
+      </c>
+      <c r="Q21" t="n">
         <v>80193.00688272285</v>
       </c>
-      <c r="Q21" t="n">
-        <v>-5507.91117828743</v>
-      </c>
       <c r="R21" t="n">
+        <v>-5673.509683757735</v>
+      </c>
+      <c r="S21" t="n">
         <v>106965.5997949215</v>
-      </c>
-      <c r="S21" t="n">
-        <v>116754.2997777304</v>
       </c>
       <c r="T21" t="n">
         <v>158414.6294999992</v>
@@ -12429,43 +12429,43 @@
         <v>66871.23177836006</v>
       </c>
       <c r="G22" t="n">
-        <v>39082.41760441178</v>
+        <v>37399.29973516142</v>
       </c>
       <c r="H22" t="n">
-        <v>28472.78620186148</v>
+        <v>61590.85445451894</v>
       </c>
       <c r="I22" t="n">
-        <v>61590.85445451894</v>
+        <v>63824.52033968118</v>
       </c>
       <c r="J22" t="n">
-        <v>64981.31380878793</v>
+        <v>27985.21347887365</v>
       </c>
       <c r="K22" t="n">
-        <v>30511.73072512446</v>
+        <v>27430.04124954937</v>
       </c>
       <c r="L22" t="n">
-        <v>63824.52033968118</v>
+        <v>68091.24366081826</v>
       </c>
       <c r="M22" t="n">
-        <v>68091.24366081826</v>
+        <v>18421.05141664519</v>
       </c>
       <c r="N22" t="n">
-        <v>26633.61430283485</v>
+        <v>34634.16139973752</v>
       </c>
       <c r="O22" t="n">
-        <v>34634.16139973752</v>
+        <v>84220.4241347191</v>
       </c>
       <c r="P22" t="n">
+        <v>80619.38821769915</v>
+      </c>
+      <c r="Q22" t="n">
         <v>81008.27390437138</v>
       </c>
-      <c r="Q22" t="n">
-        <v>3207.896712707548</v>
-      </c>
       <c r="R22" t="n">
+        <v>2590.865939743876</v>
+      </c>
+      <c r="S22" t="n">
         <v>108668.5778222652</v>
-      </c>
-      <c r="S22" t="n">
-        <v>131003.4587336165</v>
       </c>
       <c r="T22" t="n">
         <v>162152.4654499992</v>
@@ -12491,43 +12491,43 @@
         <v>76454.62241068992</v>
       </c>
       <c r="G23" t="n">
-        <v>39663.9484123659</v>
+        <v>37201.91623483929</v>
       </c>
       <c r="H23" t="n">
-        <v>39915.33760288206</v>
+        <v>82179.09452901535</v>
       </c>
       <c r="I23" t="n">
-        <v>82179.09452901535</v>
+        <v>63835.83230021827</v>
       </c>
       <c r="J23" t="n">
-        <v>73222.63052477941</v>
+        <v>30149.06833688913</v>
       </c>
       <c r="K23" t="n">
-        <v>30844.25176868288</v>
+        <v>29298.51855803726</v>
       </c>
       <c r="L23" t="n">
-        <v>63835.83230021827</v>
+        <v>68966.39395589681</v>
       </c>
       <c r="M23" t="n">
-        <v>68966.39395589681</v>
+        <v>21092.09486906825</v>
       </c>
       <c r="N23" t="n">
-        <v>27014.31763511597</v>
+        <v>6003.950612402226</v>
       </c>
       <c r="O23" t="n">
-        <v>6003.950612402226</v>
+        <v>105080.0378616142</v>
       </c>
       <c r="P23" t="n">
+        <v>90793.78234577164</v>
+      </c>
+      <c r="Q23" t="n">
         <v>81837.12889445499</v>
       </c>
-      <c r="Q23" t="n">
-        <v>9492.94913872225</v>
-      </c>
       <c r="R23" t="n">
+        <v>10433.08208354383</v>
+      </c>
+      <c r="S23" t="n">
         <v>139489.4313378902</v>
-      </c>
-      <c r="S23" t="n">
-        <v>145843.9005815184</v>
       </c>
       <c r="T23" t="n">
         <v>176041.7994499992</v>
@@ -12553,43 +12553,43 @@
         <v>61373.07565677076</v>
       </c>
       <c r="G24" t="n">
-        <v>36234.0953852327</v>
+        <v>35532.07077042612</v>
       </c>
       <c r="H24" t="n">
-        <v>25636.78539662658</v>
+        <v>76730.13915694066</v>
       </c>
       <c r="I24" t="n">
-        <v>76730.13915694066</v>
+        <v>63828.54677614842</v>
       </c>
       <c r="J24" t="n">
-        <v>77309.11510519893</v>
+        <v>30616.89328233002</v>
       </c>
       <c r="K24" t="n">
-        <v>28642.97053361682</v>
+        <v>28025.98677524774</v>
       </c>
       <c r="L24" t="n">
-        <v>63828.54677614842</v>
+        <v>68596.43436656283</v>
       </c>
       <c r="M24" t="n">
-        <v>68596.43436656283</v>
+        <v>15931.87949669211</v>
       </c>
       <c r="N24" t="n">
-        <v>25209.17592767252</v>
+        <v>20417.49800427219</v>
       </c>
       <c r="O24" t="n">
-        <v>20417.49800427219</v>
+        <v>80894.73514047358</v>
       </c>
       <c r="P24" t="n">
+        <v>95191.01965184763</v>
+      </c>
+      <c r="Q24" t="n">
         <v>82646.40403601287</v>
       </c>
-      <c r="Q24" t="n">
-        <v>-2310.078415515462</v>
-      </c>
       <c r="R24" t="n">
+        <v>-4526.046925752411</v>
+      </c>
+      <c r="S24" t="n">
         <v>121860.3864160152</v>
-      </c>
-      <c r="S24" t="n">
-        <v>145098.2051282233</v>
       </c>
       <c r="T24" t="n">
         <v>173667.1004499991</v>
@@ -12615,43 +12615,43 @@
         <v>39814.17747788329</v>
       </c>
       <c r="G25" t="n">
-        <v>25755.28088413988</v>
+        <v>23527.31357518203</v>
       </c>
       <c r="H25" t="n">
-        <v>22385.82380757331</v>
+        <v>45328.11182775072</v>
       </c>
       <c r="I25" t="n">
-        <v>45328.11182775072</v>
+        <v>63820.14291595358</v>
       </c>
       <c r="J25" t="n">
-        <v>58868.06783557545</v>
+        <v>32198.75605798064</v>
       </c>
       <c r="K25" t="n">
-        <v>34017.15035813002</v>
+        <v>30617.17298688887</v>
       </c>
       <c r="L25" t="n">
-        <v>63820.14291595358</v>
+        <v>67155.08349981962</v>
       </c>
       <c r="M25" t="n">
-        <v>67155.08349981962</v>
+        <v>3889.357446555977</v>
       </c>
       <c r="N25" t="n">
-        <v>25898.08348842709</v>
+        <v>36385.80983183318</v>
       </c>
       <c r="O25" t="n">
-        <v>36385.80983183318</v>
+        <v>65315.66586756891</v>
       </c>
       <c r="P25" t="n">
+        <v>77369.27180072392</v>
+      </c>
+      <c r="Q25" t="n">
         <v>83444.7195561198</v>
       </c>
-      <c r="Q25" t="n">
-        <v>-13278.88294467423</v>
-      </c>
       <c r="R25" t="n">
+        <v>-12224.50789748893</v>
+      </c>
+      <c r="S25" t="n">
         <v>103326.1539941402</v>
-      </c>
-      <c r="S25" t="n">
-        <v>116308.2494141894</v>
       </c>
       <c r="T25" t="n">
         <v>146602.7734499991</v>
@@ -12677,43 +12677,43 @@
         <v>58550.29209070526</v>
       </c>
       <c r="G26" t="n">
-        <v>34954.95157422336</v>
+        <v>34719.78020395518</v>
       </c>
       <c r="H26" t="n">
-        <v>29827.16017426251</v>
+        <v>64429.22831348857</v>
       </c>
       <c r="I26" t="n">
-        <v>64429.22831348857</v>
+        <v>63832.31103208366</v>
       </c>
       <c r="J26" t="n">
-        <v>66962.35890985389</v>
+        <v>29818.99788668154</v>
       </c>
       <c r="K26" t="n">
-        <v>29703.37819312809</v>
+        <v>29592.24648635982</v>
       </c>
       <c r="L26" t="n">
-        <v>63832.31103208366</v>
+        <v>68472.09412855588</v>
       </c>
       <c r="M26" t="n">
-        <v>68472.09412855588</v>
+        <v>25500.0114565797</v>
       </c>
       <c r="N26" t="n">
-        <v>27026.91705410777</v>
+        <v>43484.79975885239</v>
       </c>
       <c r="O26" t="n">
-        <v>43484.79975885239</v>
+        <v>83563.07458205576</v>
       </c>
       <c r="P26" t="n">
+        <v>87543.6659287964</v>
+      </c>
+      <c r="Q26" t="n">
         <v>84286.78721831866</v>
       </c>
-      <c r="Q26" t="n">
-        <v>9594.330412018413</v>
-      </c>
       <c r="R26" t="n">
+        <v>10050.74730546465</v>
+      </c>
+      <c r="S26" t="n">
         <v>126465.1832910152</v>
-      </c>
-      <c r="S26" t="n">
-        <v>134305.7197361511</v>
       </c>
       <c r="T26" t="n">
         <v>165899.0409999991</v>
@@ -12739,43 +12739,43 @@
         <v>69226.82213381268</v>
       </c>
       <c r="G27" t="n">
-        <v>46099.10901311375</v>
+        <v>44191.96254936494</v>
       </c>
       <c r="H27" t="n">
-        <v>45921.1348197296</v>
+        <v>80381.90941520389</v>
       </c>
       <c r="I27" t="n">
-        <v>80381.90941520389</v>
+        <v>63836.63551636627</v>
       </c>
       <c r="J27" t="n">
-        <v>73534.32951073925</v>
+        <v>28715.76682351826</v>
       </c>
       <c r="K27" t="n">
-        <v>32822.19527042953</v>
+        <v>31441.83420174269</v>
       </c>
       <c r="L27" t="n">
-        <v>63836.63551636627</v>
+        <v>68893.33719428358</v>
       </c>
       <c r="M27" t="n">
-        <v>68893.33719428358</v>
+        <v>35337.18423901049</v>
       </c>
       <c r="N27" t="n">
-        <v>30101.48042035399</v>
+        <v>42577.17518684345</v>
       </c>
       <c r="O27" t="n">
-        <v>42577.17518684345</v>
+        <v>100718.0958175972</v>
       </c>
       <c r="P27" t="n">
+        <v>94608.91825951434</v>
+      </c>
+      <c r="Q27" t="n">
         <v>85108.91034190827</v>
       </c>
-      <c r="Q27" t="n">
-        <v>6383.906401187753</v>
-      </c>
       <c r="R27" t="n">
+        <v>6448.794745256045</v>
+      </c>
+      <c r="S27" t="n">
         <v>134125.7311425777</v>
-      </c>
-      <c r="S27" t="n">
-        <v>154225.8387589933</v>
       </c>
       <c r="T27" t="n">
         <v>176287.9214999991</v>
@@ -12801,43 +12801,43 @@
         <v>74827.32802876522</v>
       </c>
       <c r="G28" t="n">
-        <v>47308.03462761285</v>
+        <v>43209.22041081091</v>
       </c>
       <c r="H28" t="n">
-        <v>44683.86806058136</v>
+        <v>59032.13717424469</v>
       </c>
       <c r="I28" t="n">
-        <v>59032.13717424469</v>
+        <v>63844.62402773364</v>
       </c>
       <c r="J28" t="n">
-        <v>61396.84797721919</v>
+        <v>28087.85869504957</v>
       </c>
       <c r="K28" t="n">
-        <v>35540.67884095607</v>
+        <v>30580.11213284133</v>
       </c>
       <c r="L28" t="n">
-        <v>63844.62402773364</v>
+        <v>69496.17406164724</v>
       </c>
       <c r="M28" t="n">
-        <v>69496.17406164724</v>
+        <v>22714.64194418787</v>
       </c>
       <c r="N28" t="n">
-        <v>29849.76538815497</v>
+        <v>47981.4871920303</v>
       </c>
       <c r="O28" t="n">
-        <v>47981.4871920303</v>
+        <v>83296.76644148886</v>
       </c>
       <c r="P28" t="n">
+        <v>82416.67266851301</v>
+      </c>
+      <c r="Q28" t="n">
         <v>85930.17229775172</v>
       </c>
-      <c r="Q28" t="n">
-        <v>-4511.733197645193</v>
-      </c>
       <c r="R28" t="n">
+        <v>-4816.893784203975</v>
+      </c>
+      <c r="S28" t="n">
         <v>126891.4454980465</v>
-      </c>
-      <c r="S28" t="n">
-        <v>137246.1122991657</v>
       </c>
       <c r="T28" t="n">
         <v>185684.898949999</v>
@@ -12863,43 +12863,43 @@
         <v>74531.34170876467</v>
       </c>
       <c r="G29" t="n">
-        <v>41553.82622741702</v>
+        <v>40959.35505350855</v>
       </c>
       <c r="H29" t="n">
-        <v>37105.33660777656</v>
+        <v>66166.04260854017</v>
       </c>
       <c r="I29" t="n">
-        <v>66166.04260854017</v>
+        <v>63840.51712903303</v>
       </c>
       <c r="J29" t="n">
-        <v>68078.79915389327</v>
+        <v>27177.79859284161</v>
       </c>
       <c r="K29" t="n">
-        <v>29911.42752953766</v>
+        <v>30699.80025634168</v>
       </c>
       <c r="L29" t="n">
-        <v>63840.51712903303</v>
+        <v>69514.36642947771</v>
       </c>
       <c r="M29" t="n">
-        <v>69514.36642947771</v>
+        <v>32043.802910839</v>
       </c>
       <c r="N29" t="n">
-        <v>27065.93584006725</v>
+        <v>39026.39812035518</v>
       </c>
       <c r="O29" t="n">
-        <v>39026.39812035518</v>
+        <v>87362.98307635116</v>
       </c>
       <c r="P29" t="n">
+        <v>89481.92499923095</v>
+      </c>
+      <c r="Q29" t="n">
         <v>86743.70768705197</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2884.504402422235</v>
-      </c>
       <c r="R29" t="n">
+        <v>2251.192528296596</v>
+      </c>
+      <c r="S29" t="n">
         <v>128247.6766992184</v>
-      </c>
-      <c r="S29" t="n">
-        <v>150434.5170903665</v>
       </c>
       <c r="T29" t="n">
         <v>185452.442949999</v>
@@ -12925,43 +12925,43 @@
         <v>82816.9434856428</v>
       </c>
       <c r="G30" t="n">
-        <v>41279.27781496177</v>
+        <v>38275.81253236683</v>
       </c>
       <c r="H30" t="n">
-        <v>43169.58572050182</v>
+        <v>86573.13303726215</v>
       </c>
       <c r="I30" t="n">
-        <v>86573.13303726215</v>
+        <v>63849.79190343825</v>
       </c>
       <c r="J30" t="n">
-        <v>74965.86211550178</v>
+        <v>32239.23375749139</v>
       </c>
       <c r="K30" t="n">
-        <v>33108.61591715215</v>
+        <v>28693.74644643066</v>
       </c>
       <c r="L30" t="n">
-        <v>63849.79190343825</v>
+        <v>70239.53744772587</v>
       </c>
       <c r="M30" t="n">
-        <v>70239.53744772587</v>
+        <v>22555.39469637572</v>
       </c>
       <c r="N30" t="n">
-        <v>28234.43024080841</v>
+        <v>6129.476665923661</v>
       </c>
       <c r="O30" t="n">
-        <v>6129.476665923661</v>
+        <v>104540.5508534518</v>
       </c>
       <c r="P30" t="n">
+        <v>99656.31912730343</v>
+      </c>
+      <c r="Q30" t="n">
         <v>87570.46680980318</v>
       </c>
-      <c r="Q30" t="n">
-        <v>9018.807087356769</v>
-      </c>
       <c r="R30" t="n">
+        <v>9678.911554243381</v>
+      </c>
+      <c r="S30" t="n">
         <v>157324.6474023434</v>
-      </c>
-      <c r="S30" t="n">
-        <v>166576.6045127963</v>
       </c>
       <c r="T30" t="n">
         <v>197887.140449999</v>
@@ -12987,43 +12987,43 @@
         <v>66714.33930506842</v>
       </c>
       <c r="G31" t="n">
-        <v>37086.7489293573</v>
+        <v>36833.55568580871</v>
       </c>
       <c r="H31" t="n">
-        <v>19968.16566855012</v>
+        <v>78202.43341276636</v>
       </c>
       <c r="I31" t="n">
-        <v>78202.43341276636</v>
+        <v>63845.00318344167</v>
       </c>
       <c r="J31" t="n">
-        <v>79214.54784030655</v>
+        <v>32993.16150356529</v>
       </c>
       <c r="K31" t="n">
-        <v>28900.93759839831</v>
+        <v>35258.75889486221</v>
       </c>
       <c r="L31" t="n">
-        <v>63845.00318344167</v>
+        <v>69974.977656234</v>
       </c>
       <c r="M31" t="n">
-        <v>69974.977656234</v>
+        <v>8878.781003838027</v>
       </c>
       <c r="N31" t="n">
-        <v>30033.95084015725</v>
+        <v>22528.89567107038</v>
       </c>
       <c r="O31" t="n">
-        <v>22528.89567107038</v>
+        <v>78989.37600858243</v>
       </c>
       <c r="P31" t="n">
+        <v>103974.0115272429</v>
+      </c>
+      <c r="Q31" t="n">
         <v>88381.2253474012</v>
       </c>
-      <c r="Q31" t="n">
-        <v>-2613.55967479733</v>
-      </c>
       <c r="R31" t="n">
+        <v>-4674.472549287526</v>
+      </c>
+      <c r="S31" t="n">
         <v>137950.0575585934</v>
-      </c>
-      <c r="S31" t="n">
-        <v>161799.1710041871</v>
       </c>
       <c r="T31" t="n">
         <v>199713.317449999</v>
@@ -13081,62 +13081,62 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>lightgbm</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mlp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_regularized</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>elasticnet</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>simple_rnn</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lightgbm</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>silverkite</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gbt</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>rf</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>mlp</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>elasticnet</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_regularized</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>silverkite</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>svr</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>weighted_differenced_models</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>xgboost</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>gbt</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -13162,43 +13162,43 @@
         <v>25988.00470708264</v>
       </c>
       <c r="F2" t="n">
-        <v>31161.29793522518</v>
+        <v>23074.94258756307</v>
       </c>
       <c r="G2" t="n">
-        <v>61840.42745614285</v>
+        <v>60555.59395910171</v>
       </c>
       <c r="H2" t="n">
-        <v>60555.59395910171</v>
+        <v>108565.4444034296</v>
       </c>
       <c r="I2" t="n">
-        <v>72506.72473872888</v>
+        <v>44028.88357418474</v>
       </c>
       <c r="J2" t="n">
-        <v>44825.18554154154</v>
+        <v>40714.73342764851</v>
       </c>
       <c r="K2" t="n">
-        <v>108565.4444034296</v>
+        <v>106376.2657446233</v>
       </c>
       <c r="L2" t="n">
-        <v>106376.2657446233</v>
+        <v>6983.800852682138</v>
       </c>
       <c r="M2" t="n">
-        <v>41666.2922904658</v>
+        <v>10420.36625339445</v>
       </c>
       <c r="N2" t="n">
-        <v>10420.36625339445</v>
+        <v>70237.62399550802</v>
       </c>
       <c r="O2" t="n">
+        <v>71375.66256425527</v>
+      </c>
+      <c r="P2" t="n">
         <v>109813.6508850337</v>
       </c>
-      <c r="P2" t="n">
-        <v>-20704.89045518694</v>
-      </c>
       <c r="Q2" t="n">
+        <v>-21155.60373634912</v>
+      </c>
+      <c r="R2" t="n">
         <v>76602.86578124992</v>
-      </c>
-      <c r="R2" t="n">
-        <v>69516.2087939206</v>
       </c>
       <c r="S2" t="n">
         <v>78565.2549999999</v>
@@ -13221,43 +13221,43 @@
         <v>42545.11076950476</v>
       </c>
       <c r="F3" t="n">
-        <v>37535.08134570632</v>
+        <v>34543.524270843</v>
       </c>
       <c r="G3" t="n">
-        <v>20080.87068303852</v>
+        <v>89157.25744008778</v>
       </c>
       <c r="H3" t="n">
-        <v>89157.25744008778</v>
+        <v>108579.5864920387</v>
       </c>
       <c r="I3" t="n">
-        <v>83591.90364446673</v>
+        <v>42489.43309754309</v>
       </c>
       <c r="J3" t="n">
-        <v>56926.08510877963</v>
+        <v>39637.38732373949</v>
       </c>
       <c r="K3" t="n">
-        <v>108579.5864920387</v>
+        <v>108224.8474688012</v>
       </c>
       <c r="L3" t="n">
-        <v>108224.8474688012</v>
+        <v>13170.23835153191</v>
       </c>
       <c r="M3" t="n">
-        <v>39231.00250503954</v>
+        <v>26622.08502430787</v>
       </c>
       <c r="N3" t="n">
-        <v>26622.08502430787</v>
+        <v>104110.2454523756</v>
       </c>
       <c r="O3" t="n">
+        <v>81721.32846498492</v>
+      </c>
+      <c r="P3" t="n">
         <v>111112.0233006222</v>
       </c>
-      <c r="P3" t="n">
-        <v>13505.95581609674</v>
-      </c>
       <c r="Q3" t="n">
+        <v>13798.56186434994</v>
+      </c>
+      <c r="R3" t="n">
         <v>110715.5571874999</v>
-      </c>
-      <c r="R3" t="n">
-        <v>103675.6097608127</v>
       </c>
       <c r="S3" t="n">
         <v>98006.71899999995</v>
@@ -13280,43 +13280,43 @@
         <v>83525.76067228391</v>
       </c>
       <c r="F4" t="n">
-        <v>58288.83442642755</v>
+        <v>51255.68569006956</v>
       </c>
       <c r="G4" t="n">
-        <v>57401.59919356937</v>
+        <v>115547.7362451855</v>
       </c>
       <c r="H4" t="n">
-        <v>115547.7362451855</v>
+        <v>108593.2259700907</v>
       </c>
       <c r="I4" t="n">
-        <v>98907.33334159221</v>
+        <v>41203.01327355441</v>
       </c>
       <c r="J4" t="n">
-        <v>55245.00425633784</v>
+        <v>40369.32008447465</v>
       </c>
       <c r="K4" t="n">
-        <v>108593.2259700907</v>
+        <v>109680.731307274</v>
       </c>
       <c r="L4" t="n">
-        <v>109680.731307274</v>
+        <v>22464.34345129041</v>
       </c>
       <c r="M4" t="n">
-        <v>40622.11451391813</v>
+        <v>43740.11813860359</v>
       </c>
       <c r="N4" t="n">
-        <v>43740.11813860359</v>
+        <v>136058.735083437</v>
       </c>
       <c r="O4" t="n">
+        <v>95559.27266993743</v>
+      </c>
+      <c r="P4" t="n">
         <v>112390.3665018114</v>
       </c>
-      <c r="P4" t="n">
-        <v>15009.52128957185</v>
-      </c>
       <c r="Q4" t="n">
+        <v>14269.40613980969</v>
+      </c>
+      <c r="R4" t="n">
         <v>147679.8032812499</v>
-      </c>
-      <c r="R4" t="n">
-        <v>147145.8684221375</v>
       </c>
       <c r="S4" t="n">
         <v>116396.7545</v>
@@ -13339,43 +13339,43 @@
         <v>75142.64166326725</v>
       </c>
       <c r="F5" t="n">
-        <v>57151.33777673517</v>
+        <v>51919.23453227615</v>
       </c>
       <c r="G5" t="n">
-        <v>64107.82078643317</v>
+        <v>102445.8477539441</v>
       </c>
       <c r="H5" t="n">
-        <v>102445.8477539441</v>
+        <v>108596.4483765032</v>
       </c>
       <c r="I5" t="n">
-        <v>86775.2804664335</v>
+        <v>41587.15427934882</v>
       </c>
       <c r="J5" t="n">
-        <v>55326.03852499957</v>
+        <v>38895.22253850516</v>
       </c>
       <c r="K5" t="n">
-        <v>108596.4483765032</v>
+        <v>110031.7655786594</v>
       </c>
       <c r="L5" t="n">
-        <v>110031.7655786594</v>
+        <v>40938.44004297969</v>
       </c>
       <c r="M5" t="n">
-        <v>38611.68026061413</v>
+        <v>48114.74462822801</v>
       </c>
       <c r="N5" t="n">
-        <v>48114.74462822801</v>
+        <v>140561.6526873879</v>
       </c>
       <c r="O5" t="n">
+        <v>83125.46507939708</v>
+      </c>
+      <c r="P5" t="n">
         <v>113653.0946916248</v>
       </c>
-      <c r="P5" t="n">
-        <v>-4378.156911579076</v>
-      </c>
       <c r="Q5" t="n">
+        <v>-2514.428519917416</v>
+      </c>
+      <c r="R5" t="n">
         <v>138636.0298437499</v>
-      </c>
-      <c r="R5" t="n">
-        <v>129383.6129003092</v>
       </c>
       <c r="S5" t="n">
         <v>123022.5224999999</v>
@@ -13398,43 +13398,43 @@
         <v>70758.12640939264</v>
       </c>
       <c r="F6" t="n">
-        <v>52418.02171220504</v>
+        <v>48968.10331613028</v>
       </c>
       <c r="G6" t="n">
-        <v>49221.85605105515</v>
+        <v>104169.5104160463</v>
       </c>
       <c r="H6" t="n">
-        <v>104169.5104160463</v>
+        <v>108589.0701596943</v>
       </c>
       <c r="I6" t="n">
-        <v>90571.27993568141</v>
+        <v>39488.23663644787</v>
       </c>
       <c r="J6" t="n">
-        <v>50977.42487691458</v>
+        <v>40730.43094530996</v>
       </c>
       <c r="K6" t="n">
-        <v>108589.0701596943</v>
+        <v>110032.0294112384</v>
       </c>
       <c r="L6" t="n">
-        <v>110032.0294112384</v>
+        <v>35285.61216776845</v>
       </c>
       <c r="M6" t="n">
-        <v>39454.42759407994</v>
+        <v>42346.0147212294</v>
       </c>
       <c r="N6" t="n">
-        <v>42346.0147212294</v>
+        <v>146964.8618154169</v>
       </c>
       <c r="O6" t="n">
+        <v>87819.17484525971</v>
+      </c>
+      <c r="P6" t="n">
         <v>114910.4336493572</v>
       </c>
-      <c r="P6" t="n">
-        <v>3620.393243129049</v>
-      </c>
       <c r="Q6" t="n">
+        <v>2777.332204833823</v>
+      </c>
+      <c r="R6" t="n">
         <v>157111.4907812499</v>
-      </c>
-      <c r="R6" t="n">
-        <v>148843.0378918521</v>
       </c>
       <c r="S6" t="n">
         <v>117671.3559999999</v>
@@ -13457,43 +13457,43 @@
         <v>80867.68877050304</v>
       </c>
       <c r="F7" t="n">
-        <v>55537.07530361961</v>
+        <v>52572.45645788978</v>
       </c>
       <c r="G7" t="n">
-        <v>51731.62086616155</v>
+        <v>111129.6433683446</v>
       </c>
       <c r="H7" t="n">
-        <v>111129.6433683446</v>
+        <v>108602.1293923289</v>
       </c>
       <c r="I7" t="n">
-        <v>98733.61896405525</v>
+        <v>41527.68104143914</v>
       </c>
       <c r="J7" t="n">
-        <v>57838.34678452607</v>
+        <v>43759.43055456992</v>
       </c>
       <c r="K7" t="n">
-        <v>108602.1293923289</v>
+        <v>111148.1907786051</v>
       </c>
       <c r="L7" t="n">
-        <v>111148.1907786051</v>
+        <v>41434.57997348663</v>
       </c>
       <c r="M7" t="n">
-        <v>37904.05583891687</v>
+        <v>46926.72790776837</v>
       </c>
       <c r="N7" t="n">
-        <v>46926.72790776837</v>
+        <v>158067.6923023374</v>
       </c>
       <c r="O7" t="n">
+        <v>96081.13983349616</v>
+      </c>
+      <c r="P7" t="n">
         <v>116184.2179396992</v>
       </c>
-      <c r="P7" t="n">
-        <v>8008.175618399807</v>
-      </c>
       <c r="Q7" t="n">
+        <v>7499.474058463853</v>
+      </c>
+      <c r="R7" t="n">
         <v>183874.9087499999</v>
-      </c>
-      <c r="R7" t="n">
-        <v>167469.2491337594</v>
       </c>
       <c r="S7" t="n">
         <v>131089.5364999999</v>
@@ -13516,43 +13516,43 @@
         <v>74518.95076262734</v>
       </c>
       <c r="F8" t="n">
-        <v>51029.22315119653</v>
+        <v>46703.59064677863</v>
       </c>
       <c r="G8" t="n">
-        <v>50122.61074415799</v>
+        <v>127519.5518588954</v>
       </c>
       <c r="H8" t="n">
-        <v>127519.5518588954</v>
+        <v>108597.3388890301</v>
       </c>
       <c r="I8" t="n">
-        <v>107948.0261523096</v>
+        <v>43133.51671181914</v>
       </c>
       <c r="J8" t="n">
-        <v>43109.06275573429</v>
+        <v>41393.73924571809</v>
       </c>
       <c r="K8" t="n">
-        <v>108597.3388890301</v>
+        <v>111222.7118179578</v>
       </c>
       <c r="L8" t="n">
-        <v>111222.7118179578</v>
+        <v>16772.37209589122</v>
       </c>
       <c r="M8" t="n">
-        <v>38347.38208446142</v>
+        <v>39461.72967586313</v>
       </c>
       <c r="N8" t="n">
-        <v>39461.72967586313</v>
+        <v>175139.9067561887</v>
       </c>
       <c r="O8" t="n">
+        <v>104141.1773287349</v>
+      </c>
+      <c r="P8" t="n">
         <v>117443.4909110538</v>
       </c>
-      <c r="P8" t="n">
-        <v>8610.084620870204</v>
-      </c>
       <c r="Q8" t="n">
+        <v>8385.805676056982</v>
+      </c>
+      <c r="R8" t="n">
         <v>207659.4575781249</v>
-      </c>
-      <c r="R8" t="n">
-        <v>187745.5463280123</v>
       </c>
       <c r="S8" t="n">
         <v>144944.8989999998</v>
@@ -13575,43 +13575,43 @@
         <v>28222.2471859495</v>
       </c>
       <c r="F9" t="n">
-        <v>26268.92218671006</v>
+        <v>24366.62257462737</v>
       </c>
       <c r="G9" t="n">
-        <v>19085.98427688418</v>
+        <v>84503.20038429985</v>
       </c>
       <c r="H9" t="n">
-        <v>84503.20038429985</v>
+        <v>108585.1258346042</v>
       </c>
       <c r="I9" t="n">
-        <v>82194.81327036697</v>
+        <v>42217.1130400705</v>
       </c>
       <c r="J9" t="n">
-        <v>52770.39786823448</v>
+        <v>43904.87933293459</v>
       </c>
       <c r="K9" t="n">
-        <v>108585.1258346042</v>
+        <v>109368.9313345952</v>
       </c>
       <c r="L9" t="n">
-        <v>109368.9313345952</v>
+        <v>12850.84596566482</v>
       </c>
       <c r="M9" t="n">
-        <v>40432.55347813007</v>
+        <v>6647.416987219958</v>
       </c>
       <c r="N9" t="n">
-        <v>6647.416987219958</v>
+        <v>139190.6310133188</v>
       </c>
       <c r="O9" t="n">
+        <v>76584.30470220694</v>
+      </c>
+      <c r="P9" t="n">
         <v>118681.3274226899</v>
       </c>
-      <c r="P9" t="n">
-        <v>-18539.39285139669</v>
-      </c>
       <c r="Q9" t="n">
+        <v>-19493.74630965121</v>
+      </c>
+      <c r="R9" t="n">
         <v>171319.1294531249</v>
-      </c>
-      <c r="R9" t="n">
-        <v>156583.3768528908</v>
       </c>
       <c r="S9" t="n">
         <v>111137.6589999998</v>
@@ -13634,43 +13634,43 @@
         <v>55256.34963392222</v>
       </c>
       <c r="F10" t="n">
-        <v>40062.50194409765</v>
+        <v>36952.28800954171</v>
       </c>
       <c r="G10" t="n">
-        <v>30652.63431446073</v>
+        <v>105575.8140555845</v>
       </c>
       <c r="H10" t="n">
-        <v>105575.8140555845</v>
+        <v>108598.1311065214</v>
       </c>
       <c r="I10" t="n">
-        <v>91656.9965613086</v>
+        <v>43632.88610483405</v>
       </c>
       <c r="J10" t="n">
-        <v>56446.72026208158</v>
+        <v>41517.35517484304</v>
       </c>
       <c r="K10" t="n">
-        <v>108598.1311065214</v>
+        <v>111067.60730482</v>
       </c>
       <c r="L10" t="n">
-        <v>111067.60730482</v>
+        <v>25352.65434165386</v>
       </c>
       <c r="M10" t="n">
-        <v>45175.03858668026</v>
+        <v>22058.18637164952</v>
       </c>
       <c r="N10" t="n">
-        <v>22058.18637164952</v>
+        <v>166692.8341305425</v>
       </c>
       <c r="O10" t="n">
+        <v>85148.18581845002</v>
+      </c>
+      <c r="P10" t="n">
         <v>119976.1258085394</v>
       </c>
-      <c r="P10" t="n">
-        <v>12480.17189829965</v>
-      </c>
       <c r="Q10" t="n">
+        <v>11733.27894662657</v>
+      </c>
+      <c r="R10" t="n">
         <v>201986.4868749999</v>
-      </c>
-      <c r="R10" t="n">
-        <v>196120.5325887045</v>
       </c>
       <c r="S10" t="n">
         <v>128545.6624999999</v>
@@ -13693,43 +13693,43 @@
         <v>77462.62061516479</v>
       </c>
       <c r="F11" t="n">
-        <v>57053.83055452706</v>
+        <v>53732.83178402069</v>
       </c>
       <c r="G11" t="n">
-        <v>55582.36335884805</v>
+        <v>137758.9044871912</v>
       </c>
       <c r="H11" t="n">
-        <v>137758.9044871912</v>
+        <v>108609.2894028803</v>
       </c>
       <c r="I11" t="n">
-        <v>104173.189936528</v>
+        <v>51202.13786783691</v>
       </c>
       <c r="J11" t="n">
-        <v>47232.68835847493</v>
+        <v>40273.80500947711</v>
       </c>
       <c r="K11" t="n">
-        <v>108609.2894028803</v>
+        <v>112123.1318897053</v>
       </c>
       <c r="L11" t="n">
-        <v>112123.1318897053</v>
+        <v>28664.38886317787</v>
       </c>
       <c r="M11" t="n">
-        <v>40572.27141671356</v>
+        <v>38745.74707449323</v>
       </c>
       <c r="N11" t="n">
-        <v>38745.74707449323</v>
+        <v>213016.4309113409</v>
       </c>
       <c r="O11" t="n">
+        <v>96904.21886812226</v>
+      </c>
+      <c r="P11" t="n">
         <v>121249.7664627177</v>
       </c>
-      <c r="P11" t="n">
-        <v>14910.75448535595</v>
-      </c>
       <c r="Q11" t="n">
+        <v>16665.64208759849</v>
+      </c>
+      <c r="R11" t="n">
         <v>248027.4634374999</v>
-      </c>
-      <c r="R11" t="n">
-        <v>226715.324022061</v>
       </c>
       <c r="S11" t="n">
         <v>147616.8994999999</v>
@@ -13752,43 +13752,43 @@
         <v>66308.86620490329</v>
       </c>
       <c r="F12" t="n">
-        <v>55229.67635329387</v>
+        <v>50028.53822716197</v>
       </c>
       <c r="G12" t="n">
-        <v>52933.52455609913</v>
+        <v>121809.7087365097</v>
       </c>
       <c r="H12" t="n">
-        <v>121809.7087365097</v>
+        <v>108616.4824920849</v>
       </c>
       <c r="I12" t="n">
-        <v>92556.85545377075</v>
+        <v>40456.11755226132</v>
       </c>
       <c r="J12" t="n">
-        <v>48925.92338043567</v>
+        <v>43508.57121388373</v>
       </c>
       <c r="K12" t="n">
-        <v>108616.4824920849</v>
+        <v>112739.0718483844</v>
       </c>
       <c r="L12" t="n">
-        <v>112739.0718483844</v>
+        <v>23049.62204810558</v>
       </c>
       <c r="M12" t="n">
-        <v>41562.82976063904</v>
+        <v>43055.44026560965</v>
       </c>
       <c r="N12" t="n">
-        <v>43055.44026560965</v>
+        <v>205654.8512791432</v>
       </c>
       <c r="O12" t="n">
+        <v>84336.45798878658</v>
+      </c>
+      <c r="P12" t="n">
         <v>122515.8638107193</v>
       </c>
-      <c r="P12" t="n">
-        <v>-1786.645308613728</v>
-      </c>
       <c r="Q12" t="n">
+        <v>-3016.02734494216</v>
+      </c>
+      <c r="R12" t="n">
         <v>246708.943540039</v>
-      </c>
-      <c r="R12" t="n">
-        <v>232130.065417666</v>
       </c>
       <c r="S12" t="n">
         <v>155969.5819999998</v>
@@ -13811,43 +13811,43 @@
         <v>65082.73305116723</v>
       </c>
       <c r="F13" t="n">
-        <v>50941.16946811698</v>
+        <v>49780.08431668363</v>
       </c>
       <c r="G13" t="n">
-        <v>32809.57549667058</v>
+        <v>126309.777365862</v>
       </c>
       <c r="H13" t="n">
-        <v>126309.777365862</v>
+        <v>108608.9980969615</v>
       </c>
       <c r="I13" t="n">
-        <v>96806.73900072505</v>
+        <v>35556.86436689672</v>
       </c>
       <c r="J13" t="n">
-        <v>54251.34912321385</v>
+        <v>42642.94582437452</v>
       </c>
       <c r="K13" t="n">
-        <v>108608.9980969615</v>
+        <v>112741.7770592093</v>
       </c>
       <c r="L13" t="n">
-        <v>112741.7770592093</v>
+        <v>41433.12056708273</v>
       </c>
       <c r="M13" t="n">
-        <v>40699.60219850299</v>
+        <v>37670.29100100447</v>
       </c>
       <c r="N13" t="n">
-        <v>37670.29100100447</v>
+        <v>207579.8798081213</v>
       </c>
       <c r="O13" t="n">
+        <v>88910.28433784343</v>
+      </c>
+      <c r="P13" t="n">
         <v>123774.0605964948</v>
       </c>
-      <c r="P13" t="n">
-        <v>6366.165759484124</v>
-      </c>
       <c r="Q13" t="n">
+        <v>3735.297110050596</v>
+      </c>
+      <c r="R13" t="n">
         <v>277375.164243164</v>
-      </c>
-      <c r="R13" t="n">
-        <v>267327.1662163755</v>
       </c>
       <c r="S13" t="n">
         <v>149409.9014999999</v>
@@ -13870,43 +13870,43 @@
         <v>81222.56981826788</v>
       </c>
       <c r="F14" t="n">
-        <v>54945.83453507956</v>
+        <v>54184.99655938621</v>
       </c>
       <c r="G14" t="n">
-        <v>55656.66041213746</v>
+        <v>131362.9455273665</v>
       </c>
       <c r="H14" t="n">
-        <v>131362.9455273665</v>
+        <v>108621.5229017035</v>
       </c>
       <c r="I14" t="n">
-        <v>102148.2253327949</v>
+        <v>42815.44377819415</v>
       </c>
       <c r="J14" t="n">
-        <v>45603.68663389202</v>
+        <v>44855.33150619503</v>
       </c>
       <c r="K14" t="n">
-        <v>108621.5229017035</v>
+        <v>113799.5491334911</v>
       </c>
       <c r="L14" t="n">
-        <v>113799.5491334911</v>
+        <v>48062.1133501118</v>
       </c>
       <c r="M14" t="n">
-        <v>39798.40741832492</v>
+        <v>42972.37177798508</v>
       </c>
       <c r="N14" t="n">
-        <v>42972.37177798508</v>
+        <v>219200.2220235104</v>
       </c>
       <c r="O14" t="n">
+        <v>94940.43076935955</v>
+      </c>
+      <c r="P14" t="n">
         <v>125047.3062831409</v>
       </c>
-      <c r="P14" t="n">
-        <v>5166.13884624727</v>
-      </c>
       <c r="Q14" t="n">
+        <v>5097.058871282972</v>
+      </c>
+      <c r="R14" t="n">
         <v>289331.5421728515</v>
-      </c>
-      <c r="R14" t="n">
-        <v>282638.6117690908</v>
       </c>
       <c r="S14" t="n">
         <v>157678.8884999999</v>
@@ -13929,43 +13929,43 @@
         <v>77874.7301108164</v>
       </c>
       <c r="F15" t="n">
-        <v>55796.0812781794</v>
+        <v>48636.79720664601</v>
       </c>
       <c r="G15" t="n">
-        <v>55670.88557965751</v>
+        <v>153634.3331884501</v>
       </c>
       <c r="H15" t="n">
-        <v>153634.3331884501</v>
+        <v>108619.5005384033</v>
       </c>
       <c r="I15" t="n">
-        <v>110540.7592823237</v>
+        <v>44770.36881319996</v>
       </c>
       <c r="J15" t="n">
-        <v>63863.42360669727</v>
+        <v>41109.28119839844</v>
       </c>
       <c r="K15" t="n">
-        <v>108619.5005384033</v>
+        <v>113954.8626705353</v>
       </c>
       <c r="L15" t="n">
-        <v>113954.8626705353</v>
+        <v>26582.08612533418</v>
       </c>
       <c r="M15" t="n">
-        <v>43042.41545131143</v>
+        <v>35601.12773515782</v>
       </c>
       <c r="N15" t="n">
-        <v>35601.12773515782</v>
+        <v>235510.9304400096</v>
       </c>
       <c r="O15" t="n">
+        <v>100971.0736920542</v>
+      </c>
+      <c r="P15" t="n">
         <v>126307.2265927834</v>
       </c>
-      <c r="P15" t="n">
-        <v>8323.508664778275</v>
-      </c>
       <c r="Q15" t="n">
+        <v>7806.595759130088</v>
+      </c>
+      <c r="R15" t="n">
         <v>304092.2980322265</v>
-      </c>
-      <c r="R15" t="n">
-        <v>303825.3237000869</v>
       </c>
       <c r="S15" t="n">
         <v>171534.2509999998</v>
@@ -13988,43 +13988,43 @@
         <v>34843.13025493772</v>
       </c>
       <c r="F16" t="n">
-        <v>29652.37462137234</v>
+        <v>25672.80195358914</v>
       </c>
       <c r="G16" t="n">
-        <v>30587.43347270427</v>
+        <v>112665.3790717116</v>
       </c>
       <c r="H16" t="n">
-        <v>112665.3790717116</v>
+        <v>108608.244363472</v>
       </c>
       <c r="I16" t="n">
-        <v>85952.0615193652</v>
+        <v>44632.46299786743</v>
       </c>
       <c r="J16" t="n">
-        <v>60186.48314938421</v>
+        <v>41191.97226546105</v>
       </c>
       <c r="K16" t="n">
-        <v>108608.244363472</v>
+        <v>112235.3047073869</v>
       </c>
       <c r="L16" t="n">
-        <v>112235.3047073869</v>
+        <v>19408.61502407877</v>
       </c>
       <c r="M16" t="n">
-        <v>42316.14233980116</v>
+        <v>3299.520914896822</v>
       </c>
       <c r="N16" t="n">
-        <v>3299.520914896822</v>
+        <v>196158.1812667304</v>
       </c>
       <c r="O16" t="n">
+        <v>74283.82643335758</v>
+      </c>
+      <c r="P16" t="n">
         <v>127546.8030776027</v>
       </c>
-      <c r="P16" t="n">
-        <v>-17579.18187246034</v>
-      </c>
       <c r="Q16" t="n">
+        <v>-18852.79078178151</v>
+      </c>
+      <c r="R16" t="n">
         <v>273007.7667822265</v>
-      </c>
-      <c r="R16" t="n">
-        <v>271762.2242416042</v>
       </c>
       <c r="S16" t="n">
         <v>138308.6824999998</v>
@@ -14047,43 +14047,43 @@
         <v>58890.02923473548</v>
       </c>
       <c r="F17" t="n">
-        <v>40978.11841886632</v>
+        <v>36472.26274514982</v>
       </c>
       <c r="G17" t="n">
-        <v>46298.98861748275</v>
+        <v>136499.9436413923</v>
       </c>
       <c r="H17" t="n">
-        <v>136499.9436413923</v>
+        <v>108621.0218086499</v>
       </c>
       <c r="I17" t="n">
-        <v>95189.57517558035</v>
+        <v>50557.40383075114</v>
       </c>
       <c r="J17" t="n">
-        <v>53255.60357648249</v>
+        <v>44588.67756981608</v>
       </c>
       <c r="K17" t="n">
-        <v>108621.0218086499</v>
+        <v>113851.6833386489</v>
       </c>
       <c r="L17" t="n">
-        <v>113851.6833386489</v>
+        <v>12105.4840772663</v>
       </c>
       <c r="M17" t="n">
-        <v>39237.96299988386</v>
+        <v>15718.39988815706</v>
       </c>
       <c r="N17" t="n">
-        <v>15718.39988815706</v>
+        <v>220902.701705723</v>
       </c>
       <c r="O17" t="n">
+        <v>80827.2343409516</v>
+      </c>
+      <c r="P17" t="n">
         <v>128839.2876295145</v>
       </c>
-      <c r="P17" t="n">
-        <v>14519.66543861525</v>
-      </c>
       <c r="Q17" t="n">
+        <v>12453.03116352153</v>
+      </c>
+      <c r="R17" t="n">
         <v>312632.5792822265</v>
-      </c>
-      <c r="R17" t="n">
-        <v>321357.6546199889</v>
       </c>
       <c r="S17" t="n">
         <v>156821.1725499998</v>
@@ -14106,43 +14106,43 @@
         <v>80160.36161462835</v>
       </c>
       <c r="F18" t="n">
-        <v>57292.39850650959</v>
+        <v>54011.43748977</v>
       </c>
       <c r="G18" t="n">
-        <v>44851.4160255992</v>
+        <v>161971.4570134279</v>
       </c>
       <c r="H18" t="n">
-        <v>161971.4570134279</v>
+        <v>108631.1697452593</v>
       </c>
       <c r="I18" t="n">
-        <v>107169.1111856221</v>
+        <v>42806.18900587675</v>
       </c>
       <c r="J18" t="n">
-        <v>54660.1932520401</v>
+        <v>41730.88801249382</v>
       </c>
       <c r="K18" t="n">
-        <v>108631.1697452593</v>
+        <v>114814.6003229145</v>
       </c>
       <c r="L18" t="n">
-        <v>114814.6003229145</v>
+        <v>35763.56938301263</v>
       </c>
       <c r="M18" t="n">
-        <v>43755.7642409211</v>
+        <v>34304.73257755489</v>
       </c>
       <c r="N18" t="n">
-        <v>34304.73257755489</v>
+        <v>274212.6415260013</v>
       </c>
       <c r="O18" t="n">
+        <v>92176.04427438152</v>
+      </c>
+      <c r="P18" t="n">
         <v>130111.2907800707</v>
       </c>
-      <c r="P18" t="n">
-        <v>11386.14291829283</v>
-      </c>
       <c r="Q18" t="n">
+        <v>13842.55555339214</v>
+      </c>
+      <c r="R18" t="n">
         <v>329902.0167822265</v>
-      </c>
-      <c r="R18" t="n">
-        <v>352855.7610576128</v>
       </c>
       <c r="S18" t="n">
         <v>177077.0160499998</v>
@@ -14165,43 +14165,43 @@
         <v>78226.71638218292</v>
       </c>
       <c r="F19" t="n">
-        <v>51992.7649441733</v>
+        <v>52723.19068404158</v>
       </c>
       <c r="G19" t="n">
-        <v>28618.5777402067</v>
+        <v>146630.0894843643</v>
       </c>
       <c r="H19" t="n">
-        <v>146630.0894843643</v>
+        <v>108638.2262634838</v>
       </c>
       <c r="I19" t="n">
-        <v>96884.45969617515</v>
+        <v>43754.96496513006</v>
       </c>
       <c r="J19" t="n">
-        <v>48738.33626461741</v>
+        <v>39916.84261651275</v>
       </c>
       <c r="K19" t="n">
-        <v>108638.2262634838</v>
+        <v>115387.1344932262</v>
       </c>
       <c r="L19" t="n">
-        <v>115387.1344932262</v>
+        <v>36843.93137776074</v>
       </c>
       <c r="M19" t="n">
-        <v>38045.84477550146</v>
+        <v>42185.63954230393</v>
       </c>
       <c r="N19" t="n">
-        <v>42185.63954230393</v>
+        <v>258708.4564384873</v>
       </c>
       <c r="O19" t="n">
+        <v>82856.64468804389</v>
+      </c>
+      <c r="P19" t="n">
         <v>131377.426279063</v>
       </c>
-      <c r="P19" t="n">
-        <v>1331.201813396861</v>
-      </c>
       <c r="Q19" t="n">
+        <v>-1652.601518446054</v>
+      </c>
+      <c r="R19" t="n">
         <v>350185.3507666015</v>
-      </c>
-      <c r="R19" t="n">
-        <v>372938.9198768232</v>
       </c>
       <c r="S19" t="n">
         <v>180084.5504999998</v>
@@ -14224,43 +14224,43 @@
         <v>72196.80562126449</v>
       </c>
       <c r="F20" t="n">
-        <v>53225.69037872017</v>
+        <v>51581.75620381772</v>
       </c>
       <c r="G20" t="n">
-        <v>31390.94186591802</v>
+        <v>150712.77571313</v>
       </c>
       <c r="H20" t="n">
-        <v>150712.77571313</v>
+        <v>108632.4081260431</v>
       </c>
       <c r="I20" t="n">
-        <v>100636.2683175303</v>
+        <v>42587.60487466391</v>
       </c>
       <c r="J20" t="n">
-        <v>62832.46785801287</v>
+        <v>47618.13991769191</v>
       </c>
       <c r="K20" t="n">
-        <v>108632.4081260431</v>
+        <v>115444.152164956</v>
       </c>
       <c r="L20" t="n">
-        <v>115444.152164956</v>
+        <v>32311.57166796265</v>
       </c>
       <c r="M20" t="n">
-        <v>39801.44596070465</v>
+        <v>41166.66873265</v>
       </c>
       <c r="N20" t="n">
-        <v>41166.66873265</v>
+        <v>263564.5636245669</v>
       </c>
       <c r="O20" t="n">
+        <v>86795.53816965195</v>
+      </c>
+      <c r="P20" t="n">
         <v>132637.0051096813</v>
       </c>
-      <c r="P20" t="n">
-        <v>5771.166453200151</v>
-      </c>
       <c r="Q20" t="n">
+        <v>4784.9391274855</v>
+      </c>
+      <c r="R20" t="n">
         <v>386164.4757666015</v>
-      </c>
-      <c r="R20" t="n">
-        <v>390560.8525861913</v>
       </c>
       <c r="S20" t="n">
         <v>177252.9939999998</v>
@@ -14283,43 +14283,43 @@
         <v>88804.62996851582</v>
       </c>
       <c r="F21" t="n">
-        <v>59712.98876984292</v>
+        <v>55218.53803126805</v>
       </c>
       <c r="G21" t="n">
-        <v>63357.02576421614</v>
+        <v>164604.6912558211</v>
       </c>
       <c r="H21" t="n">
-        <v>164604.6912558211</v>
+        <v>108645.223989521</v>
       </c>
       <c r="I21" t="n">
-        <v>105771.8644884557</v>
+        <v>47222.52752453204</v>
       </c>
       <c r="J21" t="n">
-        <v>56888.23114844079</v>
+        <v>44939.84440431174</v>
       </c>
       <c r="K21" t="n">
-        <v>108645.223989521</v>
+        <v>116535.0780884813</v>
       </c>
       <c r="L21" t="n">
-        <v>116535.0780884813</v>
+        <v>39765.54326879498</v>
       </c>
       <c r="M21" t="n">
-        <v>43143.81345500585</v>
+        <v>47781.19574167953</v>
       </c>
       <c r="N21" t="n">
-        <v>47781.19574167953</v>
+        <v>277707.4588577683</v>
       </c>
       <c r="O21" t="n">
+        <v>92457.76095044329</v>
+      </c>
+      <c r="P21" t="n">
         <v>133910.3105207213</v>
       </c>
-      <c r="P21" t="n">
-        <v>7266.437067716623</v>
-      </c>
       <c r="Q21" t="n">
+        <v>6551.657952186461</v>
+      </c>
+      <c r="R21" t="n">
         <v>396614.254086914</v>
-      </c>
-      <c r="R21" t="n">
-        <v>416546.0567084707</v>
       </c>
       <c r="S21" t="n">
         <v>189962.8994999997</v>
@@ -14342,43 +14342,43 @@
         <v>82470.24838753346</v>
       </c>
       <c r="F22" t="n">
-        <v>55204.60952380184</v>
+        <v>50299.7919181383</v>
       </c>
       <c r="G22" t="n">
-        <v>58861.99579338785</v>
+        <v>180855.9090377101</v>
       </c>
       <c r="H22" t="n">
-        <v>180855.9090377101</v>
+        <v>108641.8223799719</v>
       </c>
       <c r="I22" t="n">
-        <v>111503.9393138333</v>
+        <v>48071.89881566699</v>
       </c>
       <c r="J22" t="n">
-        <v>53686.85978680189</v>
+        <v>42014.98687109765</v>
       </c>
       <c r="K22" t="n">
-        <v>108641.8223799719</v>
+        <v>116642.8575468053</v>
       </c>
       <c r="L22" t="n">
-        <v>116642.8575468053</v>
+        <v>28751.83998970864</v>
       </c>
       <c r="M22" t="n">
-        <v>40623.59333592829</v>
+        <v>34634.16139973752</v>
       </c>
       <c r="N22" t="n">
-        <v>34634.16139973752</v>
+        <v>290586.9958633477</v>
       </c>
       <c r="O22" t="n">
+        <v>97882.07538786538</v>
+      </c>
+      <c r="P22" t="n">
         <v>135169.7856790213</v>
       </c>
-      <c r="P22" t="n">
-        <v>11187.60319115853</v>
-      </c>
       <c r="Q22" t="n">
+        <v>8417.687969027927</v>
+      </c>
+      <c r="R22" t="n">
         <v>428253.170102539</v>
-      </c>
-      <c r="R22" t="n">
-        <v>465025.4206701384</v>
       </c>
       <c r="S22" t="n">
         <v>203818.2619999997</v>
@@ -14401,43 +14401,43 @@
         <v>39619.41852553776</v>
       </c>
       <c r="F23" t="n">
-        <v>30814.37370157041</v>
+        <v>26523.76663303111</v>
       </c>
       <c r="G23" t="n">
-        <v>36987.97252467152</v>
+        <v>139175.7267803983</v>
       </c>
       <c r="H23" t="n">
-        <v>139175.7267803983</v>
+        <v>108633.3886024905</v>
       </c>
       <c r="I23" t="n">
-        <v>89075.69148335668</v>
+        <v>49658.26063296791</v>
       </c>
       <c r="J23" t="n">
-        <v>47785.18855802115</v>
+        <v>51161.23565731521</v>
       </c>
       <c r="K23" t="n">
-        <v>108633.3886024905</v>
+        <v>115156.0087903664</v>
       </c>
       <c r="L23" t="n">
-        <v>115156.0087903664</v>
+        <v>1434.937279371953</v>
       </c>
       <c r="M23" t="n">
-        <v>47515.52196673747</v>
+        <v>6003.950612402226</v>
       </c>
       <c r="N23" t="n">
-        <v>6003.950612402226</v>
+        <v>259189.9249596988</v>
       </c>
       <c r="O23" t="n">
+        <v>75080.72661090945</v>
+      </c>
+      <c r="P23" t="n">
         <v>136411.8039685281</v>
       </c>
-      <c r="P23" t="n">
-        <v>-18485.60882756436</v>
-      </c>
       <c r="Q23" t="n">
+        <v>-18087.93694562641</v>
+      </c>
+      <c r="R23" t="n">
         <v>392775.533383789</v>
-      </c>
-      <c r="R23" t="n">
-        <v>424516.1507446769</v>
       </c>
       <c r="S23" t="n">
         <v>170308.8214999997</v>
@@ -14460,43 +14460,43 @@
         <v>56825.01563897256</v>
       </c>
       <c r="F24" t="n">
-        <v>41407.07661016977</v>
+        <v>37450.65254565767</v>
       </c>
       <c r="G24" t="n">
-        <v>37935.35379620847</v>
+        <v>162922.7549785968</v>
       </c>
       <c r="H24" t="n">
-        <v>162922.7549785968</v>
+        <v>108646.026101446</v>
       </c>
       <c r="I24" t="n">
-        <v>97744.81055261153</v>
+        <v>53022.0597206461</v>
       </c>
       <c r="J24" t="n">
-        <v>50259.27072475549</v>
+        <v>40903.40781741735</v>
       </c>
       <c r="K24" t="n">
-        <v>108646.026101446</v>
+        <v>116670.1368676712</v>
       </c>
       <c r="L24" t="n">
-        <v>116670.1368676712</v>
+        <v>9244.788650873743</v>
       </c>
       <c r="M24" t="n">
-        <v>42670.60011955794</v>
+        <v>20417.49800427219</v>
       </c>
       <c r="N24" t="n">
-        <v>20417.49800427219</v>
+        <v>291284.0320742299</v>
       </c>
       <c r="O24" t="n">
+        <v>81028.07664503461</v>
+      </c>
+      <c r="P24" t="n">
         <v>137699.7852029626</v>
       </c>
-      <c r="P24" t="n">
-        <v>12913.50177920778</v>
-      </c>
       <c r="Q24" t="n">
+        <v>12467.53346850696</v>
+      </c>
+      <c r="R24" t="n">
         <v>430537.224790039</v>
-      </c>
-      <c r="R24" t="n">
-        <v>462857.456773895</v>
       </c>
       <c r="S24" t="n">
         <v>185901.1679999997</v>
@@ -14519,43 +14519,43 @@
         <v>85660.2135638827</v>
       </c>
       <c r="F25" t="n">
-        <v>63248.89504667967</v>
+        <v>57495.65936369329</v>
       </c>
       <c r="G25" t="n">
-        <v>68130.66968487973</v>
+        <v>189039.6403911478</v>
       </c>
       <c r="H25" t="n">
-        <v>189039.6403911478</v>
+        <v>108653.4171279443</v>
       </c>
       <c r="I25" t="n">
-        <v>107089.5519249349</v>
+        <v>51582.05921520408</v>
       </c>
       <c r="J25" t="n">
-        <v>64379.38039932723</v>
+        <v>44974.89928141471</v>
       </c>
       <c r="K25" t="n">
-        <v>108653.4171279443</v>
+        <v>117406.9754921157</v>
       </c>
       <c r="L25" t="n">
-        <v>117406.9754921157</v>
+        <v>39821.22399161514</v>
       </c>
       <c r="M25" t="n">
-        <v>44140.7821849316</v>
+        <v>36385.80983183318</v>
       </c>
       <c r="N25" t="n">
-        <v>36385.80983183318</v>
+        <v>311553.6185917933</v>
       </c>
       <c r="O25" t="n">
+        <v>90289.5691234918</v>
+      </c>
+      <c r="P25" t="n">
         <v>138968.0931758936</v>
       </c>
-      <c r="P25" t="n">
-        <v>14131.99213551943</v>
-      </c>
       <c r="Q25" t="n">
+        <v>13787.90371565913</v>
+      </c>
+      <c r="R25" t="n">
         <v>475642.572446289</v>
-      </c>
-      <c r="R25" t="n">
-        <v>488984.7820280274</v>
       </c>
       <c r="S25" t="n">
         <v>210879.0624999998</v>
@@ -14578,43 +14578,43 @@
         <v>82866.29273821994</v>
       </c>
       <c r="F26" t="n">
-        <v>58855.21880698537</v>
+        <v>53365.74182366347</v>
       </c>
       <c r="G26" t="n">
-        <v>49963.04034817334</v>
+        <v>166831.7525463003</v>
       </c>
       <c r="H26" t="n">
-        <v>166831.7525463003</v>
+        <v>108661.5491107109</v>
       </c>
       <c r="I26" t="n">
-        <v>97037.85160146587</v>
+        <v>52091.00697397406</v>
       </c>
       <c r="J26" t="n">
-        <v>60441.53949695702</v>
+        <v>45890.98259566005</v>
       </c>
       <c r="K26" t="n">
-        <v>108661.5491107109</v>
+        <v>118000.6202800668</v>
       </c>
       <c r="L26" t="n">
-        <v>118000.6202800668</v>
+        <v>19501.50737426399</v>
       </c>
       <c r="M26" t="n">
-        <v>45505.25598202106</v>
+        <v>43484.79975885239</v>
       </c>
       <c r="N26" t="n">
-        <v>43484.79975885239</v>
+        <v>314316.6804106178</v>
       </c>
       <c r="O26" t="n">
+        <v>85782.29073399487</v>
+      </c>
+      <c r="P26" t="n">
         <v>140233.2173339174</v>
       </c>
-      <c r="P26" t="n">
-        <v>-679.4015887265243</v>
-      </c>
       <c r="Q26" t="n">
+        <v>-2871.289327419982</v>
+      </c>
+      <c r="R26" t="n">
         <v>475992.7460913085</v>
-      </c>
-      <c r="R26" t="n">
-        <v>529885.8934718403</v>
       </c>
       <c r="S26" t="n">
         <v>205641.1004999997</v>
@@ -14637,43 +14637,43 @@
         <v>69610.65928468276</v>
       </c>
       <c r="F27" t="n">
-        <v>60112.64410178467</v>
+        <v>54769.07539950891</v>
       </c>
       <c r="G27" t="n">
-        <v>57878.5629769599</v>
+        <v>172818.8638770896</v>
       </c>
       <c r="H27" t="n">
-        <v>172818.8638770896</v>
+        <v>108658.7049709763</v>
       </c>
       <c r="I27" t="n">
-        <v>101686.6509055745</v>
+        <v>51558.19096324142</v>
       </c>
       <c r="J27" t="n">
-        <v>72021.64131373758</v>
+        <v>47022.73122831043</v>
       </c>
       <c r="K27" t="n">
-        <v>108658.7049709763</v>
+        <v>118183.953806468</v>
       </c>
       <c r="L27" t="n">
-        <v>118183.953806468</v>
+        <v>38606.18240810808</v>
       </c>
       <c r="M27" t="n">
-        <v>44691.8812248927</v>
+        <v>42577.17518684345</v>
       </c>
       <c r="N27" t="n">
-        <v>42577.17518684345</v>
+        <v>321346.6718031807</v>
       </c>
       <c r="O27" t="n">
+        <v>90476.0004998575</v>
+      </c>
+      <c r="P27" t="n">
         <v>141491.4845697752</v>
       </c>
-      <c r="P27" t="n">
-        <v>2897.105064981894</v>
-      </c>
       <c r="Q27" t="n">
+        <v>3442.307526004711</v>
+      </c>
+      <c r="R27" t="n">
         <v>494461.8261694335</v>
-      </c>
-      <c r="R27" t="n">
-        <v>531046.4272818672</v>
       </c>
       <c r="S27" t="n">
         <v>202663.8099999997</v>
@@ -14696,43 +14696,43 @@
         <v>85153.01132789908</v>
       </c>
       <c r="F28" t="n">
-        <v>59958.08481670553</v>
+        <v>55624.58159533078</v>
       </c>
       <c r="G28" t="n">
-        <v>46543.89383891579</v>
+        <v>188342.2103608764</v>
       </c>
       <c r="H28" t="n">
-        <v>188342.2103608764</v>
+        <v>108670.0917251855</v>
       </c>
       <c r="I28" t="n">
-        <v>106552.2346352892</v>
+        <v>51564.97348169501</v>
       </c>
       <c r="J28" t="n">
-        <v>66811.98759515518</v>
+        <v>49002.42734097</v>
       </c>
       <c r="K28" t="n">
-        <v>108670.0917251855</v>
+        <v>119102.5489063244</v>
       </c>
       <c r="L28" t="n">
-        <v>119102.5489063244</v>
+        <v>27771.58809677301</v>
       </c>
       <c r="M28" t="n">
-        <v>45317.63003499027</v>
+        <v>47981.4871920303</v>
       </c>
       <c r="N28" t="n">
-        <v>47981.4871920303</v>
+        <v>330717.5052236887</v>
       </c>
       <c r="O28" t="n">
+        <v>96011.50179029202</v>
+      </c>
+      <c r="P28" t="n">
         <v>142761.6242846684</v>
       </c>
-      <c r="P28" t="n">
-        <v>7029.225386919059</v>
-      </c>
       <c r="Q28" t="n">
+        <v>5856.640400882113</v>
+      </c>
+      <c r="R28" t="n">
         <v>510651.2246069335</v>
-      </c>
-      <c r="R28" t="n">
-        <v>557217.7849192807</v>
       </c>
       <c r="S28" t="n">
         <v>207144.9414999998</v>
@@ -14755,43 +14755,43 @@
         <v>83364.98554419036</v>
       </c>
       <c r="F29" t="n">
-        <v>59341.72740351967</v>
+        <v>52394.95338323586</v>
       </c>
       <c r="G29" t="n">
-        <v>60128.54698030348</v>
+        <v>202427.876313284</v>
       </c>
       <c r="H29" t="n">
-        <v>202427.876313284</v>
+        <v>108668.7966590445</v>
       </c>
       <c r="I29" t="n">
-        <v>111867.2498553927</v>
+        <v>52246.60687847849</v>
       </c>
       <c r="J29" t="n">
-        <v>67091.23578812832</v>
+        <v>52490.80990215178</v>
       </c>
       <c r="K29" t="n">
-        <v>108668.7966590445</v>
+        <v>119227.9233478963</v>
       </c>
       <c r="L29" t="n">
-        <v>119227.9233478963</v>
+        <v>18144.26265457211</v>
       </c>
       <c r="M29" t="n">
-        <v>44289.31480875727</v>
+        <v>39026.39812035518</v>
       </c>
       <c r="N29" t="n">
-        <v>39026.39812035518</v>
+        <v>342856.2162881251</v>
       </c>
       <c r="O29" t="n">
+        <v>101128.4305650802</v>
+      </c>
+      <c r="P29" t="n">
         <v>144020.3243834588</v>
       </c>
-      <c r="P29" t="n">
-        <v>9700.606712793549</v>
-      </c>
       <c r="Q29" t="n">
+        <v>8717.690327983895</v>
+      </c>
+      <c r="R29" t="n">
         <v>554970.7675756835</v>
-      </c>
-      <c r="R29" t="n">
-        <v>582303.6587793416</v>
       </c>
       <c r="S29" t="n">
         <v>214688.2729999997</v>
@@ -14814,43 +14814,43 @@
         <v>47315.34007945612</v>
       </c>
       <c r="F30" t="n">
-        <v>36540.59490897997</v>
+        <v>30836.50336137279</v>
       </c>
       <c r="G30" t="n">
-        <v>43925.79641274568</v>
+        <v>165006.2782633696</v>
       </c>
       <c r="H30" t="n">
-        <v>165006.2782633696</v>
+        <v>108665.3219632149</v>
       </c>
       <c r="I30" t="n">
-        <v>91573.58646486021</v>
+        <v>53744.15847681041</v>
       </c>
       <c r="J30" t="n">
-        <v>74476.98418449634</v>
+        <v>52386.72283699032</v>
       </c>
       <c r="K30" t="n">
-        <v>108665.3219632149</v>
+        <v>118010.6684151843</v>
       </c>
       <c r="L30" t="n">
-        <v>118010.6684151843</v>
+        <v>19956.24352442084</v>
       </c>
       <c r="M30" t="n">
-        <v>47612.9850742298</v>
+        <v>6129.476665923661</v>
       </c>
       <c r="N30" t="n">
-        <v>6129.476665923661</v>
+        <v>310062.6812383055</v>
       </c>
       <c r="O30" t="n">
+        <v>79623.9004398243</v>
+      </c>
+      <c r="P30" t="n">
         <v>145264.3406380354</v>
       </c>
-      <c r="P30" t="n">
-        <v>-18735.16683167071</v>
-      </c>
       <c r="Q30" t="n">
+        <v>-18606.69870938322</v>
+      </c>
+      <c r="R30" t="n">
         <v>507368.9707006835</v>
-      </c>
-      <c r="R30" t="n">
-        <v>542218.0508662695</v>
       </c>
       <c r="S30" t="n">
         <v>182041.4809499997</v>
@@ -14873,43 +14873,43 @@
         <v>62913.81865436349</v>
       </c>
       <c r="F31" t="n">
-        <v>47536.70530549905</v>
+        <v>41707.61354226819</v>
       </c>
       <c r="G31" t="n">
-        <v>46552.46582907971</v>
+        <v>190157.1966619115</v>
       </c>
       <c r="H31" t="n">
-        <v>190157.1966619115</v>
+        <v>108677.1245657751</v>
       </c>
       <c r="I31" t="n">
-        <v>97645.10400496198</v>
+        <v>57208.03854289169</v>
       </c>
       <c r="J31" t="n">
-        <v>70194.34800241822</v>
+        <v>51111.07220260736</v>
       </c>
       <c r="K31" t="n">
-        <v>108677.1245657751</v>
+        <v>119464.4928622757</v>
       </c>
       <c r="L31" t="n">
-        <v>119464.4928622757</v>
+        <v>16307.53497657745</v>
       </c>
       <c r="M31" t="n">
-        <v>48683.47423319455</v>
+        <v>22528.89567107038</v>
       </c>
       <c r="N31" t="n">
-        <v>22528.89567107038</v>
+        <v>339225.7276567676</v>
       </c>
       <c r="O31" t="n">
+        <v>85282.56601327904</v>
+      </c>
+      <c r="P31" t="n">
         <v>146551.3813848465</v>
       </c>
-      <c r="P31" t="n">
-        <v>13626.66506337853</v>
-      </c>
       <c r="Q31" t="n">
+        <v>12157.06093274394</v>
+      </c>
+      <c r="R31" t="n">
         <v>543873.2402319335</v>
-      </c>
-      <c r="R31" t="n">
-        <v>593626.0960216564</v>
       </c>
       <c r="S31" t="n">
         <v>197869.0969499997</v>
